--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
-    <sheet name="兵器数值" sheetId="2" r:id="rId2"/>
-    <sheet name="秘籍数值" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>临安府</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,83 +357,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1秘籍id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2秘籍名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3暴击1.25倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4暴击1.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5暴击2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6兵器长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7外功增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8固定伤害增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9伤害比例增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10攻速增量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11材料一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12材料一数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13材料二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14材料三数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15材料四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16材料四数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17材料五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18材料五数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗布缠手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2秘籍名称</t>
+    <t>38兵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39秘籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001|12002|14001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +476,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -921,18 +852,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK66"/>
+  <dimension ref="A1:AM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM10" activeCellId="1" sqref="AM10 AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1044,8 +976,14 @@
       <c r="AK1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -1101,6 +1039,12 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>100001</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="T2">
         <v>0</v>
       </c>
@@ -1163,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:39">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:39">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1399,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:39">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -1516,13 +1460,16 @@
       <c r="AK5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5">
+        <v>100002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:39">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1640,27 +1587,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1788,132 +1735,6 @@
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>100001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="3840" windowWidth="28260" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="157">
   <si>
     <t>临安府</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,66 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侠客1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠客3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>partner1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partner3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临安郊外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20武功类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37武功类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,15 +305,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001|12002|14001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>20武功类型(0外功 1内功)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木桩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段阴徳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲灵风</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>12001</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>00001002</t>
+  </si>
+  <si>
+    <t>00001003</t>
+  </si>
+  <si>
+    <t>00001001</t>
+  </si>
+  <si>
+    <t>00001004</t>
+  </si>
+  <si>
+    <t>204001</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>40001</t>
+  </si>
+  <si>
+    <t>40013</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>0002002</t>
+  </si>
+  <si>
+    <t>地痞</t>
+  </si>
+  <si>
+    <t>0002003</t>
+  </si>
+  <si>
+    <t>流氓</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>40002</t>
+  </si>
+  <si>
+    <t>203001</t>
+  </si>
+  <si>
+    <t>40003</t>
+  </si>
+  <si>
+    <t>01001001</t>
+  </si>
+  <si>
+    <t>柯镇恶</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>01001002</t>
+  </si>
+  <si>
+    <t>朱聪</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>01001003</t>
+  </si>
+  <si>
+    <t>韩宝驹</t>
+  </si>
+  <si>
+    <t>106004</t>
+  </si>
+  <si>
+    <t>15001</t>
+  </si>
+  <si>
+    <t>01001004</t>
+  </si>
+  <si>
+    <t>南希仁</t>
+  </si>
+  <si>
+    <t>104201</t>
+  </si>
+  <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>全金发</t>
+  </si>
+  <si>
+    <t>01001005</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>11003</t>
+  </si>
+  <si>
+    <t>12003</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>韩小莹</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
+    <t>01001007</t>
+  </si>
+  <si>
+    <t>倭寇</t>
+  </si>
+  <si>
+    <t>40005</t>
+  </si>
+  <si>
+    <t>40004</t>
+  </si>
+  <si>
+    <t>212001</t>
+  </si>
+  <si>
+    <t>40006</t>
+  </si>
+  <si>
+    <t>强盗</t>
+  </si>
+  <si>
+    <t>01001008</t>
+  </si>
+  <si>
+    <t>01001009</t>
+  </si>
+  <si>
+    <t>采花大盗</t>
+  </si>
+  <si>
+    <t>02002001</t>
+  </si>
+  <si>
+    <t>陆乘风</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>02002004</t>
+  </si>
+  <si>
+    <t>梅超风</t>
+  </si>
+  <si>
+    <t>100302</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>陈玄风</t>
+  </si>
+  <si>
+    <t>02002005</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>02002002</t>
+  </si>
+  <si>
+    <t>铁尸梅超风</t>
+  </si>
+  <si>
+    <t>200027</t>
+  </si>
+  <si>
+    <t>200028</t>
+  </si>
+  <si>
+    <t>铜尸陈玄风</t>
+  </si>
+  <si>
+    <t>02002003</t>
+  </si>
+  <si>
+    <t>02002006</t>
+  </si>
+  <si>
+    <t>太湖水贼</t>
+  </si>
+  <si>
+    <t>02002007</t>
+  </si>
+  <si>
+    <t>水寨头领</t>
+  </si>
+  <si>
+    <t>40007</t>
+  </si>
+  <si>
+    <t>40008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +615,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lantinghei SC Extralight"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,7 +641,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -475,14 +683,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="87">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +759,29 @@
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -523,6 +802,29 @@
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,182 +1154,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM66"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AM10" activeCellId="1" sqref="AM10 AM10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AE1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AF1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AG1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AH1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
         <v>63</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AJ1" t="s">
         <v>64</v>
       </c>
-      <c r="W1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AK1" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AL1" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
         <v>70</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:39">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>1+(D2-1)*0.25</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>INT(200+POWER(E2+(G2*0.25)+1,2)*30)</f>
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
         <f>INT(POWER(E2+(I2*0.25)+4,2)*3)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>INT(50+(E2+(K2*0.25)-1)*POWER(E2+(K2*0.25),0.5)*10)</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
         <f>INT(POWER(E2+(M2*0.25)+4,2)*3)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>INT(50+(E2+(O2*0.25)-1)*POWER(E2+(O2*0.25),0.5)*10)</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1039,31 +1342,26 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>100001</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
+      <c r="R2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="U2" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <f>1+(W2-1)*0.25</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <f>INT(POWER(X2+(Z2*0.25),2)*35)</f>
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1077,7 +1375,7 @@
       </c>
       <c r="AC2">
         <f>INT(50+(X2+(AD2*0.25)-1)*POWER(X2+(AD2*0.25),0.5)*10)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1091,7 +1389,7 @@
       </c>
       <c r="AG2">
         <f>INT(50+(X2+(AH2*0.25)-1)*POWER(X2+(AH2*0.25),0.5)*10)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1103,488 +1401,503 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:39">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">1+(D3-1)*0.25</f>
-        <v>1.75</v>
+        <f>1+(D3-1)*0.25</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">INT(200+POWER(E3+(G3*0.25)+1,2)*30)</f>
-        <v>426</v>
+        <f>INT(200+POWER(E3+(G3*0.25)+1,2)*30)</f>
+        <v>320</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="2">INT(POWER(E3+(I3*0.25)+4,2)*3)</f>
-        <v>99</v>
+        <f>INT(POWER(E3+(I3*0.25)+4,2)*3)</f>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="3">INT(50+(E3+(K3*0.25)-1)*POWER(E3+(K3*0.25),0.5)*10)</f>
-        <v>59</v>
+        <f>INT(50+(E3+(K3*0.25)-1)*POWER(E3+(K3*0.25),0.5)*10)</f>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="4">INT(POWER(E3+(M3*0.25)+4,2)*3)</f>
-        <v>99</v>
+        <f>INT(POWER(E3+(M3*0.25)+4,2)*3)</f>
+        <v>75</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N5" si="5">INT(50+(E3+(O3*0.25)-1)*POWER(E3+(O3*0.25),0.5)*10)</f>
-        <v>59</v>
+        <f>INT(50+(E3+(O3*0.25)-1)*POWER(E3+(O3*0.25),0.5)*10)</f>
+        <v>50</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P5" si="6">INT(5+(E3+(Q3*0.25)-1)*POWER(E3+(Q3*0.25),0.2))</f>
+        <f>INT(5+(E3+(Q3*0.25)-1)*POWER(E3+(Q3*0.25),0.2))</f>
         <v>5</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
+      <c r="R3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="3">
+        <v>10001</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W3">
         <v>3</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X5" si="7">1+(W3-1)*0.25</f>
+        <f t="shared" ref="X3:X4" si="0">1+(W3-1)*0.25</f>
         <v>1.5</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y5" si="8">INT(POWER(X3+(Z3*0.25),2)*35)</f>
+        <f t="shared" ref="Y3:Y4" si="1">INT(POWER(X3+(Z3*0.25),2)*35)</f>
         <v>78</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA5" si="9">INT(POWER(X3+(AB3*0.25),3))+40</f>
+        <f t="shared" ref="AA3:AA4" si="2">INT(POWER(X3+(AB3*0.25),3))+40</f>
         <v>43</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC5" si="10">INT(50+(X3+(AD3*0.25)-1)*POWER(X3+(AD3*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC3:AC4" si="3">INT(50+(X3+(AD3*0.25)-1)*POWER(X3+(AD3*0.25),0.5)*10)</f>
         <v>56</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE5" si="11">INT(POWER(X3+(AF3*0.25),3))+40</f>
+        <f t="shared" ref="AE3:AE4" si="4">INT(POWER(X3+(AF3*0.25),3))+40</f>
         <v>43</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG5" si="12">INT(50+(X3+(AH3*0.25)-1)*POWER(X3+(AH3*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG3:AG4" si="5">INT(50+(X3+(AH3*0.25)-1)*POWER(X3+(AH3*0.25),0.5)*10)</f>
         <v>56</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI5" si="13">INT(5+(X3+(AJ3*0.25)-1)*POWER(X3+(AJ3*0.25),0.2))</f>
+        <f t="shared" ref="AI3:AI4" si="6">INT(5+(X3+(AJ3*0.25)-1)*POWER(X3+(AJ3*0.25),0.2))</f>
         <v>5</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
+      <c r="AL3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="B4" t="s">
-        <v>41</v>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
+        <f t="shared" ref="E4" si="7">1+(D4-1)*0.25</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4" si="8">INT(200+POWER(E4+(G4*0.25)+1,2)*30)</f>
+        <v>470</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4" si="9">INT(POWER(E4+(I4*0.25)+4,2)*3)</f>
+        <v>108</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4" si="10">INT(50+(E4+(K4*0.25)-1)*POWER(E4+(K4*0.25),0.5)*10)</f>
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4" si="11">INT(POWER(E4+(M4*0.25)+4,2)*3)</f>
+        <v>108</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4" si="12">INT(50+(E4+(O4*0.25)-1)*POWER(E4+(O4*0.25),0.5)*10)</f>
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4" si="13">INT(5+(E4+(Q4*0.25)-1)*POWER(E4+(Q4*0.25),0.2))</f>
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>369</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+        <v>74</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+        <v>90</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+        <v>74</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+        <v>90</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>1+(D6-1)*0.25</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>INT(200+POWER(E6+(G6*0.25)+1,2)*30)</f>
+        <v>320</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>INT(POWER(E6+(I6*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>INT(50+(E6+(K6*0.25)-1)*POWER(E6+(K6*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>INT(POWER(E6+(M6*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>INT(50+(E6+(O6*0.25)-1)*POWER(E6+(O6*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>INT(5+(E6+(Q6*0.25)-1)*POWER(E6+(Q6*0.25),0.2))</f>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6">
         <v>6</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="7"/>
-        <v>1.75</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="8"/>
-        <v>107</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="12"/>
-        <v>59</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
+      <c r="X6">
+        <f>1+(W6-1)*0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="Y6">
+        <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
+        <v>177</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>INT(POWER(X6+(AF6*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>INT(50+(X6+(AH6*0.25)-1)*POWER(X6+(AH6*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>INT(5+(X6+(AJ6*0.25)-1)*POWER(X6+(AJ6*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5">
-        <v>13</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="8"/>
-        <v>560</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="9"/>
-        <v>104</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="16">
+      <c r="B7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <f>1+(D7-1)*0.25</f>
-        <v>13.25</v>
+        <v>3.25</v>
       </c>
       <c r="F7">
         <f>INT(200+POWER(E7+(G7*0.25)+1,2)*30)</f>
-        <v>6291</v>
+        <v>741</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <f>INT(POWER(E7+(I7*0.25)+4,2)*3)</f>
-        <v>892</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f>INT(50+(E7+(K7*0.25)-1)*POWER(E7+(K7*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>90</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
         <f>INT(POWER(E7+(M7*0.25)+4,2)*3)</f>
-        <v>892</v>
+        <v>157</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
         <f>INT(50+(E7+(O7*0.25)-1)*POWER(E7+(O7*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>90</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
         <f>INT(5+(E7+(Q7*0.25)-1)*POWER(E7+(Q7*0.25),0.2))</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" t="s">
-        <v>35</v>
+      <c r="R7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X7">
         <f>1+(W7-1)*0.25</f>
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y7">
         <f>INT(POWER(X7+(Z7*0.25),2)*35)</f>
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
         <f>INT(POWER(X7+(AF7*0.25),3))+40</f>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
         <f>INT(50+(X7+(AH7*0.25)-1)*POWER(X7+(AH7*0.25),0.5)*10)</f>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
         <f>INT(5+(X7+(AJ7*0.25)-1)*POWER(X7+(AJ7*0.25),0.2))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
+      <c r="AL7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1592,148 +1905,1278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>1+(D9-1)*0.25</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>INT(200+POWER(E9+(G9*0.25)+1,2)*30)</f>
+        <v>320</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>INT(POWER(E9+(I9*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>INT(50+(E9+(K9*0.25)-1)*POWER(E9+(K9*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>INT(POWER(E9+(M9*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>INT(50+(E9+(O9*0.25)-1)*POWER(E9+(O9*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>INT(5+(E9+(Q9*0.25)-1)*POWER(E9+(Q9*0.25),0.2))</f>
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <f>1+(W9-1)*0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="Y9">
+        <f>INT(POWER(X9+(Z9*0.25),2)*35)</f>
+        <v>177</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>INT(POWER(X9+(AB9*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>INT(50+(X9+(AD9*0.25)-1)*POWER(X9+(AD9*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>INT(POWER(X9+(AF9*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>INT(50+(X9+(AH9*0.25)-1)*POWER(X9+(AH9*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>INT(5+(X9+(AJ9*0.25)-1)*POWER(X9+(AJ9*0.25),0.2))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>1+(D10-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F10">
+        <f>INT(200+POWER(E10+(G10*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>INT(POWER(E10+(I10*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>INT(50+(E10+(K10*0.25)-1)*POWER(E10+(K10*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>INT(POWER(E10+(M10*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>INT(50+(E10+(O10*0.25)-1)*POWER(E10+(O10*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>INT(5+(E10+(Q10*0.25)-1)*POWER(E10+(Q10*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <f>1+(W10-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="Y10">
+        <f>INT(POWER(X10+(Z10*0.25),2)*35)</f>
+        <v>264</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f>INT(POWER(X10+(AF10*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f>INT(50+(X10+(AH10*0.25)-1)*POWER(X10+(AH10*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f>INT(5+(X10+(AJ10*0.25)-1)*POWER(X10+(AJ10*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>1+(D11-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F11">
+        <f>INT(200+POWER(E11+(G11*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>INT(POWER(E11+(I11*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>INT(50+(E11+(K11*0.25)-1)*POWER(E11+(K11*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>INT(POWER(E11+(M11*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>INT(50+(E11+(O11*0.25)-1)*POWER(E11+(O11*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>INT(5+(E11+(Q11*0.25)-1)*POWER(E11+(Q11*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <f>1+(W11-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="Y11">
+        <f>INT(POWER(X11+(Z11*0.25),2)*35)</f>
+        <v>264</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f>INT(POWER(X11+(AF11*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f>INT(50+(X11+(AH11*0.25)-1)*POWER(X11+(AH11*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f>INT(5+(X11+(AJ11*0.25)-1)*POWER(X11+(AJ11*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>1+(D12-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F12">
+        <f>INT(200+POWER(E12+(G12*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>INT(POWER(E12+(I12*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>INT(50+(E12+(K12*0.25)-1)*POWER(E12+(K12*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>INT(POWER(E12+(M12*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>INT(50+(E12+(O12*0.25)-1)*POWER(E12+(O12*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>INT(5+(E12+(Q12*0.25)-1)*POWER(E12+(Q12*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>1+(D13-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F13">
+        <f>INT(200+POWER(E13+(G13*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>INT(POWER(E13+(I13*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>INT(50+(E13+(K13*0.25)-1)*POWER(E13+(K13*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>INT(POWER(E13+(M13*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>INT(50+(E13+(O13*0.25)-1)*POWER(E13+(O13*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>INT(5+(E13+(Q13*0.25)-1)*POWER(E13+(Q13*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f>1+(D14-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F14">
+        <f>INT(200+POWER(E14+(G14*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>INT(POWER(E14+(I14*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>INT(50+(E14+(K14*0.25)-1)*POWER(E14+(K14*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>INT(POWER(E14+(M14*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>INT(50+(E14+(O14*0.25)-1)*POWER(E14+(O14*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>INT(5+(E14+(Q14*0.25)-1)*POWER(E14+(Q14*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f>1+(D15-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F15">
+        <f>INT(200+POWER(E15+(G15*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>INT(POWER(E15+(I15*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>INT(50+(E15+(K15*0.25)-1)*POWER(E15+(K15*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>INT(POWER(E15+(M15*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>INT(50+(E15+(O15*0.25)-1)*POWER(E15+(O15*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>INT(5+(E15+(Q15*0.25)-1)*POWER(E15+(Q15*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>1+(D17-1)*0.25</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>INT(200+POWER(E17+(G17*0.25)+1,2)*30)</f>
+        <v>320</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>INT(POWER(E17+(I17*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>INT(50+(E17+(K17*0.25)-1)*POWER(E17+(K17*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>INT(POWER(E17+(M17*0.25)+4,2)*3)</f>
+        <v>75</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>INT(50+(E17+(O17*0.25)-1)*POWER(E17+(O17*0.25),0.5)*10)</f>
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>INT(5+(E17+(Q17*0.25)-1)*POWER(E17+(Q17*0.25),0.2))</f>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <f>1+(W17-1)*0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="Y17">
+        <f>INT(POWER(X17+(Z17*0.25),2)*35)</f>
+        <v>177</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>INT(POWER(X17+(AB17*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f>INT(50+(X17+(AD17*0.25)-1)*POWER(X17+(AD17*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f>INT(POWER(X17+(AF17*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f>INT(50+(X17+(AH17*0.25)-1)*POWER(X17+(AH17*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f>INT(5+(X17+(AJ17*0.25)-1)*POWER(X17+(AJ17*0.25),0.2))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>1+(D18-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F18">
+        <f>INT(200+POWER(E18+(G18*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>INT(POWER(E18+(I18*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>INT(50+(E18+(K18*0.25)-1)*POWER(E18+(K18*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>INT(POWER(E18+(M18*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>INT(50+(E18+(O18*0.25)-1)*POWER(E18+(O18*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>INT(5+(E18+(Q18*0.25)-1)*POWER(E18+(Q18*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <f>1+(W18-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="Y18">
+        <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
+        <v>264</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f>INT(POWER(X18+(AF18*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f>INT(50+(X18+(AH18*0.25)-1)*POWER(X18+(AH18*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f>INT(5+(X18+(AJ18*0.25)-1)*POWER(X18+(AJ18*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f>1+(D19-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F19">
+        <f>INT(200+POWER(E19+(G19*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>INT(POWER(E19+(I19*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>INT(50+(E19+(K19*0.25)-1)*POWER(E19+(K19*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>INT(POWER(E19+(M19*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>INT(50+(E19+(O19*0.25)-1)*POWER(E19+(O19*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>INT(5+(E19+(Q19*0.25)-1)*POWER(E19+(Q19*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="W19">
+        <v>8</v>
+      </c>
+      <c r="X19">
+        <f>1+(W19-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="Y19">
+        <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
+        <v>264</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f>INT(POWER(X19+(AF19*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f>INT(50+(X19+(AH19*0.25)-1)*POWER(X19+(AH19*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f>INT(5+(X19+(AJ19*0.25)-1)*POWER(X19+(AJ19*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="B20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f>1+(D20-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="F20">
+        <f>INT(200+POWER(E20+(G20*0.25)+1,2)*30)</f>
+        <v>741</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>INT(POWER(E20+(I20*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>INT(50+(E20+(K20*0.25)-1)*POWER(E20+(K20*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>INT(POWER(E20+(M20*0.25)+4,2)*3)</f>
+        <v>157</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>INT(50+(E20+(O20*0.25)-1)*POWER(E20+(O20*0.25),0.5)*10)</f>
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>INT(5+(E20+(Q20*0.25)-1)*POWER(E20+(Q20*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="W20">
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <f>1+(W20-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="Y20">
+        <f>INT(POWER(X20+(Z20*0.25),2)*35)</f>
+        <v>264</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f>INT(POWER(X20+(AB20*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f>INT(50+(X20+(AD20*0.25)-1)*POWER(X20+(AD20*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f>INT(POWER(X20+(AF20*0.25),3))+40</f>
+        <v>60</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f>INT(50+(X20+(AH20*0.25)-1)*POWER(X20+(AH20*0.25),0.5)*10)</f>
+        <v>79</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f>INT(5+(X20+(AJ20*0.25)-1)*POWER(X20+(AJ20*0.25),0.2))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="27" spans="1:39">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="29" spans="1:39">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="31" spans="1:39">
+      <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
+    <workbookView xWindow="2400" yWindow="560" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="617">
   <si>
     <t>临安府</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2037,12 +2037,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2555,7 +2561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2564,6 +2570,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="499">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3396,7 +3406,7 @@
   <dimension ref="A1:AM180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174:S179"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3822,8 +3832,8 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>88</v>
+      <c r="R4" s="5">
+        <v>101001</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>88</v>
@@ -3903,43 +3913,43 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E7" si="14">1+(D6-1)*0.25</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F7" si="15">INT(200+POWER(E6+(G6*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H7" si="16">INT(POWER(E6+(I6*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J7" si="17">INT(50+(E6+(K6*0.25)-1)*POWER(E6+(K6*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L7" si="18">INT(POWER(E6+(M6*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N7" si="19">INT(50+(E6+(O6*0.25)-1)*POWER(E6+(O6*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4156,43 +4166,43 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9" si="21">1+(D9-1)*0.25</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9" si="22">INT(200+POWER(E9+(G9*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9" si="23">INT(POWER(E9+(I9*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="24">INT(50+(E9+(K9*0.25)-1)*POWER(E9+(K9*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9" si="25">INT(POWER(E9+(M9*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9" si="26">INT(50+(E9+(O9*0.25)-1)*POWER(E9+(O9*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -4280,43 +4290,43 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10" si="28">1+(D10-1)*0.25</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10" si="29">INT(200+POWER(E10+(G10*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10" si="30">INT(POWER(E10+(I10*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="31">INT(50+(E10+(K10*0.25)-1)*POWER(E10+(K10*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10" si="32">INT(POWER(E10+(M10*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" ref="N10" si="33">INT(50+(E10+(O10*0.25)-1)*POWER(E10+(O10*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -4407,46 +4417,46 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <f>1+(D11-1)*0.25</f>
+        <f t="shared" ref="E11:E16" si="35">1+(D11-1)*0.25</f>
         <v>3.25</v>
       </c>
       <c r="F11">
-        <f>INT(200+POWER(E11+(G11*0.25)+1,2)*30)</f>
+        <f t="shared" ref="F11:F16" si="36">INT(200+POWER(E11+(G11*0.25)+1,2)*30)</f>
         <v>741</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <f>INT(POWER(E11+(I11*0.25)+4,2)*3)</f>
+        <f t="shared" ref="H11:H16" si="37">INT(POWER(E11+(I11*0.25)+4,2)*3)</f>
         <v>157</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <f>INT(50+(E11+(K11*0.25)-1)*POWER(E11+(K11*0.25),0.5)*10)</f>
+        <f t="shared" ref="J11:J16" si="38">INT(50+(E11+(K11*0.25)-1)*POWER(E11+(K11*0.25),0.5)*10)</f>
         <v>90</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <f>INT(POWER(E11+(M11*0.25)+4,2)*3)</f>
+        <f t="shared" ref="L11:L16" si="39">INT(POWER(E11+(M11*0.25)+4,2)*3)</f>
         <v>157</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <f>INT(50+(E11+(O11*0.25)-1)*POWER(E11+(O11*0.25),0.5)*10)</f>
+        <f t="shared" ref="N11:N16" si="40">INT(50+(E11+(O11*0.25)-1)*POWER(E11+(O11*0.25),0.5)*10)</f>
         <v>90</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <f>INT(5+(E11+(Q11*0.25)-1)*POWER(E11+(Q11*0.25),0.2))</f>
+        <f t="shared" ref="P11:P16" si="41">INT(5+(E11+(Q11*0.25)-1)*POWER(E11+(Q11*0.25),0.2))</f>
         <v>7</v>
       </c>
       <c r="Q11">
@@ -4531,46 +4541,46 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <f>1+(D12-1)*0.25</f>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="F12">
-        <f>INT(200+POWER(E12+(G12*0.25)+1,2)*30)</f>
+        <f t="shared" si="36"/>
         <v>741</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <f>INT(POWER(E12+(I12*0.25)+4,2)*3)</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <f>INT(50+(E12+(K12*0.25)-1)*POWER(E12+(K12*0.25),0.5)*10)</f>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <f>INT(POWER(E12+(M12*0.25)+4,2)*3)</f>
+        <f t="shared" si="39"/>
         <v>157</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <f>INT(50+(E12+(O12*0.25)-1)*POWER(E12+(O12*0.25),0.5)*10)</f>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <f>INT(5+(E12+(Q12*0.25)-1)*POWER(E12+(Q12*0.25),0.2))</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="Q12">
@@ -4598,46 +4608,46 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <f>1+(D13-1)*0.25</f>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="F13">
-        <f>INT(200+POWER(E13+(G13*0.25)+1,2)*30)</f>
+        <f t="shared" si="36"/>
         <v>741</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <f>INT(POWER(E13+(I13*0.25)+4,2)*3)</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <f>INT(50+(E13+(K13*0.25)-1)*POWER(E13+(K13*0.25),0.5)*10)</f>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <f>INT(POWER(E13+(M13*0.25)+4,2)*3)</f>
+        <f t="shared" si="39"/>
         <v>157</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <f>INT(50+(E13+(O13*0.25)-1)*POWER(E13+(O13*0.25),0.5)*10)</f>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <f>INT(5+(E13+(Q13*0.25)-1)*POWER(E13+(Q13*0.25),0.2))</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="Q13">
@@ -4665,46 +4675,46 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <f>1+(D14-1)*0.25</f>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="F14">
-        <f>INT(200+POWER(E14+(G14*0.25)+1,2)*30)</f>
+        <f t="shared" si="36"/>
         <v>741</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <f>INT(POWER(E14+(I14*0.25)+4,2)*3)</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <f>INT(50+(E14+(K14*0.25)-1)*POWER(E14+(K14*0.25),0.5)*10)</f>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <f>INT(POWER(E14+(M14*0.25)+4,2)*3)</f>
+        <f t="shared" si="39"/>
         <v>157</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <f>INT(50+(E14+(O14*0.25)-1)*POWER(E14+(O14*0.25),0.5)*10)</f>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <f>INT(5+(E14+(Q14*0.25)-1)*POWER(E14+(Q14*0.25),0.2))</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="Q14">
@@ -4732,46 +4742,46 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <f>1+(D15-1)*0.25</f>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="F15">
-        <f>INT(200+POWER(E15+(G15*0.25)+1,2)*30)</f>
+        <f t="shared" si="36"/>
         <v>741</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <f>INT(POWER(E15+(I15*0.25)+4,2)*3)</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <f>INT(50+(E15+(K15*0.25)-1)*POWER(E15+(K15*0.25),0.5)*10)</f>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <f>INT(POWER(E15+(M15*0.25)+4,2)*3)</f>
+        <f t="shared" si="39"/>
         <v>157</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <f>INT(50+(E15+(O15*0.25)-1)*POWER(E15+(O15*0.25),0.5)*10)</f>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <f>INT(5+(E15+(Q15*0.25)-1)*POWER(E15+(Q15*0.25),0.2))</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="Q15">
@@ -4799,46 +4809,46 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f>1+(D16-1)*0.25</f>
+        <f t="shared" si="35"/>
         <v>3.25</v>
       </c>
       <c r="F16">
-        <f>INT(200+POWER(E16+(G16*0.25)+1,2)*30)</f>
+        <f t="shared" si="36"/>
         <v>741</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <f>INT(POWER(E16+(I16*0.25)+4,2)*3)</f>
+        <f t="shared" si="37"/>
         <v>157</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <f>INT(50+(E16+(K16*0.25)-1)*POWER(E16+(K16*0.25),0.5)*10)</f>
+        <f t="shared" si="38"/>
         <v>90</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <f>INT(POWER(E16+(M16*0.25)+4,2)*3)</f>
+        <f t="shared" si="39"/>
         <v>157</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <f>INT(50+(E16+(O16*0.25)-1)*POWER(E16+(O16*0.25),0.5)*10)</f>
+        <f t="shared" si="40"/>
         <v>90</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <f>INT(5+(E16+(Q16*0.25)-1)*POWER(E16+(Q16*0.25),0.2))</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="Q16">
@@ -4868,49 +4878,49 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E22" si="35">1+(D18-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E18:E22" si="42">1+(D18-1)*0.25</f>
+        <v>1.75</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F22" si="36">INT(200+POWER(E18+(G18*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F18:F22" si="43">INT(200+POWER(E18+(G18*0.25)+1,2)*30)</f>
+        <v>426</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H22" si="37">INT(POWER(E18+(I18*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H18:H22" si="44">INT(POWER(E18+(I18*0.25)+4,2)*3)</f>
+        <v>99</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J22" si="38">INT(50+(E18+(K18*0.25)-1)*POWER(E18+(K18*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J18:J22" si="45">INT(50+(E18+(K18*0.25)-1)*POWER(E18+(K18*0.25),0.5)*10)</f>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L22" si="39">INT(POWER(E18+(M18*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L18:L22" si="46">INT(POWER(E18+(M18*0.25)+4,2)*3)</f>
+        <v>99</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N22" si="40">INT(50+(E18+(O18*0.25)-1)*POWER(E18+(O18*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N18:N22" si="47">INT(50+(E18+(O18*0.25)-1)*POWER(E18+(O18*0.25),0.5)*10)</f>
+        <v>59</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P22" si="41">INT(5+(E18+(Q18*0.25)-1)*POWER(E18+(Q18*0.25),0.2))</f>
+        <f t="shared" ref="P18:P22" si="48">INT(5+(E18+(Q18*0.25)-1)*POWER(E18+(Q18*0.25),0.2))</f>
         <v>5</v>
       </c>
       <c r="Q18">
@@ -4995,46 +5005,46 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>3.25</v>
       </c>
       <c r="F19">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>741</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>157</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>90</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>157</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>90</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="Q19">
@@ -5119,46 +5129,46 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>3.25</v>
       </c>
       <c r="F20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>741</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>157</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>90</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>157</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>90</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="Q20">
@@ -5243,46 +5253,46 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>3.25</v>
       </c>
       <c r="F21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>741</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>157</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>90</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>157</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>90</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="Q21">
@@ -5364,49 +5374,49 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <f t="shared" si="35"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>1.75</v>
       </c>
       <c r="F22">
-        <f t="shared" si="36"/>
-        <v>320</v>
+        <f t="shared" si="43"/>
+        <v>426</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="37"/>
-        <v>75</v>
+        <f t="shared" si="44"/>
+        <v>99</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="38"/>
-        <v>50</v>
+        <f t="shared" si="45"/>
+        <v>59</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="39"/>
-        <v>75</v>
+        <f t="shared" si="46"/>
+        <v>99</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="40"/>
-        <v>50</v>
+        <f t="shared" si="47"/>
+        <v>59</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="Q22">
@@ -5436,50 +5446,50 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E25" si="42">1+(D24-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E24:E25" si="49">1+(D24-1)*0.25</f>
+        <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F25" si="43">INT(200+POWER(E24+(G24*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F24:F25" si="50">INT(200+POWER(E24+(G24*0.25)+1,2)*30)</f>
+        <v>470</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H25" si="44">INT(POWER(E24+(I24*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H24:H25" si="51">INT(POWER(E24+(I24*0.25)+4,2)*3)</f>
+        <v>108</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J25" si="45">INT(50+(E24+(K24*0.25)-1)*POWER(E24+(K24*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J24:J25" si="52">INT(50+(E24+(K24*0.25)-1)*POWER(E24+(K24*0.25),0.5)*10)</f>
+        <v>64</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L25" si="46">INT(POWER(E24+(M24*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L24:L25" si="53">INT(POWER(E24+(M24*0.25)+4,2)*3)</f>
+        <v>108</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N25" si="47">INT(50+(E24+(O24*0.25)-1)*POWER(E24+(O24*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N24:N25" si="54">INT(50+(E24+(O24*0.25)-1)*POWER(E24+(O24*0.25),0.5)*10)</f>
+        <v>64</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:P25" si="48">INT(5+(E24+(Q24*0.25)-1)*POWER(E24+(Q24*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P24:P25" si="55">INT(5+(E24+(Q24*0.25)-1)*POWER(E24+(Q24*0.25),0.2))</f>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -5560,50 +5570,50 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="42"/>
-        <v>1</v>
+        <f t="shared" si="49"/>
+        <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="43"/>
-        <v>320</v>
+        <f t="shared" si="50"/>
+        <v>470</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="44"/>
-        <v>75</v>
+        <f t="shared" si="51"/>
+        <v>108</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="45"/>
-        <v>50</v>
+        <f t="shared" si="52"/>
+        <v>64</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="46"/>
-        <v>75</v>
+        <f t="shared" si="53"/>
+        <v>108</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="47"/>
-        <v>50</v>
+        <f t="shared" si="54"/>
+        <v>64</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="48"/>
-        <v>5</v>
+        <f t="shared" si="55"/>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5689,50 +5699,50 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E28" si="49">1+(D27-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E27:E28" si="56">1+(D27-1)*0.25</f>
+        <v>2.25</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F28" si="50">INT(200+POWER(E27+(G27*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F27:F28" si="57">INT(200+POWER(E27+(G27*0.25)+1,2)*30)</f>
+        <v>516</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H28" si="51">INT(POWER(E27+(I27*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H27:H28" si="58">INT(POWER(E27+(I27*0.25)+4,2)*3)</f>
+        <v>117</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" ref="J27:J28" si="52">INT(50+(E27+(K27*0.25)-1)*POWER(E27+(K27*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J27:J28" si="59">INT(50+(E27+(K27*0.25)-1)*POWER(E27+(K27*0.25),0.5)*10)</f>
+        <v>68</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:L28" si="53">INT(POWER(E27+(M27*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L27:L28" si="60">INT(POWER(E27+(M27*0.25)+4,2)*3)</f>
+        <v>117</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N28" si="54">INT(50+(E27+(O27*0.25)-1)*POWER(E27+(O27*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N27:N28" si="61">INT(50+(E27+(O27*0.25)-1)*POWER(E27+(O27*0.25),0.5)*10)</f>
+        <v>68</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P28" si="55">INT(5+(E27+(Q27*0.25)-1)*POWER(E27+(Q27*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P27:P28" si="62">INT(5+(E27+(Q27*0.25)-1)*POWER(E27+(Q27*0.25),0.2))</f>
+        <v>6</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -5813,50 +5823,50 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="49"/>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>2.25</v>
       </c>
       <c r="F28">
-        <f t="shared" si="50"/>
-        <v>320</v>
+        <f t="shared" si="57"/>
+        <v>516</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="51"/>
-        <v>75</v>
+        <f t="shared" si="58"/>
+        <v>117</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="52"/>
-        <v>50</v>
+        <f t="shared" si="59"/>
+        <v>68</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="53"/>
-        <v>75</v>
+        <f t="shared" si="60"/>
+        <v>117</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="54"/>
-        <v>50</v>
+        <f t="shared" si="61"/>
+        <v>68</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="55"/>
-        <v>5</v>
+        <f t="shared" si="62"/>
+        <v>6</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -6070,50 +6080,50 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E38" si="56">1+(D32-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E32:E38" si="63">1+(D32-1)*0.25</f>
+        <v>2.5</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F38" si="57">INT(200+POWER(E32+(G32*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F32:F38" si="64">INT(200+POWER(E32+(G32*0.25)+1,2)*30)</f>
+        <v>567</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H38" si="58">INT(POWER(E32+(I32*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H32:H38" si="65">INT(POWER(E32+(I32*0.25)+4,2)*3)</f>
+        <v>126</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J38" si="59">INT(50+(E32+(K32*0.25)-1)*POWER(E32+(K32*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J32:J38" si="66">INT(50+(E32+(K32*0.25)-1)*POWER(E32+(K32*0.25),0.5)*10)</f>
+        <v>73</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:L38" si="60">INT(POWER(E32+(M32*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L32:L38" si="67">INT(POWER(E32+(M32*0.25)+4,2)*3)</f>
+        <v>126</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N38" si="61">INT(50+(E32+(O32*0.25)-1)*POWER(E32+(O32*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N32:N38" si="68">INT(50+(E32+(O32*0.25)-1)*POWER(E32+(O32*0.25),0.5)*10)</f>
+        <v>73</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P38" si="62">INT(5+(E32+(Q32*0.25)-1)*POWER(E32+(Q32*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P32:P38" si="69">INT(5+(E32+(Q32*0.25)-1)*POWER(E32+(Q32*0.25),0.2))</f>
+        <v>6</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -6194,50 +6204,50 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -6318,50 +6328,50 @@
         <v>30</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -6385,50 +6395,50 @@
         <v>30</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F35">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -6452,50 +6462,50 @@
         <v>30</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F36">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -6519,50 +6529,50 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F37">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -6586,50 +6596,50 @@
         <v>30</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="63"/>
+        <v>2.5</v>
       </c>
       <c r="F38">
-        <f t="shared" si="57"/>
-        <v>320</v>
+        <f t="shared" si="64"/>
+        <v>567</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="58"/>
-        <v>75</v>
+        <f t="shared" si="65"/>
+        <v>126</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="59"/>
-        <v>50</v>
+        <f t="shared" si="66"/>
+        <v>73</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="60"/>
-        <v>75</v>
+        <f t="shared" si="67"/>
+        <v>126</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="61"/>
-        <v>50</v>
+        <f t="shared" si="68"/>
+        <v>73</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="62"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>6</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -6658,50 +6668,50 @@
         <v>186</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <f>1+(D40-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E40:E46" si="70">1+(D40-1)*0.25</f>
+        <v>5.75</v>
       </c>
       <c r="F40">
-        <f>INT(200+POWER(E40+(G40*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F40:F46" si="71">INT(200+POWER(E40+(G40*0.25)+1,2)*30)</f>
+        <v>1566</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <f>INT(POWER(E40+(I40*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H40:H46" si="72">INT(POWER(E40+(I40*0.25)+4,2)*3)</f>
+        <v>285</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <f>INT(50+(E40+(K40*0.25)-1)*POWER(E40+(K40*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J40:J46" si="73">INT(50+(E40+(K40*0.25)-1)*POWER(E40+(K40*0.25),0.5)*10)</f>
+        <v>163</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <f>INT(POWER(E40+(M40*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L40:L46" si="74">INT(POWER(E40+(M40*0.25)+4,2)*3)</f>
+        <v>285</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <f>INT(50+(E40+(O40*0.25)-1)*POWER(E40+(O40*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N40:N46" si="75">INT(50+(E40+(O40*0.25)-1)*POWER(E40+(O40*0.25),0.5)*10)</f>
+        <v>163</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <f>INT(5+(E40+(Q40*0.25)-1)*POWER(E40+(Q40*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P40:P46" si="76">INT(5+(E40+(Q40*0.25)-1)*POWER(E40+(Q40*0.25),0.2))</f>
+        <v>11</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -6722,46 +6732,46 @@
         <v>6</v>
       </c>
       <c r="X40">
-        <f t="shared" ref="X40:X45" si="63">1+(W40-1)*0.25</f>
+        <f t="shared" ref="X40:X45" si="77">1+(W40-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="Y40">
-        <f t="shared" ref="Y40:Y45" si="64">INT(POWER(X40+(Z40*0.25),2)*35)</f>
+        <f t="shared" ref="Y40:Y45" si="78">INT(POWER(X40+(Z40*0.25),2)*35)</f>
         <v>177</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <f t="shared" ref="AA40:AA45" si="65">INT(POWER(X40+(AB40*0.25),3))+40</f>
+        <f t="shared" ref="AA40:AA45" si="79">INT(POWER(X40+(AB40*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" ref="AC40:AC45" si="66">INT(50+(X40+(AD40*0.25)-1)*POWER(X40+(AD40*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC40:AC45" si="80">INT(50+(X40+(AD40*0.25)-1)*POWER(X40+(AD40*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AD40">
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" ref="AE40:AE45" si="67">INT(POWER(X40+(AF40*0.25),3))+40</f>
+        <f t="shared" ref="AE40:AE45" si="81">INT(POWER(X40+(AF40*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AF40">
         <v>0</v>
       </c>
       <c r="AG40">
-        <f t="shared" ref="AG40:AG45" si="68">INT(50+(X40+(AH40*0.25)-1)*POWER(X40+(AH40*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG40:AG45" si="82">INT(50+(X40+(AH40*0.25)-1)*POWER(X40+(AH40*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AH40">
         <v>0</v>
       </c>
       <c r="AI40">
-        <f t="shared" ref="AI40:AI45" si="69">INT(5+(X40+(AJ40*0.25)-1)*POWER(X40+(AJ40*0.25),0.2))</f>
+        <f t="shared" ref="AI40:AI45" si="83">INT(5+(X40+(AJ40*0.25)-1)*POWER(X40+(AJ40*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="AJ40">
@@ -6782,50 +6792,50 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <f>1+(D41-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F41">
-        <f>INT(200+POWER(E41+(G41*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <f>INT(POWER(E41+(I41*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <f>INT(50+(E41+(K41*0.25)-1)*POWER(E41+(K41*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <f>INT(POWER(E41+(M41*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <f>INT(50+(E41+(O41*0.25)-1)*POWER(E41+(O41*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <f>INT(5+(E41+(Q41*0.25)-1)*POWER(E41+(Q41*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -6846,46 +6856,46 @@
         <v>6</v>
       </c>
       <c r="X41">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>2.25</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>177</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>51</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>68</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>51</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>68</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>6</v>
       </c>
       <c r="AJ41">
@@ -6906,50 +6916,50 @@
         <v>30</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <f>1+(D42-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F42">
-        <f>INT(200+POWER(E42+(G42*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <f>INT(POWER(E42+(I42*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <f>INT(50+(E42+(K42*0.25)-1)*POWER(E42+(K42*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <f>INT(POWER(E42+(M42*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <f>INT(50+(E42+(O42*0.25)-1)*POWER(E42+(O42*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <f>INT(5+(E42+(Q42*0.25)-1)*POWER(E42+(Q42*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -6970,46 +6980,46 @@
         <v>6</v>
       </c>
       <c r="X42">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>2.25</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>177</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>51</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>68</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>51</v>
       </c>
       <c r="AF42">
         <v>0</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>68</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>6</v>
       </c>
       <c r="AJ42">
@@ -7030,50 +7040,50 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <f>1+(D43-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F43">
-        <f>INT(200+POWER(E43+(G43*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <f>INT(POWER(E43+(I43*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <f>INT(50+(E43+(K43*0.25)-1)*POWER(E43+(K43*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <f>INT(POWER(E43+(M43*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <f>INT(50+(E43+(O43*0.25)-1)*POWER(E43+(O43*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <f>INT(5+(E43+(Q43*0.25)-1)*POWER(E43+(Q43*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -7094,46 +7104,46 @@
         <v>6</v>
       </c>
       <c r="X43">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>2.25</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>177</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>51</v>
       </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>68</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>51</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>68</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>6</v>
       </c>
       <c r="AJ43">
@@ -7154,50 +7164,50 @@
         <v>30</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <f>1+(D44-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F44">
-        <f>INT(200+POWER(E44+(G44*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <f>INT(POWER(E44+(I44*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <f>INT(50+(E44+(K44*0.25)-1)*POWER(E44+(K44*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <f>INT(POWER(E44+(M44*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <f>INT(50+(E44+(O44*0.25)-1)*POWER(E44+(O44*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <f>INT(5+(E44+(Q44*0.25)-1)*POWER(E44+(Q44*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -7218,46 +7228,46 @@
         <v>6</v>
       </c>
       <c r="X44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>2.25</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>177</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>51</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>68</v>
       </c>
       <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>51</v>
       </c>
       <c r="AF44">
         <v>0</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>68</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>6</v>
       </c>
       <c r="AJ44">
@@ -7278,50 +7288,50 @@
         <v>30</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <f>1+(D45-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F45">
-        <f>INT(200+POWER(E45+(G45*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <f>INT(POWER(E45+(I45*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <f>INT(50+(E45+(K45*0.25)-1)*POWER(E45+(K45*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <f>INT(POWER(E45+(M45*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <f>INT(50+(E45+(O45*0.25)-1)*POWER(E45+(O45*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <f>INT(5+(E45+(Q45*0.25)-1)*POWER(E45+(Q45*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -7342,46 +7352,46 @@
         <v>6</v>
       </c>
       <c r="X45">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>2.25</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>177</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>51</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>68</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>51</v>
       </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>68</v>
       </c>
       <c r="AH45">
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>6</v>
       </c>
       <c r="AJ45">
@@ -7402,50 +7412,50 @@
         <v>30</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <f>1+(D46-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="70"/>
+        <v>2.75</v>
       </c>
       <c r="F46">
-        <f>INT(200+POWER(E46+(G46*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="71"/>
+        <v>621</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <f>INT(POWER(E46+(I46*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="72"/>
+        <v>136</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <f>INT(50+(E46+(K46*0.25)-1)*POWER(E46+(K46*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="73"/>
+        <v>79</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <f>INT(POWER(E46+(M46*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="74"/>
+        <v>136</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <f>INT(50+(E46+(O46*0.25)-1)*POWER(E46+(O46*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="75"/>
+        <v>79</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <f>INT(5+(E46+(Q46*0.25)-1)*POWER(E46+(Q46*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="76"/>
+        <v>7</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -7480,50 +7490,50 @@
         <v>212</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <f>1+(D49-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E49:E55" si="84">1+(D49-1)*0.25</f>
+        <v>4.5</v>
       </c>
       <c r="F49">
-        <f>INT(200+POWER(E49+(G49*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F49:F55" si="85">INT(200+POWER(E49+(G49*0.25)+1,2)*30)</f>
+        <v>1107</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <f>INT(POWER(E49+(I49*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H49:H55" si="86">INT(POWER(E49+(I49*0.25)+4,2)*3)</f>
+        <v>216</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <f>INT(50+(E49+(K49*0.25)-1)*POWER(E49+(K49*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J49:J55" si="87">INT(50+(E49+(K49*0.25)-1)*POWER(E49+(K49*0.25),0.5)*10)</f>
+        <v>124</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <f>INT(POWER(E49+(M49*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L49:L55" si="88">INT(POWER(E49+(M49*0.25)+4,2)*3)</f>
+        <v>216</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <f>INT(50+(E49+(O49*0.25)-1)*POWER(E49+(O49*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N49:N55" si="89">INT(50+(E49+(O49*0.25)-1)*POWER(E49+(O49*0.25),0.5)*10)</f>
+        <v>124</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <f>INT(5+(E49+(Q49*0.25)-1)*POWER(E49+(Q49*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P49:P55" si="90">INT(5+(E49+(Q49*0.25)-1)*POWER(E49+(Q49*0.25),0.2))</f>
+        <v>9</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -7604,50 +7614,50 @@
         <v>30</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <f>1+(D50-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F50">
-        <f>INT(200+POWER(E50+(G50*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <f>INT(POWER(E50+(I50*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <f>INT(50+(E50+(K50*0.25)-1)*POWER(E50+(K50*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <f>INT(POWER(E50+(M50*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <f>INT(50+(E50+(O50*0.25)-1)*POWER(E50+(O50*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <f>INT(5+(E50+(Q50*0.25)-1)*POWER(E50+(Q50*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -7728,50 +7738,50 @@
         <v>30</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <f>1+(D51-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F51">
-        <f>INT(200+POWER(E51+(G51*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <f>INT(POWER(E51+(I51*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <f>INT(50+(E51+(K51*0.25)-1)*POWER(E51+(K51*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <f>INT(POWER(E51+(M51*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <f>INT(50+(E51+(O51*0.25)-1)*POWER(E51+(O51*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <f>INT(5+(E51+(Q51*0.25)-1)*POWER(E51+(Q51*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -7852,50 +7862,50 @@
         <v>30</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <f>1+(D52-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F52">
-        <f>INT(200+POWER(E52+(G52*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <f>INT(POWER(E52+(I52*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <f>INT(50+(E52+(K52*0.25)-1)*POWER(E52+(K52*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <f>INT(POWER(E52+(M52*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <f>INT(50+(E52+(O52*0.25)-1)*POWER(E52+(O52*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
-        <f>INT(5+(E52+(Q52*0.25)-1)*POWER(E52+(Q52*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -7919,50 +7929,50 @@
         <v>30</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <f>1+(D53-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F53">
-        <f>INT(200+POWER(E53+(G53*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <f>INT(POWER(E53+(I53*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <f>INT(50+(E53+(K53*0.25)-1)*POWER(E53+(K53*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <f>INT(POWER(E53+(M53*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <f>INT(50+(E53+(O53*0.25)-1)*POWER(E53+(O53*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
-        <f>INT(5+(E53+(Q53*0.25)-1)*POWER(E53+(Q53*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -7986,50 +7996,50 @@
         <v>30</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <f>1+(D54-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F54">
-        <f>INT(200+POWER(E54+(G54*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <f>INT(POWER(E54+(I54*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <f>INT(50+(E54+(K54*0.25)-1)*POWER(E54+(K54*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <f>INT(POWER(E54+(M54*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <f>INT(50+(E54+(O54*0.25)-1)*POWER(E54+(O54*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O54">
         <v>0</v>
       </c>
       <c r="P54">
-        <f>INT(5+(E54+(Q54*0.25)-1)*POWER(E54+(Q54*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -8053,50 +8063,50 @@
         <v>30</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <f>1+(D55-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="84"/>
+        <v>3</v>
       </c>
       <c r="F55">
-        <f>INT(200+POWER(E55+(G55*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="85"/>
+        <v>680</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <f>INT(POWER(E55+(I55*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="86"/>
+        <v>147</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <f>INT(50+(E55+(K55*0.25)-1)*POWER(E55+(K55*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="87"/>
+        <v>84</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <f>INT(POWER(E55+(M55*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="88"/>
+        <v>147</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <f>INT(50+(E55+(O55*0.25)-1)*POWER(E55+(O55*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="89"/>
+        <v>84</v>
       </c>
       <c r="O55">
         <v>0</v>
       </c>
       <c r="P55">
-        <f>INT(5+(E55+(Q55*0.25)-1)*POWER(E55+(Q55*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="90"/>
+        <v>7</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -8125,50 +8135,50 @@
         <v>30</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <f>1+(D57-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" ref="E57:E62" si="91">1+(D57-1)*0.25</f>
+        <v>3.25</v>
       </c>
       <c r="F57">
-        <f>INT(200+POWER(E57+(G57*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" ref="F57:F62" si="92">INT(200+POWER(E57+(G57*0.25)+1,2)*30)</f>
+        <v>741</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <f>INT(POWER(E57+(I57*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="H57:H62" si="93">INT(POWER(E57+(I57*0.25)+4,2)*3)</f>
+        <v>157</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <f>INT(50+(E57+(K57*0.25)-1)*POWER(E57+(K57*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="J57:J62" si="94">INT(50+(E57+(K57*0.25)-1)*POWER(E57+(K57*0.25),0.5)*10)</f>
+        <v>90</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <f>INT(POWER(E57+(M57*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" ref="L57:L62" si="95">INT(POWER(E57+(M57*0.25)+4,2)*3)</f>
+        <v>157</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <f>INT(50+(E57+(O57*0.25)-1)*POWER(E57+(O57*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" ref="N57:N62" si="96">INT(50+(E57+(O57*0.25)-1)*POWER(E57+(O57*0.25),0.5)*10)</f>
+        <v>90</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <f>INT(5+(E57+(Q57*0.25)-1)*POWER(E57+(Q57*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" ref="P57:P62" si="97">INT(5+(E57+(Q57*0.25)-1)*POWER(E57+(Q57*0.25),0.2))</f>
+        <v>7</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -8249,50 +8259,50 @@
         <v>30</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <f>1+(D58-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>3.25</v>
       </c>
       <c r="F58">
-        <f>INT(200+POWER(E58+(G58*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="92"/>
+        <v>741</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <f>INT(POWER(E58+(I58*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>157</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <f>INT(50+(E58+(K58*0.25)-1)*POWER(E58+(K58*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="94"/>
+        <v>90</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <f>INT(POWER(E58+(M58*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="95"/>
+        <v>157</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <f>INT(50+(E58+(O58*0.25)-1)*POWER(E58+(O58*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="96"/>
+        <v>90</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <f>INT(5+(E58+(Q58*0.25)-1)*POWER(E58+(Q58*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="97"/>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -8373,50 +8383,50 @@
         <v>30</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <f>1+(D59-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>3.25</v>
       </c>
       <c r="F59">
-        <f>INT(200+POWER(E59+(G59*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="92"/>
+        <v>741</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <f>INT(POWER(E59+(I59*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>157</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <f>INT(50+(E59+(K59*0.25)-1)*POWER(E59+(K59*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="94"/>
+        <v>90</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <f>INT(POWER(E59+(M59*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="95"/>
+        <v>157</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <f>INT(50+(E59+(O59*0.25)-1)*POWER(E59+(O59*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="96"/>
+        <v>90</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
-        <f>INT(5+(E59+(Q59*0.25)-1)*POWER(E59+(Q59*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="97"/>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -8440,50 +8450,50 @@
         <v>30</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <f>1+(D60-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>3.25</v>
       </c>
       <c r="F60">
-        <f>INT(200+POWER(E60+(G60*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="92"/>
+        <v>741</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <f>INT(POWER(E60+(I60*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>157</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <f>INT(50+(E60+(K60*0.25)-1)*POWER(E60+(K60*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="94"/>
+        <v>90</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <f>INT(POWER(E60+(M60*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="95"/>
+        <v>157</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <f>INT(50+(E60+(O60*0.25)-1)*POWER(E60+(O60*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="96"/>
+        <v>90</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <f>INT(5+(E60+(Q60*0.25)-1)*POWER(E60+(Q60*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="97"/>
+        <v>7</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -8507,50 +8517,50 @@
         <v>30</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <f>1+(D61-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>3.25</v>
       </c>
       <c r="F61">
-        <f>INT(200+POWER(E61+(G61*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="92"/>
+        <v>741</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <f>INT(POWER(E61+(I61*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>157</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <f>INT(50+(E61+(K61*0.25)-1)*POWER(E61+(K61*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="94"/>
+        <v>90</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <f>INT(POWER(E61+(M61*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="95"/>
+        <v>157</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <f>INT(50+(E61+(O61*0.25)-1)*POWER(E61+(O61*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="96"/>
+        <v>90</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <f>INT(5+(E61+(Q61*0.25)-1)*POWER(E61+(Q61*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="97"/>
+        <v>7</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -8574,50 +8584,50 @@
         <v>30</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <f>1+(D62-1)*0.25</f>
-        <v>1</v>
+        <f t="shared" si="91"/>
+        <v>3.25</v>
       </c>
       <c r="F62">
-        <f>INT(200+POWER(E62+(G62*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <f t="shared" si="92"/>
+        <v>741</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <f>INT(POWER(E62+(I62*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="93"/>
+        <v>157</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <f>INT(50+(E62+(K62*0.25)-1)*POWER(E62+(K62*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="94"/>
+        <v>90</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <f>INT(POWER(E62+(M62*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <f t="shared" si="95"/>
+        <v>157</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <f>INT(50+(E62+(O62*0.25)-1)*POWER(E62+(O62*0.25),0.5)*10)</f>
-        <v>50</v>
+        <f t="shared" si="96"/>
+        <v>90</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <f>INT(5+(E62+(Q62*0.25)-1)*POWER(E62+(Q62*0.25),0.2))</f>
-        <v>5</v>
+        <f t="shared" si="97"/>
+        <v>7</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -8633,129 +8643,130 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:39">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:39" s="9" customFormat="1">
+      <c r="A63" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
-      <c r="B64" t="s">
+    <row r="64" spans="1:39" s="9" customFormat="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="9">
+        <v>11</v>
+      </c>
+      <c r="E64" s="9">
         <f>1+(D64-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F64">
+        <v>3.5</v>
+      </c>
+      <c r="F64" s="9">
         <f>INT(200+POWER(E64+(G64*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
+        <v>807</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
         <f>INT(POWER(E64+(I64*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
+        <v>168</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
         <f>INT(50+(E64+(K64*0.25)-1)*POWER(E64+(K64*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+        <v>96</v>
+      </c>
+      <c r="K64" s="9">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9">
         <f>INT(POWER(E64+(M64*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
+        <v>168</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
         <f>INT(50+(E64+(O64*0.25)-1)*POWER(E64+(O64*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
+        <v>96</v>
+      </c>
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9">
         <f>INT(5+(E64+(Q64*0.25)-1)*POWER(E64+(Q64*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>0</v>
+      </c>
+      <c r="R64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U64" s="6" t="s">
+      <c r="U64" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="V64" s="6" t="s">
+      <c r="V64" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="W64">
-        <v>6</v>
-      </c>
-      <c r="X64">
+      <c r="W64" s="9">
+        <v>6</v>
+      </c>
+      <c r="X64" s="9">
         <f>1+(W64-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="9">
         <f>INT(POWER(X64+(Z64*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
+      <c r="Z64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="9">
         <f>INT(POWER(X64+(AB64*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
+      <c r="AB64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="9">
         <f>INT(50+(X64+(AD64*0.25)-1)*POWER(X64+(AD64*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
+      <c r="AD64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="9">
         <f>INT(POWER(X64+(AF64*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
+      <c r="AF64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="9">
         <f>INT(50+(X64+(AH64*0.25)-1)*POWER(X64+(AH64*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
+      <c r="AH64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="9">
         <f>INT(5+(X64+(AJ64*0.25)-1)*POWER(X64+(AJ64*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="6" t="s">
+      <c r="AJ64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AM64" s="6" t="s">
+      <c r="AM64" s="11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8902,50 +8913,50 @@
         <v>30</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E68">
         <f>1+(D68-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F68">
         <f>INT(200+POWER(E68+(G68*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
         <f>INT(POWER(E68+(I68*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
         <f>INT(50+(E68+(K68*0.25)-1)*POWER(E68+(K68*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
         <f>INT(POWER(E68+(M68*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
         <f>INT(50+(E68+(O68*0.25)-1)*POWER(E68+(O68*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
         <f>INT(5+(E68+(Q68*0.25)-1)*POWER(E68+(Q68*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -9026,50 +9037,50 @@
         <v>229</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <f>1+(D69-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F69">
         <f>INT(200+POWER(E69+(G69*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
         <f>INT(POWER(E69+(I69*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
         <f>INT(50+(E69+(K69*0.25)-1)*POWER(E69+(K69*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
         <f>INT(POWER(E69+(M69*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
         <f>INT(50+(E69+(O69*0.25)-1)*POWER(E69+(O69*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
         <f>INT(5+(E69+(Q69*0.25)-1)*POWER(E69+(Q69*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -9285,50 +9296,50 @@
         <v>30</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <f>1+(D73-1)*0.25</f>
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="F73">
         <f>INT(200+POWER(E73+(G73*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>876</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
         <f>INT(POWER(E73+(I73*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
         <f>INT(50+(E73+(K73*0.25)-1)*POWER(E73+(K73*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
         <f>INT(POWER(E73+(M73*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
         <f>INT(50+(E73+(O73*0.25)-1)*POWER(E73+(O73*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
         <f>INT(5+(E73+(Q73*0.25)-1)*POWER(E73+(Q73*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -9409,50 +9420,50 @@
         <v>246</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <f>1+(D74-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F74">
         <f>INT(200+POWER(E74+(G74*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
         <f>INT(POWER(E74+(I74*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
         <f>INT(50+(E74+(K74*0.25)-1)*POWER(E74+(K74*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
         <f>INT(POWER(E74+(M74*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
         <f>INT(50+(E74+(O74*0.25)-1)*POWER(E74+(O74*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
         <f>INT(5+(E74+(Q74*0.25)-1)*POWER(E74+(Q74*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -9653,129 +9664,130 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:39" s="9" customFormat="1">
+      <c r="A77" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
-      <c r="B78" t="s">
+    <row r="78" spans="1:39" s="9" customFormat="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="9">
+        <v>11</v>
+      </c>
+      <c r="E78" s="9">
         <f>1+(D78-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F78">
+        <v>3.5</v>
+      </c>
+      <c r="F78" s="9">
         <f>INT(200+POWER(E78+(G78*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
+        <v>807</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
         <f>INT(POWER(E78+(I78*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
+        <v>168</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
         <f>INT(50+(E78+(K78*0.25)-1)*POWER(E78+(K78*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
+        <v>96</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
         <f>INT(POWER(E78+(M78*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
+        <v>168</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
         <f>INT(50+(E78+(O78*0.25)-1)*POWER(E78+(O78*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
+        <v>96</v>
+      </c>
+      <c r="O78" s="9">
+        <v>0</v>
+      </c>
+      <c r="P78" s="9">
         <f>INT(5+(E78+(Q78*0.25)-1)*POWER(E78+(Q78*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>0</v>
+      </c>
+      <c r="R78" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U78" s="6" t="s">
+      <c r="U78" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="V78" s="6" t="s">
+      <c r="V78" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="W78">
-        <v>6</v>
-      </c>
-      <c r="X78">
+      <c r="W78" s="9">
+        <v>6</v>
+      </c>
+      <c r="X78" s="9">
         <f>1+(W78-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="9">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
+      <c r="Z78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="9">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
+      <c r="AB78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="9">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
+      <c r="AD78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="9">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78">
+      <c r="AF78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="9">
         <f>INT(50+(X78+(AH78*0.25)-1)*POWER(X78+(AH78*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-      <c r="AI78">
+      <c r="AH78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="9">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="6" t="s">
+      <c r="AJ78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AM78" s="6" t="s">
+      <c r="AM78" s="11" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9984,50 +9996,50 @@
         <v>30</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E83">
         <f>1+(D83-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F83">
         <f>INT(200+POWER(E83+(G83*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
         <f>INT(POWER(E83+(I83*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
         <f>INT(50+(E83+(K83*0.25)-1)*POWER(E83+(K83*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
         <f>INT(POWER(E83+(M83*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
         <f>INT(50+(E83+(O83*0.25)-1)*POWER(E83+(O83*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
         <f>INT(5+(E83+(Q83*0.25)-1)*POWER(E83+(Q83*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -10108,50 +10120,50 @@
         <v>285</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <f>1+(D84-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F84">
         <f>INT(200+POWER(E84+(G84*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
         <f>INT(POWER(E84+(I84*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
         <f>INT(50+(E84+(K84*0.25)-1)*POWER(E84+(K84*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
         <f>INT(POWER(E84+(M84*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
         <f>INT(50+(E84+(O84*0.25)-1)*POWER(E84+(O84*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
         <f>INT(5+(E84+(Q84*0.25)-1)*POWER(E84+(Q84*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -10366,50 +10378,50 @@
         <v>30</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E88">
         <f>1+(D88-1)*0.25</f>
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="F88">
         <f>INT(200+POWER(E88+(G88*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>876</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
         <f>INT(POWER(E88+(I88*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
         <f>INT(50+(E88+(K88*0.25)-1)*POWER(E88+(K88*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
         <f>INT(POWER(E88+(M88*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
         <f>INT(50+(E88+(O88*0.25)-1)*POWER(E88+(O88*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
         <f>INT(5+(E88+(Q88*0.25)-1)*POWER(E88+(Q88*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -10722,377 +10734,380 @@
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:39" s="9" customFormat="1">
+      <c r="A92" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
-      <c r="B93" t="s">
+    <row r="93" spans="1:39" s="9" customFormat="1">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="9">
+        <v>11</v>
+      </c>
+      <c r="E93" s="9">
         <f>1+(D93-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F93">
+        <v>3.5</v>
+      </c>
+      <c r="F93" s="9">
         <f>INT(200+POWER(E93+(G93*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
+        <v>807</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
         <f>INT(POWER(E93+(I93*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
+        <v>168</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="9">
         <f>INT(50+(E93+(K93*0.25)-1)*POWER(E93+(K93*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
+        <v>96</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
         <f>INT(POWER(E93+(M93*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
+        <v>168</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9">
         <f>INT(50+(E93+(O93*0.25)-1)*POWER(E93+(O93*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
+        <v>96</v>
+      </c>
+      <c r="O93" s="9">
+        <v>0</v>
+      </c>
+      <c r="P93" s="9">
         <f>INT(5+(E93+(Q93*0.25)-1)*POWER(E93+(Q93*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>0</v>
+      </c>
+      <c r="R93" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U93" s="6" t="s">
+      <c r="U93" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="V93" s="6" t="s">
+      <c r="V93" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="W93">
-        <v>6</v>
-      </c>
-      <c r="X93">
+      <c r="W93" s="9">
+        <v>6</v>
+      </c>
+      <c r="X93" s="9">
         <f>1+(W93-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y93">
+      <c r="Y93" s="9">
         <f>INT(POWER(X93+(Z93*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
+      <c r="Z93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="9">
         <f>INT(POWER(X93+(AB93*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
+      <c r="AB93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="9">
         <f>INT(50+(X93+(AD93*0.25)-1)*POWER(X93+(AD93*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
+      <c r="AD93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="9">
         <f>INT(POWER(X93+(AF93*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
-      <c r="AG93">
+      <c r="AF93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="9">
         <f>INT(50+(X93+(AH93*0.25)-1)*POWER(X93+(AH93*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-      <c r="AI93">
+      <c r="AH93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="9">
         <f>INT(5+(X93+(AJ93*0.25)-1)*POWER(X93+(AJ93*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
-      <c r="AL93" s="6" t="s">
+      <c r="AJ93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AM93" s="6" t="s">
+      <c r="AM93" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
-      <c r="B94" s="6" t="s">
+    <row r="94" spans="1:39" s="9" customFormat="1">
+      <c r="A94" s="8"/>
+      <c r="B94" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="9">
+        <v>15</v>
+      </c>
+      <c r="E94" s="9">
         <f>1+(D94-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F94">
+        <v>4.5</v>
+      </c>
+      <c r="F94" s="9">
         <f>INT(200+POWER(E94+(G94*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+        <v>1107</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9">
         <f>INT(POWER(E94+(I94*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
+        <v>216</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0</v>
+      </c>
+      <c r="J94" s="9">
         <f>INT(50+(E94+(K94*0.25)-1)*POWER(E94+(K94*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
+        <v>124</v>
+      </c>
+      <c r="K94" s="9">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9">
         <f>INT(POWER(E94+(M94*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
+        <v>216</v>
+      </c>
+      <c r="M94" s="9">
+        <v>0</v>
+      </c>
+      <c r="N94" s="9">
         <f>INT(50+(E94+(O94*0.25)-1)*POWER(E94+(O94*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
+        <v>124</v>
+      </c>
+      <c r="O94" s="9">
+        <v>0</v>
+      </c>
+      <c r="P94" s="9">
         <f>INT(5+(E94+(Q94*0.25)-1)*POWER(E94+(Q94*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>0</v>
+      </c>
+      <c r="R94" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="S94" s="6" t="s">
+      <c r="S94" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="U94" s="6" t="s">
+      <c r="U94" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="V94" s="6" t="s">
+      <c r="V94" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="W94">
-        <v>6</v>
-      </c>
-      <c r="X94">
+      <c r="W94" s="9">
+        <v>6</v>
+      </c>
+      <c r="X94" s="9">
         <f>1+(W94-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="9">
         <f>INT(POWER(X94+(Z94*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
+      <c r="Z94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="9">
         <f>INT(POWER(X94+(AB94*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB94">
-        <v>0</v>
-      </c>
-      <c r="AC94">
+      <c r="AB94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="9">
         <f>INT(50+(X94+(AD94*0.25)-1)*POWER(X94+(AD94*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
+      <c r="AD94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="9">
         <f>INT(POWER(X94+(AF94*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF94">
-        <v>0</v>
-      </c>
-      <c r="AG94">
+      <c r="AF94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="9">
         <f>INT(50+(X94+(AH94*0.25)-1)*POWER(X94+(AH94*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-      <c r="AI94">
+      <c r="AH94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="9">
         <f>INT(5+(X94+(AJ94*0.25)-1)*POWER(X94+(AJ94*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="6" t="s">
+      <c r="AJ94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AM94" s="6" t="s">
+      <c r="AM94" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:39" s="9" customFormat="1">
+      <c r="A95" s="8"/>
+      <c r="B95" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="9">
+        <v>15</v>
+      </c>
+      <c r="E95" s="9">
         <f>1+(D95-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F95">
+        <v>4.5</v>
+      </c>
+      <c r="F95" s="9">
         <f>INT(200+POWER(E95+(G95*0.25)+1,2)*30)</f>
+        <v>1107</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0</v>
+      </c>
+      <c r="H95" s="9">
+        <f>INT(POWER(E95+(I95*0.25)+4,2)*3)</f>
+        <v>216</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+      <c r="J95" s="9">
+        <f>INT(50+(E95+(K95*0.25)-1)*POWER(E95+(K95*0.25),0.5)*10)</f>
+        <v>124</v>
+      </c>
+      <c r="K95" s="9">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9">
+        <f>INT(POWER(E95+(M95*0.25)+4,2)*3)</f>
+        <v>216</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9">
+        <f>INT(50+(E95+(O95*0.25)-1)*POWER(E95+(O95*0.25),0.5)*10)</f>
+        <v>124</v>
+      </c>
+      <c r="O95" s="9">
+        <v>0</v>
+      </c>
+      <c r="P95" s="9">
+        <f>INT(5+(E95+(Q95*0.25)-1)*POWER(E95+(Q95*0.25),0.2))</f>
+        <v>9</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>0</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="S95" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <f>INT(POWER(E95+(I95*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <f>INT(50+(E95+(K95*0.25)-1)*POWER(E95+(K95*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f>INT(POWER(E95+(M95*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <f>INT(50+(E95+(O95*0.25)-1)*POWER(E95+(O95*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <f>INT(5+(E95+(Q95*0.25)-1)*POWER(E95+(Q95*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="U95" s="6" t="s">
+      <c r="U95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="V95" s="6" t="s">
+      <c r="V95" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="W95">
-        <v>6</v>
-      </c>
-      <c r="X95">
+      <c r="W95" s="9">
+        <v>6</v>
+      </c>
+      <c r="X95" s="9">
         <f>1+(W95-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y95">
+      <c r="Y95" s="9">
         <f>INT(POWER(X95+(Z95*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
+      <c r="Z95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="9">
         <f>INT(POWER(X95+(AB95*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
+      <c r="AB95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="9">
         <f>INT(50+(X95+(AD95*0.25)-1)*POWER(X95+(AD95*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-      <c r="AE95">
+      <c r="AD95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="9">
         <f>INT(POWER(X95+(AF95*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF95">
-        <v>0</v>
-      </c>
-      <c r="AG95">
+      <c r="AF95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="9">
         <f>INT(50+(X95+(AH95*0.25)-1)*POWER(X95+(AH95*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-      <c r="AI95">
+      <c r="AH95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="9">
         <f>INT(5+(X95+(AJ95*0.25)-1)*POWER(X95+(AJ95*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
-      <c r="AL95" s="6" t="s">
+      <c r="AJ95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AM95" s="6" t="s">
+      <c r="AM95" s="11" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11163,377 +11178,380 @@
         <v>326</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:39" s="9" customFormat="1">
+      <c r="A97" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
-      <c r="B98" t="s">
+    <row r="98" spans="1:39" s="9" customFormat="1">
+      <c r="A98" s="8"/>
+      <c r="B98" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="9">
+        <v>12</v>
+      </c>
+      <c r="E98" s="9">
         <f>1+(D98-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F98">
+        <v>3.75</v>
+      </c>
+      <c r="F98" s="9">
         <f>INT(200+POWER(E98+(G98*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
+        <v>876</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
         <f>INT(POWER(E98+(I98*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
+        <v>180</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0</v>
+      </c>
+      <c r="J98" s="9">
         <f>INT(50+(E98+(K98*0.25)-1)*POWER(E98+(K98*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
+        <v>103</v>
+      </c>
+      <c r="K98" s="9">
+        <v>0</v>
+      </c>
+      <c r="L98" s="9">
         <f>INT(POWER(E98+(M98*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
+        <v>180</v>
+      </c>
+      <c r="M98" s="9">
+        <v>0</v>
+      </c>
+      <c r="N98" s="9">
         <f>INT(50+(E98+(O98*0.25)-1)*POWER(E98+(O98*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
+        <v>103</v>
+      </c>
+      <c r="O98" s="9">
+        <v>0</v>
+      </c>
+      <c r="P98" s="9">
         <f>INT(5+(E98+(Q98*0.25)-1)*POWER(E98+(Q98*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>0</v>
+      </c>
+      <c r="R98" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U98" s="6" t="s">
+      <c r="U98" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="V98" s="6" t="s">
+      <c r="V98" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="W98">
-        <v>6</v>
-      </c>
-      <c r="X98">
+      <c r="W98" s="9">
+        <v>6</v>
+      </c>
+      <c r="X98" s="9">
         <f>1+(W98-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="9">
         <f>INT(POWER(X98+(Z98*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
+      <c r="Z98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="9">
         <f>INT(POWER(X98+(AB98*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB98">
-        <v>0</v>
-      </c>
-      <c r="AC98">
+      <c r="AB98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="9">
         <f>INT(50+(X98+(AD98*0.25)-1)*POWER(X98+(AD98*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
-      <c r="AE98">
+      <c r="AD98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="9">
         <f>INT(POWER(X98+(AF98*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF98">
-        <v>0</v>
-      </c>
-      <c r="AG98">
+      <c r="AF98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="9">
         <f>INT(50+(X98+(AH98*0.25)-1)*POWER(X98+(AH98*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-      <c r="AI98">
+      <c r="AH98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="9">
         <f>INT(5+(X98+(AJ98*0.25)-1)*POWER(X98+(AJ98*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="6" t="s">
+      <c r="AJ98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="AM98" s="6" t="s">
+      <c r="AM98" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="1:39" s="9" customFormat="1">
+      <c r="A99" s="8"/>
+      <c r="B99" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="9">
+        <v>15</v>
+      </c>
+      <c r="E99" s="9">
         <f>1+(D99-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F99">
+        <v>4.5</v>
+      </c>
+      <c r="F99" s="9">
         <f>INT(200+POWER(E99+(G99*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
+        <v>1107</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9">
         <f>INT(POWER(E99+(I99*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
+        <v>216</v>
+      </c>
+      <c r="I99" s="9">
+        <v>0</v>
+      </c>
+      <c r="J99" s="9">
         <f>INT(50+(E99+(K99*0.25)-1)*POWER(E99+(K99*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
+        <v>124</v>
+      </c>
+      <c r="K99" s="9">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
         <f>INT(POWER(E99+(M99*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
+        <v>216</v>
+      </c>
+      <c r="M99" s="9">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9">
         <f>INT(50+(E99+(O99*0.25)-1)*POWER(E99+(O99*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
+        <v>124</v>
+      </c>
+      <c r="O99" s="9">
+        <v>0</v>
+      </c>
+      <c r="P99" s="9">
         <f>INT(5+(E99+(Q99*0.25)-1)*POWER(E99+(Q99*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>0</v>
+      </c>
+      <c r="R99" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="S99" s="6" t="s">
+      <c r="S99" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="U99" s="6" t="s">
+      <c r="U99" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="V99" s="6" t="s">
+      <c r="V99" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="W99">
-        <v>6</v>
-      </c>
-      <c r="X99">
+      <c r="W99" s="9">
+        <v>6</v>
+      </c>
+      <c r="X99" s="9">
         <f>1+(W99-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y99">
+      <c r="Y99" s="9">
         <f>INT(POWER(X99+(Z99*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
+      <c r="Z99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="9">
         <f>INT(POWER(X99+(AB99*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99">
+      <c r="AB99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="9">
         <f>INT(50+(X99+(AD99*0.25)-1)*POWER(X99+(AD99*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
-      <c r="AE99">
+      <c r="AD99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="9">
         <f>INT(POWER(X99+(AF99*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-      <c r="AG99">
+      <c r="AF99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="9">
         <f>INT(50+(X99+(AH99*0.25)-1)*POWER(X99+(AH99*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-      <c r="AI99">
+      <c r="AH99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="9">
         <f>INT(5+(X99+(AJ99*0.25)-1)*POWER(X99+(AJ99*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="6" t="s">
+      <c r="AJ99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AM99" s="6" t="s">
+      <c r="AM99" s="11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
-      <c r="B100" s="6" t="s">
+    <row r="100" spans="1:39" s="9" customFormat="1">
+      <c r="A100" s="8"/>
+      <c r="B100" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="9">
+        <v>15</v>
+      </c>
+      <c r="E100" s="9">
         <f>1+(D100-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F100">
+        <v>4.5</v>
+      </c>
+      <c r="F100" s="9">
         <f>INT(200+POWER(E100+(G100*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
+        <v>1107</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0</v>
+      </c>
+      <c r="H100" s="9">
         <f>INT(POWER(E100+(I100*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
+        <v>216</v>
+      </c>
+      <c r="I100" s="9">
+        <v>0</v>
+      </c>
+      <c r="J100" s="9">
         <f>INT(50+(E100+(K100*0.25)-1)*POWER(E100+(K100*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
+        <v>124</v>
+      </c>
+      <c r="K100" s="9">
+        <v>0</v>
+      </c>
+      <c r="L100" s="9">
         <f>INT(POWER(E100+(M100*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
+        <v>216</v>
+      </c>
+      <c r="M100" s="9">
+        <v>0</v>
+      </c>
+      <c r="N100" s="9">
         <f>INT(50+(E100+(O100*0.25)-1)*POWER(E100+(O100*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
+        <v>124</v>
+      </c>
+      <c r="O100" s="9">
+        <v>0</v>
+      </c>
+      <c r="P100" s="9">
         <f>INT(5+(E100+(Q100*0.25)-1)*POWER(E100+(Q100*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>0</v>
+      </c>
+      <c r="R100" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="S100" s="6" t="s">
+      <c r="S100" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="U100" s="6" t="s">
+      <c r="U100" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="V100" s="6" t="s">
+      <c r="V100" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="W100">
-        <v>6</v>
-      </c>
-      <c r="X100">
+      <c r="W100" s="9">
+        <v>6</v>
+      </c>
+      <c r="X100" s="9">
         <f>1+(W100-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y100">
+      <c r="Y100" s="9">
         <f>INT(POWER(X100+(Z100*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
+      <c r="Z100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="9">
         <f>INT(POWER(X100+(AB100*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
+      <c r="AB100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="9">
         <f>INT(50+(X100+(AD100*0.25)-1)*POWER(X100+(AD100*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
+      <c r="AD100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="9">
         <f>INT(POWER(X100+(AF100*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
+      <c r="AF100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="9">
         <f>INT(50+(X100+(AH100*0.25)-1)*POWER(X100+(AH100*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
+      <c r="AH100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="9">
         <f>INT(5+(X100+(AJ100*0.25)-1)*POWER(X100+(AJ100*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="6" t="s">
+      <c r="AJ100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AM100" s="6" t="s">
+      <c r="AM100" s="11" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11604,253 +11622,255 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:39" s="9" customFormat="1">
+      <c r="A102" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
-      <c r="B103" t="s">
+    <row r="103" spans="1:39" s="9" customFormat="1">
+      <c r="A103" s="8"/>
+      <c r="B103" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="9">
         <v>1</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="9">
         <f>1+(D103-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="9">
         <f>INT(200+POWER(E103+(G103*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9">
         <f>INT(POWER(E103+(I103*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="9">
         <f>INT(50+(E103+(K103*0.25)-1)*POWER(E103+(K103*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
+      <c r="K103" s="9">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9">
         <f>INT(POWER(E103+(M103*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
+      <c r="M103" s="9">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9">
         <f>INT(50+(E103+(O103*0.25)-1)*POWER(E103+(O103*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
+      <c r="O103" s="9">
+        <v>0</v>
+      </c>
+      <c r="P103" s="9">
         <f>INT(5+(E103+(Q103*0.25)-1)*POWER(E103+(Q103*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103" s="5" t="s">
+      <c r="Q103" s="9">
+        <v>0</v>
+      </c>
+      <c r="R103" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U103" s="6" t="s">
+      <c r="U103" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="V103" s="6" t="s">
+      <c r="V103" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="W103">
-        <v>6</v>
-      </c>
-      <c r="X103">
+      <c r="W103" s="9">
+        <v>6</v>
+      </c>
+      <c r="X103" s="9">
         <f>1+(W103-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="9">
         <f>INT(POWER(X103+(Z103*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
+      <c r="Z103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="9">
         <f>INT(POWER(X103+(AB103*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
+      <c r="AB103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="9">
         <f>INT(50+(X103+(AD103*0.25)-1)*POWER(X103+(AD103*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
-      <c r="AE103">
+      <c r="AD103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="9">
         <f>INT(POWER(X103+(AF103*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF103">
-        <v>0</v>
-      </c>
-      <c r="AG103">
+      <c r="AF103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="9">
         <f>INT(50+(X103+(AH103*0.25)-1)*POWER(X103+(AH103*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-      <c r="AI103">
+      <c r="AH103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="9">
         <f>INT(5+(X103+(AJ103*0.25)-1)*POWER(X103+(AJ103*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="6" t="s">
+      <c r="AJ103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AM103" s="6" t="s">
+      <c r="AM103" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="1:39" s="9" customFormat="1">
+      <c r="A104" s="8"/>
+      <c r="B104" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="9">
         <v>1</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="9">
         <f>1+(D104-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="9">
         <f>INT(200+POWER(E104+(G104*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
+      <c r="G104" s="9">
+        <v>0</v>
+      </c>
+      <c r="H104" s="9">
         <f>INT(POWER(E104+(I104*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
         <f>INT(50+(E104+(K104*0.25)-1)*POWER(E104+(K104*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
+      <c r="K104" s="9">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9">
         <f>INT(POWER(E104+(M104*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9">
         <f>INT(50+(E104+(O104*0.25)-1)*POWER(E104+(O104*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
+      <c r="O104" s="9">
+        <v>0</v>
+      </c>
+      <c r="P104" s="9">
         <f>INT(5+(E104+(Q104*0.25)-1)*POWER(E104+(Q104*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104" s="6" t="s">
+      <c r="Q104" s="9">
+        <v>0</v>
+      </c>
+      <c r="R104" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="S104" s="6" t="s">
+      <c r="S104" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="U104" s="6" t="s">
+      <c r="U104" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="V104" s="6" t="s">
+      <c r="V104" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="W104">
-        <v>6</v>
-      </c>
-      <c r="X104">
+      <c r="W104" s="9">
+        <v>6</v>
+      </c>
+      <c r="X104" s="9">
         <f>1+(W104-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="9">
         <f>INT(POWER(X104+(Z104*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
+      <c r="Z104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="9">
         <f>INT(POWER(X104+(AB104*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
-      <c r="AC104">
+      <c r="AB104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="9">
         <f>INT(50+(X104+(AD104*0.25)-1)*POWER(X104+(AD104*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
-      <c r="AE104">
+      <c r="AD104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="9">
         <f>INT(POWER(X104+(AF104*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF104">
-        <v>0</v>
-      </c>
-      <c r="AG104">
+      <c r="AF104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="9">
         <f>INT(50+(X104+(AH104*0.25)-1)*POWER(X104+(AH104*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
-      <c r="AI104">
+      <c r="AH104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="9">
         <f>INT(5+(X104+(AJ104*0.25)-1)*POWER(X104+(AJ104*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="6" t="s">
+      <c r="AJ104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AM104" s="6" t="s">
+      <c r="AM104" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12001,50 +12021,50 @@
         <v>30</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E108">
         <f>1+(D108-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F108">
         <f>INT(200+POWER(E108+(G108*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
         <f>INT(POWER(E108+(I108*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
         <f>INT(50+(E108+(K108*0.25)-1)*POWER(E108+(K108*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
         <f>INT(POWER(E108+(M108*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
         <f>INT(50+(E108+(O108*0.25)-1)*POWER(E108+(O108*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
         <f>INT(5+(E108+(Q108*0.25)-1)*POWER(E108+(Q108*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -12125,50 +12145,50 @@
         <v>366</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <f>1+(D109-1)*0.25</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F109">
         <f>INT(200+POWER(E109+(G109*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1107</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
         <f>INT(POWER(E109+(I109*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
         <f>INT(50+(E109+(K109*0.25)-1)*POWER(E109+(K109*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K109">
         <v>0</v>
       </c>
       <c r="L109">
         <f>INT(POWER(E109+(M109*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
         <f>INT(50+(E109+(O109*0.25)-1)*POWER(E109+(O109*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
         <f>INT(5+(E109+(Q109*0.25)-1)*POWER(E109+(Q109*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -12321,7 +12341,7 @@
         <v>612</v>
       </c>
       <c r="D112" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -12815,50 +12835,50 @@
         <v>30</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E117">
         <f>1+(D117-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F117">
         <f>INT(200+POWER(E117+(G117*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
         <f>INT(POWER(E117+(I117*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
         <f>INT(50+(E117+(K117*0.25)-1)*POWER(E117+(K117*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K117">
         <v>0</v>
       </c>
       <c r="L117">
         <f>INT(POWER(E117+(M117*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
       <c r="N117">
         <f>INT(50+(E117+(O117*0.25)-1)*POWER(E117+(O117*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O117">
         <v>0</v>
       </c>
       <c r="P117">
         <f>INT(5+(E117+(Q117*0.25)-1)*POWER(E117+(Q117*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -12939,50 +12959,50 @@
         <v>399</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <f>1+(D118-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F118">
         <f>INT(200+POWER(E118+(G118*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
         <f>INT(POWER(E118+(I118*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
         <f>INT(50+(E118+(K118*0.25)-1)*POWER(E118+(K118*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
         <f>INT(POWER(E118+(M118*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M118">
         <v>0</v>
       </c>
       <c r="N118">
         <f>INT(50+(E118+(O118*0.25)-1)*POWER(E118+(O118*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O118">
         <v>0</v>
       </c>
       <c r="P118">
         <f>INT(5+(E118+(Q118*0.25)-1)*POWER(E118+(Q118*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -13135,7 +13155,7 @@
         <v>612</v>
       </c>
       <c r="D121" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E121" s="7">
         <v>1</v>
@@ -13385,50 +13405,50 @@
         <v>30</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <f>1+(D125-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F125">
         <f>INT(200+POWER(E125+(G125*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
         <f>INT(POWER(E125+(I125*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
         <f>INT(50+(E125+(K125*0.25)-1)*POWER(E125+(K125*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
       <c r="L125">
         <f>INT(POWER(E125+(M125*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
         <f>INT(50+(E125+(O125*0.25)-1)*POWER(E125+(O125*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O125">
         <v>0</v>
       </c>
       <c r="P125">
         <f>INT(5+(E125+(Q125*0.25)-1)*POWER(E125+(Q125*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -13633,50 +13653,50 @@
         <v>427</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E127">
         <f>1+(D127-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F127">
         <f>INT(200+POWER(E127+(G127*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
         <f>INT(POWER(E127+(I127*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
         <f>INT(50+(E127+(K127*0.25)-1)*POWER(E127+(K127*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
       <c r="L127">
         <f>INT(POWER(E127+(M127*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M127">
         <v>0</v>
       </c>
       <c r="N127">
         <f>INT(50+(E127+(O127*0.25)-1)*POWER(E127+(O127*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
       <c r="P127">
         <f>INT(5+(E127+(Q127*0.25)-1)*POWER(E127+(Q127*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q127">
         <v>0</v>
@@ -13829,7 +13849,7 @@
         <v>612</v>
       </c>
       <c r="D130" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -14253,377 +14273,380 @@
         <v>447</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:39" s="9" customFormat="1">
+      <c r="A134" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
-      <c r="B135" t="s">
+    <row r="135" spans="1:39" s="9" customFormat="1">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="9">
         <v>1</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="9">
         <f>1+(D135-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="9">
         <f>INT(200+POWER(E135+(G135*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
+      <c r="G135" s="9">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9">
         <f>INT(POWER(E135+(I135*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
+      <c r="I135" s="9">
+        <v>0</v>
+      </c>
+      <c r="J135" s="9">
         <f>INT(50+(E135+(K135*0.25)-1)*POWER(E135+(K135*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
+      <c r="K135" s="9">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
         <f>INT(POWER(E135+(M135*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
+      <c r="M135" s="9">
+        <v>0</v>
+      </c>
+      <c r="N135" s="9">
         <f>INT(50+(E135+(O135*0.25)-1)*POWER(E135+(O135*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
+      <c r="O135" s="9">
+        <v>0</v>
+      </c>
+      <c r="P135" s="9">
         <f>INT(5+(E135+(Q135*0.25)-1)*POWER(E135+(Q135*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135" s="5" t="s">
+      <c r="Q135" s="9">
+        <v>0</v>
+      </c>
+      <c r="R135" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U135" s="6" t="s">
+      <c r="U135" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="V135" s="6" t="s">
+      <c r="V135" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="W135">
-        <v>6</v>
-      </c>
-      <c r="X135">
+      <c r="W135" s="9">
+        <v>6</v>
+      </c>
+      <c r="X135" s="9">
         <f>1+(W135-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y135">
+      <c r="Y135" s="9">
         <f>INT(POWER(X135+(Z135*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
+      <c r="Z135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="9">
         <f>INT(POWER(X135+(AB135*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB135">
-        <v>0</v>
-      </c>
-      <c r="AC135">
+      <c r="AB135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="9">
         <f>INT(50+(X135+(AD135*0.25)-1)*POWER(X135+(AD135*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD135">
-        <v>0</v>
-      </c>
-      <c r="AE135">
+      <c r="AD135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="9">
         <f>INT(POWER(X135+(AF135*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF135">
-        <v>0</v>
-      </c>
-      <c r="AG135">
+      <c r="AF135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="9">
         <f>INT(50+(X135+(AH135*0.25)-1)*POWER(X135+(AH135*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH135">
-        <v>0</v>
-      </c>
-      <c r="AI135">
+      <c r="AH135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="9">
         <f>INT(5+(X135+(AJ135*0.25)-1)*POWER(X135+(AJ135*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
-      <c r="AL135" s="6" t="s">
+      <c r="AJ135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="AM135" s="6" t="s">
+      <c r="AM135" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
-      <c r="B136" s="6" t="s">
+    <row r="136" spans="1:39" s="9" customFormat="1">
+      <c r="A136" s="8"/>
+      <c r="B136" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="9">
         <v>1</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="9">
         <f>1+(D136-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="9">
         <f>INT(200+POWER(E136+(G136*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
+      <c r="G136" s="9">
+        <v>0</v>
+      </c>
+      <c r="H136" s="9">
         <f>INT(POWER(E136+(I136*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
+      <c r="I136" s="9">
+        <v>0</v>
+      </c>
+      <c r="J136" s="9">
         <f>INT(50+(E136+(K136*0.25)-1)*POWER(E136+(K136*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
+      <c r="K136" s="9">
+        <v>0</v>
+      </c>
+      <c r="L136" s="9">
         <f>INT(POWER(E136+(M136*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
+      <c r="M136" s="9">
+        <v>0</v>
+      </c>
+      <c r="N136" s="9">
         <f>INT(50+(E136+(O136*0.25)-1)*POWER(E136+(O136*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
+      <c r="O136" s="9">
+        <v>0</v>
+      </c>
+      <c r="P136" s="9">
         <f>INT(5+(E136+(Q136*0.25)-1)*POWER(E136+(Q136*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136" s="6" t="s">
+      <c r="Q136" s="9">
+        <v>0</v>
+      </c>
+      <c r="R136" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="S136" s="6" t="s">
+      <c r="S136" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="U136" s="6" t="s">
+      <c r="U136" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="V136" s="6" t="s">
+      <c r="V136" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="W136">
-        <v>6</v>
-      </c>
-      <c r="X136">
+      <c r="W136" s="9">
+        <v>6</v>
+      </c>
+      <c r="X136" s="9">
         <f>1+(W136-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y136">
+      <c r="Y136" s="9">
         <f>INT(POWER(X136+(Z136*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
+      <c r="Z136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="9">
         <f>INT(POWER(X136+(AB136*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
-      <c r="AC136">
+      <c r="AB136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="9">
         <f>INT(50+(X136+(AD136*0.25)-1)*POWER(X136+(AD136*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD136">
-        <v>0</v>
-      </c>
-      <c r="AE136">
+      <c r="AD136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="9">
         <f>INT(POWER(X136+(AF136*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF136">
-        <v>0</v>
-      </c>
-      <c r="AG136">
+      <c r="AF136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG136" s="9">
         <f>INT(50+(X136+(AH136*0.25)-1)*POWER(X136+(AH136*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH136">
-        <v>0</v>
-      </c>
-      <c r="AI136">
+      <c r="AH136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI136" s="9">
         <f>INT(5+(X136+(AJ136*0.25)-1)*POWER(X136+(AJ136*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
-      <c r="AL136" s="6" t="s">
+      <c r="AJ136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AM136" s="6" t="s">
+      <c r="AM136" s="11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
-      <c r="B137" s="6" t="s">
+    <row r="137" spans="1:39" s="9" customFormat="1">
+      <c r="A137" s="8"/>
+      <c r="B137" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="9">
         <v>1</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="9">
         <f>1+(D137-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="9">
         <f>INT(200+POWER(E137+(G137*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
+      <c r="G137" s="9">
+        <v>0</v>
+      </c>
+      <c r="H137" s="9">
         <f>INT(POWER(E137+(I137*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
+      <c r="I137" s="9">
+        <v>0</v>
+      </c>
+      <c r="J137" s="9">
         <f>INT(50+(E137+(K137*0.25)-1)*POWER(E137+(K137*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
+      <c r="K137" s="9">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
         <f>INT(POWER(E137+(M137*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
+      <c r="M137" s="9">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9">
         <f>INT(50+(E137+(O137*0.25)-1)*POWER(E137+(O137*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
+      <c r="O137" s="9">
+        <v>0</v>
+      </c>
+      <c r="P137" s="9">
         <f>INT(5+(E137+(Q137*0.25)-1)*POWER(E137+(Q137*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137" s="6" t="s">
+      <c r="Q137" s="9">
+        <v>0</v>
+      </c>
+      <c r="R137" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="S137" s="6" t="s">
+      <c r="S137" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="U137" s="6" t="s">
+      <c r="U137" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="V137" s="6" t="s">
+      <c r="V137" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="W137">
-        <v>6</v>
-      </c>
-      <c r="X137">
+      <c r="W137" s="9">
+        <v>6</v>
+      </c>
+      <c r="X137" s="9">
         <f>1+(W137-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y137">
+      <c r="Y137" s="9">
         <f>INT(POWER(X137+(Z137*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
+      <c r="Z137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="9">
         <f>INT(POWER(X137+(AB137*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AB137">
-        <v>0</v>
-      </c>
-      <c r="AC137">
+      <c r="AB137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="9">
         <f>INT(50+(X137+(AD137*0.25)-1)*POWER(X137+(AD137*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AD137">
-        <v>0</v>
-      </c>
-      <c r="AE137">
+      <c r="AD137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="9">
         <f>INT(POWER(X137+(AF137*0.25),3))+40</f>
         <v>51</v>
       </c>
-      <c r="AF137">
-        <v>0</v>
-      </c>
-      <c r="AG137">
+      <c r="AF137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="9">
         <f>INT(50+(X137+(AH137*0.25)-1)*POWER(X137+(AH137*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
-      <c r="AH137">
-        <v>0</v>
-      </c>
-      <c r="AI137">
+      <c r="AH137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="9">
         <f>INT(5+(X137+(AJ137*0.25)-1)*POWER(X137+(AJ137*0.25),0.2))</f>
         <v>6</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
-      <c r="AL137" s="6" t="s">
+      <c r="AJ137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AM137" s="6" t="s">
+      <c r="AM137" s="11" t="s">
         <v>219</v>
       </c>
     </row>
@@ -14640,50 +14663,50 @@
         <v>30</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E139">
         <f>1+(D139-1)*0.25</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F139">
         <f>INT(200+POWER(E139+(G139*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>807</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
         <f>INT(POWER(E139+(I139*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
         <f>INT(50+(E139+(K139*0.25)-1)*POWER(E139+(K139*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
         <f>INT(POWER(E139+(M139*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
         <f>INT(50+(E139+(O139*0.25)-1)*POWER(E139+(O139*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="O139">
         <v>0</v>
       </c>
       <c r="P139">
         <f>INT(5+(E139+(Q139*0.25)-1)*POWER(E139+(Q139*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -14764,50 +14787,50 @@
         <v>470</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <f>1+(D140-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F140">
         <f>INT(200+POWER(E140+(G140*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
         <f>INT(POWER(E140+(I140*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
         <f>INT(50+(E140+(K140*0.25)-1)*POWER(E140+(K140*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
         <f>INT(POWER(E140+(M140*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M140">
         <v>0</v>
       </c>
       <c r="N140">
         <f>INT(50+(E140+(O140*0.25)-1)*POWER(E140+(O140*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O140">
         <v>0</v>
       </c>
       <c r="P140">
         <f>INT(5+(E140+(Q140*0.25)-1)*POWER(E140+(Q140*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -15071,377 +15094,380 @@
         <v>484</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:39" s="9" customFormat="1">
+      <c r="A143" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
-      <c r="B144" t="s">
+    <row r="144" spans="1:39" s="9" customFormat="1">
+      <c r="A144" s="8"/>
+      <c r="B144" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="9">
         <v>1</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="9">
         <f>1+(D144-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="9">
         <f>INT(200+POWER(E144+(G144*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
+      <c r="G144" s="9">
+        <v>0</v>
+      </c>
+      <c r="H144" s="9">
         <f>INT(POWER(E144+(I144*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
+      <c r="I144" s="9">
+        <v>0</v>
+      </c>
+      <c r="J144" s="9">
         <f>INT(50+(E144+(K144*0.25)-1)*POWER(E144+(K144*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
+      <c r="K144" s="9">
+        <v>0</v>
+      </c>
+      <c r="L144" s="9">
         <f>INT(POWER(E144+(M144*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
+      <c r="M144" s="9">
+        <v>0</v>
+      </c>
+      <c r="N144" s="9">
         <f>INT(50+(E144+(O144*0.25)-1)*POWER(E144+(O144*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
+      <c r="O144" s="9">
+        <v>0</v>
+      </c>
+      <c r="P144" s="9">
         <f>INT(5+(E144+(Q144*0.25)-1)*POWER(E144+(Q144*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144" s="5" t="s">
+      <c r="Q144" s="9">
+        <v>0</v>
+      </c>
+      <c r="R144" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="U144" s="6" t="s">
+      <c r="U144" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="V144" s="6" t="s">
+      <c r="V144" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="W144">
-        <v>6</v>
-      </c>
-      <c r="X144">
-        <f t="shared" ref="X144:X150" si="70">1+(W144-1)*0.25</f>
+      <c r="W144" s="9">
+        <v>6</v>
+      </c>
+      <c r="X144" s="9">
+        <f t="shared" ref="X144:X150" si="98">1+(W144-1)*0.25</f>
         <v>2.25</v>
       </c>
-      <c r="Y144">
-        <f t="shared" ref="Y144:Y150" si="71">INT(POWER(X144+(Z144*0.25),2)*35)</f>
+      <c r="Y144" s="9">
+        <f t="shared" ref="Y144:Y150" si="99">INT(POWER(X144+(Z144*0.25),2)*35)</f>
         <v>177</v>
       </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <f t="shared" ref="AA144:AA150" si="72">INT(POWER(X144+(AB144*0.25),3))+40</f>
-        <v>51</v>
-      </c>
-      <c r="AB144">
-        <v>0</v>
-      </c>
-      <c r="AC144">
-        <f t="shared" ref="AC144:AC150" si="73">INT(50+(X144+(AD144*0.25)-1)*POWER(X144+(AD144*0.25),0.5)*10)</f>
-        <v>68</v>
-      </c>
-      <c r="AD144">
-        <v>0</v>
-      </c>
-      <c r="AE144">
-        <f t="shared" ref="AE144:AE150" si="74">INT(POWER(X144+(AF144*0.25),3))+40</f>
-        <v>51</v>
-      </c>
-      <c r="AF144">
-        <v>0</v>
-      </c>
-      <c r="AG144">
-        <f t="shared" ref="AG144:AG150" si="75">INT(50+(X144+(AH144*0.25)-1)*POWER(X144+(AH144*0.25),0.5)*10)</f>
-        <v>68</v>
-      </c>
-      <c r="AH144">
-        <v>0</v>
-      </c>
-      <c r="AI144">
-        <f t="shared" ref="AI144:AI150" si="76">INT(5+(X144+(AJ144*0.25)-1)*POWER(X144+(AJ144*0.25),0.2))</f>
-        <v>6</v>
-      </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
-      <c r="AL144" s="6" t="s">
+      <c r="Z144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="9">
+        <f t="shared" ref="AA144:AA150" si="100">INT(POWER(X144+(AB144*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AB144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="9">
+        <f t="shared" ref="AC144:AC150" si="101">INT(50+(X144+(AD144*0.25)-1)*POWER(X144+(AD144*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AD144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="9">
+        <f t="shared" ref="AE144:AE150" si="102">INT(POWER(X144+(AF144*0.25),3))+40</f>
+        <v>51</v>
+      </c>
+      <c r="AF144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="9">
+        <f t="shared" ref="AG144:AG150" si="103">INT(50+(X144+(AH144*0.25)-1)*POWER(X144+(AH144*0.25),0.5)*10)</f>
+        <v>68</v>
+      </c>
+      <c r="AH144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="9">
+        <f t="shared" ref="AI144:AI150" si="104">INT(5+(X144+(AJ144*0.25)-1)*POWER(X144+(AJ144*0.25),0.2))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="AM144" s="6" t="s">
+      <c r="AM144" s="11" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
-      <c r="B145" s="6" t="s">
+    <row r="145" spans="1:39" s="9" customFormat="1">
+      <c r="A145" s="8"/>
+      <c r="B145" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="9">
         <v>1</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="9">
         <f>1+(D145-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="9">
         <f>INT(200+POWER(E145+(G145*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
+      <c r="G145" s="9">
+        <v>0</v>
+      </c>
+      <c r="H145" s="9">
         <f>INT(POWER(E145+(I145*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
+      <c r="I145" s="9">
+        <v>0</v>
+      </c>
+      <c r="J145" s="9">
         <f>INT(50+(E145+(K145*0.25)-1)*POWER(E145+(K145*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
+      <c r="K145" s="9">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9">
         <f>INT(POWER(E145+(M145*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
+      <c r="M145" s="9">
+        <v>0</v>
+      </c>
+      <c r="N145" s="9">
         <f>INT(50+(E145+(O145*0.25)-1)*POWER(E145+(O145*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
+      <c r="O145" s="9">
+        <v>0</v>
+      </c>
+      <c r="P145" s="9">
         <f>INT(5+(E145+(Q145*0.25)-1)*POWER(E145+(Q145*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145" s="6" t="s">
+      <c r="Q145" s="9">
+        <v>0</v>
+      </c>
+      <c r="R145" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="S145" s="6" t="s">
+      <c r="S145" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="U145" s="6" t="s">
+      <c r="U145" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="V145" s="6" t="s">
+      <c r="V145" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="W145">
-        <v>6</v>
-      </c>
-      <c r="X145">
-        <f t="shared" si="70"/>
+      <c r="W145" s="9">
+        <v>6</v>
+      </c>
+      <c r="X145" s="9">
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
-      <c r="Y145">
-        <f t="shared" si="71"/>
+      <c r="Y145" s="9">
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <f t="shared" si="72"/>
-        <v>51</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <f t="shared" si="73"/>
-        <v>68</v>
-      </c>
-      <c r="AD145">
-        <v>0</v>
-      </c>
-      <c r="AE145">
-        <f t="shared" si="74"/>
-        <v>51</v>
-      </c>
-      <c r="AF145">
-        <v>0</v>
-      </c>
-      <c r="AG145">
-        <f t="shared" si="75"/>
-        <v>68</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-      <c r="AI145">
-        <f t="shared" si="76"/>
-        <v>6</v>
-      </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
-      <c r="AL145" s="6" t="s">
+      <c r="Z145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="9">
+        <f t="shared" si="100"/>
+        <v>51</v>
+      </c>
+      <c r="AB145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="9">
+        <f t="shared" si="101"/>
+        <v>68</v>
+      </c>
+      <c r="AD145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="9">
+        <f t="shared" si="102"/>
+        <v>51</v>
+      </c>
+      <c r="AF145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="9">
+        <f t="shared" si="103"/>
+        <v>68</v>
+      </c>
+      <c r="AH145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="9">
+        <f t="shared" si="104"/>
+        <v>6</v>
+      </c>
+      <c r="AJ145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="AM145" s="6" t="s">
+      <c r="AM145" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
-      <c r="B146" s="6" t="s">
+    <row r="146" spans="1:39" s="9" customFormat="1">
+      <c r="A146" s="8"/>
+      <c r="B146" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="9">
         <v>1</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="9">
         <f>1+(D146-1)*0.25</f>
         <v>1</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="9">
         <f>INT(200+POWER(E146+(G146*0.25)+1,2)*30)</f>
         <v>320</v>
       </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
+      <c r="G146" s="9">
+        <v>0</v>
+      </c>
+      <c r="H146" s="9">
         <f>INT(POWER(E146+(I146*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
+      <c r="I146" s="9">
+        <v>0</v>
+      </c>
+      <c r="J146" s="9">
         <f>INT(50+(E146+(K146*0.25)-1)*POWER(E146+(K146*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
+      <c r="K146" s="9">
+        <v>0</v>
+      </c>
+      <c r="L146" s="9">
         <f>INT(POWER(E146+(M146*0.25)+4,2)*3)</f>
         <v>75</v>
       </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
+      <c r="M146" s="9">
+        <v>0</v>
+      </c>
+      <c r="N146" s="9">
         <f>INT(50+(E146+(O146*0.25)-1)*POWER(E146+(O146*0.25),0.5)*10)</f>
         <v>50</v>
       </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
+      <c r="O146" s="9">
+        <v>0</v>
+      </c>
+      <c r="P146" s="9">
         <f>INT(5+(E146+(Q146*0.25)-1)*POWER(E146+(Q146*0.25),0.2))</f>
         <v>5</v>
       </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146" s="6" t="s">
+      <c r="Q146" s="9">
+        <v>0</v>
+      </c>
+      <c r="R146" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="S146" s="6" t="s">
+      <c r="S146" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="U146" s="6" t="s">
+      <c r="U146" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="V146" s="6" t="s">
+      <c r="V146" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="W146">
-        <v>6</v>
-      </c>
-      <c r="X146">
-        <f t="shared" si="70"/>
+      <c r="W146" s="9">
+        <v>6</v>
+      </c>
+      <c r="X146" s="9">
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
-      <c r="Y146">
-        <f t="shared" si="71"/>
+      <c r="Y146" s="9">
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
-        <f t="shared" si="72"/>
-        <v>51</v>
-      </c>
-      <c r="AB146">
-        <v>0</v>
-      </c>
-      <c r="AC146">
-        <f t="shared" si="73"/>
-        <v>68</v>
-      </c>
-      <c r="AD146">
-        <v>0</v>
-      </c>
-      <c r="AE146">
-        <f t="shared" si="74"/>
-        <v>51</v>
-      </c>
-      <c r="AF146">
-        <v>0</v>
-      </c>
-      <c r="AG146">
-        <f t="shared" si="75"/>
-        <v>68</v>
-      </c>
-      <c r="AH146">
-        <v>0</v>
-      </c>
-      <c r="AI146">
-        <f t="shared" si="76"/>
-        <v>6</v>
-      </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
-      <c r="AL146" s="6" t="s">
+      <c r="Z146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="9">
+        <f t="shared" si="100"/>
+        <v>51</v>
+      </c>
+      <c r="AB146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="9">
+        <f t="shared" si="101"/>
+        <v>68</v>
+      </c>
+      <c r="AD146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="9">
+        <f t="shared" si="102"/>
+        <v>51</v>
+      </c>
+      <c r="AF146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="9">
+        <f t="shared" si="103"/>
+        <v>68</v>
+      </c>
+      <c r="AH146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="9">
+        <f t="shared" si="104"/>
+        <v>6</v>
+      </c>
+      <c r="AJ146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="AM146" s="6" t="s">
+      <c r="AM146" s="11" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15456,46 +15482,46 @@
         <v>6</v>
       </c>
       <c r="X147">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
       <c r="Y147">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
       <c r="Z147">
         <v>0</v>
       </c>
       <c r="AA147">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>51</v>
       </c>
       <c r="AB147">
         <v>0</v>
       </c>
       <c r="AC147">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>68</v>
       </c>
       <c r="AD147">
         <v>0</v>
       </c>
       <c r="AE147">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AF147">
         <v>0</v>
       </c>
       <c r="AG147">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AH147">
         <v>0</v>
       </c>
       <c r="AI147">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>6</v>
       </c>
       <c r="AJ147">
@@ -15523,46 +15549,46 @@
         <v>6</v>
       </c>
       <c r="X148">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
       <c r="Y148">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
       <c r="Z148">
         <v>0</v>
       </c>
       <c r="AA148">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>51</v>
       </c>
       <c r="AB148">
         <v>0</v>
       </c>
       <c r="AC148">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>68</v>
       </c>
       <c r="AD148">
         <v>0</v>
       </c>
       <c r="AE148">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AF148">
         <v>0</v>
       </c>
       <c r="AG148">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AH148">
         <v>0</v>
       </c>
       <c r="AI148">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>6</v>
       </c>
       <c r="AJ148">
@@ -15590,46 +15616,46 @@
         <v>6</v>
       </c>
       <c r="X149">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
       <c r="Y149">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
       <c r="Z149">
         <v>0</v>
       </c>
       <c r="AA149">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>51</v>
       </c>
       <c r="AB149">
         <v>0</v>
       </c>
       <c r="AC149">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>68</v>
       </c>
       <c r="AD149">
         <v>0</v>
       </c>
       <c r="AE149">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AF149">
         <v>0</v>
       </c>
       <c r="AG149">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AH149">
         <v>0</v>
       </c>
       <c r="AI149">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>6</v>
       </c>
       <c r="AJ149">
@@ -15657,46 +15683,46 @@
         <v>6</v>
       </c>
       <c r="X150">
-        <f t="shared" si="70"/>
+        <f t="shared" si="98"/>
         <v>2.25</v>
       </c>
       <c r="Y150">
-        <f t="shared" si="71"/>
+        <f t="shared" si="99"/>
         <v>177</v>
       </c>
       <c r="Z150">
         <v>0</v>
       </c>
       <c r="AA150">
-        <f t="shared" si="72"/>
+        <f t="shared" si="100"/>
         <v>51</v>
       </c>
       <c r="AB150">
         <v>0</v>
       </c>
       <c r="AC150">
-        <f t="shared" si="73"/>
+        <f t="shared" si="101"/>
         <v>68</v>
       </c>
       <c r="AD150">
         <v>0</v>
       </c>
       <c r="AE150">
-        <f t="shared" si="74"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AF150">
         <v>0</v>
       </c>
       <c r="AG150">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AH150">
         <v>0</v>
       </c>
       <c r="AI150">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>6</v>
       </c>
       <c r="AJ150">
@@ -15722,7 +15748,7 @@
         <v>612</v>
       </c>
       <c r="D152" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -15839,50 +15865,50 @@
         <v>490</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E153">
         <f>1+(D153-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F153">
         <f>INT(200+POWER(E153+(G153*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
         <f>INT(POWER(E153+(I153*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
         <f>INT(50+(E153+(K153*0.25)-1)*POWER(E153+(K153*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
         <f>INT(POWER(E153+(M153*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
       <c r="N153">
         <f>INT(50+(E153+(O153*0.25)-1)*POWER(E153+(O153*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O153">
         <v>0</v>
       </c>
       <c r="P153">
         <f>INT(5+(E153+(Q153*0.25)-1)*POWER(E153+(Q153*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -16096,50 +16122,50 @@
         <v>539</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E157">
         <f>1+(D157-1)*0.25</f>
-        <v>1</v>
+        <v>5.75</v>
       </c>
       <c r="F157">
         <f>INT(200+POWER(E157+(G157*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1566</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
         <f>INT(POWER(E157+(I157*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
         <f>INT(50+(E157+(K157*0.25)-1)*POWER(E157+(K157*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
         <f>INT(POWER(E157+(M157*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="M157">
         <v>0</v>
       </c>
       <c r="N157">
         <f>INT(50+(E157+(O157*0.25)-1)*POWER(E157+(O157*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
         <f>INT(5+(E157+(Q157*0.25)-1)*POWER(E157+(Q157*0.25),0.2))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -16220,50 +16246,50 @@
         <v>541</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <f>1+(D158-1)*0.25</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F158">
         <f>INT(200+POWER(E158+(G158*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1107</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
         <f>INT(POWER(E158+(I158*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
         <f>INT(50+(E158+(K158*0.25)-1)*POWER(E158+(K158*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
         <f>INT(POWER(E158+(M158*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="M158">
         <v>0</v>
       </c>
       <c r="N158">
         <f>INT(50+(E158+(O158*0.25)-1)*POWER(E158+(O158*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
         <f>INT(5+(E158+(Q158*0.25)-1)*POWER(E158+(Q158*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -16344,50 +16370,50 @@
         <v>30</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E159">
         <f>1+(D159-1)*0.25</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F159">
         <f>INT(200+POWER(E159+(G159*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>950</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
         <f>INT(POWER(E159+(I159*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
         <f>INT(50+(E159+(K159*0.25)-1)*POWER(E159+(K159*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
         <f>INT(POWER(E159+(M159*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
       <c r="N159">
         <f>INT(50+(E159+(O159*0.25)-1)*POWER(E159+(O159*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
         <f>INT(5+(E159+(Q159*0.25)-1)*POWER(E159+(Q159*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -16468,50 +16494,50 @@
         <v>30</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E160">
         <f>1+(D160-1)*0.25</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F160">
         <f>INT(200+POWER(E160+(G160*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>950</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
         <f>INT(POWER(E160+(I160*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
         <f>INT(50+(E160+(K160*0.25)-1)*POWER(E160+(K160*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
         <f>INT(POWER(E160+(M160*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="M160">
         <v>0</v>
       </c>
       <c r="N160">
         <f>INT(50+(E160+(O160*0.25)-1)*POWER(E160+(O160*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
         <f>INT(5+(E160+(Q160*0.25)-1)*POWER(E160+(Q160*0.25),0.2))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -16592,7 +16618,7 @@
         <v>612</v>
       </c>
       <c r="D161" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E161" s="7">
         <v>1</v>
@@ -16652,7 +16678,7 @@
         <v>612</v>
       </c>
       <c r="D162" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E162" s="7">
         <v>1</v>
@@ -16712,7 +16738,7 @@
         <v>612</v>
       </c>
       <c r="D163" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -16772,7 +16798,7 @@
         <v>612</v>
       </c>
       <c r="D164" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -16837,50 +16863,50 @@
         <v>30</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E166">
         <f>1+(D166-1)*0.25</f>
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="F166">
         <f>INT(200+POWER(E166+(G166*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1026</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
         <f>INT(POWER(E166+(I166*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
         <f>INT(50+(E166+(K166*0.25)-1)*POWER(E166+(K166*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
         <f>INT(POWER(E166+(M166*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
         <f>INT(50+(E166+(O166*0.25)-1)*POWER(E166+(O166*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="O166">
         <v>0</v>
       </c>
       <c r="P166">
         <f>INT(5+(E166+(Q166*0.25)-1)*POWER(E166+(Q166*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -16901,46 +16927,46 @@
         <v>6</v>
       </c>
       <c r="X166">
-        <f t="shared" ref="X166:X172" si="77">1+(W166-1)*0.25</f>
+        <f t="shared" ref="X166:X172" si="105">1+(W166-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="Y166">
-        <f t="shared" ref="Y166:Y172" si="78">INT(POWER(X166+(Z166*0.25),2)*35)</f>
+        <f t="shared" ref="Y166:Y172" si="106">INT(POWER(X166+(Z166*0.25),2)*35)</f>
         <v>177</v>
       </c>
       <c r="Z166">
         <v>0</v>
       </c>
       <c r="AA166">
-        <f t="shared" ref="AA166:AA172" si="79">INT(POWER(X166+(AB166*0.25),3))+40</f>
+        <f t="shared" ref="AA166:AA172" si="107">INT(POWER(X166+(AB166*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AB166">
         <v>0</v>
       </c>
       <c r="AC166">
-        <f t="shared" ref="AC166:AC172" si="80">INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC166:AC172" si="108">INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AD166">
         <v>0</v>
       </c>
       <c r="AE166">
-        <f t="shared" ref="AE166:AE172" si="81">INT(POWER(X166+(AF166*0.25),3))+40</f>
+        <f t="shared" ref="AE166:AE172" si="109">INT(POWER(X166+(AF166*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AF166">
         <v>0</v>
       </c>
       <c r="AG166">
-        <f t="shared" ref="AG166:AG172" si="82">INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG166:AG172" si="110">INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AH166">
         <v>0</v>
       </c>
       <c r="AI166">
-        <f t="shared" ref="AI166:AI172" si="83">INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
+        <f t="shared" ref="AI166:AI172" si="111">INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="AJ166">
@@ -16961,50 +16987,50 @@
         <v>30</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E167">
         <f>1+(D167-1)*0.25</f>
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="F167">
         <f>INT(200+POWER(E167+(G167*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1026</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
         <f>INT(POWER(E167+(I167*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
         <f>INT(50+(E167+(K167*0.25)-1)*POWER(E167+(K167*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
         <f>INT(POWER(E167+(M167*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
       <c r="N167">
         <f>INT(50+(E167+(O167*0.25)-1)*POWER(E167+(O167*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="O167">
         <v>0</v>
       </c>
       <c r="P167">
         <f>INT(5+(E167+(Q167*0.25)-1)*POWER(E167+(Q167*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q167">
         <v>0</v>
@@ -17025,46 +17051,46 @@
         <v>6</v>
       </c>
       <c r="X167">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y167">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z167">
         <v>0</v>
       </c>
       <c r="AA167">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB167">
         <v>0</v>
       </c>
       <c r="AC167">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD167">
         <v>0</v>
       </c>
       <c r="AE167">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF167">
         <v>0</v>
       </c>
       <c r="AG167">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH167">
         <v>0</v>
       </c>
       <c r="AI167">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ167">
@@ -17085,7 +17111,7 @@
         <v>612</v>
       </c>
       <c r="D168" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -17142,46 +17168,46 @@
         <v>6</v>
       </c>
       <c r="X168">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y168">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z168">
         <v>0</v>
       </c>
       <c r="AA168">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB168">
         <v>0</v>
       </c>
       <c r="AC168">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD168">
         <v>0</v>
       </c>
       <c r="AE168">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF168">
         <v>0</v>
       </c>
       <c r="AG168">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH168">
         <v>0</v>
       </c>
       <c r="AI168">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ168">
@@ -17202,7 +17228,7 @@
         <v>612</v>
       </c>
       <c r="D169" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -17259,46 +17285,46 @@
         <v>6</v>
       </c>
       <c r="X169">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y169">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z169">
         <v>0</v>
       </c>
       <c r="AA169">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB169">
         <v>0</v>
       </c>
       <c r="AC169">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD169">
         <v>0</v>
       </c>
       <c r="AE169">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF169">
         <v>0</v>
       </c>
       <c r="AG169">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH169">
         <v>0</v>
       </c>
       <c r="AI169">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ169">
@@ -17319,7 +17345,7 @@
         <v>612</v>
       </c>
       <c r="D170" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -17376,46 +17402,46 @@
         <v>6</v>
       </c>
       <c r="X170">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y170">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z170">
         <v>0</v>
       </c>
       <c r="AA170">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB170">
         <v>0</v>
       </c>
       <c r="AC170">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD170">
         <v>0</v>
       </c>
       <c r="AE170">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF170">
         <v>0</v>
       </c>
       <c r="AG170">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH170">
         <v>0</v>
       </c>
       <c r="AI170">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ170">
@@ -17436,7 +17462,7 @@
         <v>612</v>
       </c>
       <c r="D171" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -17493,46 +17519,46 @@
         <v>6</v>
       </c>
       <c r="X171">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y171">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z171">
         <v>0</v>
       </c>
       <c r="AA171">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB171">
         <v>0</v>
       </c>
       <c r="AC171">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD171">
         <v>0</v>
       </c>
       <c r="AE171">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF171">
         <v>0</v>
       </c>
       <c r="AG171">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH171">
         <v>0</v>
       </c>
       <c r="AI171">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ171">
@@ -17557,46 +17583,46 @@
         <v>6</v>
       </c>
       <c r="X172">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>2.25</v>
       </c>
       <c r="Y172">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>177</v>
       </c>
       <c r="Z172">
         <v>0</v>
       </c>
       <c r="AA172">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>51</v>
       </c>
       <c r="AB172">
         <v>0</v>
       </c>
       <c r="AC172">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>68</v>
       </c>
       <c r="AD172">
         <v>0</v>
       </c>
       <c r="AE172">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>51</v>
       </c>
       <c r="AF172">
         <v>0</v>
       </c>
       <c r="AG172">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>68</v>
       </c>
       <c r="AH172">
         <v>0</v>
       </c>
       <c r="AI172">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>6</v>
       </c>
       <c r="AJ172">
@@ -17622,50 +17648,50 @@
         <v>30</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E174">
         <f>1+(D174-1)*0.25</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F174">
         <f>INT(200+POWER(E174+(G174*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1107</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
         <f>INT(POWER(E174+(I174*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
         <f>INT(50+(E174+(K174*0.25)-1)*POWER(E174+(K174*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
         <f>INT(POWER(E174+(M174*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
       <c r="N174">
         <f>INT(50+(E174+(O174*0.25)-1)*POWER(E174+(O174*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O174">
         <v>0</v>
       </c>
       <c r="P174">
         <f>INT(5+(E174+(Q174*0.25)-1)*POWER(E174+(Q174*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -17686,46 +17712,46 @@
         <v>6</v>
       </c>
       <c r="X174">
-        <f t="shared" ref="X174:X180" si="84">1+(W174-1)*0.25</f>
+        <f t="shared" ref="X174:X180" si="112">1+(W174-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="Y174">
-        <f t="shared" ref="Y174:Y180" si="85">INT(POWER(X174+(Z174*0.25),2)*35)</f>
+        <f t="shared" ref="Y174:Y180" si="113">INT(POWER(X174+(Z174*0.25),2)*35)</f>
         <v>177</v>
       </c>
       <c r="Z174">
         <v>0</v>
       </c>
       <c r="AA174">
-        <f t="shared" ref="AA174:AA180" si="86">INT(POWER(X174+(AB174*0.25),3))+40</f>
+        <f t="shared" ref="AA174:AA180" si="114">INT(POWER(X174+(AB174*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AB174">
         <v>0</v>
       </c>
       <c r="AC174">
-        <f t="shared" ref="AC174:AC180" si="87">INT(50+(X174+(AD174*0.25)-1)*POWER(X174+(AD174*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC174:AC180" si="115">INT(50+(X174+(AD174*0.25)-1)*POWER(X174+(AD174*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AD174">
         <v>0</v>
       </c>
       <c r="AE174">
-        <f t="shared" ref="AE174:AE180" si="88">INT(POWER(X174+(AF174*0.25),3))+40</f>
+        <f t="shared" ref="AE174:AE180" si="116">INT(POWER(X174+(AF174*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AF174">
         <v>0</v>
       </c>
       <c r="AG174">
-        <f t="shared" ref="AG174:AG180" si="89">INT(50+(X174+(AH174*0.25)-1)*POWER(X174+(AH174*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG174:AG180" si="117">INT(50+(X174+(AH174*0.25)-1)*POWER(X174+(AH174*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI174:AI180" si="90">INT(5+(X174+(AJ174*0.25)-1)*POWER(X174+(AJ174*0.25),0.2))</f>
+        <f t="shared" ref="AI174:AI180" si="118">INT(5+(X174+(AJ174*0.25)-1)*POWER(X174+(AJ174*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="AJ174">
@@ -17746,50 +17772,50 @@
         <v>30</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E175">
         <f>1+(D175-1)*0.25</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F175">
         <f>INT(200+POWER(E175+(G175*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>1107</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
         <f>INT(POWER(E175+(I175*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
         <f>INT(50+(E175+(K175*0.25)-1)*POWER(E175+(K175*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
         <f>INT(POWER(E175+(M175*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="M175">
         <v>0</v>
       </c>
       <c r="N175">
         <f>INT(50+(E175+(O175*0.25)-1)*POWER(E175+(O175*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="O175">
         <v>0</v>
       </c>
       <c r="P175">
         <f>INT(5+(E175+(Q175*0.25)-1)*POWER(E175+(Q175*0.25),0.2))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -17810,46 +17836,46 @@
         <v>6</v>
       </c>
       <c r="X175">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z175">
         <v>0</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB175">
         <v>0</v>
       </c>
       <c r="AC175">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD175">
         <v>0</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF175">
         <v>0</v>
       </c>
       <c r="AG175">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH175">
         <v>0</v>
       </c>
       <c r="AI175">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ175">
@@ -17870,7 +17896,7 @@
         <v>612</v>
       </c>
       <c r="D176" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E176" s="7">
         <v>1</v>
@@ -17927,46 +17953,46 @@
         <v>6</v>
       </c>
       <c r="X176">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z176">
         <v>0</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD176">
         <v>0</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF176">
         <v>0</v>
       </c>
       <c r="AG176">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH176">
         <v>0</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ176">
@@ -17987,7 +18013,7 @@
         <v>612</v>
       </c>
       <c r="D177" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E177" s="7">
         <v>1</v>
@@ -18044,46 +18070,46 @@
         <v>6</v>
       </c>
       <c r="X177">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z177">
         <v>0</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD177">
         <v>0</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
       <c r="AI177">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ177">
@@ -18104,7 +18130,7 @@
         <v>612</v>
       </c>
       <c r="D178" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E178" s="7">
         <v>1</v>
@@ -18161,46 +18187,46 @@
         <v>6</v>
       </c>
       <c r="X178">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z178">
         <v>0</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD178">
         <v>0</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF178">
         <v>0</v>
       </c>
       <c r="AG178">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH178">
         <v>0</v>
       </c>
       <c r="AI178">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ178">
@@ -18221,7 +18247,7 @@
         <v>612</v>
       </c>
       <c r="D179" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E179" s="7">
         <v>1</v>
@@ -18278,46 +18304,46 @@
         <v>6</v>
       </c>
       <c r="X179">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z179">
         <v>0</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD179">
         <v>0</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF179">
         <v>0</v>
       </c>
       <c r="AG179">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH179">
         <v>0</v>
       </c>
       <c r="AI179">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ179">
@@ -18342,46 +18368,46 @@
         <v>6</v>
       </c>
       <c r="X180">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>2.25</v>
       </c>
       <c r="Y180">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>177</v>
       </c>
       <c r="Z180">
         <v>0</v>
       </c>
       <c r="AA180">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>51</v>
       </c>
       <c r="AB180">
         <v>0</v>
       </c>
       <c r="AC180">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>68</v>
       </c>
       <c r="AD180">
         <v>0</v>
       </c>
       <c r="AE180">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>51</v>
       </c>
       <c r="AF180">
         <v>0</v>
       </c>
       <c r="AG180">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>68</v>
       </c>
       <c r="AH180">
         <v>0</v>
       </c>
       <c r="AI180">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>6</v>
       </c>
       <c r="AJ180">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="560" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="1220" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3845,50 +3845,50 @@
         <v>75</v>
       </c>
       <c r="W4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3974,43 +3974,43 @@
         <v>92</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6">
         <f>1+(W6-1)*0.25</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
         <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
         <f>INT(POWER(X6+(AF6*0.25),3))+40</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
         <f>INT(50+(X6+(AH6*0.25)-1)*POWER(X6+(AH6*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -4098,50 +4098,50 @@
         <v>94</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <f>1+(W7-1)*0.25</f>
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Y7">
         <f>INT(POWER(X7+(Z7*0.25),2)*35)</f>
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
         <f>INT(POWER(X7+(AF7*0.25),3))+40</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
         <f>INT(50+(X7+(AH7*0.25)-1)*POWER(X7+(AH7*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
         <f>INT(5+(X7+(AJ7*0.25)-1)*POWER(X7+(AJ7*0.25),0.2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -4227,50 +4227,50 @@
         <v>123</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X9">
         <f>1+(W9-1)*0.25</f>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y9">
         <f>INT(POWER(X9+(Z9*0.25),2)*35)</f>
-        <v>177</v>
+        <v>428</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
         <f>INT(POWER(X9+(AB9*0.25),3))+40</f>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
         <f>INT(50+(X9+(AD9*0.25)-1)*POWER(X9+(AD9*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
         <f>INT(POWER(X9+(AF9*0.25),3))+40</f>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
         <f>INT(50+(X9+(AH9*0.25)-1)*POWER(X9+(AH9*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <f>INT(5+(X9+(AJ9*0.25)-1)*POWER(X9+(AJ9*0.25),0.2))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -4351,50 +4351,50 @@
         <v>128</v>
       </c>
       <c r="W10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X10">
         <f>1+(W10-1)*0.25</f>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Y10">
         <f>INT(POWER(X10+(Z10*0.25),2)*35)</f>
-        <v>264</v>
+        <v>492</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
         <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
         <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
         <f>INT(POWER(X10+(AF10*0.25),3))+40</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
         <f>INT(50+(X10+(AH10*0.25)-1)*POWER(X10+(AH10*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <f>INT(5+(X10+(AJ10*0.25)-1)*POWER(X10+(AJ10*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4475,50 +4475,50 @@
         <v>131</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X11">
         <f>1+(W11-1)*0.25</f>
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Y11">
         <f>INT(POWER(X11+(Z11*0.25),2)*35)</f>
-        <v>264</v>
+        <v>560</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
         <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
         <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
         <f>INT(POWER(X11+(AF11*0.25),3))+40</f>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
         <f>INT(50+(X11+(AH11*0.25)-1)*POWER(X11+(AH11*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
         <f>INT(5+(X11+(AJ11*0.25)-1)*POWER(X11+(AJ11*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -4939,50 +4939,50 @@
         <v>145</v>
       </c>
       <c r="W18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X18">
         <f>1+(W18-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y18">
         <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
-        <v>177</v>
+        <v>964</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
         <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
         <f>INT(POWER(X18+(AF18*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
         <f>INT(50+(X18+(AH18*0.25)-1)*POWER(X18+(AH18*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
         <f>INT(5+(X18+(AJ18*0.25)-1)*POWER(X18+(AJ18*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -5063,50 +5063,50 @@
         <v>148</v>
       </c>
       <c r="W19">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X19">
         <f>1+(W19-1)*0.25</f>
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y19">
         <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
-        <v>264</v>
+        <v>1157</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
         <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
         <f>INT(POWER(X19+(AF19*0.25),3))+40</f>
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
       <c r="AG19">
         <f>INT(50+(X19+(AH19*0.25)-1)*POWER(X19+(AH19*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
         <f>INT(5+(X19+(AJ19*0.25)-1)*POWER(X19+(AJ19*0.25),0.2))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -5187,50 +5187,50 @@
         <v>151</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X20">
         <f>1+(W20-1)*0.25</f>
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Y20">
         <f>INT(POWER(X20+(Z20*0.25),2)*35)</f>
-        <v>264</v>
+        <v>492</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
         <f>INT(POWER(X20+(AB20*0.25),3))+40</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
         <f>INT(50+(X20+(AD20*0.25)-1)*POWER(X20+(AD20*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
         <f>INT(POWER(X20+(AF20*0.25),3))+40</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
         <f>INT(50+(X20+(AH20*0.25)-1)*POWER(X20+(AH20*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
         <f>INT(5+(X20+(AJ20*0.25)-1)*POWER(X20+(AJ20*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -5311,50 +5311,50 @@
         <v>153</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="X21">
         <f>1+(W21-1)*0.25</f>
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="Y21">
         <f>INT(POWER(X21+(Z21*0.25),2)*35)</f>
-        <v>264</v>
+        <v>632</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
         <f>INT(POWER(X21+(AB21*0.25),3))+40</f>
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
         <f>INT(50+(X21+(AD21*0.25)-1)*POWER(X21+(AD21*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
         <f>INT(POWER(X21+(AF21*0.25),3))+40</f>
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
         <f>INT(50+(X21+(AH21*0.25)-1)*POWER(X21+(AH21*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
         <f>INT(5+(X21+(AJ21*0.25)-1)*POWER(X21+(AJ21*0.25),0.2))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ21">
         <v>0</v>
@@ -5507,50 +5507,50 @@
         <v>157</v>
       </c>
       <c r="W24">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X24">
         <f>1+(W24-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="Y24">
         <f>INT(POWER(X24+(Z24*0.25),2)*35)</f>
-        <v>177</v>
+        <v>632</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
         <f>INT(POWER(X24+(AB24*0.25),3))+40</f>
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
         <f>INT(50+(X24+(AD24*0.25)-1)*POWER(X24+(AD24*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
         <f>INT(POWER(X24+(AF24*0.25),3))+40</f>
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
         <f>INT(50+(X24+(AH24*0.25)-1)*POWER(X24+(AH24*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="AH24">
         <v>0</v>
       </c>
       <c r="AI24">
         <f>INT(5+(X24+(AJ24*0.25)-1)*POWER(X24+(AJ24*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -5631,50 +5631,50 @@
         <v>160</v>
       </c>
       <c r="W25">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X25">
         <f>1+(W25-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y25">
         <f>INT(POWER(X25+(Z25*0.25),2)*35)</f>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
         <f>INT(POWER(X25+(AB25*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25">
         <f>INT(50+(X25+(AD25*0.25)-1)*POWER(X25+(AD25*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
         <f>INT(POWER(X25+(AF25*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
       <c r="AG25">
         <f>INT(50+(X25+(AH25*0.25)-1)*POWER(X25+(AH25*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
         <f>INT(5+(X25+(AJ25*0.25)-1)*POWER(X25+(AJ25*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -5760,50 +5760,50 @@
         <v>163</v>
       </c>
       <c r="W27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X27">
         <f>1+(W27-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y27">
         <f>INT(POWER(X27+(Z27*0.25),2)*35)</f>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
         <f>INT(POWER(X27+(AB27*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
         <f>INT(50+(X27+(AD27*0.25)-1)*POWER(X27+(AD27*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
         <f>INT(POWER(X27+(AF27*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF27">
         <v>0</v>
       </c>
       <c r="AG27">
         <f>INT(50+(X27+(AH27*0.25)-1)*POWER(X27+(AH27*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
         <f>INT(5+(X27+(AJ27*0.25)-1)*POWER(X27+(AJ27*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -5884,50 +5884,50 @@
         <v>167</v>
       </c>
       <c r="W28">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X28">
         <f>1+(W28-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y28">
         <f>INT(POWER(X28+(Z28*0.25),2)*35)</f>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
         <f>INT(POWER(X28+(AB28*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
         <f>INT(50+(X28+(AD28*0.25)-1)*POWER(X28+(AD28*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
         <f>INT(POWER(X28+(AF28*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28">
         <f>INT(50+(X28+(AH28*0.25)-1)*POWER(X28+(AH28*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
         <f>INT(5+(X28+(AJ28*0.25)-1)*POWER(X28+(AJ28*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -5948,50 +5948,50 @@
         <v>169</v>
       </c>
       <c r="W29">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X29">
         <f>1+(W29-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y29">
         <f>INT(POWER(X29+(Z29*0.25),2)*35)</f>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
         <f>INT(POWER(X29+(AB29*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
         <f>INT(50+(X29+(AD29*0.25)-1)*POWER(X29+(AD29*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
         <f>INT(POWER(X29+(AF29*0.25),3))+40</f>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF29">
         <v>0</v>
       </c>
       <c r="AG29">
         <f>INT(50+(X29+(AH29*0.25)-1)*POWER(X29+(AH29*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
       <c r="AI29">
         <f>INT(5+(X29+(AJ29*0.25)-1)*POWER(X29+(AJ29*0.25),0.2))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -6012,50 +6012,50 @@
         <v>173</v>
       </c>
       <c r="W30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X30">
         <f>1+(W30-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y30">
         <f>INT(POWER(X30+(Z30*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
         <f>INT(POWER(X30+(AB30*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB30">
         <v>0</v>
       </c>
       <c r="AC30">
         <f>INT(50+(X30+(AD30*0.25)-1)*POWER(X30+(AD30*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
         <f>INT(POWER(X30+(AF30*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
         <f>INT(50+(X30+(AH30*0.25)-1)*POWER(X30+(AH30*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
         <f>INT(5+(X30+(AJ30*0.25)-1)*POWER(X30+(AJ30*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -6141,50 +6141,50 @@
         <v>177</v>
       </c>
       <c r="W32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X32">
         <f>1+(W32-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y32">
         <f>INT(POWER(X32+(Z32*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB32">
         <v>0</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32">
         <f>INT(POWER(X32+(AF32*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
       <c r="AG32">
         <f>INT(50+(X32+(AH32*0.25)-1)*POWER(X32+(AH32*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
         <f>INT(5+(X32+(AJ32*0.25)-1)*POWER(X32+(AJ32*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -6265,50 +6265,50 @@
         <v>179</v>
       </c>
       <c r="W33">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="X33">
         <f>1+(W33-1)*0.25</f>
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>177</v>
+        <v>789</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="AB33">
         <v>0</v>
       </c>
       <c r="AC33">
         <f>INT(50+(X33+(AD33*0.25)-1)*POWER(X33+(AD33*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="AF33">
         <v>0</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
         <f>INT(5+(X33+(AJ33*0.25)-1)*POWER(X33+(AJ33*0.25),0.2))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -6729,50 +6729,50 @@
         <v>182</v>
       </c>
       <c r="W40">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X40">
         <f t="shared" ref="X40:X45" si="77">1+(W40-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y40">
         <f t="shared" ref="Y40:Y45" si="78">INT(POWER(X40+(Z40*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
         <f t="shared" ref="AA40:AA45" si="79">INT(POWER(X40+(AB40*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB40">
         <v>0</v>
       </c>
       <c r="AC40">
         <f t="shared" ref="AC40:AC45" si="80">INT(50+(X40+(AD40*0.25)-1)*POWER(X40+(AD40*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD40">
         <v>0</v>
       </c>
       <c r="AE40">
         <f t="shared" ref="AE40:AE45" si="81">INT(POWER(X40+(AF40*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF40">
         <v>0</v>
       </c>
       <c r="AG40">
         <f t="shared" ref="AG40:AG45" si="82">INT(50+(X40+(AH40*0.25)-1)*POWER(X40+(AH40*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH40">
         <v>0</v>
       </c>
       <c r="AI40">
         <f t="shared" ref="AI40:AI45" si="83">INT(5+(X40+(AJ40*0.25)-1)*POWER(X40+(AJ40*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -6853,50 +6853,50 @@
         <v>190</v>
       </c>
       <c r="W41">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X41">
         <f t="shared" si="77"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y41">
         <f t="shared" si="78"/>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
         <f t="shared" si="79"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB41">
         <v>0</v>
       </c>
       <c r="AC41">
         <f t="shared" si="80"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF41">
         <v>0</v>
       </c>
       <c r="AG41">
         <f t="shared" si="82"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
       <c r="AI41">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -6977,50 +6977,50 @@
         <v>194</v>
       </c>
       <c r="W42">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X42">
         <f t="shared" si="77"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y42">
         <f t="shared" si="78"/>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
         <f t="shared" si="79"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
         <f t="shared" si="80"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF42">
         <v>0</v>
       </c>
       <c r="AG42">
         <f t="shared" si="82"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
       <c r="AI42">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ42">
         <v>0</v>
@@ -7101,50 +7101,50 @@
         <v>197</v>
       </c>
       <c r="W43">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X43">
         <f t="shared" si="77"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y43">
         <f t="shared" si="78"/>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
         <f t="shared" si="79"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
         <f t="shared" si="80"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
         <f t="shared" si="82"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
       <c r="AI43">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ43">
         <v>0</v>
@@ -7225,50 +7225,50 @@
         <v>205</v>
       </c>
       <c r="W44">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X44">
         <f t="shared" si="77"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y44">
         <f t="shared" si="78"/>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44">
         <f t="shared" si="79"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44">
         <f t="shared" si="80"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF44">
         <v>0</v>
       </c>
       <c r="AG44">
         <f t="shared" si="82"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
       <c r="AI44">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ44">
         <v>0</v>
@@ -7349,50 +7349,50 @@
         <v>201</v>
       </c>
       <c r="W45">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X45">
         <f t="shared" si="77"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y45">
         <f t="shared" si="78"/>
-        <v>177</v>
+        <v>708</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
         <f t="shared" si="79"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
         <f t="shared" si="80"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
         <f t="shared" si="82"/>
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="AH45">
         <v>0</v>
       </c>
       <c r="AI45">
         <f t="shared" si="83"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ45">
         <v>0</v>
@@ -7551,50 +7551,50 @@
         <v>209</v>
       </c>
       <c r="W49">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X49">
         <f>1+(W49-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Y49">
         <f>INT(POWER(X49+(Z49*0.25),2)*35)</f>
-        <v>177</v>
+        <v>964</v>
       </c>
       <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49">
         <f>INT(POWER(X49+(AB49*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
         <f>INT(50+(X49+(AD49*0.25)-1)*POWER(X49+(AD49*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49">
         <f>INT(POWER(X49+(AF49*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
         <f>INT(50+(X49+(AH49*0.25)-1)*POWER(X49+(AH49*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
       <c r="AI49">
         <f>INT(5+(X49+(AJ49*0.25)-1)*POWER(X49+(AJ49*0.25),0.2))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ49">
         <v>0</v>
@@ -7675,50 +7675,50 @@
         <v>216</v>
       </c>
       <c r="W50">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X50">
         <f>1+(W50-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Y50">
         <f>INT(POWER(X50+(Z50*0.25),2)*35)</f>
-        <v>177</v>
+        <v>964</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
         <f>INT(POWER(X50+(AB50*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AB50">
         <v>0</v>
       </c>
       <c r="AC50">
         <f>INT(50+(X50+(AD50*0.25)-1)*POWER(X50+(AD50*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50">
         <f>INT(POWER(X50+(AF50*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
       <c r="AG50">
         <f>INT(50+(X50+(AH50*0.25)-1)*POWER(X50+(AH50*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AH50">
         <v>0</v>
       </c>
       <c r="AI50">
         <f>INT(5+(X50+(AJ50*0.25)-1)*POWER(X50+(AJ50*0.25),0.2))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -7799,50 +7799,50 @@
         <v>221</v>
       </c>
       <c r="W51">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X51">
         <f>1+(W51-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Y51">
         <f>INT(POWER(X51+(Z51*0.25),2)*35)</f>
-        <v>177</v>
+        <v>964</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
         <f>INT(POWER(X51+(AB51*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
         <f>INT(50+(X51+(AD51*0.25)-1)*POWER(X51+(AD51*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51">
         <f>INT(POWER(X51+(AF51*0.25),3))+40</f>
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="AF51">
         <v>0</v>
       </c>
       <c r="AG51">
         <f>INT(50+(X51+(AH51*0.25)-1)*POWER(X51+(AH51*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="AH51">
         <v>0</v>
       </c>
       <c r="AI51">
         <f>INT(5+(X51+(AJ51*0.25)-1)*POWER(X51+(AJ51*0.25),0.2))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AJ51">
         <v>0</v>
@@ -8196,50 +8196,50 @@
         <v>223</v>
       </c>
       <c r="W57">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X57">
         <f>1+(W57-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y57">
         <f>INT(POWER(X57+(Z57*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57">
         <f>INT(POWER(X57+(AB57*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
         <f>INT(50+(X57+(AD57*0.25)-1)*POWER(X57+(AD57*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD57">
         <v>0</v>
       </c>
       <c r="AE57">
         <f>INT(POWER(X57+(AF57*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
         <f>INT(50+(X57+(AH57*0.25)-1)*POWER(X57+(AH57*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
       <c r="AI57">
         <f>INT(5+(X57+(AJ57*0.25)-1)*POWER(X57+(AJ57*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ57">
         <v>0</v>
@@ -8320,50 +8320,50 @@
         <v>226</v>
       </c>
       <c r="W58">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X58">
         <f>1+(W58-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y58">
         <f>INT(POWER(X58+(Z58*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z58">
         <v>0</v>
       </c>
       <c r="AA58">
         <f>INT(POWER(X58+(AB58*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB58">
         <v>0</v>
       </c>
       <c r="AC58">
         <f>INT(50+(X58+(AD58*0.25)-1)*POWER(X58+(AD58*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58">
         <f>INT(POWER(X58+(AF58*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF58">
         <v>0</v>
       </c>
       <c r="AG58">
         <f>INT(50+(X58+(AH58*0.25)-1)*POWER(X58+(AH58*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH58">
         <v>0</v>
       </c>
       <c r="AI58">
         <f>INT(5+(X58+(AJ58*0.25)-1)*POWER(X58+(AJ58*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ58">
         <v>0</v>
@@ -8715,50 +8715,50 @@
         <v>233</v>
       </c>
       <c r="W64" s="9">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X64" s="9">
         <f>1+(W64-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y64" s="9">
         <f>INT(POWER(X64+(Z64*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z64" s="9">
         <v>0</v>
       </c>
       <c r="AA64" s="9">
         <f>INT(POWER(X64+(AB64*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB64" s="9">
         <v>0</v>
       </c>
       <c r="AC64" s="9">
         <f>INT(50+(X64+(AD64*0.25)-1)*POWER(X64+(AD64*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD64" s="9">
         <v>0</v>
       </c>
       <c r="AE64" s="9">
         <f>INT(POWER(X64+(AF64*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF64" s="9">
         <v>0</v>
       </c>
       <c r="AG64" s="9">
         <f>INT(50+(X64+(AH64*0.25)-1)*POWER(X64+(AH64*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH64" s="9">
         <v>0</v>
       </c>
       <c r="AI64" s="9">
         <f>INT(5+(X64+(AJ64*0.25)-1)*POWER(X64+(AJ64*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ64" s="9">
         <v>0</v>
@@ -8778,50 +8778,50 @@
         <v>237</v>
       </c>
       <c r="W65">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X65">
         <f>1+(W65-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y65">
         <f>INT(POWER(X65+(Z65*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65">
         <f>INT(POWER(X65+(AB65*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB65">
         <v>0</v>
       </c>
       <c r="AC65">
         <f>INT(50+(X65+(AD65*0.25)-1)*POWER(X65+(AD65*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65">
         <f>INT(POWER(X65+(AF65*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF65">
         <v>0</v>
       </c>
       <c r="AG65">
         <f>INT(50+(X65+(AH65*0.25)-1)*POWER(X65+(AH65*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH65">
         <v>0</v>
       </c>
       <c r="AI65">
         <f>INT(5+(X65+(AJ65*0.25)-1)*POWER(X65+(AJ65*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -8845,50 +8845,50 @@
         <v>240</v>
       </c>
       <c r="W66">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X66">
         <f>1+(W66-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y66">
         <f>INT(POWER(X66+(Z66*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
         <f>INT(POWER(X66+(AB66*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB66">
         <v>0</v>
       </c>
       <c r="AC66">
         <f>INT(50+(X66+(AD66*0.25)-1)*POWER(X66+(AD66*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66">
         <f>INT(POWER(X66+(AF66*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF66">
         <v>0</v>
       </c>
       <c r="AG66">
         <f>INT(50+(X66+(AH66*0.25)-1)*POWER(X66+(AH66*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH66">
         <v>0</v>
       </c>
       <c r="AI66">
         <f>INT(5+(X66+(AJ66*0.25)-1)*POWER(X66+(AJ66*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ66">
         <v>0</v>
@@ -8974,50 +8974,50 @@
         <v>242</v>
       </c>
       <c r="W68">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X68">
         <f>1+(W68-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y68">
         <f>INT(POWER(X68+(Z68*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68">
         <f>INT(POWER(X68+(AB68*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB68">
         <v>0</v>
       </c>
       <c r="AC68">
         <f>INT(50+(X68+(AD68*0.25)-1)*POWER(X68+(AD68*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68">
         <f>INT(POWER(X68+(AF68*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF68">
         <v>0</v>
       </c>
       <c r="AG68">
         <f>INT(50+(X68+(AH68*0.25)-1)*POWER(X68+(AH68*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH68">
         <v>0</v>
       </c>
       <c r="AI68">
         <f>INT(5+(X68+(AJ68*0.25)-1)*POWER(X68+(AJ68*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -9098,50 +9098,50 @@
         <v>250</v>
       </c>
       <c r="W69">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X69">
         <f>1+(W69-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y69">
         <f>INT(POWER(X69+(Z69*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69">
         <f>INT(POWER(X69+(AB69*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB69">
         <v>0</v>
       </c>
       <c r="AC69">
         <f>INT(50+(X69+(AD69*0.25)-1)*POWER(X69+(AD69*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69">
         <f>INT(POWER(X69+(AF69*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF69">
         <v>0</v>
       </c>
       <c r="AG69">
         <f>INT(50+(X69+(AH69*0.25)-1)*POWER(X69+(AH69*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
       <c r="AI69">
         <f>INT(5+(X69+(AJ69*0.25)-1)*POWER(X69+(AJ69*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -9161,50 +9161,50 @@
         <v>252</v>
       </c>
       <c r="W70">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X70">
         <f>1+(W70-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y70">
         <f>INT(POWER(X70+(Z70*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
       <c r="AA70">
         <f>INT(POWER(X70+(AB70*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB70">
         <v>0</v>
       </c>
       <c r="AC70">
         <f>INT(50+(X70+(AD70*0.25)-1)*POWER(X70+(AD70*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70">
         <f>INT(POWER(X70+(AF70*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF70">
         <v>0</v>
       </c>
       <c r="AG70">
         <f>INT(50+(X70+(AH70*0.25)-1)*POWER(X70+(AH70*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH70">
         <v>0</v>
       </c>
       <c r="AI70">
         <f>INT(5+(X70+(AJ70*0.25)-1)*POWER(X70+(AJ70*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -9228,50 +9228,50 @@
         <v>254</v>
       </c>
       <c r="W71">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X71">
         <f>1+(W71-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y71">
         <f>INT(POWER(X71+(Z71*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1478</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
       <c r="AA71">
         <f>INT(POWER(X71+(AB71*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AB71">
         <v>0</v>
       </c>
       <c r="AC71">
         <f>INT(50+(X71+(AD71*0.25)-1)*POWER(X71+(AD71*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71">
         <f>INT(POWER(X71+(AF71*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AF71">
         <v>0</v>
       </c>
       <c r="AG71">
         <f>INT(50+(X71+(AH71*0.25)-1)*POWER(X71+(AH71*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AH71">
         <v>0</v>
       </c>
       <c r="AI71">
         <f>INT(5+(X71+(AJ71*0.25)-1)*POWER(X71+(AJ71*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -9357,50 +9357,50 @@
         <v>257</v>
       </c>
       <c r="W73">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X73">
         <f>1+(W73-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y73">
         <f>INT(POWER(X73+(Z73*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z73">
         <v>0</v>
       </c>
       <c r="AA73">
         <f>INT(POWER(X73+(AB73*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB73">
         <v>0</v>
       </c>
       <c r="AC73">
         <f>INT(50+(X73+(AD73*0.25)-1)*POWER(X73+(AD73*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD73">
         <v>0</v>
       </c>
       <c r="AE73">
         <f>INT(POWER(X73+(AF73*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF73">
         <v>0</v>
       </c>
       <c r="AG73">
         <f>INT(50+(X73+(AH73*0.25)-1)*POWER(X73+(AH73*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH73">
         <v>0</v>
       </c>
       <c r="AI73">
         <f>INT(5+(X73+(AJ73*0.25)-1)*POWER(X73+(AJ73*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -9481,50 +9481,50 @@
         <v>261</v>
       </c>
       <c r="W74">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X74">
         <f>1+(W74-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y74">
         <f>INT(POWER(X74+(Z74*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74">
         <f>INT(POWER(X74+(AB74*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB74">
         <v>0</v>
       </c>
       <c r="AC74">
         <f>INT(50+(X74+(AD74*0.25)-1)*POWER(X74+(AD74*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD74">
         <v>0</v>
       </c>
       <c r="AE74">
         <f>INT(POWER(X74+(AF74*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF74">
         <v>0</v>
       </c>
       <c r="AG74">
         <f>INT(50+(X74+(AH74*0.25)-1)*POWER(X74+(AH74*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH74">
         <v>0</v>
       </c>
       <c r="AI74">
         <f>INT(5+(X74+(AJ74*0.25)-1)*POWER(X74+(AJ74*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -9545,50 +9545,50 @@
         <v>264</v>
       </c>
       <c r="W75">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X75">
         <f>1+(W75-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y75">
         <f>INT(POWER(X75+(Z75*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z75">
         <v>0</v>
       </c>
       <c r="AA75">
         <f>INT(POWER(X75+(AB75*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB75">
         <v>0</v>
       </c>
       <c r="AC75">
         <f>INT(50+(X75+(AD75*0.25)-1)*POWER(X75+(AD75*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD75">
         <v>0</v>
       </c>
       <c r="AE75">
         <f>INT(POWER(X75+(AF75*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF75">
         <v>0</v>
       </c>
       <c r="AG75">
         <f>INT(50+(X75+(AH75*0.25)-1)*POWER(X75+(AH75*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH75">
         <v>0</v>
       </c>
       <c r="AI75">
         <f>INT(5+(X75+(AJ75*0.25)-1)*POWER(X75+(AJ75*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -9609,50 +9609,50 @@
         <v>268</v>
       </c>
       <c r="W76">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X76">
         <f>1+(W76-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1594</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AB76">
         <v>0</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AD76">
         <v>0</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
         <f>INT(50+(X76+(AH76*0.25)-1)*POWER(X76+(AH76*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AH76">
         <v>0</v>
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ76">
         <v>0</v>
@@ -10057,50 +10057,50 @@
         <v>281</v>
       </c>
       <c r="W83">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X83">
         <f>1+(W83-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y83">
         <f>INT(POWER(X83+(Z83*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z83">
         <v>0</v>
       </c>
       <c r="AA83">
         <f>INT(POWER(X83+(AB83*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB83">
         <v>0</v>
       </c>
       <c r="AC83">
         <f>INT(50+(X83+(AD83*0.25)-1)*POWER(X83+(AD83*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD83">
         <v>0</v>
       </c>
       <c r="AE83">
         <f>INT(POWER(X83+(AF83*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF83">
         <v>0</v>
       </c>
       <c r="AG83">
         <f>INT(50+(X83+(AH83*0.25)-1)*POWER(X83+(AH83*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH83">
         <v>0</v>
       </c>
       <c r="AI83">
         <f>INT(5+(X83+(AJ83*0.25)-1)*POWER(X83+(AJ83*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ83">
         <v>0</v>
@@ -10178,50 +10178,50 @@
         <v>288</v>
       </c>
       <c r="W84">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X84">
         <f>1+(W84-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y84">
         <f>INT(POWER(X84+(Z84*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z84">
         <v>0</v>
       </c>
       <c r="AA84">
         <f>INT(POWER(X84+(AB84*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB84">
         <v>0</v>
       </c>
       <c r="AC84">
         <f>INT(50+(X84+(AD84*0.25)-1)*POWER(X84+(AD84*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD84">
         <v>0</v>
       </c>
       <c r="AE84">
         <f>INT(POWER(X84+(AF84*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF84">
         <v>0</v>
       </c>
       <c r="AG84">
         <f>INT(50+(X84+(AH84*0.25)-1)*POWER(X84+(AH84*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH84">
         <v>0</v>
       </c>
       <c r="AI84">
         <f>INT(5+(X84+(AJ84*0.25)-1)*POWER(X84+(AJ84*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -10244,50 +10244,50 @@
         <v>291</v>
       </c>
       <c r="W85">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X85">
         <f>1+(W85-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y85">
         <f>INT(POWER(X85+(Z85*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z85">
         <v>0</v>
       </c>
       <c r="AA85">
         <f>INT(POWER(X85+(AB85*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB85">
         <v>0</v>
       </c>
       <c r="AC85">
         <f>INT(50+(X85+(AD85*0.25)-1)*POWER(X85+(AD85*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD85">
         <v>0</v>
       </c>
       <c r="AE85">
         <f>INT(POWER(X85+(AF85*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF85">
         <v>0</v>
       </c>
       <c r="AG85">
         <f>INT(50+(X85+(AH85*0.25)-1)*POWER(X85+(AH85*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH85">
         <v>0</v>
       </c>
       <c r="AI85">
         <f>INT(5+(X85+(AJ85*0.25)-1)*POWER(X85+(AJ85*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ85">
         <v>0</v>
@@ -10310,50 +10310,50 @@
         <v>294</v>
       </c>
       <c r="W86">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X86">
         <f>1+(W86-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y86">
         <f>INT(POWER(X86+(Z86*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1478</v>
       </c>
       <c r="Z86">
         <v>0</v>
       </c>
       <c r="AA86">
         <f>INT(POWER(X86+(AB86*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AB86">
         <v>0</v>
       </c>
       <c r="AC86">
         <f>INT(50+(X86+(AD86*0.25)-1)*POWER(X86+(AD86*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AD86">
         <v>0</v>
       </c>
       <c r="AE86">
         <f>INT(POWER(X86+(AF86*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AF86">
         <v>0</v>
       </c>
       <c r="AG86">
         <f>INT(50+(X86+(AH86*0.25)-1)*POWER(X86+(AH86*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AH86">
         <v>0</v>
       </c>
       <c r="AI86">
         <f>INT(5+(X86+(AJ86*0.25)-1)*POWER(X86+(AJ86*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ86">
         <v>0</v>
@@ -10439,50 +10439,50 @@
         <v>297</v>
       </c>
       <c r="W88">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X88">
         <f>1+(W88-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y88">
         <f>INT(POWER(X88+(Z88*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
       <c r="AA88">
         <f>INT(POWER(X88+(AB88*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB88">
         <v>0</v>
       </c>
       <c r="AC88">
         <f>INT(50+(X88+(AD88*0.25)-1)*POWER(X88+(AD88*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD88">
         <v>0</v>
       </c>
       <c r="AE88">
         <f>INT(POWER(X88+(AF88*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF88">
         <v>0</v>
       </c>
       <c r="AG88">
         <f>INT(50+(X88+(AH88*0.25)-1)*POWER(X88+(AH88*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH88">
         <v>0</v>
       </c>
       <c r="AI88">
         <f>INT(5+(X88+(AJ88*0.25)-1)*POWER(X88+(AJ88*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -10519,50 +10519,50 @@
         <v>300</v>
       </c>
       <c r="W89">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X89">
         <f>1+(W89-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y89">
         <f>INT(POWER(X89+(Z89*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z89">
         <v>0</v>
       </c>
       <c r="AA89">
         <f>INT(POWER(X89+(AB89*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB89">
         <v>0</v>
       </c>
       <c r="AC89">
         <f>INT(50+(X89+(AD89*0.25)-1)*POWER(X89+(AD89*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD89">
         <v>0</v>
       </c>
       <c r="AE89">
         <f>INT(POWER(X89+(AF89*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF89">
         <v>0</v>
       </c>
       <c r="AG89">
         <f>INT(50+(X89+(AH89*0.25)-1)*POWER(X89+(AH89*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH89">
         <v>0</v>
       </c>
       <c r="AI89">
         <f>INT(5+(X89+(AJ89*0.25)-1)*POWER(X89+(AJ89*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -10599,50 +10599,50 @@
         <v>303</v>
       </c>
       <c r="W90">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X90">
         <f>1+(W90-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y90">
         <f>INT(POWER(X90+(Z90*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z90">
         <v>0</v>
       </c>
       <c r="AA90">
         <f>INT(POWER(X90+(AB90*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB90">
         <v>0</v>
       </c>
       <c r="AC90">
         <f>INT(50+(X90+(AD90*0.25)-1)*POWER(X90+(AD90*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD90">
         <v>0</v>
       </c>
       <c r="AE90">
         <f>INT(POWER(X90+(AF90*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF90">
         <v>0</v>
       </c>
       <c r="AG90">
         <f>INT(50+(X90+(AH90*0.25)-1)*POWER(X90+(AH90*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH90">
         <v>0</v>
       </c>
       <c r="AI90">
         <f>INT(5+(X90+(AJ90*0.25)-1)*POWER(X90+(AJ90*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ90">
         <v>0</v>
@@ -10679,50 +10679,50 @@
         <v>306</v>
       </c>
       <c r="W91">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X91">
         <f>1+(W91-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y91">
         <f>INT(POWER(X91+(Z91*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z91">
         <v>0</v>
       </c>
       <c r="AA91">
         <f>INT(POWER(X91+(AB91*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB91">
         <v>0</v>
       </c>
       <c r="AC91">
         <f>INT(50+(X91+(AD91*0.25)-1)*POWER(X91+(AD91*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD91">
         <v>0</v>
       </c>
       <c r="AE91">
         <f>INT(POWER(X91+(AF91*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF91">
         <v>0</v>
       </c>
       <c r="AG91">
         <f>INT(50+(X91+(AH91*0.25)-1)*POWER(X91+(AH91*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH91">
         <v>0</v>
       </c>
       <c r="AI91">
         <f>INT(5+(X91+(AJ91*0.25)-1)*POWER(X91+(AJ91*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ91">
         <v>0</v>
@@ -12082,50 +12082,50 @@
         <v>362</v>
       </c>
       <c r="W108">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X108">
         <f>1+(W108-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y108">
         <f>INT(POWER(X108+(Z108*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
       <c r="AA108">
         <f>INT(POWER(X108+(AB108*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB108">
         <v>0</v>
       </c>
       <c r="AC108">
         <f>INT(50+(X108+(AD108*0.25)-1)*POWER(X108+(AD108*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD108">
         <v>0</v>
       </c>
       <c r="AE108">
         <f>INT(POWER(X108+(AF108*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF108">
         <v>0</v>
       </c>
       <c r="AG108">
         <f>INT(50+(X108+(AH108*0.25)-1)*POWER(X108+(AH108*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH108">
         <v>0</v>
       </c>
       <c r="AI108">
         <f>INT(5+(X108+(AJ108*0.25)-1)*POWER(X108+(AJ108*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ108">
         <v>0</v>
@@ -12206,50 +12206,50 @@
         <v>370</v>
       </c>
       <c r="W109">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X109">
         <f>1+(W109-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y109">
         <f>INT(POWER(X109+(Z109*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z109">
         <v>0</v>
       </c>
       <c r="AA109">
         <f>INT(POWER(X109+(AB109*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB109">
         <v>0</v>
       </c>
       <c r="AC109">
         <f>INT(50+(X109+(AD109*0.25)-1)*POWER(X109+(AD109*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD109">
         <v>0</v>
       </c>
       <c r="AE109">
         <f>INT(POWER(X109+(AF109*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF109">
         <v>0</v>
       </c>
       <c r="AG109">
         <f>INT(50+(X109+(AH109*0.25)-1)*POWER(X109+(AH109*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH109">
         <v>0</v>
       </c>
       <c r="AI109">
         <f>INT(5+(X109+(AJ109*0.25)-1)*POWER(X109+(AJ109*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -12273,50 +12273,50 @@
         <v>373</v>
       </c>
       <c r="W110">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X110">
         <f>1+(W110-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y110">
         <f>INT(POWER(X110+(Z110*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z110">
         <v>0</v>
       </c>
       <c r="AA110">
         <f>INT(POWER(X110+(AB110*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB110">
         <v>0</v>
       </c>
       <c r="AC110">
         <f>INT(50+(X110+(AD110*0.25)-1)*POWER(X110+(AD110*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD110">
         <v>0</v>
       </c>
       <c r="AE110">
         <f>INT(POWER(X110+(AF110*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF110">
         <v>0</v>
       </c>
       <c r="AG110">
         <f>INT(50+(X110+(AH110*0.25)-1)*POWER(X110+(AH110*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH110">
         <v>0</v>
       </c>
       <c r="AI110">
         <f>INT(5+(X110+(AJ110*0.25)-1)*POWER(X110+(AJ110*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -12395,50 +12395,50 @@
         <v>375</v>
       </c>
       <c r="W112">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X112">
         <f>1+(W112-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y112">
         <f>INT(POWER(X112+(Z112*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z112">
         <v>0</v>
       </c>
       <c r="AA112">
         <f>INT(POWER(X112+(AB112*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB112">
         <v>0</v>
       </c>
       <c r="AC112">
         <f>INT(50+(X112+(AD112*0.25)-1)*POWER(X112+(AD112*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD112">
         <v>0</v>
       </c>
       <c r="AE112">
         <f>INT(POWER(X112+(AF112*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF112">
         <v>0</v>
       </c>
       <c r="AG112">
         <f>INT(50+(X112+(AH112*0.25)-1)*POWER(X112+(AH112*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH112">
         <v>0</v>
       </c>
       <c r="AI112">
         <f>INT(5+(X112+(AJ112*0.25)-1)*POWER(X112+(AJ112*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ112">
         <v>0</v>
@@ -12519,50 +12519,50 @@
         <v>382</v>
       </c>
       <c r="W113">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X113">
         <f>1+(W113-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y113">
         <f>INT(POWER(X113+(Z113*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z113">
         <v>0</v>
       </c>
       <c r="AA113">
         <f>INT(POWER(X113+(AB113*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB113">
         <v>0</v>
       </c>
       <c r="AC113">
         <f>INT(50+(X113+(AD113*0.25)-1)*POWER(X113+(AD113*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD113">
         <v>0</v>
       </c>
       <c r="AE113">
         <f>INT(POWER(X113+(AF113*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF113">
         <v>0</v>
       </c>
       <c r="AG113">
         <f>INT(50+(X113+(AH113*0.25)-1)*POWER(X113+(AH113*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH113">
         <v>0</v>
       </c>
       <c r="AI113">
         <f>INT(5+(X113+(AJ113*0.25)-1)*POWER(X113+(AJ113*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ113">
         <v>0</v>
@@ -12643,50 +12643,50 @@
         <v>391</v>
       </c>
       <c r="W114">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X114">
         <f>1+(W114-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y114">
         <f>INT(POWER(X114+(Z114*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z114">
         <v>0</v>
       </c>
       <c r="AA114">
         <f>INT(POWER(X114+(AB114*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB114">
         <v>0</v>
       </c>
       <c r="AC114">
         <f>INT(50+(X114+(AD114*0.25)-1)*POWER(X114+(AD114*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD114">
         <v>0</v>
       </c>
       <c r="AE114">
         <f>INT(POWER(X114+(AF114*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF114">
         <v>0</v>
       </c>
       <c r="AG114">
         <f>INT(50+(X114+(AH114*0.25)-1)*POWER(X114+(AH114*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH114">
         <v>0</v>
       </c>
       <c r="AI114">
         <f>INT(5+(X114+(AJ114*0.25)-1)*POWER(X114+(AJ114*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ114">
         <v>0</v>
@@ -12767,50 +12767,50 @@
         <v>393</v>
       </c>
       <c r="W115">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X115">
         <f>1+(W115-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y115">
         <f>INT(POWER(X115+(Z115*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1594</v>
       </c>
       <c r="Z115">
         <v>0</v>
       </c>
       <c r="AA115">
         <f>INT(POWER(X115+(AB115*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AB115">
         <v>0</v>
       </c>
       <c r="AC115">
         <f>INT(50+(X115+(AD115*0.25)-1)*POWER(X115+(AD115*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AD115">
         <v>0</v>
       </c>
       <c r="AE115">
         <f>INT(POWER(X115+(AF115*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AF115">
         <v>0</v>
       </c>
       <c r="AG115">
         <f>INT(50+(X115+(AH115*0.25)-1)*POWER(X115+(AH115*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AH115">
         <v>0</v>
       </c>
       <c r="AI115">
         <f>INT(5+(X115+(AJ115*0.25)-1)*POWER(X115+(AJ115*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ115">
         <v>0</v>
@@ -12896,50 +12896,50 @@
         <v>395</v>
       </c>
       <c r="W117">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X117">
         <f>1+(W117-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y117">
         <f>INT(POWER(X117+(Z117*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z117">
         <v>0</v>
       </c>
       <c r="AA117">
         <f>INT(POWER(X117+(AB117*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB117">
         <v>0</v>
       </c>
       <c r="AC117">
         <f>INT(50+(X117+(AD117*0.25)-1)*POWER(X117+(AD117*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD117">
         <v>0</v>
       </c>
       <c r="AE117">
         <f>INT(POWER(X117+(AF117*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
         <f>INT(50+(X117+(AH117*0.25)-1)*POWER(X117+(AH117*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH117">
         <v>0</v>
       </c>
       <c r="AI117">
         <f>INT(5+(X117+(AJ117*0.25)-1)*POWER(X117+(AJ117*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ117">
         <v>0</v>
@@ -13020,50 +13020,50 @@
         <v>403</v>
       </c>
       <c r="W118">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X118">
         <f>1+(W118-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y118">
         <f>INT(POWER(X118+(Z118*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z118">
         <v>0</v>
       </c>
       <c r="AA118">
         <f>INT(POWER(X118+(AB118*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB118">
         <v>0</v>
       </c>
       <c r="AC118">
         <f>INT(50+(X118+(AD118*0.25)-1)*POWER(X118+(AD118*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD118">
         <v>0</v>
       </c>
       <c r="AE118">
         <f>INT(POWER(X118+(AF118*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF118">
         <v>0</v>
       </c>
       <c r="AG118">
         <f>INT(50+(X118+(AH118*0.25)-1)*POWER(X118+(AH118*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH118">
         <v>0</v>
       </c>
       <c r="AI118">
         <f>INT(5+(X118+(AJ118*0.25)-1)*POWER(X118+(AJ118*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ118">
         <v>0</v>
@@ -13087,50 +13087,50 @@
         <v>406</v>
       </c>
       <c r="W119">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X119">
         <f>1+(W119-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y119">
         <f>INT(POWER(X119+(Z119*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z119">
         <v>0</v>
       </c>
       <c r="AA119">
         <f>INT(POWER(X119+(AB119*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB119">
         <v>0</v>
       </c>
       <c r="AC119">
         <f>INT(50+(X119+(AD119*0.25)-1)*POWER(X119+(AD119*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD119">
         <v>0</v>
       </c>
       <c r="AE119">
         <f>INT(POWER(X119+(AF119*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF119">
         <v>0</v>
       </c>
       <c r="AG119">
         <f>INT(50+(X119+(AH119*0.25)-1)*POWER(X119+(AH119*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH119">
         <v>0</v>
       </c>
       <c r="AI119">
         <f>INT(5+(X119+(AJ119*0.25)-1)*POWER(X119+(AJ119*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ119">
         <v>0</v>
@@ -13209,50 +13209,50 @@
         <v>408</v>
       </c>
       <c r="W121">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X121">
         <f>1+(W121-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y121">
         <f>INT(POWER(X121+(Z121*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z121">
         <v>0</v>
       </c>
       <c r="AA121">
         <f>INT(POWER(X121+(AB121*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB121">
         <v>0</v>
       </c>
       <c r="AC121">
         <f>INT(50+(X121+(AD121*0.25)-1)*POWER(X121+(AD121*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD121">
         <v>0</v>
       </c>
       <c r="AE121">
         <f>INT(POWER(X121+(AF121*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF121">
         <v>0</v>
       </c>
       <c r="AG121">
         <f>INT(50+(X121+(AH121*0.25)-1)*POWER(X121+(AH121*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH121">
         <v>0</v>
       </c>
       <c r="AI121">
         <f>INT(5+(X121+(AJ121*0.25)-1)*POWER(X121+(AJ121*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ121">
         <v>0</v>
@@ -13273,50 +13273,50 @@
         <v>412</v>
       </c>
       <c r="W122">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X122">
         <f>1+(W122-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y122">
         <f>INT(POWER(X122+(Z122*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z122">
         <v>0</v>
       </c>
       <c r="AA122">
         <f>INT(POWER(X122+(AB122*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB122">
         <v>0</v>
       </c>
       <c r="AC122">
         <f>INT(50+(X122+(AD122*0.25)-1)*POWER(X122+(AD122*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD122">
         <v>0</v>
       </c>
       <c r="AE122">
         <f>INT(POWER(X122+(AF122*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF122">
         <v>0</v>
       </c>
       <c r="AG122">
         <f>INT(50+(X122+(AH122*0.25)-1)*POWER(X122+(AH122*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH122">
         <v>0</v>
       </c>
       <c r="AI122">
         <f>INT(5+(X122+(AJ122*0.25)-1)*POWER(X122+(AJ122*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ122">
         <v>0</v>
@@ -13337,50 +13337,50 @@
         <v>415</v>
       </c>
       <c r="W123">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X123">
         <f>1+(W123-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y123">
         <f>INT(POWER(X123+(Z123*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z123">
         <v>0</v>
       </c>
       <c r="AA123">
         <f>INT(POWER(X123+(AB123*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB123">
         <v>0</v>
       </c>
       <c r="AC123">
         <f>INT(50+(X123+(AD123*0.25)-1)*POWER(X123+(AD123*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD123">
         <v>0</v>
       </c>
       <c r="AE123">
         <f>INT(POWER(X123+(AF123*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF123">
         <v>0</v>
       </c>
       <c r="AG123">
         <f>INT(50+(X123+(AH123*0.25)-1)*POWER(X123+(AH123*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH123">
         <v>0</v>
       </c>
       <c r="AI123">
         <f>INT(5+(X123+(AJ123*0.25)-1)*POWER(X123+(AJ123*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ123">
         <v>0</v>
@@ -13466,50 +13466,50 @@
         <v>418</v>
       </c>
       <c r="W125">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X125">
         <f>1+(W125-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y125">
         <f>INT(POWER(X125+(Z125*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z125">
         <v>0</v>
       </c>
       <c r="AA125">
         <f>INT(POWER(X125+(AB125*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB125">
         <v>0</v>
       </c>
       <c r="AC125">
         <f>INT(50+(X125+(AD125*0.25)-1)*POWER(X125+(AD125*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD125">
         <v>0</v>
       </c>
       <c r="AE125">
         <f>INT(POWER(X125+(AF125*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
         <f>INT(50+(X125+(AH125*0.25)-1)*POWER(X125+(AH125*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH125">
         <v>0</v>
       </c>
       <c r="AI125">
         <f>INT(5+(X125+(AJ125*0.25)-1)*POWER(X125+(AJ125*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ125">
         <v>0</v>
@@ -13590,50 +13590,50 @@
         <v>424</v>
       </c>
       <c r="W126">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X126">
         <f>1+(W126-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y126">
         <f>INT(POWER(X126+(Z126*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z126">
         <v>0</v>
       </c>
       <c r="AA126">
         <f>INT(POWER(X126+(AB126*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB126">
         <v>0</v>
       </c>
       <c r="AC126">
         <f>INT(50+(X126+(AD126*0.25)-1)*POWER(X126+(AD126*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD126">
         <v>0</v>
       </c>
       <c r="AE126">
         <f>INT(POWER(X126+(AF126*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF126">
         <v>0</v>
       </c>
       <c r="AG126">
         <f>INT(50+(X126+(AH126*0.25)-1)*POWER(X126+(AH126*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH126">
         <v>0</v>
       </c>
       <c r="AI126">
         <f>INT(5+(X126+(AJ126*0.25)-1)*POWER(X126+(AJ126*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -13714,50 +13714,50 @@
         <v>430</v>
       </c>
       <c r="W127">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X127">
         <f>1+(W127-1)*0.25</f>
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="Y127">
         <f>INT(POWER(X127+(Z127*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1260</v>
       </c>
       <c r="Z127">
         <v>0</v>
       </c>
       <c r="AA127">
         <f>INT(POWER(X127+(AB127*0.25),3))+40</f>
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="AB127">
         <v>0</v>
       </c>
       <c r="AC127">
         <f>INT(50+(X127+(AD127*0.25)-1)*POWER(X127+(AD127*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="AD127">
         <v>0</v>
       </c>
       <c r="AE127">
         <f>INT(POWER(X127+(AF127*0.25),3))+40</f>
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="AF127">
         <v>0</v>
       </c>
       <c r="AG127">
         <f>INT(50+(X127+(AH127*0.25)-1)*POWER(X127+(AH127*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="AH127">
         <v>0</v>
       </c>
       <c r="AI127">
         <f>INT(5+(X127+(AJ127*0.25)-1)*POWER(X127+(AJ127*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ127">
         <v>0</v>
@@ -13781,50 +13781,50 @@
         <v>433</v>
       </c>
       <c r="W128">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X128">
         <f>1+(W128-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y128">
         <f>INT(POWER(X128+(Z128*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z128">
         <v>0</v>
       </c>
       <c r="AA128">
         <f>INT(POWER(X128+(AB128*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB128">
         <v>0</v>
       </c>
       <c r="AC128">
         <f>INT(50+(X128+(AD128*0.25)-1)*POWER(X128+(AD128*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD128">
         <v>0</v>
       </c>
       <c r="AE128">
         <f>INT(POWER(X128+(AF128*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF128">
         <v>0</v>
       </c>
       <c r="AG128">
         <f>INT(50+(X128+(AH128*0.25)-1)*POWER(X128+(AH128*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH128">
         <v>0</v>
       </c>
       <c r="AI128">
         <f>INT(5+(X128+(AJ128*0.25)-1)*POWER(X128+(AJ128*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ128">
         <v>0</v>
@@ -13903,50 +13903,50 @@
         <v>436</v>
       </c>
       <c r="W130">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X130">
         <f>1+(W130-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y130">
         <f>INT(POWER(X130+(Z130*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z130">
         <v>0</v>
       </c>
       <c r="AA130">
         <f>INT(POWER(X130+(AB130*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB130">
         <v>0</v>
       </c>
       <c r="AC130">
         <f>INT(50+(X130+(AD130*0.25)-1)*POWER(X130+(AD130*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD130">
         <v>0</v>
       </c>
       <c r="AE130">
         <f>INT(POWER(X130+(AF130*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF130">
         <v>0</v>
       </c>
       <c r="AG130">
         <f>INT(50+(X130+(AH130*0.25)-1)*POWER(X130+(AH130*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH130">
         <v>0</v>
       </c>
       <c r="AI130">
         <f>INT(5+(X130+(AJ130*0.25)-1)*POWER(X130+(AJ130*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ130">
         <v>0</v>
@@ -14027,50 +14027,50 @@
         <v>440</v>
       </c>
       <c r="W131">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X131">
         <f>1+(W131-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y131">
         <f>INT(POWER(X131+(Z131*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z131">
         <v>0</v>
       </c>
       <c r="AA131">
         <f>INT(POWER(X131+(AB131*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB131">
         <v>0</v>
       </c>
       <c r="AC131">
         <f>INT(50+(X131+(AD131*0.25)-1)*POWER(X131+(AD131*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD131">
         <v>0</v>
       </c>
       <c r="AE131">
         <f>INT(POWER(X131+(AF131*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF131">
         <v>0</v>
       </c>
       <c r="AG131">
         <f>INT(50+(X131+(AH131*0.25)-1)*POWER(X131+(AH131*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH131">
         <v>0</v>
       </c>
       <c r="AI131">
         <f>INT(5+(X131+(AJ131*0.25)-1)*POWER(X131+(AJ131*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ131">
         <v>0</v>
@@ -14151,50 +14151,50 @@
         <v>443</v>
       </c>
       <c r="W132">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X132">
         <f>1+(W132-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y132">
         <f>INT(POWER(X132+(Z132*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1478</v>
       </c>
       <c r="Z132">
         <v>0</v>
       </c>
       <c r="AA132">
         <f>INT(POWER(X132+(AB132*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AB132">
         <v>0</v>
       </c>
       <c r="AC132">
         <f>INT(50+(X132+(AD132*0.25)-1)*POWER(X132+(AD132*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AD132">
         <v>0</v>
       </c>
       <c r="AE132">
         <f>INT(POWER(X132+(AF132*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AF132">
         <v>0</v>
       </c>
       <c r="AG132">
         <f>INT(50+(X132+(AH132*0.25)-1)*POWER(X132+(AH132*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AH132">
         <v>0</v>
       </c>
       <c r="AI132">
         <f>INT(5+(X132+(AJ132*0.25)-1)*POWER(X132+(AJ132*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ132">
         <v>0</v>
@@ -14218,50 +14218,50 @@
         <v>446</v>
       </c>
       <c r="W133">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X133">
         <f>1+(W133-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z133">
         <v>0</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB133">
         <v>0</v>
       </c>
       <c r="AC133">
         <f>INT(50+(X133+(AD133*0.25)-1)*POWER(X133+(AD133*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD133">
         <v>0</v>
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH133">
         <v>0</v>
       </c>
       <c r="AI133">
         <f>INT(5+(X133+(AJ133*0.25)-1)*POWER(X133+(AJ133*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ133">
         <v>0</v>
@@ -14724,50 +14724,50 @@
         <v>466</v>
       </c>
       <c r="W139">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X139">
         <f>1+(W139-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z139">
         <v>0</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB139">
         <v>0</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD139">
         <v>0</v>
       </c>
       <c r="AE139">
         <f>INT(POWER(X139+(AF139*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF139">
         <v>0</v>
       </c>
       <c r="AG139">
         <f>INT(50+(X139+(AH139*0.25)-1)*POWER(X139+(AH139*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH139">
         <v>0</v>
       </c>
       <c r="AI139">
         <f>INT(5+(X139+(AJ139*0.25)-1)*POWER(X139+(AJ139*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ139">
         <v>0</v>
@@ -14848,50 +14848,50 @@
         <v>473</v>
       </c>
       <c r="W140">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X140">
         <f>1+(W140-1)*0.25</f>
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Y140">
         <f>INT(POWER(X140+(Z140*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1157</v>
       </c>
       <c r="Z140">
         <v>0</v>
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB140">
         <v>0</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AD140">
         <v>0</v>
       </c>
       <c r="AE140">
         <f>INT(POWER(X140+(AF140*0.25),3))+40</f>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AF140">
         <v>0</v>
       </c>
       <c r="AG140">
         <f>INT(50+(X140+(AH140*0.25)-1)*POWER(X140+(AH140*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="AH140">
         <v>0</v>
       </c>
       <c r="AI140">
         <f>INT(5+(X140+(AJ140*0.25)-1)*POWER(X140+(AJ140*0.25),0.2))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ140">
         <v>0</v>
@@ -14972,50 +14972,50 @@
         <v>480</v>
       </c>
       <c r="W141">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X141">
         <f>1+(W141-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y141">
         <f>INT(POWER(X141+(Z141*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z141">
         <v>0</v>
       </c>
       <c r="AA141">
         <f>INT(POWER(X141+(AB141*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB141">
         <v>0</v>
       </c>
       <c r="AC141">
         <f>INT(50+(X141+(AD141*0.25)-1)*POWER(X141+(AD141*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD141">
         <v>0</v>
       </c>
       <c r="AE141">
         <f>INT(POWER(X141+(AF141*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF141">
         <v>0</v>
       </c>
       <c r="AG141">
         <f>INT(50+(X141+(AH141*0.25)-1)*POWER(X141+(AH141*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH141">
         <v>0</v>
       </c>
       <c r="AI141">
         <f>INT(5+(X141+(AJ141*0.25)-1)*POWER(X141+(AJ141*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ141">
         <v>0</v>
@@ -15039,50 +15039,50 @@
         <v>483</v>
       </c>
       <c r="W142">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X142">
         <f>1+(W142-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y142">
         <f>INT(POWER(X142+(Z142*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z142">
         <v>0</v>
       </c>
       <c r="AA142">
         <f>INT(POWER(X142+(AB142*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB142">
         <v>0</v>
       </c>
       <c r="AC142">
         <f>INT(50+(X142+(AD142*0.25)-1)*POWER(X142+(AD142*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD142">
         <v>0</v>
       </c>
       <c r="AE142">
         <f>INT(POWER(X142+(AF142*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF142">
         <v>0</v>
       </c>
       <c r="AG142">
         <f>INT(50+(X142+(AH142*0.25)-1)*POWER(X142+(AH142*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH142">
         <v>0</v>
       </c>
       <c r="AI142">
         <f>INT(5+(X142+(AJ142*0.25)-1)*POWER(X142+(AJ142*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ142">
         <v>0</v>
@@ -15802,50 +15802,50 @@
         <v>523</v>
       </c>
       <c r="W152">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X152">
         <f>1+(W152-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y152">
         <f>INT(POWER(X152+(Z152*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z152">
         <v>0</v>
       </c>
       <c r="AA152">
         <f>INT(POWER(X152+(AB152*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB152">
         <v>0</v>
       </c>
       <c r="AC152">
         <f>INT(50+(X152+(AD152*0.25)-1)*POWER(X152+(AD152*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD152">
         <v>0</v>
       </c>
       <c r="AE152">
         <f>INT(POWER(X152+(AF152*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF152">
         <v>0</v>
       </c>
       <c r="AG152">
         <f>INT(50+(X152+(AH152*0.25)-1)*POWER(X152+(AH152*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH152">
         <v>0</v>
       </c>
       <c r="AI152">
         <f>INT(5+(X152+(AJ152*0.25)-1)*POWER(X152+(AJ152*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ152">
         <v>0</v>
@@ -15926,50 +15926,50 @@
         <v>527</v>
       </c>
       <c r="W153">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X153">
         <f>1+(W153-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="Y153">
         <f>INT(POWER(X153+(Z153*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1367</v>
       </c>
       <c r="Z153">
         <v>0</v>
       </c>
       <c r="AA153">
         <f>INT(POWER(X153+(AB153*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AB153">
         <v>0</v>
       </c>
       <c r="AC153">
         <f>INT(50+(X153+(AD153*0.25)-1)*POWER(X153+(AD153*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AD153">
         <v>0</v>
       </c>
       <c r="AE153">
         <f>INT(POWER(X153+(AF153*0.25),3))+40</f>
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="AF153">
         <v>0</v>
       </c>
       <c r="AG153">
         <f>INT(50+(X153+(AH153*0.25)-1)*POWER(X153+(AH153*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AH153">
         <v>0</v>
       </c>
       <c r="AI153">
         <f>INT(5+(X153+(AJ153*0.25)-1)*POWER(X153+(AJ153*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ153">
         <v>0</v>
@@ -15990,50 +15990,50 @@
         <v>530</v>
       </c>
       <c r="W154">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X154">
         <f>1+(W154-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y154">
         <f>INT(POWER(X154+(Z154*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1478</v>
       </c>
       <c r="Z154">
         <v>0</v>
       </c>
       <c r="AA154">
         <f>INT(POWER(X154+(AB154*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
         <f>INT(50+(X154+(AD154*0.25)-1)*POWER(X154+(AD154*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AD154">
         <v>0</v>
       </c>
       <c r="AE154">
         <f>INT(POWER(X154+(AF154*0.25),3))+40</f>
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="AF154">
         <v>0</v>
       </c>
       <c r="AG154">
         <f>INT(50+(X154+(AH154*0.25)-1)*POWER(X154+(AH154*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
       <c r="AI154">
         <f>INT(5+(X154+(AJ154*0.25)-1)*POWER(X154+(AJ154*0.25),0.2))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ154">
         <v>0</v>
@@ -16054,50 +16054,50 @@
         <v>533</v>
       </c>
       <c r="W155">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X155">
         <f>1+(W155-1)*0.25</f>
-        <v>2.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y155">
         <f>INT(POWER(X155+(Z155*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1594</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
         <f>INT(POWER(X155+(AB155*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
         <f>INT(50+(X155+(AD155*0.25)-1)*POWER(X155+(AD155*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AD155">
         <v>0</v>
       </c>
       <c r="AE155">
         <f>INT(POWER(X155+(AF155*0.25),3))+40</f>
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="AF155">
         <v>0</v>
       </c>
       <c r="AG155">
         <f>INT(50+(X155+(AH155*0.25)-1)*POWER(X155+(AH155*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
         <f>INT(5+(X155+(AJ155*0.25)-1)*POWER(X155+(AJ155*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ155">
         <v>0</v>
@@ -16183,50 +16183,50 @@
         <v>536</v>
       </c>
       <c r="W157">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="X157">
         <f>1+(W157-1)*0.25</f>
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="Y157">
         <f>INT(POWER(X157+(Z157*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1715</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
         <f>INT(POWER(X157+(AB157*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AB157">
         <v>0</v>
       </c>
       <c r="AC157">
         <f>INT(50+(X157+(AD157*0.25)-1)*POWER(X157+(AD157*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AD157">
         <v>0</v>
       </c>
       <c r="AE157">
         <f>INT(POWER(X157+(AF157*0.25),3))+40</f>
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="AF157">
         <v>0</v>
       </c>
       <c r="AG157">
         <f>INT(50+(X157+(AH157*0.25)-1)*POWER(X157+(AH157*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
       <c r="AI157">
         <f>INT(5+(X157+(AJ157*0.25)-1)*POWER(X157+(AJ157*0.25),0.2))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ157">
         <v>0</v>
@@ -16307,50 +16307,50 @@
         <v>545</v>
       </c>
       <c r="W158">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="X158">
         <f>1+(W158-1)*0.25</f>
-        <v>2.25</v>
+        <v>7.25</v>
       </c>
       <c r="Y158">
         <f>INT(POWER(X158+(Z158*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1839</v>
       </c>
       <c r="Z158">
         <v>0</v>
       </c>
       <c r="AA158">
         <f>INT(POWER(X158+(AB158*0.25),3))+40</f>
-        <v>51</v>
+        <v>421</v>
       </c>
       <c r="AB158">
         <v>0</v>
       </c>
       <c r="AC158">
         <f>INT(50+(X158+(AD158*0.25)-1)*POWER(X158+(AD158*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="AD158">
         <v>0</v>
       </c>
       <c r="AE158">
         <f>INT(POWER(X158+(AF158*0.25),3))+40</f>
-        <v>51</v>
+        <v>421</v>
       </c>
       <c r="AF158">
         <v>0</v>
       </c>
       <c r="AG158">
         <f>INT(50+(X158+(AH158*0.25)-1)*POWER(X158+(AH158*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="AH158">
         <v>0</v>
       </c>
       <c r="AI158">
         <f>INT(5+(X158+(AJ158*0.25)-1)*POWER(X158+(AJ158*0.25),0.2))</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ158">
         <v>0</v>
@@ -16431,50 +16431,50 @@
         <v>549</v>
       </c>
       <c r="W159">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="X159">
         <f>1+(W159-1)*0.25</f>
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y159">
         <f>INT(POWER(X159+(Z159*0.25),2)*35)</f>
-        <v>177</v>
+        <v>1968</v>
       </c>
       <c r="Z159">
         <v>0</v>
       </c>
       <c r="AA159">
         <f>INT(POWER(X159+(AB159*0.25),3))+40</f>
-        <v>51</v>
+        <v>461</v>
       </c>
       <c r="AB159">
         <v>0</v>
       </c>
       <c r="AC159">
         <f>INT(50+(X159+(AD159*0.25)-1)*POWER(X159+(AD159*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="AD159">
         <v>0</v>
       </c>
       <c r="AE159">
         <f>INT(POWER(X159+(AF159*0.25),3))+40</f>
-        <v>51</v>
+        <v>461</v>
       </c>
       <c r="AF159">
         <v>0</v>
       </c>
       <c r="AG159">
         <f>INT(50+(X159+(AH159*0.25)-1)*POWER(X159+(AH159*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="AH159">
         <v>0</v>
       </c>
       <c r="AI159">
         <f>INT(5+(X159+(AJ159*0.25)-1)*POWER(X159+(AJ159*0.25),0.2))</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AJ159">
         <v>0</v>
@@ -16555,50 +16555,50 @@
         <v>552</v>
       </c>
       <c r="W160">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X160">
         <f>1+(W160-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y160">
         <f>INT(POWER(X160+(Z160*0.25),2)*35)</f>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z160">
         <v>0</v>
       </c>
       <c r="AA160">
         <f>INT(POWER(X160+(AB160*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB160">
         <v>0</v>
       </c>
       <c r="AC160">
         <f>INT(50+(X160+(AD160*0.25)-1)*POWER(X160+(AD160*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD160">
         <v>0</v>
       </c>
       <c r="AE160">
         <f>INT(POWER(X160+(AF160*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF160">
         <v>0</v>
       </c>
       <c r="AG160">
         <f>INT(50+(X160+(AH160*0.25)-1)*POWER(X160+(AH160*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH160">
         <v>0</v>
       </c>
       <c r="AI160">
         <f>INT(5+(X160+(AJ160*0.25)-1)*POWER(X160+(AJ160*0.25),0.2))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ160">
         <v>0</v>
@@ -16924,50 +16924,50 @@
         <v>555</v>
       </c>
       <c r="W166">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X166">
         <f t="shared" ref="X166:X172" si="105">1+(W166-1)*0.25</f>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y166">
         <f t="shared" ref="Y166:Y172" si="106">INT(POWER(X166+(Z166*0.25),2)*35)</f>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z166">
         <v>0</v>
       </c>
       <c r="AA166">
         <f t="shared" ref="AA166:AA172" si="107">INT(POWER(X166+(AB166*0.25),3))+40</f>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB166">
         <v>0</v>
       </c>
       <c r="AC166">
         <f t="shared" ref="AC166:AC172" si="108">INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD166">
         <v>0</v>
       </c>
       <c r="AE166">
         <f t="shared" ref="AE166:AE172" si="109">INT(POWER(X166+(AF166*0.25),3))+40</f>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF166">
         <v>0</v>
       </c>
       <c r="AG166">
         <f t="shared" ref="AG166:AG172" si="110">INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH166">
         <v>0</v>
       </c>
       <c r="AI166">
         <f t="shared" ref="AI166:AI172" si="111">INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ166">
         <v>0</v>
@@ -17048,50 +17048,50 @@
         <v>558</v>
       </c>
       <c r="W167">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X167">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y167">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z167">
         <v>0</v>
       </c>
       <c r="AA167">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB167">
         <v>0</v>
       </c>
       <c r="AC167">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD167">
         <v>0</v>
       </c>
       <c r="AE167">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF167">
         <v>0</v>
       </c>
       <c r="AG167">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH167">
         <v>0</v>
       </c>
       <c r="AI167">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ167">
         <v>0</v>
@@ -17165,50 +17165,50 @@
         <v>560</v>
       </c>
       <c r="W168">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="X168">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y168">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>4044</v>
       </c>
       <c r="Z168">
         <v>0</v>
       </c>
       <c r="AA168">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>1282</v>
       </c>
       <c r="AB168">
         <v>0</v>
       </c>
       <c r="AC168">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>369</v>
       </c>
       <c r="AD168">
         <v>0</v>
       </c>
       <c r="AE168">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>1282</v>
       </c>
       <c r="AF168">
         <v>0</v>
       </c>
       <c r="AG168">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>369</v>
       </c>
       <c r="AH168">
         <v>0</v>
       </c>
       <c r="AI168">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AJ168">
         <v>0</v>
@@ -17282,50 +17282,50 @@
         <v>564</v>
       </c>
       <c r="W169">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X169">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y169">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z169">
         <v>0</v>
       </c>
       <c r="AA169">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB169">
         <v>0</v>
       </c>
       <c r="AC169">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD169">
         <v>0</v>
       </c>
       <c r="AE169">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF169">
         <v>0</v>
       </c>
       <c r="AG169">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH169">
         <v>0</v>
       </c>
       <c r="AI169">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ169">
         <v>0</v>
@@ -17399,50 +17399,50 @@
         <v>567</v>
       </c>
       <c r="W170">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X170">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y170">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z170">
         <v>0</v>
       </c>
       <c r="AA170">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB170">
         <v>0</v>
       </c>
       <c r="AC170">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD170">
         <v>0</v>
       </c>
       <c r="AE170">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF170">
         <v>0</v>
       </c>
       <c r="AG170">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH170">
         <v>0</v>
       </c>
       <c r="AI170">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ170">
         <v>0</v>
@@ -17516,50 +17516,50 @@
         <v>571</v>
       </c>
       <c r="W171">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X171">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y171">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z171">
         <v>0</v>
       </c>
       <c r="AA171">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB171">
         <v>0</v>
       </c>
       <c r="AC171">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD171">
         <v>0</v>
       </c>
       <c r="AE171">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF171">
         <v>0</v>
       </c>
       <c r="AG171">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH171">
         <v>0</v>
       </c>
       <c r="AI171">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ171">
         <v>0</v>
@@ -17580,50 +17580,50 @@
         <v>574</v>
       </c>
       <c r="W172">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X172">
         <f t="shared" si="105"/>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y172">
         <f t="shared" si="106"/>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z172">
         <v>0</v>
       </c>
       <c r="AA172">
         <f t="shared" si="107"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB172">
         <v>0</v>
       </c>
       <c r="AC172">
         <f t="shared" si="108"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD172">
         <v>0</v>
       </c>
       <c r="AE172">
         <f t="shared" si="109"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF172">
         <v>0</v>
       </c>
       <c r="AG172">
         <f t="shared" si="110"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH172">
         <v>0</v>
       </c>
       <c r="AI172">
         <f t="shared" si="111"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ172">
         <v>0</v>
@@ -17709,50 +17709,50 @@
         <v>577</v>
       </c>
       <c r="W174">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="X174">
         <f t="shared" ref="X174:X180" si="112">1+(W174-1)*0.25</f>
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="Y174">
         <f t="shared" ref="Y174:Y180" si="113">INT(POWER(X174+(Z174*0.25),2)*35)</f>
-        <v>177</v>
+        <v>5040</v>
       </c>
       <c r="Z174">
         <v>0</v>
       </c>
       <c r="AA174">
         <f t="shared" ref="AA174:AA180" si="114">INT(POWER(X174+(AB174*0.25),3))+40</f>
-        <v>51</v>
+        <v>1768</v>
       </c>
       <c r="AB174">
         <v>0</v>
       </c>
       <c r="AC174">
         <f t="shared" ref="AC174:AC180" si="115">INT(50+(X174+(AD174*0.25)-1)*POWER(X174+(AD174*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="AD174">
         <v>0</v>
       </c>
       <c r="AE174">
         <f t="shared" ref="AE174:AE180" si="116">INT(POWER(X174+(AF174*0.25),3))+40</f>
-        <v>51</v>
+        <v>1768</v>
       </c>
       <c r="AF174">
         <v>0</v>
       </c>
       <c r="AG174">
         <f t="shared" ref="AG174:AG180" si="117">INT(50+(X174+(AH174*0.25)-1)*POWER(X174+(AH174*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
       <c r="AI174">
         <f t="shared" ref="AI174:AI180" si="118">INT(5+(X174+(AJ174*0.25)-1)*POWER(X174+(AJ174*0.25),0.2))</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AJ174">
         <v>0</v>
@@ -17833,50 +17833,50 @@
         <v>578</v>
       </c>
       <c r="W175">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="X175">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>13.25</v>
       </c>
       <c r="Y175">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>6144</v>
       </c>
       <c r="Z175">
         <v>0</v>
       </c>
       <c r="AA175">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>2366</v>
       </c>
       <c r="AB175">
         <v>0</v>
       </c>
       <c r="AC175">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="AD175">
         <v>0</v>
       </c>
       <c r="AE175">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>2366</v>
       </c>
       <c r="AF175">
         <v>0</v>
       </c>
       <c r="AG175">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="AH175">
         <v>0</v>
       </c>
       <c r="AI175">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AJ175">
         <v>0</v>
@@ -17950,50 +17950,50 @@
         <v>579</v>
       </c>
       <c r="W176">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X176">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y176">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>2382</v>
       </c>
       <c r="Z176">
         <v>0</v>
       </c>
       <c r="AA176">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AD176">
         <v>0</v>
       </c>
       <c r="AE176">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF176">
         <v>0</v>
       </c>
       <c r="AG176">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH176">
         <v>0</v>
       </c>
       <c r="AI176">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -18067,50 +18067,50 @@
         <v>580</v>
       </c>
       <c r="W177">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X177">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y177">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z177">
         <v>0</v>
       </c>
       <c r="AA177">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD177">
         <v>0</v>
       </c>
       <c r="AE177">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
       <c r="AI177">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ177">
         <v>0</v>
@@ -18184,50 +18184,50 @@
         <v>581</v>
       </c>
       <c r="W178">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X178">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y178">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z178">
         <v>0</v>
       </c>
       <c r="AA178">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD178">
         <v>0</v>
       </c>
       <c r="AE178">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF178">
         <v>0</v>
       </c>
       <c r="AG178">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH178">
         <v>0</v>
       </c>
       <c r="AI178">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -18301,50 +18301,50 @@
         <v>582</v>
       </c>
       <c r="W179">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X179">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y179">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z179">
         <v>0</v>
       </c>
       <c r="AA179">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD179">
         <v>0</v>
       </c>
       <c r="AE179">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF179">
         <v>0</v>
       </c>
       <c r="AG179">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH179">
         <v>0</v>
       </c>
       <c r="AI179">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ179">
         <v>0</v>
@@ -18365,50 +18365,50 @@
         <v>583</v>
       </c>
       <c r="W180">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="X180">
         <f t="shared" si="112"/>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y180">
         <f t="shared" si="113"/>
-        <v>177</v>
+        <v>3158</v>
       </c>
       <c r="Z180">
         <v>0</v>
       </c>
       <c r="AA180">
         <f t="shared" si="114"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AB180">
         <v>0</v>
       </c>
       <c r="AC180">
         <f t="shared" si="115"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AD180">
         <v>0</v>
       </c>
       <c r="AE180">
         <f t="shared" si="116"/>
-        <v>51</v>
+        <v>897</v>
       </c>
       <c r="AF180">
         <v>0</v>
       </c>
       <c r="AG180">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="AH180">
         <v>0</v>
       </c>
       <c r="AI180">
         <f t="shared" si="118"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AJ180">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1220" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
+    <workbookView xWindow="2560" yWindow="1360" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3845,50 +3845,50 @@
         <v>75</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3974,43 +3974,43 @@
         <v>92</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <f>1+(W6-1)*0.25</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y6">
         <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC6">
         <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
         <f>INT(POWER(X6+(AF6*0.25),3))+40</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
         <f>INT(50+(X6+(AH6*0.25)-1)*POWER(X6+(AH6*0.25),0.5)*10)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -4052,10 +4052,10 @@
       </c>
       <c r="H7">
         <f t="shared" si="16"/>
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <f t="shared" si="17"/>
@@ -4113,10 +4113,10 @@
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
@@ -4242,10 +4242,10 @@
       </c>
       <c r="AA9">
         <f>INT(POWER(X9+(AB9*0.25),3))+40</f>
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC9">
         <f>INT(50+(X9+(AD9*0.25)-1)*POWER(X9+(AD9*0.25),0.5)*10)</f>
@@ -4366,10 +4366,10 @@
       </c>
       <c r="AA10">
         <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
-        <v>92</v>
+        <v>601</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC10">
         <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
@@ -4414,50 +4414,50 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E16" si="35">1+(D11-1)*0.25</f>
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F16" si="36">INT(200+POWER(E11+(G11*0.25)+1,2)*30)</f>
-        <v>741</v>
+        <v>950</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H16" si="37">INT(POWER(E11+(I11*0.25)+4,2)*3)</f>
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J16" si="38">INT(50+(E11+(K11*0.25)-1)*POWER(E11+(K11*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L16" si="39">INT(POWER(E11+(M11*0.25)+4,2)*3)</f>
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" ref="N11:N16" si="40">INT(50+(E11+(O11*0.25)-1)*POWER(E11+(O11*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
         <f t="shared" ref="P11:P16" si="41">INT(5+(E11+(Q11*0.25)-1)*POWER(E11+(Q11*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4490,10 +4490,10 @@
       </c>
       <c r="AA11">
         <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
-        <v>104</v>
+        <v>769</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC11">
         <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
@@ -4538,53 +4538,53 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <f t="shared" si="35"/>
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="F12">
         <f t="shared" si="36"/>
-        <v>741</v>
+        <v>876</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="37"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="39"/>
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>104</v>
@@ -4605,50 +4605,50 @@
         <v>107</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <f t="shared" si="35"/>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="36"/>
-        <v>741</v>
+        <v>807</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="37"/>
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="39"/>
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4672,50 +4672,50 @@
         <v>111</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <f t="shared" si="35"/>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="36"/>
-        <v>741</v>
+        <v>1026</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f t="shared" si="37"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="39"/>
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4739,50 +4739,50 @@
         <v>114</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <f t="shared" si="35"/>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="36"/>
-        <v>741</v>
+        <v>950</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <f t="shared" si="37"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="39"/>
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -4806,53 +4806,53 @@
         <v>120</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <f t="shared" si="35"/>
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="F16">
         <f t="shared" si="36"/>
-        <v>741</v>
+        <v>950</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f t="shared" si="37"/>
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f t="shared" si="38"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="39"/>
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" si="40"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
         <f t="shared" si="41"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>119</v>
@@ -5002,53 +5002,53 @@
         <v>133</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <f t="shared" si="42"/>
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="F19">
         <f t="shared" si="43"/>
-        <v>741</v>
+        <v>1026</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="44"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="45"/>
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="46"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
         <f t="shared" si="47"/>
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>134</v>
@@ -5126,50 +5126,50 @@
         <v>137</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <f t="shared" si="42"/>
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="F20">
         <f t="shared" si="43"/>
-        <v>741</v>
+        <v>1371</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f t="shared" si="44"/>
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" si="45"/>
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="46"/>
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="47"/>
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -5250,50 +5250,50 @@
         <v>140</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <f t="shared" si="42"/>
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="F21">
         <f t="shared" si="43"/>
-        <v>741</v>
+        <v>1566</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <f t="shared" si="44"/>
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21">
         <f t="shared" si="45"/>
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21">
         <f t="shared" si="46"/>
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <f t="shared" si="47"/>
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="48"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q21">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1360" windowWidth="29680" windowHeight="21220" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28780" windowHeight="20180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -956,9 +956,6 @@
     <t>杨过</t>
   </si>
   <si>
-    <t>10012|12011|16005</t>
-  </si>
-  <si>
     <t>13002003</t>
   </si>
   <si>
@@ -1965,6 +1962,10 @@
   </si>
   <si>
     <t>30602|10015|30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10012|12011|16005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3405,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6844,7 +6845,7 @@
         <v>100102</v>
       </c>
       <c r="S41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>189</v>
@@ -6968,7 +6969,7 @@
         <v>100202</v>
       </c>
       <c r="S42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>193</v>
@@ -7092,7 +7093,7 @@
         <v>101102</v>
       </c>
       <c r="S43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>196</v>
@@ -7216,7 +7217,7 @@
         <v>102202</v>
       </c>
       <c r="S44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>204</v>
@@ -7340,7 +7341,7 @@
         <v>104102</v>
       </c>
       <c r="S45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>200</v>
@@ -7464,7 +7465,7 @@
         <v>105102</v>
       </c>
       <c r="S46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -7666,7 +7667,7 @@
         <v>100102</v>
       </c>
       <c r="S50" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U50" s="6" t="s">
         <v>215</v>
@@ -7790,7 +7791,7 @@
         <v>100202</v>
       </c>
       <c r="S51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U51" s="6" t="s">
         <v>220</v>
@@ -7914,7 +7915,7 @@
         <v>101102</v>
       </c>
       <c r="S52" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -7981,7 +7982,7 @@
         <v>102202</v>
       </c>
       <c r="S53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
@@ -8048,7 +8049,7 @@
         <v>104102</v>
       </c>
       <c r="S54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
@@ -8115,7 +8116,7 @@
         <v>105102</v>
       </c>
       <c r="S55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
@@ -8187,7 +8188,7 @@
         <v>100103</v>
       </c>
       <c r="S57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U57" s="6" t="s">
         <v>222</v>
@@ -8311,7 +8312,7 @@
         <v>100203</v>
       </c>
       <c r="S58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U58" s="6" t="s">
         <v>225</v>
@@ -8435,7 +8436,7 @@
         <v>101103</v>
       </c>
       <c r="S59" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -8502,7 +8503,7 @@
         <v>102203</v>
       </c>
       <c r="S60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
@@ -8569,7 +8570,7 @@
         <v>104103</v>
       </c>
       <c r="S61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
@@ -8636,7 +8637,7 @@
         <v>105103</v>
       </c>
       <c r="S62" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -8965,7 +8966,7 @@
         <v>100104</v>
       </c>
       <c r="S68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U68" s="6" t="s">
         <v>241</v>
@@ -9348,7 +9349,7 @@
         <v>100105</v>
       </c>
       <c r="S73" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U73" s="6" t="s">
         <v>256</v>
@@ -10048,7 +10049,7 @@
         <v>101104</v>
       </c>
       <c r="S83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U83" s="6" t="s">
         <v>280</v>
@@ -10168,14 +10169,17 @@
       <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="R84" s="6">
+        <v>102105</v>
+      </c>
+      <c r="S84" t="s">
+        <v>616</v>
+      </c>
+      <c r="U84" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="U84" s="6" t="s">
+      <c r="V84" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="V84" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="W84">
         <v>22</v>
@@ -10230,7 +10234,7 @@
         <v>265</v>
       </c>
       <c r="AM84" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:39">
@@ -10238,10 +10242,10 @@
       <c r="C85" s="6"/>
       <c r="R85" s="6"/>
       <c r="U85" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="V85" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="V85" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="W85">
         <v>20</v>
@@ -10296,7 +10300,7 @@
         <v>95</v>
       </c>
       <c r="AM85" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:39">
@@ -10304,10 +10308,10 @@
       <c r="C86" s="6"/>
       <c r="R86" s="6"/>
       <c r="U86" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="V86" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="V86" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="W86">
         <v>23</v>
@@ -10362,7 +10366,7 @@
         <v>265</v>
       </c>
       <c r="AM86" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:39">
@@ -10430,13 +10434,13 @@
         <v>101105</v>
       </c>
       <c r="S88" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U88" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="V88" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="V88" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="W88">
         <v>30</v>
@@ -10491,7 +10495,7 @@
         <v>164</v>
       </c>
       <c r="AM88" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:39">
@@ -10513,10 +10517,10 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="U89" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="V89" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="V89" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="W89">
         <v>25</v>
@@ -10571,7 +10575,7 @@
         <v>164</v>
       </c>
       <c r="AM89" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:39">
@@ -10593,10 +10597,10 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="U90" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="V90" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="V90" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="W90">
         <v>25</v>
@@ -10651,7 +10655,7 @@
         <v>217</v>
       </c>
       <c r="AM90" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:39">
@@ -10673,10 +10677,10 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="U91" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="V91" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="V91" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="W91">
         <v>25</v>
@@ -10731,7 +10735,7 @@
         <v>164</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:39" s="9" customFormat="1">
@@ -10800,10 +10804,10 @@
         <v>89</v>
       </c>
       <c r="U93" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="V93" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="V93" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="W93" s="9">
         <v>6</v>
@@ -10858,16 +10862,16 @@
         <v>95</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:39" s="9" customFormat="1">
       <c r="A94" s="8"/>
       <c r="B94" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="D94" s="9">
         <v>15</v>
@@ -10919,16 +10923,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="S94" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="S94" s="11" t="s">
+      <c r="U94" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="U94" s="11" t="s">
+      <c r="V94" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="V94" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="W94" s="9">
         <v>6</v>
@@ -10983,16 +10987,16 @@
         <v>95</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:39" s="9" customFormat="1">
       <c r="A95" s="8"/>
       <c r="B95" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="D95" s="9">
         <v>15</v>
@@ -11044,16 +11048,16 @@
         <v>0</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S95" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="U95" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="U95" s="11" t="s">
+      <c r="V95" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="V95" s="11" t="s">
-        <v>322</v>
       </c>
       <c r="W95" s="9">
         <v>6</v>
@@ -11108,7 +11112,7 @@
         <v>126</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:39">
@@ -11117,10 +11121,10 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="U96" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="V96" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="W96">
         <v>6</v>
@@ -11175,7 +11179,7 @@
         <v>126</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:39" s="9" customFormat="1">
@@ -11244,10 +11248,10 @@
         <v>89</v>
       </c>
       <c r="U98" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="V98" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="V98" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="W98" s="9">
         <v>6</v>
@@ -11299,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="AL98" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM98" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="AM98" s="11" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1">
       <c r="A99" s="8"/>
       <c r="B99" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="D99" s="9">
         <v>15</v>
@@ -11363,16 +11367,16 @@
         <v>0</v>
       </c>
       <c r="R99" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S99" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="U99" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="U99" s="11" t="s">
+      <c r="V99" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="V99" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="W99" s="9">
         <v>6</v>
@@ -11427,16 +11431,16 @@
         <v>164</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1">
       <c r="A100" s="8"/>
       <c r="B100" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="D100" s="9">
         <v>15</v>
@@ -11488,16 +11492,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S100" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="U100" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="U100" s="11" t="s">
+      <c r="V100" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="V100" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="W100" s="9">
         <v>6</v>
@@ -11552,7 +11556,7 @@
         <v>126</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:39">
@@ -11561,10 +11565,10 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="U101" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="V101" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="V101" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="W101">
         <v>6</v>
@@ -11619,7 +11623,7 @@
         <v>126</v>
       </c>
       <c r="AM101" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1">
@@ -11688,10 +11692,10 @@
         <v>89</v>
       </c>
       <c r="U103" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="V103" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="V103" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="W103" s="9">
         <v>6</v>
@@ -11743,19 +11747,19 @@
         <v>0</v>
       </c>
       <c r="AL103" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM103" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="AM103" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1">
       <c r="A104" s="8"/>
       <c r="B104" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="D104" s="9">
         <v>1</v>
@@ -11807,16 +11811,16 @@
         <v>0</v>
       </c>
       <c r="R104" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="S104" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="S104" s="11" t="s">
+      <c r="U104" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="V104" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="V104" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="W104" s="9">
         <v>6</v>
@@ -11880,10 +11884,10 @@
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="U105" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="V105" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="V105" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="W105">
         <v>6</v>
@@ -11938,7 +11942,7 @@
         <v>95</v>
       </c>
       <c r="AM105" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:39">
@@ -11947,10 +11951,10 @@
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="U106" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="V106" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="V106" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="W106">
         <v>6</v>
@@ -12005,7 +12009,7 @@
         <v>126</v>
       </c>
       <c r="AM106" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:39">
@@ -12073,13 +12077,13 @@
         <v>102204</v>
       </c>
       <c r="S108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U108" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="V108" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="V108" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="W108">
         <v>25</v>
@@ -12131,18 +12135,18 @@
         <v>0</v>
       </c>
       <c r="AL108" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM108" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="AM108" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:39">
       <c r="B109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="D109">
         <v>15</v>
@@ -12194,16 +12198,16 @@
         <v>0</v>
       </c>
       <c r="R109" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="S109" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="S109" s="6" t="s">
+      <c r="U109" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="U109" s="6" t="s">
+      <c r="V109" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="W109">
         <v>20</v>
@@ -12258,7 +12262,7 @@
         <v>164</v>
       </c>
       <c r="AM109" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:39">
@@ -12267,10 +12271,10 @@
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="U110" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="V110" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="V110" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="W110">
         <v>22</v>
@@ -12325,7 +12329,7 @@
         <v>265</v>
       </c>
       <c r="AM110" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:39">
@@ -12335,10 +12339,10 @@
     </row>
     <row r="112" spans="1:39">
       <c r="B112" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D112" s="7">
         <v>12</v>
@@ -12386,13 +12390,13 @@
         <v>102205</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U112" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="V112" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="V112" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="W112">
         <v>30</v>
@@ -12444,18 +12448,18 @@
         <v>0</v>
       </c>
       <c r="AL112" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM112" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="AM112" s="6" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:39">
       <c r="B113" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -12507,16 +12511,16 @@
         <v>0</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S113" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="U113" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="U113" s="6" t="s">
+      <c r="V113" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="W113">
         <v>25</v>
@@ -12571,15 +12575,15 @@
         <v>97</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:39">
       <c r="B114" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -12631,16 +12635,16 @@
         <v>0</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U114" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="V114" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="V114" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="W114">
         <v>25</v>
@@ -12695,15 +12699,15 @@
         <v>126</v>
       </c>
       <c r="AM114" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:39">
       <c r="B115" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -12755,16 +12759,16 @@
         <v>0</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U115" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="V115" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="V115" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="W115">
         <v>24</v>
@@ -12819,7 +12823,7 @@
         <v>217</v>
       </c>
       <c r="AM115" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:39">
@@ -12887,13 +12891,13 @@
         <v>104104</v>
       </c>
       <c r="S117" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U117" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="V117" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="V117" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="W117">
         <v>25</v>
@@ -12945,18 +12949,18 @@
         <v>0</v>
       </c>
       <c r="AL117" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM117" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="AM117" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:39">
       <c r="B118" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="D118">
         <v>20</v>
@@ -13008,16 +13012,16 @@
         <v>0</v>
       </c>
       <c r="R118" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="S118" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="S118" s="6" t="s">
+      <c r="U118" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="U118" s="6" t="s">
+      <c r="V118" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="W118">
         <v>20</v>
@@ -13072,7 +13076,7 @@
         <v>97</v>
       </c>
       <c r="AM118" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:39">
@@ -13081,10 +13085,10 @@
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="U119" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="V119" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="V119" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="W119">
         <v>22</v>
@@ -13149,10 +13153,10 @@
     </row>
     <row r="121" spans="1:39">
       <c r="B121" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D121" s="7">
         <v>12</v>
@@ -13200,13 +13204,13 @@
         <v>104105</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U121" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="V121" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="V121" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="W121">
         <v>30</v>
@@ -13258,19 +13262,19 @@
         <v>0</v>
       </c>
       <c r="AL121" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM121" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="AM121" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="122" spans="1:39">
       <c r="R122" s="5"/>
       <c r="U122" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="V122" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="V122" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="W122">
         <v>25</v>
@@ -13325,16 +13329,16 @@
         <v>265</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:39">
       <c r="R123" s="5"/>
       <c r="U123" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="V123" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="V123" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="W123">
         <v>25</v>
@@ -13389,7 +13393,7 @@
         <v>265</v>
       </c>
       <c r="AM123" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:39">
@@ -13457,13 +13461,13 @@
         <v>105104</v>
       </c>
       <c r="S125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U125" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="V125" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="V125" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="W125">
         <v>25</v>
@@ -13518,15 +13522,15 @@
         <v>183</v>
       </c>
       <c r="AM125" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="126" spans="1:39">
       <c r="B126" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -13578,16 +13582,16 @@
         <v>0</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S126" s="6" t="s">
         <v>192</v>
       </c>
       <c r="U126" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="V126" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="W126">
         <v>20</v>
@@ -13642,15 +13646,15 @@
         <v>95</v>
       </c>
       <c r="AM126" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:39">
       <c r="B127" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D127">
         <v>20</v>
@@ -13702,16 +13706,16 @@
         <v>0</v>
       </c>
       <c r="R127" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="U127" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="S127" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="U127" s="6" t="s">
+      <c r="V127" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="V127" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="W127">
         <v>21</v>
@@ -13766,7 +13770,7 @@
         <v>95</v>
       </c>
       <c r="AM127" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:39">
@@ -13775,10 +13779,10 @@
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="U128" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="V128" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="V128" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="W128">
         <v>22</v>
@@ -13833,7 +13837,7 @@
         <v>95</v>
       </c>
       <c r="AM128" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="1:39">
@@ -13843,10 +13847,10 @@
     </row>
     <row r="130" spans="1:39">
       <c r="B130" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D130" s="7">
         <v>12</v>
@@ -13894,13 +13898,13 @@
         <v>105105</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U130" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V130" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="V130" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="W130">
         <v>30</v>
@@ -13952,18 +13956,18 @@
         <v>0</v>
       </c>
       <c r="AL130" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM130" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="AM130" s="6" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="B131" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -14015,16 +14019,16 @@
         <v>0</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S131" s="6" t="s">
         <v>192</v>
       </c>
       <c r="U131" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="V131" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="V131" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="W131">
         <v>22</v>
@@ -14079,15 +14083,15 @@
         <v>265</v>
       </c>
       <c r="AM131" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:39">
       <c r="B132" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -14139,16 +14143,16 @@
         <v>0</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U132" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="V132" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="V132" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="W132">
         <v>23</v>
@@ -14203,7 +14207,7 @@
         <v>126</v>
       </c>
       <c r="AM132" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:39">
@@ -14212,10 +14216,10 @@
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="U133" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="V133" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="V133" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="W133">
         <v>25</v>
@@ -14270,7 +14274,7 @@
         <v>97</v>
       </c>
       <c r="AM133" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:39" s="9" customFormat="1">
@@ -14339,10 +14343,10 @@
         <v>89</v>
       </c>
       <c r="U135" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="V135" s="11" t="s">
         <v>448</v>
-      </c>
-      <c r="V135" s="11" t="s">
-        <v>449</v>
       </c>
       <c r="W135" s="9">
         <v>6</v>
@@ -14394,19 +14398,19 @@
         <v>0</v>
       </c>
       <c r="AL135" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AM135" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="AM135" s="11" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:39" s="9" customFormat="1">
       <c r="A136" s="8"/>
       <c r="B136" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="D136" s="9">
         <v>1</v>
@@ -14458,16 +14462,16 @@
         <v>0</v>
       </c>
       <c r="R136" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="S136" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="S136" s="11" t="s">
+      <c r="U136" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="U136" s="11" t="s">
+      <c r="V136" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="V136" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="W136" s="9">
         <v>6</v>
@@ -14522,16 +14526,16 @@
         <v>126</v>
       </c>
       <c r="AM136" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:39" s="9" customFormat="1">
       <c r="A137" s="8"/>
       <c r="B137" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="D137" s="9">
         <v>1</v>
@@ -14583,16 +14587,16 @@
         <v>0</v>
       </c>
       <c r="R137" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="S137" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="S137" s="11" t="s">
+      <c r="U137" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="U137" s="11" t="s">
+      <c r="V137" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="V137" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="W137" s="9">
         <v>6</v>
@@ -14715,13 +14719,13 @@
         <v>100204</v>
       </c>
       <c r="S139" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U139" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="V139" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="V139" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="W139">
         <v>25</v>
@@ -14773,18 +14777,18 @@
         <v>0</v>
       </c>
       <c r="AL139" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM139" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="AM139" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:39">
       <c r="B140" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="D140">
         <v>20</v>
@@ -14836,16 +14840,16 @@
         <v>0</v>
       </c>
       <c r="R140" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="S140" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="U140" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="S140" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="U140" s="6" t="s">
+      <c r="V140" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="V140" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="W140">
         <v>20</v>
@@ -14900,15 +14904,15 @@
         <v>265</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="141" spans="1:39">
       <c r="B141" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -14960,16 +14964,16 @@
         <v>0</v>
       </c>
       <c r="R141" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="S141" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="S141" s="6" t="s">
+      <c r="U141" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="U141" s="6" t="s">
+      <c r="V141" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="V141" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="W141">
         <v>22</v>
@@ -15024,7 +15028,7 @@
         <v>265</v>
       </c>
       <c r="AM141" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:39">
@@ -15033,10 +15037,10 @@
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
       <c r="U142" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="V142" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="V142" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="W142">
         <v>22</v>
@@ -15091,7 +15095,7 @@
         <v>95</v>
       </c>
       <c r="AM142" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:39" s="9" customFormat="1">
@@ -15160,10 +15164,10 @@
         <v>89</v>
       </c>
       <c r="U144" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="V144" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="W144" s="9">
         <v>6</v>
@@ -15215,19 +15219,19 @@
         <v>0</v>
       </c>
       <c r="AL144" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM144" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="AM144" s="11" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:39" s="9" customFormat="1">
       <c r="A145" s="8"/>
       <c r="B145" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>498</v>
       </c>
       <c r="D145" s="9">
         <v>1</v>
@@ -15279,16 +15283,16 @@
         <v>0</v>
       </c>
       <c r="R145" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="S145" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="S145" s="11" t="s">
-        <v>500</v>
-      </c>
       <c r="U145" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="V145" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="V145" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="W145" s="9">
         <v>6</v>
@@ -15340,19 +15344,19 @@
         <v>0</v>
       </c>
       <c r="AL145" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="AM145" s="11" t="s">
         <v>495</v>
-      </c>
-      <c r="AM145" s="11" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:39" s="9" customFormat="1">
       <c r="A146" s="8"/>
       <c r="B146" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>506</v>
       </c>
       <c r="D146" s="9">
         <v>1</v>
@@ -15404,16 +15408,16 @@
         <v>0</v>
       </c>
       <c r="R146" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="S146" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="S146" s="11" t="s">
-        <v>508</v>
-      </c>
       <c r="U146" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="V146" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="V146" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="W146" s="9">
         <v>6</v>
@@ -15465,18 +15469,18 @@
         <v>0</v>
       </c>
       <c r="AL146" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM146" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="AM146" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:39">
       <c r="U147" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="V147" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="V147" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="W147">
         <v>6</v>
@@ -15528,10 +15532,10 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM147" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="AM147" s="6" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:39">
@@ -15540,10 +15544,10 @@
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
       <c r="U148" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="V148" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="V148" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="W148">
         <v>6</v>
@@ -15598,7 +15602,7 @@
         <v>126</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:39">
@@ -15607,10 +15611,10 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="U149" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="V149" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="W149">
         <v>6</v>
@@ -15665,7 +15669,7 @@
         <v>95</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="1:39">
@@ -15674,10 +15678,10 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="U150" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="V150" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="V150" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="W150">
         <v>6</v>
@@ -15732,7 +15736,7 @@
         <v>126</v>
       </c>
       <c r="AM150" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="1:39">
@@ -15742,10 +15746,10 @@
     </row>
     <row r="152" spans="1:39">
       <c r="B152" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C152" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D152" s="7">
         <v>12</v>
@@ -15793,13 +15797,13 @@
         <v>100205</v>
       </c>
       <c r="S152" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U152" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="V152" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="V152" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="W152">
         <v>30</v>
@@ -15851,18 +15855,18 @@
         <v>0</v>
       </c>
       <c r="AL152" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM152" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="AM152" s="6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:39">
       <c r="B153" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="D153">
         <v>20</v>
@@ -15914,16 +15918,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="S153" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="S153" s="6" t="s">
-        <v>492</v>
-      </c>
       <c r="U153" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="V153" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="V153" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="W153">
         <v>22</v>
@@ -15978,16 +15982,16 @@
         <v>95</v>
       </c>
       <c r="AM153" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="154" spans="1:39">
       <c r="R154" s="5"/>
       <c r="U154" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="V154" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="V154" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="W154">
         <v>23</v>
@@ -16042,16 +16046,16 @@
         <v>126</v>
       </c>
       <c r="AM154" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:39">
       <c r="R155" s="5"/>
       <c r="U155" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V155" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W155">
         <v>24</v>
@@ -16106,7 +16110,7 @@
         <v>126</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:39">
@@ -16116,10 +16120,10 @@
     </row>
     <row r="157" spans="1:39">
       <c r="B157" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="D157">
         <v>20</v>
@@ -16171,16 +16175,16 @@
         <v>0</v>
       </c>
       <c r="R157" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="S157" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="S157" s="6" t="s">
-        <v>525</v>
-      </c>
       <c r="U157" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="W157">
         <v>25</v>
@@ -16235,15 +16239,15 @@
         <v>265</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="1:39">
       <c r="B158" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="D158">
         <v>15</v>
@@ -16295,16 +16299,16 @@
         <v>0</v>
       </c>
       <c r="R158" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="S158" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="S158" s="6" t="s">
+      <c r="U158" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="U158" s="6" t="s">
+      <c r="V158" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="V158" s="6" t="s">
-        <v>545</v>
       </c>
       <c r="W158">
         <v>26</v>
@@ -16359,7 +16363,7 @@
         <v>126</v>
       </c>
       <c r="AM158" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="159" spans="1:39">
@@ -16422,13 +16426,13 @@
         <v>100105</v>
       </c>
       <c r="S159" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U159" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W159">
         <v>27</v>
@@ -16480,10 +16484,10 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AM159" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:39">
@@ -16546,13 +16550,13 @@
         <v>101105</v>
       </c>
       <c r="S160" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U160" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="W160">
         <v>30</v>
@@ -16607,15 +16611,15 @@
         <v>126</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:39">
       <c r="B161" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D161" s="7">
         <v>13</v>
@@ -16663,7 +16667,7 @@
         <v>102205</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
@@ -16672,10 +16676,10 @@
     </row>
     <row r="162" spans="1:39">
       <c r="B162" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D162" s="7">
         <v>13</v>
@@ -16723,7 +16727,7 @@
         <v>104105</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -16732,10 +16736,10 @@
     </row>
     <row r="163" spans="1:39">
       <c r="B163" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D163" s="7">
         <v>13</v>
@@ -16783,7 +16787,7 @@
         <v>105105</v>
       </c>
       <c r="S163" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -16792,10 +16796,10 @@
     </row>
     <row r="164" spans="1:39">
       <c r="B164" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D164" s="7">
         <v>13</v>
@@ -16843,7 +16847,7 @@
         <v>100205</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -16915,13 +16919,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U166" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="V166" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="V166" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="W166">
         <v>35</v>
@@ -16976,7 +16980,7 @@
         <v>265</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:39">
@@ -17039,13 +17043,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U167" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="V167" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="V167" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="W167">
         <v>35</v>
@@ -17100,15 +17104,15 @@
         <v>265</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="1:39">
       <c r="B168" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D168" s="7">
         <v>14</v>
@@ -17156,13 +17160,13 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U168" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V168" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W168">
         <v>40</v>
@@ -17217,15 +17221,15 @@
         <v>126</v>
       </c>
       <c r="AM168" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:39">
       <c r="B169" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D169" s="7">
         <v>14</v>
@@ -17273,13 +17277,13 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U169" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="V169" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="V169" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="W169">
         <v>30</v>
@@ -17334,15 +17338,15 @@
         <v>164</v>
       </c>
       <c r="AM169" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="170" spans="1:39">
       <c r="B170" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D170" s="7">
         <v>14</v>
@@ -17390,13 +17394,13 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U170" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="V170" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="V170" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="W170">
         <v>30</v>
@@ -17448,18 +17452,18 @@
         <v>0</v>
       </c>
       <c r="AL170" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM170" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="AM170" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="171" spans="1:39">
       <c r="B171" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D171" s="7">
         <v>14</v>
@@ -17507,13 +17511,13 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U171" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="V171" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="V171" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="W171">
         <v>30</v>
@@ -17568,16 +17572,16 @@
         <v>164</v>
       </c>
       <c r="AM171" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:39">
       <c r="R172" s="5"/>
       <c r="U172" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="V172" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="V172" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="W172">
         <v>30</v>
@@ -17632,7 +17636,7 @@
         <v>265</v>
       </c>
       <c r="AM172" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" spans="1:39">
@@ -17700,13 +17704,13 @@
         <v>100105</v>
       </c>
       <c r="S174" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U174" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="V174" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17761,7 +17765,7 @@
         <v>126</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:39">
@@ -17824,13 +17828,13 @@
         <v>101105</v>
       </c>
       <c r="S175" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U175" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W175">
         <v>50</v>
@@ -17885,15 +17889,15 @@
         <v>265</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:39">
       <c r="B176" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D176" s="7">
         <v>15</v>
@@ -17941,13 +17945,13 @@
         <v>102205</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="U176" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -18002,15 +18006,15 @@
         <v>95</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="177" spans="2:39">
       <c r="B177" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D177" s="7">
         <v>15</v>
@@ -18058,13 +18062,13 @@
         <v>104105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U177" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V177" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="W177">
         <v>35</v>
@@ -18119,15 +18123,15 @@
         <v>217</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" spans="2:39">
       <c r="B178" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D178" s="7">
         <v>15</v>
@@ -18175,13 +18179,13 @@
         <v>105105</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="U178" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V178" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W178">
         <v>35</v>
@@ -18236,15 +18240,15 @@
         <v>95</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="179" spans="2:39">
       <c r="B179" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="D179" s="7">
         <v>15</v>
@@ -18292,13 +18296,13 @@
         <v>100205</v>
       </c>
       <c r="S179" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U179" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="V179" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="W179">
         <v>35</v>
@@ -18353,16 +18357,16 @@
         <v>265</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="2:39">
       <c r="R180" s="5"/>
       <c r="U180" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="V180" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="W180">
         <v>35</v>
@@ -18414,10 +18418,10 @@
         <v>0</v>
       </c>
       <c r="AL180" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AM180" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="AM180" s="6" t="s">
-        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="28780" windowHeight="20180" tabRatio="500"/>
+    <workbookView xWindow="13660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="615">
   <si>
     <t>临安府</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,9 +521,6 @@
     <t>陈玄风</t>
   </si>
   <si>
-    <t>02002005</t>
-  </si>
-  <si>
     <t>100301</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
   </si>
   <si>
     <t>铁尸梅超风</t>
-  </si>
-  <si>
-    <t>200027</t>
   </si>
   <si>
     <t>200028</t>
@@ -2061,8 +2055,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="499">
+  <cellStyleXfs count="507">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2576,7 +2578,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="499">
+  <cellStyles count="507">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2826,6 +2828,10 @@
     <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3075,6 +3081,10 @@
     <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3406,8 +3416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="S85" sqref="S85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3990,10 +4001,10 @@
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="AB6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AC6">
         <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
@@ -4114,10 +4125,10 @@
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>206</v>
+        <v>383</v>
       </c>
       <c r="AB7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
@@ -4228,15 +4239,15 @@
         <v>123</v>
       </c>
       <c r="W9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <f>1+(W9-1)*0.25</f>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <f>INT(POWER(X9+(Z9*0.25),2)*35)</f>
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -4246,32 +4257,32 @@
         <v>461</v>
       </c>
       <c r="AB9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC9">
         <f>INT(50+(X9+(AD9*0.25)-1)*POWER(X9+(AD9*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
         <f>INT(POWER(X9+(AF9*0.25),3))+40</f>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
         <f>INT(50+(X9+(AH9*0.25)-1)*POWER(X9+(AH9*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <f>INT(5+(X9+(AJ9*0.25)-1)*POWER(X9+(AJ9*0.25),0.2))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -4352,50 +4363,50 @@
         <v>128</v>
       </c>
       <c r="W10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X10">
         <f>1+(W10-1)*0.25</f>
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Y10">
         <f>INT(POWER(X10+(Z10*0.25),2)*35)</f>
-        <v>492</v>
+        <v>264</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
         <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="AB10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC10">
         <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
         <f>INT(POWER(X10+(AF10*0.25),3))+40</f>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
         <f>INT(50+(X10+(AH10*0.25)-1)*POWER(X10+(AH10*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <f>INT(5+(X10+(AJ10*0.25)-1)*POWER(X10+(AJ10*0.25),0.2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4476,50 +4487,50 @@
         <v>131</v>
       </c>
       <c r="W11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <f>1+(W11-1)*0.25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <f>INT(POWER(X11+(Z11*0.25),2)*35)</f>
-        <v>560</v>
+        <v>315</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
         <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
-        <v>769</v>
+        <v>654</v>
       </c>
       <c r="AB11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC11">
         <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
         <f>INT(POWER(X11+(AF11*0.25),3))+40</f>
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
         <f>INT(50+(X11+(AH11*0.25)-1)*POWER(X11+(AH11*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
         <f>INT(5+(X11+(AJ11*0.25)-1)*POWER(X11+(AJ11*0.25),0.2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -4934,10 +4945,10 @@
         <v>11002</v>
       </c>
       <c r="U18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="W18">
         <v>15</v>
@@ -4955,17 +4966,17 @@
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC18">
         <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE18">
         <f>INT(POWER(X18+(AF18*0.25),3))+40</f>
@@ -4988,80 +4999,80 @@
       <c r="AJ18">
         <v>0</v>
       </c>
-      <c r="AL18" s="5" t="s">
-        <v>146</v>
+      <c r="AL18" s="5">
+        <v>200027</v>
       </c>
       <c r="AM18" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="B19" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>133</v>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <f t="shared" si="42"/>
-        <v>4.25</v>
+        <f>1+(D19-1)*0.25</f>
+        <v>1.75</v>
       </c>
       <c r="F19">
-        <f t="shared" si="43"/>
-        <v>1026</v>
+        <f>INT(200+POWER(E19+(G19*0.25)+1,2)*30)</f>
+        <v>426</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="44"/>
-        <v>204</v>
+        <f>INT(POWER(E19+(I19*0.25)+4,2)*3)</f>
+        <v>99</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="45"/>
-        <v>117</v>
+        <f>INT(50+(E19+(K19*0.25)-1)*POWER(E19+(K19*0.25),0.5)*10)</f>
+        <v>59</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="46"/>
-        <v>204</v>
+        <f>INT(POWER(E19+(M19*0.25)+4,2)*3)</f>
+        <v>99</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="47"/>
-        <v>117</v>
+        <f>INT(50+(E19+(O19*0.25)-1)*POWER(E19+(O19*0.25),0.5)*10)</f>
+        <v>59</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="48"/>
-        <v>12</v>
+        <f>INT(5+(E19+(Q19*0.25)-1)*POWER(E19+(Q19*0.25),0.2))</f>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>8</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>103001</v>
+      </c>
+      <c r="S19">
+        <v>14001</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W19">
         <v>15</v>
@@ -5079,17 +5090,17 @@
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC19">
         <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <f>INT(POWER(X19+(AF19*0.25),3))+40</f>
@@ -5113,79 +5124,79 @@
         <v>0</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <f t="shared" si="42"/>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="F20">
         <f t="shared" si="43"/>
-        <v>1371</v>
+        <v>876</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" si="44"/>
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <f t="shared" si="45"/>
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="46"/>
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="47"/>
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="48"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W20">
         <v>12</v>
@@ -5240,76 +5251,76 @@
         <v>95</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <f t="shared" si="42"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <f t="shared" si="43"/>
-        <v>1566</v>
+        <v>1191</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f t="shared" si="44"/>
         <v>300</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <f t="shared" si="45"/>
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="46"/>
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <f t="shared" si="47"/>
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="48"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W21">
         <v>14</v>
@@ -5364,70 +5375,70 @@
         <v>95</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+      <c r="B22" s="5">
+        <v>2002005</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <f t="shared" si="42"/>
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <f t="shared" si="43"/>
-        <v>426</v>
+        <v>1371</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <f t="shared" si="44"/>
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22">
         <f t="shared" si="45"/>
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <f t="shared" si="46"/>
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <f t="shared" si="47"/>
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
         <f t="shared" si="48"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="5">
-        <v>103001</v>
-      </c>
-      <c r="S22">
-        <v>14001</v>
+      <c r="R22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -5502,10 +5513,10 @@
         <v>14001</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W24">
         <v>14</v>
@@ -5560,7 +5571,7 @@
         <v>95</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -5626,10 +5637,10 @@
         <v>13001</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W25">
         <v>15</v>
@@ -5684,7 +5695,7 @@
         <v>95</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -5755,10 +5766,10 @@
         <v>13001</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="W27">
         <v>15</v>
@@ -5810,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="AL27" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM27" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -5879,10 +5890,10 @@
         <v>12002</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="W28">
         <v>15</v>
@@ -5943,10 +5954,10 @@
     <row r="29" spans="1:39">
       <c r="R29" s="5"/>
       <c r="U29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W29">
         <v>15</v>
@@ -6001,16 +6012,16 @@
         <v>84</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="R30" s="5"/>
       <c r="U30" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W30">
         <v>20</v>
@@ -6062,10 +6073,10 @@
         <v>0</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AM30" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:39">
@@ -6136,10 +6147,10 @@
         <v>12002</v>
       </c>
       <c r="U32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="W32">
         <v>20</v>
@@ -6191,10 +6202,10 @@
         <v>0</v>
       </c>
       <c r="AL32" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:39">
@@ -6260,10 +6271,10 @@
         <v>30101</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W33">
         <v>16</v>
@@ -6318,7 +6329,7 @@
         <v>84</v>
       </c>
       <c r="AM33" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:39">
@@ -6663,10 +6674,10 @@
     </row>
     <row r="40" spans="1:39">
       <c r="B40" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -6718,16 +6729,16 @@
         <v>0</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W40">
         <v>20</v>
@@ -6779,10 +6790,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:39">
@@ -6845,13 +6856,13 @@
         <v>100102</v>
       </c>
       <c r="S41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W41">
         <v>15</v>
@@ -6903,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM41" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:39">
@@ -6969,13 +6980,13 @@
         <v>100202</v>
       </c>
       <c r="S42" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W42">
         <v>15</v>
@@ -7030,7 +7041,7 @@
         <v>126</v>
       </c>
       <c r="AM42" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:39">
@@ -7093,13 +7104,13 @@
         <v>101102</v>
       </c>
       <c r="S43" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W43">
         <v>15</v>
@@ -7151,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM43" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:39">
@@ -7217,13 +7228,13 @@
         <v>102202</v>
       </c>
       <c r="S44" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W44">
         <v>15</v>
@@ -7275,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM44" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:39">
@@ -7341,13 +7352,13 @@
         <v>104102</v>
       </c>
       <c r="S45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W45">
         <v>15</v>
@@ -7399,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="AL45" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AM45" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:39">
@@ -7465,7 +7476,7 @@
         <v>105102</v>
       </c>
       <c r="S46" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -7485,10 +7496,10 @@
     </row>
     <row r="49" spans="1:39">
       <c r="B49" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D49">
         <v>15</v>
@@ -7540,16 +7551,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W49">
         <v>18</v>
@@ -7604,7 +7615,7 @@
         <v>84</v>
       </c>
       <c r="AM49" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -7667,13 +7678,13 @@
         <v>100102</v>
       </c>
       <c r="S50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W50">
         <v>18</v>
@@ -7725,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="AL50" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM50" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:39">
@@ -7791,13 +7802,13 @@
         <v>100202</v>
       </c>
       <c r="S51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="W51">
         <v>18</v>
@@ -7852,7 +7863,7 @@
         <v>95</v>
       </c>
       <c r="AM51" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:39">
@@ -7915,7 +7926,7 @@
         <v>101102</v>
       </c>
       <c r="S52" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -7982,7 +7993,7 @@
         <v>102202</v>
       </c>
       <c r="S53" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
@@ -8049,7 +8060,7 @@
         <v>104102</v>
       </c>
       <c r="S54" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
@@ -8116,7 +8127,7 @@
         <v>105102</v>
       </c>
       <c r="S55" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
@@ -8188,13 +8199,13 @@
         <v>100103</v>
       </c>
       <c r="S57" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W57">
         <v>20</v>
@@ -8246,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="AL57" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM57" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:39">
@@ -8312,13 +8323,13 @@
         <v>100203</v>
       </c>
       <c r="S58" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="U58" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V58" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W58">
         <v>20</v>
@@ -8370,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="AL58" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:39">
@@ -8436,7 +8447,7 @@
         <v>101103</v>
       </c>
       <c r="S59" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -8503,7 +8514,7 @@
         <v>102203</v>
       </c>
       <c r="S60" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
@@ -8570,7 +8581,7 @@
         <v>104103</v>
       </c>
       <c r="S61" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
@@ -8637,7 +8648,7 @@
         <v>105103</v>
       </c>
       <c r="S62" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -8710,10 +8721,10 @@
         <v>89</v>
       </c>
       <c r="U64" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W64" s="9">
         <v>25</v>
@@ -8765,18 +8776,18 @@
         <v>0</v>
       </c>
       <c r="AL64" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM64" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="U65" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="W65">
         <v>20</v>
@@ -8828,10 +8839,10 @@
         <v>0</v>
       </c>
       <c r="AL65" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:39">
@@ -8840,10 +8851,10 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="U66" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V66" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W66">
         <v>20</v>
@@ -8895,10 +8906,10 @@
         <v>0</v>
       </c>
       <c r="AL66" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM66" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:39">
@@ -8966,13 +8977,13 @@
         <v>100104</v>
       </c>
       <c r="S68" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V68" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W68">
         <v>25</v>
@@ -9024,18 +9035,18 @@
         <v>0</v>
       </c>
       <c r="AL68" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM68" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:39">
       <c r="B69" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D69">
         <v>20</v>
@@ -9087,16 +9098,16 @@
         <v>0</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W69">
         <v>20</v>
@@ -9151,15 +9162,15 @@
         <v>95</v>
       </c>
       <c r="AM69" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="U70" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W70">
         <v>22</v>
@@ -9214,7 +9225,7 @@
         <v>95</v>
       </c>
       <c r="AM70" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:39">
@@ -9223,10 +9234,10 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="U71" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="W71">
         <v>23</v>
@@ -9281,7 +9292,7 @@
         <v>95</v>
       </c>
       <c r="AM71" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:39">
@@ -9349,13 +9360,13 @@
         <v>100105</v>
       </c>
       <c r="S73" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W73">
         <v>30</v>
@@ -9407,18 +9418,18 @@
         <v>0</v>
       </c>
       <c r="AL73" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM73" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="B74" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -9470,16 +9481,16 @@
         <v>0</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W74">
         <v>25</v>
@@ -9534,16 +9545,16 @@
         <v>97</v>
       </c>
       <c r="AM74" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:39">
       <c r="R75" s="5"/>
       <c r="U75" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W75">
         <v>25</v>
@@ -9595,19 +9606,19 @@
         <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM75" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:39">
       <c r="R76" s="5"/>
       <c r="U76" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W76">
         <v>24</v>
@@ -9662,7 +9673,7 @@
         <v>95</v>
       </c>
       <c r="AM76" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:39" s="9" customFormat="1">
@@ -9731,10 +9742,10 @@
         <v>89</v>
       </c>
       <c r="U78" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="V78" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W78" s="9">
         <v>6</v>
@@ -9789,16 +9800,16 @@
         <v>84</v>
       </c>
       <c r="AM78" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:39">
       <c r="R79" s="5"/>
       <c r="U79" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="V79" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W79">
         <v>6</v>
@@ -9859,10 +9870,10 @@
     <row r="80" spans="1:39">
       <c r="R80" s="5"/>
       <c r="U80" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W80">
         <v>6</v>
@@ -9923,10 +9934,10 @@
     <row r="81" spans="1:39">
       <c r="R81" s="5"/>
       <c r="U81" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="W81">
         <v>6</v>
@@ -9981,7 +9992,7 @@
         <v>95</v>
       </c>
       <c r="AM81" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:39">
@@ -10049,13 +10060,13 @@
         <v>101104</v>
       </c>
       <c r="S83" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W83">
         <v>25</v>
@@ -10107,18 +10118,18 @@
         <v>0</v>
       </c>
       <c r="AL83" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:39">
       <c r="B84" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D84">
         <v>20</v>
@@ -10173,13 +10184,13 @@
         <v>102105</v>
       </c>
       <c r="S84" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V84" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W84">
         <v>22</v>
@@ -10231,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="AL84" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM84" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:39">
@@ -10242,10 +10253,10 @@
       <c r="C85" s="6"/>
       <c r="R85" s="6"/>
       <c r="U85" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W85">
         <v>20</v>
@@ -10300,7 +10311,7 @@
         <v>95</v>
       </c>
       <c r="AM85" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:39">
@@ -10308,10 +10319,10 @@
       <c r="C86" s="6"/>
       <c r="R86" s="6"/>
       <c r="U86" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W86">
         <v>23</v>
@@ -10363,10 +10374,10 @@
         <v>0</v>
       </c>
       <c r="AL86" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM86" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:39">
@@ -10434,13 +10445,13 @@
         <v>101105</v>
       </c>
       <c r="S88" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="W88">
         <v>30</v>
@@ -10492,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="AL88" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM88" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:39">
@@ -10517,10 +10528,10 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="U89" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W89">
         <v>25</v>
@@ -10572,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="AL89" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM89" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:39">
@@ -10597,10 +10608,10 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="U90" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="W90">
         <v>25</v>
@@ -10652,10 +10663,10 @@
         <v>0</v>
       </c>
       <c r="AL90" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM90" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:39">
@@ -10677,10 +10688,10 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="U91" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W91">
         <v>25</v>
@@ -10732,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="AL91" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:39" s="9" customFormat="1">
@@ -10804,10 +10815,10 @@
         <v>89</v>
       </c>
       <c r="U93" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V93" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W93" s="9">
         <v>6</v>
@@ -10862,16 +10873,16 @@
         <v>95</v>
       </c>
       <c r="AM93" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:39" s="9" customFormat="1">
       <c r="A94" s="8"/>
       <c r="B94" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D94" s="9">
         <v>15</v>
@@ -10923,16 +10934,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="U94" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="S94" s="11" t="s">
+      <c r="V94" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="U94" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="V94" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="W94" s="9">
         <v>6</v>
@@ -10987,16 +10998,16 @@
         <v>95</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:39" s="9" customFormat="1">
       <c r="A95" s="8"/>
       <c r="B95" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D95" s="9">
         <v>15</v>
@@ -11048,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="R95" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S95" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="U95" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="V95" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="U95" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="V95" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="W95" s="9">
         <v>6</v>
@@ -11112,7 +11123,7 @@
         <v>126</v>
       </c>
       <c r="AM95" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:39">
@@ -11121,10 +11132,10 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="U96" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W96">
         <v>6</v>
@@ -11179,7 +11190,7 @@
         <v>126</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:39" s="9" customFormat="1">
@@ -11248,10 +11259,10 @@
         <v>89</v>
       </c>
       <c r="U98" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V98" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W98" s="9">
         <v>6</v>
@@ -11303,19 +11314,19 @@
         <v>0</v>
       </c>
       <c r="AL98" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AM98" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1">
       <c r="A99" s="8"/>
       <c r="B99" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D99" s="9">
         <v>15</v>
@@ -11367,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="R99" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S99" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="V99" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="U99" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="V99" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="W99" s="9">
         <v>6</v>
@@ -11428,19 +11439,19 @@
         <v>0</v>
       </c>
       <c r="AL99" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM99" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1">
       <c r="A100" s="8"/>
       <c r="B100" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D100" s="9">
         <v>15</v>
@@ -11492,16 +11503,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S100" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="U100" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="V100" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="U100" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="V100" s="11" t="s">
-        <v>340</v>
       </c>
       <c r="W100" s="9">
         <v>6</v>
@@ -11556,7 +11567,7 @@
         <v>126</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:39">
@@ -11565,10 +11576,10 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="U101" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V101" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W101">
         <v>6</v>
@@ -11623,7 +11634,7 @@
         <v>126</v>
       </c>
       <c r="AM101" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1">
@@ -11692,10 +11703,10 @@
         <v>89</v>
       </c>
       <c r="U103" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V103" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W103" s="9">
         <v>6</v>
@@ -11747,19 +11758,19 @@
         <v>0</v>
       </c>
       <c r="AL103" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1">
       <c r="A104" s="8"/>
       <c r="B104" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D104" s="9">
         <v>1</v>
@@ -11811,16 +11822,16 @@
         <v>0</v>
       </c>
       <c r="R104" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="S104" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="U104" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="S104" s="11" t="s">
+      <c r="V104" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="U104" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="V104" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="W104" s="9">
         <v>6</v>
@@ -11875,7 +11886,7 @@
         <v>84</v>
       </c>
       <c r="AM104" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:39">
@@ -11884,10 +11895,10 @@
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="U105" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="V105" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W105">
         <v>6</v>
@@ -11942,7 +11953,7 @@
         <v>95</v>
       </c>
       <c r="AM105" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:39">
@@ -11951,10 +11962,10 @@
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="U106" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="V106" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W106">
         <v>6</v>
@@ -12009,7 +12020,7 @@
         <v>126</v>
       </c>
       <c r="AM106" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:39">
@@ -12077,13 +12088,13 @@
         <v>102204</v>
       </c>
       <c r="S108" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="U108" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W108">
         <v>25</v>
@@ -12135,18 +12146,18 @@
         <v>0</v>
       </c>
       <c r="AL108" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AM108" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:39">
       <c r="B109" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D109">
         <v>15</v>
@@ -12198,16 +12209,16 @@
         <v>0</v>
       </c>
       <c r="R109" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="U109" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="S109" s="6" t="s">
+      <c r="V109" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="U109" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="W109">
         <v>20</v>
@@ -12259,10 +12270,10 @@
         <v>0</v>
       </c>
       <c r="AL109" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM109" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:39">
@@ -12271,10 +12282,10 @@
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
       <c r="U110" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="V110" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W110">
         <v>22</v>
@@ -12326,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="AL110" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM110" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:39">
@@ -12339,10 +12350,10 @@
     </row>
     <row r="112" spans="1:39">
       <c r="B112" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D112" s="7">
         <v>12</v>
@@ -12390,13 +12401,13 @@
         <v>102205</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U112" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="V112" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W112">
         <v>30</v>
@@ -12448,18 +12459,18 @@
         <v>0</v>
       </c>
       <c r="AL112" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM112" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:39">
       <c r="B113" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -12511,16 +12522,16 @@
         <v>0</v>
       </c>
       <c r="R113" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S113" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="U113" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="V113" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="U113" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="W113">
         <v>25</v>
@@ -12575,15 +12586,15 @@
         <v>97</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:39">
       <c r="B114" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -12635,16 +12646,16 @@
         <v>0</v>
       </c>
       <c r="R114" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="U114" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="V114" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="W114">
         <v>25</v>
@@ -12699,15 +12710,15 @@
         <v>126</v>
       </c>
       <c r="AM114" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:39">
       <c r="B115" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -12759,16 +12770,16 @@
         <v>0</v>
       </c>
       <c r="R115" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="U115" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V115" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="W115">
         <v>24</v>
@@ -12820,10 +12831,10 @@
         <v>0</v>
       </c>
       <c r="AL115" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM115" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:39">
@@ -12891,13 +12902,13 @@
         <v>104104</v>
       </c>
       <c r="S117" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="U117" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="V117" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W117">
         <v>25</v>
@@ -12949,18 +12960,18 @@
         <v>0</v>
       </c>
       <c r="AL117" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM117" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:39">
       <c r="B118" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D118">
         <v>20</v>
@@ -13012,16 +13023,16 @@
         <v>0</v>
       </c>
       <c r="R118" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S118" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U118" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="S118" s="6" t="s">
+      <c r="V118" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="U118" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="W118">
         <v>20</v>
@@ -13076,7 +13087,7 @@
         <v>97</v>
       </c>
       <c r="AM118" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:39">
@@ -13085,10 +13096,10 @@
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="U119" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V119" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W119">
         <v>22</v>
@@ -13140,10 +13151,10 @@
         <v>0</v>
       </c>
       <c r="AL119" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM119" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:39">
@@ -13153,10 +13164,10 @@
     </row>
     <row r="121" spans="1:39">
       <c r="B121" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D121" s="7">
         <v>12</v>
@@ -13204,13 +13215,13 @@
         <v>104105</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U121" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V121" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W121">
         <v>30</v>
@@ -13262,19 +13273,19 @@
         <v>0</v>
       </c>
       <c r="AL121" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AM121" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:39">
       <c r="R122" s="5"/>
       <c r="U122" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V122" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W122">
         <v>25</v>
@@ -13326,19 +13337,19 @@
         <v>0</v>
       </c>
       <c r="AL122" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:39">
       <c r="R123" s="5"/>
       <c r="U123" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V123" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W123">
         <v>25</v>
@@ -13390,10 +13401,10 @@
         <v>0</v>
       </c>
       <c r="AL123" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM123" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:39">
@@ -13461,13 +13472,13 @@
         <v>105104</v>
       </c>
       <c r="S125" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="U125" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="V125" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W125">
         <v>25</v>
@@ -13519,18 +13530,18 @@
         <v>0</v>
       </c>
       <c r="AL125" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM125" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:39">
       <c r="B126" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -13582,16 +13593,16 @@
         <v>0</v>
       </c>
       <c r="R126" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="S126" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="U126" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="V126" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="S126" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="U126" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="W126">
         <v>20</v>
@@ -13646,15 +13657,15 @@
         <v>95</v>
       </c>
       <c r="AM126" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:39">
       <c r="B127" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D127">
         <v>20</v>
@@ -13706,16 +13717,16 @@
         <v>0</v>
       </c>
       <c r="R127" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="S127" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="U127" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="V127" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="S127" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="U127" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="V127" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="W127">
         <v>21</v>
@@ -13770,7 +13781,7 @@
         <v>95</v>
       </c>
       <c r="AM127" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:39">
@@ -13779,10 +13790,10 @@
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="U128" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V128" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W128">
         <v>22</v>
@@ -13837,7 +13848,7 @@
         <v>95</v>
       </c>
       <c r="AM128" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:39">
@@ -13847,10 +13858,10 @@
     </row>
     <row r="130" spans="1:39">
       <c r="B130" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D130" s="7">
         <v>12</v>
@@ -13898,13 +13909,13 @@
         <v>105105</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="U130" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="V130" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W130">
         <v>30</v>
@@ -13956,18 +13967,18 @@
         <v>0</v>
       </c>
       <c r="AL130" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AM130" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="B131" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -14019,16 +14030,16 @@
         <v>0</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="S131" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U131" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W131">
         <v>22</v>
@@ -14080,18 +14091,18 @@
         <v>0</v>
       </c>
       <c r="AL131" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM131" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:39">
       <c r="B132" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -14143,16 +14154,16 @@
         <v>0</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U132" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V132" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W132">
         <v>23</v>
@@ -14207,7 +14218,7 @@
         <v>126</v>
       </c>
       <c r="AM132" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:39">
@@ -14216,10 +14227,10 @@
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="U133" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="V133" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W133">
         <v>25</v>
@@ -14274,7 +14285,7 @@
         <v>97</v>
       </c>
       <c r="AM133" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:39" s="9" customFormat="1">
@@ -14343,10 +14354,10 @@
         <v>89</v>
       </c>
       <c r="U135" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="V135" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W135" s="9">
         <v>6</v>
@@ -14398,19 +14409,19 @@
         <v>0</v>
       </c>
       <c r="AL135" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AM135" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:39" s="9" customFormat="1">
       <c r="A136" s="8"/>
       <c r="B136" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D136" s="9">
         <v>1</v>
@@ -14462,16 +14473,16 @@
         <v>0</v>
       </c>
       <c r="R136" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="S136" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="U136" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="S136" s="11" t="s">
+      <c r="V136" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="U136" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="V136" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="W136" s="9">
         <v>6</v>
@@ -14526,16 +14537,16 @@
         <v>126</v>
       </c>
       <c r="AM136" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:39" s="9" customFormat="1">
       <c r="A137" s="8"/>
       <c r="B137" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D137" s="9">
         <v>1</v>
@@ -14587,16 +14598,16 @@
         <v>0</v>
       </c>
       <c r="R137" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="S137" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="U137" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="S137" s="11" t="s">
+      <c r="V137" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="U137" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="V137" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="W137" s="9">
         <v>6</v>
@@ -14651,7 +14662,7 @@
         <v>95</v>
       </c>
       <c r="AM137" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:39">
@@ -14719,13 +14730,13 @@
         <v>100204</v>
       </c>
       <c r="S139" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="U139" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="V139" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="W139">
         <v>25</v>
@@ -14777,18 +14788,18 @@
         <v>0</v>
       </c>
       <c r="AL139" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:39">
       <c r="B140" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D140">
         <v>20</v>
@@ -14840,16 +14851,16 @@
         <v>0</v>
       </c>
       <c r="R140" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S140" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="U140" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="V140" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="S140" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="U140" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="V140" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="W140">
         <v>20</v>
@@ -14901,18 +14912,18 @@
         <v>0</v>
       </c>
       <c r="AL140" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:39">
       <c r="B141" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -14964,16 +14975,16 @@
         <v>0</v>
       </c>
       <c r="R141" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="S141" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="U141" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="S141" s="6" t="s">
+      <c r="V141" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="U141" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="V141" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="W141">
         <v>22</v>
@@ -15025,10 +15036,10 @@
         <v>0</v>
       </c>
       <c r="AL141" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM141" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:39">
@@ -15037,10 +15048,10 @@
       <c r="R142" s="6"/>
       <c r="S142" s="6"/>
       <c r="U142" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V142" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W142">
         <v>22</v>
@@ -15095,7 +15106,7 @@
         <v>95</v>
       </c>
       <c r="AM142" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:39" s="9" customFormat="1">
@@ -15164,10 +15175,10 @@
         <v>89</v>
       </c>
       <c r="U144" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V144" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W144" s="9">
         <v>6</v>
@@ -15219,19 +15230,19 @@
         <v>0</v>
       </c>
       <c r="AL144" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="1:39" s="9" customFormat="1">
       <c r="A145" s="8"/>
       <c r="B145" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D145" s="9">
         <v>1</v>
@@ -15283,16 +15294,16 @@
         <v>0</v>
       </c>
       <c r="R145" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="S145" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U145" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V145" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W145" s="9">
         <v>6</v>
@@ -15344,19 +15355,19 @@
         <v>0</v>
       </c>
       <c r="AL145" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AM145" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="1:39" s="9" customFormat="1">
       <c r="A146" s="8"/>
       <c r="B146" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D146" s="9">
         <v>1</v>
@@ -15408,16 +15419,16 @@
         <v>0</v>
       </c>
       <c r="R146" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="S146" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U146" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V146" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W146" s="9">
         <v>6</v>
@@ -15469,18 +15480,18 @@
         <v>0</v>
       </c>
       <c r="AL146" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AM146" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:39">
       <c r="U147" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W147">
         <v>6</v>
@@ -15532,10 +15543,10 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:39">
@@ -15544,10 +15555,10 @@
       <c r="R148" s="6"/>
       <c r="S148" s="6"/>
       <c r="U148" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="V148" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W148">
         <v>6</v>
@@ -15602,7 +15613,7 @@
         <v>126</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:39">
@@ -15611,10 +15622,10 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="U149" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="W149">
         <v>6</v>
@@ -15669,7 +15680,7 @@
         <v>95</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="150" spans="1:39">
@@ -15678,10 +15689,10 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="U150" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="V150" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W150">
         <v>6</v>
@@ -15736,7 +15747,7 @@
         <v>126</v>
       </c>
       <c r="AM150" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:39">
@@ -15746,10 +15757,10 @@
     </row>
     <row r="152" spans="1:39">
       <c r="B152" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D152" s="7">
         <v>12</v>
@@ -15797,13 +15808,13 @@
         <v>100205</v>
       </c>
       <c r="S152" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U152" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W152">
         <v>30</v>
@@ -15855,18 +15866,18 @@
         <v>0</v>
       </c>
       <c r="AL152" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AM152" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:39">
       <c r="B153" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D153">
         <v>20</v>
@@ -15918,16 +15929,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S153" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="U153" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="V153" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W153">
         <v>22</v>
@@ -15982,16 +15993,16 @@
         <v>95</v>
       </c>
       <c r="AM153" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="1:39">
       <c r="R154" s="5"/>
       <c r="U154" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="V154" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W154">
         <v>23</v>
@@ -16046,16 +16057,16 @@
         <v>126</v>
       </c>
       <c r="AM154" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="155" spans="1:39">
       <c r="R155" s="5"/>
       <c r="U155" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="V155" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W155">
         <v>24</v>
@@ -16110,7 +16121,7 @@
         <v>126</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="156" spans="1:39">
@@ -16120,10 +16131,10 @@
     </row>
     <row r="157" spans="1:39">
       <c r="B157" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D157">
         <v>20</v>
@@ -16175,16 +16186,16 @@
         <v>0</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S157" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="U157" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V157" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W157">
         <v>25</v>
@@ -16236,18 +16247,18 @@
         <v>0</v>
       </c>
       <c r="AL157" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="158" spans="1:39">
       <c r="B158" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D158">
         <v>15</v>
@@ -16299,16 +16310,16 @@
         <v>0</v>
       </c>
       <c r="R158" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="S158" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="U158" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="S158" s="6" t="s">
+      <c r="V158" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="U158" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="V158" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="W158">
         <v>26</v>
@@ -16363,7 +16374,7 @@
         <v>126</v>
       </c>
       <c r="AM158" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:39">
@@ -16426,13 +16437,13 @@
         <v>100105</v>
       </c>
       <c r="S159" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U159" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W159">
         <v>27</v>
@@ -16484,10 +16495,10 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AM159" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="1:39">
@@ -16550,13 +16561,13 @@
         <v>101105</v>
       </c>
       <c r="S160" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U160" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="V160" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W160">
         <v>30</v>
@@ -16611,15 +16622,15 @@
         <v>126</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:39">
       <c r="B161" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D161" s="7">
         <v>13</v>
@@ -16667,7 +16678,7 @@
         <v>102205</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
@@ -16676,10 +16687,10 @@
     </row>
     <row r="162" spans="1:39">
       <c r="B162" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D162" s="7">
         <v>13</v>
@@ -16727,7 +16738,7 @@
         <v>104105</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -16736,10 +16747,10 @@
     </row>
     <row r="163" spans="1:39">
       <c r="B163" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D163" s="7">
         <v>13</v>
@@ -16787,7 +16798,7 @@
         <v>105105</v>
       </c>
       <c r="S163" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
@@ -16796,10 +16807,10 @@
     </row>
     <row r="164" spans="1:39">
       <c r="B164" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D164" s="7">
         <v>13</v>
@@ -16847,7 +16858,7 @@
         <v>100205</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -16919,13 +16930,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U166" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W166">
         <v>35</v>
@@ -16977,10 +16988,10 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:39">
@@ -17043,13 +17054,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U167" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="V167" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W167">
         <v>35</v>
@@ -17101,18 +17112,18 @@
         <v>0</v>
       </c>
       <c r="AL167" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" spans="1:39">
       <c r="B168" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D168" s="7">
         <v>14</v>
@@ -17160,13 +17171,13 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U168" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="V168" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W168">
         <v>40</v>
@@ -17221,15 +17232,15 @@
         <v>126</v>
       </c>
       <c r="AM168" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:39">
       <c r="B169" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D169" s="7">
         <v>14</v>
@@ -17277,13 +17288,13 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U169" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="V169" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W169">
         <v>30</v>
@@ -17335,18 +17346,18 @@
         <v>0</v>
       </c>
       <c r="AL169" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM169" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:39">
       <c r="B170" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D170" s="7">
         <v>14</v>
@@ -17394,13 +17405,13 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="U170" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V170" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="W170">
         <v>30</v>
@@ -17452,18 +17463,18 @@
         <v>0</v>
       </c>
       <c r="AL170" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AM170" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:39">
       <c r="B171" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D171" s="7">
         <v>14</v>
@@ -17511,13 +17522,13 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U171" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="V171" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W171">
         <v>30</v>
@@ -17569,19 +17580,19 @@
         <v>0</v>
       </c>
       <c r="AL171" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM171" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:39">
       <c r="R172" s="5"/>
       <c r="U172" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="V172" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="W172">
         <v>30</v>
@@ -17633,10 +17644,10 @@
         <v>0</v>
       </c>
       <c r="AL172" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM172" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" spans="1:39">
@@ -17704,13 +17715,13 @@
         <v>100105</v>
       </c>
       <c r="S174" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U174" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17765,7 +17776,7 @@
         <v>126</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="1:39">
@@ -17828,13 +17839,13 @@
         <v>101105</v>
       </c>
       <c r="S175" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="U175" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W175">
         <v>50</v>
@@ -17886,18 +17897,18 @@
         <v>0</v>
       </c>
       <c r="AL175" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="1:39">
       <c r="B176" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D176" s="7">
         <v>15</v>
@@ -17945,13 +17956,13 @@
         <v>102205</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U176" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -18006,15 +18017,15 @@
         <v>95</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="177" spans="2:39">
       <c r="B177" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D177" s="7">
         <v>15</v>
@@ -18062,13 +18073,13 @@
         <v>104105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U177" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="V177" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="W177">
         <v>35</v>
@@ -18120,18 +18131,18 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="178" spans="2:39">
       <c r="B178" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D178" s="7">
         <v>15</v>
@@ -18179,13 +18190,13 @@
         <v>105105</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="U178" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="V178" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W178">
         <v>35</v>
@@ -18240,15 +18251,15 @@
         <v>95</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="179" spans="2:39">
       <c r="B179" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D179" s="7">
         <v>15</v>
@@ -18296,13 +18307,13 @@
         <v>100205</v>
       </c>
       <c r="S179" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="U179" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="V179" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="W179">
         <v>35</v>
@@ -18354,19 +18365,19 @@
         <v>0</v>
       </c>
       <c r="AL179" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="180" spans="2:39">
       <c r="R180" s="5"/>
       <c r="U180" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="V180" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W180">
         <v>35</v>
@@ -18418,10 +18429,10 @@
         <v>0</v>
       </c>
       <c r="AL180" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AM180" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="12860" yWindow="420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="619">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,9 +270,6 @@
     <t>01001001</t>
   </si>
   <si>
-    <t>柯镇恶</t>
-  </si>
-  <si>
     <t>104204</t>
   </si>
   <si>
@@ -1826,15 +1823,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临安郊外x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临安府x</t>
+    <t>扬州府x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁荡山x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永乐镇x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤翔府x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1842,118 +1851,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姑苏府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太湖x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开封府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄阳府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信阳县x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀冈山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮领地x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁荡山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武夷山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳家军驻地x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑门关x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永乐镇x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤翔府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终南山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全真教领地x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少室山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺领地x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦煌x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缥缈峰x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巴陵县x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武陵山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桃源镇x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大理国境x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑阁蜀道x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青城山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曼陀山庄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1971,6 +1876,110 @@
   </si>
   <si>
     <t>host2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安郊外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑苏府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯镇恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开封府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄阳府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信阳县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀冈山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮领地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武夷山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳家军驻地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终南山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真教领地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少室山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青城山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺领地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缥缈峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理国境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑阁蜀道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02002001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02002002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,7 +2075,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="531">
+  <cellStyleXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2598,8 +2607,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2612,8 +2623,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="531">
+  <cellStyles count="533">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2879,6 +2896,7 @@
     <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3144,6 +3162,7 @@
     <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3475,24 +3494,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
     <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="12"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -3549,7 +3570,7 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="V1" t="s">
@@ -3608,10 +3629,7 @@
       </c>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3670,7 +3688,7 @@
         <v>57</v>
       </c>
       <c r="S2" s="3"/>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="V2" t="s">
@@ -3727,10 +3745,7 @@
       </c>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3791,7 +3806,7 @@
       <c r="S3">
         <v>10001</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="13" t="s">
         <v>49</v>
       </c>
       <c r="V3" t="s">
@@ -3854,10 +3869,7 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C4" t="s">
@@ -3918,7 +3930,7 @@
       <c r="S4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="13" t="s">
         <v>51</v>
       </c>
       <c r="V4" t="s">
@@ -3982,14 +3994,11 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -4050,7 +4059,7 @@
       <c r="S6">
         <v>10001</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="13" t="s">
         <v>59</v>
       </c>
       <c r="V6" s="5" t="s">
@@ -4113,10 +4122,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="16">
-      <c r="A7" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4177,7 +4183,7 @@
       <c r="S7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="13" t="s">
         <v>61</v>
       </c>
       <c r="V7" s="5" t="s">
@@ -4241,14 +4247,11 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -4309,11 +4312,11 @@
       <c r="S9">
         <v>10001</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -4368,14 +4371,11 @@
         <v>63</v>
       </c>
       <c r="AM9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -4436,11 +4436,11 @@
       <c r="S10">
         <v>11002</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>97</v>
+      <c r="U10" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10">
         <v>9</v>
@@ -4492,21 +4492,18 @@
         <v>0</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4558,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S11" s="5">
         <v>13002</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -4622,18 +4619,15 @@
         <v>63</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -4685,25 +4679,22 @@
         <v>5</v>
       </c>
       <c r="R12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="5"/>
+      <c r="U12" s="13"/>
       <c r="V12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4755,25 +4746,22 @@
         <v>4</v>
       </c>
       <c r="R13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="13"/>
       <c r="V13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -4825,25 +4813,22 @@
         <v>0</v>
       </c>
       <c r="R14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U14" s="5"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>83</v>
+      <c r="B15" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -4895,25 +4880,22 @@
         <v>0</v>
       </c>
       <c r="R15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="U15" s="5"/>
+      <c r="U15" s="13"/>
       <c r="V15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>89</v>
+      <c r="B16" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -4965,26 +4947,23 @@
         <v>3</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U16" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="U16" s="13"/>
       <c r="V16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -5045,11 +5024,11 @@
       <c r="S18">
         <v>11002</v>
       </c>
-      <c r="U18" s="5">
-        <v>2002002</v>
+      <c r="U18" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W18">
         <v>15</v>
@@ -5104,14 +5083,11 @@
         <v>200027</v>
       </c>
       <c r="AM18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -5172,11 +5148,11 @@
       <c r="S19">
         <v>14001</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>113</v>
+      <c r="U19" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W19">
         <v>15</v>
@@ -5228,21 +5204,18 @@
         <v>0</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2002001</v>
+      <c r="B20" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>12</v>
@@ -5294,16 +5267,16 @@
         <v>8</v>
       </c>
       <c r="R20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="W20">
         <v>12</v>
@@ -5358,18 +5331,15 @@
         <v>63</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -5421,16 +5391,16 @@
         <v>0</v>
       </c>
       <c r="R21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="W21">
         <v>14</v>
@@ -5485,18 +5455,15 @@
         <v>63</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2002005</v>
+      <c r="B22" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -5548,23 +5515,23 @@
         <v>0</v>
       </c>
       <c r="R22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="13"/>
       <c r="V22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:39">
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -5625,11 +5592,11 @@
       <c r="S24">
         <v>14001</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="W24">
         <v>15</v>
@@ -5684,11 +5651,11 @@
         <v>63</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:39">
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -5749,11 +5716,11 @@
       <c r="S25">
         <v>13001</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="W25">
         <v>16</v>
@@ -5808,15 +5775,15 @@
         <v>63</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:39">
-      <c r="B26" s="5">
-        <v>2002001</v>
+      <c r="B26" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26">
         <v>12</v>
@@ -5868,22 +5835,22 @@
         <v>8</v>
       </c>
       <c r="R26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U26" s="5"/>
+      <c r="U26" s="13"/>
       <c r="V26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="1:39">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D27">
         <v>13</v>
@@ -5935,22 +5902,22 @@
         <v>0</v>
       </c>
       <c r="R27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S27" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U27" s="5"/>
+      <c r="U27" s="13"/>
       <c r="V27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
     <row r="28" spans="1:39">
-      <c r="B28" s="5">
-        <v>2002005</v>
+      <c r="B28" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -6002,24 +5969,24 @@
         <v>0</v>
       </c>
       <c r="R28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U28" s="5"/>
+      <c r="U28" s="13"/>
       <c r="V28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:39">
-      <c r="B30" t="s">
-        <v>615</v>
+      <c r="B30" s="12" t="s">
+        <v>591</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6079,11 +6046,11 @@
       <c r="S30" s="5">
         <v>13001</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="W30">
         <v>16</v>
@@ -6135,15 +6102,15 @@
         <v>0</v>
       </c>
       <c r="AL30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM30" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:39">
-      <c r="B31" t="s">
-        <v>616</v>
+      <c r="B31" s="12" t="s">
+        <v>592</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6203,11 +6170,11 @@
       <c r="S31">
         <v>12002</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="W31">
         <v>16</v>
@@ -6266,11 +6233,11 @@
       </c>
     </row>
     <row r="32" spans="1:39">
-      <c r="B32" s="5">
-        <v>2002001</v>
+      <c r="B32" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -6322,16 +6289,16 @@
         <v>8</v>
       </c>
       <c r="R32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="W32">
         <v>17</v>
@@ -6386,15 +6353,15 @@
         <v>52</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:39">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D33">
         <v>13</v>
@@ -6446,16 +6413,16 @@
         <v>0</v>
       </c>
       <c r="R33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>137</v>
+      <c r="U33" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W33">
         <v>20</v>
@@ -6507,18 +6474,18 @@
         <v>15</v>
       </c>
       <c r="AL33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM33" s="5">
         <v>40011</v>
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="B34" s="5">
-        <v>2002005</v>
+      <c r="B34" s="13" t="s">
+        <v>617</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34">
         <v>13</v>
@@ -6570,23 +6537,23 @@
         <v>0</v>
       </c>
       <c r="R34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U34" s="5"/>
+      <c r="U34" s="13"/>
       <c r="V34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -6596,46 +6563,46 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E42" si="63">1+(D36-1)*0.25</f>
+        <f t="shared" ref="E36:E45" si="63">1+(D36-1)*0.25</f>
         <v>2.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F42" si="64">INT(200+POWER(E36+(G36*0.25)+1,2)*30)</f>
+        <f t="shared" ref="F36:F45" si="64">INT(200+POWER(E36+(G36*0.25)+1,2)*30)</f>
         <v>567</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H42" si="65">INT(POWER(E36+(I36*0.25)+4,2)*3)</f>
+        <f t="shared" ref="H36:H45" si="65">INT(POWER(E36+(I36*0.25)+4,2)*3)</f>
         <v>126</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J42" si="66">INT(50+(E36+(K36*0.25)-1)*POWER(E36+(K36*0.25),0.5)*10)</f>
+        <f t="shared" ref="J36:J45" si="66">INT(50+(E36+(K36*0.25)-1)*POWER(E36+(K36*0.25),0.5)*10)</f>
         <v>73</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L42" si="67">INT(POWER(E36+(M36*0.25)+4,2)*3)</f>
+        <f t="shared" ref="L36:L45" si="67">INT(POWER(E36+(M36*0.25)+4,2)*3)</f>
         <v>126</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N42" si="68">INT(50+(E36+(O36*0.25)-1)*POWER(E36+(O36*0.25),0.5)*10)</f>
+        <f t="shared" ref="N36:N45" si="68">INT(50+(E36+(O36*0.25)-1)*POWER(E36+(O36*0.25),0.5)*10)</f>
         <v>73</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P42" si="69">INT(5+(E36+(Q36*0.25)-1)*POWER(E36+(Q36*0.25),0.2))</f>
+        <f t="shared" ref="P36:P45" si="69">INT(5+(E36+(Q36*0.25)-1)*POWER(E36+(Q36*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="Q36">
@@ -6647,11 +6614,11 @@
       <c r="S36" s="5">
         <v>12002</v>
       </c>
-      <c r="U36" s="5" t="s">
-        <v>138</v>
+      <c r="U36" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W36">
         <v>20</v>
@@ -6703,14 +6670,14 @@
         <v>0</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -6771,11 +6738,11 @@
       <c r="S37">
         <v>30101</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="W37">
         <v>16</v>
@@ -6830,11 +6797,11 @@
         <v>52</v>
       </c>
       <c r="AM37" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -6895,13 +6862,13 @@
       <c r="S38">
         <v>10015</v>
       </c>
-      <c r="U38" s="5"/>
+      <c r="U38" s="13"/>
       <c r="V38" s="5"/>
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -6962,13 +6929,13 @@
       <c r="S39">
         <v>30201</v>
       </c>
-      <c r="U39" s="5"/>
+      <c r="U39" s="13"/>
       <c r="V39" s="5"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -7029,13 +6996,13 @@
       <c r="S40">
         <v>30301</v>
       </c>
-      <c r="U40" s="5"/>
+      <c r="U40" s="13"/>
       <c r="V40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -7096,13 +7063,13 @@
       <c r="S41">
         <v>30401</v>
       </c>
-      <c r="U41" s="5"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
     <row r="42" spans="1:39">
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C42" t="s">
@@ -7163,205 +7130,223 @@
       <c r="S42">
         <v>30501</v>
       </c>
-      <c r="U42" s="5"/>
+      <c r="U42" s="13"/>
       <c r="V42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
     <row r="43" spans="1:39">
-      <c r="B43" s="7">
-        <v>2002001</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="63"/>
+        <v>3.75</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="64"/>
+        <v>876</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="65"/>
+        <v>180</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="66"/>
+        <v>103</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="67"/>
+        <v>180</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="68"/>
+        <v>103</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="69"/>
+        <v>11</v>
+      </c>
+      <c r="Q43">
+        <v>8</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="7">
-        <v>12</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3.75</v>
-      </c>
-      <c r="F43" s="7">
-        <v>876</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>180</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>103</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>180</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>103</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>8</v>
-      </c>
-      <c r="R43" s="7">
-        <v>100306</v>
-      </c>
-      <c r="S43" s="7">
-        <v>10004</v>
-      </c>
-      <c r="U43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U43" s="13"/>
       <c r="V43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
     <row r="44" spans="1:39">
-      <c r="B44" s="7">
-        <v>2002004</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="64"/>
+        <v>1026</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="65"/>
+        <v>243</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="66"/>
+        <v>110</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="67"/>
+        <v>192</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="68"/>
+        <v>110</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="7">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7">
-        <v>4</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1026</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7">
-        <v>243</v>
-      </c>
-      <c r="I44" s="7">
-        <v>4</v>
-      </c>
-      <c r="J44" s="7">
-        <v>110</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>192</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>110</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>100302</v>
-      </c>
-      <c r="S44" s="7">
-        <v>10005</v>
-      </c>
-      <c r="U44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U44" s="13"/>
       <c r="V44" s="5"/>
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
     <row r="45" spans="1:39">
-      <c r="B45" s="7">
-        <v>2002005</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="64"/>
+        <v>1107</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="65"/>
+        <v>216</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="66"/>
+        <v>117</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="67"/>
+        <v>192</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="68"/>
+        <v>110</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="7">
-        <v>13</v>
-      </c>
-      <c r="E45" s="7">
-        <v>4</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1107</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2</v>
-      </c>
-      <c r="H45" s="7">
-        <v>216</v>
-      </c>
-      <c r="I45" s="7">
-        <v>2</v>
-      </c>
-      <c r="J45" s="7">
-        <v>117</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1</v>
-      </c>
-      <c r="L45" s="7">
-        <v>192</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>110</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>100301</v>
-      </c>
-      <c r="S45" s="7">
-        <v>10006</v>
-      </c>
-      <c r="U45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U45" s="13"/>
       <c r="V45" s="5"/>
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D47">
         <v>20</v>
@@ -7413,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="S47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="U47" s="5" t="s">
+      <c r="U47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="V47" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="W47">
         <v>20</v>
@@ -7474,17 +7459,14 @@
         <v>0</v>
       </c>
       <c r="AL47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM47" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="AM47" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
@@ -7543,13 +7525,13 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>559</v>
-      </c>
-      <c r="U48" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="W48">
         <v>15</v>
@@ -7601,17 +7583,14 @@
         <v>0</v>
       </c>
       <c r="AL48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM48" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="AM48" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
@@ -7670,13 +7649,13 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>560</v>
-      </c>
-      <c r="U49" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="W49">
         <v>15</v>
@@ -7728,17 +7707,14 @@
         <v>0</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM49" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -7797,13 +7773,13 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>561</v>
-      </c>
-      <c r="U50" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="U50" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="W50">
         <v>15</v>
@@ -7855,17 +7831,14 @@
         <v>0</v>
       </c>
       <c r="AL50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM50" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="AM50" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -7924,13 +7897,13 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>562</v>
-      </c>
-      <c r="U51" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="V51" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="W51">
         <v>15</v>
@@ -7982,17 +7955,14 @@
         <v>0</v>
       </c>
       <c r="AL51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM51" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="AM51" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
@@ -8051,13 +8021,13 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>563</v>
-      </c>
-      <c r="U52" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="U52" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="V52" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="W52">
         <v>15</v>
@@ -8109,17 +8079,14 @@
         <v>0</v>
       </c>
       <c r="AL52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM52" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="AM52" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -8178,36 +8145,30 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>564</v>
-      </c>
-      <c r="U53" s="5"/>
+        <v>563</v>
+      </c>
+      <c r="U53" s="13"/>
       <c r="V53" s="5"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="U54" s="5"/>
+      <c r="U54" s="13"/>
       <c r="V54" s="5"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D56">
         <v>15</v>
@@ -8259,16 +8220,16 @@
         <v>0</v>
       </c>
       <c r="R56" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="S56" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="S56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="U56" s="5" t="s">
+      <c r="U56" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="V56" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="V56" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="W56">
         <v>18</v>
@@ -8323,14 +8284,11 @@
         <v>52</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
@@ -8389,13 +8347,13 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>559</v>
-      </c>
-      <c r="U57" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="U57" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="V57" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="V57" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="W57">
         <v>18</v>
@@ -8447,17 +8405,14 @@
         <v>0</v>
       </c>
       <c r="AL57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM57" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="AM57" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -8516,13 +8471,13 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>560</v>
-      </c>
-      <c r="U58" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="V58" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="V58" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="W58">
         <v>18</v>
@@ -8577,14 +8532,11 @@
         <v>63</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:39">
-      <c r="A59" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -8643,18 +8595,15 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>561</v>
-      </c>
-      <c r="U59" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="U59" s="13"/>
       <c r="V59" s="5"/>
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
     </row>
     <row r="60" spans="1:39">
-      <c r="A60" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C60" t="s">
@@ -8713,18 +8662,15 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>562</v>
-      </c>
-      <c r="U60" s="5"/>
+        <v>561</v>
+      </c>
+      <c r="U60" s="13"/>
       <c r="V60" s="5"/>
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
     <row r="61" spans="1:39">
-      <c r="A61" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -8783,18 +8729,15 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>563</v>
-      </c>
-      <c r="U61" s="5"/>
+        <v>562</v>
+      </c>
+      <c r="U61" s="13"/>
       <c r="V61" s="5"/>
       <c r="AL61" s="5"/>
       <c r="AM61" s="5"/>
     </row>
     <row r="62" spans="1:39">
-      <c r="A62" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -8853,23 +8796,20 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>564</v>
-      </c>
-      <c r="U62" s="5"/>
+        <v>563</v>
+      </c>
+      <c r="U62" s="13"/>
       <c r="V62" s="5"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:39">
-      <c r="A64" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -8928,13 +8868,13 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>565</v>
-      </c>
-      <c r="U64" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="V64" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="V64" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="W64">
         <v>20</v>
@@ -8986,17 +8926,14 @@
         <v>0</v>
       </c>
       <c r="AL64" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM64" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:39">
-      <c r="A65" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -9055,13 +8992,13 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>567</v>
-      </c>
-      <c r="U65" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="U65" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="V65" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="V65" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="W65">
         <v>20</v>
@@ -9113,17 +9050,14 @@
         <v>0</v>
       </c>
       <c r="AL65" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:39">
-      <c r="A66" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -9182,18 +9116,15 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>566</v>
-      </c>
-      <c r="U66" s="5"/>
+        <v>565</v>
+      </c>
+      <c r="U66" s="13"/>
       <c r="V66" s="5"/>
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
     <row r="67" spans="1:39">
-      <c r="A67" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -9252,18 +9183,15 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>568</v>
-      </c>
-      <c r="U67" s="5"/>
+        <v>567</v>
+      </c>
+      <c r="U67" s="13"/>
       <c r="V67" s="5"/>
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
     </row>
     <row r="68" spans="1:39">
-      <c r="A68" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -9322,18 +9250,15 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>569</v>
-      </c>
-      <c r="U68" s="5"/>
+        <v>568</v>
+      </c>
+      <c r="U68" s="13"/>
       <c r="V68" s="5"/>
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
     </row>
     <row r="69" spans="1:39">
-      <c r="A69" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -9392,23 +9317,25 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>570</v>
-      </c>
-      <c r="U69" s="5"/>
+        <v>569</v>
+      </c>
+      <c r="U69" s="13"/>
       <c r="V69" s="5"/>
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
     <row r="70" spans="1:39" s="9" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>589</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:39" s="9" customFormat="1">
       <c r="A71" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B71" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -9466,11 +9393,11 @@
       <c r="R71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="V71" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="V71" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="W71" s="9">
         <v>25</v>
@@ -9522,21 +9449,21 @@
         <v>0</v>
       </c>
       <c r="AL71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM71" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="AM71" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="A72" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="U72" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V72" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="V72" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="W72">
         <v>20</v>
@@ -9588,25 +9515,25 @@
         <v>0</v>
       </c>
       <c r="AL72" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM72" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="A73" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B73" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B73" s="16"/>
       <c r="C73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="U73" s="6" t="s">
+      <c r="U73" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="V73" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="V73" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="W73">
         <v>20</v>
@@ -9658,22 +9585,19 @@
         <v>0</v>
       </c>
       <c r="AL73" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM73" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="A74" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:39">
-      <c r="A75" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="B75" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -9732,13 +9656,13 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>565</v>
-      </c>
-      <c r="U75" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="U75" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="V75" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="V75" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="W75">
         <v>25</v>
@@ -9790,21 +9714,18 @@
         <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM75" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="AM75" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:39">
-      <c r="A76" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -9856,16 +9777,16 @@
         <v>0</v>
       </c>
       <c r="R76" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S76" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="S76" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="U76" s="6" t="s">
+      <c r="U76" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="V76" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="V76" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="W76">
         <v>20</v>
@@ -9920,18 +9841,15 @@
         <v>63</v>
       </c>
       <c r="AM76" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:39">
-      <c r="A77" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="U77" s="6" t="s">
+      <c r="U77" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="V77" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="V77" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="W77">
         <v>22</v>
@@ -9986,22 +9904,19 @@
         <v>63</v>
       </c>
       <c r="AM77" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:39">
-      <c r="A78" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="U78" s="6" t="s">
+      <c r="U78" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="V78" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="V78" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="W78">
         <v>23</v>
@@ -10056,19 +9971,16 @@
         <v>63</v>
       </c>
       <c r="AM78" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:39">
       <c r="A79" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="80" spans="1:39">
-      <c r="A80" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C80" t="s">
@@ -10127,13 +10039,13 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>571</v>
-      </c>
-      <c r="U80" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="V80" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="V80" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="W80">
         <v>30</v>
@@ -10185,21 +10097,18 @@
         <v>0</v>
       </c>
       <c r="AL80" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM80" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="AM80" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:39">
-      <c r="A81" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -10251,16 +10160,16 @@
         <v>0</v>
       </c>
       <c r="R81" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S81" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="S81" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="U81" s="6" t="s">
+      <c r="U81" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="V81" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="V81" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="W81">
         <v>25</v>
@@ -10315,19 +10224,16 @@
         <v>65</v>
       </c>
       <c r="AM81" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:39">
-      <c r="A82" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R82" s="5"/>
-      <c r="U82" s="6" t="s">
+      <c r="U82" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="V82" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="V82" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="W82">
         <v>25</v>
@@ -10379,22 +10285,19 @@
         <v>0</v>
       </c>
       <c r="AL82" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM82" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="AM82" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:39">
-      <c r="A83" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R83" s="5"/>
-      <c r="U83" s="6" t="s">
+      <c r="U83" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="V83" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="V83" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="W83">
         <v>24</v>
@@ -10449,19 +10352,21 @@
         <v>63</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:39" s="9" customFormat="1">
       <c r="A84" s="8" t="s">
-        <v>592</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:39" s="9" customFormat="1">
       <c r="A85" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B85" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -10519,11 +10424,11 @@
       <c r="R85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U85" s="11" t="s">
+      <c r="U85" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="V85" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="V85" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="W85" s="9">
         <v>6</v>
@@ -10578,19 +10483,19 @@
         <v>52</v>
       </c>
       <c r="AM85" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:39">
       <c r="A86" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R86" s="5"/>
-      <c r="U86" s="6" t="s">
+      <c r="U86" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="V86" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="V86" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="W86">
         <v>6</v>
@@ -10650,14 +10555,14 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R87" s="5"/>
-      <c r="U87" s="6" t="s">
+      <c r="U87" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="V87" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="V87" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="W87">
         <v>6</v>
@@ -10717,14 +10622,14 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="R88" s="5"/>
-      <c r="U88" s="6" t="s">
+      <c r="U88" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V88" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="V88" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="W88">
         <v>6</v>
@@ -10779,19 +10684,16 @@
         <v>63</v>
       </c>
       <c r="AM88" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:39">
       <c r="A89" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:39">
-      <c r="A90" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="B90" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -10850,13 +10752,13 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>566</v>
-      </c>
-      <c r="U90" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="U90" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="V90" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="V90" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="W90">
         <v>25</v>
@@ -10908,21 +10810,18 @@
         <v>0</v>
       </c>
       <c r="AL90" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM90" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="AM90" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:39">
-      <c r="A91" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="D91">
         <v>20</v>
@@ -10977,13 +10876,13 @@
         <v>102105</v>
       </c>
       <c r="S91" t="s">
-        <v>579</v>
-      </c>
-      <c r="U91" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="U91" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="V91" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="V91" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="W91">
         <v>22</v>
@@ -11035,24 +10934,21 @@
         <v>0</v>
       </c>
       <c r="AL91" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:39">
-      <c r="A92" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B92" s="6"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="U92" s="6" t="s">
+      <c r="U92" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="V92" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="V92" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="W92">
         <v>20</v>
@@ -11107,21 +11003,18 @@
         <v>63</v>
       </c>
       <c r="AM92" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:39">
-      <c r="A93" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B93" s="6"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="U93" s="6" t="s">
+      <c r="U93" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="V93" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="V93" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="W93">
         <v>23</v>
@@ -11173,22 +11066,19 @@
         <v>0</v>
       </c>
       <c r="AL93" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM93" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:39">
       <c r="A94" s="1" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:39">
-      <c r="A95" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="B95" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -11247,13 +11137,13 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>572</v>
-      </c>
-      <c r="U95" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="U95" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="V95" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="V95" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="W95">
         <v>30</v>
@@ -11305,17 +11195,14 @@
         <v>0</v>
       </c>
       <c r="AL95" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM95" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:39">
-      <c r="A96" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -11332,11 +11219,11 @@
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
-      <c r="U96" s="6" t="s">
+      <c r="U96" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="V96" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="W96">
         <v>25</v>
@@ -11388,17 +11275,14 @@
         <v>0</v>
       </c>
       <c r="AL96" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:39">
-      <c r="A97" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B97" s="6"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -11415,11 +11299,11 @@
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
-      <c r="U97" s="6" t="s">
+      <c r="U97" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="V97" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="V97" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="W97">
         <v>25</v>
@@ -11471,17 +11355,14 @@
         <v>0</v>
       </c>
       <c r="AL97" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM97" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:39">
-      <c r="A98" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B98" s="6"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -11498,11 +11379,11 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
-      <c r="U98" s="6" t="s">
+      <c r="U98" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="V98" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="V98" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="W98">
         <v>25</v>
@@ -11554,22 +11435,24 @@
         <v>0</v>
       </c>
       <c r="AL98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM98" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1">
       <c r="A99" s="8" t="s">
-        <v>595</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="U99" s="15"/>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1">
       <c r="A100" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B100" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="9" t="s">
@@ -11627,11 +11510,11 @@
       <c r="R100" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U100" s="11" t="s">
+      <c r="U100" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="V100" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="V100" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="W100" s="9">
         <v>6</v>
@@ -11686,18 +11569,18 @@
         <v>63</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1">
       <c r="A101" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B101" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="D101" s="9">
         <v>15</v>
@@ -11749,16 +11632,16 @@
         <v>0</v>
       </c>
       <c r="R101" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="S101" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="S101" s="11" t="s">
+      <c r="U101" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="U101" s="11" t="s">
+      <c r="V101" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="V101" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="W101" s="9">
         <v>6</v>
@@ -11813,18 +11696,18 @@
         <v>63</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1">
       <c r="A102" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B102" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="D102" s="9">
         <v>15</v>
@@ -11876,16 +11759,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S102" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="U102" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="U102" s="11" t="s">
+      <c r="V102" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="V102" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="W102" s="9">
         <v>6</v>
@@ -11937,25 +11820,25 @@
         <v>0</v>
       </c>
       <c r="AL102" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:39">
       <c r="A103" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B103" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B103" s="16"/>
       <c r="C103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-      <c r="U103" s="6" t="s">
+      <c r="U103" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="V103" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="V103" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="W103">
         <v>6</v>
@@ -12007,22 +11890,24 @@
         <v>0</v>
       </c>
       <c r="AL103" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM103" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1">
       <c r="A104" s="8" t="s">
-        <v>596</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="U104" s="15"/>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1">
       <c r="A105" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B105" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -12080,11 +11965,11 @@
       <c r="R105" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U105" s="11" t="s">
+      <c r="U105" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="V105" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="V105" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="W105" s="9">
         <v>6</v>
@@ -12136,21 +12021,21 @@
         <v>0</v>
       </c>
       <c r="AL105" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM105" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="AM105" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1">
       <c r="A106" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B106" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="D106" s="9">
         <v>15</v>
@@ -12202,16 +12087,16 @@
         <v>0</v>
       </c>
       <c r="R106" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S106" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="U106" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="U106" s="11" t="s">
+      <c r="V106" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="V106" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="W106" s="9">
         <v>6</v>
@@ -12263,21 +12148,21 @@
         <v>0</v>
       </c>
       <c r="AL106" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1">
       <c r="A107" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B107" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="D107" s="9">
         <v>15</v>
@@ -12329,16 +12214,16 @@
         <v>0</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S107" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="U107" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="V107" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="V107" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="W107" s="9">
         <v>6</v>
@@ -12390,25 +12275,25 @@
         <v>0</v>
       </c>
       <c r="AL107" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:39">
       <c r="A108" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B108" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B108" s="16"/>
       <c r="C108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="U108" s="6" t="s">
+      <c r="U108" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="V108" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="V108" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="W108">
         <v>6</v>
@@ -12460,22 +12345,24 @@
         <v>0</v>
       </c>
       <c r="AL108" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM108" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1">
       <c r="A109" s="8" t="s">
-        <v>597</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1">
       <c r="A110" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B110" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -12533,11 +12420,11 @@
       <c r="R110" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="V110" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="V110" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="W110" s="9">
         <v>6</v>
@@ -12589,21 +12476,21 @@
         <v>0</v>
       </c>
       <c r="AL110" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM110" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="AM110" s="11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1">
       <c r="A111" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B111" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="D111" s="9">
         <v>1</v>
@@ -12655,16 +12542,16 @@
         <v>0</v>
       </c>
       <c r="R111" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="S111" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="S111" s="11" t="s">
+      <c r="U111" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="V111" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="W111" s="9">
         <v>6</v>
@@ -12719,22 +12606,22 @@
         <v>52</v>
       </c>
       <c r="AM111" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:39">
       <c r="A112" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B112" s="6"/>
+        <v>585</v>
+      </c>
+      <c r="B112" s="16"/>
       <c r="C112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-      <c r="U112" s="6" t="s">
+      <c r="U112" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="V112" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="V112" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="W112">
         <v>6</v>
@@ -12789,22 +12676,22 @@
         <v>63</v>
       </c>
       <c r="AM112" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:39">
       <c r="A113" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B113" s="6"/>
+        <v>585</v>
+      </c>
+      <c r="B113" s="16"/>
       <c r="C113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
-      <c r="U113" s="6" t="s">
+      <c r="U113" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="V113" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="W113">
         <v>6</v>
@@ -12856,22 +12743,19 @@
         <v>0</v>
       </c>
       <c r="AL113" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:39">
       <c r="A114" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:39">
-      <c r="A115" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="B115" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C115" t="s">
@@ -12930,13 +12814,13 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>568</v>
-      </c>
-      <c r="U115" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="U115" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="V115" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="V115" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="W115">
         <v>25</v>
@@ -12988,21 +12872,18 @@
         <v>0</v>
       </c>
       <c r="AL115" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM115" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="AM115" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:39">
-      <c r="A116" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D116">
         <v>15</v>
@@ -13054,16 +12935,16 @@
         <v>0</v>
       </c>
       <c r="R116" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S116" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="S116" s="6" t="s">
+      <c r="U116" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="U116" s="6" t="s">
+      <c r="V116" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="V116" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="W116">
         <v>20</v>
@@ -13115,25 +12996,22 @@
         <v>0</v>
       </c>
       <c r="AL116" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM116" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:39">
-      <c r="A117" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
-      <c r="U117" s="6" t="s">
+      <c r="U117" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="V117" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="V117" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="W117">
         <v>22</v>
@@ -13185,26 +13063,23 @@
         <v>0</v>
       </c>
       <c r="AL117" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM117" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:39">
       <c r="A118" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:39">
-      <c r="A119" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D119" s="7">
         <v>12</v>
@@ -13252,13 +13127,13 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="U119" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="U119" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="V119" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="V119" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="W119">
         <v>30</v>
@@ -13310,21 +13185,18 @@
         <v>0</v>
       </c>
       <c r="AL119" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM119" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AM119" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:39">
-      <c r="A120" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -13376,16 +13248,16 @@
         <v>0</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S120" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="U120" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="U120" s="6" t="s">
+      <c r="V120" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="V120" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="W120">
         <v>25</v>
@@ -13440,18 +13312,15 @@
         <v>65</v>
       </c>
       <c r="AM120" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:39">
-      <c r="A121" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -13503,16 +13372,16 @@
         <v>0</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="U121" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="U121" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="V121" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="V121" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="W121">
         <v>25</v>
@@ -13564,21 +13433,18 @@
         <v>0</v>
       </c>
       <c r="AL121" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM121" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:39">
-      <c r="A122" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>351</v>
+      <c r="B122" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -13630,16 +13496,16 @@
         <v>0</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="U122" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="U122" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="V122" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="V122" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="W122">
         <v>24</v>
@@ -13691,22 +13557,19 @@
         <v>0</v>
       </c>
       <c r="AL122" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:39">
       <c r="A123" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="124" spans="1:39">
-      <c r="A124" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B124" t="s">
+      <c r="B124" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C124" t="s">
@@ -13765,13 +13628,13 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>569</v>
-      </c>
-      <c r="U124" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="U124" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="V124" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="V124" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="W124">
         <v>25</v>
@@ -13823,21 +13686,18 @@
         <v>0</v>
       </c>
       <c r="AL124" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM124" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="AM124" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:39">
-      <c r="A125" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="D125">
         <v>20</v>
@@ -13889,16 +13749,16 @@
         <v>0</v>
       </c>
       <c r="R125" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="S125" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="S125" s="6" t="s">
+      <c r="U125" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="U125" s="6" t="s">
+      <c r="V125" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="V125" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="W125">
         <v>20</v>
@@ -13953,22 +13813,19 @@
         <v>65</v>
       </c>
       <c r="AM125" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:39">
-      <c r="A126" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="6"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-      <c r="U126" s="6" t="s">
+      <c r="U126" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="V126" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="W126">
         <v>22</v>
@@ -14020,26 +13877,23 @@
         <v>0</v>
       </c>
       <c r="AL126" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM126" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="AM126" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:39">
       <c r="A127" s="1" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:39">
-      <c r="A128" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D128" s="7">
         <v>12</v>
@@ -14087,13 +13941,13 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="U128" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="U128" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="V128" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="V128" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="W128">
         <v>30</v>
@@ -14145,22 +13999,19 @@
         <v>0</v>
       </c>
       <c r="AL128" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM128" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="AM128" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:39">
-      <c r="A129" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R129" s="5"/>
-      <c r="U129" s="6" t="s">
+      <c r="U129" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="V129" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="V129" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="W129">
         <v>25</v>
@@ -14212,22 +14063,19 @@
         <v>0</v>
       </c>
       <c r="AL129" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM129" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:39">
-      <c r="A130" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R130" s="5"/>
-      <c r="U130" s="6" t="s">
+      <c r="U130" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="V130" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="V130" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="W130">
         <v>25</v>
@@ -14279,22 +14127,19 @@
         <v>0</v>
       </c>
       <c r="AL130" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM130" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:39">
       <c r="A131" s="1" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:39">
-      <c r="A132" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="B132" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C132" t="s">
@@ -14353,13 +14198,13 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>570</v>
-      </c>
-      <c r="U132" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="U132" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="V132" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="V132" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="W132">
         <v>25</v>
@@ -14411,21 +14256,18 @@
         <v>0</v>
       </c>
       <c r="AL132" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM132" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:39">
-      <c r="A133" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -14477,16 +14319,16 @@
         <v>0</v>
       </c>
       <c r="R133" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S133" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U133" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="S133" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="U133" s="6" t="s">
+      <c r="V133" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="V133" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="W133">
         <v>20</v>
@@ -14541,18 +14383,15 @@
         <v>63</v>
       </c>
       <c r="AM133" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:39">
-      <c r="A134" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D134">
         <v>20</v>
@@ -14604,16 +14443,16 @@
         <v>0</v>
       </c>
       <c r="R134" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="U134" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="S134" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="U134" s="6" t="s">
+      <c r="V134" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="V134" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="W134">
         <v>21</v>
@@ -14668,22 +14507,19 @@
         <v>63</v>
       </c>
       <c r="AM134" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:39">
-      <c r="A135" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="6"/>
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
-      <c r="U135" s="6" t="s">
+      <c r="U135" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="V135" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="V135" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="W135">
         <v>22</v>
@@ -14738,23 +14574,20 @@
         <v>63</v>
       </c>
       <c r="AM135" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:39">
       <c r="A136" s="1" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:39">
-      <c r="A137" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D137" s="7">
         <v>12</v>
@@ -14802,13 +14635,13 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="U137" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="U137" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="V137" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="V137" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="W137">
         <v>30</v>
@@ -14860,21 +14693,18 @@
         <v>0</v>
       </c>
       <c r="AL137" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM137" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="AM137" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:39">
-      <c r="A138" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -14926,16 +14756,16 @@
         <v>0</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S138" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="U138" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U138" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="V138" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="V138" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="W138">
         <v>22</v>
@@ -14987,21 +14817,18 @@
         <v>0</v>
       </c>
       <c r="AL138" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM138" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:39">
-      <c r="A139" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -15053,16 +14880,16 @@
         <v>0</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S139" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="U139" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="U139" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="V139" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="V139" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="W139">
         <v>23</v>
@@ -15114,25 +14941,22 @@
         <v>0</v>
       </c>
       <c r="AL139" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:39">
-      <c r="A140" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="6"/>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
-      <c r="U140" s="6" t="s">
+      <c r="U140" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="V140" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="V140" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="W140">
         <v>25</v>
@@ -15187,19 +15011,21 @@
         <v>65</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:39" s="9" customFormat="1">
       <c r="A141" s="8" t="s">
-        <v>605</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="B141" s="15"/>
+      <c r="U141" s="15"/>
     </row>
     <row r="142" spans="1:39" s="9" customFormat="1">
       <c r="A142" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B142" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B142" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="9" t="s">
@@ -15257,11 +15083,11 @@
       <c r="R142" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U142" s="11" t="s">
+      <c r="U142" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="V142" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="V142" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="W142" s="9">
         <v>6</v>
@@ -15313,21 +15139,21 @@
         <v>0</v>
       </c>
       <c r="AL142" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM142" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="AM142" s="11" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:39" s="9" customFormat="1">
       <c r="A143" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B143" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="D143" s="9">
         <v>1</v>
@@ -15379,16 +15205,16 @@
         <v>0</v>
       </c>
       <c r="R143" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="S143" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="S143" s="11" t="s">
+      <c r="U143" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="U143" s="11" t="s">
+      <c r="V143" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="V143" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="W143" s="9">
         <v>6</v>
@@ -15440,21 +15266,21 @@
         <v>0</v>
       </c>
       <c r="AL143" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM143" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:39" s="9" customFormat="1">
       <c r="A144" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B144" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="D144" s="9">
         <v>1</v>
@@ -15506,16 +15332,16 @@
         <v>0</v>
       </c>
       <c r="R144" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="S144" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="S144" s="11" t="s">
+      <c r="U144" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="U144" s="11" t="s">
+      <c r="V144" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="W144" s="9">
         <v>6</v>
@@ -15570,19 +15396,16 @@
         <v>63</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:39">
       <c r="A145" s="1" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:39">
-      <c r="A146" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="B146" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C146" t="s">
@@ -15641,13 +15464,13 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>567</v>
-      </c>
-      <c r="U146" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="U146" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="V146" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="V146" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="W146">
         <v>25</v>
@@ -15699,21 +15522,18 @@
         <v>0</v>
       </c>
       <c r="AL146" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM146" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="AM146" s="6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:39">
-      <c r="A147" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="D147">
         <v>20</v>
@@ -15765,16 +15585,16 @@
         <v>0</v>
       </c>
       <c r="R147" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="S147" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="U147" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="S147" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="U147" s="6" t="s">
+      <c r="V147" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="V147" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="W147">
         <v>20</v>
@@ -15826,21 +15646,18 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:39">
-      <c r="A148" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -15892,16 +15709,16 @@
         <v>0</v>
       </c>
       <c r="R148" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="S148" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="S148" s="6" t="s">
+      <c r="U148" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="U148" s="6" t="s">
+      <c r="V148" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="V148" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="W148">
         <v>22</v>
@@ -15953,25 +15770,22 @@
         <v>0</v>
       </c>
       <c r="AL148" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:39">
-      <c r="A149" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B149" s="6"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
-      <c r="U149" s="6" t="s">
+      <c r="U149" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="V149" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="W149">
         <v>22</v>
@@ -16026,19 +15840,21 @@
         <v>63</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:39" s="9" customFormat="1">
       <c r="A150" s="8" t="s">
-        <v>607</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="U150" s="15"/>
     </row>
     <row r="151" spans="1:39" s="9" customFormat="1">
       <c r="A151" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B151" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B151" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="9" t="s">
@@ -16096,11 +15912,11 @@
       <c r="R151" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U151" s="11" t="s">
+      <c r="U151" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="V151" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="V151" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="W151" s="9">
         <v>6</v>
@@ -16152,21 +15968,21 @@
         <v>0</v>
       </c>
       <c r="AL151" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM151" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="AM151" s="11" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:39" s="9" customFormat="1">
       <c r="A152" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B152" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="D152" s="9">
         <v>1</v>
@@ -16218,16 +16034,16 @@
         <v>0</v>
       </c>
       <c r="R152" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="S152" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="S152" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="U152" s="11" t="s">
+      <c r="U152" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="V152" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="V152" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="W152" s="9">
         <v>6</v>
@@ -16279,21 +16095,21 @@
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AM152" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="AM152" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:39" s="9" customFormat="1">
       <c r="A153" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B153" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -16345,16 +16161,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="S153" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="S153" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="U153" s="11" t="s">
+      <c r="U153" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="V153" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="V153" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="W153" s="9">
         <v>6</v>
@@ -16406,21 +16222,21 @@
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM153" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="AM153" s="11" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:39">
       <c r="A154" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="U154" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="U154" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="V154" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="V154" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="W154">
         <v>6</v>
@@ -16472,25 +16288,25 @@
         <v>0</v>
       </c>
       <c r="AL154" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM154" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AM154" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:39">
       <c r="A155" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B155" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B155" s="16"/>
       <c r="C155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
-      <c r="U155" s="6" t="s">
+      <c r="U155" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="V155" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="W155">
         <v>6</v>
@@ -16542,25 +16358,25 @@
         <v>0</v>
       </c>
       <c r="AL155" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:39">
       <c r="A156" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B156" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
-      <c r="U156" s="6" t="s">
+      <c r="U156" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="V156" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="V156" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="W156">
         <v>6</v>
@@ -16615,22 +16431,22 @@
         <v>63</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="157" spans="1:39">
       <c r="A157" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B157" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
-      <c r="U157" s="6" t="s">
+      <c r="U157" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="W157">
         <v>6</v>
@@ -16682,26 +16498,23 @@
         <v>0</v>
       </c>
       <c r="AL157" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:39">
       <c r="A158" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" spans="1:39">
-      <c r="A159" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D159" s="7">
         <v>12</v>
@@ -16749,13 +16562,13 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="U159" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="U159" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="V159" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="V159" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="W159">
         <v>30</v>
@@ -16807,21 +16620,18 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM159" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="AM159" s="6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="160" spans="1:39">
-      <c r="A160" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D160">
         <v>20</v>
@@ -16873,16 +16683,16 @@
         <v>0</v>
       </c>
       <c r="R160" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="S160" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="S160" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="U160" s="6" t="s">
+      <c r="U160" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="W160">
         <v>22</v>
@@ -16937,19 +16747,16 @@
         <v>63</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:39">
-      <c r="A161" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R161" s="5"/>
-      <c r="U161" s="6" t="s">
+      <c r="U161" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="W161">
         <v>23</v>
@@ -17001,22 +16808,19 @@
         <v>0</v>
       </c>
       <c r="AL161" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:39">
-      <c r="A162" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R162" s="5"/>
-      <c r="U162" s="6" t="s">
-        <v>496</v>
+      <c r="U162" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W162">
         <v>24</v>
@@ -17068,26 +16872,23 @@
         <v>0</v>
       </c>
       <c r="AL162" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:39">
       <c r="A163" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="164" spans="1:39">
-      <c r="A164" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -17139,16 +16940,16 @@
         <v>0</v>
       </c>
       <c r="R164" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="S164" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="S164" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="U164" s="6" t="s">
+      <c r="U164" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="V164" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="V164" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="W164">
         <v>25</v>
@@ -17200,21 +17001,18 @@
         <v>0</v>
       </c>
       <c r="AL164" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM164" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="1:39">
-      <c r="A165" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="D165">
         <v>15</v>
@@ -17266,16 +17064,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="S165" s="6" t="s">
+      <c r="U165" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="U165" s="6" t="s">
+      <c r="V165" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="W165">
         <v>26</v>
@@ -17327,17 +17125,14 @@
         <v>0</v>
       </c>
       <c r="AL165" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:39">
-      <c r="A166" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="B166" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C166" t="s">
@@ -17396,13 +17191,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>571</v>
-      </c>
-      <c r="U166" s="6" t="s">
-        <v>512</v>
+        <v>570</v>
+      </c>
+      <c r="U166" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W166">
         <v>27</v>
@@ -17454,17 +17249,14 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="167" spans="1:39">
-      <c r="A167" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="B167" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C167" t="s">
@@ -17523,13 +17315,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>572</v>
-      </c>
-      <c r="U167" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="U167" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="V167" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="V167" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="W167">
         <v>30</v>
@@ -17581,21 +17373,18 @@
         <v>0</v>
       </c>
       <c r="AL167" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:39">
-      <c r="A168" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17643,22 +17432,19 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="U168" s="6"/>
+        <v>574</v>
+      </c>
+      <c r="U168" s="16"/>
       <c r="V168" s="6"/>
       <c r="AL168" s="6"/>
       <c r="AM168" s="6"/>
     </row>
     <row r="169" spans="1:39">
-      <c r="A169" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17706,22 +17492,19 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="U169" s="6"/>
+        <v>575</v>
+      </c>
+      <c r="U169" s="16"/>
       <c r="V169" s="6"/>
       <c r="AL169" s="6"/>
       <c r="AM169" s="6"/>
     </row>
     <row r="170" spans="1:39">
-      <c r="A170" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17769,22 +17552,19 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="U170" s="6"/>
+        <v>576</v>
+      </c>
+      <c r="U170" s="16"/>
       <c r="V170" s="6"/>
       <c r="AL170" s="6"/>
       <c r="AM170" s="6"/>
     </row>
     <row r="171" spans="1:39">
-      <c r="A171" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17832,23 +17612,20 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="U171" s="6"/>
+        <v>577</v>
+      </c>
+      <c r="U171" s="16"/>
       <c r="V171" s="6"/>
       <c r="AL171" s="6"/>
       <c r="AM171" s="6"/>
     </row>
     <row r="172" spans="1:39">
       <c r="A172" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:39">
-      <c r="A173" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="B173" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C173" t="s">
@@ -17907,13 +17684,13 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>571</v>
-      </c>
-      <c r="U173" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="U173" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="V173" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="V173" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="W173">
         <v>35</v>
@@ -17965,17 +17742,14 @@
         <v>0</v>
       </c>
       <c r="AL173" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:39">
-      <c r="A174" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="B174" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C174" t="s">
@@ -18034,13 +17808,13 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>572</v>
-      </c>
-      <c r="U174" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="U174" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="V174" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="W174">
         <v>35</v>
@@ -18092,21 +17866,18 @@
         <v>0</v>
       </c>
       <c r="AL174" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:39">
-      <c r="A175" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -18154,13 +17925,13 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="U175" s="6" t="s">
-        <v>523</v>
+        <v>574</v>
+      </c>
+      <c r="U175" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="W175">
         <v>40</v>
@@ -18212,21 +17983,18 @@
         <v>0</v>
       </c>
       <c r="AL175" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:39">
-      <c r="A176" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -18274,13 +18042,13 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="U176" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="U176" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="V176" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="V176" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -18332,21 +18100,18 @@
         <v>0</v>
       </c>
       <c r="AL176" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:39">
-      <c r="A177" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -18394,13 +18159,13 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="U177" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="U177" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="W177">
         <v>30</v>
@@ -18452,21 +18217,18 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM177" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="AM177" s="6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="178" spans="1:39">
-      <c r="A178" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18514,13 +18276,13 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="U178" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="U178" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>533</v>
       </c>
       <c r="W178">
         <v>30</v>
@@ -18572,22 +18334,19 @@
         <v>0</v>
       </c>
       <c r="AL178" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="1:39">
-      <c r="A179" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="R179" s="5"/>
-      <c r="U179" s="6" t="s">
+      <c r="U179" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="W179">
         <v>30</v>
@@ -18639,22 +18398,19 @@
         <v>0</v>
       </c>
       <c r="AL179" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="1:39">
       <c r="A180" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="181" spans="1:39">
-      <c r="A181" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="B181" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C181" t="s">
@@ -18713,13 +18469,13 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>571</v>
-      </c>
-      <c r="U181" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="U181" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="V181" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="V181" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="W181">
         <v>45</v>
@@ -18771,17 +18527,14 @@
         <v>0</v>
       </c>
       <c r="AL181" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="1:39">
-      <c r="A182" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="B182" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C182" t="s">
@@ -18840,13 +18593,13 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>572</v>
-      </c>
-      <c r="U182" s="6" t="s">
-        <v>546</v>
+        <v>571</v>
+      </c>
+      <c r="U182" s="16" t="s">
+        <v>545</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W182">
         <v>50</v>
@@ -18898,21 +18651,18 @@
         <v>0</v>
       </c>
       <c r="AL182" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="183" spans="1:39">
-      <c r="A183" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18960,13 +18710,13 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="U183" s="6" t="s">
-        <v>547</v>
+        <v>574</v>
+      </c>
+      <c r="U183" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W183">
         <v>30</v>
@@ -19021,18 +18771,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="184" spans="1:39">
-      <c r="A184" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -19080,13 +18827,13 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="U184" s="6" t="s">
-        <v>548</v>
+        <v>575</v>
+      </c>
+      <c r="U184" s="16" t="s">
+        <v>547</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W184">
         <v>35</v>
@@ -19138,21 +18885,18 @@
         <v>0</v>
       </c>
       <c r="AL184" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:39">
-      <c r="A185" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -19200,13 +18944,13 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="U185" s="6" t="s">
-        <v>549</v>
+        <v>576</v>
+      </c>
+      <c r="U185" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W185">
         <v>35</v>
@@ -19261,18 +19005,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:39">
-      <c r="A186" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -19320,13 +19061,13 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="U186" s="6" t="s">
-        <v>550</v>
+        <v>577</v>
+      </c>
+      <c r="U186" s="16" t="s">
+        <v>549</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W186">
         <v>35</v>
@@ -19378,19 +19119,19 @@
         <v>0</v>
       </c>
       <c r="AL186" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="1:39">
       <c r="R187" s="5"/>
-      <c r="U187" s="6" t="s">
-        <v>551</v>
+      <c r="U187" s="16" t="s">
+        <v>550</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W187">
         <v>35</v>
@@ -19442,10 +19183,10 @@
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM187" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="AM187" s="6" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="625">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1827,50 +1827,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扬州府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁荡山x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑门关x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永乐镇x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤翔府x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巴陵县x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃源镇x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曼陀山庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子坞西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕子坞东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1879,98 +1839,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>太湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临安郊外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姑苏府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>柯镇恶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临安府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开封府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>襄阳府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信阳县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜀冈山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮领地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武夷山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳家军驻地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终南山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全真教领地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少室山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青城山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺领地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦煌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缥缈峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武陵山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大理国境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑阁蜀道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02002001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1980,6 +1852,157 @@
   </si>
   <si>
     <t>02002002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40是否Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安郊外|0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安府|0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑苏府|1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太湖|1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子坞东|1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀山庄|1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开封府|1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄阳府|1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信阳县|1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州府x|1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀冈山|1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丐帮领地|1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁荡山x|1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武夷山|1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳家军驻地|1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关x|1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永乐镇x|1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤翔府x|1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终南山|1018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真教领地|1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少室山|1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺领地|1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌|1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缥缈峰|1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴陵县x|1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵山|1025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃源镇x|1026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理国境|1027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑阁蜀道|1028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都府|1029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青城山|1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子坞西|1005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2075,8 +2098,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="533">
+  <cellStyleXfs count="535">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2630,7 +2655,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="533">
+  <cellStyles count="535">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2897,6 +2922,7 @@
     <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3163,6 +3189,7 @@
     <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3492,16 +3519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM187"/>
+  <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="12"/>
     <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
@@ -3509,9 +3536,9 @@
     <col min="22" max="22" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -3627,8 +3654,11 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>587</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3744,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
@@ -3991,13 +4021,16 @@
       <c r="AM4" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="AN4" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
@@ -4081,10 +4114,10 @@
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="AB6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC6">
         <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
@@ -4121,7 +4154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="16">
+    <row r="7" spans="1:40" ht="16">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -4205,10 +4238,10 @@
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>461</v>
+        <v>314</v>
       </c>
       <c r="AB7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
@@ -4245,12 +4278,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
@@ -4374,7 +4407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -4498,12 +4531,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4622,7 +4655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="B12" s="13" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4722,7 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="B13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4756,7 +4789,7 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="B14" s="13" t="s">
         <v>77</v>
       </c>
@@ -4823,7 +4856,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="B15" s="13" t="s">
         <v>82</v>
       </c>
@@ -4890,7 +4923,7 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="B16" s="13" t="s">
         <v>88</v>
       </c>
@@ -4957,12 +4990,12 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:40">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -5025,7 +5058,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5085,8 +5118,11 @@
       <c r="AM18" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="AN18" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:40">
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
@@ -5209,10 +5245,13 @@
       <c r="AM19" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="AN19" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:40">
       <c r="B20" s="13" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5334,7 +5373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:40">
       <c r="B21" s="13" t="s">
         <v>102</v>
       </c>
@@ -5357,17 +5396,17 @@
       </c>
       <c r="H21">
         <f t="shared" si="44"/>
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <f t="shared" si="45"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <f t="shared" si="46"/>
@@ -5458,9 +5497,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:40">
       <c r="B22" s="13" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5481,17 +5520,17 @@
       </c>
       <c r="H22">
         <f t="shared" si="44"/>
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <f t="shared" si="45"/>
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
         <f t="shared" si="46"/>
@@ -5525,12 +5564,12 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:40">
       <c r="B24" s="12" t="s">
         <v>1</v>
       </c>
@@ -5654,7 +5693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:40">
       <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
@@ -5778,9 +5817,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:40">
       <c r="B26" s="13" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>99</v>
@@ -5845,7 +5884,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:40">
       <c r="B27" s="13" t="s">
         <v>102</v>
       </c>
@@ -5912,9 +5951,9 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:40">
       <c r="B28" s="13" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>106</v>
@@ -5979,14 +6018,14 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:40">
       <c r="B30" s="12" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6108,9 +6147,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:40">
       <c r="B31" s="12" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6232,9 +6271,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:40">
       <c r="B32" s="13" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>99</v>
@@ -6356,7 +6395,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:40">
       <c r="B33" s="13" t="s">
         <v>102</v>
       </c>
@@ -6479,10 +6518,13 @@
       <c r="AM33" s="5">
         <v>40011</v>
       </c>
+      <c r="AN33" t="s">
+        <v>590</v>
+      </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:40">
       <c r="B34" s="13" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>106</v>
@@ -6547,12 +6589,12 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:40">
       <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
@@ -6629,24 +6671,24 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>4044</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
-        <v>230</v>
+        <v>1768</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC36">
         <f>INT(50+(X36+(AD36*0.25)-1)*POWER(X36+(AD36*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE36">
         <f>INT(POWER(X36+(AF36*0.25),3))+40</f>
@@ -6675,8 +6717,11 @@
       <c r="AM36" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="AN36" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:40">
       <c r="B37" s="12" t="s">
         <v>1</v>
       </c>
@@ -6800,7 +6845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:40">
       <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
@@ -6867,7 +6912,7 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:40">
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
@@ -6934,7 +6979,7 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:40">
       <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
@@ -7001,7 +7046,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:40">
       <c r="B41" s="12" t="s">
         <v>1</v>
       </c>
@@ -7068,7 +7113,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:40">
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -7135,9 +7180,9 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:40">
       <c r="B43" s="13" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>99</v>
@@ -7202,7 +7247,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:40">
       <c r="B44" s="13" t="s">
         <v>102</v>
       </c>
@@ -7269,9 +7314,9 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:40">
       <c r="B45" s="13" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>106</v>
@@ -7336,12 +7381,12 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:40">
       <c r="A46" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:40">
       <c r="B47" s="13" t="s">
         <v>147</v>
       </c>
@@ -7464,8 +7509,11 @@
       <c r="AM47" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="AN47" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:40">
       <c r="B48" s="12" t="s">
         <v>1</v>
       </c>
@@ -7588,8 +7636,11 @@
       <c r="AM48" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="AN48" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:40">
       <c r="B49" s="12" t="s">
         <v>1</v>
       </c>
@@ -7713,7 +7764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:40">
       <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
@@ -7836,8 +7887,11 @@
       <c r="AM50" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="AN50" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:40">
       <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
@@ -7960,8 +8014,11 @@
       <c r="AM51" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="AN51" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:40">
       <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
@@ -8084,8 +8141,11 @@
       <c r="AM52" s="5" t="s">
         <v>165</v>
       </c>
+      <c r="AN52" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:40">
       <c r="B53" s="12" t="s">
         <v>1</v>
       </c>
@@ -8152,18 +8212,18 @@
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:40">
       <c r="U54" s="13"/>
       <c r="V54" s="5"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:40">
       <c r="A55" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:40">
       <c r="B56" s="13" t="s">
         <v>173</v>
       </c>
@@ -8287,7 +8347,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:40">
       <c r="B57" s="12" t="s">
         <v>1</v>
       </c>
@@ -8411,7 +8471,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:40">
       <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
@@ -8535,7 +8595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:40">
       <c r="B59" s="12" t="s">
         <v>1</v>
       </c>
@@ -8602,7 +8662,7 @@
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:40">
       <c r="B60" s="12" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +8729,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:40">
       <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
@@ -8736,7 +8796,7 @@
       <c r="AL61" s="5"/>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:40">
       <c r="B62" s="12" t="s">
         <v>1</v>
       </c>
@@ -8803,12 +8863,12 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:40">
       <c r="A63" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:40">
       <c r="B64" s="12" t="s">
         <v>1</v>
       </c>
@@ -8932,7 +8992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:40">
       <c r="B65" s="12" t="s">
         <v>1</v>
       </c>
@@ -9056,7 +9116,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:40">
       <c r="B66" s="12" t="s">
         <v>1</v>
       </c>
@@ -9123,7 +9183,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:40">
       <c r="B67" s="12" t="s">
         <v>1</v>
       </c>
@@ -9190,7 +9250,7 @@
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:40">
       <c r="B68" s="12" t="s">
         <v>1</v>
       </c>
@@ -9257,7 +9317,7 @@
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:40">
       <c r="B69" s="12" t="s">
         <v>1</v>
       </c>
@@ -9324,14 +9384,14 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:39" s="9" customFormat="1">
+    <row r="70" spans="1:40" s="9" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:39" s="9" customFormat="1">
+    <row r="71" spans="1:40" s="9" customFormat="1">
       <c r="A71" s="8" t="s">
         <v>579</v>
       </c>
@@ -9455,7 +9515,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:40">
       <c r="A72" s="8" t="s">
         <v>579</v>
       </c>
@@ -9521,7 +9581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:40">
       <c r="A73" s="8" t="s">
         <v>579</v>
       </c>
@@ -9591,12 +9651,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:40">
       <c r="A74" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:40">
       <c r="B75" s="12" t="s">
         <v>1</v>
       </c>
@@ -9719,8 +9779,11 @@
       <c r="AM75" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="AN75" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:40">
       <c r="B76" s="16" t="s">
         <v>190</v>
       </c>
@@ -9844,7 +9907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:40">
       <c r="U77" s="16" t="s">
         <v>213</v>
       </c>
@@ -9907,7 +9970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:40">
       <c r="B78" s="16"/>
       <c r="C78" s="6"/>
       <c r="R78" s="6"/>
@@ -9974,12 +10037,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:40">
       <c r="A79" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:40">
       <c r="B80" s="12" t="s">
         <v>1</v>
       </c>
@@ -10102,8 +10165,11 @@
       <c r="AM80" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="AN80" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:40">
       <c r="B81" s="16" t="s">
         <v>207</v>
       </c>
@@ -10227,7 +10293,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:40">
       <c r="R82" s="5"/>
       <c r="U82" s="16" t="s">
         <v>225</v>
@@ -10291,7 +10357,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:40">
       <c r="R83" s="5"/>
       <c r="U83" s="16" t="s">
         <v>229</v>
@@ -10355,14 +10421,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="9" customFormat="1">
+    <row r="84" spans="1:40" s="9" customFormat="1">
       <c r="A84" s="8" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:39" s="9" customFormat="1">
+    <row r="85" spans="1:40" s="9" customFormat="1">
       <c r="A85" s="8" t="s">
         <v>579</v>
       </c>
@@ -10486,7 +10552,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:40">
       <c r="A86" s="8" t="s">
         <v>579</v>
       </c>
@@ -10553,7 +10619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:40">
       <c r="A87" s="8" t="s">
         <v>579</v>
       </c>
@@ -10620,7 +10686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:40">
       <c r="A88" s="8" t="s">
         <v>579</v>
       </c>
@@ -10687,12 +10753,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:40">
       <c r="A89" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:40">
       <c r="B90" s="12" t="s">
         <v>1</v>
       </c>
@@ -10815,8 +10881,11 @@
       <c r="AM90" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="AN90" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:40">
       <c r="B91" s="16" t="s">
         <v>246</v>
       </c>
@@ -10940,7 +11009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:40">
       <c r="B92" s="16"/>
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
@@ -11006,7 +11075,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:40">
       <c r="B93" s="16"/>
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
@@ -11072,12 +11141,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:40">
       <c r="A94" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:40">
       <c r="B95" s="12" t="s">
         <v>1</v>
       </c>
@@ -11201,7 +11270,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:40">
       <c r="B96" s="16"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -11443,7 +11512,7 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1">
       <c r="A99" s="8" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
@@ -11898,7 +11967,7 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1">
       <c r="A104" s="8" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
@@ -12353,14 +12422,14 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1">
       <c r="A109" s="8" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1">
       <c r="A110" s="8" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12484,7 +12553,7 @@
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1">
       <c r="A111" s="8" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>310</v>
@@ -12611,7 +12680,7 @@
     </row>
     <row r="112" spans="1:39">
       <c r="A112" s="8" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
@@ -12679,9 +12748,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:40">
       <c r="A113" s="8" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
@@ -12749,12 +12818,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:40">
       <c r="A114" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:40">
       <c r="B115" s="12" t="s">
         <v>1</v>
       </c>
@@ -12877,8 +12946,11 @@
       <c r="AM115" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="AN115" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:40">
       <c r="B116" s="16" t="s">
         <v>326</v>
       </c>
@@ -13002,7 +13074,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:40">
       <c r="B117" s="16"/>
       <c r="C117" s="6"/>
       <c r="R117" s="6"/>
@@ -13069,12 +13141,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:40">
       <c r="A118" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:40">
       <c r="B119" s="14" t="s">
         <v>572</v>
       </c>
@@ -13190,8 +13262,11 @@
       <c r="AM119" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="AN119" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:40">
       <c r="B120" s="16" t="s">
         <v>339</v>
       </c>
@@ -13315,7 +13390,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:40">
       <c r="B121" s="16" t="s">
         <v>345</v>
       </c>
@@ -13439,7 +13514,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:40">
       <c r="B122" s="16" t="s">
         <v>350</v>
       </c>
@@ -13563,12 +13638,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:40">
       <c r="A123" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:40">
       <c r="B124" s="12" t="s">
         <v>1</v>
       </c>
@@ -13691,8 +13766,11 @@
       <c r="AM124" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="AN124" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:40">
       <c r="B125" s="16" t="s">
         <v>359</v>
       </c>
@@ -13816,7 +13894,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:40">
       <c r="B126" s="16"/>
       <c r="C126" s="6"/>
       <c r="R126" s="6"/>
@@ -13883,12 +13961,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:40">
       <c r="A127" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:40">
       <c r="B128" s="14" t="s">
         <v>572</v>
       </c>
@@ -14004,8 +14082,11 @@
       <c r="AM128" s="6" t="s">
         <v>371</v>
       </c>
+      <c r="AN128" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:40">
       <c r="R129" s="5"/>
       <c r="U129" s="16" t="s">
         <v>372</v>
@@ -14069,7 +14150,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:40">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
         <v>375</v>
@@ -14133,12 +14214,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:40">
       <c r="A131" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:40">
       <c r="B132" s="12" t="s">
         <v>1</v>
       </c>
@@ -14261,8 +14342,11 @@
       <c r="AM132" s="6" t="s">
         <v>380</v>
       </c>
+      <c r="AN132" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:40">
       <c r="B133" s="16" t="s">
         <v>381</v>
       </c>
@@ -14386,7 +14470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:40">
       <c r="B134" s="16" t="s">
         <v>387</v>
       </c>
@@ -14510,7 +14594,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:40">
       <c r="B135" s="16"/>
       <c r="C135" s="6"/>
       <c r="R135" s="6"/>
@@ -14577,12 +14661,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:40">
       <c r="A136" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:40">
       <c r="B137" s="14" t="s">
         <v>572</v>
       </c>
@@ -14698,8 +14782,11 @@
       <c r="AM137" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="AN137" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:40">
       <c r="B138" s="16" t="s">
         <v>381</v>
       </c>
@@ -14823,7 +14910,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:40">
       <c r="B139" s="16" t="s">
         <v>387</v>
       </c>
@@ -14947,7 +15034,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:40">
       <c r="B140" s="16"/>
       <c r="C140" s="6"/>
       <c r="R140" s="6"/>
@@ -15014,14 +15101,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" spans="1:39" s="9" customFormat="1">
+    <row r="141" spans="1:40" s="9" customFormat="1">
       <c r="A141" s="8" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:39" s="9" customFormat="1">
+    <row r="142" spans="1:40" s="9" customFormat="1">
       <c r="A142" s="8" t="s">
         <v>579</v>
       </c>
@@ -15145,7 +15232,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:39" s="9" customFormat="1">
+    <row r="143" spans="1:40" s="9" customFormat="1">
       <c r="A143" s="8" t="s">
         <v>579</v>
       </c>
@@ -15272,7 +15359,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="144" spans="1:39" s="9" customFormat="1">
+    <row r="144" spans="1:40" s="9" customFormat="1">
       <c r="A144" s="8" t="s">
         <v>579</v>
       </c>
@@ -15399,12 +15486,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:40">
       <c r="A145" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:40">
       <c r="B146" s="12" t="s">
         <v>1</v>
       </c>
@@ -15527,8 +15614,11 @@
       <c r="AM146" s="6" t="s">
         <v>429</v>
       </c>
+      <c r="AN146" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:40">
       <c r="B147" s="16" t="s">
         <v>430</v>
       </c>
@@ -15652,7 +15742,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:40">
       <c r="B148" s="16" t="s">
         <v>436</v>
       </c>
@@ -15776,7 +15866,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:40">
       <c r="B149" s="16"/>
       <c r="C149" s="6"/>
       <c r="R149" s="6"/>
@@ -15843,14 +15933,14 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:39" s="9" customFormat="1">
+    <row r="150" spans="1:40" s="9" customFormat="1">
       <c r="A150" s="8" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:39" s="9" customFormat="1">
+    <row r="151" spans="1:40" s="9" customFormat="1">
       <c r="A151" s="8" t="s">
         <v>579</v>
       </c>
@@ -15974,7 +16064,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:39" s="9" customFormat="1">
+    <row r="152" spans="1:40" s="9" customFormat="1">
       <c r="A152" s="8" t="s">
         <v>579</v>
       </c>
@@ -16101,7 +16191,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:39" s="9" customFormat="1">
+    <row r="153" spans="1:40" s="9" customFormat="1">
       <c r="A153" s="8" t="s">
         <v>579</v>
       </c>
@@ -16228,7 +16318,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:40">
       <c r="A154" s="8" t="s">
         <v>579</v>
       </c>
@@ -16294,7 +16384,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:40">
       <c r="A155" s="8" t="s">
         <v>579</v>
       </c>
@@ -16364,7 +16454,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:40">
       <c r="A156" s="8" t="s">
         <v>579</v>
       </c>
@@ -16434,7 +16524,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:40">
       <c r="A157" s="1" t="s">
         <v>579</v>
       </c>
@@ -16504,12 +16594,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:40">
       <c r="A158" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:40">
       <c r="B159" s="14" t="s">
         <v>572</v>
       </c>
@@ -16625,8 +16715,11 @@
       <c r="AM159" s="6" t="s">
         <v>486</v>
       </c>
+      <c r="AN159" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:40">
       <c r="B160" s="16" t="s">
         <v>450</v>
       </c>
@@ -16750,7 +16843,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:40">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
         <v>490</v>
@@ -16814,7 +16907,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:40">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
         <v>495</v>
@@ -16878,12 +16971,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:40">
       <c r="A163" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:40">
       <c r="B164" s="16" t="s">
         <v>499</v>
       </c>
@@ -17007,7 +17100,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:40">
       <c r="B165" s="16" t="s">
         <v>501</v>
       </c>
@@ -17131,7 +17224,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:40">
       <c r="B166" s="12" t="s">
         <v>1</v>
       </c>
@@ -17255,7 +17348,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:40">
       <c r="B167" s="12" t="s">
         <v>1</v>
       </c>
@@ -17379,7 +17472,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:40">
       <c r="B168" s="14" t="s">
         <v>572</v>
       </c>
@@ -17439,7 +17532,7 @@
       <c r="AL168" s="6"/>
       <c r="AM168" s="6"/>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:40">
       <c r="B169" s="14" t="s">
         <v>572</v>
       </c>
@@ -17499,7 +17592,7 @@
       <c r="AL169" s="6"/>
       <c r="AM169" s="6"/>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:40">
       <c r="B170" s="14" t="s">
         <v>572</v>
       </c>
@@ -17559,7 +17652,7 @@
       <c r="AL170" s="6"/>
       <c r="AM170" s="6"/>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:40">
       <c r="B171" s="14" t="s">
         <v>572</v>
       </c>
@@ -17619,12 +17712,12 @@
       <c r="AL171" s="6"/>
       <c r="AM171" s="6"/>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:40">
       <c r="A172" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:40">
       <c r="B173" s="12" t="s">
         <v>1</v>
       </c>
@@ -17747,8 +17840,11 @@
       <c r="AM173" s="6" t="s">
         <v>517</v>
       </c>
+      <c r="AN173" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:40">
       <c r="B174" s="12" t="s">
         <v>1</v>
       </c>
@@ -17871,8 +17967,11 @@
       <c r="AM174" s="6" t="s">
         <v>520</v>
       </c>
+      <c r="AN174" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:40">
       <c r="B175" s="14" t="s">
         <v>572</v>
       </c>
@@ -17988,8 +18087,11 @@
       <c r="AM175" s="6" t="s">
         <v>523</v>
       </c>
+      <c r="AN175" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:40">
       <c r="B176" s="14" t="s">
         <v>572</v>
       </c>
@@ -18106,7 +18208,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:40">
       <c r="B177" s="14" t="s">
         <v>572</v>
       </c>
@@ -18223,7 +18325,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:40">
       <c r="B178" s="14" t="s">
         <v>572</v>
       </c>
@@ -18340,7 +18442,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:40">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
         <v>534</v>
@@ -18404,12 +18506,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:40">
       <c r="A180" s="1" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:40">
       <c r="B181" s="12" t="s">
         <v>1</v>
       </c>
@@ -18532,8 +18634,11 @@
       <c r="AM181" s="6" t="s">
         <v>523</v>
       </c>
+      <c r="AN181" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:40">
       <c r="B182" s="12" t="s">
         <v>1</v>
       </c>
@@ -18656,8 +18761,11 @@
       <c r="AM182" s="6" t="s">
         <v>551</v>
       </c>
+      <c r="AN182" s="7" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:40">
       <c r="B183" s="14" t="s">
         <v>572</v>
       </c>
@@ -18774,7 +18882,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:40">
       <c r="B184" s="14" t="s">
         <v>572</v>
       </c>
@@ -18891,7 +18999,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:40">
       <c r="B185" s="14" t="s">
         <v>572</v>
       </c>
@@ -19008,7 +19116,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:40">
       <c r="B186" s="14" t="s">
         <v>572</v>
       </c>
@@ -19125,7 +19233,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:40">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
         <v>550</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="626">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1878,10 +1878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临安郊外|0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临安府|0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2003,6 +1999,14 @@
   </si>
   <si>
     <t>燕子坞西|1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临安郊外|00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,8 +2102,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="535">
+  <cellStyleXfs count="537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2655,7 +2661,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="535">
+  <cellStyles count="537">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2923,6 +2929,7 @@
     <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3190,6 +3197,7 @@
     <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3521,9 +3529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3538,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -4027,7 +4035,7 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -4280,7 +4288,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -4653,6 +4661,9 @@
       </c>
       <c r="AM11" s="5" t="s">
         <v>94</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -4992,7 +5003,7 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -5119,7 +5130,7 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -5566,7 +5577,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -6020,7 +6031,7 @@
     </row>
     <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -6591,7 +6602,7 @@
     </row>
     <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -7383,7 +7394,7 @@
     </row>
     <row r="46" spans="1:40">
       <c r="A46" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -8220,7 +8231,7 @@
     </row>
     <row r="55" spans="1:40">
       <c r="A55" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -8865,7 +8876,7 @@
     </row>
     <row r="63" spans="1:40">
       <c r="A63" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -9386,7 +9397,7 @@
     </row>
     <row r="70" spans="1:40" s="9" customFormat="1">
       <c r="A70" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
@@ -9653,7 +9664,7 @@
     </row>
     <row r="74" spans="1:40">
       <c r="A74" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:40">
@@ -10039,7 +10050,7 @@
     </row>
     <row r="79" spans="1:40">
       <c r="A79" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" spans="1:40">
@@ -10423,7 +10434,7 @@
     </row>
     <row r="84" spans="1:40" s="9" customFormat="1">
       <c r="A84" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
@@ -10755,7 +10766,7 @@
     </row>
     <row r="89" spans="1:40">
       <c r="A89" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -11143,7 +11154,7 @@
     </row>
     <row r="94" spans="1:40">
       <c r="A94" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:40">
@@ -11512,7 +11523,7 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1">
       <c r="A99" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
@@ -11967,7 +11978,7 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1">
       <c r="A104" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
@@ -12422,7 +12433,7 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1">
       <c r="A109" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
@@ -12820,7 +12831,7 @@
     </row>
     <row r="114" spans="1:40">
       <c r="A114" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115" spans="1:40">
@@ -13143,7 +13154,7 @@
     </row>
     <row r="118" spans="1:40">
       <c r="A118" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:40">
@@ -13640,7 +13651,7 @@
     </row>
     <row r="123" spans="1:40">
       <c r="A123" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="124" spans="1:40">
@@ -13963,7 +13974,7 @@
     </row>
     <row r="127" spans="1:40">
       <c r="A127" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128" spans="1:40">
@@ -14216,7 +14227,7 @@
     </row>
     <row r="131" spans="1:40">
       <c r="A131" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:40">
@@ -14663,7 +14674,7 @@
     </row>
     <row r="136" spans="1:40">
       <c r="A136" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:40">
@@ -15103,7 +15114,7 @@
     </row>
     <row r="141" spans="1:40" s="9" customFormat="1">
       <c r="A141" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
@@ -15488,7 +15499,7 @@
     </row>
     <row r="145" spans="1:40">
       <c r="A145" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="146" spans="1:40">
@@ -15935,7 +15946,7 @@
     </row>
     <row r="150" spans="1:40" s="9" customFormat="1">
       <c r="A150" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
@@ -16596,7 +16607,7 @@
     </row>
     <row r="158" spans="1:40">
       <c r="A158" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:40">
@@ -16973,7 +16984,7 @@
     </row>
     <row r="163" spans="1:40">
       <c r="A163" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="164" spans="1:40">
@@ -17714,7 +17725,7 @@
     </row>
     <row r="172" spans="1:40">
       <c r="A172" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173" spans="1:40">
@@ -18508,7 +18519,7 @@
     </row>
     <row r="180" spans="1:40">
       <c r="A180" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="181" spans="1:40">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AMAMA/Documents/suker/git/MyWuXia/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1615,9 +1620,6 @@
     <t>29002001</t>
   </si>
   <si>
-    <t>转生应锦繁</t>
-  </si>
-  <si>
     <t>40088</t>
   </si>
   <si>
@@ -1628,9 +1630,6 @@
   </si>
   <si>
     <t>40089</t>
-  </si>
-  <si>
-    <t>崔敏虬</t>
   </si>
   <si>
     <t>29002003</t>
@@ -2007,6 +2006,14 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转生应锦繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔敏虬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,6 +2669,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="537">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2930,278 +2938,282 @@
     <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="536" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3529,12 +3541,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG187" sqref="AG187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="12"/>
@@ -3544,9 +3556,9 @@
     <col min="22" max="22" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -3663,10 +3675,10 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +3737,9 @@
       <c r="R2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3">
+        <v>10000</v>
+      </c>
       <c r="U2" s="13" t="s">
         <v>50</v>
       </c>
@@ -3782,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
@@ -3906,7 +3920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
@@ -3983,24 +3997,24 @@
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>2102</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AA4">
         <f t="shared" si="2"/>
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="AB4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE4">
         <f t="shared" si="4"/>
@@ -4030,15 +4044,15 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
@@ -4115,10 +4129,10 @@
       </c>
       <c r="Y6">
         <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
@@ -4162,7 +4176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16">
+    <row r="7" spans="1:40" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
@@ -4239,10 +4253,10 @@
       </c>
       <c r="Y7">
         <f>INT(POWER(X7+(Z7*0.25),2)*35)</f>
-        <v>315</v>
+        <v>492</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
@@ -4286,12 +4300,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
@@ -4415,7 +4429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -4539,12 +4553,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4663,10 +4677,10 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
         <v>69</v>
       </c>
@@ -4733,7 +4747,7 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
         <v>73</v>
       </c>
@@ -4800,7 +4814,7 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>77</v>
       </c>
@@ -4867,7 +4881,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B15" s="13" t="s">
         <v>82</v>
       </c>
@@ -4934,7 +4948,7 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B16" s="13" t="s">
         <v>88</v>
       </c>
@@ -5001,12 +5015,12 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -5069,7 +5083,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5083,17 +5097,17 @@
       </c>
       <c r="Y18">
         <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
-        <v>1260</v>
+        <v>2528</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
-        <v>383</v>
+        <v>3088</v>
       </c>
       <c r="AB18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AC18">
         <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
@@ -5130,10 +5144,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
@@ -5210,17 +5224,17 @@
       </c>
       <c r="Y19">
         <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>3158</v>
       </c>
       <c r="Z19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
-        <v>206</v>
+        <v>897</v>
       </c>
       <c r="AB19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="AC19">
         <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
@@ -5257,12 +5271,12 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5337,10 +5351,10 @@
       </c>
       <c r="Y20">
         <f>INT(POWER(X20+(Z20*0.25),2)*35)</f>
-        <v>492</v>
+        <v>1367</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <f>INT(POWER(X20+(AB20*0.25),3))+40</f>
@@ -5384,7 +5398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
         <v>102</v>
       </c>
@@ -5461,10 +5475,10 @@
       </c>
       <c r="Y21">
         <f>INT(POWER(X21+(Z21*0.25),2)*35)</f>
-        <v>632</v>
+        <v>1715</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA21">
         <f>INT(POWER(X21+(AB21*0.25),3))+40</f>
@@ -5508,9 +5522,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5575,12 +5589,12 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>1</v>
       </c>
@@ -5657,10 +5671,10 @@
       </c>
       <c r="Y24">
         <f>INT(POWER(X24+(Z24*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>1968</v>
       </c>
       <c r="Z24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA24">
         <f>INT(POWER(X24+(AB24*0.25),3))+40</f>
@@ -5704,7 +5718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
@@ -5781,10 +5795,10 @@
       </c>
       <c r="Y25">
         <f>INT(POWER(X25+(Z25*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>1968</v>
       </c>
       <c r="Z25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA25">
         <f>INT(POWER(X25+(AB25*0.25),3))+40</f>
@@ -5828,9 +5842,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B26" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>99</v>
@@ -5895,7 +5909,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B27" s="13" t="s">
         <v>102</v>
       </c>
@@ -5962,9 +5976,9 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>106</v>
@@ -6029,14 +6043,14 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6111,10 +6125,10 @@
       </c>
       <c r="Y30">
         <f>INT(POWER(X30+(Z30*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>2240</v>
       </c>
       <c r="Z30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA30">
         <f>INT(POWER(X30+(AB30*0.25),3))+40</f>
@@ -6158,9 +6172,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6235,10 +6249,10 @@
       </c>
       <c r="Y31">
         <f>INT(POWER(X31+(Z31*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>2240</v>
       </c>
       <c r="Z31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA31">
         <f>INT(POWER(X31+(AB31*0.25),3))+40</f>
@@ -6282,9 +6296,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B32" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>99</v>
@@ -6359,10 +6373,10 @@
       </c>
       <c r="Y32">
         <f>INT(POWER(X32+(Z32*0.25),2)*35)</f>
-        <v>1839</v>
+        <v>2528</v>
       </c>
       <c r="Z32">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
@@ -6406,7 +6420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
         <v>102</v>
       </c>
@@ -6483,10 +6497,10 @@
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>2679</v>
+        <v>4044</v>
       </c>
       <c r="Z33">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
@@ -6530,12 +6544,12 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>106</v>
@@ -6600,12 +6614,12 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
@@ -6729,10 +6743,10 @@
         <v>138</v>
       </c>
       <c r="AN36" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>1</v>
       </c>
@@ -6809,17 +6823,17 @@
       </c>
       <c r="Y37">
         <f>INT(POWER(X37+(Z37*0.25),2)*35)</f>
-        <v>789</v>
+        <v>2528</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA37">
         <f>INT(POWER(X37+(AB37*0.25),3))+40</f>
-        <v>147</v>
+        <v>709</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC37">
         <f>INT(50+(X37+(AD37*0.25)-1)*POWER(X37+(AD37*0.25),0.5)*10)</f>
@@ -6856,7 +6870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
@@ -6923,7 +6937,7 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
@@ -6990,7 +7004,7 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
@@ -7057,7 +7071,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B41" s="12" t="s">
         <v>1</v>
       </c>
@@ -7124,7 +7138,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -7191,9 +7205,9 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B43" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>99</v>
@@ -7258,7 +7272,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B44" s="13" t="s">
         <v>102</v>
       </c>
@@ -7325,9 +7339,9 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B45" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>106</v>
@@ -7392,12 +7406,12 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B47" s="13" t="s">
         <v>147</v>
       </c>
@@ -7474,38 +7488,38 @@
       </c>
       <c r="Y47">
         <f t="shared" ref="Y47:Y52" si="78">INT(POWER(X47+(Z47*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>6144</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA47">
         <f t="shared" ref="AA47:AA52" si="79">INT(POWER(X47+(AB47*0.25),3))+40</f>
-        <v>230</v>
+        <v>601</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC47">
         <f t="shared" ref="AC47:AC52" si="80">INT(50+(X47+(AD47*0.25)-1)*POWER(X47+(AD47*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE47">
         <f t="shared" ref="AE47:AE52" si="81">INT(POWER(X47+(AF47*0.25),3))+40</f>
-        <v>230</v>
+        <v>2366</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG47">
         <f t="shared" ref="AG47:AG52" si="82">INT(50+(X47+(AH47*0.25)-1)*POWER(X47+(AH47*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI47">
         <f t="shared" ref="AI47:AI52" si="83">INT(5+(X47+(AJ47*0.25)-1)*POWER(X47+(AJ47*0.25),0.2))</f>
@@ -7521,10 +7535,10 @@
         <v>146</v>
       </c>
       <c r="AN47" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>1</v>
       </c>
@@ -7584,7 +7598,7 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>151</v>
@@ -7593,50 +7607,50 @@
         <v>152</v>
       </c>
       <c r="W48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X48">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Y48">
         <f t="shared" si="78"/>
-        <v>708</v>
+        <v>3677</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA48">
         <f t="shared" si="79"/>
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
         <f t="shared" si="80"/>
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE48">
         <f t="shared" si="81"/>
-        <v>131</v>
+        <v>1116</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG48">
         <f t="shared" si="82"/>
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI48">
         <f t="shared" si="83"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ48">
         <v>0</v>
@@ -7648,10 +7662,10 @@
         <v>154</v>
       </c>
       <c r="AN48" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B49" s="12" t="s">
         <v>1</v>
       </c>
@@ -7711,7 +7725,7 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="U49" s="13" t="s">
         <v>155</v>
@@ -7728,10 +7742,10 @@
       </c>
       <c r="Y49">
         <f t="shared" si="78"/>
-        <v>708</v>
+        <v>2528</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA49">
         <f t="shared" si="79"/>
@@ -7775,7 +7789,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
@@ -7835,7 +7849,7 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>158</v>
@@ -7852,10 +7866,10 @@
       </c>
       <c r="Y50">
         <f t="shared" si="78"/>
-        <v>708</v>
+        <v>2679</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA50">
         <f t="shared" si="79"/>
@@ -7899,10 +7913,10 @@
         <v>161</v>
       </c>
       <c r="AN50" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
@@ -7962,7 +7976,7 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>166</v>
@@ -7979,10 +7993,10 @@
       </c>
       <c r="Y51">
         <f t="shared" si="78"/>
-        <v>708</v>
+        <v>2835</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA51">
         <f t="shared" si="79"/>
@@ -8026,10 +8040,10 @@
         <v>169</v>
       </c>
       <c r="AN51" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
@@ -8089,7 +8103,7 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>162</v>
@@ -8106,10 +8120,10 @@
       </c>
       <c r="Y52">
         <f t="shared" si="78"/>
-        <v>708</v>
+        <v>3158</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA52">
         <f t="shared" si="79"/>
@@ -8153,10 +8167,10 @@
         <v>165</v>
       </c>
       <c r="AN52" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
         <v>1</v>
       </c>
@@ -8216,25 +8230,25 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.15">
       <c r="U54" s="13"/>
       <c r="V54" s="5"/>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
         <v>173</v>
       </c>
@@ -8311,10 +8325,10 @@
       </c>
       <c r="Y56">
         <f>INT(POWER(X56+(Z56*0.25),2)*35)</f>
-        <v>964</v>
+        <v>3158</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA56">
         <f>INT(POWER(X56+(AB56*0.25),3))+40</f>
@@ -8358,7 +8372,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B57" s="12" t="s">
         <v>1</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>177</v>
@@ -8435,10 +8449,10 @@
       </c>
       <c r="Y57">
         <f>INT(POWER(X57+(Z57*0.25),2)*35)</f>
-        <v>964</v>
+        <v>3158</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA57">
         <f>INT(POWER(X57+(AB57*0.25),3))+40</f>
@@ -8482,7 +8496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
@@ -8542,7 +8556,7 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>182</v>
@@ -8559,10 +8573,10 @@
       </c>
       <c r="Y58">
         <f>INT(POWER(X58+(Z58*0.25),2)*35)</f>
-        <v>964</v>
+        <v>3327</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA58">
         <f>INT(POWER(X58+(AB58*0.25),3))+40</f>
@@ -8606,7 +8620,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
         <v>1</v>
       </c>
@@ -8666,14 +8680,14 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B60" s="12" t="s">
         <v>1</v>
       </c>
@@ -8733,14 +8747,14 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
@@ -8800,14 +8814,14 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
       <c r="AL61" s="5"/>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B62" s="12" t="s">
         <v>1</v>
       </c>
@@ -8867,19 +8881,19 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B64" s="12" t="s">
         <v>1</v>
       </c>
@@ -8939,7 +8953,7 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>184</v>
@@ -8956,10 +8970,10 @@
       </c>
       <c r="Y64">
         <f>INT(POWER(X64+(Z64*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>3858</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA64">
         <f>INT(POWER(X64+(AB64*0.25),3))+40</f>
@@ -9003,7 +9017,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B65" s="12" t="s">
         <v>1</v>
       </c>
@@ -9063,7 +9077,7 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>187</v>
@@ -9080,10 +9094,10 @@
       </c>
       <c r="Y65">
         <f>INT(POWER(X65+(Z65*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>3858</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA65">
         <f>INT(POWER(X65+(AB65*0.25),3))+40</f>
@@ -9127,7 +9141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B66" s="12" t="s">
         <v>1</v>
       </c>
@@ -9187,14 +9201,14 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B67" s="12" t="s">
         <v>1</v>
       </c>
@@ -9254,14 +9268,14 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B68" s="12" t="s">
         <v>1</v>
       </c>
@@ -9321,14 +9335,14 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B69" s="12" t="s">
         <v>1</v>
       </c>
@@ -9388,23 +9402,23 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:40" s="9" customFormat="1">
+    <row r="70" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:40" s="9" customFormat="1">
+    <row r="71" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9526,9 +9540,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="U72" s="16" t="s">
         <v>198</v>
@@ -9592,9 +9606,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
@@ -9662,12 +9676,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B75" s="12" t="s">
         <v>1</v>
       </c>
@@ -9727,7 +9741,7 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="U75" s="16" t="s">
         <v>203</v>
@@ -9744,24 +9758,24 @@
       </c>
       <c r="Y75">
         <f>INT(POWER(X75+(Z75*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>6144</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA75">
         <f>INT(POWER(X75+(AB75*0.25),3))+40</f>
-        <v>383</v>
+        <v>1768</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC75">
         <f>INT(50+(X75+(AD75*0.25)-1)*POWER(X75+(AD75*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE75">
         <f>INT(POWER(X75+(AF75*0.25),3))+40</f>
@@ -9791,10 +9805,10 @@
         <v>206</v>
       </c>
       <c r="AN75" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
         <v>190</v>
       </c>
@@ -9871,10 +9885,10 @@
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>4044</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
@@ -9918,7 +9932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.15">
       <c r="U77" s="16" t="s">
         <v>213</v>
       </c>
@@ -9934,10 +9948,10 @@
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>4429</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
@@ -9981,7 +9995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B78" s="16"/>
       <c r="C78" s="6"/>
       <c r="R78" s="6"/>
@@ -10001,10 +10015,10 @@
       </c>
       <c r="Y78">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>4832</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
@@ -10048,12 +10062,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B80" s="12" t="s">
         <v>1</v>
       </c>
@@ -10113,7 +10127,7 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="U80" s="16" t="s">
         <v>218</v>
@@ -10130,24 +10144,24 @@
       </c>
       <c r="Y80">
         <f>INT(POWER(X80+(Z80*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>8682</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA80">
         <f>INT(POWER(X80+(AB80*0.25),3))+40</f>
-        <v>601</v>
+        <v>3946</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC80">
         <f>INT(50+(X80+(AD80*0.25)-1)*POWER(X80+(AD80*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE80">
         <f>INT(POWER(X80+(AF80*0.25),3))+40</f>
@@ -10177,10 +10191,10 @@
         <v>221</v>
       </c>
       <c r="AN80" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
         <v>207</v>
       </c>
@@ -10249,43 +10263,43 @@
         <v>223</v>
       </c>
       <c r="W81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X81">
         <f>1+(W81-1)*0.25</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y81">
         <f>INT(POWER(X81+(Z81*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>5252</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA81">
         <f>INT(POWER(X81+(AB81*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AB81">
         <v>0</v>
       </c>
       <c r="AC81">
         <f>INT(50+(X81+(AD81*0.25)-1)*POWER(X81+(AD81*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AD81">
         <v>0</v>
       </c>
       <c r="AE81">
         <f>INT(POWER(X81+(AF81*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AF81">
         <v>0</v>
       </c>
       <c r="AG81">
         <f>INT(50+(X81+(AH81*0.25)-1)*POWER(X81+(AH81*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AH81">
         <v>0</v>
@@ -10304,7 +10318,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R82" s="5"/>
       <c r="U82" s="16" t="s">
         <v>225</v>
@@ -10313,43 +10327,43 @@
         <v>226</v>
       </c>
       <c r="W82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X82">
         <f>1+(W82-1)*0.25</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y82">
         <f>INT(POWER(X82+(Z82*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>5252</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA82">
         <f>INT(POWER(X82+(AB82*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AB82">
         <v>0</v>
       </c>
       <c r="AC82">
         <f>INT(50+(X82+(AD82*0.25)-1)*POWER(X82+(AD82*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AD82">
         <v>0</v>
       </c>
       <c r="AE82">
         <f>INT(POWER(X82+(AF82*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AF82">
         <v>0</v>
       </c>
       <c r="AG82">
         <f>INT(50+(X82+(AH82*0.25)-1)*POWER(X82+(AH82*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AH82">
         <v>0</v>
@@ -10368,7 +10382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R83" s="5"/>
       <c r="U83" s="16" t="s">
         <v>229</v>
@@ -10385,10 +10399,10 @@
       </c>
       <c r="Y83">
         <f>INT(POWER(X83+(Z83*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>5468</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA83">
         <f>INT(POWER(X83+(AB83*0.25),3))+40</f>
@@ -10432,16 +10446,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:40" s="9" customFormat="1">
+    <row r="84" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:40" s="9" customFormat="1">
+    <row r="85" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10563,9 +10577,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
@@ -10630,9 +10644,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R87" s="5"/>
       <c r="U87" s="16" t="s">
@@ -10697,9 +10711,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R88" s="5"/>
       <c r="U88" s="16" t="s">
@@ -10764,12 +10778,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="s">
         <v>1</v>
       </c>
@@ -10829,7 +10843,7 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="U90" s="16" t="s">
         <v>242</v>
@@ -10846,24 +10860,24 @@
       </c>
       <c r="Y90">
         <f>INT(POWER(X90+(Z90*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>6144</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA90">
         <f>INT(POWER(X90+(AB90*0.25),3))+40</f>
-        <v>383</v>
+        <v>1768</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC90">
         <f>INT(50+(X90+(AD90*0.25)-1)*POWER(X90+(AD90*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE90">
         <f>INT(POWER(X90+(AF90*0.25),3))+40</f>
@@ -10893,10 +10907,10 @@
         <v>245</v>
       </c>
       <c r="AN90" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B91" s="16" t="s">
         <v>246</v>
       </c>
@@ -10956,7 +10970,7 @@
         <v>102105</v>
       </c>
       <c r="S91" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="U91" s="16" t="s">
         <v>248</v>
@@ -11020,7 +11034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B92" s="16"/>
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
@@ -11086,7 +11100,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B93" s="16"/>
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
@@ -11152,12 +11166,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B95" s="12" t="s">
         <v>1</v>
       </c>
@@ -11217,7 +11231,7 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U95" s="16" t="s">
         <v>257</v>
@@ -11234,17 +11248,17 @@
       </c>
       <c r="Y95">
         <f>INT(POWER(X95+(Z95*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>5040</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA95">
         <f>INT(POWER(X95+(AB95*0.25),3))+40</f>
-        <v>601</v>
+        <v>1768</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC95">
         <f>INT(50+(X95+(AD95*0.25)-1)*POWER(X95+(AD95*0.25),0.5)*10)</f>
@@ -11281,7 +11295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B96" s="16"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -11306,43 +11320,43 @@
         <v>261</v>
       </c>
       <c r="W96">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X96">
         <f>1+(W96-1)*0.25</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y96">
         <f>INT(POWER(X96+(Z96*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>1594</v>
       </c>
       <c r="Z96">
         <v>0</v>
       </c>
       <c r="AA96">
         <f>INT(POWER(X96+(AB96*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AB96">
         <v>0</v>
       </c>
       <c r="AC96">
         <f>INT(50+(X96+(AD96*0.25)-1)*POWER(X96+(AD96*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AD96">
         <v>0</v>
       </c>
       <c r="AE96">
         <f>INT(POWER(X96+(AF96*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AF96">
         <v>0</v>
       </c>
       <c r="AG96">
         <f>INT(50+(X96+(AH96*0.25)-1)*POWER(X96+(AH96*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AH96">
         <v>0</v>
@@ -11361,7 +11375,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B97" s="16"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -11386,43 +11400,43 @@
         <v>264</v>
       </c>
       <c r="W97">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X97">
         <f>1+(W97-1)*0.25</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y97">
         <f>INT(POWER(X97+(Z97*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>1594</v>
       </c>
       <c r="Z97">
         <v>0</v>
       </c>
       <c r="AA97">
         <f>INT(POWER(X97+(AB97*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AB97">
         <v>0</v>
       </c>
       <c r="AC97">
         <f>INT(50+(X97+(AD97*0.25)-1)*POWER(X97+(AD97*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AD97">
         <v>0</v>
       </c>
       <c r="AE97">
         <f>INT(POWER(X97+(AF97*0.25),3))+40</f>
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="AF97">
         <v>0</v>
       </c>
       <c r="AG97">
         <f>INT(50+(X97+(AH97*0.25)-1)*POWER(X97+(AH97*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AH97">
         <v>0</v>
@@ -11441,7 +11455,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B98" s="16"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -11521,16 +11535,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:39" s="9" customFormat="1">
+    <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
     </row>
-    <row r="100" spans="1:39" s="9" customFormat="1">
+    <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
@@ -11652,9 +11666,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:39" s="9" customFormat="1">
+    <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>272</v>
@@ -11779,9 +11793,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:39" s="9" customFormat="1">
+    <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>279</v>
@@ -11906,9 +11920,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="6"/>
@@ -11976,16 +11990,16 @@
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="1:39" s="9" customFormat="1">
+    <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
     </row>
-    <row r="105" spans="1:39" s="9" customFormat="1">
+    <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -12107,9 +12121,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:39" s="9" customFormat="1">
+    <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>292</v>
@@ -12234,9 +12248,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:39" s="9" customFormat="1">
+    <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>298</v>
@@ -12361,9 +12375,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="6"/>
@@ -12431,16 +12445,16 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:39" s="9" customFormat="1">
+    <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
-    <row r="110" spans="1:39" s="9" customFormat="1">
+    <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12562,9 +12576,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:39" s="9" customFormat="1">
+    <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>310</v>
@@ -12689,9 +12703,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
@@ -12759,9 +12773,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
@@ -12829,12 +12843,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B115" s="12" t="s">
         <v>1</v>
       </c>
@@ -12894,7 +12908,7 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U115" s="16" t="s">
         <v>322</v>
@@ -12911,10 +12925,10 @@
       </c>
       <c r="Y115">
         <f>INT(POWER(X115+(Z115*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>6144</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA115">
         <f>INT(POWER(X115+(AB115*0.25),3))+40</f>
@@ -12932,17 +12946,17 @@
       </c>
       <c r="AE115">
         <f>INT(POWER(X115+(AF115*0.25),3))+40</f>
-        <v>383</v>
+        <v>1768</v>
       </c>
       <c r="AF115">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG115">
         <f>INT(50+(X115+(AH115*0.25)-1)*POWER(X115+(AH115*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="AH115">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI115">
         <f>INT(5+(X115+(AJ115*0.25)-1)*POWER(X115+(AJ115*0.25),0.2))</f>
@@ -12958,10 +12972,10 @@
         <v>325</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B116" s="16" t="s">
         <v>326</v>
       </c>
@@ -13085,7 +13099,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:40">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B117" s="16"/>
       <c r="C117" s="6"/>
       <c r="R117" s="6"/>
@@ -13152,17 +13166,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D119" s="7">
         <v>12</v>
@@ -13210,7 +13224,7 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="U119" s="16" t="s">
         <v>335</v>
@@ -13227,10 +13241,10 @@
       </c>
       <c r="Y119">
         <f>INT(POWER(X119+(Z119*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>8682</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA119">
         <f>INT(POWER(X119+(AB119*0.25),3))+40</f>
@@ -13248,17 +13262,17 @@
       </c>
       <c r="AE119">
         <f>INT(POWER(X119+(AF119*0.25),3))+40</f>
-        <v>601</v>
+        <v>3946</v>
       </c>
       <c r="AF119">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG119">
         <f>INT(50+(X119+(AH119*0.25)-1)*POWER(X119+(AH119*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="AH119">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI119">
         <f>INT(5+(X119+(AJ119*0.25)-1)*POWER(X119+(AJ119*0.25),0.2))</f>
@@ -13274,10 +13288,10 @@
         <v>338</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B120" s="16" t="s">
         <v>339</v>
       </c>
@@ -13401,7 +13415,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:40">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
         <v>345</v>
       </c>
@@ -13525,7 +13539,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:40">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
         <v>350</v>
       </c>
@@ -13649,12 +13663,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:40">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="124" spans="1:40">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B124" s="12" t="s">
         <v>1</v>
       </c>
@@ -13714,7 +13728,7 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="U124" s="16" t="s">
         <v>355</v>
@@ -13731,10 +13745,10 @@
       </c>
       <c r="Y124">
         <f>INT(POWER(X124+(Z124*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>6144</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA124">
         <f>INT(POWER(X124+(AB124*0.25),3))+40</f>
@@ -13752,17 +13766,17 @@
       </c>
       <c r="AE124">
         <f>INT(POWER(X124+(AF124*0.25),3))+40</f>
-        <v>383</v>
+        <v>1768</v>
       </c>
       <c r="AF124">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG124">
         <f>INT(50+(X124+(AH124*0.25)-1)*POWER(X124+(AH124*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="AH124">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI124">
         <f>INT(5+(X124+(AJ124*0.25)-1)*POWER(X124+(AJ124*0.25),0.2))</f>
@@ -13778,10 +13792,10 @@
         <v>358</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="125" spans="1:40">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B125" s="16" t="s">
         <v>359</v>
       </c>
@@ -13905,7 +13919,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B126" s="16"/>
       <c r="C126" s="6"/>
       <c r="R126" s="6"/>
@@ -13972,17 +13986,17 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D128" s="7">
         <v>12</v>
@@ -14030,7 +14044,7 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U128" s="16" t="s">
         <v>368</v>
@@ -14047,10 +14061,10 @@
       </c>
       <c r="Y128">
         <f>INT(POWER(X128+(Z128*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>8682</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA128">
         <f>INT(POWER(X128+(AB128*0.25),3))+40</f>
@@ -14068,17 +14082,17 @@
       </c>
       <c r="AE128">
         <f>INT(POWER(X128+(AF128*0.25),3))+40</f>
-        <v>601</v>
+        <v>3946</v>
       </c>
       <c r="AF128">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG128">
         <f>INT(50+(X128+(AH128*0.25)-1)*POWER(X128+(AH128*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="AH128">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI128">
         <f>INT(5+(X128+(AJ128*0.25)-1)*POWER(X128+(AJ128*0.25),0.2))</f>
@@ -14094,10 +14108,10 @@
         <v>371</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="129" spans="1:40">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R129" s="5"/>
       <c r="U129" s="16" t="s">
         <v>372</v>
@@ -14161,7 +14175,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:40">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
         <v>375</v>
@@ -14225,12 +14239,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="131" spans="1:40">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="132" spans="1:40">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B132" s="12" t="s">
         <v>1</v>
       </c>
@@ -14290,7 +14304,7 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="U132" s="16" t="s">
         <v>378</v>
@@ -14307,10 +14321,10 @@
       </c>
       <c r="Y132">
         <f>INT(POWER(X132+(Z132*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>7358</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA132">
         <f>INT(POWER(X132+(AB132*0.25),3))+40</f>
@@ -14328,17 +14342,17 @@
       </c>
       <c r="AE132">
         <f>INT(POWER(X132+(AF132*0.25),3))+40</f>
-        <v>383</v>
+        <v>3088</v>
       </c>
       <c r="AF132">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG132">
         <f>INT(50+(X132+(AH132*0.25)-1)*POWER(X132+(AH132*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>564</v>
       </c>
       <c r="AH132">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI132">
         <f>INT(5+(X132+(AJ132*0.25)-1)*POWER(X132+(AJ132*0.25),0.2))</f>
@@ -14354,10 +14368,10 @@
         <v>380</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="133" spans="1:40">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B133" s="16" t="s">
         <v>381</v>
       </c>
@@ -14481,7 +14495,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:40">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
         <v>387</v>
       </c>
@@ -14605,7 +14619,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="135" spans="1:40">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B135" s="16"/>
       <c r="C135" s="6"/>
       <c r="R135" s="6"/>
@@ -14672,17 +14686,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:40">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="137" spans="1:40">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B137" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D137" s="7">
         <v>12</v>
@@ -14730,7 +14744,7 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U137" s="16" t="s">
         <v>396</v>
@@ -14747,10 +14761,10 @@
       </c>
       <c r="Y137">
         <f>INT(POWER(X137+(Z137*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>8682</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA137">
         <f>INT(POWER(X137+(AB137*0.25),3))+40</f>
@@ -14768,17 +14782,17 @@
       </c>
       <c r="AE137">
         <f>INT(POWER(X137+(AF137*0.25),3))+40</f>
-        <v>601</v>
+        <v>3946</v>
       </c>
       <c r="AF137">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG137">
         <f>INT(50+(X137+(AH137*0.25)-1)*POWER(X137+(AH137*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="AH137">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI137">
         <f>INT(5+(X137+(AJ137*0.25)-1)*POWER(X137+(AJ137*0.25),0.2))</f>
@@ -14794,10 +14808,10 @@
         <v>399</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="138" spans="1:40">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B138" s="16" t="s">
         <v>381</v>
       </c>
@@ -14921,7 +14935,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:40">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B139" s="16" t="s">
         <v>387</v>
       </c>
@@ -15045,7 +15059,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:40">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B140" s="16"/>
       <c r="C140" s="6"/>
       <c r="R140" s="6"/>
@@ -15112,16 +15126,16 @@
         <v>408</v>
       </c>
     </row>
-    <row r="141" spans="1:40" s="9" customFormat="1">
+    <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:40" s="9" customFormat="1">
+    <row r="142" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -15243,9 +15257,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:40" s="9" customFormat="1">
+    <row r="143" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>413</v>
@@ -15370,9 +15384,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="144" spans="1:40" s="9" customFormat="1">
+    <row r="144" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>420</v>
@@ -15497,12 +15511,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:40">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="146" spans="1:40">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B146" s="12" t="s">
         <v>1</v>
       </c>
@@ -15562,7 +15576,7 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="U146" s="16" t="s">
         <v>426</v>
@@ -15579,10 +15593,10 @@
       </c>
       <c r="Y146">
         <f>INT(POWER(X146+(Z146*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>7358</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA146">
         <f>INT(POWER(X146+(AB146*0.25),3))+40</f>
@@ -15600,17 +15614,17 @@
       </c>
       <c r="AE146">
         <f>INT(POWER(X146+(AF146*0.25),3))+40</f>
-        <v>383</v>
+        <v>3088</v>
       </c>
       <c r="AF146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG146">
         <f>INT(50+(X146+(AH146*0.25)-1)*POWER(X146+(AH146*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>564</v>
       </c>
       <c r="AH146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI146">
         <f>INT(5+(X146+(AJ146*0.25)-1)*POWER(X146+(AJ146*0.25),0.2))</f>
@@ -15626,10 +15640,10 @@
         <v>429</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="147" spans="1:40">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B147" s="16" t="s">
         <v>430</v>
       </c>
@@ -15753,7 +15767,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:40">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
         <v>436</v>
       </c>
@@ -15877,7 +15891,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:40">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B149" s="16"/>
       <c r="C149" s="6"/>
       <c r="R149" s="6"/>
@@ -15944,16 +15958,16 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:40" s="9" customFormat="1">
+    <row r="150" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:40" s="9" customFormat="1">
+    <row r="151" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>1</v>
@@ -16075,9 +16089,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:40" s="9" customFormat="1">
+    <row r="152" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>458</v>
@@ -16202,9 +16216,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:40" s="9" customFormat="1">
+    <row r="153" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>466</v>
@@ -16329,9 +16343,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:40">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="U154" s="16" t="s">
         <v>470</v>
@@ -16395,9 +16409,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="155" spans="1:40">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="6"/>
@@ -16465,9 +16479,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="156" spans="1:40">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
@@ -16535,9 +16549,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:40">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
@@ -16605,17 +16619,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:40">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
-    <row r="159" spans="1:40">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B159" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D159" s="7">
         <v>12</v>
@@ -16663,7 +16677,7 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U159" s="16" t="s">
         <v>483</v>
@@ -16680,10 +16694,10 @@
       </c>
       <c r="Y159">
         <f>INT(POWER(X159+(Z159*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>8682</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA159">
         <f>INT(POWER(X159+(AB159*0.25),3))+40</f>
@@ -16701,17 +16715,17 @@
       </c>
       <c r="AE159">
         <f>INT(POWER(X159+(AF159*0.25),3))+40</f>
-        <v>601</v>
+        <v>3946</v>
       </c>
       <c r="AF159">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG159">
         <f>INT(50+(X159+(AH159*0.25)-1)*POWER(X159+(AH159*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="AH159">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI159">
         <f>INT(5+(X159+(AJ159*0.25)-1)*POWER(X159+(AJ159*0.25),0.2))</f>
@@ -16727,10 +16741,10 @@
         <v>486</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="160" spans="1:40">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B160" s="16" t="s">
         <v>450</v>
       </c>
@@ -16854,7 +16868,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="161" spans="1:40">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
         <v>490</v>
@@ -16918,7 +16932,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:40">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
         <v>495</v>
@@ -16982,12 +16996,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="163" spans="1:40">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="164" spans="1:40">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
         <v>499</v>
       </c>
@@ -17111,7 +17125,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="165" spans="1:40">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
         <v>501</v>
       </c>
@@ -17235,7 +17249,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:40">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B166" s="12" t="s">
         <v>1</v>
       </c>
@@ -17295,7 +17309,7 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="U166" s="16" t="s">
         <v>511</v>
@@ -17359,7 +17373,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="167" spans="1:40">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B167" s="12" t="s">
         <v>1</v>
       </c>
@@ -17419,7 +17433,7 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U167" s="16" t="s">
         <v>512</v>
@@ -17483,12 +17497,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="168" spans="1:40">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17536,19 +17550,19 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="U168" s="16"/>
       <c r="V168" s="6"/>
       <c r="AL168" s="6"/>
       <c r="AM168" s="6"/>
     </row>
-    <row r="169" spans="1:40">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17596,19 +17610,19 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
       <c r="AL169" s="6"/>
       <c r="AM169" s="6"/>
     </row>
-    <row r="170" spans="1:40">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17656,19 +17670,19 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
       <c r="AL170" s="6"/>
       <c r="AM170" s="6"/>
     </row>
-    <row r="171" spans="1:40">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17716,19 +17730,19 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
       <c r="AL171" s="6"/>
       <c r="AM171" s="6"/>
     </row>
-    <row r="172" spans="1:40">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:40">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B173" s="12" t="s">
         <v>1</v>
       </c>
@@ -17788,74 +17802,74 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="U173" s="16" t="s">
         <v>515</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="W173">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X173">
         <f t="shared" ref="X173:X179" si="105">1+(W173-1)*0.25</f>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y173">
         <f t="shared" ref="Y173:Y179" si="106">INT(POWER(X173+(Z173*0.25),2)*35)</f>
-        <v>3158</v>
+        <v>15069</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA173">
         <f t="shared" ref="AA173:AA179" si="107">INT(POWER(X173+(AB173*0.25),3))+40</f>
-        <v>897</v>
+        <v>1768</v>
       </c>
       <c r="AB173">
         <v>0</v>
       </c>
       <c r="AC173">
         <f t="shared" ref="AC173:AC179" si="108">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="AD173">
         <v>0</v>
       </c>
       <c r="AE173">
         <f t="shared" ref="AE173:AE179" si="109">INT(POWER(X173+(AF173*0.25),3))+40</f>
-        <v>897</v>
+        <v>8974</v>
       </c>
       <c r="AF173">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AG173">
         <f t="shared" ref="AG173:AG179" si="110">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
-        <v>311</v>
+        <v>949</v>
       </c>
       <c r="AH173">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AI173">
         <f t="shared" ref="AI173:AI179" si="111">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AJ173">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL173" s="6" t="s">
         <v>227</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="174" spans="1:40">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B174" s="12" t="s">
         <v>1</v>
       </c>
@@ -17915,79 +17929,79 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U174" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="V174" s="6" t="s">
-        <v>519</v>
-      </c>
       <c r="W174">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X174">
         <f t="shared" si="105"/>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y174">
         <f t="shared" si="106"/>
-        <v>3158</v>
+        <v>15069</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA174">
         <f t="shared" si="107"/>
-        <v>897</v>
+        <v>8974</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC174">
         <f t="shared" si="108"/>
-        <v>311</v>
+        <v>949</v>
       </c>
       <c r="AD174">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AE174">
         <f t="shared" si="109"/>
-        <v>897</v>
+        <v>1768</v>
       </c>
       <c r="AF174">
         <v>0</v>
       </c>
       <c r="AG174">
         <f t="shared" si="110"/>
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
       <c r="AI174">
         <f t="shared" si="111"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AJ174">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL174" s="6" t="s">
         <v>227</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="175" spans="1:40">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -18035,79 +18049,79 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="U175" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>521</v>
+        <v>625</v>
       </c>
       <c r="W175">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X175">
         <f t="shared" si="105"/>
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="Y175">
         <f t="shared" si="106"/>
-        <v>4044</v>
+        <v>18919</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA175">
         <f t="shared" si="107"/>
-        <v>1282</v>
+        <v>12608</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC175">
         <f t="shared" si="108"/>
-        <v>369</v>
+        <v>1122</v>
       </c>
       <c r="AD175">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE175">
         <f t="shared" si="109"/>
-        <v>1282</v>
+        <v>2366</v>
       </c>
       <c r="AF175">
         <v>0</v>
       </c>
       <c r="AG175">
         <f t="shared" si="110"/>
-        <v>369</v>
+        <v>786</v>
       </c>
       <c r="AH175">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI175">
         <f t="shared" si="111"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL175" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="176" spans="1:40">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -18155,13 +18169,13 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U176" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -18172,10 +18186,10 @@
       </c>
       <c r="Y176">
         <f t="shared" si="106"/>
-        <v>2382</v>
+        <v>6144</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA176">
         <f t="shared" si="107"/>
@@ -18216,15 +18230,15 @@
         <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="177" spans="1:40">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -18272,13 +18286,13 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U177" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="V177" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="W177">
         <v>30</v>
@@ -18289,10 +18303,10 @@
       </c>
       <c r="Y177">
         <f t="shared" si="106"/>
-        <v>2382</v>
+        <v>6144</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA177">
         <f t="shared" si="107"/>
@@ -18330,18 +18344,18 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:40">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18389,13 +18403,13 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U178" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V178" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W178">
         <v>30</v>
@@ -18406,10 +18420,10 @@
       </c>
       <c r="Y178">
         <f t="shared" si="106"/>
-        <v>2382</v>
+        <v>6144</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA178">
         <f t="shared" si="107"/>
@@ -18450,16 +18464,16 @@
         <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="179" spans="1:40">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V179" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W179">
         <v>30</v>
@@ -18470,10 +18484,10 @@
       </c>
       <c r="Y179">
         <f t="shared" si="106"/>
-        <v>2382</v>
+        <v>6144</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA179">
         <f t="shared" si="107"/>
@@ -18514,15 +18528,15 @@
         <v>227</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="180" spans="1:40">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="181" spans="1:40">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B181" s="12" t="s">
         <v>1</v>
       </c>
@@ -18582,74 +18596,74 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="U181" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="V181" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W181">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X181">
         <f t="shared" ref="X181:X187" si="112">1+(W181-1)*0.25</f>
-        <v>12</v>
+        <v>15.75</v>
       </c>
       <c r="Y181">
         <f t="shared" ref="Y181:Y187" si="113">INT(POWER(X181+(Z181*0.25),2)*35)</f>
-        <v>5040</v>
+        <v>25515</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AA181">
         <f t="shared" ref="AA181:AA187" si="114">INT(POWER(X181+(AB181*0.25),3))+40</f>
-        <v>1768</v>
+        <v>19723</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC181">
         <f t="shared" ref="AC181:AC187" si="115">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>1400</v>
       </c>
       <c r="AD181">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE181">
         <f t="shared" ref="AE181:AE187" si="116">INT(POWER(X181+(AF181*0.25),3))+40</f>
-        <v>1768</v>
+        <v>3946</v>
       </c>
       <c r="AF181">
         <v>0</v>
       </c>
       <c r="AG181">
         <f t="shared" ref="AG181:AG187" si="117">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>1122</v>
       </c>
       <c r="AH181">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI181">
         <f t="shared" ref="AI181:AI187" si="118">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AJ181">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL181" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="182" spans="1:40">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B182" s="12" t="s">
         <v>1</v>
       </c>
@@ -18709,79 +18723,79 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="U182" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W182">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="X182">
         <f t="shared" si="112"/>
-        <v>13.25</v>
+        <v>20.75</v>
       </c>
       <c r="Y182">
         <f t="shared" si="113"/>
-        <v>6144</v>
+        <v>58119</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA182">
         <f t="shared" si="114"/>
-        <v>2366</v>
+        <v>67707</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AC182">
         <f t="shared" si="115"/>
-        <v>495</v>
+        <v>2587</v>
       </c>
       <c r="AD182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE182">
         <f t="shared" si="116"/>
-        <v>2366</v>
+        <v>67707</v>
       </c>
       <c r="AF182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG182">
         <f t="shared" si="117"/>
-        <v>495</v>
+        <v>2587</v>
       </c>
       <c r="AH182">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI182">
         <f t="shared" si="118"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AJ182">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL182" s="6" t="s">
         <v>227</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="183" spans="1:40">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18829,13 +18843,13 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W183">
         <v>30</v>
@@ -18890,15 +18904,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="184" spans="1:40">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -18946,13 +18960,13 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W184">
         <v>35</v>
@@ -19007,15 +19021,15 @@
         <v>179</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
-    <row r="185" spans="1:40">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -19063,13 +19077,13 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W185">
         <v>35</v>
@@ -19124,15 +19138,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="186" spans="1:40">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -19180,13 +19194,13 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W186">
         <v>35</v>
@@ -19241,16 +19255,16 @@
         <v>227</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="187" spans="1:40">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W187">
         <v>35</v>
@@ -19302,20 +19316,15 @@
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AM187" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-1020" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -3541,9 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG187" sqref="AG187"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4121,50 +4121,50 @@
         <v>60</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <f>1+(W6-1)*0.25</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
-        <v>369</v>
+        <v>632</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
         <v>256</v>
       </c>
       <c r="AB6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC6">
         <f>INT(50+(X6+(AD6*0.25)-1)*POWER(X6+(AD6*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE6">
         <f>INT(POWER(X6+(AF6*0.25),3))+40</f>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
         <f>INT(50+(X6+(AH6*0.25)-1)*POWER(X6+(AH6*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
         <f>INT(5+(X6+(AJ6*0.25)-1)*POWER(X6+(AJ6*0.25),0.2))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -4245,50 +4245,50 @@
         <v>62</v>
       </c>
       <c r="W7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <f>1+(W7-1)*0.25</f>
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y7">
         <f>INT(POWER(X7+(Z7*0.25),2)*35)</f>
-        <v>492</v>
+        <v>789</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
         <v>314</v>
       </c>
       <c r="AB7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7">
         <f>INT(POWER(X7+(AF7*0.25),3))+40</f>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
         <f>INT(50+(X7+(AH7*0.25)-1)*POWER(X7+(AH7*0.25),0.5)*10)</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
         <f>INT(5+(X7+(AJ7*0.25)-1)*POWER(X7+(AJ7*0.25),0.2))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -4374,50 +4374,50 @@
         <v>90</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X9">
         <f>1+(W9-1)*0.25</f>
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y9">
         <f>INT(POWER(X9+(Z9*0.25),2)*35)</f>
-        <v>708</v>
+        <v>964</v>
       </c>
       <c r="Z9">
         <v>7</v>
       </c>
       <c r="AA9">
         <f>INT(POWER(X9+(AB9*0.25),3))+40</f>
-        <v>256</v>
+        <v>461</v>
       </c>
       <c r="AB9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC9">
         <f>INT(50+(X9+(AD9*0.25)-1)*POWER(X9+(AD9*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9">
         <f>INT(POWER(X9+(AF9*0.25),3))+40</f>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
         <f>INT(50+(X9+(AH9*0.25)-1)*POWER(X9+(AH9*0.25),0.5)*10)</f>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
         <f>INT(5+(X9+(AJ9*0.25)-1)*POWER(X9+(AJ9*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -4498,50 +4498,50 @@
         <v>95</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X10">
         <f>1+(W10-1)*0.25</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y10">
         <f>INT(POWER(X10+(Z10*0.25),2)*35)</f>
-        <v>875</v>
+        <v>1157</v>
       </c>
       <c r="Z10">
         <v>8</v>
       </c>
       <c r="AA10">
         <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="AB10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC10">
         <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE10">
         <f>INT(POWER(X10+(AF10*0.25),3))+40</f>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
         <f>INT(50+(X10+(AH10*0.25)-1)*POWER(X10+(AH10*0.25),0.5)*10)</f>
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
         <f>INT(5+(X10+(AJ10*0.25)-1)*POWER(X10+(AJ10*0.25),0.2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4622,53 +4622,53 @@
         <v>98</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X11">
         <f>1+(W11-1)*0.25</f>
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Y11">
         <f>INT(POWER(X11+(Z11*0.25),2)*35)</f>
-        <v>1058</v>
+        <v>1968</v>
       </c>
       <c r="Z11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA11">
         <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
-        <v>461</v>
+        <v>897</v>
       </c>
       <c r="AB11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC11">
         <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE11">
         <f>INT(POWER(X11+(AF11*0.25),3))+40</f>
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
         <f>INT(50+(X11+(AH11*0.25)-1)*POWER(X11+(AH11*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
         <f>INT(5+(X11+(AJ11*0.25)-1)*POWER(X11+(AJ11*0.25),0.2))</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL11" s="5" t="s">
         <v>63</v>
@@ -4730,8 +4730,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="41"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -4811,6 +4810,9 @@
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="5"/>
+      <c r="AD13">
+        <v>5</v>
+      </c>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
@@ -4822,50 +4824,50 @@
         <v>78</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <f t="shared" si="35"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="36"/>
-        <v>1026</v>
+        <v>1371</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
         <f t="shared" si="37"/>
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
         <f t="shared" si="38"/>
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14">
         <f t="shared" si="39"/>
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="40"/>
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
         <f t="shared" si="41"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4904,10 +4906,10 @@
       </c>
       <c r="H15">
         <f t="shared" si="37"/>
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <f t="shared" si="38"/>
@@ -5089,53 +5091,53 @@
         <v>109</v>
       </c>
       <c r="W18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X18">
         <f>1+(W18-1)*0.25</f>
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Y18">
         <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
-        <v>2528</v>
+        <v>7358</v>
       </c>
       <c r="Z18">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
         <v>3088</v>
       </c>
       <c r="AB18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC18">
         <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>495</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE18">
         <f>INT(POWER(X18+(AF18*0.25),3))+40</f>
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
         <f>INT(50+(X18+(AH18*0.25)-1)*POWER(X18+(AH18*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
       <c r="AI18">
         <f>INT(5+(X18+(AJ18*0.25)-1)*POWER(X18+(AJ18*0.25),0.2))</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL18" s="5">
         <v>200027</v>
@@ -5216,53 +5218,53 @@
         <v>111</v>
       </c>
       <c r="W19">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="X19">
         <f>1+(W19-1)*0.25</f>
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="Y19">
         <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
-        <v>3158</v>
+        <v>9242</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
-        <v>897</v>
+        <v>2639</v>
       </c>
       <c r="AB19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC19">
         <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
-        <v>709</v>
+        <v>818</v>
       </c>
       <c r="AD19">
         <v>50</v>
       </c>
       <c r="AE19">
         <f>INT(POWER(X19+(AF19*0.25),3))+40</f>
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
       <c r="AG19">
         <f>INT(50+(X19+(AH19*0.25)-1)*POWER(X19+(AH19*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
         <f>INT(5+(X19+(AJ19*0.25)-1)*POWER(X19+(AJ19*0.25),0.2))</f>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>110</v>
@@ -5282,50 +5284,50 @@
         <v>99</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <f t="shared" si="42"/>
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="F20">
         <f t="shared" si="43"/>
-        <v>876</v>
+        <v>3507</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <f t="shared" si="44"/>
-        <v>180</v>
+        <v>1170</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <f t="shared" si="45"/>
-        <v>103</v>
+        <v>635</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <f t="shared" si="46"/>
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
         <f t="shared" si="47"/>
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="48"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5343,50 +5345,50 @@
         <v>114</v>
       </c>
       <c r="W20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X20">
         <f>1+(W20-1)*0.25</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Y20">
         <f>INT(POWER(X20+(Z20*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>1839</v>
       </c>
       <c r="Z20">
         <v>10</v>
       </c>
       <c r="AA20">
         <f>INT(POWER(X20+(AB20*0.25),3))+40</f>
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC20">
         <f>INT(50+(X20+(AD20*0.25)-1)*POWER(X20+(AD20*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE20">
         <f>INT(POWER(X20+(AF20*0.25),3))+40</f>
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
         <f>INT(50+(X20+(AH20*0.25)-1)*POWER(X20+(AH20*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
         <f>INT(5+(X20+(AJ20*0.25)-1)*POWER(X20+(AJ20*0.25),0.2))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -5467,50 +5469,50 @@
         <v>116</v>
       </c>
       <c r="W21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X21">
         <f>1+(W21-1)*0.25</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="Y21">
         <f>INT(POWER(X21+(Z21*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>2679</v>
       </c>
       <c r="Z21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA21">
         <f>INT(POWER(X21+(AB21*0.25),3))+40</f>
-        <v>116</v>
+        <v>2237</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC21">
         <f>INT(50+(X21+(AD21*0.25)-1)*POWER(X21+(AD21*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>334</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE21">
         <f>INT(POWER(X21+(AF21*0.25),3))+40</f>
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
         <f>INT(50+(X21+(AH21*0.25)-1)*POWER(X21+(AH21*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
         <f>INT(5+(X21+(AJ21*0.25)-1)*POWER(X21+(AJ21*0.25),0.2))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="626">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3541,9 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5099,24 +5099,24 @@
       </c>
       <c r="Y18">
         <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
-        <v>7358</v>
+        <v>6144</v>
       </c>
       <c r="Z18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
-        <v>3088</v>
+        <v>1768</v>
       </c>
       <c r="AB18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AC18">
         <f>INT(50+(X18+(AD18*0.25)-1)*POWER(X18+(AD18*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>311</v>
       </c>
       <c r="AD18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE18">
         <f>INT(POWER(X18+(AF18*0.25),3))+40</f>
@@ -5134,10 +5134,10 @@
       </c>
       <c r="AI18">
         <f>INT(5+(X18+(AJ18*0.25)-1)*POWER(X18+(AJ18*0.25),0.2))</f>
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AJ18">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AL18" s="5">
         <v>200027</v>
@@ -5226,24 +5226,24 @@
       </c>
       <c r="Y19">
         <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>7875</v>
       </c>
       <c r="Z19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
-        <v>2639</v>
+        <v>1662</v>
       </c>
       <c r="AB19">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AC19">
         <f>INT(50+(X19+(AD19*0.25)-1)*POWER(X19+(AD19*0.25),0.5)*10)</f>
-        <v>818</v>
+        <v>456</v>
       </c>
       <c r="AD19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AE19">
         <f>INT(POWER(X19+(AF19*0.25),3))+40</f>
@@ -5261,10 +5261,10 @@
       </c>
       <c r="AI19">
         <f>INT(5+(X19+(AJ19*0.25)-1)*POWER(X19+(AJ19*0.25),0.2))</f>
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AJ19">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>110</v>
@@ -5292,24 +5292,24 @@
       </c>
       <c r="F20">
         <f t="shared" si="43"/>
-        <v>3507</v>
+        <v>2120</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <f t="shared" si="44"/>
-        <v>1170</v>
+        <v>450</v>
       </c>
       <c r="I20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <f t="shared" si="45"/>
-        <v>635</v>
+        <v>369</v>
       </c>
       <c r="K20">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <f t="shared" si="46"/>
@@ -5408,50 +5408,50 @@
         <v>103</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="F21">
         <f t="shared" si="43"/>
-        <v>1026</v>
+        <v>2367</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <f t="shared" si="44"/>
-        <v>256</v>
+        <v>546</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J21">
         <f t="shared" si="45"/>
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L21">
         <f t="shared" si="46"/>
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
         <f t="shared" si="47"/>
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="48"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5484,10 +5484,10 @@
       </c>
       <c r="AA21">
         <f>INT(POWER(X21+(AB21*0.25),3))+40</f>
-        <v>2237</v>
+        <v>1040</v>
       </c>
       <c r="AB21">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AC21">
         <f>INT(50+(X21+(AD21*0.25)-1)*POWER(X21+(AD21*0.25),0.5)*10)</f>
@@ -5532,50 +5532,50 @@
         <v>106</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="F22">
         <f t="shared" si="43"/>
-        <v>1107</v>
+        <v>3051</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <f t="shared" si="44"/>
-        <v>243</v>
+        <v>526</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <f t="shared" si="45"/>
-        <v>147</v>
+        <v>522</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L22">
         <f t="shared" si="46"/>
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <f t="shared" si="47"/>
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
         <f t="shared" si="48"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -5665,53 +5665,53 @@
         <v>120</v>
       </c>
       <c r="W24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X24">
         <f>1+(W24-1)*0.25</f>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Y24">
         <f>INT(POWER(X24+(Z24*0.25),2)*35)</f>
-        <v>1968</v>
+        <v>5689</v>
       </c>
       <c r="Z24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA24">
         <f>INT(POWER(X24+(AB24*0.25),3))+40</f>
-        <v>654</v>
+        <v>1282</v>
       </c>
       <c r="AB24">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AC24">
         <f>INT(50+(X24+(AD24*0.25)-1)*POWER(X24+(AD24*0.25),0.5)*10)</f>
-        <v>139</v>
+        <v>346</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AE24">
         <f>INT(POWER(X24+(AF24*0.25),3))+40</f>
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AF24">
         <v>0</v>
       </c>
       <c r="AG24">
         <f>INT(50+(X24+(AH24*0.25)-1)*POWER(X24+(AH24*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AH24">
         <v>0</v>
       </c>
       <c r="AI24">
         <f>INT(5+(X24+(AJ24*0.25)-1)*POWER(X24+(AJ24*0.25),0.2))</f>
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL24" s="5" t="s">
         <v>63</v>
@@ -5789,53 +5789,53 @@
         <v>123</v>
       </c>
       <c r="W25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X25">
         <f>1+(W25-1)*0.25</f>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Y25">
         <f>INT(POWER(X25+(Z25*0.25),2)*35)</f>
-        <v>1968</v>
+        <v>6617</v>
       </c>
       <c r="Z25">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AA25">
         <f>INT(POWER(X25+(AB25*0.25),3))+40</f>
-        <v>654</v>
+        <v>2112</v>
       </c>
       <c r="AB25">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AC25">
         <f>INT(50+(X25+(AD25*0.25)-1)*POWER(X25+(AD25*0.25),0.5)*10)</f>
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="AD25">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AE25">
         <f>INT(POWER(X25+(AF25*0.25),3))+40</f>
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AF25">
         <v>0</v>
       </c>
       <c r="AG25">
         <f>INT(50+(X25+(AH25*0.25)-1)*POWER(X25+(AH25*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
         <f>INT(5+(X25+(AJ25*0.25)-1)*POWER(X25+(AJ25*0.25),0.2))</f>
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>63</v>
@@ -5845,201 +5845,30 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="49"/>
-        <v>3.75</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="50"/>
-        <v>876</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="51"/>
-        <v>180</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="52"/>
-        <v>103</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="53"/>
-        <v>180</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="54"/>
-        <v>103</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="55"/>
-        <v>11</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="U26" s="13"/>
       <c r="V26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="49"/>
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="50"/>
-        <v>1026</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="51"/>
-        <v>243</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="52"/>
-        <v>110</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="53"/>
-        <v>192</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="54"/>
-        <v>110</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="55"/>
-        <v>8</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
       <c r="U27" s="13"/>
       <c r="V27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="49"/>
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="50"/>
-        <v>1107</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="51"/>
-        <v>216</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="52"/>
-        <v>117</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="53"/>
-        <v>192</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="54"/>
-        <v>110</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="55"/>
-        <v>8</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
       <c r="U28" s="13"/>
       <c r="V28" s="5"/>
       <c r="AL28" s="5"/>
@@ -6299,67 +6128,10 @@
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B32" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="56"/>
-        <v>3.75</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="57"/>
-        <v>876</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="58"/>
-        <v>180</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="59"/>
-        <v>103</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="60"/>
-        <v>180</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="61"/>
-        <v>103</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="62"/>
-        <v>11</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="U32" s="13" t="s">
         <v>131</v>
       </c>
@@ -6423,67 +6195,10 @@
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33">
-        <v>13</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="56"/>
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="57"/>
-        <v>1026</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="58"/>
-        <v>243</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="59"/>
-        <v>110</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="60"/>
-        <v>192</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="61"/>
-        <v>110</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="62"/>
-        <v>8</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
       <c r="U33" s="13" t="s">
         <v>136</v>
       </c>
@@ -6550,67 +6265,10 @@
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B34" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34">
-        <v>13</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="56"/>
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="57"/>
-        <v>1107</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="58"/>
-        <v>216</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="59"/>
-        <v>117</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="60"/>
-        <v>192</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="61"/>
-        <v>110</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="62"/>
-        <v>8</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
       <c r="U34" s="13"/>
       <c r="V34" s="5"/>
       <c r="AL34" s="5"/>
@@ -7208,201 +6866,30 @@
       <c r="AM42" s="5"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B43" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="63"/>
-        <v>3.75</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="64"/>
-        <v>876</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="65"/>
-        <v>180</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="66"/>
-        <v>103</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="67"/>
-        <v>180</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="68"/>
-        <v>103</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="Q43">
-        <v>8</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
       <c r="U43" s="13"/>
       <c r="V43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B44" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="64"/>
-        <v>1026</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="65"/>
-        <v>243</v>
-      </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="66"/>
-        <v>110</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="67"/>
-        <v>192</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="68"/>
-        <v>110</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="69"/>
-        <v>8</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
       <c r="U44" s="13"/>
       <c r="V44" s="5"/>
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B45" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="64"/>
-        <v>1107</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="65"/>
-        <v>216</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="66"/>
-        <v>117</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="67"/>
-        <v>192</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="68"/>
-        <v>110</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="69"/>
-        <v>8</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
       <c r="U45" s="13"/>
       <c r="V45" s="5"/>
       <c r="AL45" s="5"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -3541,9 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="F7">
         <f t="shared" si="15"/>
-        <v>741</v>
+        <v>876</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f t="shared" si="16"/>
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <f t="shared" si="17"/>
@@ -5607,46 +5607,46 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E28" si="49">1+(D24-1)*0.25</f>
+        <f t="shared" ref="E24:E25" si="49">1+(D24-1)*0.25</f>
         <v>2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F28" si="50">INT(200+POWER(E24+(G24*0.25)+1,2)*30)</f>
+        <f t="shared" ref="F24:F25" si="50">INT(200+POWER(E24+(G24*0.25)+1,2)*30)</f>
         <v>470</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H28" si="51">INT(POWER(E24+(I24*0.25)+4,2)*3)</f>
+        <f t="shared" ref="H24:H25" si="51">INT(POWER(E24+(I24*0.25)+4,2)*3)</f>
         <v>108</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J28" si="52">INT(50+(E24+(K24*0.25)-1)*POWER(E24+(K24*0.25),0.5)*10)</f>
+        <f t="shared" ref="J24:J25" si="52">INT(50+(E24+(K24*0.25)-1)*POWER(E24+(K24*0.25),0.5)*10)</f>
         <v>64</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L28" si="53">INT(POWER(E24+(M24*0.25)+4,2)*3)</f>
+        <f t="shared" ref="L24:L25" si="53">INT(POWER(E24+(M24*0.25)+4,2)*3)</f>
         <v>108</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N28" si="54">INT(50+(E24+(O24*0.25)-1)*POWER(E24+(O24*0.25),0.5)*10)</f>
+        <f t="shared" ref="N24:N25" si="54">INT(50+(E24+(O24*0.25)-1)*POWER(E24+(O24*0.25),0.5)*10)</f>
         <v>64</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:P28" si="55">INT(5+(E24+(Q24*0.25)-1)*POWER(E24+(Q24*0.25),0.2))</f>
+        <f t="shared" ref="P24:P25" si="55">INT(5+(E24+(Q24*0.25)-1)*POWER(E24+(Q24*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="Q24">
@@ -5673,17 +5673,17 @@
       </c>
       <c r="Y24">
         <f>INT(POWER(X24+(Z24*0.25),2)*35)</f>
-        <v>5689</v>
+        <v>4628</v>
       </c>
       <c r="Z24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA24">
         <f>INT(POWER(X24+(AB24*0.25),3))+40</f>
-        <v>1282</v>
+        <v>1662</v>
       </c>
       <c r="AB24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC24">
         <f>INT(50+(X24+(AD24*0.25)-1)*POWER(X24+(AD24*0.25),0.5)*10)</f>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="Y25">
         <f>INT(POWER(X25+(Z25*0.25),2)*35)</f>
-        <v>6617</v>
+        <v>6144</v>
       </c>
       <c r="Z25">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA25">
         <f>INT(POWER(X25+(AB25*0.25),3))+40</f>
-        <v>2112</v>
+        <v>4953</v>
       </c>
       <c r="AB25">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AC25">
         <f>INT(50+(X25+(AD25*0.25)-1)*POWER(X25+(AD25*0.25),0.5)*10)</f>
@@ -5890,46 +5890,46 @@
         <v>6</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E34" si="56">1+(D30-1)*0.25</f>
+        <f t="shared" ref="E30:E31" si="56">1+(D30-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F34" si="57">INT(200+POWER(E30+(G30*0.25)+1,2)*30)</f>
+        <f t="shared" ref="F30:F31" si="57">INT(200+POWER(E30+(G30*0.25)+1,2)*30)</f>
         <v>516</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H34" si="58">INT(POWER(E30+(I30*0.25)+4,2)*3)</f>
+        <f t="shared" ref="H30:H31" si="58">INT(POWER(E30+(I30*0.25)+4,2)*3)</f>
         <v>117</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J34" si="59">INT(50+(E30+(K30*0.25)-1)*POWER(E30+(K30*0.25),0.5)*10)</f>
+        <f t="shared" ref="J30:J31" si="59">INT(50+(E30+(K30*0.25)-1)*POWER(E30+(K30*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L34" si="60">INT(POWER(E30+(M30*0.25)+4,2)*3)</f>
+        <f t="shared" ref="L30:L31" si="60">INT(POWER(E30+(M30*0.25)+4,2)*3)</f>
         <v>117</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N34" si="61">INT(50+(E30+(O30*0.25)-1)*POWER(E30+(O30*0.25),0.5)*10)</f>
+        <f t="shared" ref="N30:N31" si="61">INT(50+(E30+(O30*0.25)-1)*POWER(E30+(O30*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" ref="P30:P34" si="62">INT(5+(E30+(Q30*0.25)-1)*POWER(E30+(Q30*0.25),0.2))</f>
+        <f t="shared" ref="P30:P31" si="62">INT(5+(E30+(Q30*0.25)-1)*POWER(E30+(Q30*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="Q30">
@@ -6290,46 +6290,46 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E45" si="63">1+(D36-1)*0.25</f>
+        <f t="shared" ref="E36:E42" si="63">1+(D36-1)*0.25</f>
         <v>2.5</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F45" si="64">INT(200+POWER(E36+(G36*0.25)+1,2)*30)</f>
+        <f t="shared" ref="F36:F42" si="64">INT(200+POWER(E36+(G36*0.25)+1,2)*30)</f>
         <v>567</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H45" si="65">INT(POWER(E36+(I36*0.25)+4,2)*3)</f>
+        <f t="shared" ref="H36:H42" si="65">INT(POWER(E36+(I36*0.25)+4,2)*3)</f>
         <v>126</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J45" si="66">INT(50+(E36+(K36*0.25)-1)*POWER(E36+(K36*0.25),0.5)*10)</f>
+        <f t="shared" ref="J36:J42" si="66">INT(50+(E36+(K36*0.25)-1)*POWER(E36+(K36*0.25),0.5)*10)</f>
         <v>73</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L45" si="67">INT(POWER(E36+(M36*0.25)+4,2)*3)</f>
+        <f t="shared" ref="L36:L42" si="67">INT(POWER(E36+(M36*0.25)+4,2)*3)</f>
         <v>126</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36:N45" si="68">INT(50+(E36+(O36*0.25)-1)*POWER(E36+(O36*0.25),0.5)*10)</f>
+        <f t="shared" ref="N36:N42" si="68">INT(50+(E36+(O36*0.25)-1)*POWER(E36+(O36*0.25),0.5)*10)</f>
         <v>73</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P45" si="69">INT(5+(E36+(Q36*0.25)-1)*POWER(E36+(Q36*0.25),0.2))</f>
+        <f t="shared" ref="P36:P42" si="69">INT(5+(E36+(Q36*0.25)-1)*POWER(E36+(Q36*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="Q36">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3541,9 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5687,10 +5687,10 @@
       </c>
       <c r="AC24">
         <f>INT(50+(X24+(AD24*0.25)-1)*POWER(X24+(AD24*0.25),0.5)*10)</f>
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="AD24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE24">
         <f>INT(POWER(X24+(AF24*0.25),3))+40</f>
@@ -5948,53 +5948,53 @@
         <v>126</v>
       </c>
       <c r="W30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X30">
         <f>1+(W30-1)*0.25</f>
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
         <f>INT(POWER(X30+(Z30*0.25),2)*35)</f>
-        <v>2240</v>
+        <v>3858</v>
       </c>
       <c r="Z30">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA30">
         <f>INT(POWER(X30+(AB30*0.25),3))+40</f>
-        <v>654</v>
+        <v>1662</v>
       </c>
       <c r="AB30">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC30">
         <f>INT(50+(X30+(AD30*0.25)-1)*POWER(X30+(AD30*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE30">
         <f>INT(POWER(X30+(AF30*0.25),3))+40</f>
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
         <f>INT(50+(X30+(AH30*0.25)-1)*POWER(X30+(AH30*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
         <f>INT(5+(X30+(AJ30*0.25)-1)*POWER(X30+(AJ30*0.25),0.2))</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL30" s="5" t="s">
         <v>127</v>
@@ -6072,53 +6072,53 @@
         <v>130</v>
       </c>
       <c r="W31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X31">
         <f>1+(W31-1)*0.25</f>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Y31">
         <f>INT(POWER(X31+(Z31*0.25),2)*35)</f>
-        <v>2240</v>
+        <v>4044</v>
       </c>
       <c r="Z31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA31">
         <f>INT(POWER(X31+(AB31*0.25),3))+40</f>
-        <v>654</v>
+        <v>2366</v>
       </c>
       <c r="AB31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AC31">
         <f>INT(50+(X31+(AD31*0.25)-1)*POWER(X31+(AD31*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE31">
         <f>INT(POWER(X31+(AF31*0.25),3))+40</f>
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="AF31">
         <v>0</v>
       </c>
       <c r="AG31">
         <f>INT(50+(X31+(AH31*0.25)-1)*POWER(X31+(AH31*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
         <f>INT(5+(X31+(AJ31*0.25)-1)*POWER(X31+(AJ31*0.25),0.2))</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL31" s="5" t="s">
         <v>52</v>
@@ -6139,53 +6139,53 @@
         <v>132</v>
       </c>
       <c r="W32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X32">
         <f>1+(W32-1)*0.25</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="Y32">
         <f>INT(POWER(X32+(Z32*0.25),2)*35)</f>
-        <v>2528</v>
+        <v>5468</v>
       </c>
       <c r="Z32">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>709</v>
+        <v>3415</v>
       </c>
       <c r="AB32">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
-        <v>139</v>
+        <v>522</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE32">
         <f>INT(POWER(X32+(AF32*0.25),3))+40</f>
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
       <c r="AG32">
         <f>INT(50+(X32+(AH32*0.25)-1)*POWER(X32+(AH32*0.25),0.5)*10)</f>
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
         <f>INT(5+(X32+(AJ32*0.25)-1)*POWER(X32+(AJ32*0.25),0.2))</f>
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL32" s="5" t="s">
         <v>52</v>
@@ -6206,53 +6206,53 @@
         <v>135</v>
       </c>
       <c r="W33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X33">
         <f>1+(W33-1)*0.25</f>
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>4044</v>
+        <v>3500</v>
       </c>
       <c r="Z33">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
-        <v>1282</v>
+        <v>383</v>
       </c>
       <c r="AB33">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <f>INT(50+(X33+(AD33*0.25)-1)*POWER(X33+(AD33*0.25),0.5)*10)</f>
-        <v>369</v>
+        <v>11014</v>
       </c>
       <c r="AD33">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>897</v>
+        <v>10688</v>
       </c>
       <c r="AF33">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
         <f>INT(5+(X33+(AJ33*0.25)-1)*POWER(X33+(AJ33*0.25),0.2))</f>
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="AJ33">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="AL33" s="5" t="s">
         <v>134</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3541,9 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6214,10 +6214,10 @@
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>3500</v>
+        <v>18919</v>
       </c>
       <c r="Z33">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
@@ -6228,17 +6228,17 @@
       </c>
       <c r="AC33">
         <f>INT(50+(X33+(AD33*0.25)-1)*POWER(X33+(AD33*0.25),0.5)*10)</f>
-        <v>11014</v>
+        <v>4277</v>
       </c>
       <c r="AD33">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>10688</v>
+        <v>2784</v>
       </c>
       <c r="AF33">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20160" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="630">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2014,6 +2014,51 @@
   </si>
   <si>
     <t>崔敏虬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用点苍剑法过</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian'cang'jian'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要大红</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要招募陆乘风过</t>
+  </si>
+  <si>
+    <t>需要招募陆乘风过</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'cheng'feng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3539,11 +3584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN187"/>
+  <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5017,12 +5062,12 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
@@ -5148,8 +5193,11 @@
       <c r="AN18" t="s">
         <v>623</v>
       </c>
+      <c r="AO18" t="s">
+        <v>629</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
@@ -5275,8 +5323,11 @@
       <c r="AN19" t="s">
         <v>587</v>
       </c>
+      <c r="AO19" t="s">
+        <v>628</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>582</v>
       </c>
@@ -5400,7 +5451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B21" s="13" t="s">
         <v>102</v>
       </c>
@@ -5524,7 +5575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
         <v>583</v>
       </c>
@@ -5591,12 +5642,12 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B26" s="13"/>
       <c r="C26" s="5"/>
       <c r="R26" s="5"/>
@@ -5854,7 +5905,7 @@
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B27" s="13"/>
       <c r="C27" s="5"/>
       <c r="R27" s="5"/>
@@ -5864,7 +5915,7 @@
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
       <c r="R28" s="5"/>
@@ -5874,12 +5925,12 @@
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
         <v>579</v>
       </c>
@@ -5963,10 +6014,10 @@
       </c>
       <c r="AA30">
         <f>INT(POWER(X30+(AB30*0.25),3))+40</f>
-        <v>1662</v>
+        <v>2933</v>
       </c>
       <c r="AB30">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AC30">
         <f>INT(50+(X30+(AD30*0.25)-1)*POWER(X30+(AD30*0.25),0.5)*10)</f>
@@ -6003,7 +6054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
         <v>580</v>
       </c>
@@ -6087,10 +6138,10 @@
       </c>
       <c r="AA31">
         <f>INT(POWER(X31+(AB31*0.25),3))+40</f>
-        <v>2366</v>
+        <v>3946</v>
       </c>
       <c r="AB31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC31">
         <f>INT(50+(X31+(AD31*0.25)-1)*POWER(X31+(AD31*0.25),0.5)*10)</f>
@@ -6127,7 +6178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
       <c r="R32" s="5"/>
@@ -6154,10 +6205,10 @@
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>3415</v>
+        <v>5399</v>
       </c>
       <c r="AB32">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
@@ -6194,7 +6245,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B33" s="13"/>
       <c r="C33" s="5"/>
       <c r="R33" s="5"/>
@@ -6214,10 +6265,10 @@
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>18919</v>
+        <v>9242</v>
       </c>
       <c r="Z33">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
@@ -6235,10 +6286,10 @@
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>2784</v>
+        <v>5172</v>
       </c>
       <c r="AF33">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
@@ -6263,8 +6314,11 @@
       <c r="AN33" t="s">
         <v>588</v>
       </c>
+      <c r="AO33" t="s">
+        <v>626</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B34" s="13"/>
       <c r="C34" s="5"/>
       <c r="R34" s="5"/>
@@ -6274,12 +6328,12 @@
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
@@ -6356,10 +6410,10 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>4044</v>
+        <v>16940</v>
       </c>
       <c r="Z36">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
@@ -6370,31 +6424,31 @@
       </c>
       <c r="AC36">
         <f>INT(50+(X36+(AD36*0.25)-1)*POWER(X36+(AD36*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>3594</v>
       </c>
       <c r="AD36">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="AE36">
         <f>INT(POWER(X36+(AF36*0.25),3))+40</f>
-        <v>230</v>
+        <v>6631</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AG36">
         <f>INT(50+(X36+(AH36*0.25)-1)*POWER(X36+(AH36*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1699</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI36">
         <f>INT(5+(X36+(AJ36*0.25)-1)*POWER(X36+(AJ36*0.25),0.2))</f>
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL36" s="5" t="s">
         <v>134</v>
@@ -6405,8 +6459,11 @@
       <c r="AN36" t="s">
         <v>589</v>
       </c>
+      <c r="AO36" t="s">
+        <v>627</v>
+      </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>1</v>
       </c>
@@ -6475,53 +6532,53 @@
         <v>141</v>
       </c>
       <c r="W37">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="X37">
         <f>1+(W37-1)*0.25</f>
-        <v>4.75</v>
+        <v>7.25</v>
       </c>
       <c r="Y37">
         <f>INT(POWER(X37+(Z37*0.25),2)*35)</f>
-        <v>2528</v>
+        <v>7614</v>
       </c>
       <c r="Z37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA37">
         <f>INT(POWER(X37+(AB37*0.25),3))+40</f>
-        <v>709</v>
+        <v>4136</v>
       </c>
       <c r="AB37">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AC37">
         <f>INT(50+(X37+(AD37*0.25)-1)*POWER(X37+(AD37*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37">
         <f>INT(POWER(X37+(AF37*0.25),3))+40</f>
-        <v>147</v>
+        <v>421</v>
       </c>
       <c r="AF37">
         <v>0</v>
       </c>
       <c r="AG37">
         <f>INT(50+(X37+(AH37*0.25)-1)*POWER(X37+(AH37*0.25),0.5)*10)</f>
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AH37">
         <v>0</v>
       </c>
       <c r="AI37">
         <f>INT(5+(X37+(AJ37*0.25)-1)*POWER(X37+(AJ37*0.25),0.2))</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL37" s="5" t="s">
         <v>52</v>
@@ -6530,7 +6587,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
         <v>1</v>
       </c>
@@ -6597,7 +6654,7 @@
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
@@ -6664,7 +6721,7 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
@@ -6731,7 +6788,7 @@
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B41" s="12" t="s">
         <v>1</v>
       </c>
@@ -6798,7 +6855,7 @@
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
@@ -6865,7 +6922,7 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B43" s="13"/>
       <c r="C43" s="5"/>
       <c r="R43" s="5"/>
@@ -6875,7 +6932,7 @@
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B44" s="13"/>
       <c r="C44" s="5"/>
       <c r="R44" s="5"/>
@@ -6885,7 +6942,7 @@
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B45" s="13"/>
       <c r="C45" s="5"/>
       <c r="R45" s="5"/>
@@ -6895,12 +6952,12 @@
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B47" s="13" t="s">
         <v>147</v>
       </c>
@@ -7027,7 +7084,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>1</v>
       </c>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20160" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="632">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1859,10 +1859,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
@@ -2033,16 +2029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要大红</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'hong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要招募陆乘风过</t>
   </si>
   <si>
@@ -2058,6 +2044,64 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用点苍剑法过，需要大红（每个恢复HP至少700以上）</t>
+    <rPh sb="9" eb="10">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da'hong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi'shao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门派兵器+门派初级秘籍+大红（700+）</t>
+    <rPh sb="0" eb="1">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mi'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门派兵器+门派初级秘籍+招募黄药师</t>
+    <rPh sb="12" eb="13">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huang'yao'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3586,9 +3630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO47" sqref="AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3603,7 +3647,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -4094,7 +4138,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4347,7 +4391,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -5064,7 +5108,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5191,10 +5235,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AO18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5324,7 +5368,7 @@
         <v>587</v>
       </c>
       <c r="AO19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
@@ -5644,7 +5688,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -5724,24 +5768,24 @@
       </c>
       <c r="Y24">
         <f>INT(POWER(X24+(Z24*0.25),2)*35)</f>
-        <v>4628</v>
+        <v>3677</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA24">
         <f>INT(POWER(X24+(AB24*0.25),3))+40</f>
-        <v>1662</v>
+        <v>1560</v>
       </c>
       <c r="AB24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC24">
         <f>INT(50+(X24+(AD24*0.25)-1)*POWER(X24+(AD24*0.25),0.5)*10)</f>
-        <v>290</v>
+        <v>469</v>
       </c>
       <c r="AD24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AE24">
         <f>INT(POWER(X24+(AF24*0.25),3))+40</f>
@@ -5848,24 +5892,24 @@
       </c>
       <c r="Y25">
         <f>INT(POWER(X25+(Z25*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>5040</v>
       </c>
       <c r="Z25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA25">
         <f>INT(POWER(X25+(AB25*0.25),3))+40</f>
-        <v>4953</v>
+        <v>2366</v>
       </c>
       <c r="AB25">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AC25">
         <f>INT(50+(X25+(AD25*0.25)-1)*POWER(X25+(AD25*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>709</v>
       </c>
       <c r="AD25">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AE25">
         <f>INT(POWER(X25+(AF25*0.25),3))+40</f>
@@ -5927,7 +5971,7 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
@@ -6014,17 +6058,17 @@
       </c>
       <c r="AA30">
         <f>INT(POWER(X30+(AB30*0.25),3))+40</f>
-        <v>2933</v>
+        <v>2237</v>
       </c>
       <c r="AB30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC30">
         <f>INT(50+(X30+(AD30*0.25)-1)*POWER(X30+(AD30*0.25),0.5)*10)</f>
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="AD30">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AE30">
         <f>INT(POWER(X30+(AF30*0.25),3))+40</f>
@@ -6138,17 +6182,17 @@
       </c>
       <c r="AA31">
         <f>INT(POWER(X31+(AB31*0.25),3))+40</f>
-        <v>3946</v>
+        <v>3088</v>
       </c>
       <c r="AB31">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC31">
         <f>INT(50+(X31+(AD31*0.25)-1)*POWER(X31+(AD31*0.25),0.5)*10)</f>
-        <v>369</v>
+        <v>709</v>
       </c>
       <c r="AD31">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AE31">
         <f>INT(POWER(X31+(AF31*0.25),3))+40</f>
@@ -6205,17 +6249,17 @@
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>5399</v>
+        <v>3763</v>
       </c>
       <c r="AB32">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
-        <v>522</v>
+        <v>818</v>
       </c>
       <c r="AD32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AE32">
         <f>INT(POWER(X32+(AF32*0.25),3))+40</f>
@@ -6286,10 +6330,10 @@
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>5172</v>
+        <v>3088</v>
       </c>
       <c r="AF33">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
@@ -6315,7 +6359,7 @@
         <v>588</v>
       </c>
       <c r="AO33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6330,7 +6374,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6402,50 +6446,50 @@
         <v>139</v>
       </c>
       <c r="W36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X36">
         <f>1+(W36-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>16940</v>
+        <v>10718</v>
       </c>
       <c r="Z36">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
-        <v>1768</v>
+        <v>3088</v>
       </c>
       <c r="AB36">
         <v>25</v>
       </c>
       <c r="AC36">
         <f>INT(50+(X36+(AD36*0.25)-1)*POWER(X36+(AD36*0.25),0.5)*10)</f>
-        <v>3594</v>
+        <v>5000</v>
       </c>
       <c r="AD36">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AE36">
         <f>INT(POWER(X36+(AF36*0.25),3))+40</f>
-        <v>6631</v>
+        <v>3088</v>
       </c>
       <c r="AF36">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AG36">
         <f>INT(50+(X36+(AH36*0.25)-1)*POWER(X36+(AH36*0.25),0.5)*10)</f>
-        <v>1699</v>
+        <v>258</v>
       </c>
       <c r="AH36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f>INT(5+(X36+(AJ36*0.25)-1)*POWER(X36+(AJ36*0.25),0.2))</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AJ36">
         <v>100</v>
@@ -6460,7 +6504,7 @@
         <v>589</v>
       </c>
       <c r="AO36" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -6540,10 +6584,10 @@
       </c>
       <c r="Y37">
         <f>INT(POWER(X37+(Z37*0.25),2)*35)</f>
-        <v>7614</v>
+        <v>6378</v>
       </c>
       <c r="Z37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA37">
         <f>INT(POWER(X37+(AB37*0.25),3))+40</f>
@@ -6554,10 +6598,10 @@
       </c>
       <c r="AC37">
         <f>INT(50+(X37+(AD37*0.25)-1)*POWER(X37+(AD37*0.25),0.5)*10)</f>
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE37">
         <f>INT(POWER(X37+(AF37*0.25),3))+40</f>
@@ -6954,7 +6998,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -6965,53 +7009,53 @@
         <v>148</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:E53" si="70">1+(D47-1)*0.25</f>
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="F47">
         <f t="shared" ref="F47:F53" si="71">INT(200+POWER(E47+(G47*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>16070</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <f t="shared" ref="H47:H53" si="72">INT(POWER(E47+(I47*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" ref="J47:J53" si="73">INT(50+(E47+(K47*0.25)-1)*POWER(E47+(K47*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L47">
         <f t="shared" ref="L47:L53" si="74">INT(POWER(E47+(M47*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>1950</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N47">
         <f t="shared" ref="N47:N53" si="75">INT(50+(E47+(O47*0.25)-1)*POWER(E47+(O47*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>786</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P47">
         <f t="shared" ref="P47:P53" si="76">INT(5+(E47+(Q47*0.25)-1)*POWER(E47+(Q47*0.25),0.2))</f>
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>149</v>
@@ -7026,53 +7070,53 @@
         <v>144</v>
       </c>
       <c r="W47">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X47">
         <f t="shared" ref="X47:X52" si="77">1+(W47-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y47">
         <f t="shared" ref="Y47:Y52" si="78">INT(POWER(X47+(Z47*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>18919</v>
       </c>
       <c r="Z47">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA47">
         <f t="shared" ref="AA47:AA52" si="79">INT(POWER(X47+(AB47*0.25),3))+40</f>
-        <v>601</v>
+        <v>3088</v>
       </c>
       <c r="AB47">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AC47">
         <f t="shared" ref="AC47:AC52" si="80">INT(50+(X47+(AD47*0.25)-1)*POWER(X47+(AD47*0.25),0.5)*10)</f>
-        <v>311</v>
+        <v>4419</v>
       </c>
       <c r="AD47">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AE47">
         <f t="shared" ref="AE47:AE52" si="81">INT(POWER(X47+(AF47*0.25),3))+40</f>
-        <v>2366</v>
+        <v>12608</v>
       </c>
       <c r="AF47">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AG47">
         <f t="shared" ref="AG47:AG52" si="82">INT(50+(X47+(AH47*0.25)-1)*POWER(X47+(AH47*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>4419</v>
       </c>
       <c r="AH47">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AI47">
         <f t="shared" ref="AI47:AI52" si="83">INT(5+(X47+(AJ47*0.25)-1)*POWER(X47+(AJ47*0.25),0.2))</f>
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL47" s="5" t="s">
         <v>145</v>
@@ -7082,6 +7126,9 @@
       </c>
       <c r="AN47" t="s">
         <v>587</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7092,50 +7139,50 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F48">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -7153,53 +7200,53 @@
         <v>152</v>
       </c>
       <c r="W48">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="X48">
         <f t="shared" si="77"/>
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Y48">
         <f t="shared" si="78"/>
-        <v>3677</v>
+        <v>12969</v>
       </c>
       <c r="Z48">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AA48">
         <f t="shared" si="79"/>
-        <v>184</v>
+        <v>1662</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC48">
         <f t="shared" si="80"/>
-        <v>190</v>
+        <v>3051</v>
       </c>
       <c r="AD48">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="AE48">
         <f t="shared" si="81"/>
-        <v>1116</v>
+        <v>3763</v>
       </c>
       <c r="AF48">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AG48">
         <f t="shared" si="82"/>
-        <v>237</v>
+        <v>3051</v>
       </c>
       <c r="AH48">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="AI48">
         <f t="shared" si="83"/>
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL48" s="5" t="s">
         <v>153</v>
@@ -7208,7 +7255,10 @@
         <v>154</v>
       </c>
       <c r="AN48" t="s">
-        <v>590</v>
+        <v>629</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.15">
@@ -7219,50 +7269,50 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F49">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -7280,53 +7330,53 @@
         <v>156</v>
       </c>
       <c r="W49">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X49">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y49">
         <f t="shared" si="78"/>
-        <v>2528</v>
+        <v>6617</v>
       </c>
       <c r="Z49">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA49">
         <f t="shared" si="79"/>
-        <v>131</v>
+        <v>2639</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC49">
         <f t="shared" si="80"/>
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE49">
         <f t="shared" si="81"/>
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="AF49">
         <v>0</v>
       </c>
       <c r="AG49">
         <f t="shared" si="82"/>
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
       <c r="AI49">
         <f t="shared" si="83"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL49" s="5" t="s">
         <v>93</v>
@@ -7343,50 +7393,50 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F50">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -7404,53 +7454,53 @@
         <v>159</v>
       </c>
       <c r="W50">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="X50">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="Y50">
         <f t="shared" si="78"/>
-        <v>2679</v>
+        <v>7107</v>
       </c>
       <c r="Z50">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA50">
         <f t="shared" si="79"/>
-        <v>131</v>
+        <v>3249</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC50">
         <f t="shared" si="80"/>
-        <v>124</v>
+        <v>536</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE50">
         <f t="shared" si="81"/>
-        <v>131</v>
+        <v>505</v>
       </c>
       <c r="AF50">
         <v>0</v>
       </c>
       <c r="AG50">
         <f t="shared" si="82"/>
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="AH50">
         <v>0</v>
       </c>
       <c r="AI50">
         <f t="shared" si="83"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL50" s="5" t="s">
         <v>160</v>
@@ -7470,50 +7520,50 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F51">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -7531,53 +7581,53 @@
         <v>167</v>
       </c>
       <c r="W51">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="X51">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="Y51">
         <f t="shared" si="78"/>
-        <v>2835</v>
+        <v>7358</v>
       </c>
       <c r="Z51">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA51">
         <f t="shared" si="79"/>
-        <v>131</v>
+        <v>3586</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC51">
         <f t="shared" si="80"/>
-        <v>124</v>
+        <v>578</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE51">
         <f t="shared" si="81"/>
-        <v>131</v>
+        <v>505</v>
       </c>
       <c r="AF51">
         <v>0</v>
       </c>
       <c r="AG51">
         <f t="shared" si="82"/>
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="AH51">
         <v>0</v>
       </c>
       <c r="AI51">
         <f t="shared" si="83"/>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="AJ51">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL51" s="5" t="s">
         <v>168</v>
@@ -7597,50 +7647,50 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F52">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -7658,53 +7708,53 @@
         <v>163</v>
       </c>
       <c r="W52">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X52">
         <f t="shared" si="77"/>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Y52">
         <f t="shared" si="78"/>
-        <v>3158</v>
+        <v>7875</v>
       </c>
       <c r="Z52">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA52">
         <f t="shared" si="79"/>
-        <v>131</v>
+        <v>552</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
       <c r="AC52">
         <f t="shared" si="80"/>
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52">
         <f t="shared" si="81"/>
-        <v>131</v>
+        <v>3763</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG52">
         <f t="shared" si="82"/>
-        <v>124</v>
+        <v>592</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI52">
         <f t="shared" si="83"/>
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL52" s="5" t="s">
         <v>164</v>
@@ -7724,50 +7774,50 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <f t="shared" si="70"/>
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="F53">
         <f t="shared" si="71"/>
-        <v>621</v>
+        <v>1566</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" si="72"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
         <f t="shared" si="73"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
         <f t="shared" si="74"/>
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
         <f t="shared" si="75"/>
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
         <f t="shared" si="76"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -7786,12 +7836,15 @@
     <row r="54" spans="1:40" x14ac:dyDescent="0.15">
       <c r="U54" s="13"/>
       <c r="V54" s="5"/>
+      <c r="AC54">
+        <v>1</v>
+      </c>
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.15">
@@ -8436,7 +8489,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.15">
@@ -8957,7 +9010,7 @@
     </row>
     <row r="70" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
@@ -9224,7 +9277,7 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.15">
@@ -9610,7 +9663,7 @@
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.15">
@@ -9994,7 +10047,7 @@
     </row>
     <row r="84" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
@@ -10326,7 +10379,7 @@
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.15">
@@ -10714,7 +10767,7 @@
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.15">
@@ -11083,7 +11136,7 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
@@ -11538,7 +11591,7 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
@@ -11993,7 +12046,7 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
@@ -12391,7 +12444,7 @@
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.15">
@@ -12714,7 +12767,7 @@
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.15">
@@ -13211,7 +13264,7 @@
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.15">
@@ -13534,7 +13587,7 @@
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.15">
@@ -13787,7 +13840,7 @@
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.15">
@@ -14234,7 +14287,7 @@
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.15">
@@ -14674,7 +14727,7 @@
     </row>
     <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
@@ -15059,7 +15112,7 @@
     </row>
     <row r="145" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.15">
@@ -15506,7 +15559,7 @@
     </row>
     <row r="150" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
@@ -16167,7 +16220,7 @@
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.15">
@@ -16544,7 +16597,7 @@
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.15">
@@ -17285,7 +17338,7 @@
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="173" spans="1:40" x14ac:dyDescent="0.15">
@@ -17354,7 +17407,7 @@
         <v>515</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W173">
         <v>45</v>
@@ -17601,7 +17654,7 @@
         <v>520</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="W175">
         <v>50</v>
@@ -18079,7 +18132,7 @@
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.15">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3630,9 +3630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO47" sqref="AO47"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7009,53 +7009,53 @@
         <v>148</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <f t="shared" ref="E47:E53" si="70">1+(D47-1)*0.25</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="F47">
         <f t="shared" ref="F47:F53" si="71">INT(200+POWER(E47+(G47*0.25)+1,2)*30)</f>
-        <v>16070</v>
+        <v>6291</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H47">
         <f t="shared" ref="H47:H53" si="72">INT(POWER(E47+(I47*0.25)+4,2)*3)</f>
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" ref="J47:J53" si="73">INT(50+(E47+(K47*0.25)-1)*POWER(E47+(K47*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="K47">
         <v>25</v>
       </c>
       <c r="L47">
         <f t="shared" ref="L47:L53" si="74">INT(POWER(E47+(M47*0.25)+4,2)*3)</f>
-        <v>1950</v>
+        <v>2028</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N47">
         <f t="shared" ref="N47:N53" si="75">INT(50+(E47+(O47*0.25)-1)*POWER(E47+(O47*0.25),0.5)*10)</f>
-        <v>786</v>
+        <v>1498</v>
       </c>
       <c r="O47">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="P47">
         <f t="shared" ref="P47:P53" si="76">INT(5+(E47+(Q47*0.25)-1)*POWER(E47+(Q47*0.25),0.2))</f>
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="Q47">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>149</v>
@@ -7099,17 +7099,17 @@
       </c>
       <c r="AE47">
         <f t="shared" ref="AE47:AE52" si="81">INT(POWER(X47+(AF47*0.25),3))+40</f>
-        <v>12608</v>
+        <v>6118</v>
       </c>
       <c r="AF47">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG47">
         <f t="shared" ref="AG47:AG52" si="82">INT(50+(X47+(AH47*0.25)-1)*POWER(X47+(AH47*0.25),0.5)*10)</f>
-        <v>4419</v>
+        <v>4137</v>
       </c>
       <c r="AH47">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AI47">
         <f t="shared" ref="AI47:AI52" si="83">INT(5+(X47+(AJ47*0.25)-1)*POWER(X47+(AJ47*0.25),0.2))</f>
@@ -7979,50 +7979,50 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E57">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -8103,50 +8103,50 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E58">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F58">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -8227,50 +8227,50 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E59">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F59">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O59">
         <v>0</v>
       </c>
       <c r="P59">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -8294,50 +8294,50 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E60">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -8361,50 +8361,50 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -8428,50 +8428,50 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <f t="shared" si="84"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F62">
         <f t="shared" si="85"/>
-        <v>680</v>
+        <v>1670</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
         <f t="shared" si="86"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
         <f t="shared" si="87"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
         <f t="shared" si="88"/>
-        <v>147</v>
+        <v>300</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
         <f t="shared" si="89"/>
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
         <f t="shared" si="90"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q62">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="633">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2102,6 +2102,28 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>huang'yao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有门派心法不能抵抗硬直</t>
+    <rPh sb="0" eb="1">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di'kang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3630,9 +3652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7261,7 +7283,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B49" s="12" t="s">
         <v>1</v>
       </c>
@@ -7385,7 +7407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
@@ -7512,7 +7534,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
@@ -7639,7 +7661,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
@@ -7766,7 +7788,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
         <v>1</v>
       </c>
@@ -7833,7 +7855,7 @@
       <c r="AL53" s="5"/>
       <c r="AM53" s="5"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.15">
       <c r="U54" s="13"/>
       <c r="V54" s="5"/>
       <c r="AC54">
@@ -7842,12 +7864,12 @@
       <c r="AL54" s="5"/>
       <c r="AM54" s="5"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
         <v>173</v>
       </c>
@@ -7916,53 +7938,53 @@
         <v>171</v>
       </c>
       <c r="W56">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="X56">
         <f>1+(W56-1)*0.25</f>
-        <v>5.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y56">
         <f>INT(POWER(X56+(Z56*0.25),2)*35)</f>
-        <v>3158</v>
+        <v>10115</v>
       </c>
       <c r="Z56">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AA56">
         <f>INT(POWER(X56+(AB56*0.25),3))+40</f>
-        <v>184</v>
+        <v>4331</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC56">
         <f>INT(50+(X56+(AD56*0.25)-1)*POWER(X56+(AD56*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>2353</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE56">
         <f>INT(POWER(X56+(AF56*0.25),3))+40</f>
-        <v>184</v>
+        <v>601</v>
       </c>
       <c r="AF56">
         <v>0</v>
       </c>
       <c r="AG56">
         <f>INT(50+(X56+(AH56*0.25)-1)*POWER(X56+(AH56*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="AH56">
         <v>0</v>
       </c>
       <c r="AI56">
         <f>INT(5+(X56+(AJ56*0.25)-1)*POWER(X56+(AJ56*0.25),0.2))</f>
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>52</v>
@@ -7970,8 +7992,11 @@
       <c r="AM56" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="AO56" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B57" s="12" t="s">
         <v>1</v>
       </c>
@@ -8040,53 +8065,53 @@
         <v>178</v>
       </c>
       <c r="W57">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="X57">
         <f>1+(W57-1)*0.25</f>
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Y57">
         <f>INT(POWER(X57+(Z57*0.25),2)*35)</f>
-        <v>3158</v>
+        <v>7614</v>
       </c>
       <c r="Z57">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AA57">
         <f>INT(POWER(X57+(AB57*0.25),3))+40</f>
-        <v>184</v>
+        <v>4739</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC57">
         <f>INT(50+(X57+(AD57*0.25)-1)*POWER(X57+(AD57*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>1105</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE57">
         <f>INT(POWER(X57+(AF57*0.25),3))+40</f>
-        <v>184</v>
+        <v>552</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
         <f>INT(50+(X57+(AH57*0.25)-1)*POWER(X57+(AH57*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
       <c r="AI57">
         <f>INT(5+(X57+(AJ57*0.25)-1)*POWER(X57+(AJ57*0.25),0.2))</f>
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AL57" s="6" t="s">
         <v>179</v>
@@ -8095,7 +8120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B58" s="12" t="s">
         <v>1</v>
       </c>
@@ -8164,53 +8189,53 @@
         <v>183</v>
       </c>
       <c r="W58">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="X58">
         <f>1+(W58-1)*0.25</f>
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y58">
         <f>INT(POWER(X58+(Z58*0.25),2)*35)</f>
-        <v>3327</v>
+        <v>8960</v>
       </c>
       <c r="Z58">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AA58">
         <f>INT(POWER(X58+(AB58*0.25),3))+40</f>
-        <v>184</v>
+        <v>6371</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC58">
         <f>INT(50+(X58+(AD58*0.25)-1)*POWER(X58+(AD58*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>1720</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE58">
         <f>INT(POWER(X58+(AF58*0.25),3))+40</f>
-        <v>184</v>
+        <v>654</v>
       </c>
       <c r="AF58">
         <v>0</v>
       </c>
       <c r="AG58">
         <f>INT(50+(X58+(AH58*0.25)-1)*POWER(X58+(AH58*0.25),0.5)*10)</f>
-        <v>147</v>
+        <v>1931</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI58">
         <f>INT(5+(X58+(AJ58*0.25)-1)*POWER(X58+(AJ58*0.25),0.2))</f>
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="AJ58">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AL58" s="6" t="s">
         <v>63</v>
@@ -8219,7 +8244,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
         <v>1</v>
       </c>
@@ -8286,7 +8311,7 @@
       <c r="AL59" s="5"/>
       <c r="AM59" s="5"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B60" s="12" t="s">
         <v>1</v>
       </c>
@@ -8353,7 +8378,7 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
@@ -8420,7 +8445,7 @@
       <c r="AL61" s="5"/>
       <c r="AM61" s="5"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B62" s="12" t="s">
         <v>1</v>
       </c>
@@ -8487,12 +8512,12 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B64" s="12" t="s">
         <v>1</v>
       </c>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -2048,28 +2048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要用点苍剑法过，需要大红（每个恢复HP至少700以上）</t>
-    <rPh sb="9" eb="10">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>da'hong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>mei'ge</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hui'fu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zhi'shao</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yi'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,6 +2102,28 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ying'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用点苍剑法过，需要大红（每个恢复HP至少750以上）</t>
+    <rPh sb="9" eb="10">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>da'hong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi'shao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yi'shang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3652,9 +3652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB52" sqref="AB52"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC60" sqref="AC60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6331,10 +6331,10 @@
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>9528</v>
       </c>
       <c r="Z33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
@@ -6352,10 +6352,10 @@
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>3088</v>
+        <v>2237</v>
       </c>
       <c r="AF33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
@@ -6476,10 +6476,10 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>11027</v>
       </c>
       <c r="Z36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
@@ -6497,10 +6497,10 @@
       </c>
       <c r="AE36">
         <f>INT(POWER(X36+(AF36*0.25),3))+40</f>
-        <v>3088</v>
+        <v>2639</v>
       </c>
       <c r="AF36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG36">
         <f>INT(50+(X36+(AH36*0.25)-1)*POWER(X36+(AH36*0.25),0.5)*10)</f>
@@ -6526,7 +6526,7 @@
         <v>589</v>
       </c>
       <c r="AO36" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7121,10 +7121,10 @@
       </c>
       <c r="AE47">
         <f t="shared" ref="AE47:AE52" si="81">INT(POWER(X47+(AF47*0.25),3))+40</f>
-        <v>6118</v>
+        <v>5172</v>
       </c>
       <c r="AF47">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG47">
         <f t="shared" ref="AG47:AG52" si="82">INT(50+(X47+(AH47*0.25)-1)*POWER(X47+(AH47*0.25),0.5)*10)</f>
@@ -7150,7 +7150,7 @@
         <v>587</v>
       </c>
       <c r="AO47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7277,10 +7277,10 @@
         <v>154</v>
       </c>
       <c r="AN48" t="s">
+        <v>628</v>
+      </c>
+      <c r="AO48" t="s">
         <v>629</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7953,10 +7953,10 @@
       </c>
       <c r="AA56">
         <f>INT(POWER(X56+(AB56*0.25),3))+40</f>
-        <v>4331</v>
+        <v>3415</v>
       </c>
       <c r="AB56">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC56">
         <f>INT(50+(X56+(AD56*0.25)-1)*POWER(X56+(AD56*0.25),0.5)*10)</f>
@@ -7981,10 +7981,10 @@
       </c>
       <c r="AI56">
         <f>INT(5+(X56+(AJ56*0.25)-1)*POWER(X56+(AJ56*0.25),0.2))</f>
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AJ56">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>52</v>
@@ -7993,7 +7993,7 @@
         <v>172</v>
       </c>
       <c r="AO56" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8073,17 +8073,17 @@
       </c>
       <c r="Y57">
         <f>INT(POWER(X57+(Z57*0.25),2)*35)</f>
-        <v>7614</v>
+        <v>7358</v>
       </c>
       <c r="Z57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA57">
         <f>INT(POWER(X57+(AB57*0.25),3))+40</f>
-        <v>4739</v>
+        <v>3763</v>
       </c>
       <c r="AB57">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC57">
         <f>INT(50+(X57+(AD57*0.25)-1)*POWER(X57+(AD57*0.25),0.5)*10)</f>
@@ -8108,10 +8108,10 @@
       </c>
       <c r="AI57">
         <f>INT(5+(X57+(AJ57*0.25)-1)*POWER(X57+(AJ57*0.25),0.2))</f>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="AJ57">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AL57" s="6" t="s">
         <v>179</v>
@@ -8197,17 +8197,17 @@
       </c>
       <c r="Y58">
         <f>INT(POWER(X58+(Z58*0.25),2)*35)</f>
-        <v>8960</v>
+        <v>8139</v>
       </c>
       <c r="Z58">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA58">
         <f>INT(POWER(X58+(AB58*0.25),3))+40</f>
-        <v>6371</v>
+        <v>4532</v>
       </c>
       <c r="AB58">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC58">
         <f>INT(50+(X58+(AD58*0.25)-1)*POWER(X58+(AD58*0.25),0.5)*10)</f>
@@ -8232,10 +8232,10 @@
       </c>
       <c r="AI58">
         <f>INT(5+(X58+(AJ58*0.25)-1)*POWER(X58+(AJ58*0.25),0.2))</f>
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="AJ58">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AL58" s="6" t="s">
         <v>63</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="636">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2124,6 +2124,75 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>yi'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结识黄蓉降低闪避率才好击杀</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huang'rong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan'b'lv</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结识郭靖利用高攻击杀</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gao'gong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得门派高级秘籍才好击杀</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'sha</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3652,9 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC60" sqref="AC60"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5825,10 +5894,10 @@
       </c>
       <c r="AI24">
         <f>INT(5+(X24+(AJ24*0.25)-1)*POWER(X24+(AJ24*0.25),0.2))</f>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="AJ24">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AL24" s="5" t="s">
         <v>63</v>
@@ -5949,10 +6018,10 @@
       </c>
       <c r="AI25">
         <f>INT(5+(X25+(AJ25*0.25)-1)*POWER(X25+(AJ25*0.25),0.2))</f>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="AJ25">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>63</v>
@@ -7877,53 +7946,53 @@
         <v>174</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E62" si="84">1+(D56-1)*0.25</f>
-        <v>4.5</v>
+        <v>7.75</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F62" si="85">INT(200+POWER(E56+(G56*0.25)+1,2)*30)</f>
-        <v>1107</v>
+        <v>4887</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56:H62" si="86">INT(POWER(E56+(I56*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>1419</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56:J62" si="87">INT(50+(E56+(K56*0.25)-1)*POWER(E56+(K56*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>679</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56:L62" si="88">INT(POWER(E56+(M56*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>414</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56:N62" si="89">INT(50+(E56+(O56*0.25)-1)*POWER(E56+(O56*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56:P62" si="90">INT(5+(E56+(Q56*0.25)-1)*POWER(E56+(Q56*0.25),0.2))</f>
-        <v>9</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>20</v>
       </c>
       <c r="R56" s="6" t="s">
         <v>175</v>
@@ -8525,50 +8594,50 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E64">
         <f t="shared" ref="E64:E69" si="91">1+(D64-1)*0.25</f>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F64">
         <f t="shared" ref="F64:F69" si="92">INT(200+POWER(E64+(G64*0.25)+1,2)*30)</f>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" ref="H64:H69" si="93">INT(POWER(E64+(I64*0.25)+4,2)*3)</f>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
         <f t="shared" ref="J64:J69" si="94">INT(50+(E64+(K64*0.25)-1)*POWER(E64+(K64*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
         <f t="shared" ref="L64:L69" si="95">INT(POWER(E64+(M64*0.25)+4,2)*3)</f>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
         <f t="shared" ref="N64:N69" si="96">INT(50+(E64+(O64*0.25)-1)*POWER(E64+(O64*0.25),0.5)*10)</f>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
         <f t="shared" ref="P64:P69" si="97">INT(5+(E64+(Q64*0.25)-1)*POWER(E64+(Q64*0.25),0.2))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -8586,53 +8655,53 @@
         <v>185</v>
       </c>
       <c r="W64">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X64">
         <f>1+(W64-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="Y64">
         <f>INT(POWER(X64+(Z64*0.25),2)*35)</f>
-        <v>3858</v>
+        <v>9528</v>
       </c>
       <c r="Z64">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AA64">
         <f>INT(POWER(X64+(AB64*0.25),3))+40</f>
-        <v>230</v>
+        <v>6631</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC64">
         <f>INT(50+(X64+(AD64*0.25)-1)*POWER(X64+(AD64*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1845</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AE64">
         <f>INT(POWER(X64+(AF64*0.25),3))+40</f>
-        <v>230</v>
+        <v>1463</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG64">
         <f>INT(50+(X64+(AH64*0.25)-1)*POWER(X64+(AH64*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1537</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI64">
         <f>INT(5+(X64+(AJ64*0.25)-1)*POWER(X64+(AJ64*0.25),0.2))</f>
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL64" s="6" t="s">
         <v>179</v>
@@ -8640,8 +8709,11 @@
       <c r="AM64" s="6" t="s">
         <v>186</v>
       </c>
+      <c r="AO64" t="s">
+        <v>633</v>
+      </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B65" s="12" t="s">
         <v>1</v>
       </c>
@@ -8649,50 +8721,50 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <f t="shared" si="91"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F65">
         <f t="shared" si="92"/>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
         <f t="shared" si="93"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
         <f t="shared" si="94"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
         <f t="shared" si="95"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
         <f t="shared" si="96"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
         <f t="shared" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -8710,53 +8782,53 @@
         <v>188</v>
       </c>
       <c r="W65">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="X65">
         <f>1+(W65-1)*0.25</f>
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Y65">
         <f>INT(POWER(X65+(Z65*0.25),2)*35)</f>
-        <v>3858</v>
+        <v>9819</v>
       </c>
       <c r="Z65">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AA65">
         <f>INT(POWER(X65+(AB65*0.25),3))+40</f>
-        <v>230</v>
+        <v>3586</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC65">
         <f>INT(50+(X65+(AD65*0.25)-1)*POWER(X65+(AD65*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>2194</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AE65">
         <f>INT(POWER(X65+(AF65*0.25),3))+40</f>
-        <v>230</v>
+        <v>8343</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AG65">
         <f>INT(50+(X65+(AH65*0.25)-1)*POWER(X65+(AH65*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1888</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AI65">
         <f>INT(5+(X65+(AJ65*0.25)-1)*POWER(X65+(AJ65*0.25),0.2))</f>
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AL65" s="6" t="s">
         <v>127</v>
@@ -8765,7 +8837,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B66" s="12" t="s">
         <v>1</v>
       </c>
@@ -8773,50 +8845,50 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E66">
         <f t="shared" si="91"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F66">
         <f t="shared" si="92"/>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
         <f t="shared" si="93"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
         <f t="shared" si="94"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
         <f t="shared" si="95"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
         <f t="shared" si="96"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
         <f t="shared" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -8832,7 +8904,7 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B67" s="12" t="s">
         <v>1</v>
       </c>
@@ -8840,50 +8912,50 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <f t="shared" si="91"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F67">
         <f t="shared" si="92"/>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
         <f t="shared" si="93"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
         <f t="shared" si="94"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
         <f t="shared" si="95"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
         <f t="shared" si="96"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67">
         <f t="shared" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -8899,7 +8971,7 @@
       <c r="AL67" s="5"/>
       <c r="AM67" s="5"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B68" s="12" t="s">
         <v>1</v>
       </c>
@@ -8907,50 +8979,50 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <f t="shared" si="91"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F68">
         <f t="shared" si="92"/>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
         <f t="shared" si="93"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
         <f t="shared" si="94"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
       <c r="L68">
         <f t="shared" si="95"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
         <f t="shared" si="96"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
         <f t="shared" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -8966,7 +9038,7 @@
       <c r="AL68" s="5"/>
       <c r="AM68" s="5"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B69" s="12" t="s">
         <v>1</v>
       </c>
@@ -8974,50 +9046,50 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E69">
         <f t="shared" si="91"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="F69">
         <f t="shared" si="92"/>
-        <v>741</v>
+        <v>1776</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
         <f t="shared" si="93"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
         <f t="shared" si="94"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
         <f t="shared" si="95"/>
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
         <f t="shared" si="96"/>
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
         <f t="shared" si="97"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -9033,14 +9105,14 @@
       <c r="AL69" s="5"/>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>598</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>577</v>
       </c>
@@ -9164,7 +9236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
         <v>577</v>
       </c>
@@ -9230,7 +9302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>577</v>
       </c>
@@ -9300,12 +9372,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B75" s="12" t="s">
         <v>1</v>
       </c>
@@ -9374,50 +9446,50 @@
         <v>204</v>
       </c>
       <c r="W75">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X75">
         <f>1+(W75-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y75">
         <f>INT(POWER(X75+(Z75*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>10115</v>
       </c>
       <c r="Z75">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA75">
         <f>INT(POWER(X75+(AB75*0.25),3))+40</f>
-        <v>1768</v>
+        <v>3088</v>
       </c>
       <c r="AB75">
         <v>20</v>
       </c>
       <c r="AC75">
         <f>INT(50+(X75+(AD75*0.25)-1)*POWER(X75+(AD75*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>564</v>
       </c>
       <c r="AD75">
         <v>20</v>
       </c>
       <c r="AE75">
         <f>INT(POWER(X75+(AF75*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AF75">
         <v>0</v>
       </c>
       <c r="AG75">
         <f>INT(50+(X75+(AH75*0.25)-1)*POWER(X75+(AH75*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="AH75">
         <v>0</v>
       </c>
       <c r="AI75">
         <f>INT(5+(X75+(AJ75*0.25)-1)*POWER(X75+(AJ75*0.25),0.2))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -9431,8 +9503,11 @@
       <c r="AN75" t="s">
         <v>589</v>
       </c>
+      <c r="AO75" t="s">
+        <v>634</v>
+      </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
         <v>190</v>
       </c>
@@ -9440,50 +9515,50 @@
         <v>191</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E76">
         <f>1+(D76-1)*0.25</f>
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="F76">
         <f>INT(200+POWER(E76+(G76*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>1887</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
         <f>INT(POWER(E76+(I76*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
         <f>INT(50+(E76+(K76*0.25)-1)*POWER(E76+(K76*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
         <f>INT(POWER(E76+(M76*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
         <f>INT(50+(E76+(O76*0.25)-1)*POWER(E76+(O76*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
         <f>INT(5+(E76+(Q76*0.25)-1)*POWER(E76+(Q76*0.25),0.2))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -9501,50 +9576,50 @@
         <v>212</v>
       </c>
       <c r="W76">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X76">
         <f>1+(W76-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>4044</v>
+        <v>7875</v>
       </c>
       <c r="Z76">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>230</v>
+        <v>709</v>
       </c>
       <c r="AB76">
         <v>0</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="AD76">
         <v>0</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
-        <v>230</v>
+        <v>709</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
         <f>INT(50+(X76+(AH76*0.25)-1)*POWER(X76+(AH76*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="AH76">
         <v>0</v>
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AJ76">
         <v>0</v>
@@ -9556,7 +9631,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.15">
       <c r="U77" s="16" t="s">
         <v>213</v>
       </c>
@@ -9564,50 +9639,50 @@
         <v>214</v>
       </c>
       <c r="W77">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X77">
         <f>1+(W77-1)*0.25</f>
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>4429</v>
+        <v>8408</v>
       </c>
       <c r="Z77">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>284</v>
+        <v>769</v>
       </c>
       <c r="AB77">
         <v>0</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="AD77">
         <v>0</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
-        <v>284</v>
+        <v>769</v>
       </c>
       <c r="AF77">
         <v>0</v>
       </c>
       <c r="AG77">
         <f>INT(50+(X77+(AH77*0.25)-1)*POWER(X77+(AH77*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="AH77">
         <v>0</v>
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -9619,7 +9694,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B78" s="16"/>
       <c r="C78" s="6"/>
       <c r="R78" s="6"/>
@@ -9631,50 +9706,50 @@
         <v>216</v>
       </c>
       <c r="W78">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X78">
         <f>1+(W78-1)*0.25</f>
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y78">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
-        <v>4832</v>
+        <v>8960</v>
       </c>
       <c r="Z78">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>314</v>
+        <v>831</v>
       </c>
       <c r="AB78">
         <v>0</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="AD78">
         <v>0</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
-        <v>314</v>
+        <v>831</v>
       </c>
       <c r="AF78">
         <v>0</v>
       </c>
       <c r="AG78">
         <f>INT(50+(X78+(AH78*0.25)-1)*POWER(X78+(AH78*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="AH78">
         <v>0</v>
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -9686,12 +9761,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B80" s="12" t="s">
         <v>1</v>
       </c>
@@ -9816,6 +9891,9 @@
       </c>
       <c r="AN80" t="s">
         <v>589</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.15">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3721,9 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z72" sqref="Z72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8698,10 +8698,10 @@
       </c>
       <c r="AI64">
         <f>INT(5+(X64+(AJ64*0.25)-1)*POWER(X64+(AJ64*0.25),0.2))</f>
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AJ64">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AL64" s="6" t="s">
         <v>179</v>
@@ -8825,10 +8825,10 @@
       </c>
       <c r="AI65">
         <f>INT(5+(X65+(AJ65*0.25)-1)*POWER(X65+(AJ65*0.25),0.2))</f>
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="AJ65">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AL65" s="6" t="s">
         <v>127</v>
@@ -9454,24 +9454,24 @@
       </c>
       <c r="Y75">
         <f>INT(POWER(X75+(Z75*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>13308</v>
       </c>
       <c r="Z75">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA75">
         <f>INT(POWER(X75+(AB75*0.25),3))+40</f>
-        <v>3088</v>
+        <v>10688</v>
       </c>
       <c r="AB75">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AC75">
         <f>INT(50+(X75+(AD75*0.25)-1)*POWER(X75+(AD75*0.25),0.5)*10)</f>
-        <v>564</v>
+        <v>12195</v>
       </c>
       <c r="AD75">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AE75">
         <f>INT(POWER(X75+(AF75*0.25),3))+40</f>
@@ -9482,17 +9482,17 @@
       </c>
       <c r="AG75">
         <f>INT(50+(X75+(AH75*0.25)-1)*POWER(X75+(AH75*0.25),0.5)*10)</f>
-        <v>311</v>
+        <v>7725</v>
       </c>
       <c r="AH75">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AI75">
         <f>INT(5+(X75+(AJ75*0.25)-1)*POWER(X75+(AJ75*0.25),0.2))</f>
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL75" s="6" t="s">
         <v>205</v>
@@ -9515,53 +9515,53 @@
         <v>191</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <f>1+(D76-1)*0.25</f>
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="F76">
         <f>INT(200+POWER(E76+(G76*0.25)+1,2)*30)</f>
-        <v>1887</v>
+        <v>7407</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H76">
         <f>INT(POWER(E76+(I76*0.25)+4,2)*3)</f>
-        <v>330</v>
+        <v>1837</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <f>INT(50+(E76+(K76*0.25)-1)*POWER(E76+(K76*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>866</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L76">
         <f>INT(POWER(E76+(M76*0.25)+4,2)*3)</f>
-        <v>330</v>
+        <v>652</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N76">
         <f>INT(50+(E76+(O76*0.25)-1)*POWER(E76+(O76*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>635</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P76">
         <f>INT(5+(E76+(Q76*0.25)-1)*POWER(E76+(Q76*0.25),0.2))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R76" s="6" t="s">
         <v>192</v>
@@ -9591,17 +9591,17 @@
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>709</v>
+        <v>8040</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>279</v>
+        <v>6949</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
@@ -9612,17 +9612,17 @@
       </c>
       <c r="AG76">
         <f>INT(50+(X76+(AH76*0.25)-1)*POWER(X76+(AH76*0.25),0.5)*10)</f>
-        <v>279</v>
+        <v>1952</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AJ76">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL76" s="6" t="s">
         <v>63</v>
@@ -9654,17 +9654,17 @@
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>769</v>
+        <v>7743</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
+        <v>7317</v>
+      </c>
+      <c r="AD77">
         <v>290</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
@@ -9675,17 +9675,17 @@
       </c>
       <c r="AG77">
         <f>INT(50+(X77+(AH77*0.25)-1)*POWER(X77+(AH77*0.25),0.5)*10)</f>
-        <v>290</v>
+        <v>2194</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL77" s="6" t="s">
         <v>63</v>
@@ -9721,17 +9721,17 @@
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>831</v>
+        <v>8343</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
+        <v>7691</v>
+      </c>
+      <c r="AD78">
         <v>300</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
@@ -9742,17 +9742,17 @@
       </c>
       <c r="AG78">
         <f>INT(50+(X78+(AH78*0.25)-1)*POWER(X78+(AH78*0.25),0.5)*10)</f>
-        <v>300</v>
+        <v>2446</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="AJ78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL78" s="6" t="s">
         <v>63</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3721,9 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ79" sqref="AJ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9385,50 +9385,50 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E75">
         <f>1+(D75-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F75">
         <f>INT(200+POWER(E75+(G75*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
         <f>INT(POWER(E75+(I75*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
         <f>INT(50+(E75+(K75*0.25)-1)*POWER(E75+(K75*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
         <f>INT(POWER(E75+(M75*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
         <f>INT(50+(E75+(O75*0.25)-1)*POWER(E75+(O75*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
         <f>INT(5+(E75+(Q75*0.25)-1)*POWER(E75+(Q75*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -9454,31 +9454,31 @@
       </c>
       <c r="Y75">
         <f>INT(POWER(X75+(Z75*0.25),2)*35)</f>
-        <v>13308</v>
+        <v>21008</v>
       </c>
       <c r="Z75">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA75">
         <f>INT(POWER(X75+(AB75*0.25),3))+40</f>
-        <v>10688</v>
+        <v>1768</v>
       </c>
       <c r="AB75">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AC75">
         <f>INT(50+(X75+(AD75*0.25)-1)*POWER(X75+(AD75*0.25),0.5)*10)</f>
-        <v>12195</v>
+        <v>24974</v>
       </c>
       <c r="AD75">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="AE75">
         <f>INT(POWER(X75+(AF75*0.25),3))+40</f>
-        <v>897</v>
+        <v>6118</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AG75">
         <f>INT(50+(X75+(AH75*0.25)-1)*POWER(X75+(AH75*0.25),0.5)*10)</f>
@@ -9489,10 +9489,10 @@
       </c>
       <c r="AI75">
         <f>INT(5+(X75+(AJ75*0.25)-1)*POWER(X75+(AJ75*0.25),0.2))</f>
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="AJ75">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
         <v>205</v>
@@ -9584,24 +9584,24 @@
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>7875</v>
+        <v>6860</v>
       </c>
       <c r="Z76">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>8040</v>
+        <v>4739</v>
       </c>
       <c r="AB76">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>6949</v>
+        <v>8316</v>
       </c>
       <c r="AD76">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
@@ -9619,10 +9619,10 @@
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="AJ76">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="AL76" s="6" t="s">
         <v>63</v>
@@ -9647,24 +9647,24 @@
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>8408</v>
+        <v>7614</v>
       </c>
       <c r="Z77">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>7743</v>
+        <v>5172</v>
       </c>
       <c r="AB77">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
-        <v>7317</v>
+        <v>8706</v>
       </c>
       <c r="AD77">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
@@ -9682,10 +9682,10 @@
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="AJ77">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="AL77" s="6" t="s">
         <v>63</v>
@@ -9721,17 +9721,17 @@
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>8343</v>
+        <v>5872</v>
       </c>
       <c r="AB78">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
-        <v>7691</v>
+        <v>9102</v>
       </c>
       <c r="AD78">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
@@ -9749,10 +9749,10 @@
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="AJ78">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="AL78" s="6" t="s">
         <v>63</v>
@@ -9774,50 +9774,50 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <f>1+(D80-1)*0.25</f>
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="F80">
         <f>INT(200+POWER(E80+(G80*0.25)+1,2)*30)</f>
-        <v>876</v>
+        <v>2120</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
         <f>INT(POWER(E80+(I80*0.25)+4,2)*3)</f>
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
         <f>INT(50+(E80+(K80*0.25)-1)*POWER(E80+(K80*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
         <f>INT(POWER(E80+(M80*0.25)+4,2)*3)</f>
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
         <f>INT(50+(E80+(O80*0.25)-1)*POWER(E80+(O80*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
         <f>INT(5+(E80+(Q80*0.25)-1)*POWER(E80+(Q80*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q80">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -2153,25 +2153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结识郭靖利用高攻击杀</t>
-    <rPh sb="0" eb="1">
-      <t>jie'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guo'jing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>li'yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gao'gong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ji'sha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得门派高级秘籍才好击杀</t>
     <rPh sb="0" eb="1">
       <t>huo'de</t>
@@ -2190,6 +2171,31 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结识郭靖利用降防高攻击杀</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'gong</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>ji'sha</t>
@@ -3722,8 +3728,8 @@
   <dimension ref="A1:AO187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ79" sqref="AJ79"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8670,17 +8676,17 @@
       </c>
       <c r="AA64">
         <f>INT(POWER(X64+(AB64*0.25),3))+40</f>
-        <v>6631</v>
+        <v>5399</v>
       </c>
       <c r="AB64">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC64">
         <f>INT(50+(X64+(AD64*0.25)-1)*POWER(X64+(AD64*0.25),0.5)*10)</f>
-        <v>1845</v>
+        <v>1537</v>
       </c>
       <c r="AD64">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AE64">
         <f>INT(POWER(X64+(AF64*0.25),3))+40</f>
@@ -8691,17 +8697,17 @@
       </c>
       <c r="AG64">
         <f>INT(50+(X64+(AH64*0.25)-1)*POWER(X64+(AH64*0.25),0.5)*10)</f>
-        <v>1537</v>
+        <v>1343</v>
       </c>
       <c r="AH64">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI64">
         <f>INT(5+(X64+(AJ64*0.25)-1)*POWER(X64+(AJ64*0.25),0.2))</f>
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AJ64">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AL64" s="6" t="s">
         <v>179</v>
@@ -8804,31 +8810,31 @@
       </c>
       <c r="AC65">
         <f>INT(50+(X65+(AD65*0.25)-1)*POWER(X65+(AD65*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>1974</v>
       </c>
       <c r="AD65">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE65">
         <f>INT(POWER(X65+(AF65*0.25),3))+40</f>
-        <v>8343</v>
+        <v>5632</v>
       </c>
       <c r="AF65">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG65">
         <f>INT(50+(X65+(AH65*0.25)-1)*POWER(X65+(AH65*0.25),0.5)*10)</f>
-        <v>1888</v>
+        <v>1679</v>
       </c>
       <c r="AH65">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AI65">
         <f>INT(5+(X65+(AJ65*0.25)-1)*POWER(X65+(AJ65*0.25),0.2))</f>
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AJ65">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AL65" s="6" t="s">
         <v>127</v>
@@ -9504,7 +9510,7 @@
         <v>589</v>
       </c>
       <c r="AO75" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
@@ -9584,24 +9590,24 @@
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>6860</v>
+        <v>9242</v>
       </c>
       <c r="Z76">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>4739</v>
+        <v>3763</v>
       </c>
       <c r="AB76">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>8316</v>
+        <v>1952</v>
       </c>
       <c r="AD76">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
@@ -9619,10 +9625,10 @@
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="AJ76">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AL76" s="6" t="s">
         <v>63</v>
@@ -9647,24 +9653,24 @@
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>7614</v>
+        <v>9819</v>
       </c>
       <c r="Z77">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>5172</v>
+        <v>4739</v>
       </c>
       <c r="AB77">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
-        <v>8706</v>
+        <v>2194</v>
       </c>
       <c r="AD77">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
@@ -9682,10 +9688,10 @@
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="AJ77">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AL77" s="6" t="s">
         <v>63</v>
@@ -9714,24 +9720,24 @@
       </c>
       <c r="Y78">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
-        <v>8960</v>
+        <v>10414</v>
       </c>
       <c r="Z78">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>5872</v>
+        <v>4331</v>
       </c>
       <c r="AB78">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
-        <v>9102</v>
+        <v>2446</v>
       </c>
       <c r="AD78">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
@@ -9749,10 +9755,10 @@
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="AJ78">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AL78" s="6" t="s">
         <v>63</v>
@@ -9835,53 +9841,53 @@
         <v>219</v>
       </c>
       <c r="W80">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X80">
         <f>1+(W80-1)*0.25</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y80">
         <f>INT(POWER(X80+(Z80*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>25515</v>
       </c>
       <c r="Z80">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AA80">
         <f>INT(POWER(X80+(AB80*0.25),3))+40</f>
-        <v>3946</v>
+        <v>10688</v>
       </c>
       <c r="AB80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC80">
         <f>INT(50+(X80+(AD80*0.25)-1)*POWER(X80+(AD80*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>9504</v>
       </c>
       <c r="AD80">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AE80">
         <f>INT(POWER(X80+(AF80*0.25),3))+40</f>
-        <v>601</v>
+        <v>1768</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG80">
         <f>INT(50+(X80+(AH80*0.25)-1)*POWER(X80+(AH80*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>6394</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AI80">
         <f>INT(5+(X80+(AJ80*0.25)-1)*POWER(X80+(AJ80*0.25),0.2))</f>
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="AJ80">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AL80" s="6" t="s">
         <v>220</v>
@@ -9893,7 +9899,7 @@
         <v>589</v>
       </c>
       <c r="AO80" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.15">
@@ -9965,53 +9971,53 @@
         <v>223</v>
       </c>
       <c r="W81">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="X81">
         <f>1+(W81-1)*0.25</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y81">
         <f>INT(POWER(X81+(Z81*0.25),2)*35)</f>
-        <v>5252</v>
+        <v>10718</v>
       </c>
       <c r="Z81">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AA81">
         <f>INT(POWER(X81+(AB81*0.25),3))+40</f>
-        <v>347</v>
+        <v>5632</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC81">
         <f>INT(50+(X81+(AD81*0.25)-1)*POWER(X81+(AD81*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>5090</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AE81">
         <f>INT(POWER(X81+(AF81*0.25),3))+40</f>
-        <v>347</v>
+        <v>769</v>
       </c>
       <c r="AF81">
         <v>0</v>
       </c>
       <c r="AG81">
         <f>INT(50+(X81+(AH81*0.25)-1)*POWER(X81+(AH81*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="AH81">
         <v>0</v>
       </c>
       <c r="AI81">
         <f>INT(5+(X81+(AJ81*0.25)-1)*POWER(X81+(AJ81*0.25),0.2))</f>
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AL81" s="6" t="s">
         <v>65</v>
@@ -10029,53 +10035,53 @@
         <v>226</v>
       </c>
       <c r="W82">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="X82">
         <f>1+(W82-1)*0.25</f>
-        <v>6.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y82">
         <f>INT(POWER(X82+(Z82*0.25),2)*35)</f>
-        <v>5252</v>
+        <v>11340</v>
       </c>
       <c r="Z82">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AA82">
         <f>INT(POWER(X82+(AB82*0.25),3))+40</f>
-        <v>347</v>
+        <v>2237</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC82">
         <f>INT(50+(X82+(AD82*0.25)-1)*POWER(X82+(AD82*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>5270</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="AE82">
         <f>INT(POWER(X82+(AF82*0.25),3))+40</f>
-        <v>347</v>
+        <v>6118</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG82">
         <f>INT(50+(X82+(AH82*0.25)-1)*POWER(X82+(AH82*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>4533</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI82">
         <f>INT(5+(X82+(AJ82*0.25)-1)*POWER(X82+(AJ82*0.25),0.2))</f>
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL82" s="6" t="s">
         <v>227</v>
@@ -10093,53 +10099,53 @@
         <v>230</v>
       </c>
       <c r="W83">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="X83">
         <f>1+(W83-1)*0.25</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y83">
         <f>INT(POWER(X83+(Z83*0.25),2)*35)</f>
-        <v>5468</v>
+        <v>11340</v>
       </c>
       <c r="Z83">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AA83">
         <f>INT(POWER(X83+(AB83*0.25),3))+40</f>
-        <v>347</v>
+        <v>6118</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AC83">
         <f>INT(50+(X83+(AD83*0.25)-1)*POWER(X83+(AD83*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>5391</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AE83">
         <f>INT(POWER(X83+(AF83*0.25),3))+40</f>
-        <v>347</v>
+        <v>769</v>
       </c>
       <c r="AF83">
         <v>0</v>
       </c>
       <c r="AG83">
         <f>INT(50+(X83+(AH83*0.25)-1)*POWER(X83+(AH83*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="AH83">
         <v>0</v>
       </c>
       <c r="AI83">
         <f>INT(5+(X83+(AJ83*0.25)-1)*POWER(X83+(AJ83*0.25),0.2))</f>
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="AJ83">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AL83" s="6" t="s">
         <v>63</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="632">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,9 +521,6 @@
     <t>105201</t>
   </si>
   <si>
-    <t>15002|10008|10009</t>
-  </si>
-  <si>
     <t>06002003</t>
   </si>
   <si>
@@ -599,9 +596,6 @@
     <t>104205</t>
   </si>
   <si>
-    <t>13003|10011|15003</t>
-  </si>
-  <si>
     <t>07001002</t>
   </si>
   <si>
@@ -650,9 +644,6 @@
     <t>100304</t>
   </si>
   <si>
-    <t>10010|16001|15012</t>
-  </si>
-  <si>
     <t>09002002</t>
   </si>
   <si>
@@ -701,9 +692,6 @@
     <t>104206</t>
   </si>
   <si>
-    <t>10010|13004|16003</t>
-  </si>
-  <si>
     <t>10001003</t>
   </si>
   <si>
@@ -1058,9 +1046,6 @@
     <t>102106</t>
   </si>
   <si>
-    <t>12011|16005|10013</t>
-  </si>
-  <si>
     <t>18002003</t>
   </si>
   <si>
@@ -1110,9 +1095,6 @@
   </si>
   <si>
     <t>丘处机</t>
-  </si>
-  <si>
-    <t>12009|16001</t>
   </si>
   <si>
     <t>12010|16001</t>
@@ -1389,9 +1371,6 @@
     <t>106008</t>
   </si>
   <si>
-    <t>15009|15010</t>
-  </si>
-  <si>
     <t>25002005</t>
   </si>
   <si>
@@ -1429,9 +1408,6 @@
   </si>
   <si>
     <t>106002</t>
-  </si>
-  <si>
-    <t>10019|15011|16003</t>
   </si>
   <si>
     <t>26002003</t>
@@ -1815,10 +1791,6 @@
   </si>
   <si>
     <t>30602|10015|30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10012|12011|16005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2049,28 +2021,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门派兵器+门派初级秘籍+大红（700+）</t>
-    <rPh sb="0" eb="1">
-      <t>men'pai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bing'qi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>men'pai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'j</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mi'ji</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>da'hong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2153,31 +2103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得门派高级秘籍才好击杀</t>
-    <rPh sb="0" eb="1">
-      <t>huo'de</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>men'pai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gao'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mi'ji</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji'sha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结识郭靖利用降防高攻击杀</t>
     <rPh sb="0" eb="1">
       <t>jie'shi</t>
@@ -2193,6 +2118,100 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>fang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao'gong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009|16001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15009|15010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15007|15008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募洪七公降低血上限才好击杀</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hong'qi'gong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xue'shang'xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门派兵器+门派初级秘籍+大红（1000+）</t>
+    <rPh sb="0" eb="1">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mi'ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备点大药（1500+）</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募杨过利用绝对高攻击杀</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang'guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jue'dui</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>gao'gong</t>
@@ -3727,9 +3746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA84" sqref="AA84"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG97" sqref="AG97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3744,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -3861,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4230,12 +4249,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4488,7 +4507,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -4744,7 +4763,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4863,7 +4882,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5205,7 +5224,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5271,7 +5290,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5332,10 +5351,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="AO18" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5462,15 +5481,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AO19" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5718,7 +5737,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5785,7 +5804,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6068,12 +6087,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6197,7 +6216,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6453,10 +6472,10 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="AO33" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6471,7 +6490,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6598,10 +6617,10 @@
         <v>138</v>
       </c>
       <c r="AN36" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="AO36" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7095,7 +7114,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -7157,8 +7176,8 @@
       <c r="R47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="S47" s="5" t="s">
-        <v>150</v>
+      <c r="S47" s="5">
+        <v>15002</v>
       </c>
       <c r="U47" s="13" t="s">
         <v>143</v>
@@ -7222,10 +7241,10 @@
         <v>146</v>
       </c>
       <c r="AN47" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AO47" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7288,13 +7307,13 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="U48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="W48">
         <v>29</v>
@@ -7346,13 +7365,13 @@
         <v>80</v>
       </c>
       <c r="AL48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AM48" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="AN48" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AO48" t="s">
         <v>629</v>
@@ -7418,13 +7437,13 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="U49" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="W49">
         <v>27</v>
@@ -7479,7 +7498,7 @@
         <v>93</v>
       </c>
       <c r="AM49" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.15">
@@ -7542,13 +7561,13 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="U50" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="W50">
         <v>28</v>
@@ -7600,13 +7619,13 @@
         <v>50</v>
       </c>
       <c r="AL50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM50" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AM50" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="AN50" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7669,13 +7688,13 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="U51" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="V51" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="W51">
         <v>28</v>
@@ -7727,13 +7746,13 @@
         <v>60</v>
       </c>
       <c r="AL51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AM51" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AM51" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="AN51" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -7796,13 +7815,13 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="U52" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="V52" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="W52">
         <v>29</v>
@@ -7854,13 +7873,13 @@
         <v>80</v>
       </c>
       <c r="AL52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="AM52" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="AN52" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -7923,7 +7942,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -7941,15 +7960,15 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D56">
         <v>28</v>
@@ -8001,16 +8020,16 @@
         <v>20</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="S56" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="S56" s="6">
+        <v>13003</v>
       </c>
       <c r="U56" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="V56" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="V56" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="W56">
         <v>30</v>
@@ -8065,10 +8084,10 @@
         <v>52</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO56" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8131,13 +8150,13 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W57">
         <v>29</v>
@@ -8189,10 +8208,10 @@
         <v>70</v>
       </c>
       <c r="AL57" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM57" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.15">
@@ -8255,13 +8274,13 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V58" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W58">
         <v>31</v>
@@ -8316,7 +8335,7 @@
         <v>63</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.15">
@@ -8379,7 +8398,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8446,7 +8465,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8513,7 +8532,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8580,7 +8599,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8589,7 +8608,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8652,13 +8671,13 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="U64" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W64">
         <v>32</v>
@@ -8710,13 +8729,13 @@
         <v>180</v>
       </c>
       <c r="AL64" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM64" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO64" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -8779,13 +8798,13 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V65" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W65">
         <v>33</v>
@@ -8840,7 +8859,7 @@
         <v>127</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.15">
@@ -8903,7 +8922,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -8970,7 +8989,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9037,7 +9056,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9104,7 +9123,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9113,14 +9132,14 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9181,10 +9200,10 @@
         <v>57</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V71" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W71" s="9">
         <v>25</v>
@@ -9236,21 +9255,21 @@
         <v>0</v>
       </c>
       <c r="AL71" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM71" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="U72" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W72">
         <v>20</v>
@@ -9305,22 +9324,22 @@
         <v>127</v>
       </c>
       <c r="AM72" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="U73" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="W73">
         <v>20</v>
@@ -9375,12 +9394,12 @@
         <v>127</v>
       </c>
       <c r="AM73" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9443,13 +9462,13 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="U75" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="W75">
         <v>35</v>
@@ -9501,24 +9520,24 @@
         <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AM75" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AN75" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="AO75" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D76">
         <v>30</v>
@@ -9570,16 +9589,16 @@
         <v>5</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S76" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="S76" s="6">
+        <v>10010</v>
       </c>
       <c r="U76" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="W76">
         <v>32</v>
@@ -9639,10 +9658,10 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.15">
       <c r="U77" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="W77">
         <v>33</v>
@@ -9706,10 +9725,10 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="U78" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V78" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="W78">
         <v>34</v>
@@ -9764,12 +9783,12 @@
         <v>63</v>
       </c>
       <c r="AM78" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -9832,13 +9851,13 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="U80" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="W80">
         <v>35</v>
@@ -9849,24 +9868,24 @@
       </c>
       <c r="Y80">
         <f>INT(POWER(X80+(Z80*0.25),2)*35)</f>
-        <v>25515</v>
+        <v>61740</v>
       </c>
       <c r="Z80">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AA80">
         <f>INT(POWER(X80+(AB80*0.25),3))+40</f>
-        <v>10688</v>
+        <v>4953</v>
       </c>
       <c r="AB80">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AC80">
         <f>INT(50+(X80+(AD80*0.25)-1)*POWER(X80+(AD80*0.25),0.5)*10)</f>
-        <v>9504</v>
+        <v>8422</v>
       </c>
       <c r="AD80">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AE80">
         <f>INT(POWER(X80+(AF80*0.25),3))+40</f>
@@ -9884,91 +9903,91 @@
       </c>
       <c r="AI80">
         <f>INT(5+(X80+(AJ80*0.25)-1)*POWER(X80+(AJ80*0.25),0.2))</f>
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="AJ80">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AL80" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AM80" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AN80" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="AO80" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E81">
         <f>1+(D81-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="F81">
         <f>INT(200+POWER(E81+(G81*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>8616</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <f>INT(POWER(E81+(I81*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>2227</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J81">
         <f>INT(50+(E81+(K81*0.25)-1)*POWER(E81+(K81*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1213</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L81">
         <f>INT(POWER(E81+(M81*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>892</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N81">
         <f>INT(50+(E81+(O81*0.25)-1)*POWER(E81+(O81*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>564</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P81">
         <f>INT(5+(E81+(Q81*0.25)-1)*POWER(E81+(Q81*0.25),0.2))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="S81" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="S81" s="6">
+        <v>10020</v>
       </c>
       <c r="U81" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="W81">
         <v>33</v>
@@ -9986,10 +10005,10 @@
       </c>
       <c r="AA81">
         <f>INT(POWER(X81+(AB81*0.25),3))+40</f>
-        <v>5632</v>
+        <v>6899</v>
       </c>
       <c r="AB81">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC81">
         <f>INT(50+(X81+(AD81*0.25)-1)*POWER(X81+(AD81*0.25),0.5)*10)</f>
@@ -10014,25 +10033,25 @@
       </c>
       <c r="AI81">
         <f>INT(5+(X81+(AJ81*0.25)-1)*POWER(X81+(AJ81*0.25),0.2))</f>
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="AJ81">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AL81" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AM81" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R82" s="5"/>
       <c r="U82" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="W82">
         <v>34</v>
@@ -10064,10 +10083,10 @@
       </c>
       <c r="AE82">
         <f>INT(POWER(X82+(AF82*0.25),3))+40</f>
-        <v>6118</v>
+        <v>8655</v>
       </c>
       <c r="AF82">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AG82">
         <f>INT(50+(X82+(AH82*0.25)-1)*POWER(X82+(AH82*0.25),0.5)*10)</f>
@@ -10084,19 +10103,19 @@
         <v>110</v>
       </c>
       <c r="AL82" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM82" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R83" s="5"/>
       <c r="U83" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="W83">
         <v>33</v>
@@ -10107,24 +10126,24 @@
       </c>
       <c r="Y83">
         <f>INT(POWER(X83+(Z83*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>10718</v>
       </c>
       <c r="Z83">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA83">
         <f>INT(POWER(X83+(AB83*0.25),3))+40</f>
-        <v>6118</v>
+        <v>4532</v>
       </c>
       <c r="AB83">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC83">
         <f>INT(50+(X83+(AD83*0.25)-1)*POWER(X83+(AD83*0.25),0.5)*10)</f>
-        <v>5391</v>
+        <v>5090</v>
       </c>
       <c r="AD83">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AE83">
         <f>INT(POWER(X83+(AF83*0.25),3))+40</f>
@@ -10142,28 +10161,31 @@
       </c>
       <c r="AI83">
         <f>INT(5+(X83+(AJ83*0.25)-1)*POWER(X83+(AJ83*0.25),0.2))</f>
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="AJ83">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AL83" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>630</v>
       </c>
     </row>
-    <row r="84" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10224,10 +10246,10 @@
         <v>57</v>
       </c>
       <c r="U85" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="V85" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="W85" s="9">
         <v>6</v>
@@ -10282,19 +10304,19 @@
         <v>52</v>
       </c>
       <c r="AM85" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="W86">
         <v>6</v>
@@ -10352,65 +10374,65 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="R87" s="5"/>
       <c r="U87" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="W87">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X87">
         <f>1+(W87-1)*0.25</f>
-        <v>2.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y87">
         <f>INT(POWER(X87+(Z87*0.25),2)*35)</f>
-        <v>177</v>
+        <v>8682</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA87">
         <f>INT(POWER(X87+(AB87*0.25),3))+40</f>
-        <v>51</v>
+        <v>3946</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC87">
         <f>INT(50+(X87+(AD87*0.25)-1)*POWER(X87+(AD87*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>1498</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE87">
         <f>INT(POWER(X87+(AF87*0.25),3))+40</f>
-        <v>51</v>
+        <v>601</v>
       </c>
       <c r="AF87">
         <v>0</v>
       </c>
       <c r="AG87">
         <f>INT(50+(X87+(AH87*0.25)-1)*POWER(X87+(AH87*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AH87">
         <v>0</v>
       </c>
       <c r="AI87">
         <f>INT(5+(X87+(AJ87*0.25)-1)*POWER(X87+(AJ87*0.25),0.2))</f>
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="AJ87">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL87" s="6" t="s">
         <v>52</v>
@@ -10419,16 +10441,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="R88" s="5"/>
       <c r="U88" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="W88">
         <v>6</v>
@@ -10483,15 +10505,15 @@
         <v>63</v>
       </c>
       <c r="AM88" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B90" s="12" t="s">
         <v>1</v>
       </c>
@@ -10499,50 +10521,50 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E90">
         <f>1+(D90-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F90">
         <f>INT(200+POWER(E90+(G90*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
         <f>INT(POWER(E90+(I90*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
         <f>INT(50+(E90+(K90*0.25)-1)*POWER(E90+(K90*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
         <f>INT(POWER(E90+(M90*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
         <f>INT(50+(E90+(O90*0.25)-1)*POWER(E90+(O90*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
         <f>INT(5+(E90+(Q90*0.25)-1)*POWER(E90+(Q90*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -10551,335 +10573,338 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="U90" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="W90">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X90">
         <f>1+(W90-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y90">
         <f>INT(POWER(X90+(Z90*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>21875</v>
       </c>
       <c r="Z90">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AA90">
         <f>INT(POWER(X90+(AB90*0.25),3))+40</f>
-        <v>1768</v>
+        <v>1878</v>
       </c>
       <c r="AB90">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC90">
         <f>INT(50+(X90+(AD90*0.25)-1)*POWER(X90+(AD90*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>9875</v>
       </c>
       <c r="AD90">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AE90">
         <f>INT(POWER(X90+(AF90*0.25),3))+40</f>
-        <v>383</v>
+        <v>7454</v>
       </c>
       <c r="AF90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG90">
         <f>INT(50+(X90+(AH90*0.25)-1)*POWER(X90+(AH90*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>7794</v>
       </c>
       <c r="AH90">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="AI90">
         <f>INT(5+(X90+(AJ90*0.25)-1)*POWER(X90+(AJ90*0.25),0.2))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ90">
         <v>0</v>
       </c>
       <c r="AL90" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AM90" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AN90" t="s">
-        <v>589</v>
+        <v>580</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B91" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E91">
         <f>1+(D91-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="F91">
         <f>INT(200+POWER(E91+(G91*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>7176</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H91">
         <f>INT(POWER(E91+(I91*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>1656</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <f>INT(50+(E91+(K91*0.25)-1)*POWER(E91+(K91*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>949</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L91">
         <f>INT(POWER(E91+(M91*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>546</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N91">
         <f>INT(50+(E91+(O91*0.25)-1)*POWER(E91+(O91*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P91">
         <f>INT(5+(E91+(Q91*0.25)-1)*POWER(E91+(Q91*0.25),0.2))</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R91" s="6">
         <v>102105</v>
       </c>
-      <c r="S91" t="s">
-        <v>576</v>
+      <c r="S91">
+        <v>10012</v>
       </c>
       <c r="U91" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W91">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="X91">
         <f>1+(W91-1)*0.25</f>
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y91">
         <f>INT(POWER(X91+(Z91*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>9242</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA91">
         <f>INT(POWER(X91+(AB91*0.25),3))+40</f>
-        <v>284</v>
+        <v>5399</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC91">
         <f>INT(50+(X91+(AD91*0.25)-1)*POWER(X91+(AD91*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>1952</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE91">
         <f>INT(POWER(X91+(AF91*0.25),3))+40</f>
-        <v>284</v>
+        <v>709</v>
       </c>
       <c r="AF91">
         <v>0</v>
       </c>
       <c r="AG91">
         <f>INT(50+(X91+(AH91*0.25)-1)*POWER(X91+(AH91*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>1952</v>
       </c>
       <c r="AH91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI91">
         <f>INT(5+(X91+(AJ91*0.25)-1)*POWER(X91+(AJ91*0.25),0.2))</f>
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AL91" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B92" s="16"/>
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
       <c r="U92" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="W92">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="X92">
         <f>1+(W92-1)*0.25</f>
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Y92">
         <f>INT(POWER(X92+(Z92*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>10115</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA92">
         <f>INT(POWER(X92+(AB92*0.25),3))+40</f>
-        <v>230</v>
+        <v>5872</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC92">
         <f>INT(50+(X92+(AD92*0.25)-1)*POWER(X92+(AD92*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>2194</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AE92">
         <f>INT(POWER(X92+(AF92*0.25),3))+40</f>
-        <v>230</v>
+        <v>769</v>
       </c>
       <c r="AF92">
         <v>0</v>
       </c>
       <c r="AG92">
         <f>INT(50+(X92+(AH92*0.25)-1)*POWER(X92+(AH92*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>2194</v>
       </c>
       <c r="AH92">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AI92">
         <f>INT(5+(X92+(AJ92*0.25)-1)*POWER(X92+(AJ92*0.25),0.2))</f>
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="AJ92">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AL92" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM92" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B93" s="16"/>
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
       <c r="U93" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="W93">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X93">
         <f>1+(W93-1)*0.25</f>
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y93">
         <f>INT(POWER(X93+(Z93*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>10414</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA93">
         <f>INT(POWER(X93+(AB93*0.25),3))+40</f>
-        <v>314</v>
+        <v>7173</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC93">
         <f>INT(50+(X93+(AD93*0.25)-1)*POWER(X93+(AD93*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>2683</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AE93">
         <f>INT(POWER(X93+(AF93*0.25),3))+40</f>
-        <v>314</v>
+        <v>831</v>
       </c>
       <c r="AF93">
         <v>0</v>
       </c>
       <c r="AG93">
         <f>INT(50+(X93+(AH93*0.25)-1)*POWER(X93+(AH93*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>2446</v>
       </c>
       <c r="AH93">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AI93">
         <f>INT(5+(X93+(AJ93*0.25)-1)*POWER(X93+(AJ93*0.25),0.2))</f>
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="AJ93">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AL93" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM93" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B95" s="12" t="s">
         <v>1</v>
       </c>
@@ -10887,50 +10912,50 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E95">
         <f>1+(D95-1)*0.25</f>
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="F95">
         <f>INT(200+POWER(E95+(G95*0.25)+1,2)*30)</f>
-        <v>876</v>
+        <v>2120</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
         <f>INT(POWER(E95+(I95*0.25)+4,2)*3)</f>
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
         <f>INT(50+(E95+(K95*0.25)-1)*POWER(E95+(K95*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
         <f>INT(POWER(E95+(M95*0.25)+4,2)*3)</f>
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
         <f>INT(50+(E95+(O95*0.25)-1)*POWER(E95+(O95*0.25),0.5)*10)</f>
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
         <f>INT(5+(E95+(Q95*0.25)-1)*POWER(E95+(Q95*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -10939,59 +10964,59 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="U95" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V95" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="W95">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X95">
         <f>1+(W95-1)*0.25</f>
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y95">
         <f>INT(POWER(X95+(Z95*0.25),2)*35)</f>
-        <v>5040</v>
+        <v>10414</v>
       </c>
       <c r="Z95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AA95">
         <f>INT(POWER(X95+(AB95*0.25),3))+40</f>
-        <v>1768</v>
+        <v>2500</v>
       </c>
       <c r="AB95">
         <v>15</v>
       </c>
       <c r="AC95">
         <f>INT(50+(X95+(AD95*0.25)-1)*POWER(X95+(AD95*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>3229</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AE95">
         <f>INT(POWER(X95+(AF95*0.25),3))+40</f>
-        <v>601</v>
+        <v>7173</v>
       </c>
       <c r="AF95">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG95">
         <f>INT(50+(X95+(AH95*0.25)-1)*POWER(X95+(AH95*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>3229</v>
       </c>
       <c r="AH95">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AI95">
         <f>INT(5+(X95+(AJ95*0.25)-1)*POWER(X95+(AJ95*0.25),0.2))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -11000,10 +11025,13 @@
         <v>127</v>
       </c>
       <c r="AM95" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B96" s="16"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -11022,65 +11050,65 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="U96" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W96">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="X96">
         <f>1+(W96-1)*0.25</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y96">
         <f>INT(POWER(X96+(Z96*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>10718</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA96">
         <f>INT(POWER(X96+(AB96*0.25),3))+40</f>
-        <v>347</v>
+        <v>1768</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC96">
         <f>INT(50+(X96+(AD96*0.25)-1)*POWER(X96+(AD96*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>5698</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AE96">
         <f>INT(POWER(X96+(AF96*0.25),3))+40</f>
-        <v>347</v>
+        <v>8343</v>
       </c>
       <c r="AF96">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AG96">
         <f>INT(50+(X96+(AH96*0.25)-1)*POWER(X96+(AH96*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>3674</v>
       </c>
       <c r="AH96">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AI96">
         <f>INT(5+(X96+(AJ96*0.25)-1)*POWER(X96+(AJ96*0.25),0.2))</f>
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="AJ96">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL96" s="6" t="s">
         <v>127</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.15">
@@ -11102,65 +11130,65 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="U97" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W97">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="X97">
         <f>1+(W97-1)*0.25</f>
-        <v>6.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y97">
         <f>INT(POWER(X97+(Z97*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>11340</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA97">
-        <f>INT(POWER(X97+(AB97*0.25),3))+40</f>
-        <v>347</v>
+        <f t="shared" ref="AA97:AA98" si="98">INT(POWER(X97+(AB97*0.25),3))+40</f>
+        <v>2237</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC97">
         <f>INT(50+(X97+(AD97*0.25)-1)*POWER(X97+(AD97*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>4971</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="AE97">
         <f>INT(POWER(X97+(AF97*0.25),3))+40</f>
-        <v>347</v>
+        <v>4331</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG97">
         <f>INT(50+(X97+(AH97*0.25)-1)*POWER(X97+(AH97*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>3436</v>
       </c>
       <c r="AH97">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AI97">
         <f>INT(5+(X97+(AJ97*0.25)-1)*POWER(X97+(AJ97*0.25),0.2))</f>
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="AJ97">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL97" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM97" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.15">
@@ -11182,77 +11210,77 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="U98" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="V98" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W98">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X98">
         <f>1+(W98-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y98">
         <f>INT(POWER(X98+(Z98*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>11340</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA98">
-        <f>INT(POWER(X98+(AB98*0.25),3))+40</f>
-        <v>383</v>
+        <f t="shared" si="98"/>
+        <v>2500</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC98">
         <f>INT(50+(X98+(AD98*0.25)-1)*POWER(X98+(AD98*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>5149</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AE98">
         <f>INT(POWER(X98+(AF98*0.25),3))+40</f>
-        <v>383</v>
+        <v>8343</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AG98">
         <f>INT(50+(X98+(AH98*0.25)-1)*POWER(X98+(AH98*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3999</v>
       </c>
       <c r="AH98">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI98">
         <f>INT(5+(X98+(AJ98*0.25)-1)*POWER(X98+(AJ98*0.25),0.2))</f>
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="AJ98">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AL98" s="6" t="s">
         <v>127</v>
       </c>
       <c r="AM98" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
@@ -11313,10 +11341,10 @@
         <v>57</v>
       </c>
       <c r="U100" s="17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V100" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="W100" s="9">
         <v>6</v>
@@ -11371,18 +11399,18 @@
         <v>63</v>
       </c>
       <c r="AM100" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D101" s="9">
         <v>15</v>
@@ -11434,16 +11462,16 @@
         <v>0</v>
       </c>
       <c r="R101" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S101" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U101" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V101" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="W101" s="9">
         <v>6</v>
@@ -11498,18 +11526,18 @@
         <v>63</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D102" s="9">
         <v>15</v>
@@ -11561,16 +11589,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S102" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U102" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="V102" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W102" s="9">
         <v>6</v>
@@ -11625,22 +11653,22 @@
         <v>93</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="U103" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="V103" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="W103">
         <v>6</v>
@@ -11695,19 +11723,19 @@
         <v>93</v>
       </c>
       <c r="AM103" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -11768,10 +11796,10 @@
         <v>57</v>
       </c>
       <c r="U105" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="V105" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W105" s="9">
         <v>6</v>
@@ -11823,21 +11851,21 @@
         <v>0</v>
       </c>
       <c r="AL105" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AM105" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D106" s="9">
         <v>15</v>
@@ -11889,16 +11917,16 @@
         <v>0</v>
       </c>
       <c r="R106" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S106" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="U106" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V106" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="W106" s="9">
         <v>6</v>
@@ -11953,18 +11981,18 @@
         <v>127</v>
       </c>
       <c r="AM106" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D107" s="9">
         <v>15</v>
@@ -12016,16 +12044,16 @@
         <v>0</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S107" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U107" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V107" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="W107" s="9">
         <v>6</v>
@@ -12080,22 +12108,22 @@
         <v>93</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="U108" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="W108">
         <v>6</v>
@@ -12150,19 +12178,19 @@
         <v>93</v>
       </c>
       <c r="AM108" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12223,10 +12251,10 @@
         <v>57</v>
       </c>
       <c r="U110" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="V110" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="W110" s="9">
         <v>6</v>
@@ -12278,21 +12306,21 @@
         <v>0</v>
       </c>
       <c r="AL110" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AM110" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D111" s="9">
         <v>1</v>
@@ -12344,16 +12372,16 @@
         <v>0</v>
       </c>
       <c r="R111" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S111" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="U111" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="V111" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="W111" s="9">
         <v>6</v>
@@ -12413,17 +12441,17 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="U112" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V112" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="W112">
         <v>6</v>
@@ -12478,22 +12506,22 @@
         <v>63</v>
       </c>
       <c r="AM112" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="U113" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="V113" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="W113">
         <v>6</v>
@@ -12548,12 +12576,12 @@
         <v>93</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.15">
@@ -12616,13 +12644,13 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="U115" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="V115" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="W115">
         <v>25</v>
@@ -12674,21 +12702,21 @@
         <v>0</v>
       </c>
       <c r="AL115" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM115" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B116" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D116">
         <v>15</v>
@@ -12740,16 +12768,16 @@
         <v>0</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="S116" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="S116" s="6">
+        <v>12011</v>
       </c>
       <c r="U116" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="V116" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="W116">
         <v>20</v>
@@ -12804,7 +12832,7 @@
         <v>127</v>
       </c>
       <c r="AM116" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:40" x14ac:dyDescent="0.15">
@@ -12813,10 +12841,10 @@
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="U117" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="V117" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="W117">
         <v>22</v>
@@ -12868,23 +12896,23 @@
         <v>0</v>
       </c>
       <c r="AL117" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM117" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D119" s="7">
         <v>12</v>
@@ -12932,13 +12960,13 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="U119" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="V119" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="W119">
         <v>30</v>
@@ -12990,21 +13018,21 @@
         <v>0</v>
       </c>
       <c r="AL119" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM119" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B120" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -13056,16 +13084,16 @@
         <v>0</v>
       </c>
       <c r="R120" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="U120" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V120" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="W120">
         <v>25</v>
@@ -13120,15 +13148,15 @@
         <v>65</v>
       </c>
       <c r="AM120" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -13180,16 +13208,16 @@
         <v>0</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>347</v>
+        <v>625</v>
       </c>
       <c r="U121" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="V121" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="W121">
         <v>25</v>
@@ -13244,15 +13272,15 @@
         <v>93</v>
       </c>
       <c r="AM121" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -13304,16 +13332,16 @@
         <v>0</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S122" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="U122" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="V122" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="U122" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="V122" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="W122">
         <v>24</v>
@@ -13365,15 +13393,15 @@
         <v>0</v>
       </c>
       <c r="AL122" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.15">
@@ -13436,13 +13464,13 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="U124" s="16" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="V124" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="W124">
         <v>25</v>
@@ -13494,21 +13522,21 @@
         <v>0</v>
       </c>
       <c r="AL124" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM124" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B125" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D125">
         <v>20</v>
@@ -13560,16 +13588,16 @@
         <v>0</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S125" s="6" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="U125" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="V125" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="W125">
         <v>20</v>
@@ -13624,7 +13652,7 @@
         <v>65</v>
       </c>
       <c r="AM125" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.15">
@@ -13633,10 +13661,10 @@
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="U126" s="16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="V126" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="W126">
         <v>22</v>
@@ -13688,23 +13716,23 @@
         <v>0</v>
       </c>
       <c r="AL126" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM126" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D128" s="7">
         <v>12</v>
@@ -13752,13 +13780,13 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="U128" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="V128" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="W128">
         <v>30</v>
@@ -13810,22 +13838,22 @@
         <v>0</v>
       </c>
       <c r="AL128" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM128" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R129" s="5"/>
       <c r="U129" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="V129" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="W129">
         <v>25</v>
@@ -13877,19 +13905,19 @@
         <v>0</v>
       </c>
       <c r="AL129" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM129" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="V130" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="W130">
         <v>25</v>
@@ -13941,15 +13969,15 @@
         <v>0</v>
       </c>
       <c r="AL130" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM130" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.15">
@@ -14012,13 +14040,13 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="U132" s="16" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="V132" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="W132">
         <v>25</v>
@@ -14073,18 +14101,18 @@
         <v>145</v>
       </c>
       <c r="AM132" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B133" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -14136,16 +14164,16 @@
         <v>0</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U133" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="V133" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="W133">
         <v>20</v>
@@ -14200,15 +14228,15 @@
         <v>63</v>
       </c>
       <c r="AM133" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D134">
         <v>20</v>
@@ -14260,16 +14288,16 @@
         <v>0</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="S134" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="S134" s="6">
+        <v>15005</v>
       </c>
       <c r="U134" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="V134" s="6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="W134">
         <v>21</v>
@@ -14324,7 +14352,7 @@
         <v>63</v>
       </c>
       <c r="AM134" s="6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.15">
@@ -14333,10 +14361,10 @@
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
       <c r="U135" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="V135" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="W135">
         <v>22</v>
@@ -14391,20 +14419,20 @@
         <v>63</v>
       </c>
       <c r="AM135" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B137" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D137" s="7">
         <v>12</v>
@@ -14452,13 +14480,13 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="U137" s="16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="V137" s="6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="W137">
         <v>30</v>
@@ -14510,21 +14538,21 @@
         <v>0</v>
       </c>
       <c r="AL137" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AM137" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B138" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -14576,16 +14604,16 @@
         <v>0</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U138" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="V138" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="W138">
         <v>22</v>
@@ -14637,18 +14665,18 @@
         <v>0</v>
       </c>
       <c r="AL138" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM138" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B139" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -14700,16 +14728,16 @@
         <v>0</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S139" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="U139" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="V139" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="W139">
         <v>23</v>
@@ -14764,7 +14792,7 @@
         <v>93</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.15">
@@ -14773,10 +14801,10 @@
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="U140" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="V140" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="W140">
         <v>25</v>
@@ -14831,19 +14859,19 @@
         <v>65</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
     <row r="142" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -14904,10 +14932,10 @@
         <v>57</v>
       </c>
       <c r="U142" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="V142" s="11" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="W142" s="9">
         <v>6</v>
@@ -14959,21 +14987,21 @@
         <v>0</v>
       </c>
       <c r="AL142" s="11" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AM142" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D143" s="9">
         <v>1</v>
@@ -15025,16 +15053,16 @@
         <v>0</v>
       </c>
       <c r="R143" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="S143" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="U143" s="17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="V143" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="W143" s="9">
         <v>6</v>
@@ -15089,18 +15117,18 @@
         <v>93</v>
       </c>
       <c r="AM143" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D144" s="9">
         <v>1</v>
@@ -15152,16 +15180,16 @@
         <v>0</v>
       </c>
       <c r="R144" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="S144" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="U144" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="V144" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="W144" s="9">
         <v>6</v>
@@ -15216,12 +15244,12 @@
         <v>63</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:40" x14ac:dyDescent="0.15">
@@ -15284,13 +15312,13 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="U146" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="W146">
         <v>25</v>
@@ -15342,21 +15370,21 @@
         <v>0</v>
       </c>
       <c r="AL146" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AM146" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B147" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D147">
         <v>20</v>
@@ -15408,16 +15436,16 @@
         <v>0</v>
       </c>
       <c r="R147" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="S147" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
+      </c>
+      <c r="S147" s="6">
+        <v>10017</v>
       </c>
       <c r="U147" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="W147">
         <v>20</v>
@@ -15469,18 +15497,18 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -15532,16 +15560,16 @@
         <v>0</v>
       </c>
       <c r="R148" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="S148" s="6" t="s">
-        <v>439</v>
+        <v>626</v>
       </c>
       <c r="U148" s="16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="V148" s="6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="W148">
         <v>22</v>
@@ -15593,10 +15621,10 @@
         <v>0</v>
       </c>
       <c r="AL148" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:40" x14ac:dyDescent="0.15">
@@ -15605,10 +15633,10 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="U149" s="16" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="W149">
         <v>22</v>
@@ -15663,19 +15691,19 @@
         <v>63</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="150" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
     <row r="151" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>1</v>
@@ -15736,76 +15764,76 @@
         <v>57</v>
       </c>
       <c r="U151" s="17" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="V151" s="11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="W151" s="9">
         <v>6</v>
       </c>
       <c r="X151" s="9">
-        <f t="shared" ref="X151:X157" si="98">1+(W151-1)*0.25</f>
+        <f t="shared" ref="X151:X157" si="99">1+(W151-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="Y151" s="9">
-        <f t="shared" ref="Y151:Y157" si="99">INT(POWER(X151+(Z151*0.25),2)*35)</f>
+        <f t="shared" ref="Y151:Y157" si="100">INT(POWER(X151+(Z151*0.25),2)*35)</f>
         <v>177</v>
       </c>
       <c r="Z151" s="9">
         <v>0</v>
       </c>
       <c r="AA151" s="9">
-        <f t="shared" ref="AA151:AA157" si="100">INT(POWER(X151+(AB151*0.25),3))+40</f>
+        <f t="shared" ref="AA151:AA157" si="101">INT(POWER(X151+(AB151*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AB151" s="9">
         <v>0</v>
       </c>
       <c r="AC151" s="9">
-        <f t="shared" ref="AC151:AC157" si="101">INT(50+(X151+(AD151*0.25)-1)*POWER(X151+(AD151*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC151:AC157" si="102">INT(50+(X151+(AD151*0.25)-1)*POWER(X151+(AD151*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AD151" s="9">
         <v>0</v>
       </c>
       <c r="AE151" s="9">
-        <f t="shared" ref="AE151:AE157" si="102">INT(POWER(X151+(AF151*0.25),3))+40</f>
+        <f t="shared" ref="AE151:AE157" si="103">INT(POWER(X151+(AF151*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AF151" s="9">
         <v>0</v>
       </c>
       <c r="AG151" s="9">
-        <f t="shared" ref="AG151:AG157" si="103">INT(50+(X151+(AH151*0.25)-1)*POWER(X151+(AH151*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG151:AG157" si="104">INT(50+(X151+(AH151*0.25)-1)*POWER(X151+(AH151*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AH151" s="9">
         <v>0</v>
       </c>
       <c r="AI151" s="9">
-        <f t="shared" ref="AI151:AI157" si="104">INT(5+(X151+(AJ151*0.25)-1)*POWER(X151+(AJ151*0.25),0.2))</f>
+        <f t="shared" ref="AI151:AI157" si="105">INT(5+(X151+(AJ151*0.25)-1)*POWER(X151+(AJ151*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="AJ151" s="9">
         <v>0</v>
       </c>
       <c r="AL151" s="11" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AM151" s="11" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D152" s="9">
         <v>1</v>
@@ -15857,82 +15885,82 @@
         <v>0</v>
       </c>
       <c r="R152" s="11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="S152" s="11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="U152" s="17" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="V152" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="W152" s="9">
         <v>6</v>
       </c>
       <c r="X152" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y152" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z152" s="9">
         <v>0</v>
       </c>
       <c r="AA152" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB152" s="9">
         <v>0</v>
       </c>
       <c r="AC152" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD152" s="9">
         <v>0</v>
       </c>
       <c r="AE152" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF152" s="9">
         <v>0</v>
       </c>
       <c r="AG152" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH152" s="9">
         <v>0</v>
       </c>
       <c r="AI152" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ152" s="9">
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AM152" s="11" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -15984,197 +16012,197 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="S153" s="11" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="U153" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="V153" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="W153" s="9">
         <v>6</v>
       </c>
       <c r="X153" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y153" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z153" s="9">
         <v>0</v>
       </c>
       <c r="AA153" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB153" s="9">
         <v>0</v>
       </c>
       <c r="AC153" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD153" s="9">
         <v>0</v>
       </c>
       <c r="AE153" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF153" s="9">
         <v>0</v>
       </c>
       <c r="AG153" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH153" s="9">
         <v>0</v>
       </c>
       <c r="AI153" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ153" s="9">
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AM153" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="U154" s="16" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="V154" s="6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="W154">
         <v>6</v>
       </c>
       <c r="X154">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y154">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z154">
         <v>0</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD154">
         <v>0</v>
       </c>
       <c r="AE154">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF154">
         <v>0</v>
       </c>
       <c r="AG154">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
       <c r="AI154">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ154">
         <v>0</v>
       </c>
       <c r="AL154" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AM154" s="6" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
       <c r="U155" s="16" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="V155" s="6" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="W155">
         <v>6</v>
       </c>
       <c r="X155">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y155">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD155">
         <v>0</v>
       </c>
       <c r="AE155">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF155">
         <v>0</v>
       </c>
       <c r="AG155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ155">
@@ -16184,67 +16212,67 @@
         <v>93</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="U156" s="16" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="V156" s="6" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="W156">
         <v>6</v>
       </c>
       <c r="X156">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y156">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z156">
         <v>0</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB156">
         <v>0</v>
       </c>
       <c r="AC156">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD156">
         <v>0</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF156">
         <v>0</v>
       </c>
       <c r="AG156">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
       <c r="AI156">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ156">
@@ -16254,67 +16282,67 @@
         <v>63</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="U157" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="V157" s="6" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="W157">
         <v>6</v>
       </c>
       <c r="X157">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.25</v>
       </c>
       <c r="Y157">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>177</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>51</v>
       </c>
       <c r="AB157">
         <v>0</v>
       </c>
       <c r="AC157">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>68</v>
       </c>
       <c r="AD157">
         <v>0</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>51</v>
       </c>
       <c r="AF157">
         <v>0</v>
       </c>
       <c r="AG157">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>68</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
       <c r="AI157">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>6</v>
       </c>
       <c r="AJ157">
@@ -16324,20 +16352,20 @@
         <v>93</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="159" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B159" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D159" s="7">
         <v>12</v>
@@ -16385,13 +16413,13 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="U159" s="16" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="W159">
         <v>30</v>
@@ -16443,21 +16471,21 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AM159" s="6" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B160" s="16" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D160">
         <v>20</v>
@@ -16509,16 +16537,16 @@
         <v>0</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="S160" s="6" t="s">
-        <v>453</v>
+        <v>445</v>
+      </c>
+      <c r="S160" s="6">
+        <v>10019</v>
       </c>
       <c r="U160" s="16" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="V160" s="6" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="W160">
         <v>22</v>
@@ -16573,16 +16601,16 @@
         <v>63</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="V161" s="6" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="W161">
         <v>23</v>
@@ -16637,16 +16665,16 @@
         <v>93</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="W162">
         <v>24</v>
@@ -16701,20 +16729,20 @@
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -16766,16 +16794,16 @@
         <v>0</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="S164" s="6" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="U164" s="16" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="V164" s="6" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="W164">
         <v>25</v>
@@ -16827,18 +16855,18 @@
         <v>0</v>
       </c>
       <c r="AL164" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM164" s="6" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D165">
         <v>15</v>
@@ -16890,16 +16918,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="S165" s="6" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="U165" s="16" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="V165" s="6" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="W165">
         <v>26</v>
@@ -16954,7 +16982,7 @@
         <v>93</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.15">
@@ -17017,13 +17045,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="U166" s="16" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="W166">
         <v>27</v>
@@ -17075,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.15">
@@ -17141,13 +17169,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="U167" s="16" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="V167" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="W167">
         <v>30</v>
@@ -17202,15 +17230,15 @@
         <v>93</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17258,7 +17286,7 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="U168" s="16"/>
       <c r="V168" s="6"/>
@@ -17267,10 +17295,10 @@
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17318,7 +17346,7 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17327,10 +17355,10 @@
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17378,7 +17406,7 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17387,10 +17415,10 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17438,7 +17466,7 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17447,7 +17475,7 @@
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173" spans="1:40" x14ac:dyDescent="0.15">
@@ -17510,71 +17538,71 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="U173" s="16" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="W173">
         <v>45</v>
       </c>
       <c r="X173">
-        <f t="shared" ref="X173:X179" si="105">1+(W173-1)*0.25</f>
+        <f t="shared" ref="X173:X179" si="106">1+(W173-1)*0.25</f>
         <v>12</v>
       </c>
       <c r="Y173">
-        <f t="shared" ref="Y173:Y179" si="106">INT(POWER(X173+(Z173*0.25),2)*35)</f>
+        <f t="shared" ref="Y173:Y179" si="107">INT(POWER(X173+(Z173*0.25),2)*35)</f>
         <v>15069</v>
       </c>
       <c r="Z173">
         <v>35</v>
       </c>
       <c r="AA173">
-        <f t="shared" ref="AA173:AA179" si="107">INT(POWER(X173+(AB173*0.25),3))+40</f>
+        <f t="shared" ref="AA173:AA179" si="108">INT(POWER(X173+(AB173*0.25),3))+40</f>
         <v>1768</v>
       </c>
       <c r="AB173">
         <v>0</v>
       </c>
       <c r="AC173">
-        <f t="shared" ref="AC173:AC179" si="108">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC173:AC179" si="109">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
         <v>431</v>
       </c>
       <c r="AD173">
         <v>0</v>
       </c>
       <c r="AE173">
-        <f t="shared" ref="AE173:AE179" si="109">INT(POWER(X173+(AF173*0.25),3))+40</f>
+        <f t="shared" ref="AE173:AE179" si="110">INT(POWER(X173+(AF173*0.25),3))+40</f>
         <v>8974</v>
       </c>
       <c r="AF173">
         <v>35</v>
       </c>
       <c r="AG173">
-        <f t="shared" ref="AG173:AG179" si="110">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG173:AG179" si="111">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
         <v>949</v>
       </c>
       <c r="AH173">
         <v>35</v>
       </c>
       <c r="AI173">
-        <f t="shared" ref="AI173:AI179" si="111">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
+        <f t="shared" ref="AI173:AI179" si="112">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
         <v>25</v>
       </c>
       <c r="AJ173">
         <v>5</v>
       </c>
       <c r="AL173" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.15">
@@ -17637,79 +17665,79 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="U174" s="16" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="W174">
         <v>45</v>
       </c>
       <c r="X174">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>12</v>
       </c>
       <c r="Y174">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>15069</v>
       </c>
       <c r="Z174">
         <v>35</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>8974</v>
       </c>
       <c r="AB174">
         <v>35</v>
       </c>
       <c r="AC174">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>949</v>
       </c>
       <c r="AD174">
         <v>35</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1768</v>
       </c>
       <c r="AF174">
         <v>0</v>
       </c>
       <c r="AG174">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>431</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
       <c r="AI174">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>25</v>
       </c>
       <c r="AJ174">
         <v>5</v>
       </c>
       <c r="AL174" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -17757,58 +17785,58 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="U175" s="16" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="W175">
         <v>50</v>
       </c>
       <c r="X175">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>13.25</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>18919</v>
       </c>
       <c r="Z175">
         <v>40</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12608</v>
       </c>
       <c r="AB175">
         <v>40</v>
       </c>
       <c r="AC175">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1122</v>
       </c>
       <c r="AD175">
         <v>40</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>2366</v>
       </c>
       <c r="AF175">
         <v>0</v>
       </c>
       <c r="AG175">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>786</v>
       </c>
       <c r="AH175">
         <v>20</v>
       </c>
       <c r="AI175">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>28</v>
       </c>
       <c r="AJ175">
@@ -17818,18 +17846,18 @@
         <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -17877,58 +17905,58 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="U176" s="16" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="W176">
         <v>30</v>
       </c>
       <c r="X176">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>8.25</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6144</v>
       </c>
       <c r="Z176">
         <v>20</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>601</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>258</v>
       </c>
       <c r="AD176">
         <v>0</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>601</v>
       </c>
       <c r="AF176">
         <v>0</v>
       </c>
       <c r="AG176">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="AH176">
         <v>0</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="AJ176">
@@ -17938,15 +17966,15 @@
         <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -17994,76 +18022,76 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="U177" s="16" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="V177" s="6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="W177">
         <v>30</v>
       </c>
       <c r="X177">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>8.25</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6144</v>
       </c>
       <c r="Z177">
         <v>20</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>601</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>258</v>
       </c>
       <c r="AD177">
         <v>0</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>601</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
       <c r="AI177">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="AJ177">
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18111,58 +18139,58 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="U178" s="16" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="V178" s="6" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="W178">
         <v>30</v>
       </c>
       <c r="X178">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>8.25</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6144</v>
       </c>
       <c r="Z178">
         <v>20</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>601</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>258</v>
       </c>
       <c r="AD178">
         <v>0</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>601</v>
       </c>
       <c r="AF178">
         <v>0</v>
       </c>
       <c r="AG178">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="AH178">
         <v>0</v>
       </c>
       <c r="AI178">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="AJ178">
@@ -18172,76 +18200,76 @@
         <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="V179" s="6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="W179">
         <v>30</v>
       </c>
       <c r="X179">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>8.25</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6144</v>
       </c>
       <c r="Z179">
         <v>20</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>601</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>258</v>
       </c>
       <c r="AD179">
         <v>0</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>601</v>
       </c>
       <c r="AF179">
         <v>0</v>
       </c>
       <c r="AG179">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>258</v>
       </c>
       <c r="AH179">
         <v>0</v>
       </c>
       <c r="AI179">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
       <c r="AJ179">
         <v>0</v>
       </c>
       <c r="AL179" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.15">
@@ -18304,58 +18332,58 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="U181" s="16" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="V181" s="6" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="W181">
         <v>60</v>
       </c>
       <c r="X181">
-        <f t="shared" ref="X181:X187" si="112">1+(W181-1)*0.25</f>
+        <f t="shared" ref="X181:X187" si="113">1+(W181-1)*0.25</f>
         <v>15.75</v>
       </c>
       <c r="Y181">
-        <f t="shared" ref="Y181:Y187" si="113">INT(POWER(X181+(Z181*0.25),2)*35)</f>
+        <f t="shared" ref="Y181:Y187" si="114">INT(POWER(X181+(Z181*0.25),2)*35)</f>
         <v>25515</v>
       </c>
       <c r="Z181">
         <v>45</v>
       </c>
       <c r="AA181">
-        <f t="shared" ref="AA181:AA187" si="114">INT(POWER(X181+(AB181*0.25),3))+40</f>
+        <f t="shared" ref="AA181:AA187" si="115">INT(POWER(X181+(AB181*0.25),3))+40</f>
         <v>19723</v>
       </c>
       <c r="AB181">
         <v>45</v>
       </c>
       <c r="AC181">
-        <f t="shared" ref="AC181:AC187" si="115">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC181:AC187" si="116">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
         <v>1400</v>
       </c>
       <c r="AD181">
         <v>45</v>
       </c>
       <c r="AE181">
-        <f t="shared" ref="AE181:AE187" si="116">INT(POWER(X181+(AF181*0.25),3))+40</f>
+        <f t="shared" ref="AE181:AE187" si="117">INT(POWER(X181+(AF181*0.25),3))+40</f>
         <v>3946</v>
       </c>
       <c r="AF181">
         <v>0</v>
       </c>
       <c r="AG181">
-        <f t="shared" ref="AG181:AG187" si="117">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG181:AG187" si="118">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
         <v>1122</v>
       </c>
       <c r="AH181">
         <v>30</v>
       </c>
       <c r="AI181">
-        <f t="shared" ref="AI181:AI187" si="118">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
+        <f t="shared" ref="AI181:AI187" si="119">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
         <v>35</v>
       </c>
       <c r="AJ181">
@@ -18365,10 +18393,10 @@
         <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.15">
@@ -18431,79 +18459,79 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="U182" s="16" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="W182">
         <v>80</v>
       </c>
       <c r="X182">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>20.75</v>
       </c>
       <c r="Y182">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>58119</v>
       </c>
       <c r="Z182">
         <v>80</v>
       </c>
       <c r="AA182">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>67707</v>
       </c>
       <c r="AB182">
         <v>80</v>
       </c>
       <c r="AC182">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>2587</v>
       </c>
       <c r="AD182">
         <v>80</v>
       </c>
       <c r="AE182">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>67707</v>
       </c>
       <c r="AF182">
         <v>80</v>
       </c>
       <c r="AG182">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2587</v>
       </c>
       <c r="AH182">
         <v>80</v>
       </c>
       <c r="AI182">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>52</v>
       </c>
       <c r="AJ182">
         <v>20</v>
       </c>
       <c r="AL182" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18551,58 +18579,58 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="W183">
         <v>30</v>
       </c>
       <c r="X183">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>8.25</v>
       </c>
       <c r="Y183">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2382</v>
       </c>
       <c r="Z183">
         <v>0</v>
       </c>
       <c r="AA183">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>601</v>
       </c>
       <c r="AB183">
         <v>0</v>
       </c>
       <c r="AC183">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>258</v>
       </c>
       <c r="AD183">
         <v>0</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>601</v>
       </c>
       <c r="AF183">
         <v>0</v>
       </c>
       <c r="AG183">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>258</v>
       </c>
       <c r="AH183">
         <v>0</v>
       </c>
       <c r="AI183">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>16</v>
       </c>
       <c r="AJ183">
@@ -18612,15 +18640,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -18668,76 +18696,76 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="W184">
         <v>35</v>
       </c>
       <c r="X184">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>9.5</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3158</v>
       </c>
       <c r="Z184">
         <v>0</v>
       </c>
       <c r="AA184">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>897</v>
       </c>
       <c r="AB184">
         <v>0</v>
       </c>
       <c r="AC184">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>311</v>
       </c>
       <c r="AD184">
         <v>0</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>897</v>
       </c>
       <c r="AF184">
         <v>0</v>
       </c>
       <c r="AG184">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>311</v>
       </c>
       <c r="AH184">
         <v>0</v>
       </c>
       <c r="AI184">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
       <c r="AJ184">
         <v>0</v>
       </c>
       <c r="AL184" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -18785,58 +18813,58 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="W185">
         <v>35</v>
       </c>
       <c r="X185">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>9.5</v>
       </c>
       <c r="Y185">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3158</v>
       </c>
       <c r="Z185">
         <v>0</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>897</v>
       </c>
       <c r="AB185">
         <v>0</v>
       </c>
       <c r="AC185">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>311</v>
       </c>
       <c r="AD185">
         <v>0</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>897</v>
       </c>
       <c r="AF185">
         <v>0</v>
       </c>
       <c r="AG185">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>311</v>
       </c>
       <c r="AH185">
         <v>0</v>
       </c>
       <c r="AI185">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
       <c r="AJ185">
@@ -18846,15 +18874,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -18902,132 +18930,132 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="W186">
         <v>35</v>
       </c>
       <c r="X186">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>9.5</v>
       </c>
       <c r="Y186">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3158</v>
       </c>
       <c r="Z186">
         <v>0</v>
       </c>
       <c r="AA186">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>897</v>
       </c>
       <c r="AB186">
         <v>0</v>
       </c>
       <c r="AC186">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>311</v>
       </c>
       <c r="AD186">
         <v>0</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>897</v>
       </c>
       <c r="AF186">
         <v>0</v>
       </c>
       <c r="AG186">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>311</v>
       </c>
       <c r="AH186">
         <v>0</v>
       </c>
       <c r="AI186">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
       <c r="AJ186">
         <v>0</v>
       </c>
       <c r="AL186" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="W187">
         <v>35</v>
       </c>
       <c r="X187">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>9.5</v>
       </c>
       <c r="Y187">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3158</v>
       </c>
       <c r="Z187">
         <v>0</v>
       </c>
       <c r="AA187">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>897</v>
       </c>
       <c r="AB187">
         <v>0</v>
       </c>
       <c r="AC187">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>311</v>
       </c>
       <c r="AD187">
         <v>0</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>897</v>
       </c>
       <c r="AF187">
         <v>0</v>
       </c>
       <c r="AG187">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>311</v>
       </c>
       <c r="AH187">
         <v>0</v>
       </c>
       <c r="AI187">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
       <c r="AJ187">
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AM187" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -1341,9 +1341,6 @@
     <t>200031</t>
   </si>
   <si>
-    <t>10017|10018|15012</t>
-  </si>
-  <si>
     <t>25002002</t>
   </si>
   <si>
@@ -2132,10 +2129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15009|15010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15007|15008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2218,6 +2211,29 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ji'sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募瑛姑回血</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'gu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要大红2000+</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'hong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3747,8 +3763,8 @@
   <dimension ref="A1:AO187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG97" sqref="AG97"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB148" sqref="AB148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3763,7 +3779,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -3880,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4249,12 +4265,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4507,7 +4523,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -4763,7 +4779,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4882,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5224,7 +5240,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5290,7 +5306,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5351,10 +5367,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AO18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5481,15 +5497,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5737,7 +5753,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5804,7 +5820,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6087,12 +6103,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6216,7 +6232,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6472,10 +6488,10 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6490,7 +6506,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6617,10 +6633,10 @@
         <v>138</v>
       </c>
       <c r="AN36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO36" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7114,7 +7130,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -7241,10 +7257,10 @@
         <v>146</v>
       </c>
       <c r="AN47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7307,7 +7323,7 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>150</v>
@@ -7371,10 +7387,10 @@
         <v>153</v>
       </c>
       <c r="AN48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AO48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7437,7 +7453,7 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U49" s="13" t="s">
         <v>154</v>
@@ -7561,7 +7577,7 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>157</v>
@@ -7625,7 +7641,7 @@
         <v>160</v>
       </c>
       <c r="AN50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7688,7 +7704,7 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>165</v>
@@ -7752,7 +7768,7 @@
         <v>168</v>
       </c>
       <c r="AN51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -7815,7 +7831,7 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>161</v>
@@ -7879,7 +7895,7 @@
         <v>164</v>
       </c>
       <c r="AN52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -7942,7 +7958,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -7960,7 +7976,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
@@ -8087,7 +8103,7 @@
         <v>171</v>
       </c>
       <c r="AO56" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8150,7 +8166,7 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>175</v>
@@ -8274,7 +8290,7 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>180</v>
@@ -8398,7 +8414,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8465,7 +8481,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8532,7 +8548,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8599,7 +8615,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8608,7 +8624,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8671,7 +8687,7 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>182</v>
@@ -8735,7 +8751,7 @@
         <v>184</v>
       </c>
       <c r="AO64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -8798,7 +8814,7 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>185</v>
@@ -8922,7 +8938,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -8989,7 +9005,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9056,7 +9072,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9123,7 +9139,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9132,14 +9148,14 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9263,7 +9279,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U72" s="16" t="s">
         <v>195</v>
@@ -9329,7 +9345,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
@@ -9399,7 +9415,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9462,7 +9478,7 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U75" s="16" t="s">
         <v>200</v>
@@ -9526,10 +9542,10 @@
         <v>203</v>
       </c>
       <c r="AN75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO75" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
@@ -9788,7 +9804,7 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -9851,7 +9867,7 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U80" s="16" t="s">
         <v>214</v>
@@ -9915,10 +9931,10 @@
         <v>217</v>
       </c>
       <c r="AN80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO80" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
@@ -10173,19 +10189,19 @@
         <v>227</v>
       </c>
       <c r="AO83" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10309,7 +10325,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
@@ -10376,7 +10392,7 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R87" s="5"/>
       <c r="U87" s="16" t="s">
@@ -10443,7 +10459,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="R88" s="5"/>
       <c r="U88" s="16" t="s">
@@ -10510,7 +10526,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.15">
@@ -10573,7 +10589,7 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U90" s="16" t="s">
         <v>238</v>
@@ -10637,10 +10653,10 @@
         <v>241</v>
       </c>
       <c r="AN90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO90" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -10901,7 +10917,7 @@
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
@@ -10964,7 +10980,7 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U95" s="16" t="s">
         <v>253</v>
@@ -11028,7 +11044,7 @@
         <v>255</v>
       </c>
       <c r="AO95" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -11273,14 +11289,14 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
@@ -11404,7 +11420,7 @@
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>268</v>
@@ -11531,7 +11547,7 @@
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>275</v>
@@ -11658,7 +11674,7 @@
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="6"/>
@@ -11728,14 +11744,14 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -11859,7 +11875,7 @@
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>288</v>
@@ -11986,7 +12002,7 @@
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>294</v>
@@ -12113,7 +12129,7 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="6"/>
@@ -12183,14 +12199,14 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12314,7 +12330,7 @@
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>306</v>
@@ -12441,7 +12457,7 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
@@ -12511,7 +12527,7 @@
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
@@ -12581,7 +12597,7 @@
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.15">
@@ -12644,7 +12660,7 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U115" s="16" t="s">
         <v>318</v>
@@ -12708,7 +12724,7 @@
         <v>321</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.15">
@@ -12904,15 +12920,15 @@
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D119" s="7">
         <v>12</v>
@@ -12960,7 +12976,7 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U119" s="16" t="s">
         <v>330</v>
@@ -13024,7 +13040,7 @@
         <v>333</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:40" x14ac:dyDescent="0.15">
@@ -13211,7 +13227,7 @@
         <v>270</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U121" s="16" t="s">
         <v>345</v>
@@ -13401,7 +13417,7 @@
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.15">
@@ -13464,7 +13480,7 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U124" s="16" t="s">
         <v>349</v>
@@ -13528,7 +13544,7 @@
         <v>352</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.15">
@@ -13724,15 +13740,15 @@
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D128" s="7">
         <v>12</v>
@@ -13780,7 +13796,7 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U128" s="16" t="s">
         <v>362</v>
@@ -13844,7 +13860,7 @@
         <v>365</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.15">
@@ -13977,7 +13993,7 @@
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.15">
@@ -14040,7 +14056,7 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U132" s="16" t="s">
         <v>372</v>
@@ -14104,7 +14120,7 @@
         <v>374</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.15">
@@ -14424,15 +14440,15 @@
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B137" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D137" s="7">
         <v>12</v>
@@ -14480,7 +14496,7 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U137" s="16" t="s">
         <v>390</v>
@@ -14544,7 +14560,7 @@
         <v>393</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.15">
@@ -14864,14 +14880,14 @@
     </row>
     <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
     <row r="142" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -14995,7 +15011,7 @@
     </row>
     <row r="143" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>407</v>
@@ -15122,7 +15138,7 @@
     </row>
     <row r="144" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>414</v>
@@ -15247,12 +15263,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B146" s="12" t="s">
         <v>1</v>
       </c>
@@ -15260,50 +15276,50 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E146">
         <f>1+(D146-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F146">
         <f>INT(200+POWER(E146+(G146*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
         <f>INT(POWER(E146+(I146*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
         <f>INT(50+(E146+(K146*0.25)-1)*POWER(E146+(K146*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K146">
         <v>0</v>
       </c>
       <c r="L146">
         <f>INT(POWER(E146+(M146*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M146">
         <v>0</v>
       </c>
       <c r="N146">
         <f>INT(50+(E146+(O146*0.25)-1)*POWER(E146+(O146*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
         <f>INT(5+(E146+(Q146*0.25)-1)*POWER(E146+(Q146*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q146">
         <v>0</v>
@@ -15312,7 +15328,7 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U146" s="16" t="s">
         <v>420</v>
@@ -15321,50 +15337,50 @@
         <v>421</v>
       </c>
       <c r="W146">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X146">
         <f>1+(W146-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y146">
         <f>INT(POWER(X146+(Z146*0.25),2)*35)</f>
-        <v>7358</v>
+        <v>22314</v>
       </c>
       <c r="Z146">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AA146">
         <f>INT(POWER(X146+(AB146*0.25),3))+40</f>
-        <v>383</v>
+        <v>4953</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC146">
         <f>INT(50+(X146+(AD146*0.25)-1)*POWER(X146+(AD146*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>8778</v>
       </c>
       <c r="AD146">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AE146">
         <f>INT(POWER(X146+(AF146*0.25),3))+40</f>
-        <v>3088</v>
+        <v>7454</v>
       </c>
       <c r="AF146">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG146">
         <f>INT(50+(X146+(AH146*0.25)-1)*POWER(X146+(AH146*0.25),0.5)*10)</f>
-        <v>564</v>
+        <v>8071</v>
       </c>
       <c r="AH146">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="AI146">
         <f>INT(5+(X146+(AJ146*0.25)-1)*POWER(X146+(AJ146*0.25),0.2))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ146">
         <v>0</v>
@@ -15372,338 +15388,344 @@
       <c r="AL146" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="AM146" s="6" t="s">
+      <c r="AM146" s="6">
+        <v>10017</v>
+      </c>
+      <c r="AN146" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO146" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B147" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="AN146" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B147" s="16" t="s">
+      <c r="C147" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="D147">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E147">
         <f>1+(D147-1)*0.25</f>
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="F147">
         <f>INT(200+POWER(E147+(G147*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>8616</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H147">
         <f>INT(POWER(E147+(I147*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>1323</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J147">
         <f>INT(50+(E147+(K147*0.25)-1)*POWER(E147+(K147*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>866</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L147">
         <f>INT(POWER(E147+(M147*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>2436</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N147">
         <f>INT(50+(E147+(O147*0.25)-1)*POWER(E147+(O147*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1557</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="P147">
         <f>INT(5+(E147+(Q147*0.25)-1)*POWER(E147+(Q147*0.25),0.2))</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R147" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="S147" s="6">
+        <v>10022</v>
+      </c>
+      <c r="U147" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="S147" s="6">
-        <v>10017</v>
-      </c>
-      <c r="U147" s="16" t="s">
+      <c r="V147" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="V147" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="W147">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X147">
         <f>1+(W147-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="Y147">
         <f>INT(POWER(X147+(Z147*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>10414</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA147">
         <f>INT(POWER(X147+(AB147*0.25),3))+40</f>
-        <v>230</v>
+        <v>5632</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC147">
         <f>INT(50+(X147+(AD147*0.25)-1)*POWER(X147+(AD147*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1952</v>
       </c>
       <c r="AD147">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE147">
         <f>INT(POWER(X147+(AF147*0.25),3))+40</f>
-        <v>230</v>
+        <v>709</v>
       </c>
       <c r="AF147">
         <v>0</v>
       </c>
       <c r="AG147">
         <f>INT(50+(X147+(AH147*0.25)-1)*POWER(X147+(AH147*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1952</v>
       </c>
       <c r="AH147">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI147">
         <f>INT(5+(X147+(AJ147*0.25)-1)*POWER(X147+(AJ147*0.25),0.2))</f>
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="AJ147">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL147" s="6" t="s">
         <v>223</v>
       </c>
       <c r="AM147" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO147" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="148" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B148" s="16" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B148" s="16" t="s">
+      <c r="C148" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="D148">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E148">
         <f>1+(D148-1)*0.25</f>
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="F148">
         <f>INT(200+POWER(E148+(G148*0.25)+1,2)*30)</f>
-        <v>320</v>
+        <v>5466</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H148">
         <f>INT(POWER(E148+(I148*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>1200</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J148">
         <f>INT(50+(E148+(K148*0.25)-1)*POWER(E148+(K148*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>578</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L148">
         <f>INT(POWER(E148+(M148*0.25)+4,2)*3)</f>
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="M148">
         <v>0</v>
       </c>
       <c r="N148">
         <f>INT(50+(E148+(O148*0.25)-1)*POWER(E148+(O148*0.25),0.5)*10)</f>
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
         <f>INT(5+(E148+(Q148*0.25)-1)*POWER(E148+(Q148*0.25),0.2))</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R148" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="S148" s="6">
+        <v>15009</v>
+      </c>
+      <c r="U148" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="S148" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="U148" s="16" t="s">
+      <c r="V148" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="V148" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="W148">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X148">
         <f>1+(W148-1)*0.25</f>
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="Y148">
         <f>INT(POWER(X148+(Z148*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>9528</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA148">
         <f>INT(POWER(X148+(AB148*0.25),3))+40</f>
-        <v>284</v>
+        <v>7173</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC148">
         <f>INT(50+(X148+(AD148*0.25)-1)*POWER(X148+(AD148*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>2083</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AE148">
         <f>INT(POWER(X148+(AF148*0.25),3))+40</f>
-        <v>284</v>
+        <v>769</v>
       </c>
       <c r="AF148">
         <v>0</v>
       </c>
       <c r="AG148">
         <f>INT(50+(X148+(AH148*0.25)-1)*POWER(X148+(AH148*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>2194</v>
       </c>
       <c r="AH148">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AI148">
         <f>INT(5+(X148+(AJ148*0.25)-1)*POWER(X148+(AJ148*0.25),0.2))</f>
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="AJ148">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AL148" s="6" t="s">
         <v>223</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B149" s="16"/>
       <c r="C149" s="6"/>
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="U149" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="V149" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="W149">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="X149">
         <f>1+(W149-1)*0.25</f>
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y149">
         <f>INT(POWER(X149+(Z149*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>10718</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AA149">
         <f>INT(POWER(X149+(AB149*0.25),3))+40</f>
-        <v>284</v>
+        <v>5399</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AC149">
         <f>INT(50+(X149+(AD149*0.25)-1)*POWER(X149+(AD149*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>2683</v>
       </c>
       <c r="AD149">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AE149">
         <f>INT(POWER(X149+(AF149*0.25),3))+40</f>
-        <v>284</v>
+        <v>831</v>
       </c>
       <c r="AF149">
         <v>0</v>
       </c>
       <c r="AG149">
         <f>INT(50+(X149+(AH149*0.25)-1)*POWER(X149+(AH149*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>2446</v>
       </c>
       <c r="AH149">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AI149">
         <f>INT(5+(X149+(AJ149*0.25)-1)*POWER(X149+(AJ149*0.25),0.2))</f>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="AJ149">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL149" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="150" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>1</v>
@@ -15764,10 +15786,10 @@
         <v>57</v>
       </c>
       <c r="U151" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="V151" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="V151" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="W151" s="9">
         <v>6</v>
@@ -15819,21 +15841,21 @@
         <v>0</v>
       </c>
       <c r="AL151" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM151" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="AM151" s="11" t="s">
-        <v>442</v>
-      </c>
     </row>
-    <row r="152" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B152" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="D152" s="9">
         <v>1</v>
@@ -15885,16 +15907,16 @@
         <v>0</v>
       </c>
       <c r="R152" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="S152" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="S152" s="11" t="s">
-        <v>453</v>
-      </c>
       <c r="U152" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="V152" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="V152" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="W152" s="9">
         <v>6</v>
@@ -15946,21 +15968,21 @@
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM152" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="AM152" s="11" t="s">
-        <v>449</v>
-      </c>
     </row>
-    <row r="153" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -16012,16 +16034,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="S153" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="S153" s="11" t="s">
-        <v>461</v>
-      </c>
       <c r="U153" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="V153" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="V153" s="11" t="s">
-        <v>455</v>
       </c>
       <c r="W153" s="9">
         <v>6</v>
@@ -16073,21 +16095,21 @@
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AM153" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="AM153" s="11" t="s">
-        <v>457</v>
-      </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U154" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="V154" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="V154" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="W154">
         <v>6</v>
@@ -16139,25 +16161,25 @@
         <v>0</v>
       </c>
       <c r="AL154" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM154" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AM154" s="6" t="s">
-        <v>465</v>
-      </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
       <c r="U155" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="V155" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="W155">
         <v>6</v>
@@ -16212,22 +16234,22 @@
         <v>93</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="U156" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="V156" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="V156" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="W156">
         <v>6</v>
@@ -16282,22 +16304,22 @@
         <v>63</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="U157" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="W157">
         <v>6</v>
@@ -16352,23 +16374,23 @@
         <v>93</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B159" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="D159" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E159" s="7">
         <v>1</v>
@@ -16413,13 +16435,13 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U159" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="V159" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="V159" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="W159">
         <v>30</v>
@@ -16471,21 +16493,21 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM159" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AM159" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="AN159" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B160" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="D160">
         <v>20</v>
@@ -16537,16 +16559,16 @@
         <v>0</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S160" s="6">
         <v>10019</v>
       </c>
       <c r="U160" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="W160">
         <v>22</v>
@@ -16601,16 +16623,16 @@
         <v>63</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="W161">
         <v>23</v>
@@ -16665,16 +16687,16 @@
         <v>93</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W162">
         <v>24</v>
@@ -16729,20 +16751,20 @@
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -16794,16 +16816,16 @@
         <v>0</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S164" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="U164" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="V164" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="V164" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="W164">
         <v>25</v>
@@ -16858,15 +16880,15 @@
         <v>223</v>
       </c>
       <c r="AM164" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="D165">
         <v>15</v>
@@ -16918,16 +16940,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="S165" s="6" t="s">
+      <c r="U165" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="U165" s="16" t="s">
+      <c r="V165" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="W165">
         <v>26</v>
@@ -16982,7 +17004,7 @@
         <v>93</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.15">
@@ -17045,13 +17067,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U166" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W166">
         <v>27</v>
@@ -17103,10 +17125,10 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.15">
@@ -17169,13 +17191,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U167" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="V167" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="V167" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="W167">
         <v>30</v>
@@ -17230,15 +17252,15 @@
         <v>93</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17286,7 +17308,7 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U168" s="16"/>
       <c r="V168" s="6"/>
@@ -17295,10 +17317,10 @@
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17346,7 +17368,7 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17355,10 +17377,10 @@
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17406,7 +17428,7 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17415,10 +17437,10 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17466,7 +17488,7 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17475,7 +17497,7 @@
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="1:40" x14ac:dyDescent="0.15">
@@ -17538,13 +17560,13 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U173" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W173">
         <v>45</v>
@@ -17599,10 +17621,10 @@
         <v>223</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.15">
@@ -17665,13 +17687,13 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U174" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="V174" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17726,18 +17748,18 @@
         <v>223</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -17785,13 +17807,13 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U175" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="W175">
         <v>50</v>
@@ -17846,18 +17868,18 @@
         <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -17905,13 +17927,13 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U176" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="V176" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="V176" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -17966,15 +17988,15 @@
         <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -18022,13 +18044,13 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U177" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="W177">
         <v>30</v>
@@ -18080,18 +18102,18 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM177" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="AM177" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18139,13 +18161,13 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U178" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="W178">
         <v>30</v>
@@ -18200,16 +18222,16 @@
         <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="W179">
         <v>30</v>
@@ -18264,12 +18286,12 @@
         <v>223</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.15">
@@ -18332,13 +18354,13 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U181" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="V181" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="V181" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="W181">
         <v>60</v>
@@ -18393,10 +18415,10 @@
         <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.15">
@@ -18459,13 +18481,13 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U182" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W182">
         <v>80</v>
@@ -18520,18 +18542,18 @@
         <v>223</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18579,13 +18601,13 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W183">
         <v>30</v>
@@ -18640,15 +18662,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -18696,13 +18718,13 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W184">
         <v>35</v>
@@ -18757,15 +18779,15 @@
         <v>177</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -18813,13 +18835,13 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W185">
         <v>35</v>
@@ -18874,15 +18896,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -18930,13 +18952,13 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W186">
         <v>35</v>
@@ -18991,16 +19013,16 @@
         <v>223</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="W187">
         <v>35</v>
@@ -19052,10 +19074,10 @@
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM187" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="AM187" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="633">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,9 +1501,6 @@
   </si>
   <si>
     <t>106003</t>
-  </si>
-  <si>
-    <t>15007|15008</t>
   </si>
   <si>
     <t>27002004</t>
@@ -2234,6 +2231,47 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>da'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要招募周伯通大红2000+</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhou'bo'tong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>da'hong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要招募周伯通快攻，一灯大师降内防破内功免疫</t>
+    <rPh sb="7" eb="8">
+      <t>kuai'gong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'deng'da'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>nei'fang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>po</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>nei'gong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mian'yi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3763,8 +3801,8 @@
   <dimension ref="A1:AO187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB148" sqref="AB148"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG163" sqref="AG163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3779,7 +3817,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -3896,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4265,12 +4303,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4523,7 +4561,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -4779,7 +4817,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -4898,7 +4936,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5240,7 +5278,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5306,7 +5344,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5367,10 +5405,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AO18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5497,15 +5535,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AO19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5753,7 +5791,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5820,7 +5858,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6103,12 +6141,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6232,7 +6270,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6488,10 +6526,10 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6506,7 +6544,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6633,10 +6671,10 @@
         <v>138</v>
       </c>
       <c r="AN36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7130,7 +7168,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -7257,10 +7295,10 @@
         <v>146</v>
       </c>
       <c r="AN47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AO47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7323,7 +7361,7 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>150</v>
@@ -7387,10 +7425,10 @@
         <v>153</v>
       </c>
       <c r="AN48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AO48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7453,7 +7491,7 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U49" s="13" t="s">
         <v>154</v>
@@ -7577,7 +7615,7 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>157</v>
@@ -7641,7 +7679,7 @@
         <v>160</v>
       </c>
       <c r="AN50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7704,7 +7742,7 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>165</v>
@@ -7768,7 +7806,7 @@
         <v>168</v>
       </c>
       <c r="AN51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -7831,7 +7869,7 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>161</v>
@@ -7895,7 +7933,7 @@
         <v>164</v>
       </c>
       <c r="AN52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -7958,7 +7996,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -7976,7 +8014,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
@@ -8103,7 +8141,7 @@
         <v>171</v>
       </c>
       <c r="AO56" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8166,7 +8204,7 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>175</v>
@@ -8290,7 +8328,7 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>180</v>
@@ -8414,7 +8452,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8481,7 +8519,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8548,7 +8586,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8615,7 +8653,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8624,7 +8662,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8687,7 +8725,7 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>182</v>
@@ -8751,7 +8789,7 @@
         <v>184</v>
       </c>
       <c r="AO64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -8814,7 +8852,7 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>185</v>
@@ -8938,7 +8976,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -9005,7 +9043,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9072,7 +9110,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9139,7 +9177,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9148,14 +9186,14 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9279,7 +9317,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U72" s="16" t="s">
         <v>195</v>
@@ -9345,7 +9383,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
@@ -9415,7 +9453,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9478,7 +9516,7 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U75" s="16" t="s">
         <v>200</v>
@@ -9542,10 +9580,10 @@
         <v>203</v>
       </c>
       <c r="AN75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO75" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
@@ -9804,7 +9842,7 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -9867,7 +9905,7 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U80" s="16" t="s">
         <v>214</v>
@@ -9931,10 +9969,10 @@
         <v>217</v>
       </c>
       <c r="AN80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
@@ -10189,19 +10227,19 @@
         <v>227</v>
       </c>
       <c r="AO83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10325,7 +10363,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
@@ -10392,7 +10430,7 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R87" s="5"/>
       <c r="U87" s="16" t="s">
@@ -10459,7 +10497,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R88" s="5"/>
       <c r="U88" s="16" t="s">
@@ -10526,7 +10564,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.15">
@@ -10589,7 +10627,7 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U90" s="16" t="s">
         <v>238</v>
@@ -10653,10 +10691,10 @@
         <v>241</v>
       </c>
       <c r="AN90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -10917,7 +10955,7 @@
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
@@ -10980,7 +11018,7 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U95" s="16" t="s">
         <v>253</v>
@@ -11044,7 +11082,7 @@
         <v>255</v>
       </c>
       <c r="AO95" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -11289,14 +11327,14 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
@@ -11420,7 +11458,7 @@
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>268</v>
@@ -11547,7 +11585,7 @@
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>275</v>
@@ -11674,7 +11712,7 @@
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="6"/>
@@ -11744,14 +11782,14 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -11875,7 +11913,7 @@
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>288</v>
@@ -12002,7 +12040,7 @@
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>294</v>
@@ -12129,7 +12167,7 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="6"/>
@@ -12199,14 +12237,14 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12330,7 +12368,7 @@
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>306</v>
@@ -12457,7 +12495,7 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
@@ -12527,7 +12565,7 @@
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
@@ -12597,7 +12635,7 @@
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.15">
@@ -12660,7 +12698,7 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U115" s="16" t="s">
         <v>318</v>
@@ -12724,7 +12762,7 @@
         <v>321</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:40" x14ac:dyDescent="0.15">
@@ -12920,15 +12958,15 @@
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D119" s="7">
         <v>12</v>
@@ -12976,7 +13014,7 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U119" s="16" t="s">
         <v>330</v>
@@ -13040,7 +13078,7 @@
         <v>333</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:40" x14ac:dyDescent="0.15">
@@ -13227,7 +13265,7 @@
         <v>270</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U121" s="16" t="s">
         <v>345</v>
@@ -13417,7 +13455,7 @@
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.15">
@@ -13480,7 +13518,7 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U124" s="16" t="s">
         <v>349</v>
@@ -13544,7 +13582,7 @@
         <v>352</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.15">
@@ -13740,15 +13778,15 @@
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D128" s="7">
         <v>12</v>
@@ -13796,7 +13834,7 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U128" s="16" t="s">
         <v>362</v>
@@ -13860,7 +13898,7 @@
         <v>365</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.15">
@@ -13993,7 +14031,7 @@
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.15">
@@ -14056,7 +14094,7 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U132" s="16" t="s">
         <v>372</v>
@@ -14120,7 +14158,7 @@
         <v>374</v>
       </c>
       <c r="AN132" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:40" x14ac:dyDescent="0.15">
@@ -14440,15 +14478,15 @@
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B137" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D137" s="7">
         <v>12</v>
@@ -14496,7 +14534,7 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U137" s="16" t="s">
         <v>390</v>
@@ -14560,7 +14598,7 @@
         <v>393</v>
       </c>
       <c r="AN137" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.15">
@@ -14880,14 +14918,14 @@
     </row>
     <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
     <row r="142" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -15011,7 +15049,7 @@
     </row>
     <row r="143" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>407</v>
@@ -15138,7 +15176,7 @@
     </row>
     <row r="144" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>414</v>
@@ -15265,7 +15303,7 @@
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.15">
@@ -15328,7 +15366,7 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U146" s="16" t="s">
         <v>420</v>
@@ -15392,10 +15430,10 @@
         <v>10017</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO146" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.15">
@@ -15522,7 +15560,7 @@
         <v>428</v>
       </c>
       <c r="AO147" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.15">
@@ -15718,14 +15756,14 @@
     </row>
     <row r="150" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
     <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>1</v>
@@ -15849,7 +15887,7 @@
     </row>
     <row r="152" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>449</v>
@@ -15976,7 +16014,7 @@
     </row>
     <row r="153" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>457</v>
@@ -16103,7 +16141,7 @@
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U154" s="16" t="s">
         <v>461</v>
@@ -16169,7 +16207,7 @@
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="6"/>
@@ -16239,7 +16277,7 @@
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
@@ -16309,7 +16347,7 @@
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
@@ -16379,15 +16417,15 @@
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B159" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D159" s="7">
         <v>25</v>
@@ -16435,7 +16473,7 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U159" s="16" t="s">
         <v>474</v>
@@ -16444,50 +16482,50 @@
         <v>475</v>
       </c>
       <c r="W159">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X159">
         <f>1+(W159-1)*0.25</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y159">
         <f>INT(POWER(X159+(Z159*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>54608</v>
       </c>
       <c r="Z159">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AA159">
         <f>INT(POWER(X159+(AB159*0.25),3))+40</f>
-        <v>601</v>
+        <v>2366</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC159">
         <f>INT(50+(X159+(AD159*0.25)-1)*POWER(X159+(AD159*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>9875</v>
       </c>
       <c r="AD159">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AE159">
         <f>INT(POWER(X159+(AF159*0.25),3))+40</f>
-        <v>3946</v>
+        <v>11814</v>
       </c>
       <c r="AF159">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="AG159">
         <f>INT(50+(X159+(AH159*0.25)-1)*POWER(X159+(AH159*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>24974</v>
       </c>
       <c r="AH159">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="AI159">
         <f>INT(5+(X159+(AJ159*0.25)-1)*POWER(X159+(AJ159*0.25),0.2))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ159">
         <v>0</v>
@@ -16495,11 +16533,14 @@
       <c r="AL159" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AM159" s="6" t="s">
-        <v>477</v>
+      <c r="AM159" s="6">
+        <v>15007</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.15">
@@ -16510,261 +16551,264 @@
         <v>443</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E160">
         <f>1+(D160-1)*0.25</f>
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="F160">
         <f>INT(200+POWER(E160+(G160*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>9387</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H160">
         <f>INT(POWER(E160+(I160*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>1026</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J160">
         <f>INT(50+(E160+(K160*0.25)-1)*POWER(E160+(K160*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>536</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L160">
         <f>INT(POWER(E160+(M160*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>2227</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N160">
         <f>INT(50+(E160+(O160*0.25)-1)*POWER(E160+(O160*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1213</v>
       </c>
       <c r="O160">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P160">
         <f>INT(5+(E160+(Q160*0.25)-1)*POWER(E160+(Q160*0.25),0.2))</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R160" s="6" t="s">
         <v>444</v>
       </c>
       <c r="S160" s="6">
-        <v>10019</v>
+        <v>10023</v>
       </c>
       <c r="U160" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="V160" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="W160">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X160">
         <f>1+(W160-1)*0.25</f>
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="Y160">
         <f>INT(POWER(X160+(Z160*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>11657</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA160">
         <f>INT(POWER(X160+(AB160*0.25),3))+40</f>
-        <v>284</v>
+        <v>10329</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AC160">
         <f>INT(50+(X160+(AD160*0.25)-1)*POWER(X160+(AD160*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>5391</v>
       </c>
       <c r="AD160">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AE160">
         <f>INT(POWER(X160+(AF160*0.25),3))+40</f>
-        <v>284</v>
+        <v>1560</v>
       </c>
       <c r="AF160">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG160">
         <f>INT(50+(X160+(AH160*0.25)-1)*POWER(X160+(AH160*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>5090</v>
       </c>
       <c r="AH160">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AI160">
         <f>INT(5+(X160+(AJ160*0.25)-1)*POWER(X160+(AJ160*0.25),0.2))</f>
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="AJ160">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AL160" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="V161" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="W161">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X161">
         <f>1+(W161-1)*0.25</f>
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y161">
         <f>INT(POWER(X161+(Z161*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>12304</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA161">
         <f>INT(POWER(X161+(AB161*0.25),3))+40</f>
-        <v>314</v>
+        <v>1662</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC161">
         <f>INT(50+(X161+(AD161*0.25)-1)*POWER(X161+(AD161*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>4823</v>
       </c>
       <c r="AD161">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AE161">
         <f>INT(POWER(X161+(AF161*0.25),3))+40</f>
-        <v>314</v>
+        <v>7743</v>
       </c>
       <c r="AF161">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG161">
         <f>INT(50+(X161+(AH161*0.25)-1)*POWER(X161+(AH161*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>5119</v>
       </c>
       <c r="AH161">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AI161">
         <f>INT(5+(X161+(AJ161*0.25)-1)*POWER(X161+(AJ161*0.25),0.2))</f>
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="AJ161">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL161" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W162">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="X162">
         <f>1+(W162-1)*0.25</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="Y162">
         <f>INT(POWER(X162+(Z162*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>11340</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA162">
         <f>INT(POWER(X162+(AB162*0.25),3))+40</f>
-        <v>347</v>
+        <v>1768</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC162">
         <f>INT(50+(X162+(AD162*0.25)-1)*POWER(X162+(AD162*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>6329</v>
       </c>
       <c r="AD162">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AE162">
         <f>INT(POWER(X162+(AF162*0.25),3))+40</f>
-        <v>347</v>
+        <v>9978</v>
       </c>
       <c r="AF162">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG162">
         <f>INT(50+(X162+(AH162*0.25)-1)*POWER(X162+(AH162*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>6329</v>
       </c>
       <c r="AH162">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AI162">
         <f>INT(5+(X162+(AJ162*0.25)-1)*POWER(X162+(AJ162*0.25),0.2))</f>
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="AJ162">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AL162" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -16819,13 +16863,13 @@
         <v>476</v>
       </c>
       <c r="S164" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U164" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="V164" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="V164" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="W164">
         <v>25</v>
@@ -16880,15 +16924,15 @@
         <v>223</v>
       </c>
       <c r="AM164" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="D165">
         <v>15</v>
@@ -16940,16 +16984,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="S165" s="6" t="s">
+      <c r="U165" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="U165" s="16" t="s">
+      <c r="V165" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="W165">
         <v>26</v>
@@ -17004,7 +17048,7 @@
         <v>93</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.15">
@@ -17067,13 +17111,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U166" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W166">
         <v>27</v>
@@ -17125,10 +17169,10 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.15">
@@ -17191,13 +17235,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U167" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="V167" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="V167" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="W167">
         <v>30</v>
@@ -17252,15 +17296,15 @@
         <v>93</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17308,7 +17352,7 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U168" s="16"/>
       <c r="V168" s="6"/>
@@ -17317,10 +17361,10 @@
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17368,7 +17412,7 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17377,10 +17421,10 @@
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17428,7 +17472,7 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17437,10 +17481,10 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17488,7 +17532,7 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17497,7 +17541,7 @@
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173" spans="1:40" x14ac:dyDescent="0.15">
@@ -17560,13 +17604,13 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U173" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W173">
         <v>45</v>
@@ -17621,10 +17665,10 @@
         <v>223</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.15">
@@ -17687,13 +17731,13 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U174" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="V174" s="6" t="s">
-        <v>509</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17748,18 +17792,18 @@
         <v>223</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -17807,13 +17851,13 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U175" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="W175">
         <v>50</v>
@@ -17868,18 +17912,18 @@
         <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -17927,13 +17971,13 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U176" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="V176" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="V176" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="W176">
         <v>30</v>
@@ -17988,15 +18032,15 @@
         <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -18044,13 +18088,13 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U177" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="W177">
         <v>30</v>
@@ -18102,18 +18146,18 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM177" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="AM177" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18161,13 +18205,13 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U178" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="W178">
         <v>30</v>
@@ -18222,16 +18266,16 @@
         <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="W179">
         <v>30</v>
@@ -18286,12 +18330,12 @@
         <v>223</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.15">
@@ -18354,13 +18398,13 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U181" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="V181" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="V181" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="W181">
         <v>60</v>
@@ -18415,10 +18459,10 @@
         <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.15">
@@ -18481,13 +18525,13 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U182" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W182">
         <v>80</v>
@@ -18542,18 +18586,18 @@
         <v>223</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18601,13 +18645,13 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W183">
         <v>30</v>
@@ -18662,15 +18706,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -18718,13 +18762,13 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W184">
         <v>35</v>
@@ -18779,15 +18823,15 @@
         <v>177</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -18835,13 +18879,13 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W185">
         <v>35</v>
@@ -18896,15 +18940,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -18952,13 +18996,13 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W186">
         <v>35</v>
@@ -19013,16 +19057,16 @@
         <v>223</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W187">
         <v>35</v>
@@ -19074,10 +19118,10 @@
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM187" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="AM187" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="634">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2177,19 +2177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>准备点大药（1500+）</t>
-    <rPh sb="0" eb="1">
-      <t>zhun'bei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募杨过利用绝对高攻击杀</t>
     <rPh sb="0" eb="1">
       <t>zhao'mu</t>
@@ -2271,6 +2258,53 @@
       <t>nei'gong</t>
     </rPh>
     <rPh sb="20" eb="21">
+      <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备点大药（2000+）</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募小龙女用固定内功伤害破解内外功免疫</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'long'nv</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nei'gong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>po'jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei'gong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
       <t>mian'yi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3800,9 +3834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG163" sqref="AG163"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF120" sqref="AF120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10227,7 +10261,7 @@
         <v>227</v>
       </c>
       <c r="AO83" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -10694,7 +10728,7 @@
         <v>578</v>
       </c>
       <c r="AO90" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -11082,7 +11116,7 @@
         <v>255</v>
       </c>
       <c r="AO95" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -12563,7 +12597,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
         <v>567</v>
       </c>
@@ -12633,12 +12667,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B115" s="12" t="s">
         <v>1</v>
       </c>
@@ -12646,50 +12680,50 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E115">
         <f>1+(D115-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F115">
         <f>INT(200+POWER(E115+(G115*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
         <f>INT(POWER(E115+(I115*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
         <f>INT(50+(E115+(K115*0.25)-1)*POWER(E115+(K115*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
         <f>INT(POWER(E115+(M115*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
         <f>INT(50+(E115+(O115*0.25)-1)*POWER(E115+(O115*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O115">
         <v>0</v>
       </c>
       <c r="P115">
         <f>INT(5+(E115+(Q115*0.25)-1)*POWER(E115+(Q115*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -12707,50 +12741,50 @@
         <v>319</v>
       </c>
       <c r="W115">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="X115">
         <f>1+(W115-1)*0.25</f>
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="Y115">
         <f>INT(POWER(X115+(Z115*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>14708</v>
       </c>
       <c r="Z115">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AA115">
         <f>INT(POWER(X115+(AB115*0.25),3))+40</f>
-        <v>383</v>
+        <v>831</v>
       </c>
       <c r="AB115">
         <v>0</v>
       </c>
       <c r="AC115">
         <f>INT(50+(X115+(AD115*0.25)-1)*POWER(X115+(AD115*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>4823</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AE115">
         <f>INT(POWER(X115+(AF115*0.25),3))+40</f>
-        <v>1768</v>
+        <v>9635</v>
       </c>
       <c r="AF115">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AG115">
         <f>INT(50+(X115+(AH115*0.25)-1)*POWER(X115+(AH115*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>4823</v>
       </c>
       <c r="AH115">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AI115">
         <f>INT(5+(X115+(AJ115*0.25)-1)*POWER(X115+(AJ115*0.25),0.2))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ115">
         <v>0</v>
@@ -12764,8 +12798,11 @@
       <c r="AN115" s="7" t="s">
         <v>575</v>
       </c>
+      <c r="AO115" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B116" s="16" t="s">
         <v>322</v>
       </c>
@@ -12773,53 +12810,53 @@
         <v>323</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E116">
         <f>1+(D116-1)*0.25</f>
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="F116">
         <f>INT(200+POWER(E116+(G116*0.25)+1,2)*30)</f>
-        <v>1107</v>
+        <v>5667</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H116">
         <f>INT(POWER(E116+(I116*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>588</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J116">
         <f>INT(50+(E116+(K116*0.25)-1)*POWER(E116+(K116*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>334</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L116">
         <f>INT(POWER(E116+(M116*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>816</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N116">
         <f>INT(50+(E116+(O116*0.25)-1)*POWER(E116+(O116*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>456</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P116">
         <f>INT(5+(E116+(Q116*0.25)-1)*POWER(E116+(Q116*0.25),0.2))</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R116" s="6" t="s">
         <v>324</v>
@@ -12834,50 +12871,50 @@
         <v>326</v>
       </c>
       <c r="W116">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X116">
         <f>1+(W116-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="Y116">
         <f>INT(POWER(X116+(Z116*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>12304</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA116">
         <f>INT(POWER(X116+(AB116*0.25),3))+40</f>
-        <v>230</v>
+        <v>709</v>
       </c>
       <c r="AB116">
         <v>0</v>
       </c>
       <c r="AC116">
         <f>INT(50+(X116+(AD116*0.25)-1)*POWER(X116+(AD116*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>3917</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AE116">
         <f>INT(POWER(X116+(AF116*0.25),3))+40</f>
-        <v>230</v>
+        <v>6631</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG116">
         <f>INT(50+(X116+(AH116*0.25)-1)*POWER(X116+(AH116*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>4476</v>
       </c>
       <c r="AH116">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI116">
         <f>INT(5+(X116+(AJ116*0.25)-1)*POWER(X116+(AJ116*0.25),0.2))</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -12889,7 +12926,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B117" s="16"/>
       <c r="C117" s="6"/>
       <c r="R117" s="6"/>
@@ -12901,53 +12938,53 @@
         <v>329</v>
       </c>
       <c r="W117">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="X117">
         <f>1+(W117-1)*0.25</f>
-        <v>6.25</v>
+        <v>9</v>
       </c>
       <c r="Y117">
         <f>INT(POWER(X117+(Z117*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>11027</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA117">
         <f>INT(POWER(X117+(AB117*0.25),3))+40</f>
-        <v>284</v>
+        <v>6899</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC117">
         <f>INT(50+(X117+(AD117*0.25)-1)*POWER(X117+(AD117*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>4221</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AE117">
         <f>INT(POWER(X117+(AF117*0.25),3))+40</f>
-        <v>284</v>
+        <v>769</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
         <f>INT(50+(X117+(AH117*0.25)-1)*POWER(X117+(AH117*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3674</v>
       </c>
       <c r="AH117">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AI117">
         <f>INT(5+(X117+(AJ117*0.25)-1)*POWER(X117+(AJ117*0.25),0.2))</f>
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="AJ117">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AL117" s="6" t="s">
         <v>223</v>
@@ -12955,13 +12992,16 @@
       <c r="AM117" s="6" t="s">
         <v>246</v>
       </c>
+      <c r="AO117" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
         <v>560</v>
       </c>
@@ -12969,7 +13009,7 @@
         <v>561</v>
       </c>
       <c r="D119" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
@@ -13031,10 +13071,10 @@
       </c>
       <c r="Y119">
         <f>INT(POWER(X119+(Z119*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>18919</v>
       </c>
       <c r="Z119">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA119">
         <f>INT(POWER(X119+(AB119*0.25),3))+40</f>
@@ -13045,24 +13085,24 @@
       </c>
       <c r="AC119">
         <f>INT(50+(X119+(AD119*0.25)-1)*POWER(X119+(AD119*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>24721</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AE119">
         <f>INT(POWER(X119+(AF119*0.25),3))+40</f>
-        <v>3946</v>
+        <v>8974</v>
       </c>
       <c r="AF119">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG119">
         <f>INT(50+(X119+(AH119*0.25)-1)*POWER(X119+(AH119*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>24721</v>
       </c>
       <c r="AH119">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="AI119">
         <f>INT(5+(X119+(AJ119*0.25)-1)*POWER(X119+(AJ119*0.25),0.2))</f>
@@ -13080,8 +13120,11 @@
       <c r="AN119" s="7" t="s">
         <v>575</v>
       </c>
+      <c r="AO119" t="s">
+        <v>633</v>
+      </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B120" s="16" t="s">
         <v>334</v>
       </c>
@@ -13158,24 +13201,24 @@
       </c>
       <c r="Y120">
         <f>INT(POWER(X120+(Z120*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>11978</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA120">
         <f>INT(POWER(X120+(AB120*0.25),3))+40</f>
-        <v>383</v>
+        <v>6899</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC120">
         <f>INT(50+(X120+(AD120*0.25)-1)*POWER(X120+(AD120*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>4277</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE120">
         <f>INT(POWER(X120+(AF120*0.25),3))+40</f>
@@ -13186,17 +13229,17 @@
       </c>
       <c r="AG120">
         <f>INT(50+(X120+(AH120*0.25)-1)*POWER(X120+(AH120*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3727</v>
       </c>
       <c r="AH120">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI120">
         <f>INT(5+(X120+(AJ120*0.25)-1)*POWER(X120+(AJ120*0.25),0.2))</f>
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="AJ120">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AL120" s="6" t="s">
         <v>65</v>
@@ -13204,8 +13247,11 @@
       <c r="AM120" s="6" t="s">
         <v>339</v>
       </c>
+      <c r="AO120" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
         <v>340</v>
       </c>
@@ -13282,24 +13328,24 @@
       </c>
       <c r="Y121">
         <f>INT(POWER(X121+(Z121*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>11657</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AA121">
         <f>INT(POWER(X121+(AB121*0.25),3))+40</f>
-        <v>383</v>
+        <v>7173</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AC121">
         <f>INT(50+(X121+(AD121*0.25)-1)*POWER(X121+(AD121*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>4277</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE121">
         <f>INT(POWER(X121+(AF121*0.25),3))+40</f>
@@ -13310,17 +13356,17 @@
       </c>
       <c r="AG121">
         <f>INT(50+(X121+(AH121*0.25)-1)*POWER(X121+(AH121*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3999</v>
       </c>
       <c r="AH121">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AI121">
         <f>INT(5+(X121+(AJ121*0.25)-1)*POWER(X121+(AJ121*0.25),0.2))</f>
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="AJ121">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AL121" s="6" t="s">
         <v>93</v>
@@ -13328,8 +13374,11 @@
       <c r="AM121" s="6" t="s">
         <v>280</v>
       </c>
+      <c r="AO121" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
         <v>344</v>
       </c>
@@ -13406,10 +13455,10 @@
       </c>
       <c r="Y122">
         <f>INT(POWER(X122+(Z122*0.25),2)*35)</f>
-        <v>1594</v>
+        <v>10115</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AA122">
         <f>INT(POWER(X122+(AB122*0.25),3))+40</f>
@@ -13420,24 +13469,24 @@
       </c>
       <c r="AC122">
         <f>INT(50+(X122+(AD122*0.25)-1)*POWER(X122+(AD122*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>3700</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AE122">
         <f>INT(POWER(X122+(AF122*0.25),3))+40</f>
-        <v>347</v>
+        <v>5872</v>
       </c>
       <c r="AF122">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AG122">
         <f>INT(50+(X122+(AH122*0.25)-1)*POWER(X122+(AH122*0.25),0.5)*10)</f>
-        <v>199</v>
+        <v>4249</v>
       </c>
       <c r="AH122">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI122">
         <f>INT(5+(X122+(AJ122*0.25)-1)*POWER(X122+(AJ122*0.25),0.2))</f>
@@ -13452,13 +13501,16 @@
       <c r="AM122" s="6" t="s">
         <v>261</v>
       </c>
+      <c r="AO122" t="s">
+        <v>632</v>
+      </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B124" s="12" t="s">
         <v>1</v>
       </c>
@@ -13585,7 +13637,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B125" s="16" t="s">
         <v>353</v>
       </c>
@@ -13709,7 +13761,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B126" s="16"/>
       <c r="C126" s="6"/>
       <c r="R126" s="6"/>
@@ -13776,12 +13828,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
         <v>560</v>
       </c>
@@ -15433,7 +15485,7 @@
         <v>575</v>
       </c>
       <c r="AO146" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.15">
@@ -15560,7 +15612,7 @@
         <v>428</v>
       </c>
       <c r="AO147" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.15">
@@ -16540,7 +16592,7 @@
         <v>575</v>
       </c>
       <c r="AO159" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.15">
@@ -16667,7 +16719,7 @@
         <v>479</v>
       </c>
       <c r="AO160" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.15">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="636">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2306,6 +2306,56 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>mian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募觉远大师减伤破解高伤害</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>po'jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gao'gong'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募觉远大师减伤破解高伤害，准备点大药（2000+）</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian'shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>po'jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gao'gong'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'hai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3834,9 +3884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF120" sqref="AF120"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD129" sqref="AD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13063,29 +13113,29 @@
         <v>331</v>
       </c>
       <c r="W119">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X119">
         <f>1+(W119-1)*0.25</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y119">
         <f>INT(POWER(X119+(Z119*0.25),2)*35)</f>
         <v>18919</v>
       </c>
       <c r="Z119">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA119">
         <f>INT(POWER(X119+(AB119*0.25),3))+40</f>
-        <v>601</v>
+        <v>897</v>
       </c>
       <c r="AB119">
         <v>0</v>
       </c>
       <c r="AC119">
         <f>INT(50+(X119+(AD119*0.25)-1)*POWER(X119+(AD119*0.25),0.5)*10)</f>
-        <v>24721</v>
+        <v>24974</v>
       </c>
       <c r="AD119">
         <v>700</v>
@@ -13095,18 +13145,18 @@
         <v>8974</v>
       </c>
       <c r="AF119">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG119">
         <f>INT(50+(X119+(AH119*0.25)-1)*POWER(X119+(AH119*0.25),0.5)*10)</f>
-        <v>24721</v>
+        <v>24974</v>
       </c>
       <c r="AH119">
         <v>700</v>
       </c>
       <c r="AI119">
         <f>INT(5+(X119+(AJ119*0.25)-1)*POWER(X119+(AJ119*0.25),0.2))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ119">
         <v>0</v>
@@ -13193,36 +13243,36 @@
         <v>338</v>
       </c>
       <c r="W120">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X120">
         <f>1+(W120-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y120">
         <f>INT(POWER(X120+(Z120*0.25),2)*35)</f>
         <v>11978</v>
       </c>
       <c r="Z120">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA120">
         <f>INT(POWER(X120+(AB120*0.25),3))+40</f>
         <v>6899</v>
       </c>
       <c r="AB120">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AC120">
         <f>INT(50+(X120+(AD120*0.25)-1)*POWER(X120+(AD120*0.25),0.5)*10)</f>
         <v>4277</v>
       </c>
       <c r="AD120">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AE120">
         <f>INT(POWER(X120+(AF120*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AF120">
         <v>0</v>
@@ -13232,14 +13282,14 @@
         <v>3727</v>
       </c>
       <c r="AH120">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AI120">
         <f>INT(5+(X120+(AJ120*0.25)-1)*POWER(X120+(AJ120*0.25),0.2))</f>
         <v>172</v>
       </c>
       <c r="AJ120">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AL120" s="6" t="s">
         <v>65</v>
@@ -13320,36 +13370,36 @@
         <v>346</v>
       </c>
       <c r="W121">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X121">
         <f>1+(W121-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y121">
         <f>INT(POWER(X121+(Z121*0.25),2)*35)</f>
         <v>11657</v>
       </c>
       <c r="Z121">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AA121">
         <f>INT(POWER(X121+(AB121*0.25),3))+40</f>
         <v>7173</v>
       </c>
       <c r="AB121">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AC121">
         <f>INT(50+(X121+(AD121*0.25)-1)*POWER(X121+(AD121*0.25),0.5)*10)</f>
         <v>4277</v>
       </c>
       <c r="AD121">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AE121">
         <f>INT(POWER(X121+(AF121*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AF121">
         <v>0</v>
@@ -13359,14 +13409,14 @@
         <v>3999</v>
       </c>
       <c r="AH121">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AI121">
         <f>INT(5+(X121+(AJ121*0.25)-1)*POWER(X121+(AJ121*0.25),0.2))</f>
         <v>158</v>
       </c>
       <c r="AJ121">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AL121" s="6" t="s">
         <v>93</v>
@@ -13447,22 +13497,22 @@
         <v>348</v>
       </c>
       <c r="W122">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="X122">
         <f>1+(W122-1)*0.25</f>
-        <v>6.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y122">
         <f>INT(POWER(X122+(Z122*0.25),2)*35)</f>
         <v>10115</v>
       </c>
       <c r="Z122">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AA122">
         <f>INT(POWER(X122+(AB122*0.25),3))+40</f>
-        <v>347</v>
+        <v>831</v>
       </c>
       <c r="AB122">
         <v>0</v>
@@ -13472,25 +13522,25 @@
         <v>3700</v>
       </c>
       <c r="AD122">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AE122">
         <f>INT(POWER(X122+(AF122*0.25),3))+40</f>
         <v>5872</v>
       </c>
       <c r="AF122">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG122">
         <f>INT(50+(X122+(AH122*0.25)-1)*POWER(X122+(AH122*0.25),0.5)*10)</f>
         <v>4249</v>
       </c>
       <c r="AH122">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AI122">
         <f>INT(5+(X122+(AJ122*0.25)-1)*POWER(X122+(AJ122*0.25),0.2))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ122">
         <v>0</v>
@@ -13518,50 +13568,50 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E124">
         <f>1+(D124-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F124">
         <f>INT(200+POWER(E124+(G124*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
         <f>INT(POWER(E124+(I124*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
         <f>INT(50+(E124+(K124*0.25)-1)*POWER(E124+(K124*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
       <c r="L124">
         <f>INT(POWER(E124+(M124*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
         <f>INT(50+(E124+(O124*0.25)-1)*POWER(E124+(O124*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O124">
         <v>0</v>
       </c>
       <c r="P124">
         <f>INT(5+(E124+(Q124*0.25)-1)*POWER(E124+(Q124*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q124">
         <v>0</v>
@@ -13579,50 +13629,50 @@
         <v>350</v>
       </c>
       <c r="W124">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X124">
         <f>1+(W124-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y124">
         <f>INT(POWER(X124+(Z124*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>30458</v>
       </c>
       <c r="Z124">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AA124">
         <f>INT(POWER(X124+(AB124*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AB124">
         <v>0</v>
       </c>
       <c r="AC124">
         <f>INT(50+(X124+(AD124*0.25)-1)*POWER(X124+(AD124*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>9139</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AE124">
         <f>INT(POWER(X124+(AF124*0.25),3))+40</f>
-        <v>1768</v>
+        <v>7454</v>
       </c>
       <c r="AF124">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AG124">
         <f>INT(50+(X124+(AH124*0.25)-1)*POWER(X124+(AH124*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>9504</v>
       </c>
       <c r="AH124">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AI124">
         <f>INT(5+(X124+(AJ124*0.25)-1)*POWER(X124+(AJ124*0.25),0.2))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ124">
         <v>0</v>
@@ -13635,6 +13685,9 @@
       </c>
       <c r="AN124" s="7" t="s">
         <v>575</v>
+      </c>
+      <c r="AO124" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.15">
@@ -13645,50 +13698,50 @@
         <v>354</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E125">
         <f>1+(D125-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="F125">
         <f>INT(200+POWER(E125+(G125*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>9126</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <f>INT(POWER(E125+(I125*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>450</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
         <f>INT(50+(E125+(K125*0.25)-1)*POWER(E125+(K125*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L125">
         <f>INT(POWER(E125+(M125*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>1837</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N125">
         <f>INT(50+(E125+(O125*0.25)-1)*POWER(E125+(O125*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1597</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P125">
         <f>INT(5+(E125+(Q125*0.25)-1)*POWER(E125+(Q125*0.25),0.2))</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -13706,59 +13759,62 @@
         <v>358</v>
       </c>
       <c r="W125">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X125">
         <f>1+(W125-1)*0.25</f>
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y125">
         <f>INT(POWER(X125+(Z125*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>11657</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA125">
         <f>INT(POWER(X125+(AB125*0.25),3))+40</f>
-        <v>230</v>
+        <v>8040</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AC125">
         <f>INT(50+(X125+(AD125*0.25)-1)*POWER(X125+(AD125*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>4277</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AE125">
         <f>INT(POWER(X125+(AF125*0.25),3))+40</f>
-        <v>230</v>
+        <v>897</v>
       </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
         <f>INT(50+(X125+(AH125*0.25)-1)*POWER(X125+(AH125*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>3462</v>
       </c>
       <c r="AH125">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AI125">
         <f>INT(5+(X125+(AJ125*0.25)-1)*POWER(X125+(AJ125*0.25),0.2))</f>
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="AJ125">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AL125" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AM125" s="6" t="s">
         <v>359</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.15">
@@ -13773,50 +13829,50 @@
         <v>361</v>
       </c>
       <c r="W126">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="X126">
         <f>1+(W126-1)*0.25</f>
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y126">
         <f>INT(POWER(X126+(Z126*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>9819</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA126">
         <f>INT(POWER(X126+(AB126*0.25),3))+40</f>
-        <v>284</v>
+        <v>831</v>
       </c>
       <c r="AB126">
         <v>0</v>
       </c>
       <c r="AC126">
         <f>INT(50+(X126+(AD126*0.25)-1)*POWER(X126+(AD126*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3700</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AE126">
         <f>INT(POWER(X126+(AF126*0.25),3))+40</f>
-        <v>284</v>
+        <v>4739</v>
       </c>
       <c r="AF126">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG126">
         <f>INT(50+(X126+(AH126*0.25)-1)*POWER(X126+(AH126*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3972</v>
       </c>
       <c r="AH126">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AI126">
         <f>INT(5+(X126+(AJ126*0.25)-1)*POWER(X126+(AJ126*0.25),0.2))</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -13826,6 +13882,9 @@
       </c>
       <c r="AM126" s="6" t="s">
         <v>224</v>
+      </c>
+      <c r="AO126" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.15">
@@ -13841,7 +13900,7 @@
         <v>561</v>
       </c>
       <c r="D128" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -13895,50 +13954,50 @@
         <v>363</v>
       </c>
       <c r="W128">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X128">
         <f>1+(W128-1)*0.25</f>
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y128">
         <f>INT(POWER(X128+(Z128*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>41658</v>
       </c>
       <c r="Z128">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AA128">
         <f>INT(POWER(X128+(AB128*0.25),3))+40</f>
-        <v>601</v>
+        <v>6118</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC128">
         <f>INT(50+(X128+(AD128*0.25)-1)*POWER(X128+(AD128*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>4707</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE128">
         <f>INT(POWER(X128+(AF128*0.25),3))+40</f>
-        <v>3946</v>
+        <v>10329</v>
       </c>
       <c r="AF128">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AG128">
         <f>INT(50+(X128+(AH128*0.25)-1)*POWER(X128+(AH128*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>4562</v>
       </c>
       <c r="AH128">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="AI128">
         <f>INT(5+(X128+(AJ128*0.25)-1)*POWER(X128+(AJ128*0.25),0.2))</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ128">
         <v>0</v>
@@ -13951,6 +14010,9 @@
       </c>
       <c r="AN128" s="7" t="s">
         <v>575</v>
+      </c>
+      <c r="AO128" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.15">
@@ -13962,53 +14024,53 @@
         <v>367</v>
       </c>
       <c r="W129">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="X129">
         <f>1+(W129-1)*0.25</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y129">
         <f>INT(POWER(X129+(Z129*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>11657</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AA129">
         <f>INT(POWER(X129+(AB129*0.25),3))+40</f>
-        <v>383</v>
+        <v>10688</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC129">
         <f>INT(50+(X129+(AD129*0.25)-1)*POWER(X129+(AD129*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>5209</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AE129">
         <f>INT(POWER(X129+(AF129*0.25),3))+40</f>
-        <v>383</v>
+        <v>11430</v>
       </c>
       <c r="AF129">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG129">
         <f>INT(50+(X129+(AH129*0.25)-1)*POWER(X129+(AH129*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3514</v>
       </c>
       <c r="AH129">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AI129">
         <f>INT(5+(X129+(AJ129*0.25)-1)*POWER(X129+(AJ129*0.25),0.2))</f>
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="AJ129">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AL129" s="6" t="s">
         <v>223</v>
@@ -14026,53 +14088,53 @@
         <v>370</v>
       </c>
       <c r="W130">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="X130">
         <f>1+(W130-1)*0.25</f>
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="Y130">
         <f>INT(POWER(X130+(Z130*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>12304</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA130">
         <f>INT(POWER(X130+(AB130*0.25),3))+40</f>
-        <v>383</v>
+        <v>11430</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AC130">
         <f>INT(50+(X130+(AD130*0.25)-1)*POWER(X130+(AD130*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>5544</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AE130">
         <f>INT(POWER(X130+(AF130*0.25),3))+40</f>
-        <v>383</v>
+        <v>16138</v>
       </c>
       <c r="AF130">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG130">
         <f>INT(50+(X130+(AH130*0.25)-1)*POWER(X130+(AH130*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3808</v>
       </c>
       <c r="AH130">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AI130">
         <f>INT(5+(X130+(AJ130*0.25)-1)*POWER(X130+(AJ130*0.25),0.2))</f>
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="AJ130">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AL130" s="6" t="s">
         <v>223</v>
@@ -14094,50 +14156,50 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E132">
         <f>1+(D132-1)*0.25</f>
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="F132">
         <f>INT(200+POWER(E132+(G132*0.25)+1,2)*30)</f>
-        <v>807</v>
+        <v>2001</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
         <f>INT(POWER(E132+(I132*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
         <f>INT(50+(E132+(K132*0.25)-1)*POWER(E132+(K132*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
         <f>INT(POWER(E132+(M132*0.25)+4,2)*3)</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
       <c r="N132">
         <f>INT(50+(E132+(O132*0.25)-1)*POWER(E132+(O132*0.25),0.5)*10)</f>
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O132">
         <v>0</v>
       </c>
       <c r="P132">
         <f>INT(5+(E132+(Q132*0.25)-1)*POWER(E132+(Q132*0.25),0.2))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -14541,7 +14603,7 @@
         <v>561</v>
       </c>
       <c r="D137" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -14654,67 +14716,10 @@
       </c>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B138" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <f>1+(D138-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <f>INT(200+POWER(E138+(G138*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <f>INT(POWER(E138+(I138*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <f>INT(50+(E138+(K138*0.25)-1)*POWER(E138+(K138*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <f>INT(POWER(E138+(M138*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <f>INT(50+(E138+(O138*0.25)-1)*POWER(E138+(O138*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <f>INT(5+(E138+(Q138*0.25)-1)*POWER(E138+(Q138*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="S138" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="B138" s="16"/>
+      <c r="C138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
       <c r="U138" s="16" t="s">
         <v>394</v>
       </c>
@@ -14778,67 +14783,10 @@
       </c>
     </row>
     <row r="139" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B139" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <f>1+(D139-1)*0.25</f>
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <f>INT(200+POWER(E139+(G139*0.25)+1,2)*30)</f>
-        <v>320</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <f>INT(POWER(E139+(I139*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <f>INT(50+(E139+(K139*0.25)-1)*POWER(E139+(K139*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <f>INT(POWER(E139+(M139*0.25)+4,2)*3)</f>
-        <v>75</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <f>INT(50+(E139+(O139*0.25)-1)*POWER(E139+(O139*0.25),0.5)*10)</f>
-        <v>50</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <f>INT(5+(E139+(Q139*0.25)-1)*POWER(E139+(Q139*0.25),0.2))</f>
-        <v>5</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S139" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="B139" s="16"/>
+      <c r="C139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
       <c r="U139" s="16" t="s">
         <v>397</v>
       </c>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="636">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,9 +1191,6 @@
   </si>
   <si>
     <t>发狂欧阳锋</t>
-  </si>
-  <si>
-    <t>15005|16006</t>
   </si>
   <si>
     <t>22002002</t>
@@ -2356,6 +2353,37 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>shang'hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募欧阳锋用反弹伤害对抗高伤害脆血</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ou'yang'feng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sang'hai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dui'kang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gao'shang'hai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3884,9 +3912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD129" sqref="AD129"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB141" sqref="AB141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3901,7 +3929,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -4018,7 +4046,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4387,12 +4415,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4645,7 +4673,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -4901,7 +4929,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -5020,7 +5048,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5362,7 +5390,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5428,7 +5456,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5489,10 +5517,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5619,15 +5647,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5875,7 +5903,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -5942,7 +5970,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6225,12 +6253,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6354,7 +6382,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6610,10 +6638,10 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AO33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6628,7 +6656,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6755,10 +6783,10 @@
         <v>138</v>
       </c>
       <c r="AN36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7252,7 +7280,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -7379,10 +7407,10 @@
         <v>146</v>
       </c>
       <c r="AN47" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7445,7 +7473,7 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>150</v>
@@ -7509,10 +7537,10 @@
         <v>153</v>
       </c>
       <c r="AN48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AO48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7575,7 +7603,7 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U49" s="13" t="s">
         <v>154</v>
@@ -7699,7 +7727,7 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>157</v>
@@ -7763,7 +7791,7 @@
         <v>160</v>
       </c>
       <c r="AN50" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7826,7 +7854,7 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>165</v>
@@ -7890,7 +7918,7 @@
         <v>168</v>
       </c>
       <c r="AN51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -7953,7 +7981,7 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>161</v>
@@ -8017,7 +8045,7 @@
         <v>164</v>
       </c>
       <c r="AN52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -8080,7 +8108,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -8098,7 +8126,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
@@ -8225,7 +8253,7 @@
         <v>171</v>
       </c>
       <c r="AO56" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8288,7 +8316,7 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>175</v>
@@ -8412,7 +8440,7 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>180</v>
@@ -8536,7 +8564,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8603,7 +8631,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8670,7 +8698,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8737,7 +8765,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8746,7 +8774,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8809,7 +8837,7 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>182</v>
@@ -8873,7 +8901,7 @@
         <v>184</v>
       </c>
       <c r="AO64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -8936,7 +8964,7 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>185</v>
@@ -9060,7 +9088,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -9127,7 +9155,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9194,7 +9222,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9261,7 +9289,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9270,14 +9298,14 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9401,7 +9429,7 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U72" s="16" t="s">
         <v>195</v>
@@ -9467,7 +9495,7 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
@@ -9537,7 +9565,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9600,7 +9628,7 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U75" s="16" t="s">
         <v>200</v>
@@ -9664,10 +9692,10 @@
         <v>203</v>
       </c>
       <c r="AN75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
@@ -9926,7 +9954,7 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -9989,7 +10017,7 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U80" s="16" t="s">
         <v>214</v>
@@ -10053,10 +10081,10 @@
         <v>217</v>
       </c>
       <c r="AN80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
@@ -10311,19 +10339,19 @@
         <v>227</v>
       </c>
       <c r="AO83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10447,7 +10475,7 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
@@ -10514,7 +10542,7 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R87" s="5"/>
       <c r="U87" s="16" t="s">
@@ -10581,7 +10609,7 @@
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R88" s="5"/>
       <c r="U88" s="16" t="s">
@@ -10648,7 +10676,7 @@
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.15">
@@ -10711,7 +10739,7 @@
         <v>101104</v>
       </c>
       <c r="S90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U90" s="16" t="s">
         <v>238</v>
@@ -10775,10 +10803,10 @@
         <v>241</v>
       </c>
       <c r="AN90" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO90" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -11039,7 +11067,7 @@
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
@@ -11102,7 +11130,7 @@
         <v>101105</v>
       </c>
       <c r="S95" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U95" s="16" t="s">
         <v>253</v>
@@ -11166,7 +11194,7 @@
         <v>255</v>
       </c>
       <c r="AO95" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -11411,14 +11439,14 @@
     </row>
     <row r="99" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B99" s="15"/>
       <c r="U99" s="15"/>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>1</v>
@@ -11542,7 +11570,7 @@
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>268</v>
@@ -11669,7 +11697,7 @@
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>275</v>
@@ -11796,7 +11824,7 @@
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="6"/>
@@ -11866,14 +11894,14 @@
     </row>
     <row r="104" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B104" s="15"/>
       <c r="U104" s="15"/>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>1</v>
@@ -11997,7 +12025,7 @@
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>288</v>
@@ -12124,7 +12152,7 @@
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>294</v>
@@ -12251,7 +12279,7 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="6"/>
@@ -12321,14 +12349,14 @@
     </row>
     <row r="109" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B109" s="15"/>
       <c r="U109" s="15"/>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>1</v>
@@ -12452,7 +12480,7 @@
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>306</v>
@@ -12579,7 +12607,7 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="6"/>
@@ -12649,7 +12677,7 @@
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
@@ -12719,7 +12747,7 @@
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.15">
@@ -12782,7 +12810,7 @@
         <v>102204</v>
       </c>
       <c r="S115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U115" s="16" t="s">
         <v>318</v>
@@ -12846,10 +12874,10 @@
         <v>321</v>
       </c>
       <c r="AN115" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO115" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.15">
@@ -13043,20 +13071,20 @@
         <v>246</v>
       </c>
       <c r="AO117" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B119" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D119" s="7">
         <v>25</v>
@@ -13104,7 +13132,7 @@
         <v>102205</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U119" s="16" t="s">
         <v>330</v>
@@ -13168,10 +13196,10 @@
         <v>333</v>
       </c>
       <c r="AN119" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO119" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.15">
@@ -13298,7 +13326,7 @@
         <v>339</v>
       </c>
       <c r="AO120" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.15">
@@ -13361,7 +13389,7 @@
         <v>270</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U121" s="16" t="s">
         <v>345</v>
@@ -13425,7 +13453,7 @@
         <v>280</v>
       </c>
       <c r="AO121" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.15">
@@ -13552,12 +13580,12 @@
         <v>261</v>
       </c>
       <c r="AO122" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.15">
@@ -13620,7 +13648,7 @@
         <v>104104</v>
       </c>
       <c r="S124" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U124" s="16" t="s">
         <v>349</v>
@@ -13684,10 +13712,10 @@
         <v>352</v>
       </c>
       <c r="AN124" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO124" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.15">
@@ -13814,7 +13842,7 @@
         <v>359</v>
       </c>
       <c r="AO125" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.15">
@@ -13884,20 +13912,20 @@
         <v>224</v>
       </c>
       <c r="AO126" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B128" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D128" s="7">
         <v>25</v>
@@ -13945,7 +13973,7 @@
         <v>104105</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U128" s="16" t="s">
         <v>362</v>
@@ -14009,13 +14037,13 @@
         <v>365</v>
       </c>
       <c r="AN128" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO128" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R129" s="5"/>
       <c r="U129" s="16" t="s">
         <v>366</v>
@@ -14079,7 +14107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
         <v>369</v>
@@ -14143,12 +14171,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B132" s="12" t="s">
         <v>1</v>
       </c>
@@ -14208,7 +14236,7 @@
         <v>105104</v>
       </c>
       <c r="S132" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U132" s="16" t="s">
         <v>372</v>
@@ -14217,50 +14245,50 @@
         <v>373</v>
       </c>
       <c r="W132">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X132">
         <f>1+(W132-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y132">
         <f>INT(POWER(X132+(Z132*0.25),2)*35)</f>
-        <v>7358</v>
+        <v>23207</v>
       </c>
       <c r="Z132">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AA132">
         <f>INT(POWER(X132+(AB132*0.25),3))+40</f>
-        <v>383</v>
+        <v>4953</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC132">
         <f>INT(50+(X132+(AD132*0.25)-1)*POWER(X132+(AD132*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>5149</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AE132">
         <f>INT(POWER(X132+(AF132*0.25),3))+40</f>
-        <v>3088</v>
+        <v>7454</v>
       </c>
       <c r="AF132">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG132">
         <f>INT(50+(X132+(AH132*0.25)-1)*POWER(X132+(AH132*0.25),0.5)*10)</f>
-        <v>564</v>
+        <v>4853</v>
       </c>
       <c r="AH132">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="AI132">
         <f>INT(5+(X132+(AJ132*0.25)-1)*POWER(X132+(AJ132*0.25),0.2))</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ132">
         <v>0</v>
@@ -14268,19 +14296,22 @@
       <c r="AL132" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AM132" s="6" t="s">
+      <c r="AM132" s="6">
+        <v>15005</v>
+      </c>
+      <c r="AN132" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="AO132" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B133" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="AN132" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B133" s="16" t="s">
+      <c r="C133" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -14332,275 +14363,275 @@
         <v>0</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S133" s="6" t="s">
         <v>153</v>
       </c>
       <c r="U133" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="V133" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="V133" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="W133">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="X133">
         <f>1+(W133-1)*0.25</f>
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>8139</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
-        <v>230</v>
+        <v>9978</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC133">
         <f>INT(50+(X133+(AD133*0.25)-1)*POWER(X133+(AD133*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>3674</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>230</v>
+        <v>769</v>
       </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>3152</v>
       </c>
       <c r="AH133">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AI133">
         <f>INT(5+(X133+(AJ133*0.25)-1)*POWER(X133+(AJ133*0.25),0.2))</f>
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="AJ133">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AL133" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM133" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="B134" s="16" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="B134" s="16" t="s">
+      <c r="C134" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="D134">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E134">
         <f>1+(D134-1)*0.25</f>
-        <v>5.75</v>
+        <v>8.25</v>
       </c>
       <c r="F134">
         <f>INT(200+POWER(E134+(G134*0.25)+1,2)*30)</f>
-        <v>1566</v>
+        <v>8616</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <f>INT(POWER(E134+(I134*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>892</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J134">
         <f>INT(50+(E134+(K134*0.25)-1)*POWER(E134+(K134*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L134">
         <f>INT(POWER(E134+(M134*0.25)+4,2)*3)</f>
-        <v>285</v>
+        <v>2227</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N134">
         <f>INT(50+(E134+(O134*0.25)-1)*POWER(E134+(O134*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>1305</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P134">
         <f>INT(5+(E134+(Q134*0.25)-1)*POWER(E134+(Q134*0.25),0.2))</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S134" s="6">
+        <v>15013</v>
+      </c>
+      <c r="U134" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="S134" s="6">
-        <v>15005</v>
-      </c>
-      <c r="U134" s="16" t="s">
+      <c r="V134" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="V134" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="W134">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="X134">
         <f>1+(W134-1)*0.25</f>
-        <v>6</v>
+        <v>9.25</v>
       </c>
       <c r="Y134">
         <f>INT(POWER(X134+(Z134*0.25),2)*35)</f>
-        <v>1260</v>
+        <v>8408</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA134">
         <f>INT(POWER(X134+(AB134*0.25),3))+40</f>
-        <v>256</v>
+        <v>8040</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC134">
         <f>INT(50+(X134+(AD134*0.25)-1)*POWER(X134+(AD134*0.25),0.5)*10)</f>
-        <v>172</v>
+        <v>3436</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AE134">
         <f>INT(POWER(X134+(AF134*0.25),3))+40</f>
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="AF134">
         <v>0</v>
       </c>
       <c r="AG134">
         <f>INT(50+(X134+(AH134*0.25)-1)*POWER(X134+(AH134*0.25),0.5)*10)</f>
-        <v>172</v>
+        <v>3051</v>
       </c>
       <c r="AH134">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AI134">
         <f>INT(5+(X134+(AJ134*0.25)-1)*POWER(X134+(AJ134*0.25),0.2))</f>
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="AJ134">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AL134" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM134" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B135" s="16"/>
       <c r="C135" s="6"/>
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
       <c r="U135" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="V135" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="V135" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="W135">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="X135">
         <f>1+(W135-1)*0.25</f>
-        <v>6.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y135">
         <f>INT(POWER(X135+(Z135*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>8682</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA135">
         <f>INT(POWER(X135+(AB135*0.25),3))+40</f>
-        <v>284</v>
+        <v>8343</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC135">
         <f>INT(50+(X135+(AD135*0.25)-1)*POWER(X135+(AD135*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3462</v>
       </c>
       <c r="AD135">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AE135">
         <f>INT(POWER(X135+(AF135*0.25),3))+40</f>
-        <v>284</v>
+        <v>897</v>
       </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
         <f>INT(50+(X135+(AH135*0.25)-1)*POWER(X135+(AH135*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3076</v>
       </c>
       <c r="AH135">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AI135">
         <f>INT(5+(X135+(AJ135*0.25)-1)*POWER(X135+(AJ135*0.25),0.2))</f>
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="AJ135">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AL135" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AM135" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B137" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D137" s="7">
         <v>25</v>
@@ -14648,284 +14679,296 @@
         <v>105105</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U137" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="V137" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="V137" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="W137">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X137">
         <f>1+(W137-1)*0.25</f>
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y137">
         <f>INT(POWER(X137+(Z137*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>30458</v>
       </c>
       <c r="Z137">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AA137">
         <f>INT(POWER(X137+(AB137*0.25),3))+40</f>
-        <v>601</v>
+        <v>897</v>
       </c>
       <c r="AB137">
         <v>0</v>
       </c>
       <c r="AC137">
         <f>INT(50+(X137+(AD137*0.25)-1)*POWER(X137+(AD137*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>1803</v>
       </c>
       <c r="AD137">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE137">
         <f>INT(POWER(X137+(AF137*0.25),3))+40</f>
-        <v>3946</v>
+        <v>8974</v>
       </c>
       <c r="AF137">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AG137">
         <f>INT(50+(X137+(AH137*0.25)-1)*POWER(X137+(AH137*0.25),0.5)*10)</f>
-        <v>495</v>
+        <v>1597</v>
       </c>
       <c r="AH137">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="AI137">
         <f>INT(5+(X137+(AJ137*0.25)-1)*POWER(X137+(AJ137*0.25),0.2))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ137">
         <v>0</v>
       </c>
       <c r="AL137" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM137" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AM137" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="AN137" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="AO137" t="s">
+        <v>635</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B138" s="16"/>
       <c r="C138" s="6"/>
       <c r="R138" s="6"/>
       <c r="S138" s="6"/>
       <c r="U138" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="V138" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="V138" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="W138">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="X138">
-        <f>1+(W138-1)*0.25</f>
-        <v>6.25</v>
+        <f t="shared" ref="X138:X140" si="99">1+(W138-1)*0.25</f>
+        <v>9.25</v>
       </c>
       <c r="Y138">
         <f>INT(POWER(X138+(Z138*0.25),2)*35)</f>
-        <v>1367</v>
+        <v>7107</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA138">
         <f>INT(POWER(X138+(AB138*0.25),3))+40</f>
-        <v>284</v>
+        <v>11814</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AC138">
         <f>INT(50+(X138+(AD138*0.25)-1)*POWER(X138+(AD138*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3835</v>
       </c>
       <c r="AD138">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AE138">
         <f>INT(POWER(X138+(AF138*0.25),3))+40</f>
-        <v>284</v>
+        <v>831</v>
       </c>
       <c r="AF138">
         <v>0</v>
       </c>
       <c r="AG138">
         <f>INT(50+(X138+(AH138*0.25)-1)*POWER(X138+(AH138*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>3700</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AI138">
         <f>INT(5+(X138+(AJ138*0.25)-1)*POWER(X138+(AJ138*0.25),0.2))</f>
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="AJ138">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AL138" s="6" t="s">
         <v>223</v>
       </c>
       <c r="AM138" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="AO138" t="s">
+        <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B139" s="16"/>
       <c r="C139" s="6"/>
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
       <c r="U139" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="V139" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="V139" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="W139">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="X139">
-        <f>1+(W139-1)*0.25</f>
-        <v>6.5</v>
+        <f t="shared" si="99"/>
+        <v>9.5</v>
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>1478</v>
+        <v>7358</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>314</v>
+        <v>12207</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>3727</v>
       </c>
       <c r="AD139">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AE139">
         <f>INT(POWER(X139+(AF139*0.25),3))+40</f>
-        <v>314</v>
+        <v>897</v>
       </c>
       <c r="AF139">
         <v>0</v>
       </c>
       <c r="AG139">
         <f>INT(50+(X139+(AH139*0.25)-1)*POWER(X139+(AH139*0.25),0.5)*10)</f>
-        <v>190</v>
+        <v>3594</v>
       </c>
       <c r="AH139">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AI139">
         <f>INT(5+(X139+(AJ139*0.25)-1)*POWER(X139+(AJ139*0.25),0.2))</f>
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="AJ139">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AL139" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="AO139" t="s">
+        <v>635</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B140" s="16"/>
       <c r="C140" s="6"/>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="U140" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="V140" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="V140" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="W140">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X140">
-        <f>1+(W140-1)*0.25</f>
-        <v>7</v>
+        <f t="shared" si="99"/>
+        <v>9.5</v>
       </c>
       <c r="Y140">
         <f>INT(POWER(X140+(Z140*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>8139</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>383</v>
+        <v>9978</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3999</v>
       </c>
       <c r="AD140">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AE140">
         <f>INT(POWER(X140+(AF140*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AF140">
         <v>0</v>
       </c>
       <c r="AG140">
         <f>INT(50+(X140+(AH140*0.25)-1)*POWER(X140+(AH140*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3862</v>
       </c>
       <c r="AH140">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AI140">
         <f>INT(5+(X140+(AJ140*0.25)-1)*POWER(X140+(AJ140*0.25),0.2))</f>
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="AJ140">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AL140" s="6" t="s">
         <v>65</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="AO140" t="s">
+        <v>635</v>
       </c>
     </row>
-    <row r="141" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>1</v>
@@ -14986,10 +15029,10 @@
         <v>57</v>
       </c>
       <c r="U142" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="V142" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="V142" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="W142" s="9">
         <v>6</v>
@@ -15041,21 +15084,21 @@
         <v>0</v>
       </c>
       <c r="AL142" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM142" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="AM142" s="11" t="s">
+    </row>
+    <row r="143" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B143" s="17" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="143" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B143" s="17" t="s">
+      <c r="C143" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="D143" s="9">
         <v>1</v>
@@ -15107,16 +15150,16 @@
         <v>0</v>
       </c>
       <c r="R143" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="S143" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="S143" s="11" t="s">
+      <c r="U143" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="U143" s="17" t="s">
+      <c r="V143" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="V143" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="W143" s="9">
         <v>6</v>
@@ -15171,18 +15214,18 @@
         <v>93</v>
       </c>
       <c r="AM143" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" s="17" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="144" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B144" s="17" t="s">
+      <c r="C144" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="D144" s="9">
         <v>1</v>
@@ -15234,16 +15277,16 @@
         <v>0</v>
       </c>
       <c r="R144" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="S144" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="S144" s="11" t="s">
+      <c r="U144" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="U144" s="17" t="s">
+      <c r="V144" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="W144" s="9">
         <v>6</v>
@@ -15303,7 +15346,7 @@
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.15">
@@ -15366,13 +15409,13 @@
         <v>100204</v>
       </c>
       <c r="S146" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U146" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="V146" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="V146" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="W146">
         <v>35</v>
@@ -15424,24 +15467,24 @@
         <v>0</v>
       </c>
       <c r="AL146" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM146" s="6">
         <v>10017</v>
       </c>
       <c r="AN146" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO146" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B147" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D147">
         <v>35</v>
@@ -15493,16 +15536,16 @@
         <v>10</v>
       </c>
       <c r="R147" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S147" s="6">
         <v>10022</v>
       </c>
       <c r="U147" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="V147" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="V147" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="W147">
         <v>32</v>
@@ -15557,18 +15600,18 @@
         <v>223</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AO147" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D148">
         <v>26</v>
@@ -15620,16 +15663,16 @@
         <v>12</v>
       </c>
       <c r="R148" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S148" s="6">
         <v>15009</v>
       </c>
       <c r="U148" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="V148" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="V148" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="W148">
         <v>33</v>
@@ -15684,7 +15727,7 @@
         <v>223</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.15">
@@ -15693,10 +15736,10 @@
       <c r="R149" s="6"/>
       <c r="S149" s="6"/>
       <c r="U149" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="V149" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="W149">
         <v>34</v>
@@ -15751,19 +15794,19 @@
         <v>63</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
     </row>
     <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B151" s="15" t="s">
         <v>1</v>
@@ -15824,76 +15867,76 @@
         <v>57</v>
       </c>
       <c r="U151" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="V151" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="V151" s="11" t="s">
-        <v>439</v>
       </c>
       <c r="W151" s="9">
         <v>6</v>
       </c>
       <c r="X151" s="9">
-        <f t="shared" ref="X151:X157" si="99">1+(W151-1)*0.25</f>
+        <f t="shared" ref="X151:X157" si="100">1+(W151-1)*0.25</f>
         <v>2.25</v>
       </c>
       <c r="Y151" s="9">
-        <f t="shared" ref="Y151:Y157" si="100">INT(POWER(X151+(Z151*0.25),2)*35)</f>
+        <f t="shared" ref="Y151:Y157" si="101">INT(POWER(X151+(Z151*0.25),2)*35)</f>
         <v>177</v>
       </c>
       <c r="Z151" s="9">
         <v>0</v>
       </c>
       <c r="AA151" s="9">
-        <f t="shared" ref="AA151:AA157" si="101">INT(POWER(X151+(AB151*0.25),3))+40</f>
+        <f t="shared" ref="AA151:AA157" si="102">INT(POWER(X151+(AB151*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AB151" s="9">
         <v>0</v>
       </c>
       <c r="AC151" s="9">
-        <f t="shared" ref="AC151:AC157" si="102">INT(50+(X151+(AD151*0.25)-1)*POWER(X151+(AD151*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC151:AC157" si="103">INT(50+(X151+(AD151*0.25)-1)*POWER(X151+(AD151*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AD151" s="9">
         <v>0</v>
       </c>
       <c r="AE151" s="9">
-        <f t="shared" ref="AE151:AE157" si="103">INT(POWER(X151+(AF151*0.25),3))+40</f>
+        <f t="shared" ref="AE151:AE157" si="104">INT(POWER(X151+(AF151*0.25),3))+40</f>
         <v>51</v>
       </c>
       <c r="AF151" s="9">
         <v>0</v>
       </c>
       <c r="AG151" s="9">
-        <f t="shared" ref="AG151:AG157" si="104">INT(50+(X151+(AH151*0.25)-1)*POWER(X151+(AH151*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG151:AG157" si="105">INT(50+(X151+(AH151*0.25)-1)*POWER(X151+(AH151*0.25),0.5)*10)</f>
         <v>68</v>
       </c>
       <c r="AH151" s="9">
         <v>0</v>
       </c>
       <c r="AI151" s="9">
-        <f t="shared" ref="AI151:AI157" si="105">INT(5+(X151+(AJ151*0.25)-1)*POWER(X151+(AJ151*0.25),0.2))</f>
+        <f t="shared" ref="AI151:AI157" si="106">INT(5+(X151+(AJ151*0.25)-1)*POWER(X151+(AJ151*0.25),0.2))</f>
         <v>6</v>
       </c>
       <c r="AJ151" s="9">
         <v>0</v>
       </c>
       <c r="AL151" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM151" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="AM151" s="11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B152" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>450</v>
       </c>
       <c r="D152" s="9">
         <v>1</v>
@@ -15945,82 +15988,82 @@
         <v>0</v>
       </c>
       <c r="R152" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="S152" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="S152" s="11" t="s">
-        <v>452</v>
-      </c>
       <c r="U152" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="V152" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="V152" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="W152" s="9">
         <v>6</v>
       </c>
       <c r="X152" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y152" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z152" s="9">
         <v>0</v>
       </c>
       <c r="AA152" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB152" s="9">
         <v>0</v>
       </c>
       <c r="AC152" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD152" s="9">
         <v>0</v>
       </c>
       <c r="AE152" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF152" s="9">
         <v>0</v>
       </c>
       <c r="AG152" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH152" s="9">
         <v>0</v>
       </c>
       <c r="AI152" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ152" s="9">
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM152" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="AM152" s="11" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>458</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -16072,197 +16115,197 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="S153" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="S153" s="11" t="s">
-        <v>460</v>
-      </c>
       <c r="U153" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="V153" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="V153" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="W153" s="9">
         <v>6</v>
       </c>
       <c r="X153" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y153" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z153" s="9">
         <v>0</v>
       </c>
       <c r="AA153" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB153" s="9">
         <v>0</v>
       </c>
       <c r="AC153" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD153" s="9">
         <v>0</v>
       </c>
       <c r="AE153" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF153" s="9">
         <v>0</v>
       </c>
       <c r="AG153" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH153" s="9">
         <v>0</v>
       </c>
       <c r="AI153" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ153" s="9">
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="AM153" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="AM153" s="11" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="U154" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="V154" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="V154" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="W154">
         <v>6</v>
       </c>
       <c r="X154">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y154">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z154">
         <v>0</v>
       </c>
       <c r="AA154">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD154">
         <v>0</v>
       </c>
       <c r="AE154">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF154">
         <v>0</v>
       </c>
       <c r="AG154">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
       <c r="AI154">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ154">
         <v>0</v>
       </c>
       <c r="AL154" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AM154" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="AM154" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="6"/>
       <c r="R155" s="6"/>
       <c r="S155" s="6"/>
       <c r="U155" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="V155" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="W155">
         <v>6</v>
       </c>
       <c r="X155">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y155">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD155">
         <v>0</v>
       </c>
       <c r="AE155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF155">
         <v>0</v>
       </c>
       <c r="AG155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ155">
@@ -16272,67 +16315,67 @@
         <v>93</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="U156" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="V156" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="V156" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="W156">
         <v>6</v>
       </c>
       <c r="X156">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y156">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z156">
         <v>0</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB156">
         <v>0</v>
       </c>
       <c r="AC156">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD156">
         <v>0</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF156">
         <v>0</v>
       </c>
       <c r="AG156">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
       <c r="AI156">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ156">
@@ -16342,67 +16385,67 @@
         <v>63</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="U157" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="W157">
         <v>6</v>
       </c>
       <c r="X157">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2.25</v>
       </c>
       <c r="Y157">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>177</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>51</v>
       </c>
       <c r="AB157">
         <v>0</v>
       </c>
       <c r="AC157">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>68</v>
       </c>
       <c r="AD157">
         <v>0</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>51</v>
       </c>
       <c r="AF157">
         <v>0</v>
       </c>
       <c r="AG157">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>68</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
       <c r="AI157">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6</v>
       </c>
       <c r="AJ157">
@@ -16412,20 +16455,20 @@
         <v>93</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B159" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D159" s="7">
         <v>25</v>
@@ -16473,13 +16516,13 @@
         <v>100205</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U159" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="V159" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="V159" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="W159">
         <v>35</v>
@@ -16531,24 +16574,24 @@
         <v>0</v>
       </c>
       <c r="AL159" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AM159" s="6">
         <v>15007</v>
       </c>
       <c r="AN159" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B160" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="D160">
         <v>35</v>
@@ -16600,16 +16643,16 @@
         <v>9</v>
       </c>
       <c r="R160" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S160" s="6">
         <v>10023</v>
       </c>
       <c r="U160" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="W160">
         <v>33</v>
@@ -16664,19 +16707,19 @@
         <v>63</v>
       </c>
       <c r="AM160" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AO160" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="W161">
         <v>34</v>
@@ -16731,16 +16774,16 @@
         <v>93</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W162">
         <v>33</v>
@@ -16795,20 +16838,20 @@
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="164" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="D164">
         <v>20</v>
@@ -16860,16 +16903,16 @@
         <v>0</v>
       </c>
       <c r="R164" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S164" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U164" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="V164" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="V164" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="W164">
         <v>25</v>
@@ -16924,15 +16967,15 @@
         <v>223</v>
       </c>
       <c r="AM164" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="D165">
         <v>15</v>
@@ -16984,16 +17027,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="S165" s="6" t="s">
+      <c r="U165" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="U165" s="16" t="s">
+      <c r="V165" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="W165">
         <v>26</v>
@@ -17048,7 +17091,7 @@
         <v>93</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:40" x14ac:dyDescent="0.15">
@@ -17111,13 +17154,13 @@
         <v>100105</v>
       </c>
       <c r="S166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U166" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W166">
         <v>27</v>
@@ -17169,10 +17212,10 @@
         <v>0</v>
       </c>
       <c r="AL166" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:40" x14ac:dyDescent="0.15">
@@ -17235,13 +17278,13 @@
         <v>101105</v>
       </c>
       <c r="S167" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U167" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="V167" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="V167" s="6" t="s">
-        <v>503</v>
       </c>
       <c r="W167">
         <v>30</v>
@@ -17296,15 +17339,15 @@
         <v>93</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D168" s="7">
         <v>13</v>
@@ -17352,7 +17395,7 @@
         <v>102205</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U168" s="16"/>
       <c r="V168" s="6"/>
@@ -17361,10 +17404,10 @@
     </row>
     <row r="169" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D169" s="7">
         <v>13</v>
@@ -17412,7 +17455,7 @@
         <v>104105</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17421,10 +17464,10 @@
     </row>
     <row r="170" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D170" s="7">
         <v>13</v>
@@ -17472,7 +17515,7 @@
         <v>105105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17481,10 +17524,10 @@
     </row>
     <row r="171" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D171" s="7">
         <v>13</v>
@@ -17532,7 +17575,7 @@
         <v>100205</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17541,7 +17584,7 @@
     </row>
     <row r="172" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="173" spans="1:40" x14ac:dyDescent="0.15">
@@ -17604,58 +17647,58 @@
         <v>100105</v>
       </c>
       <c r="S173" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U173" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="W173">
         <v>45</v>
       </c>
       <c r="X173">
-        <f t="shared" ref="X173:X179" si="106">1+(W173-1)*0.25</f>
+        <f t="shared" ref="X173:X179" si="107">1+(W173-1)*0.25</f>
         <v>12</v>
       </c>
       <c r="Y173">
-        <f t="shared" ref="Y173:Y179" si="107">INT(POWER(X173+(Z173*0.25),2)*35)</f>
+        <f t="shared" ref="Y173:Y179" si="108">INT(POWER(X173+(Z173*0.25),2)*35)</f>
         <v>15069</v>
       </c>
       <c r="Z173">
         <v>35</v>
       </c>
       <c r="AA173">
-        <f t="shared" ref="AA173:AA179" si="108">INT(POWER(X173+(AB173*0.25),3))+40</f>
+        <f t="shared" ref="AA173:AA179" si="109">INT(POWER(X173+(AB173*0.25),3))+40</f>
         <v>1768</v>
       </c>
       <c r="AB173">
         <v>0</v>
       </c>
       <c r="AC173">
-        <f t="shared" ref="AC173:AC179" si="109">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC173:AC179" si="110">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
         <v>431</v>
       </c>
       <c r="AD173">
         <v>0</v>
       </c>
       <c r="AE173">
-        <f t="shared" ref="AE173:AE179" si="110">INT(POWER(X173+(AF173*0.25),3))+40</f>
+        <f t="shared" ref="AE173:AE179" si="111">INT(POWER(X173+(AF173*0.25),3))+40</f>
         <v>8974</v>
       </c>
       <c r="AF173">
         <v>35</v>
       </c>
       <c r="AG173">
-        <f t="shared" ref="AG173:AG179" si="111">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG173:AG179" si="112">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
         <v>949</v>
       </c>
       <c r="AH173">
         <v>35</v>
       </c>
       <c r="AI173">
-        <f t="shared" ref="AI173:AI179" si="112">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
+        <f t="shared" ref="AI173:AI179" si="113">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
         <v>25</v>
       </c>
       <c r="AJ173">
@@ -17665,10 +17708,10 @@
         <v>223</v>
       </c>
       <c r="AM173" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN173" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="1:40" x14ac:dyDescent="0.15">
@@ -17731,58 +17774,58 @@
         <v>101105</v>
       </c>
       <c r="S174" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U174" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="V174" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="V174" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="W174">
         <v>45</v>
       </c>
       <c r="X174">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>12</v>
       </c>
       <c r="Y174">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>15069</v>
       </c>
       <c r="Z174">
         <v>35</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8974</v>
       </c>
       <c r="AB174">
         <v>35</v>
       </c>
       <c r="AC174">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>949</v>
       </c>
       <c r="AD174">
         <v>35</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1768</v>
       </c>
       <c r="AF174">
         <v>0</v>
       </c>
       <c r="AG174">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>431</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
       <c r="AI174">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>25</v>
       </c>
       <c r="AJ174">
@@ -17792,18 +17835,18 @@
         <v>223</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="175" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D175" s="7">
         <v>14</v>
@@ -17851,58 +17894,58 @@
         <v>102205</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U175" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="W175">
         <v>50</v>
       </c>
       <c r="X175">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>13.25</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>18919</v>
       </c>
       <c r="Z175">
         <v>40</v>
       </c>
       <c r="AA175">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>12608</v>
       </c>
       <c r="AB175">
         <v>40</v>
       </c>
       <c r="AC175">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>1122</v>
       </c>
       <c r="AD175">
         <v>40</v>
       </c>
       <c r="AE175">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>2366</v>
       </c>
       <c r="AF175">
         <v>0</v>
       </c>
       <c r="AG175">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>786</v>
       </c>
       <c r="AH175">
         <v>20</v>
       </c>
       <c r="AI175">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>28</v>
       </c>
       <c r="AJ175">
@@ -17912,18 +17955,18 @@
         <v>93</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D176" s="7">
         <v>14</v>
@@ -17971,58 +18014,58 @@
         <v>104105</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U176" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="V176" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="V176" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="W176">
         <v>30</v>
       </c>
       <c r="X176">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.25</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6144</v>
       </c>
       <c r="Z176">
         <v>20</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>601</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>258</v>
       </c>
       <c r="AD176">
         <v>0</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>601</v>
       </c>
       <c r="AF176">
         <v>0</v>
       </c>
       <c r="AG176">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="AH176">
         <v>0</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>16</v>
       </c>
       <c r="AJ176">
@@ -18032,15 +18075,15 @@
         <v>127</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="177" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D177" s="7">
         <v>14</v>
@@ -18088,76 +18131,76 @@
         <v>105105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U177" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="W177">
         <v>30</v>
       </c>
       <c r="X177">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.25</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6144</v>
       </c>
       <c r="Z177">
         <v>20</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>601</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>258</v>
       </c>
       <c r="AD177">
         <v>0</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>601</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
       <c r="AI177">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>16</v>
       </c>
       <c r="AJ177">
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM177" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="AM177" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="178" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D178" s="7">
         <v>14</v>
@@ -18205,58 +18248,58 @@
         <v>100205</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U178" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="W178">
         <v>30</v>
       </c>
       <c r="X178">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.25</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6144</v>
       </c>
       <c r="Z178">
         <v>20</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>601</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>258</v>
       </c>
       <c r="AD178">
         <v>0</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>601</v>
       </c>
       <c r="AF178">
         <v>0</v>
       </c>
       <c r="AG178">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="AH178">
         <v>0</v>
       </c>
       <c r="AI178">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>16</v>
       </c>
       <c r="AJ178">
@@ -18266,61 +18309,61 @@
         <v>127</v>
       </c>
       <c r="AM178" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="179" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="W179">
         <v>30</v>
       </c>
       <c r="X179">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.25</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>6144</v>
       </c>
       <c r="Z179">
         <v>20</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>601</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>258</v>
       </c>
       <c r="AD179">
         <v>0</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>601</v>
       </c>
       <c r="AF179">
         <v>0</v>
       </c>
       <c r="AG179">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>258</v>
       </c>
       <c r="AH179">
         <v>0</v>
       </c>
       <c r="AI179">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>16</v>
       </c>
       <c r="AJ179">
@@ -18330,12 +18373,12 @@
         <v>223</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="181" spans="1:40" x14ac:dyDescent="0.15">
@@ -18398,58 +18441,58 @@
         <v>100105</v>
       </c>
       <c r="S181" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U181" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="V181" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="V181" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="W181">
         <v>60</v>
       </c>
       <c r="X181">
-        <f t="shared" ref="X181:X187" si="113">1+(W181-1)*0.25</f>
+        <f t="shared" ref="X181:X187" si="114">1+(W181-1)*0.25</f>
         <v>15.75</v>
       </c>
       <c r="Y181">
-        <f t="shared" ref="Y181:Y187" si="114">INT(POWER(X181+(Z181*0.25),2)*35)</f>
+        <f t="shared" ref="Y181:Y187" si="115">INT(POWER(X181+(Z181*0.25),2)*35)</f>
         <v>25515</v>
       </c>
       <c r="Z181">
         <v>45</v>
       </c>
       <c r="AA181">
-        <f t="shared" ref="AA181:AA187" si="115">INT(POWER(X181+(AB181*0.25),3))+40</f>
+        <f t="shared" ref="AA181:AA187" si="116">INT(POWER(X181+(AB181*0.25),3))+40</f>
         <v>19723</v>
       </c>
       <c r="AB181">
         <v>45</v>
       </c>
       <c r="AC181">
-        <f t="shared" ref="AC181:AC187" si="116">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC181:AC187" si="117">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
         <v>1400</v>
       </c>
       <c r="AD181">
         <v>45</v>
       </c>
       <c r="AE181">
-        <f t="shared" ref="AE181:AE187" si="117">INT(POWER(X181+(AF181*0.25),3))+40</f>
+        <f t="shared" ref="AE181:AE187" si="118">INT(POWER(X181+(AF181*0.25),3))+40</f>
         <v>3946</v>
       </c>
       <c r="AF181">
         <v>0</v>
       </c>
       <c r="AG181">
-        <f t="shared" ref="AG181:AG187" si="118">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG181:AG187" si="119">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
         <v>1122</v>
       </c>
       <c r="AH181">
         <v>30</v>
       </c>
       <c r="AI181">
-        <f t="shared" ref="AI181:AI187" si="119">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
+        <f t="shared" ref="AI181:AI187" si="120">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
         <v>35</v>
       </c>
       <c r="AJ181">
@@ -18459,10 +18502,10 @@
         <v>93</v>
       </c>
       <c r="AM181" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AN181" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="1:40" x14ac:dyDescent="0.15">
@@ -18525,58 +18568,58 @@
         <v>101105</v>
       </c>
       <c r="S182" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U182" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W182">
         <v>80</v>
       </c>
       <c r="X182">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>20.75</v>
       </c>
       <c r="Y182">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>58119</v>
       </c>
       <c r="Z182">
         <v>80</v>
       </c>
       <c r="AA182">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>67707</v>
       </c>
       <c r="AB182">
         <v>80</v>
       </c>
       <c r="AC182">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2587</v>
       </c>
       <c r="AD182">
         <v>80</v>
       </c>
       <c r="AE182">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>67707</v>
       </c>
       <c r="AF182">
         <v>80</v>
       </c>
       <c r="AG182">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>2587</v>
       </c>
       <c r="AH182">
         <v>80</v>
       </c>
       <c r="AI182">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>52</v>
       </c>
       <c r="AJ182">
@@ -18586,18 +18629,18 @@
         <v>223</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -18645,58 +18688,58 @@
         <v>102205</v>
       </c>
       <c r="S183" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W183">
         <v>30</v>
       </c>
       <c r="X183">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>8.25</v>
       </c>
       <c r="Y183">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>2382</v>
       </c>
       <c r="Z183">
         <v>0</v>
       </c>
       <c r="AA183">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>601</v>
       </c>
       <c r="AB183">
         <v>0</v>
       </c>
       <c r="AC183">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>258</v>
       </c>
       <c r="AD183">
         <v>0</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>601</v>
       </c>
       <c r="AF183">
         <v>0</v>
       </c>
       <c r="AG183">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>258</v>
       </c>
       <c r="AH183">
         <v>0</v>
       </c>
       <c r="AI183">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>16</v>
       </c>
       <c r="AJ183">
@@ -18706,15 +18749,15 @@
         <v>63</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D184" s="7">
         <v>15</v>
@@ -18762,58 +18805,58 @@
         <v>104105</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W184">
         <v>35</v>
       </c>
       <c r="X184">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>9.5</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3158</v>
       </c>
       <c r="Z184">
         <v>0</v>
       </c>
       <c r="AA184">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>897</v>
       </c>
       <c r="AB184">
         <v>0</v>
       </c>
       <c r="AC184">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>311</v>
       </c>
       <c r="AD184">
         <v>0</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>897</v>
       </c>
       <c r="AF184">
         <v>0</v>
       </c>
       <c r="AG184">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>311</v>
       </c>
       <c r="AH184">
         <v>0</v>
       </c>
       <c r="AI184">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>18</v>
       </c>
       <c r="AJ184">
@@ -18823,15 +18866,15 @@
         <v>177</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D185" s="7">
         <v>15</v>
@@ -18879,58 +18922,58 @@
         <v>105105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W185">
         <v>35</v>
       </c>
       <c r="X185">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>9.5</v>
       </c>
       <c r="Y185">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3158</v>
       </c>
       <c r="Z185">
         <v>0</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>897</v>
       </c>
       <c r="AB185">
         <v>0</v>
       </c>
       <c r="AC185">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>311</v>
       </c>
       <c r="AD185">
         <v>0</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>897</v>
       </c>
       <c r="AF185">
         <v>0</v>
       </c>
       <c r="AG185">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>311</v>
       </c>
       <c r="AH185">
         <v>0</v>
       </c>
       <c r="AI185">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>18</v>
       </c>
       <c r="AJ185">
@@ -18940,15 +18983,15 @@
         <v>63</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="D186" s="7">
         <v>15</v>
@@ -18996,58 +19039,58 @@
         <v>100205</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W186">
         <v>35</v>
       </c>
       <c r="X186">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>9.5</v>
       </c>
       <c r="Y186">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3158</v>
       </c>
       <c r="Z186">
         <v>0</v>
       </c>
       <c r="AA186">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>897</v>
       </c>
       <c r="AB186">
         <v>0</v>
       </c>
       <c r="AC186">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>311</v>
       </c>
       <c r="AD186">
         <v>0</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>897</v>
       </c>
       <c r="AF186">
         <v>0</v>
       </c>
       <c r="AG186">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>311</v>
       </c>
       <c r="AH186">
         <v>0</v>
       </c>
       <c r="AI186">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>18</v>
       </c>
       <c r="AJ186">
@@ -19057,71 +19100,71 @@
         <v>223</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:40" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W187">
         <v>35</v>
       </c>
       <c r="X187">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>9.5</v>
       </c>
       <c r="Y187">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3158</v>
       </c>
       <c r="Z187">
         <v>0</v>
       </c>
       <c r="AA187">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>897</v>
       </c>
       <c r="AB187">
         <v>0</v>
       </c>
       <c r="AC187">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>311</v>
       </c>
       <c r="AD187">
         <v>0</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>897</v>
       </c>
       <c r="AF187">
         <v>0</v>
       </c>
       <c r="AG187">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>311</v>
       </c>
       <c r="AH187">
         <v>0</v>
       </c>
       <c r="AI187">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>18</v>
       </c>
       <c r="AJ187">
         <v>0</v>
       </c>
       <c r="AL187" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM187" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="AM187" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="638">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2384,6 +2384,59 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募欧阳锋，南帝，反伤加降内防</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ou'yang'feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nan'di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fan'shang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募洪七公，郭靖，再用门派镇派秘籍</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hong'qi'gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>men'pai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhen'pai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mi'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3912,9 +3965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB141" sqref="AB141"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO180" sqref="AO180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16713,7 +16766,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R161" s="5"/>
       <c r="U161" s="16" t="s">
         <v>479</v>
@@ -16777,7 +16830,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
         <v>484</v>
@@ -16841,12 +16894,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B164" s="16" t="s">
         <v>488</v>
       </c>
@@ -16970,7 +17023,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
         <v>490</v>
       </c>
@@ -17094,7 +17147,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B166" s="12" t="s">
         <v>1</v>
       </c>
@@ -17102,50 +17155,50 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E166">
         <f>1+(D166-1)*0.25</f>
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="F166">
         <f>INT(200+POWER(E166+(G166*0.25)+1,2)*30)</f>
-        <v>950</v>
+        <v>3507</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
         <f>INT(POWER(E166+(I166*0.25)+4,2)*3)</f>
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
         <f>INT(50+(E166+(K166*0.25)-1)*POWER(E166+(K166*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
         <f>INT(POWER(E166+(M166*0.25)+4,2)*3)</f>
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="M166">
         <v>0</v>
       </c>
       <c r="N166">
         <f>INT(50+(E166+(O166*0.25)-1)*POWER(E166+(O166*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="O166">
         <v>0</v>
       </c>
       <c r="P166">
         <f>INT(5+(E166+(Q166*0.25)-1)*POWER(E166+(Q166*0.25),0.2))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -17218,7 +17271,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B167" s="12" t="s">
         <v>1</v>
       </c>
@@ -17226,50 +17279,50 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E167">
         <f>1+(D167-1)*0.25</f>
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="F167">
         <f>INT(200+POWER(E167+(G167*0.25)+1,2)*30)</f>
-        <v>950</v>
+        <v>3507</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
         <f>INT(POWER(E167+(I167*0.25)+4,2)*3)</f>
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
         <f>INT(50+(E167+(K167*0.25)-1)*POWER(E167+(K167*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
         <f>INT(POWER(E167+(M167*0.25)+4,2)*3)</f>
-        <v>192</v>
+        <v>546</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
       <c r="N167">
         <f>INT(50+(E167+(O167*0.25)-1)*POWER(E167+(O167*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>311</v>
       </c>
       <c r="O167">
         <v>0</v>
       </c>
       <c r="P167">
         <f>INT(5+(E167+(Q167*0.25)-1)*POWER(E167+(Q167*0.25),0.2))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q167">
         <v>0</v>
@@ -17342,15 +17395,15 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B168" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D168" s="7">
-        <v>13</v>
+      <c r="D168">
+        <v>35</v>
       </c>
       <c r="E168" s="7">
         <v>1</v>
@@ -17402,15 +17455,15 @@
       <c r="AL168" s="6"/>
       <c r="AM168" s="6"/>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D169" s="7">
-        <v>13</v>
+      <c r="D169">
+        <v>35</v>
       </c>
       <c r="E169" s="7">
         <v>1</v>
@@ -17462,15 +17515,15 @@
       <c r="AL169" s="6"/>
       <c r="AM169" s="6"/>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D170" s="7">
-        <v>13</v>
+      <c r="D170">
+        <v>35</v>
       </c>
       <c r="E170" s="7">
         <v>1</v>
@@ -17522,15 +17575,15 @@
       <c r="AL170" s="6"/>
       <c r="AM170" s="6"/>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D171" s="7">
-        <v>13</v>
+      <c r="D171">
+        <v>35</v>
       </c>
       <c r="E171" s="7">
         <v>1</v>
@@ -17582,12 +17635,12 @@
       <c r="AL171" s="6"/>
       <c r="AM171" s="6"/>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B173" s="12" t="s">
         <v>1</v>
       </c>
@@ -17595,50 +17648,50 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E173">
         <f>1+(D173-1)*0.25</f>
-        <v>4.25</v>
+        <v>10.75</v>
       </c>
       <c r="F173">
         <f>INT(200+POWER(E173+(G173*0.25)+1,2)*30)</f>
-        <v>1026</v>
+        <v>4341</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
         <f>INT(POWER(E173+(I173*0.25)+4,2)*3)</f>
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
         <f>INT(50+(E173+(K173*0.25)-1)*POWER(E173+(K173*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
         <f>INT(POWER(E173+(M173*0.25)+4,2)*3)</f>
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="M173">
         <v>0</v>
       </c>
       <c r="N173">
         <f>INT(50+(E173+(O173*0.25)-1)*POWER(E173+(O173*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="O173">
         <v>0</v>
       </c>
       <c r="P173">
         <f>INT(5+(E173+(Q173*0.25)-1)*POWER(E173+(Q173*0.25),0.2))</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -17664,10 +17717,10 @@
       </c>
       <c r="Y173">
         <f t="shared" ref="Y173:Y179" si="108">INT(POWER(X173+(Z173*0.25),2)*35)</f>
-        <v>15069</v>
+        <v>44732</v>
       </c>
       <c r="Z173">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="AA173">
         <f t="shared" ref="AA173:AA179" si="109">INT(POWER(X173+(AB173*0.25),3))+40</f>
@@ -17678,31 +17731,31 @@
       </c>
       <c r="AC173">
         <f t="shared" ref="AC173:AC179" si="110">INT(50+(X173+(AD173*0.25)-1)*POWER(X173+(AD173*0.25),0.5)*10)</f>
-        <v>431</v>
+        <v>25485</v>
       </c>
       <c r="AD173">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AE173">
         <f t="shared" ref="AE173:AE179" si="111">INT(POWER(X173+(AF173*0.25),3))+40</f>
-        <v>8974</v>
+        <v>11814</v>
       </c>
       <c r="AF173">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AG173">
         <f t="shared" ref="AG173:AG179" si="112">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
-        <v>949</v>
+        <v>9875</v>
       </c>
       <c r="AH173">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="AI173">
         <f t="shared" ref="AI173:AI179" si="113">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="AJ173">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="AL173" s="6" t="s">
         <v>223</v>
@@ -17713,8 +17766,11 @@
       <c r="AN173" s="7" t="s">
         <v>574</v>
       </c>
+      <c r="AO173" t="s">
+        <v>637</v>
+      </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B174" s="12" t="s">
         <v>1</v>
       </c>
@@ -17722,50 +17778,50 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E174">
         <f>1+(D174-1)*0.25</f>
-        <v>4.25</v>
+        <v>10.75</v>
       </c>
       <c r="F174">
         <f>INT(200+POWER(E174+(G174*0.25)+1,2)*30)</f>
-        <v>1026</v>
+        <v>4341</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
         <f>INT(POWER(E174+(I174*0.25)+4,2)*3)</f>
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
         <f>INT(50+(E174+(K174*0.25)-1)*POWER(E174+(K174*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
         <f>INT(POWER(E174+(M174*0.25)+4,2)*3)</f>
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
       <c r="N174">
         <f>INT(50+(E174+(O174*0.25)-1)*POWER(E174+(O174*0.25),0.5)*10)</f>
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="O174">
         <v>0</v>
       </c>
       <c r="P174">
         <f>INT(5+(E174+(Q174*0.25)-1)*POWER(E174+(Q174*0.25),0.2))</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -17791,45 +17847,45 @@
       </c>
       <c r="Y174">
         <f t="shared" si="108"/>
-        <v>15069</v>
+        <v>51207</v>
       </c>
       <c r="Z174">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AA174">
-        <f t="shared" si="109"/>
-        <v>8974</v>
+        <f>INT(POWER(X174+(AB174*0.25),3))+40</f>
+        <v>1768</v>
       </c>
       <c r="AB174">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AC174">
         <f t="shared" si="110"/>
-        <v>949</v>
+        <v>25741</v>
       </c>
       <c r="AD174">
-        <v>35</v>
+        <v>705</v>
       </c>
       <c r="AE174">
-        <f t="shared" si="111"/>
-        <v>1768</v>
+        <f>INT(POWER(X174+(AF174*0.25),3))+40</f>
+        <v>10688</v>
       </c>
       <c r="AF174">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG174">
         <f t="shared" si="112"/>
-        <v>431</v>
+        <v>9950</v>
       </c>
       <c r="AH174">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="AI174">
         <f t="shared" si="113"/>
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="AJ174">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AL174" s="6" t="s">
         <v>223</v>
@@ -17841,15 +17897,15 @@
         <v>574</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B175" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D175" s="7">
-        <v>14</v>
+      <c r="D175">
+        <v>40</v>
       </c>
       <c r="E175" s="7">
         <v>1</v>
@@ -17961,15 +18017,15 @@
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D176" s="7">
-        <v>14</v>
+      <c r="D176">
+        <v>40</v>
       </c>
       <c r="E176" s="7">
         <v>1</v>
@@ -18023,50 +18079,50 @@
         <v>512</v>
       </c>
       <c r="W176">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X176">
         <f t="shared" si="107"/>
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y176">
         <f t="shared" si="108"/>
-        <v>6144</v>
+        <v>15069</v>
       </c>
       <c r="Z176">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA176">
         <f t="shared" si="109"/>
-        <v>601</v>
+        <v>1282</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
         <f t="shared" si="110"/>
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="AD176">
         <v>0</v>
       </c>
       <c r="AE176">
         <f t="shared" si="111"/>
-        <v>601</v>
+        <v>12608</v>
       </c>
       <c r="AF176">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG176">
         <f t="shared" si="112"/>
-        <v>258</v>
+        <v>9689</v>
       </c>
       <c r="AH176">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AI176">
         <f t="shared" si="113"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -18078,15 +18134,15 @@
         <v>513</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D177" s="7">
-        <v>14</v>
+      <c r="D177">
+        <v>40</v>
       </c>
       <c r="E177" s="7">
         <v>1</v>
@@ -18140,53 +18196,53 @@
         <v>515</v>
       </c>
       <c r="W177">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X177">
         <f t="shared" si="107"/>
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y177">
         <f t="shared" si="108"/>
-        <v>6144</v>
+        <v>15435</v>
       </c>
       <c r="Z177">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AA177">
         <f t="shared" si="109"/>
-        <v>601</v>
+        <v>12608</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC177">
         <f t="shared" si="110"/>
-        <v>258</v>
+        <v>9726</v>
       </c>
       <c r="AD177">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AE177">
         <f t="shared" si="111"/>
-        <v>601</v>
+        <v>1282</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
         <f t="shared" si="112"/>
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
       <c r="AI177">
         <f t="shared" si="113"/>
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="AJ177">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AL177" s="6" t="s">
         <v>516</v>
@@ -18195,15 +18251,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D178" s="7">
-        <v>14</v>
+      <c r="D178">
+        <v>40</v>
       </c>
       <c r="E178" s="7">
         <v>1</v>
@@ -18257,50 +18313,50 @@
         <v>519</v>
       </c>
       <c r="W178">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X178">
         <f t="shared" si="107"/>
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y178">
         <f t="shared" si="108"/>
-        <v>6144</v>
+        <v>15804</v>
       </c>
       <c r="Z178">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AA178">
         <f t="shared" si="109"/>
-        <v>601</v>
+        <v>1282</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
         <f t="shared" si="110"/>
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="AD178">
         <v>0</v>
       </c>
       <c r="AE178">
         <f t="shared" si="111"/>
-        <v>601</v>
+        <v>13017</v>
       </c>
       <c r="AF178">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AG178">
         <f t="shared" si="112"/>
-        <v>258</v>
+        <v>9652</v>
       </c>
       <c r="AH178">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AI178">
         <f t="shared" si="113"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -18312,7 +18368,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R179" s="5"/>
       <c r="U179" s="16" t="s">
         <v>521</v>
@@ -18321,50 +18377,50 @@
         <v>522</v>
       </c>
       <c r="W179">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X179">
         <f t="shared" si="107"/>
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y179">
         <f t="shared" si="108"/>
-        <v>6144</v>
+        <v>16940</v>
       </c>
       <c r="Z179">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="AA179">
         <f t="shared" si="109"/>
-        <v>601</v>
+        <v>1282</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
         <f t="shared" si="110"/>
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="AD179">
         <v>0</v>
       </c>
       <c r="AE179">
         <f t="shared" si="111"/>
-        <v>601</v>
+        <v>11814</v>
       </c>
       <c r="AF179">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG179">
         <f t="shared" si="112"/>
-        <v>258</v>
+        <v>9800</v>
       </c>
       <c r="AH179">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AI179">
         <f t="shared" si="113"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ179">
         <v>0</v>
@@ -18376,12 +18432,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B181" s="12" t="s">
         <v>1</v>
       </c>
@@ -18389,50 +18445,50 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E181">
         <f>1+(D181-1)*0.25</f>
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="F181">
         <f>INT(200+POWER(E181+(G181*0.25)+1,2)*30)</f>
-        <v>1107</v>
+        <v>5270</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
         <f>INT(POWER(E181+(I181*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>768</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181">
         <f>INT(50+(E181+(K181*0.25)-1)*POWER(E181+(K181*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
         <f>INT(POWER(E181+(M181*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>768</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
       <c r="N181">
         <f>INT(50+(E181+(O181*0.25)-1)*POWER(E181+(O181*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="O181">
         <v>0</v>
       </c>
       <c r="P181">
         <f>INT(5+(E181+(Q181*0.25)-1)*POWER(E181+(Q181*0.25),0.2))</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q181">
         <v>0</v>
@@ -18458,31 +18514,31 @@
       </c>
       <c r="Y181">
         <f t="shared" ref="Y181:Y187" si="115">INT(POWER(X181+(Z181*0.25),2)*35)</f>
-        <v>25515</v>
+        <v>58119</v>
       </c>
       <c r="Z181">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AA181">
         <f t="shared" ref="AA181:AA187" si="116">INT(POWER(X181+(AB181*0.25),3))+40</f>
-        <v>19723</v>
+        <v>29116</v>
       </c>
       <c r="AB181">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AC181">
         <f t="shared" ref="AC181:AC187" si="117">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
-        <v>1400</v>
+        <v>28883</v>
       </c>
       <c r="AD181">
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="AE181">
         <f t="shared" ref="AE181:AE187" si="118">INT(POWER(X181+(AF181*0.25),3))+40</f>
-        <v>3946</v>
+        <v>32808</v>
       </c>
       <c r="AF181">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG181">
         <f t="shared" ref="AG181:AG187" si="119">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
@@ -18493,10 +18549,10 @@
       </c>
       <c r="AI181">
         <f t="shared" ref="AI181:AI187" si="120">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="AJ181">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="AL181" s="6" t="s">
         <v>93</v>
@@ -18507,8 +18563,11 @@
       <c r="AN181" s="7" t="s">
         <v>574</v>
       </c>
+      <c r="AO181" t="s">
+        <v>636</v>
+      </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B182" s="12" t="s">
         <v>1</v>
       </c>
@@ -18516,50 +18575,50 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E182">
         <f>1+(D182-1)*0.25</f>
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="F182">
         <f>INT(200+POWER(E182+(G182*0.25)+1,2)*30)</f>
-        <v>1107</v>
+        <v>5270</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
         <f>INT(POWER(E182+(I182*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>768</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182">
         <f>INT(50+(E182+(K182*0.25)-1)*POWER(E182+(K182*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
         <f>INT(POWER(E182+(M182*0.25)+4,2)*3)</f>
-        <v>216</v>
+        <v>768</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
         <f>INT(50+(E182+(O182*0.25)-1)*POWER(E182+(O182*0.25),0.5)*10)</f>
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="O182">
         <v>0</v>
       </c>
       <c r="P182">
         <f>INT(5+(E182+(Q182*0.25)-1)*POWER(E182+(Q182*0.25),0.2))</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -18585,10 +18644,10 @@
       </c>
       <c r="Y182">
         <f t="shared" si="115"/>
-        <v>58119</v>
+        <v>175194</v>
       </c>
       <c r="Z182">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AA182">
         <f t="shared" si="116"/>
@@ -18599,10 +18658,10 @@
       </c>
       <c r="AC182">
         <f t="shared" si="117"/>
-        <v>2587</v>
+        <v>44435</v>
       </c>
       <c r="AD182">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE182">
         <f t="shared" si="118"/>
@@ -18613,17 +18672,17 @@
       </c>
       <c r="AG182">
         <f t="shared" si="119"/>
-        <v>2587</v>
+        <v>44435</v>
       </c>
       <c r="AH182">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI182">
         <f t="shared" si="120"/>
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="AJ182">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AL182" s="6" t="s">
         <v>223</v>
@@ -18635,15 +18694,15 @@
         <v>574</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B183" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D183" s="7">
-        <v>15</v>
+      <c r="D183">
+        <v>45</v>
       </c>
       <c r="E183" s="7">
         <v>1</v>
@@ -18697,53 +18756,53 @@
         <v>527</v>
       </c>
       <c r="W183">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="X183">
         <f t="shared" si="114"/>
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="Y183">
         <f t="shared" si="115"/>
-        <v>2382</v>
+        <v>25515</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA183">
         <f t="shared" si="116"/>
-        <v>601</v>
+        <v>17113</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AC183">
         <f t="shared" si="117"/>
-        <v>258</v>
+        <v>9987</v>
       </c>
       <c r="AD183">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AE183">
         <f t="shared" si="118"/>
-        <v>601</v>
+        <v>3088</v>
       </c>
       <c r="AF183">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG183">
         <f t="shared" si="119"/>
-        <v>258</v>
+        <v>2239</v>
       </c>
       <c r="AH183">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI183">
         <f t="shared" si="120"/>
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="AJ183">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="AL183" s="6" t="s">
         <v>63</v>
@@ -18752,15 +18811,15 @@
         <v>539</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D184" s="7">
-        <v>15</v>
+      <c r="D184">
+        <v>45</v>
       </c>
       <c r="E184" s="7">
         <v>1</v>
@@ -18814,53 +18873,53 @@
         <v>528</v>
       </c>
       <c r="W184">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X184">
         <f t="shared" si="114"/>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y184">
         <f t="shared" si="115"/>
-        <v>3158</v>
+        <v>21008</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA184">
         <f t="shared" si="116"/>
-        <v>897</v>
+        <v>15665</v>
       </c>
       <c r="AB184">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AC184">
         <f t="shared" si="117"/>
-        <v>311</v>
+        <v>8778</v>
       </c>
       <c r="AD184">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AE184">
         <f t="shared" si="118"/>
-        <v>897</v>
+        <v>4953</v>
       </c>
       <c r="AF184">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG184">
         <f t="shared" si="119"/>
-        <v>311</v>
+        <v>4853</v>
       </c>
       <c r="AH184">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AI184">
         <f t="shared" si="120"/>
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="AJ184">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AL184" s="6" t="s">
         <v>177</v>
@@ -18869,15 +18928,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D185" s="7">
-        <v>15</v>
+      <c r="D185">
+        <v>45</v>
       </c>
       <c r="E185" s="7">
         <v>1</v>
@@ -18931,53 +18990,53 @@
         <v>529</v>
       </c>
       <c r="W185">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X185">
         <f t="shared" si="114"/>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y185">
         <f t="shared" si="115"/>
-        <v>3158</v>
+        <v>22758</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AA185">
         <f t="shared" si="116"/>
-        <v>897</v>
+        <v>18127</v>
       </c>
       <c r="AB185">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AC185">
         <f t="shared" si="117"/>
-        <v>311</v>
+        <v>9504</v>
       </c>
       <c r="AD185">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AE185">
         <f t="shared" si="118"/>
-        <v>897</v>
+        <v>7454</v>
       </c>
       <c r="AF185">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG185">
         <f t="shared" si="119"/>
-        <v>311</v>
+        <v>2707</v>
       </c>
       <c r="AH185">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AI185">
         <f t="shared" si="120"/>
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="AJ185">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AL185" s="6" t="s">
         <v>63</v>
@@ -18986,15 +19045,15 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
         <v>559</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D186" s="7">
-        <v>15</v>
+      <c r="D186">
+        <v>45</v>
       </c>
       <c r="E186" s="7">
         <v>1</v>
@@ -19048,53 +19107,53 @@
         <v>530</v>
       </c>
       <c r="W186">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X186">
         <f t="shared" si="114"/>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y186">
         <f t="shared" si="115"/>
-        <v>3158</v>
+        <v>21875</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AA186">
         <f t="shared" si="116"/>
-        <v>897</v>
+        <v>3088</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC186">
         <f t="shared" si="117"/>
-        <v>311</v>
+        <v>9950</v>
       </c>
       <c r="AD186">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="AE186">
         <f t="shared" si="118"/>
-        <v>897</v>
+        <v>17113</v>
       </c>
       <c r="AF186">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG186">
         <f t="shared" si="119"/>
-        <v>311</v>
+        <v>5149</v>
       </c>
       <c r="AH186">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AI186">
         <f t="shared" si="120"/>
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="AJ186">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="AL186" s="6" t="s">
         <v>223</v>
@@ -19103,7 +19162,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R187" s="5"/>
       <c r="U187" s="16" t="s">
         <v>537</v>
@@ -19112,53 +19171,53 @@
         <v>531</v>
       </c>
       <c r="W187">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X187">
         <f t="shared" si="114"/>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y187">
         <f t="shared" si="115"/>
-        <v>3158</v>
+        <v>24117</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AA187">
         <f t="shared" si="116"/>
-        <v>897</v>
+        <v>16621</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AC187">
         <f t="shared" si="117"/>
-        <v>311</v>
+        <v>9912</v>
       </c>
       <c r="AD187">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AE187">
         <f t="shared" si="118"/>
-        <v>897</v>
+        <v>4953</v>
       </c>
       <c r="AF187">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG187">
         <f t="shared" si="119"/>
-        <v>311</v>
+        <v>2951</v>
       </c>
       <c r="AH187">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI187">
         <f t="shared" si="120"/>
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="AJ187">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="AL187" s="6" t="s">
         <v>543</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -3965,9 +3965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO180" sqref="AO180"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH178" sqref="AH178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16968,53 +16968,53 @@
         <v>486</v>
       </c>
       <c r="W164">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X164">
         <f>1+(W164-1)*0.25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y164">
         <f>INT(POWER(X164+(Z164*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>18919</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA164">
         <f>INT(POWER(X164+(AB164*0.25),3))+40</f>
-        <v>383</v>
+        <v>8974</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AC164">
         <f>INT(50+(X164+(AD164*0.25)-1)*POWER(X164+(AD164*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>8422</v>
       </c>
       <c r="AD164">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AE164">
         <f>INT(POWER(X164+(AF164*0.25),3))+40</f>
-        <v>383</v>
+        <v>897</v>
       </c>
       <c r="AF164">
         <v>0</v>
       </c>
       <c r="AG164">
         <f>INT(50+(X164+(AH164*0.25)-1)*POWER(X164+(AH164*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>3306</v>
       </c>
       <c r="AH164">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AI164">
         <f>INT(5+(X164+(AJ164*0.25)-1)*POWER(X164+(AJ164*0.25),0.2))</f>
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="AJ164">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="AL164" s="6" t="s">
         <v>223</v>
@@ -17092,53 +17092,53 @@
         <v>495</v>
       </c>
       <c r="W165">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X165">
         <f>1+(W165-1)*0.25</f>
-        <v>7.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y165">
         <f>INT(POWER(X165+(Z165*0.25),2)*35)</f>
-        <v>1839</v>
+        <v>20160</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AA165">
         <f>INT(POWER(X165+(AB165*0.25),3))+40</f>
-        <v>421</v>
+        <v>9301</v>
       </c>
       <c r="AB165">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC165">
         <f>INT(50+(X165+(AD165*0.25)-1)*POWER(X165+(AD165*0.25),0.5)*10)</f>
-        <v>218</v>
+        <v>8599</v>
       </c>
       <c r="AD165">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="AE165">
         <f>INT(POWER(X165+(AF165*0.25),3))+40</f>
-        <v>421</v>
+        <v>897</v>
       </c>
       <c r="AF165">
         <v>0</v>
       </c>
       <c r="AG165">
         <f>INT(50+(X165+(AH165*0.25)-1)*POWER(X165+(AH165*0.25),0.5)*10)</f>
-        <v>218</v>
+        <v>3203</v>
       </c>
       <c r="AH165">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AI165">
         <f>INT(5+(X165+(AJ165*0.25)-1)*POWER(X165+(AJ165*0.25),0.2))</f>
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="AJ165">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="AL165" s="6" t="s">
         <v>93</v>
@@ -17216,53 +17216,53 @@
         <v>499</v>
       </c>
       <c r="W166">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="X166">
         <f>1+(W166-1)*0.25</f>
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y166">
         <f>INT(POWER(X166+(Z166*0.25),2)*35)</f>
-        <v>1968</v>
+        <v>21439</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA166">
         <f>INT(POWER(X166+(AB166*0.25),3))+40</f>
-        <v>461</v>
+        <v>6371</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AC166">
         <f>INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
-        <v>228</v>
+        <v>3102</v>
       </c>
       <c r="AD166">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AE166">
         <f>INT(POWER(X166+(AF166*0.25),3))+40</f>
-        <v>461</v>
+        <v>9978</v>
       </c>
       <c r="AF166">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AG166">
         <f>INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
-        <v>228</v>
+        <v>8814</v>
       </c>
       <c r="AH166">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AI166">
         <f>INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AJ166">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AL166" s="6" t="s">
         <v>498</v>
@@ -17340,53 +17340,53 @@
         <v>502</v>
       </c>
       <c r="W167">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X167">
         <f>1+(W167-1)*0.25</f>
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Y167">
         <f>INT(POWER(X167+(Z167*0.25),2)*35)</f>
-        <v>2382</v>
+        <v>22758</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AA167">
         <f>INT(POWER(X167+(AB167*0.25),3))+40</f>
-        <v>601</v>
+        <v>10688</v>
       </c>
       <c r="AB167">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC167">
         <f>INT(50+(X167+(AD167*0.25)-1)*POWER(X167+(AD167*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>9211</v>
       </c>
       <c r="AD167">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AE167">
         <f>INT(POWER(X167+(AF167*0.25),3))+40</f>
-        <v>601</v>
+        <v>1040</v>
       </c>
       <c r="AF167">
         <v>0</v>
       </c>
       <c r="AG167">
         <f>INT(50+(X167+(AH167*0.25)-1)*POWER(X167+(AH167*0.25),0.5)*10)</f>
-        <v>258</v>
+        <v>2853</v>
       </c>
       <c r="AH167">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AI167">
         <f>INT(5+(X167+(AJ167*0.25)-1)*POWER(X167+(AJ167*0.25),0.2))</f>
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="AJ167">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="AL167" s="6" t="s">
         <v>93</v>
@@ -18087,10 +18087,10 @@
       </c>
       <c r="Y176">
         <f t="shared" si="108"/>
-        <v>15069</v>
+        <v>25515</v>
       </c>
       <c r="Z176">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA176">
         <f t="shared" si="109"/>
@@ -18101,10 +18101,10 @@
       </c>
       <c r="AC176">
         <f t="shared" si="110"/>
-        <v>369</v>
+        <v>2927</v>
       </c>
       <c r="AD176">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AE176">
         <f t="shared" si="111"/>
@@ -18204,10 +18204,10 @@
       </c>
       <c r="Y177">
         <f t="shared" si="108"/>
-        <v>15435</v>
+        <v>25989</v>
       </c>
       <c r="Z177">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="AA177">
         <f t="shared" si="109"/>
@@ -18232,10 +18232,10 @@
       </c>
       <c r="AG177">
         <f t="shared" si="112"/>
-        <v>369</v>
+        <v>3488</v>
       </c>
       <c r="AH177">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AI177">
         <f t="shared" si="113"/>
@@ -18321,10 +18321,10 @@
       </c>
       <c r="Y178">
         <f t="shared" si="108"/>
-        <v>15804</v>
+        <v>26468</v>
       </c>
       <c r="Z178">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="AA178">
         <f t="shared" si="109"/>
@@ -18335,10 +18335,10 @@
       </c>
       <c r="AC178">
         <f t="shared" si="110"/>
-        <v>369</v>
+        <v>3436</v>
       </c>
       <c r="AD178">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AE178">
         <f t="shared" si="111"/>
@@ -18385,10 +18385,10 @@
       </c>
       <c r="Y179">
         <f t="shared" si="108"/>
-        <v>16940</v>
+        <v>26952</v>
       </c>
       <c r="Z179">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AA179">
         <f t="shared" si="109"/>
@@ -18399,17 +18399,17 @@
       </c>
       <c r="AC179">
         <f t="shared" si="110"/>
-        <v>369</v>
+        <v>3488</v>
       </c>
       <c r="AD179">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AE179">
         <f t="shared" si="111"/>
-        <v>11814</v>
+        <v>9635</v>
       </c>
       <c r="AF179">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AG179">
         <f t="shared" si="112"/>
@@ -18792,10 +18792,10 @@
       </c>
       <c r="AG183">
         <f t="shared" si="119"/>
-        <v>2239</v>
+        <v>4853</v>
       </c>
       <c r="AH183">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AI183">
         <f t="shared" si="120"/>
@@ -19026,10 +19026,10 @@
       </c>
       <c r="AG185">
         <f t="shared" si="119"/>
-        <v>2707</v>
+        <v>5452</v>
       </c>
       <c r="AH185">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI185">
         <f t="shared" si="120"/>
@@ -19207,10 +19207,10 @@
       </c>
       <c r="AG187">
         <f t="shared" si="119"/>
-        <v>2951</v>
+        <v>5760</v>
       </c>
       <c r="AH187">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AI187">
         <f t="shared" si="120"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="639">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2437,6 +2437,34 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>mi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募橙色侠客任意两个都能过</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3965,9 +3993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH178" sqref="AH178"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ180" sqref="AQ180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -16976,10 +17004,10 @@
       </c>
       <c r="Y164">
         <f>INT(POWER(X164+(Z164*0.25),2)*35)</f>
-        <v>18919</v>
+        <v>16940</v>
       </c>
       <c r="Z164">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA164">
         <f>INT(POWER(X164+(AB164*0.25),3))+40</f>
@@ -17100,17 +17128,17 @@
       </c>
       <c r="Y165">
         <f>INT(POWER(X165+(Z165*0.25),2)*35)</f>
-        <v>20160</v>
+        <v>18515</v>
       </c>
       <c r="Z165">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA165">
         <f>INT(POWER(X165+(AB165*0.25),3))+40</f>
-        <v>9301</v>
+        <v>8655</v>
       </c>
       <c r="AB165">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC165">
         <f>INT(50+(X165+(AD165*0.25)-1)*POWER(X165+(AD165*0.25),0.5)*10)</f>
@@ -17224,10 +17252,10 @@
       </c>
       <c r="Y166">
         <f>INT(POWER(X166+(Z166*0.25),2)*35)</f>
-        <v>21439</v>
+        <v>19328</v>
       </c>
       <c r="Z166">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA166">
         <f>INT(POWER(X166+(AB166*0.25),3))+40</f>
@@ -17348,17 +17376,17 @@
       </c>
       <c r="Y167">
         <f>INT(POWER(X167+(Z167*0.25),2)*35)</f>
-        <v>22758</v>
+        <v>20160</v>
       </c>
       <c r="Z167">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AA167">
         <f>INT(POWER(X167+(AB167*0.25),3))+40</f>
-        <v>10688</v>
+        <v>9978</v>
       </c>
       <c r="AB167">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC167">
         <f>INT(50+(X167+(AD167*0.25)-1)*POWER(X167+(AD167*0.25),0.5)*10)</f>
@@ -18133,6 +18161,9 @@
       <c r="AM176" s="6" t="s">
         <v>513</v>
       </c>
+      <c r="AO176" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
@@ -18211,10 +18242,10 @@
       </c>
       <c r="AA177">
         <f t="shared" si="109"/>
-        <v>12608</v>
+        <v>10688</v>
       </c>
       <c r="AB177">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC177">
         <f t="shared" si="110"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="640">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2388,31 +2388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募欧阳锋，南帝，反伤加降内防</t>
-    <rPh sb="0" eb="1">
-      <t>zhao'mu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ou'yang'feng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>nan'di</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fan'shang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jiang'di</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nei'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募洪七公，郭靖，再用门派镇派秘籍</t>
     <rPh sb="0" eb="1">
       <t>zhao'mu</t>
@@ -2465,6 +2440,56 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募南帝，降内防</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nan'di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang'di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募欧阳锋，反伤，周伯通快速输出，小龙女回血，其他输出</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ou'yang'feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'shang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhou'b't</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuai'su</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu'chu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao'long'n</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hui'xue</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shu'chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3993,9 +4018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ180" sqref="AQ180"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO181" sqref="AO181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17773,10 +17798,10 @@
       </c>
       <c r="AG173">
         <f t="shared" ref="AG173:AG179" si="112">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
-        <v>9875</v>
+        <v>99460</v>
       </c>
       <c r="AH173">
-        <v>350</v>
+        <v>1804</v>
       </c>
       <c r="AI173">
         <f t="shared" ref="AI173:AI179" si="113">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
@@ -17795,7 +17820,7 @@
         <v>574</v>
       </c>
       <c r="AO173" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.15">
@@ -17903,10 +17928,10 @@
       </c>
       <c r="AG174">
         <f t="shared" si="112"/>
-        <v>9950</v>
+        <v>99138</v>
       </c>
       <c r="AH174">
-        <v>352</v>
+        <v>1800</v>
       </c>
       <c r="AI174">
         <f t="shared" si="113"/>
@@ -18162,7 +18187,7 @@
         <v>513</v>
       </c>
       <c r="AO176" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.15">
@@ -18545,10 +18570,10 @@
       </c>
       <c r="Y181">
         <f t="shared" ref="Y181:Y187" si="115">INT(POWER(X181+(Z181*0.25),2)*35)</f>
-        <v>58119</v>
+        <v>73257</v>
       </c>
       <c r="Z181">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA181">
         <f t="shared" ref="AA181:AA187" si="116">INT(POWER(X181+(AB181*0.25),3))+40</f>
@@ -18559,24 +18584,24 @@
       </c>
       <c r="AC181">
         <f t="shared" ref="AC181:AC187" si="117">INT(50+(X181+(AD181*0.25)-1)*POWER(X181+(AD181*0.25),0.5)*10)</f>
-        <v>28883</v>
+        <v>116950</v>
       </c>
       <c r="AD181">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="AE181">
         <f t="shared" ref="AE181:AE187" si="118">INT(POWER(X181+(AF181*0.25),3))+40</f>
-        <v>32808</v>
+        <v>22585</v>
       </c>
       <c r="AF181">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AG181">
         <f t="shared" ref="AG181:AG187" si="119">INT(50+(X181+(AH181*0.25)-1)*POWER(X181+(AH181*0.25),0.5)*10)</f>
-        <v>1122</v>
+        <v>26256</v>
       </c>
       <c r="AH181">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="AI181">
         <f t="shared" ref="AI181:AI187" si="120">INT(5+(X181+(AJ181*0.25)-1)*POWER(X181+(AJ181*0.25),0.2))</f>
@@ -18595,7 +18620,7 @@
         <v>574</v>
       </c>
       <c r="AO181" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.15">
@@ -18723,6 +18748,9 @@
       </c>
       <c r="AN182" s="7" t="s">
         <v>574</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.15">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -2444,23 +2444,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募南帝，降内防</t>
+    <t>招募一灯大师，降内防</t>
     <rPh sb="0" eb="1">
       <t>zhao'mu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>nan'di</t>
+      <t>yi'deng'da'shi</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="7" eb="8">
       <t>jiang'di</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="8" eb="9">
       <t>nei'fang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募欧阳锋，反伤，周伯通快速输出，小龙女回血，其他输出</t>
+    <t>招募欧阳锋，反伤，洪七公打血上限，一灯大师打内防，周伯通快速输出或者郭靖打外防，小龙女回血，其他输出</t>
     <rPh sb="0" eb="1">
       <t>zhao'mu</t>
     </rPh>
@@ -2471,24 +2471,54 @@
       <t>fan'shang</t>
     </rPh>
     <rPh sb="9" eb="10">
+      <t>hong'qi'gong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi'deng'da'shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>da</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>nei'fang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
       <t>zhou'b't</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="28" eb="29">
       <t>kuai'su</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="30" eb="31">
       <t>shu'chu</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="32" eb="33">
+      <t>huoh'zhe</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>guo'jing</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>da'wai'fagn</t>
+    </rPh>
+    <rPh sb="40" eb="41">
       <t>xiao'long'n</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="43" eb="44">
       <t>hui'xue</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="46" eb="47">
       <t>qi'ta</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="48" eb="49">
       <t>shu'chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4018,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO181" sqref="AO181"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS182" sqref="AS182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17798,10 +17828,10 @@
       </c>
       <c r="AG173">
         <f t="shared" ref="AG173:AG179" si="112">INT(50+(X173+(AH173*0.25)-1)*POWER(X173+(AH173*0.25),0.5)*10)</f>
-        <v>99460</v>
+        <v>9875</v>
       </c>
       <c r="AH173">
-        <v>1804</v>
+        <v>350</v>
       </c>
       <c r="AI173">
         <f t="shared" ref="AI173:AI179" si="113">INT(5+(X173+(AJ173*0.25)-1)*POWER(X173+(AJ173*0.25),0.2))</f>
@@ -17928,10 +17958,10 @@
       </c>
       <c r="AG174">
         <f t="shared" si="112"/>
-        <v>99138</v>
+        <v>9912</v>
       </c>
       <c r="AH174">
-        <v>1800</v>
+        <v>351</v>
       </c>
       <c r="AI174">
         <f t="shared" si="113"/>
@@ -18377,10 +18407,10 @@
       </c>
       <c r="Y178">
         <f t="shared" si="108"/>
-        <v>26468</v>
+        <v>24117</v>
       </c>
       <c r="Z178">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AA178">
         <f t="shared" si="109"/>
@@ -18398,17 +18428,17 @@
       </c>
       <c r="AE178">
         <f t="shared" si="111"/>
-        <v>13017</v>
+        <v>10688</v>
       </c>
       <c r="AF178">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AG178">
         <f t="shared" si="112"/>
-        <v>9652</v>
+        <v>8599</v>
       </c>
       <c r="AH178">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="AI178">
         <f t="shared" si="113"/>
@@ -18700,10 +18730,10 @@
       </c>
       <c r="Y182">
         <f t="shared" si="115"/>
-        <v>175194</v>
+        <v>510319</v>
       </c>
       <c r="Z182">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA182">
         <f t="shared" si="116"/>
@@ -18714,10 +18744,10 @@
       </c>
       <c r="AC182">
         <f t="shared" si="117"/>
-        <v>44435</v>
+        <v>32699</v>
       </c>
       <c r="AD182">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE182">
         <f t="shared" si="118"/>
@@ -18728,17 +18758,17 @@
       </c>
       <c r="AG182">
         <f t="shared" si="119"/>
-        <v>44435</v>
+        <v>35520</v>
       </c>
       <c r="AH182">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="AI182">
         <f t="shared" si="120"/>
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AJ182">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AL182" s="6" t="s">
         <v>223</v>
@@ -19064,10 +19094,10 @@
       </c>
       <c r="AA185">
         <f t="shared" si="116"/>
-        <v>18127</v>
+        <v>16138</v>
       </c>
       <c r="AB185">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC185">
         <f t="shared" si="117"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS182" sqref="AS182"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4380,10 +4380,10 @@
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y4" si="1">INT(POWER(X3+(Z3*0.25),2)*35)</f>
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA4" si="2">INT(POWER(X3+(AB3*0.25),3))+40</f>
@@ -4504,10 +4504,10 @@
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>2102</v>
+        <v>1478</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AA4">
         <f t="shared" si="2"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4450,10 +4450,10 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4" si="9">INT(POWER(E4+(I4*0.25)+4,2)*3)</f>
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4" si="10">INT(50+(E4+(K4*0.25)-1)*POWER(E4+(K4*0.25),0.5)*10)</f>
@@ -4636,10 +4636,10 @@
       </c>
       <c r="Y6">
         <f>INT(POWER(X6+(Z6*0.25),2)*35)</f>
-        <v>632</v>
+        <v>560</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <f>INT(POWER(X6+(AB6*0.25),3))+40</f>
@@ -4734,10 +4734,10 @@
       </c>
       <c r="P7">
         <f t="shared" si="20"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>45</v>
@@ -4767,17 +4767,17 @@
       </c>
       <c r="AA7">
         <f>INT(POWER(X7+(AB7*0.25),3))+40</f>
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="AB7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC7">
         <f>INT(50+(X7+(AD7*0.25)-1)*POWER(X7+(AD7*0.25),0.5)*10)</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <f>INT(POWER(X7+(AF7*0.25),3))+40</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4050,7 +4050,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5020,10 +5020,10 @@
       </c>
       <c r="AA10">
         <f>INT(POWER(X10+(AB10*0.25),3))+40</f>
-        <v>552</v>
+        <v>505</v>
       </c>
       <c r="AB10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC10">
         <f>INT(50+(X10+(AD10*0.25)-1)*POWER(X10+(AD10*0.25),0.5)*10)</f>
@@ -5137,24 +5137,24 @@
       </c>
       <c r="Y11">
         <f>INT(POWER(X11+(Z11*0.25),2)*35)</f>
-        <v>1968</v>
+        <v>1367</v>
       </c>
       <c r="Z11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA11">
         <f>INT(POWER(X11+(AB11*0.25),3))+40</f>
-        <v>897</v>
+        <v>601</v>
       </c>
       <c r="AB11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC11">
         <f>INT(50+(X11+(AD11*0.25)-1)*POWER(X11+(AD11*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE11">
         <f>INT(POWER(X11+(AF11*0.25),3))+40</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,8 +4049,8 @@
   <dimension ref="A1:AO187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6600,10 +6600,10 @@
       </c>
       <c r="AA31">
         <f>INT(POWER(X31+(AB31*0.25),3))+40</f>
-        <v>3088</v>
+        <v>2366</v>
       </c>
       <c r="AB31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC31">
         <f>INT(50+(X31+(AD31*0.25)-1)*POWER(X31+(AD31*0.25),0.5)*10)</f>
@@ -6660,17 +6660,17 @@
       </c>
       <c r="Y32">
         <f>INT(POWER(X32+(Z32*0.25),2)*35)</f>
-        <v>5468</v>
+        <v>4832</v>
       </c>
       <c r="Z32">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>3763</v>
+        <v>2639</v>
       </c>
       <c r="AB32">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
@@ -6727,10 +6727,10 @@
       </c>
       <c r="Y33">
         <f>INT(POWER(X33+(Z33*0.25),2)*35)</f>
-        <v>9528</v>
+        <v>8682</v>
       </c>
       <c r="Z33">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA33">
         <f>INT(POWER(X33+(AB33*0.25),3))+40</f>
@@ -6872,10 +6872,10 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>11027</v>
+        <v>10115</v>
       </c>
       <c r="Z36">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
@@ -7002,17 +7002,17 @@
       </c>
       <c r="Y37">
         <f>INT(POWER(X37+(Z37*0.25),2)*35)</f>
-        <v>6378</v>
+        <v>5252</v>
       </c>
       <c r="Z37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA37">
         <f>INT(POWER(X37+(AB37*0.25),3))+40</f>
-        <v>4136</v>
+        <v>2784</v>
       </c>
       <c r="AB37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AC37">
         <f>INT(50+(X37+(AD37*0.25)-1)*POWER(X37+(AD37*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,8 +4049,8 @@
   <dimension ref="A1:AO187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC31" sqref="AC31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5606,10 +5606,10 @@
       </c>
       <c r="Y18">
         <f>INT(POWER(X18+(Z18*0.25),2)*35)</f>
-        <v>6144</v>
+        <v>5915</v>
       </c>
       <c r="Z18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA18">
         <f>INT(POWER(X18+(AB18*0.25),3))+40</f>
@@ -5736,10 +5736,10 @@
       </c>
       <c r="Y19">
         <f>INT(POWER(X19+(Z19*0.25),2)*35)</f>
-        <v>7875</v>
+        <v>6860</v>
       </c>
       <c r="Z19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AA19">
         <f>INT(POWER(X19+(AB19*0.25),3))+40</f>
@@ -6652,50 +6652,50 @@
         <v>132</v>
       </c>
       <c r="W32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X32">
         <f>1+(W32-1)*0.25</f>
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="Y32">
         <f>INT(POWER(X32+(Z32*0.25),2)*35)</f>
-        <v>4832</v>
+        <v>4429</v>
       </c>
       <c r="Z32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA32">
         <f>INT(POWER(X32+(AB32*0.25),3))+40</f>
-        <v>2639</v>
+        <v>2500</v>
       </c>
       <c r="AB32">
         <v>30</v>
       </c>
       <c r="AC32">
         <f>INT(50+(X32+(AD32*0.25)-1)*POWER(X32+(AD32*0.25),0.5)*10)</f>
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="AD32">
         <v>50</v>
       </c>
       <c r="AE32">
         <f>INT(POWER(X32+(AF32*0.25),3))+40</f>
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
       <c r="AG32">
         <f>INT(50+(X32+(AH32*0.25)-1)*POWER(X32+(AH32*0.25),0.5)*10)</f>
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
         <f>INT(5+(X32+(AJ32*0.25)-1)*POWER(X32+(AJ32*0.25),0.2))</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ32">
         <v>80</v>
@@ -6741,17 +6741,17 @@
       </c>
       <c r="AC33">
         <f>INT(50+(X33+(AD33*0.25)-1)*POWER(X33+(AD33*0.25),0.5)*10)</f>
-        <v>4277</v>
+        <v>3862</v>
       </c>
       <c r="AD33">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AE33">
         <f>INT(POWER(X33+(AF33*0.25),3))+40</f>
-        <v>2237</v>
+        <v>1993</v>
       </c>
       <c r="AF33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG33">
         <f>INT(50+(X33+(AH33*0.25)-1)*POWER(X33+(AH33*0.25),0.5)*10)</f>
@@ -6872,31 +6872,31 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>9242</v>
       </c>
       <c r="Z36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
-        <v>3088</v>
+        <v>601</v>
       </c>
       <c r="AB36">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <f>INT(50+(X36+(AD36*0.25)-1)*POWER(X36+(AD36*0.25),0.5)*10)</f>
-        <v>5000</v>
+        <v>3917</v>
       </c>
       <c r="AD36">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="AE36">
         <f>INT(POWER(X36+(AF36*0.25),3))+40</f>
-        <v>2639</v>
+        <v>2112</v>
       </c>
       <c r="AF36">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG36">
         <f>INT(50+(X36+(AH36*0.25)-1)*POWER(X36+(AH36*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6504,10 +6504,10 @@
       </c>
       <c r="AI30">
         <f>INT(5+(X30+(AJ30*0.25)-1)*POWER(X30+(AJ30*0.25),0.2))</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AJ30">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL30" s="5" t="s">
         <v>127</v>
@@ -6628,10 +6628,10 @@
       </c>
       <c r="AI31">
         <f>INT(5+(X31+(AJ31*0.25)-1)*POWER(X31+(AJ31*0.25),0.2))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AJ31">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL31" s="5" t="s">
         <v>52</v>
@@ -6695,10 +6695,10 @@
       </c>
       <c r="AI32">
         <f>INT(5+(X32+(AJ32*0.25)-1)*POWER(X32+(AJ32*0.25),0.2))</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="AJ32">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AL32" s="5" t="s">
         <v>52</v>
@@ -6762,10 +6762,10 @@
       </c>
       <c r="AI33">
         <f>INT(5+(X33+(AJ33*0.25)-1)*POWER(X33+(AJ33*0.25),0.2))</f>
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AJ33">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AL33" s="5" t="s">
         <v>134</v>
@@ -6907,10 +6907,10 @@
       </c>
       <c r="AI36">
         <f>INT(5+(X36+(AJ36*0.25)-1)*POWER(X36+(AJ36*0.25),0.2))</f>
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="AJ36">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AL36" s="5" t="s">
         <v>134</v>
@@ -7887,10 +7887,10 @@
       </c>
       <c r="AA50">
         <f t="shared" si="79"/>
-        <v>3249</v>
+        <v>2933</v>
       </c>
       <c r="AB50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC50">
         <f t="shared" si="80"/>
@@ -8155,10 +8155,10 @@
       </c>
       <c r="AE52">
         <f t="shared" si="81"/>
-        <v>3763</v>
+        <v>3088</v>
       </c>
       <c r="AF52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG52">
         <f t="shared" si="82"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB50" sqref="AB50"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W91" sqref="W91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9903,50 +9903,50 @@
         <v>208</v>
       </c>
       <c r="W76">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X76">
         <f>1+(W76-1)*0.25</f>
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>10115</v>
       </c>
       <c r="Z76">
         <v>30</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>3763</v>
+        <v>4953</v>
       </c>
       <c r="AB76">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2017</v>
       </c>
       <c r="AD76">
         <v>100</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
-        <v>709</v>
+        <v>897</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
         <f>INT(50+(X76+(AH76*0.25)-1)*POWER(X76+(AH76*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2017</v>
       </c>
       <c r="AH76">
         <v>100</v>
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ76">
         <v>180</v>
@@ -9966,50 +9966,50 @@
         <v>210</v>
       </c>
       <c r="W77">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="X77">
         <f>1+(W77-1)*0.25</f>
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>9819</v>
+        <v>10718</v>
       </c>
       <c r="Z77">
         <v>31</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>4739</v>
+        <v>6118</v>
       </c>
       <c r="AB77">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>2262</v>
       </c>
       <c r="AD77">
         <v>110</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
-        <v>769</v>
+        <v>966</v>
       </c>
       <c r="AF77">
         <v>0</v>
       </c>
       <c r="AG77">
         <f>INT(50+(X77+(AH77*0.25)-1)*POWER(X77+(AH77*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>2262</v>
       </c>
       <c r="AH77">
         <v>110</v>
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ77">
         <v>200</v>
@@ -10033,50 +10033,50 @@
         <v>212</v>
       </c>
       <c r="W78">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X78">
         <f>1+(W78-1)*0.25</f>
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Y78">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
-        <v>10414</v>
+        <v>11340</v>
       </c>
       <c r="Z78">
         <v>32</v>
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>4331</v>
+        <v>5632</v>
       </c>
       <c r="AB78">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
-        <v>2446</v>
+        <v>2516</v>
       </c>
       <c r="AD78">
         <v>120</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
-        <v>831</v>
+        <v>1040</v>
       </c>
       <c r="AF78">
         <v>0</v>
       </c>
       <c r="AG78">
         <f>INT(50+(X78+(AH78*0.25)-1)*POWER(X78+(AH78*0.25),0.5)*10)</f>
-        <v>2446</v>
+        <v>2516</v>
       </c>
       <c r="AH78">
         <v>120</v>
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ78">
         <v>190</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W91" sqref="W91"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W180" sqref="W180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9903,50 +9903,50 @@
         <v>208</v>
       </c>
       <c r="W76">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X76">
         <f>1+(W76-1)*0.25</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y76">
         <f>INT(POWER(X76+(Z76*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>10718</v>
       </c>
       <c r="Z76">
         <v>30</v>
       </c>
       <c r="AA76">
         <f>INT(POWER(X76+(AB76*0.25),3))+40</f>
-        <v>4953</v>
+        <v>5399</v>
       </c>
       <c r="AB76">
         <v>30</v>
       </c>
       <c r="AC76">
         <f>INT(50+(X76+(AD76*0.25)-1)*POWER(X76+(AD76*0.25),0.5)*10)</f>
-        <v>2017</v>
+        <v>2061</v>
       </c>
       <c r="AD76">
         <v>100</v>
       </c>
       <c r="AE76">
         <f>INT(POWER(X76+(AF76*0.25),3))+40</f>
-        <v>897</v>
+        <v>1040</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
         <f>INT(50+(X76+(AH76*0.25)-1)*POWER(X76+(AH76*0.25),0.5)*10)</f>
-        <v>2017</v>
+        <v>2061</v>
       </c>
       <c r="AH76">
         <v>100</v>
       </c>
       <c r="AI76">
         <f>INT(5+(X76+(AJ76*0.25)-1)*POWER(X76+(AJ76*0.25),0.2))</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ76">
         <v>180</v>
@@ -9966,50 +9966,50 @@
         <v>210</v>
       </c>
       <c r="W77">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X77">
         <f>1+(W77-1)*0.25</f>
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y77">
         <f>INT(POWER(X77+(Z77*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>11340</v>
       </c>
       <c r="Z77">
         <v>31</v>
       </c>
       <c r="AA77">
         <f>INT(POWER(X77+(AB77*0.25),3))+40</f>
-        <v>6118</v>
+        <v>6631</v>
       </c>
       <c r="AB77">
         <v>34</v>
       </c>
       <c r="AC77">
         <f>INT(50+(X77+(AD77*0.25)-1)*POWER(X77+(AD77*0.25),0.5)*10)</f>
-        <v>2262</v>
+        <v>2307</v>
       </c>
       <c r="AD77">
         <v>110</v>
       </c>
       <c r="AE77">
         <f>INT(POWER(X77+(AF77*0.25),3))+40</f>
-        <v>966</v>
+        <v>1116</v>
       </c>
       <c r="AF77">
         <v>0</v>
       </c>
       <c r="AG77">
         <f>INT(50+(X77+(AH77*0.25)-1)*POWER(X77+(AH77*0.25),0.5)*10)</f>
-        <v>2262</v>
+        <v>2307</v>
       </c>
       <c r="AH77">
         <v>110</v>
       </c>
       <c r="AI77">
         <f>INT(5+(X77+(AJ77*0.25)-1)*POWER(X77+(AJ77*0.25),0.2))</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ77">
         <v>200</v>
@@ -10033,50 +10033,50 @@
         <v>212</v>
       </c>
       <c r="W78">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X78">
         <f>1+(W78-1)*0.25</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y78">
         <f>INT(POWER(X78+(Z78*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>11978</v>
       </c>
       <c r="Z78">
         <v>32</v>
       </c>
       <c r="AA78">
         <f>INT(POWER(X78+(AB78*0.25),3))+40</f>
-        <v>5632</v>
+        <v>6118</v>
       </c>
       <c r="AB78">
         <v>31</v>
       </c>
       <c r="AC78">
         <f>INT(50+(X78+(AD78*0.25)-1)*POWER(X78+(AD78*0.25),0.5)*10)</f>
-        <v>2516</v>
+        <v>2563</v>
       </c>
       <c r="AD78">
         <v>120</v>
       </c>
       <c r="AE78">
         <f>INT(POWER(X78+(AF78*0.25),3))+40</f>
-        <v>1040</v>
+        <v>1197</v>
       </c>
       <c r="AF78">
         <v>0</v>
       </c>
       <c r="AG78">
         <f>INT(50+(X78+(AH78*0.25)-1)*POWER(X78+(AH78*0.25),0.5)*10)</f>
-        <v>2516</v>
+        <v>2563</v>
       </c>
       <c r="AH78">
         <v>120</v>
       </c>
       <c r="AI78">
         <f>INT(5+(X78+(AJ78*0.25)-1)*POWER(X78+(AJ78*0.25),0.2))</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ78">
         <v>190</v>
@@ -10292,50 +10292,50 @@
         <v>219</v>
       </c>
       <c r="W81">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X81">
         <f>1+(W81-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y81">
         <f>INT(POWER(X81+(Z81*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>12635</v>
       </c>
       <c r="Z81">
         <v>34</v>
       </c>
       <c r="AA81">
         <f>INT(POWER(X81+(AB81*0.25),3))+40</f>
-        <v>6899</v>
+        <v>8655</v>
       </c>
       <c r="AB81">
         <v>40</v>
       </c>
       <c r="AC81">
         <f>INT(50+(X81+(AD81*0.25)-1)*POWER(X81+(AD81*0.25),0.5)*10)</f>
-        <v>5090</v>
+        <v>5270</v>
       </c>
       <c r="AD81">
         <v>220</v>
       </c>
       <c r="AE81">
         <f>INT(POWER(X81+(AF81*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF81">
         <v>0</v>
       </c>
       <c r="AG81">
         <f>INT(50+(X81+(AH81*0.25)-1)*POWER(X81+(AH81*0.25),0.5)*10)</f>
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="AH81">
         <v>0</v>
       </c>
       <c r="AI81">
         <f>INT(5+(X81+(AJ81*0.25)-1)*POWER(X81+(AJ81*0.25),0.2))</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AJ81">
         <v>250</v>
@@ -10356,50 +10356,50 @@
         <v>222</v>
       </c>
       <c r="W82">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X82">
         <f>1+(W82-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y82">
         <f>INT(POWER(X82+(Z82*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>13308</v>
       </c>
       <c r="Z82">
         <v>35</v>
       </c>
       <c r="AA82">
         <f>INT(POWER(X82+(AB82*0.25),3))+40</f>
-        <v>2237</v>
+        <v>3088</v>
       </c>
       <c r="AB82">
         <v>15</v>
       </c>
       <c r="AC82">
         <f>INT(50+(X82+(AD82*0.25)-1)*POWER(X82+(AD82*0.25),0.5)*10)</f>
-        <v>5270</v>
+        <v>5452</v>
       </c>
       <c r="AD82">
         <v>225</v>
       </c>
       <c r="AE82">
         <f>INT(POWER(X82+(AF82*0.25),3))+40</f>
-        <v>8655</v>
+        <v>10688</v>
       </c>
       <c r="AF82">
         <v>45</v>
       </c>
       <c r="AG82">
         <f>INT(50+(X82+(AH82*0.25)-1)*POWER(X82+(AH82*0.25),0.5)*10)</f>
-        <v>4533</v>
+        <v>4707</v>
       </c>
       <c r="AH82">
         <v>200</v>
       </c>
       <c r="AI82">
         <f>INT(5+(X82+(AJ82*0.25)-1)*POWER(X82+(AJ82*0.25),0.2))</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AJ82">
         <v>110</v>
@@ -10420,50 +10420,50 @@
         <v>226</v>
       </c>
       <c r="W83">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X83">
         <f>1+(W83-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y83">
         <f>INT(POWER(X83+(Z83*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>12635</v>
       </c>
       <c r="Z83">
         <v>34</v>
       </c>
       <c r="AA83">
         <f>INT(POWER(X83+(AB83*0.25),3))+40</f>
-        <v>4532</v>
+        <v>5872</v>
       </c>
       <c r="AB83">
         <v>30</v>
       </c>
       <c r="AC83">
         <f>INT(50+(X83+(AD83*0.25)-1)*POWER(X83+(AD83*0.25),0.5)*10)</f>
-        <v>5090</v>
+        <v>5270</v>
       </c>
       <c r="AD83">
         <v>220</v>
       </c>
       <c r="AE83">
         <f>INT(POWER(X83+(AF83*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF83">
         <v>0</v>
       </c>
       <c r="AG83">
         <f>INT(50+(X83+(AH83*0.25)-1)*POWER(X83+(AH83*0.25),0.5)*10)</f>
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="AH83">
         <v>0</v>
       </c>
       <c r="AI83">
         <f>INT(5+(X83+(AJ83*0.25)-1)*POWER(X83+(AJ83*0.25),0.2))</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AJ83">
         <v>120</v>
@@ -11014,50 +11014,50 @@
         <v>245</v>
       </c>
       <c r="W91">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X91">
         <f>1+(W91-1)*0.25</f>
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y91">
         <f>INT(POWER(X91+(Z91*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>11027</v>
       </c>
       <c r="Z91">
         <v>30</v>
       </c>
       <c r="AA91">
         <f>INT(POWER(X91+(AB91*0.25),3))+40</f>
-        <v>5399</v>
+        <v>6899</v>
       </c>
       <c r="AB91">
         <v>35</v>
       </c>
       <c r="AC91">
         <f>INT(50+(X91+(AD91*0.25)-1)*POWER(X91+(AD91*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2083</v>
       </c>
       <c r="AD91">
         <v>100</v>
       </c>
       <c r="AE91">
         <f>INT(POWER(X91+(AF91*0.25),3))+40</f>
-        <v>709</v>
+        <v>1116</v>
       </c>
       <c r="AF91">
         <v>0</v>
       </c>
       <c r="AG91">
         <f>INT(50+(X91+(AH91*0.25)-1)*POWER(X91+(AH91*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2083</v>
       </c>
       <c r="AH91">
         <v>100</v>
       </c>
       <c r="AI91">
         <f>INT(5+(X91+(AJ91*0.25)-1)*POWER(X91+(AJ91*0.25),0.2))</f>
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AJ91">
         <v>280</v>
@@ -11080,50 +11080,50 @@
         <v>248</v>
       </c>
       <c r="W92">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X92">
         <f>1+(W92-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y92">
         <f>INT(POWER(X92+(Z92*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>11978</v>
       </c>
       <c r="Z92">
         <v>32</v>
       </c>
       <c r="AA92">
         <f>INT(POWER(X92+(AB92*0.25),3))+40</f>
-        <v>5872</v>
+        <v>7454</v>
       </c>
       <c r="AB92">
         <v>36</v>
       </c>
       <c r="AC92">
         <f>INT(50+(X92+(AD92*0.25)-1)*POWER(X92+(AD92*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>2330</v>
       </c>
       <c r="AD92">
         <v>110</v>
       </c>
       <c r="AE92">
         <f>INT(POWER(X92+(AF92*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF92">
         <v>0</v>
       </c>
       <c r="AG92">
         <f>INT(50+(X92+(AH92*0.25)-1)*POWER(X92+(AH92*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>2330</v>
       </c>
       <c r="AH92">
         <v>110</v>
       </c>
       <c r="AI92">
         <f>INT(5+(X92+(AJ92*0.25)-1)*POWER(X92+(AJ92*0.25),0.2))</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AJ92">
         <v>200</v>
@@ -11146,50 +11146,50 @@
         <v>251</v>
       </c>
       <c r="W93">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X93">
         <f>1+(W93-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y93">
         <f>INT(POWER(X93+(Z93*0.25),2)*35)</f>
-        <v>10414</v>
+        <v>12304</v>
       </c>
       <c r="Z93">
         <v>32</v>
       </c>
       <c r="AA93">
         <f>INT(POWER(X93+(AB93*0.25),3))+40</f>
-        <v>7173</v>
+        <v>8974</v>
       </c>
       <c r="AB93">
         <v>40</v>
       </c>
       <c r="AC93">
         <f>INT(50+(X93+(AD93*0.25)-1)*POWER(X93+(AD93*0.25),0.5)*10)</f>
-        <v>2683</v>
+        <v>2828</v>
       </c>
       <c r="AD93">
         <v>130</v>
       </c>
       <c r="AE93">
         <f>INT(POWER(X93+(AF93*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AF93">
         <v>0</v>
       </c>
       <c r="AG93">
         <f>INT(50+(X93+(AH93*0.25)-1)*POWER(X93+(AH93*0.25),0.5)*10)</f>
-        <v>2446</v>
+        <v>2587</v>
       </c>
       <c r="AH93">
         <v>120</v>
       </c>
       <c r="AI93">
         <f>INT(5+(X93+(AJ93*0.25)-1)*POWER(X93+(AJ93*0.25),0.2))</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AJ93">
         <v>190</v>
@@ -11275,50 +11275,50 @@
         <v>254</v>
       </c>
       <c r="W95">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="X95">
         <f>1+(W95-1)*0.25</f>
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y95">
         <f>INT(POWER(X95+(Z95*0.25),2)*35)</f>
-        <v>10414</v>
+        <v>12304</v>
       </c>
       <c r="Z95">
         <v>30</v>
       </c>
       <c r="AA95">
         <f>INT(POWER(X95+(AB95*0.25),3))+40</f>
-        <v>2500</v>
+        <v>3415</v>
       </c>
       <c r="AB95">
         <v>15</v>
       </c>
       <c r="AC95">
         <f>INT(50+(X95+(AD95*0.25)-1)*POWER(X95+(AD95*0.25),0.5)*10)</f>
-        <v>3229</v>
+        <v>3383</v>
       </c>
       <c r="AD95">
         <v>150</v>
       </c>
       <c r="AE95">
         <f>INT(POWER(X95+(AF95*0.25),3))+40</f>
-        <v>7173</v>
+        <v>8974</v>
       </c>
       <c r="AF95">
         <v>38</v>
       </c>
       <c r="AG95">
         <f>INT(50+(X95+(AH95*0.25)-1)*POWER(X95+(AH95*0.25),0.5)*10)</f>
-        <v>3229</v>
+        <v>3383</v>
       </c>
       <c r="AH95">
         <v>150</v>
       </c>
       <c r="AI95">
         <f>INT(5+(X95+(AJ95*0.25)-1)*POWER(X95+(AJ95*0.25),0.2))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -11358,50 +11358,50 @@
         <v>257</v>
       </c>
       <c r="W96">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X96">
         <f>1+(W96-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y96">
         <f>INT(POWER(X96+(Z96*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>12635</v>
       </c>
       <c r="Z96">
         <v>34</v>
       </c>
       <c r="AA96">
         <f>INT(POWER(X96+(AB96*0.25),3))+40</f>
-        <v>1768</v>
+        <v>2500</v>
       </c>
       <c r="AB96">
         <v>12</v>
       </c>
       <c r="AC96">
         <f>INT(50+(X96+(AD96*0.25)-1)*POWER(X96+(AD96*0.25),0.5)*10)</f>
-        <v>5698</v>
+        <v>5885</v>
       </c>
       <c r="AD96">
         <v>240</v>
       </c>
       <c r="AE96">
         <f>INT(POWER(X96+(AF96*0.25),3))+40</f>
-        <v>8343</v>
+        <v>10329</v>
       </c>
       <c r="AF96">
         <v>45</v>
       </c>
       <c r="AG96">
         <f>INT(50+(X96+(AH96*0.25)-1)*POWER(X96+(AH96*0.25),0.5)*10)</f>
-        <v>3674</v>
+        <v>3835</v>
       </c>
       <c r="AH96">
         <v>170</v>
       </c>
       <c r="AI96">
         <f>INT(5+(X96+(AJ96*0.25)-1)*POWER(X96+(AJ96*0.25),0.2))</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AJ96">
         <v>180</v>
@@ -11438,50 +11438,50 @@
         <v>260</v>
       </c>
       <c r="W97">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X97">
         <f>1+(W97-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y97">
         <f>INT(POWER(X97+(Z97*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>13308</v>
       </c>
       <c r="Z97">
         <v>35</v>
       </c>
       <c r="AA97">
         <f t="shared" ref="AA97:AA98" si="98">INT(POWER(X97+(AB97*0.25),3))+40</f>
-        <v>2237</v>
+        <v>3088</v>
       </c>
       <c r="AB97">
         <v>15</v>
       </c>
       <c r="AC97">
         <f>INT(50+(X97+(AD97*0.25)-1)*POWER(X97+(AD97*0.25),0.5)*10)</f>
-        <v>4971</v>
+        <v>5149</v>
       </c>
       <c r="AD97">
         <v>215</v>
       </c>
       <c r="AE97">
         <f>INT(POWER(X97+(AF97*0.25),3))+40</f>
-        <v>4331</v>
+        <v>5632</v>
       </c>
       <c r="AF97">
         <v>28</v>
       </c>
       <c r="AG97">
         <f>INT(50+(X97+(AH97*0.25)-1)*POWER(X97+(AH97*0.25),0.5)*10)</f>
-        <v>3436</v>
+        <v>3594</v>
       </c>
       <c r="AH97">
         <v>160</v>
       </c>
       <c r="AI97">
         <f>INT(5+(X97+(AJ97*0.25)-1)*POWER(X97+(AJ97*0.25),0.2))</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ97">
         <v>160</v>
@@ -11518,50 +11518,50 @@
         <v>263</v>
       </c>
       <c r="W98">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X98">
         <f>1+(W98-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y98">
         <f>INT(POWER(X98+(Z98*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>13308</v>
       </c>
       <c r="Z98">
         <v>34</v>
       </c>
       <c r="AA98">
         <f t="shared" si="98"/>
-        <v>2500</v>
+        <v>3415</v>
       </c>
       <c r="AB98">
         <v>16</v>
       </c>
       <c r="AC98">
         <f>INT(50+(X98+(AD98*0.25)-1)*POWER(X98+(AD98*0.25),0.5)*10)</f>
-        <v>5149</v>
+        <v>5330</v>
       </c>
       <c r="AD98">
         <v>220</v>
       </c>
       <c r="AE98">
         <f>INT(POWER(X98+(AF98*0.25),3))+40</f>
-        <v>8343</v>
+        <v>10329</v>
       </c>
       <c r="AF98">
         <v>43</v>
       </c>
       <c r="AG98">
         <f>INT(50+(X98+(AH98*0.25)-1)*POWER(X98+(AH98*0.25),0.5)*10)</f>
-        <v>3999</v>
+        <v>4165</v>
       </c>
       <c r="AH98">
         <v>180</v>
       </c>
       <c r="AI98">
         <f>INT(5+(X98+(AJ98*0.25)-1)*POWER(X98+(AJ98*0.25),0.2))</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AJ98">
         <v>190</v>
@@ -13085,50 +13085,50 @@
         <v>326</v>
       </c>
       <c r="W116">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X116">
         <f>1+(W116-1)*0.25</f>
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y116">
         <f>INT(POWER(X116+(Z116*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>14352</v>
       </c>
       <c r="Z116">
         <v>40</v>
       </c>
       <c r="AA116">
         <f>INT(POWER(X116+(AB116*0.25),3))+40</f>
-        <v>709</v>
+        <v>1116</v>
       </c>
       <c r="AB116">
         <v>0</v>
       </c>
       <c r="AC116">
         <f>INT(50+(X116+(AD116*0.25)-1)*POWER(X116+(AD116*0.25),0.5)*10)</f>
-        <v>3917</v>
+        <v>4082</v>
       </c>
       <c r="AD116">
         <v>180</v>
       </c>
       <c r="AE116">
         <f>INT(POWER(X116+(AF116*0.25),3))+40</f>
-        <v>6631</v>
+        <v>8343</v>
       </c>
       <c r="AF116">
         <v>40</v>
       </c>
       <c r="AG116">
         <f>INT(50+(X116+(AH116*0.25)-1)*POWER(X116+(AH116*0.25),0.5)*10)</f>
-        <v>4476</v>
+        <v>4649</v>
       </c>
       <c r="AH116">
         <v>200</v>
       </c>
       <c r="AI116">
         <f>INT(5+(X116+(AJ116*0.25)-1)*POWER(X116+(AJ116*0.25),0.2))</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -13152,50 +13152,50 @@
         <v>329</v>
       </c>
       <c r="W117">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X117">
         <f>1+(W117-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y117">
         <f>INT(POWER(X117+(Z117*0.25),2)*35)</f>
-        <v>11027</v>
+        <v>12969</v>
       </c>
       <c r="Z117">
         <v>35</v>
       </c>
       <c r="AA117">
         <f>INT(POWER(X117+(AB117*0.25),3))+40</f>
-        <v>6899</v>
+        <v>8655</v>
       </c>
       <c r="AB117">
         <v>40</v>
       </c>
       <c r="AC117">
         <f>INT(50+(X117+(AD117*0.25)-1)*POWER(X117+(AD117*0.25),0.5)*10)</f>
-        <v>4221</v>
+        <v>4390</v>
       </c>
       <c r="AD117">
         <v>190</v>
       </c>
       <c r="AE117">
         <f>INT(POWER(X117+(AF117*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
         <f>INT(50+(X117+(AH117*0.25)-1)*POWER(X117+(AH117*0.25),0.5)*10)</f>
-        <v>3674</v>
+        <v>3835</v>
       </c>
       <c r="AH117">
         <v>170</v>
       </c>
       <c r="AI117">
         <f>INT(5+(X117+(AJ117*0.25)-1)*POWER(X117+(AJ117*0.25),0.2))</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AJ117">
         <v>200</v>
@@ -13407,50 +13407,50 @@
         <v>338</v>
       </c>
       <c r="W120">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X120">
         <f>1+(W120-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y120">
         <f>INT(POWER(X120+(Z120*0.25),2)*35)</f>
-        <v>11978</v>
+        <v>14000</v>
       </c>
       <c r="Z120">
         <v>36</v>
       </c>
       <c r="AA120">
         <f>INT(POWER(X120+(AB120*0.25),3))+40</f>
-        <v>6899</v>
+        <v>8655</v>
       </c>
       <c r="AB120">
         <v>38</v>
       </c>
       <c r="AC120">
         <f>INT(50+(X120+(AD120*0.25)-1)*POWER(X120+(AD120*0.25),0.5)*10)</f>
-        <v>4277</v>
+        <v>4447</v>
       </c>
       <c r="AD120">
         <v>190</v>
       </c>
       <c r="AE120">
         <f>INT(POWER(X120+(AF120*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF120">
         <v>0</v>
       </c>
       <c r="AG120">
         <f>INT(50+(X120+(AH120*0.25)-1)*POWER(X120+(AH120*0.25),0.5)*10)</f>
-        <v>3727</v>
+        <v>3890</v>
       </c>
       <c r="AH120">
         <v>170</v>
       </c>
       <c r="AI120">
         <f>INT(5+(X120+(AJ120*0.25)-1)*POWER(X120+(AJ120*0.25),0.2))</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AJ120">
         <v>250</v>
@@ -13534,50 +13534,50 @@
         <v>346</v>
       </c>
       <c r="W121">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X121">
         <f>1+(W121-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y121">
         <f>INT(POWER(X121+(Z121*0.25),2)*35)</f>
-        <v>11657</v>
+        <v>13652</v>
       </c>
       <c r="Z121">
         <v>35</v>
       </c>
       <c r="AA121">
         <f>INT(POWER(X121+(AB121*0.25),3))+40</f>
-        <v>7173</v>
+        <v>8974</v>
       </c>
       <c r="AB121">
         <v>39</v>
       </c>
       <c r="AC121">
         <f>INT(50+(X121+(AD121*0.25)-1)*POWER(X121+(AD121*0.25),0.5)*10)</f>
-        <v>4277</v>
+        <v>4447</v>
       </c>
       <c r="AD121">
         <v>190</v>
       </c>
       <c r="AE121">
         <f>INT(POWER(X121+(AF121*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF121">
         <v>0</v>
       </c>
       <c r="AG121">
         <f>INT(50+(X121+(AH121*0.25)-1)*POWER(X121+(AH121*0.25),0.5)*10)</f>
-        <v>3999</v>
+        <v>4165</v>
       </c>
       <c r="AH121">
         <v>180</v>
       </c>
       <c r="AI121">
         <f>INT(5+(X121+(AJ121*0.25)-1)*POWER(X121+(AJ121*0.25),0.2))</f>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AJ121">
         <v>230</v>
@@ -13661,50 +13661,50 @@
         <v>348</v>
       </c>
       <c r="W122">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X122">
         <f>1+(W122-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y122">
         <f>INT(POWER(X122+(Z122*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>11978</v>
       </c>
       <c r="Z122">
         <v>31</v>
       </c>
       <c r="AA122">
         <f>INT(POWER(X122+(AB122*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AB122">
         <v>0</v>
       </c>
       <c r="AC122">
         <f>INT(50+(X122+(AD122*0.25)-1)*POWER(X122+(AD122*0.25),0.5)*10)</f>
-        <v>3700</v>
+        <v>3862</v>
       </c>
       <c r="AD122">
         <v>170</v>
       </c>
       <c r="AE122">
         <f>INT(POWER(X122+(AF122*0.25),3))+40</f>
-        <v>5872</v>
+        <v>7454</v>
       </c>
       <c r="AF122">
         <v>35</v>
       </c>
       <c r="AG122">
         <f>INT(50+(X122+(AH122*0.25)-1)*POWER(X122+(AH122*0.25),0.5)*10)</f>
-        <v>4249</v>
+        <v>4419</v>
       </c>
       <c r="AH122">
         <v>190</v>
       </c>
       <c r="AI122">
         <f>INT(5+(X122+(AJ122*0.25)-1)*POWER(X122+(AJ122*0.25),0.2))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ122">
         <v>0</v>
@@ -13723,6 +13723,9 @@
       <c r="A123" s="1" t="s">
         <v>597</v>
       </c>
+      <c r="W123">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B124" s="12" t="s">
@@ -13923,50 +13926,50 @@
         <v>358</v>
       </c>
       <c r="W125">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X125">
         <f>1+(W125-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y125">
         <f>INT(POWER(X125+(Z125*0.25),2)*35)</f>
-        <v>11657</v>
+        <v>13652</v>
       </c>
       <c r="Z125">
         <v>35</v>
       </c>
       <c r="AA125">
         <f>INT(POWER(X125+(AB125*0.25),3))+40</f>
-        <v>8040</v>
+        <v>9978</v>
       </c>
       <c r="AB125">
         <v>42</v>
       </c>
       <c r="AC125">
         <f>INT(50+(X125+(AD125*0.25)-1)*POWER(X125+(AD125*0.25),0.5)*10)</f>
-        <v>4277</v>
+        <v>4447</v>
       </c>
       <c r="AD125">
         <v>190</v>
       </c>
       <c r="AE125">
         <f>INT(POWER(X125+(AF125*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
         <f>INT(50+(X125+(AH125*0.25)-1)*POWER(X125+(AH125*0.25),0.5)*10)</f>
-        <v>3462</v>
+        <v>3620</v>
       </c>
       <c r="AH125">
         <v>160</v>
       </c>
       <c r="AI125">
         <f>INT(5+(X125+(AJ125*0.25)-1)*POWER(X125+(AJ125*0.25),0.2))</f>
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AJ125">
         <v>220</v>
@@ -13993,50 +13996,50 @@
         <v>361</v>
       </c>
       <c r="W126">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X126">
         <f>1+(W126-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y126">
         <f>INT(POWER(X126+(Z126*0.25),2)*35)</f>
-        <v>9819</v>
+        <v>11657</v>
       </c>
       <c r="Z126">
         <v>30</v>
       </c>
       <c r="AA126">
         <f>INT(POWER(X126+(AB126*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AB126">
         <v>0</v>
       </c>
       <c r="AC126">
         <f>INT(50+(X126+(AD126*0.25)-1)*POWER(X126+(AD126*0.25),0.5)*10)</f>
-        <v>3700</v>
+        <v>3862</v>
       </c>
       <c r="AD126">
         <v>170</v>
       </c>
       <c r="AE126">
         <f>INT(POWER(X126+(AF126*0.25),3))+40</f>
-        <v>4739</v>
+        <v>6118</v>
       </c>
       <c r="AF126">
         <v>30</v>
       </c>
       <c r="AG126">
         <f>INT(50+(X126+(AH126*0.25)-1)*POWER(X126+(AH126*0.25),0.5)*10)</f>
-        <v>3972</v>
+        <v>4137</v>
       </c>
       <c r="AH126">
         <v>180</v>
       </c>
       <c r="AI126">
         <f>INT(5+(X126+(AJ126*0.25)-1)*POWER(X126+(AJ126*0.25),0.2))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ126">
         <v>0</v>
@@ -14118,50 +14121,50 @@
         <v>363</v>
       </c>
       <c r="W128">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X128">
         <f>1+(W128-1)*0.25</f>
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y128">
         <f>INT(POWER(X128+(Z128*0.25),2)*35)</f>
-        <v>41658</v>
+        <v>42264</v>
       </c>
       <c r="Z128">
         <v>95</v>
       </c>
       <c r="AA128">
         <f>INT(POWER(X128+(AB128*0.25),3))+40</f>
-        <v>6118</v>
+        <v>6371</v>
       </c>
       <c r="AB128">
         <v>30</v>
       </c>
       <c r="AC128">
         <f>INT(50+(X128+(AD128*0.25)-1)*POWER(X128+(AD128*0.25),0.5)*10)</f>
-        <v>4707</v>
+        <v>4736</v>
       </c>
       <c r="AD128">
         <v>200</v>
       </c>
       <c r="AE128">
         <f>INT(POWER(X128+(AF128*0.25),3))+40</f>
-        <v>10329</v>
+        <v>10688</v>
       </c>
       <c r="AF128">
         <v>44</v>
       </c>
       <c r="AG128">
         <f>INT(50+(X128+(AH128*0.25)-1)*POWER(X128+(AH128*0.25),0.5)*10)</f>
-        <v>4562</v>
+        <v>4591</v>
       </c>
       <c r="AH128">
         <v>195</v>
       </c>
       <c r="AI128">
         <f>INT(5+(X128+(AJ128*0.25)-1)*POWER(X128+(AJ128*0.25),0.2))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ128">
         <v>0</v>
@@ -14188,50 +14191,50 @@
         <v>367</v>
       </c>
       <c r="W129">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X129">
         <f>1+(W129-1)*0.25</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y129">
         <f>INT(POWER(X129+(Z129*0.25),2)*35)</f>
-        <v>11657</v>
+        <v>13652</v>
       </c>
       <c r="Z129">
         <v>33</v>
       </c>
       <c r="AA129">
         <f>INT(POWER(X129+(AB129*0.25),3))+40</f>
-        <v>10688</v>
+        <v>13017</v>
       </c>
       <c r="AB129">
         <v>48</v>
       </c>
       <c r="AC129">
         <f>INT(50+(X129+(AD129*0.25)-1)*POWER(X129+(AD129*0.25),0.5)*10)</f>
-        <v>5209</v>
+        <v>5391</v>
       </c>
       <c r="AD129">
         <v>220</v>
       </c>
       <c r="AE129">
         <f>INT(POWER(X129+(AF129*0.25),3))+40</f>
-        <v>11430</v>
+        <v>13864</v>
       </c>
       <c r="AF129">
         <v>50</v>
       </c>
       <c r="AG129">
         <f>INT(50+(X129+(AH129*0.25)-1)*POWER(X129+(AH129*0.25),0.5)*10)</f>
-        <v>3514</v>
+        <v>3674</v>
       </c>
       <c r="AH129">
         <v>160</v>
       </c>
       <c r="AI129">
         <f>INT(5+(X129+(AJ129*0.25)-1)*POWER(X129+(AJ129*0.25),0.2))</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AJ129">
         <v>250</v>
@@ -14252,50 +14255,50 @@
         <v>370</v>
       </c>
       <c r="W130">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="X130">
         <f>1+(W130-1)*0.25</f>
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y130">
         <f>INT(POWER(X130+(Z130*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>14352</v>
       </c>
       <c r="Z130">
         <v>34</v>
       </c>
       <c r="AA130">
         <f>INT(POWER(X130+(AB130*0.25),3))+40</f>
-        <v>11430</v>
+        <v>13864</v>
       </c>
       <c r="AB130">
         <v>49</v>
       </c>
       <c r="AC130">
         <f>INT(50+(X130+(AD130*0.25)-1)*POWER(X130+(AD130*0.25),0.5)*10)</f>
-        <v>5544</v>
+        <v>5729</v>
       </c>
       <c r="AD130">
         <v>230</v>
       </c>
       <c r="AE130">
         <f>INT(POWER(X130+(AF130*0.25),3))+40</f>
-        <v>16138</v>
+        <v>19181</v>
       </c>
       <c r="AF130">
         <v>60</v>
       </c>
       <c r="AG130">
         <f>INT(50+(X130+(AH130*0.25)-1)*POWER(X130+(AH130*0.25),0.5)*10)</f>
-        <v>3808</v>
+        <v>3972</v>
       </c>
       <c r="AH130">
         <v>170</v>
       </c>
       <c r="AI130">
         <f>INT(5+(X130+(AJ130*0.25)-1)*POWER(X130+(AJ130*0.25),0.2))</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AJ130">
         <v>260</v>
@@ -14311,6 +14314,9 @@
       <c r="A131" s="1" t="s">
         <v>599</v>
       </c>
+      <c r="W131">
+        <v>6</v>
+      </c>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B132" s="12" t="s">
@@ -14511,50 +14517,50 @@
         <v>378</v>
       </c>
       <c r="W133">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X133">
         <f>1+(W133-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>8139</v>
+        <v>9819</v>
       </c>
       <c r="Z133">
         <v>25</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
-        <v>9978</v>
+        <v>12207</v>
       </c>
       <c r="AB133">
         <v>50</v>
       </c>
       <c r="AC133">
         <f>INT(50+(X133+(AD133*0.25)-1)*POWER(X133+(AD133*0.25),0.5)*10)</f>
-        <v>3674</v>
+        <v>3835</v>
       </c>
       <c r="AD133">
         <v>170</v>
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
-        <v>3152</v>
+        <v>3306</v>
       </c>
       <c r="AH133">
         <v>150</v>
       </c>
       <c r="AI133">
         <f>INT(5+(X133+(AJ133*0.25)-1)*POWER(X133+(AJ133*0.25),0.2))</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AJ133">
         <v>240</v>
@@ -14635,50 +14641,50 @@
         <v>384</v>
       </c>
       <c r="W134">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X134">
         <f>1+(W134-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y134">
         <f>INT(POWER(X134+(Z134*0.25),2)*35)</f>
-        <v>8408</v>
+        <v>10115</v>
       </c>
       <c r="Z134">
         <v>25</v>
       </c>
       <c r="AA134">
         <f>INT(POWER(X134+(AB134*0.25),3))+40</f>
-        <v>8040</v>
+        <v>9978</v>
       </c>
       <c r="AB134">
         <v>43</v>
       </c>
       <c r="AC134">
         <f>INT(50+(X134+(AD134*0.25)-1)*POWER(X134+(AD134*0.25),0.5)*10)</f>
-        <v>3436</v>
+        <v>3594</v>
       </c>
       <c r="AD134">
         <v>160</v>
       </c>
       <c r="AE134">
         <f>INT(POWER(X134+(AF134*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AF134">
         <v>0</v>
       </c>
       <c r="AG134">
         <f>INT(50+(X134+(AH134*0.25)-1)*POWER(X134+(AH134*0.25),0.5)*10)</f>
-        <v>3051</v>
+        <v>3203</v>
       </c>
       <c r="AH134">
         <v>145</v>
       </c>
       <c r="AI134">
         <f>INT(5+(X134+(AJ134*0.25)-1)*POWER(X134+(AJ134*0.25),0.2))</f>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AJ134">
         <v>220</v>
@@ -14702,50 +14708,50 @@
         <v>387</v>
       </c>
       <c r="W135">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X135">
         <f>1+(W135-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y135">
         <f>INT(POWER(X135+(Z135*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>10414</v>
       </c>
       <c r="Z135">
         <v>25</v>
       </c>
       <c r="AA135">
         <f>INT(POWER(X135+(AB135*0.25),3))+40</f>
-        <v>8343</v>
+        <v>10329</v>
       </c>
       <c r="AB135">
         <v>43</v>
       </c>
       <c r="AC135">
         <f>INT(50+(X135+(AD135*0.25)-1)*POWER(X135+(AD135*0.25),0.5)*10)</f>
-        <v>3462</v>
+        <v>3620</v>
       </c>
       <c r="AD135">
         <v>160</v>
       </c>
       <c r="AE135">
         <f>INT(POWER(X135+(AF135*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
         <f>INT(50+(X135+(AH135*0.25)-1)*POWER(X135+(AH135*0.25),0.5)*10)</f>
-        <v>3076</v>
+        <v>3229</v>
       </c>
       <c r="AH135">
         <v>145</v>
       </c>
       <c r="AI135">
         <f>INT(5+(X135+(AJ135*0.25)-1)*POWER(X135+(AJ135*0.25),0.2))</f>
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AJ135">
         <v>230</v>
@@ -14897,50 +14903,50 @@
         <v>394</v>
       </c>
       <c r="W138">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X138">
         <f t="shared" ref="X138:X140" si="99">1+(W138-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y138">
         <f>INT(POWER(X138+(Z138*0.25),2)*35)</f>
-        <v>7107</v>
+        <v>8682</v>
       </c>
       <c r="Z138">
         <v>20</v>
       </c>
       <c r="AA138">
         <f>INT(POWER(X138+(AB138*0.25),3))+40</f>
-        <v>11814</v>
+        <v>14300</v>
       </c>
       <c r="AB138">
         <v>54</v>
       </c>
       <c r="AC138">
         <f>INT(50+(X138+(AD138*0.25)-1)*POWER(X138+(AD138*0.25),0.5)*10)</f>
-        <v>3835</v>
+        <v>3999</v>
       </c>
       <c r="AD138">
         <v>175</v>
       </c>
       <c r="AE138">
         <f>INT(POWER(X138+(AF138*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AF138">
         <v>0</v>
       </c>
       <c r="AG138">
         <f>INT(50+(X138+(AH138*0.25)-1)*POWER(X138+(AH138*0.25),0.5)*10)</f>
-        <v>3700</v>
+        <v>3862</v>
       </c>
       <c r="AH138">
         <v>170</v>
       </c>
       <c r="AI138">
         <f>INT(5+(X138+(AJ138*0.25)-1)*POWER(X138+(AJ138*0.25),0.2))</f>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AJ138">
         <v>255</v>
@@ -14967,50 +14973,50 @@
         <v>397</v>
       </c>
       <c r="W139">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X139">
         <f t="shared" si="99"/>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>7358</v>
+        <v>8960</v>
       </c>
       <c r="Z139">
         <v>20</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>12207</v>
+        <v>14746</v>
       </c>
       <c r="AB139">
         <v>54</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
-        <v>3727</v>
+        <v>3890</v>
       </c>
       <c r="AD139">
         <v>170</v>
       </c>
       <c r="AE139">
         <f>INT(POWER(X139+(AF139*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF139">
         <v>0</v>
       </c>
       <c r="AG139">
         <f>INT(50+(X139+(AH139*0.25)-1)*POWER(X139+(AH139*0.25),0.5)*10)</f>
-        <v>3594</v>
+        <v>3754</v>
       </c>
       <c r="AH139">
         <v>165</v>
       </c>
       <c r="AI139">
         <f>INT(5+(X139+(AJ139*0.25)-1)*POWER(X139+(AJ139*0.25),0.2))</f>
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AJ139">
         <v>260</v>
@@ -15037,50 +15043,50 @@
         <v>400</v>
       </c>
       <c r="W140">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X140">
         <f t="shared" si="99"/>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y140">
         <f>INT(POWER(X140+(Z140*0.25),2)*35)</f>
-        <v>8139</v>
+        <v>9819</v>
       </c>
       <c r="Z140">
         <v>23</v>
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>9978</v>
+        <v>12207</v>
       </c>
       <c r="AB140">
         <v>48</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
-        <v>3999</v>
+        <v>4165</v>
       </c>
       <c r="AD140">
         <v>180</v>
       </c>
       <c r="AE140">
         <f>INT(POWER(X140+(AF140*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF140">
         <v>0</v>
       </c>
       <c r="AG140">
         <f>INT(50+(X140+(AH140*0.25)-1)*POWER(X140+(AH140*0.25),0.5)*10)</f>
-        <v>3862</v>
+        <v>4027</v>
       </c>
       <c r="AH140">
         <v>175</v>
       </c>
       <c r="AI140">
         <f>INT(5+(X140+(AJ140*0.25)-1)*POWER(X140+(AJ140*0.25),0.2))</f>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AJ140">
         <v>265</v>
@@ -15101,6 +15107,7 @@
       </c>
       <c r="B141" s="15"/>
       <c r="U141" s="15"/>
+      <c r="W141"/>
     </row>
     <row r="142" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
@@ -15170,51 +15177,51 @@
       <c r="V142" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="W142" s="9">
-        <v>6</v>
+      <c r="W142">
+        <v>12</v>
       </c>
       <c r="X142" s="9">
         <f>1+(W142-1)*0.25</f>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y142" s="9">
         <f>INT(POWER(X142+(Z142*0.25),2)*35)</f>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z142" s="9">
         <v>0</v>
       </c>
       <c r="AA142" s="9">
         <f>INT(POWER(X142+(AB142*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB142" s="9">
         <v>0</v>
       </c>
       <c r="AC142" s="9">
         <f>INT(50+(X142+(AD142*0.25)-1)*POWER(X142+(AD142*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD142" s="9">
         <v>0</v>
       </c>
       <c r="AE142" s="9">
         <f>INT(POWER(X142+(AF142*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF142" s="9">
         <v>0</v>
       </c>
       <c r="AG142" s="9">
         <f>INT(50+(X142+(AH142*0.25)-1)*POWER(X142+(AH142*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH142" s="9">
         <v>0</v>
       </c>
       <c r="AI142" s="9">
         <f>INT(5+(X142+(AJ142*0.25)-1)*POWER(X142+(AJ142*0.25),0.2))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ142" s="9">
         <v>0</v>
@@ -15297,51 +15304,51 @@
       <c r="V143" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="W143" s="9">
-        <v>6</v>
+      <c r="W143">
+        <v>12</v>
       </c>
       <c r="X143" s="9">
         <f>1+(W143-1)*0.25</f>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y143" s="9">
         <f>INT(POWER(X143+(Z143*0.25),2)*35)</f>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z143" s="9">
         <v>0</v>
       </c>
       <c r="AA143" s="9">
         <f>INT(POWER(X143+(AB143*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB143" s="9">
         <v>0</v>
       </c>
       <c r="AC143" s="9">
         <f>INT(50+(X143+(AD143*0.25)-1)*POWER(X143+(AD143*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD143" s="9">
         <v>0</v>
       </c>
       <c r="AE143" s="9">
         <f>INT(POWER(X143+(AF143*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF143" s="9">
         <v>0</v>
       </c>
       <c r="AG143" s="9">
         <f>INT(50+(X143+(AH143*0.25)-1)*POWER(X143+(AH143*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH143" s="9">
         <v>0</v>
       </c>
       <c r="AI143" s="9">
         <f>INT(5+(X143+(AJ143*0.25)-1)*POWER(X143+(AJ143*0.25),0.2))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ143" s="9">
         <v>0</v>
@@ -15424,51 +15431,51 @@
       <c r="V144" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="W144" s="9">
-        <v>6</v>
+      <c r="W144">
+        <v>12</v>
       </c>
       <c r="X144" s="9">
         <f>1+(W144-1)*0.25</f>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y144" s="9">
         <f>INT(POWER(X144+(Z144*0.25),2)*35)</f>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z144" s="9">
         <v>0</v>
       </c>
       <c r="AA144" s="9">
         <f>INT(POWER(X144+(AB144*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB144" s="9">
         <v>0</v>
       </c>
       <c r="AC144" s="9">
         <f>INT(50+(X144+(AD144*0.25)-1)*POWER(X144+(AD144*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD144" s="9">
         <v>0</v>
       </c>
       <c r="AE144" s="9">
         <f>INT(POWER(X144+(AF144*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF144" s="9">
         <v>0</v>
       </c>
       <c r="AG144" s="9">
         <f>INT(50+(X144+(AH144*0.25)-1)*POWER(X144+(AH144*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH144" s="9">
         <v>0</v>
       </c>
       <c r="AI144" s="9">
         <f>INT(5+(X144+(AJ144*0.25)-1)*POWER(X144+(AJ144*0.25),0.2))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ144" s="9">
         <v>0</v>
@@ -15684,50 +15691,50 @@
         <v>426</v>
       </c>
       <c r="W147">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X147">
         <f>1+(W147-1)*0.25</f>
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y147">
         <f>INT(POWER(X147+(Z147*0.25),2)*35)</f>
-        <v>10414</v>
+        <v>12304</v>
       </c>
       <c r="Z147">
         <v>34</v>
       </c>
       <c r="AA147">
         <f>INT(POWER(X147+(AB147*0.25),3))+40</f>
-        <v>5632</v>
+        <v>7173</v>
       </c>
       <c r="AB147">
         <v>36</v>
       </c>
       <c r="AC147">
         <f>INT(50+(X147+(AD147*0.25)-1)*POWER(X147+(AD147*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2083</v>
       </c>
       <c r="AD147">
         <v>100</v>
       </c>
       <c r="AE147">
         <f>INT(POWER(X147+(AF147*0.25),3))+40</f>
-        <v>709</v>
+        <v>1116</v>
       </c>
       <c r="AF147">
         <v>0</v>
       </c>
       <c r="AG147">
         <f>INT(50+(X147+(AH147*0.25)-1)*POWER(X147+(AH147*0.25),0.5)*10)</f>
-        <v>1952</v>
+        <v>2083</v>
       </c>
       <c r="AH147">
         <v>100</v>
       </c>
       <c r="AI147">
         <f>INT(5+(X147+(AJ147*0.25)-1)*POWER(X147+(AJ147*0.25),0.2))</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AJ147">
         <v>120</v>
@@ -15811,50 +15818,50 @@
         <v>432</v>
       </c>
       <c r="W148">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X148">
         <f>1+(W148-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y148">
         <f>INT(POWER(X148+(Z148*0.25),2)*35)</f>
-        <v>9528</v>
+        <v>11340</v>
       </c>
       <c r="Z148">
         <v>30</v>
       </c>
       <c r="AA148">
         <f>INT(POWER(X148+(AB148*0.25),3))+40</f>
-        <v>7173</v>
+        <v>8974</v>
       </c>
       <c r="AB148">
         <v>41</v>
       </c>
       <c r="AC148">
         <f>INT(50+(X148+(AD148*0.25)-1)*POWER(X148+(AD148*0.25),0.5)*10)</f>
-        <v>2083</v>
+        <v>2217</v>
       </c>
       <c r="AD148">
         <v>105</v>
       </c>
       <c r="AE148">
         <f>INT(POWER(X148+(AF148*0.25),3))+40</f>
-        <v>769</v>
+        <v>1197</v>
       </c>
       <c r="AF148">
         <v>0</v>
       </c>
       <c r="AG148">
         <f>INT(50+(X148+(AH148*0.25)-1)*POWER(X148+(AH148*0.25),0.5)*10)</f>
-        <v>2194</v>
+        <v>2330</v>
       </c>
       <c r="AH148">
         <v>110</v>
       </c>
       <c r="AI148">
         <f>INT(5+(X148+(AJ148*0.25)-1)*POWER(X148+(AJ148*0.25),0.2))</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AJ148">
         <v>125</v>
@@ -15878,50 +15885,50 @@
         <v>435</v>
       </c>
       <c r="W149">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X149">
         <f>1+(W149-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y149">
         <f>INT(POWER(X149+(Z149*0.25),2)*35)</f>
-        <v>10718</v>
+        <v>12635</v>
       </c>
       <c r="Z149">
         <v>33</v>
       </c>
       <c r="AA149">
         <f>INT(POWER(X149+(AB149*0.25),3))+40</f>
-        <v>5399</v>
+        <v>6899</v>
       </c>
       <c r="AB149">
         <v>33</v>
       </c>
       <c r="AC149">
         <f>INT(50+(X149+(AD149*0.25)-1)*POWER(X149+(AD149*0.25),0.5)*10)</f>
-        <v>2683</v>
+        <v>2828</v>
       </c>
       <c r="AD149">
         <v>130</v>
       </c>
       <c r="AE149">
         <f>INT(POWER(X149+(AF149*0.25),3))+40</f>
-        <v>831</v>
+        <v>1282</v>
       </c>
       <c r="AF149">
         <v>0</v>
       </c>
       <c r="AG149">
         <f>INT(50+(X149+(AH149*0.25)-1)*POWER(X149+(AH149*0.25),0.5)*10)</f>
-        <v>2446</v>
+        <v>2587</v>
       </c>
       <c r="AH149">
         <v>120</v>
       </c>
       <c r="AI149">
         <f>INT(5+(X149+(AJ149*0.25)-1)*POWER(X149+(AJ149*0.25),0.2))</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AJ149">
         <v>110</v>
@@ -15939,6 +15946,7 @@
       </c>
       <c r="B150" s="15"/>
       <c r="U150" s="15"/>
+      <c r="W150"/>
     </row>
     <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
@@ -16008,51 +16016,51 @@
       <c r="V151" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="W151" s="9">
-        <v>6</v>
+      <c r="W151">
+        <v>12</v>
       </c>
       <c r="X151" s="9">
         <f t="shared" ref="X151:X157" si="100">1+(W151-1)*0.25</f>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y151" s="9">
         <f t="shared" ref="Y151:Y157" si="101">INT(POWER(X151+(Z151*0.25),2)*35)</f>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z151" s="9">
         <v>0</v>
       </c>
       <c r="AA151" s="9">
         <f t="shared" ref="AA151:AA157" si="102">INT(POWER(X151+(AB151*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB151" s="9">
         <v>0</v>
       </c>
       <c r="AC151" s="9">
         <f t="shared" ref="AC151:AC157" si="103">INT(50+(X151+(AD151*0.25)-1)*POWER(X151+(AD151*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD151" s="9">
         <v>0</v>
       </c>
       <c r="AE151" s="9">
         <f t="shared" ref="AE151:AE157" si="104">INT(POWER(X151+(AF151*0.25),3))+40</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF151" s="9">
         <v>0</v>
       </c>
       <c r="AG151" s="9">
         <f t="shared" ref="AG151:AG157" si="105">INT(50+(X151+(AH151*0.25)-1)*POWER(X151+(AH151*0.25),0.5)*10)</f>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH151" s="9">
         <v>0</v>
       </c>
       <c r="AI151" s="9">
         <f t="shared" ref="AI151:AI157" si="106">INT(5+(X151+(AJ151*0.25)-1)*POWER(X151+(AJ151*0.25),0.2))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ151" s="9">
         <v>0</v>
@@ -16135,51 +16143,51 @@
       <c r="V152" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="W152" s="9">
-        <v>6</v>
+      <c r="W152">
+        <v>12</v>
       </c>
       <c r="X152" s="9">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y152" s="9">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z152" s="9">
         <v>0</v>
       </c>
       <c r="AA152" s="9">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB152" s="9">
         <v>0</v>
       </c>
       <c r="AC152" s="9">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD152" s="9">
         <v>0</v>
       </c>
       <c r="AE152" s="9">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF152" s="9">
         <v>0</v>
       </c>
       <c r="AG152" s="9">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH152" s="9">
         <v>0</v>
       </c>
       <c r="AI152" s="9">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ152" s="9">
         <v>0</v>
@@ -16262,51 +16270,51 @@
       <c r="V153" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="W153" s="9">
-        <v>6</v>
+      <c r="W153">
+        <v>12</v>
       </c>
       <c r="X153" s="9">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y153" s="9">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z153" s="9">
         <v>0</v>
       </c>
       <c r="AA153" s="9">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB153" s="9">
         <v>0</v>
       </c>
       <c r="AC153" s="9">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD153" s="9">
         <v>0</v>
       </c>
       <c r="AE153" s="9">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF153" s="9">
         <v>0</v>
       </c>
       <c r="AG153" s="9">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH153" s="9">
         <v>0</v>
       </c>
       <c r="AI153" s="9">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ153" s="9">
         <v>0</v>
@@ -16329,50 +16337,50 @@
         <v>461</v>
       </c>
       <c r="W154">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X154">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y154">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z154">
         <v>0</v>
       </c>
       <c r="AA154">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB154">
         <v>0</v>
       </c>
       <c r="AC154">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD154">
         <v>0</v>
       </c>
       <c r="AE154">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF154">
         <v>0</v>
       </c>
       <c r="AG154">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
       <c r="AI154">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ154">
         <v>0</v>
@@ -16399,50 +16407,50 @@
         <v>465</v>
       </c>
       <c r="W155">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X155">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y155">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD155">
         <v>0</v>
       </c>
       <c r="AE155">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF155">
         <v>0</v>
       </c>
       <c r="AG155">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ155">
         <v>0</v>
@@ -16469,50 +16477,50 @@
         <v>468</v>
       </c>
       <c r="W156">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X156">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y156">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z156">
         <v>0</v>
       </c>
       <c r="AA156">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB156">
         <v>0</v>
       </c>
       <c r="AC156">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD156">
         <v>0</v>
       </c>
       <c r="AE156">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF156">
         <v>0</v>
       </c>
       <c r="AG156">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
       <c r="AI156">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ156">
         <v>0</v>
@@ -16539,50 +16547,50 @@
         <v>471</v>
       </c>
       <c r="W157">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X157">
         <f t="shared" si="100"/>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y157">
         <f t="shared" si="101"/>
-        <v>177</v>
+        <v>492</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
         <f t="shared" si="102"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AB157">
         <v>0</v>
       </c>
       <c r="AC157">
         <f t="shared" si="103"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AD157">
         <v>0</v>
       </c>
       <c r="AE157">
         <f t="shared" si="104"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AF157">
         <v>0</v>
       </c>
       <c r="AG157">
         <f t="shared" si="105"/>
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
       <c r="AI157">
         <f t="shared" si="106"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ157">
         <v>0</v>
@@ -16791,50 +16799,50 @@
         <v>477</v>
       </c>
       <c r="W160">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X160">
         <f>1+(W160-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y160">
         <f>INT(POWER(X160+(Z160*0.25),2)*35)</f>
-        <v>11657</v>
+        <v>13652</v>
       </c>
       <c r="Z160">
         <v>37</v>
       </c>
       <c r="AA160">
         <f>INT(POWER(X160+(AB160*0.25),3))+40</f>
-        <v>10329</v>
+        <v>12608</v>
       </c>
       <c r="AB160">
         <v>51</v>
       </c>
       <c r="AC160">
         <f>INT(50+(X160+(AD160*0.25)-1)*POWER(X160+(AD160*0.25),0.5)*10)</f>
-        <v>5391</v>
+        <v>5574</v>
       </c>
       <c r="AD160">
         <v>230</v>
       </c>
       <c r="AE160">
         <f>INT(POWER(X160+(AF160*0.25),3))+40</f>
-        <v>1560</v>
+        <v>2237</v>
       </c>
       <c r="AF160">
         <v>10</v>
       </c>
       <c r="AG160">
         <f>INT(50+(X160+(AH160*0.25)-1)*POWER(X160+(AH160*0.25),0.5)*10)</f>
-        <v>5090</v>
+        <v>5270</v>
       </c>
       <c r="AH160">
         <v>220</v>
       </c>
       <c r="AI160">
         <f>INT(5+(X160+(AJ160*0.25)-1)*POWER(X160+(AJ160*0.25),0.2))</f>
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AJ160">
         <v>270</v>
@@ -16858,50 +16866,50 @@
         <v>480</v>
       </c>
       <c r="W161">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X161">
         <f>1+(W161-1)*0.25</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y161">
         <f>INT(POWER(X161+(Z161*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>14352</v>
       </c>
       <c r="Z161">
         <v>38</v>
       </c>
       <c r="AA161">
         <f>INT(POWER(X161+(AB161*0.25),3))+40</f>
-        <v>1662</v>
+        <v>2366</v>
       </c>
       <c r="AB161">
         <v>10</v>
       </c>
       <c r="AC161">
         <f>INT(50+(X161+(AD161*0.25)-1)*POWER(X161+(AD161*0.25),0.5)*10)</f>
-        <v>4823</v>
+        <v>5000</v>
       </c>
       <c r="AD161">
         <v>210</v>
       </c>
       <c r="AE161">
         <f>INT(POWER(X161+(AF161*0.25),3))+40</f>
-        <v>7743</v>
+        <v>9635</v>
       </c>
       <c r="AF161">
         <v>42</v>
       </c>
       <c r="AG161">
         <f>INT(50+(X161+(AH161*0.25)-1)*POWER(X161+(AH161*0.25),0.5)*10)</f>
-        <v>5119</v>
+        <v>5300</v>
       </c>
       <c r="AH161">
         <v>220</v>
       </c>
       <c r="AI161">
         <f>INT(5+(X161+(AJ161*0.25)-1)*POWER(X161+(AJ161*0.25),0.2))</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AJ161">
         <v>120</v>
@@ -16922,50 +16930,50 @@
         <v>483</v>
       </c>
       <c r="W162">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X162">
         <f>1+(W162-1)*0.25</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y162">
         <f>INT(POWER(X162+(Z162*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>13308</v>
       </c>
       <c r="Z162">
         <v>36</v>
       </c>
       <c r="AA162">
         <f>INT(POWER(X162+(AB162*0.25),3))+40</f>
-        <v>1768</v>
+        <v>2500</v>
       </c>
       <c r="AB162">
         <v>12</v>
       </c>
       <c r="AC162">
         <f>INT(50+(X162+(AD162*0.25)-1)*POWER(X162+(AD162*0.25),0.5)*10)</f>
-        <v>6329</v>
+        <v>6523</v>
       </c>
       <c r="AD162">
         <v>260</v>
       </c>
       <c r="AE162">
         <f>INT(POWER(X162+(AF162*0.25),3))+40</f>
-        <v>9978</v>
+        <v>12207</v>
       </c>
       <c r="AF162">
         <v>50</v>
       </c>
       <c r="AG162">
         <f>INT(50+(X162+(AH162*0.25)-1)*POWER(X162+(AH162*0.25),0.5)*10)</f>
-        <v>6329</v>
+        <v>6523</v>
       </c>
       <c r="AH162">
         <v>260</v>
       </c>
       <c r="AI162">
         <f>INT(5+(X162+(AJ162*0.25)-1)*POWER(X162+(AJ162*0.25),0.2))</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AJ162">
         <v>240</v>
@@ -17051,50 +17059,50 @@
         <v>486</v>
       </c>
       <c r="W164">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X164">
         <f>1+(W164-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y164">
         <f>INT(POWER(X164+(Z164*0.25),2)*35)</f>
-        <v>16940</v>
+        <v>19328</v>
       </c>
       <c r="Z164">
         <v>50</v>
       </c>
       <c r="AA164">
         <f>INT(POWER(X164+(AB164*0.25),3))+40</f>
-        <v>8974</v>
+        <v>11055</v>
       </c>
       <c r="AB164">
         <v>45</v>
       </c>
       <c r="AC164">
         <f>INT(50+(X164+(AD164*0.25)-1)*POWER(X164+(AD164*0.25),0.5)*10)</f>
-        <v>8422</v>
+        <v>8635</v>
       </c>
       <c r="AD164">
         <v>320</v>
       </c>
       <c r="AE164">
         <f>INT(POWER(X164+(AF164*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF164">
         <v>0</v>
       </c>
       <c r="AG164">
         <f>INT(50+(X164+(AH164*0.25)-1)*POWER(X164+(AH164*0.25),0.5)*10)</f>
-        <v>3306</v>
+        <v>3462</v>
       </c>
       <c r="AH164">
         <v>154</v>
       </c>
       <c r="AI164">
         <f>INT(5+(X164+(AJ164*0.25)-1)*POWER(X164+(AJ164*0.25),0.2))</f>
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AJ164">
         <v>267</v>
@@ -17175,50 +17183,50 @@
         <v>495</v>
       </c>
       <c r="W165">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="X165">
         <f>1+(W165-1)*0.25</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y165">
         <f>INT(POWER(X165+(Z165*0.25),2)*35)</f>
-        <v>18515</v>
+        <v>21008</v>
       </c>
       <c r="Z165">
         <v>54</v>
       </c>
       <c r="AA165">
         <f>INT(POWER(X165+(AB165*0.25),3))+40</f>
-        <v>8655</v>
+        <v>10688</v>
       </c>
       <c r="AB165">
         <v>44</v>
       </c>
       <c r="AC165">
         <f>INT(50+(X165+(AD165*0.25)-1)*POWER(X165+(AD165*0.25),0.5)*10)</f>
-        <v>8599</v>
+        <v>8814</v>
       </c>
       <c r="AD165">
         <v>325</v>
       </c>
       <c r="AE165">
         <f>INT(POWER(X165+(AF165*0.25),3))+40</f>
-        <v>897</v>
+        <v>1371</v>
       </c>
       <c r="AF165">
         <v>0</v>
       </c>
       <c r="AG165">
         <f>INT(50+(X165+(AH165*0.25)-1)*POWER(X165+(AH165*0.25),0.5)*10)</f>
-        <v>3203</v>
+        <v>3357</v>
       </c>
       <c r="AH165">
         <v>150</v>
       </c>
       <c r="AI165">
         <f>INT(5+(X165+(AJ165*0.25)-1)*POWER(X165+(AJ165*0.25),0.2))</f>
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AJ165">
         <v>254</v>
@@ -17299,50 +17307,50 @@
         <v>499</v>
       </c>
       <c r="W166">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="X166">
         <f>1+(W166-1)*0.25</f>
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y166">
         <f>INT(POWER(X166+(Z166*0.25),2)*35)</f>
-        <v>19328</v>
+        <v>21875</v>
       </c>
       <c r="Z166">
         <v>55</v>
       </c>
       <c r="AA166">
         <f>INT(POWER(X166+(AB166*0.25),3))+40</f>
-        <v>6371</v>
+        <v>8040</v>
       </c>
       <c r="AB166">
         <v>35</v>
       </c>
       <c r="AC166">
         <f>INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
-        <v>3102</v>
+        <v>3254</v>
       </c>
       <c r="AD166">
         <v>145</v>
       </c>
       <c r="AE166">
         <f>INT(POWER(X166+(AF166*0.25),3))+40</f>
-        <v>9978</v>
+        <v>12207</v>
       </c>
       <c r="AF166">
         <v>47</v>
       </c>
       <c r="AG166">
         <f>INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
-        <v>8814</v>
+        <v>9030</v>
       </c>
       <c r="AH166">
         <v>330</v>
       </c>
       <c r="AI166">
         <f>INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ166">
         <v>45</v>
@@ -17423,50 +17431,50 @@
         <v>502</v>
       </c>
       <c r="W167">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X167">
         <f>1+(W167-1)*0.25</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y167">
         <f>INT(POWER(X167+(Z167*0.25),2)*35)</f>
-        <v>20160</v>
+        <v>22758</v>
       </c>
       <c r="Z167">
         <v>56</v>
       </c>
       <c r="AA167">
         <f>INT(POWER(X167+(AB167*0.25),3))+40</f>
-        <v>9978</v>
+        <v>12207</v>
       </c>
       <c r="AB167">
         <v>46</v>
       </c>
       <c r="AC167">
         <f>INT(50+(X167+(AD167*0.25)-1)*POWER(X167+(AD167*0.25),0.5)*10)</f>
-        <v>9211</v>
+        <v>9431</v>
       </c>
       <c r="AD167">
         <v>340</v>
       </c>
       <c r="AE167">
         <f>INT(POWER(X167+(AF167*0.25),3))+40</f>
-        <v>1040</v>
+        <v>1560</v>
       </c>
       <c r="AF167">
         <v>0</v>
       </c>
       <c r="AG167">
         <f>INT(50+(X167+(AH167*0.25)-1)*POWER(X167+(AH167*0.25),0.5)*10)</f>
-        <v>2853</v>
+        <v>3001</v>
       </c>
       <c r="AH167">
         <v>134</v>
       </c>
       <c r="AI167">
         <f>INT(5+(X167+(AJ167*0.25)-1)*POWER(X167+(AJ167*0.25),0.2))</f>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AJ167">
         <v>267</v>
@@ -18162,50 +18170,50 @@
         <v>512</v>
       </c>
       <c r="W176">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X176">
         <f t="shared" si="107"/>
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="Y176">
         <f t="shared" si="108"/>
-        <v>25515</v>
+        <v>28428</v>
       </c>
       <c r="Z176">
         <v>65</v>
       </c>
       <c r="AA176">
         <f t="shared" si="109"/>
-        <v>1282</v>
+        <v>1878</v>
       </c>
       <c r="AB176">
         <v>0</v>
       </c>
       <c r="AC176">
         <f t="shared" si="110"/>
-        <v>2927</v>
+        <v>3076</v>
       </c>
       <c r="AD176">
         <v>134</v>
       </c>
       <c r="AE176">
         <f t="shared" si="111"/>
-        <v>12608</v>
+        <v>15200</v>
       </c>
       <c r="AF176">
         <v>50</v>
       </c>
       <c r="AG176">
         <f t="shared" si="112"/>
-        <v>9689</v>
+        <v>9912</v>
       </c>
       <c r="AH176">
         <v>350</v>
       </c>
       <c r="AI176">
         <f t="shared" si="113"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ176">
         <v>0</v>
@@ -18282,50 +18290,50 @@
         <v>515</v>
       </c>
       <c r="W177">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X177">
         <f t="shared" si="107"/>
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="Y177">
         <f t="shared" si="108"/>
-        <v>25989</v>
+        <v>28929</v>
       </c>
       <c r="Z177">
         <v>66</v>
       </c>
       <c r="AA177">
         <f t="shared" si="109"/>
-        <v>10688</v>
+        <v>13017</v>
       </c>
       <c r="AB177">
         <v>45</v>
       </c>
       <c r="AC177">
         <f t="shared" si="110"/>
-        <v>9726</v>
+        <v>9950</v>
       </c>
       <c r="AD177">
         <v>351</v>
       </c>
       <c r="AE177">
         <f t="shared" si="111"/>
-        <v>1282</v>
+        <v>1878</v>
       </c>
       <c r="AF177">
         <v>0</v>
       </c>
       <c r="AG177">
         <f t="shared" si="112"/>
-        <v>3488</v>
+        <v>3647</v>
       </c>
       <c r="AH177">
         <v>156</v>
       </c>
       <c r="AI177">
         <f t="shared" si="113"/>
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AJ177">
         <v>300</v>
@@ -18399,50 +18407,50 @@
         <v>519</v>
       </c>
       <c r="W178">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X178">
         <f t="shared" si="107"/>
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="Y178">
         <f t="shared" si="108"/>
-        <v>24117</v>
+        <v>26952</v>
       </c>
       <c r="Z178">
         <v>62</v>
       </c>
       <c r="AA178">
         <f t="shared" si="109"/>
-        <v>1282</v>
+        <v>1878</v>
       </c>
       <c r="AB178">
         <v>0</v>
       </c>
       <c r="AC178">
         <f t="shared" si="110"/>
-        <v>3436</v>
+        <v>3594</v>
       </c>
       <c r="AD178">
         <v>154</v>
       </c>
       <c r="AE178">
         <f t="shared" si="111"/>
-        <v>10688</v>
+        <v>13017</v>
       </c>
       <c r="AF178">
         <v>45</v>
       </c>
       <c r="AG178">
         <f t="shared" si="112"/>
-        <v>8599</v>
+        <v>8814</v>
       </c>
       <c r="AH178">
         <v>320</v>
       </c>
       <c r="AI178">
         <f t="shared" si="113"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ178">
         <v>0</v>
@@ -18463,50 +18471,50 @@
         <v>522</v>
       </c>
       <c r="W179">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X179">
         <f t="shared" si="107"/>
-        <v>10.75</v>
+        <v>12.25</v>
       </c>
       <c r="Y179">
         <f t="shared" si="108"/>
-        <v>26952</v>
+        <v>29944</v>
       </c>
       <c r="Z179">
         <v>68</v>
       </c>
       <c r="AA179">
         <f t="shared" si="109"/>
-        <v>1282</v>
+        <v>1878</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
         <f t="shared" si="110"/>
-        <v>3488</v>
+        <v>3647</v>
       </c>
       <c r="AD179">
         <v>156</v>
       </c>
       <c r="AE179">
         <f t="shared" si="111"/>
-        <v>9635</v>
+        <v>11814</v>
       </c>
       <c r="AF179">
         <v>42</v>
       </c>
       <c r="AG179">
         <f t="shared" si="112"/>
-        <v>9800</v>
+        <v>10024</v>
       </c>
       <c r="AH179">
         <v>353</v>
       </c>
       <c r="AI179">
         <f t="shared" si="113"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ179">
         <v>0</v>
@@ -18845,50 +18853,50 @@
         <v>527</v>
       </c>
       <c r="W183">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X183">
         <f t="shared" si="114"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y183">
         <f t="shared" si="115"/>
-        <v>25515</v>
+        <v>28428</v>
       </c>
       <c r="Z183">
         <v>60</v>
       </c>
       <c r="AA183">
         <f t="shared" si="116"/>
-        <v>17113</v>
+        <v>20274</v>
       </c>
       <c r="AB183">
         <v>55</v>
       </c>
       <c r="AC183">
         <f t="shared" si="117"/>
-        <v>9987</v>
+        <v>10212</v>
       </c>
       <c r="AD183">
         <v>353</v>
       </c>
       <c r="AE183">
         <f t="shared" si="118"/>
-        <v>3088</v>
+        <v>4136</v>
       </c>
       <c r="AF183">
         <v>10</v>
       </c>
       <c r="AG183">
         <f t="shared" si="119"/>
-        <v>4853</v>
+        <v>5030</v>
       </c>
       <c r="AH183">
         <v>200</v>
       </c>
       <c r="AI183">
         <f t="shared" si="120"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AJ183">
         <v>278</v>
@@ -18962,50 +18970,50 @@
         <v>528</v>
       </c>
       <c r="W184">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X184">
         <f t="shared" si="114"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y184">
         <f t="shared" si="115"/>
-        <v>21008</v>
+        <v>23660</v>
       </c>
       <c r="Z184">
         <v>50</v>
       </c>
       <c r="AA184">
         <f t="shared" si="116"/>
-        <v>15665</v>
+        <v>18649</v>
       </c>
       <c r="AB184">
         <v>52</v>
       </c>
       <c r="AC184">
         <f t="shared" si="117"/>
-        <v>8778</v>
+        <v>8994</v>
       </c>
       <c r="AD184">
         <v>320</v>
       </c>
       <c r="AE184">
         <f t="shared" si="118"/>
-        <v>4953</v>
+        <v>6371</v>
       </c>
       <c r="AF184">
         <v>20</v>
       </c>
       <c r="AG184">
         <f t="shared" si="119"/>
-        <v>4853</v>
+        <v>5030</v>
       </c>
       <c r="AH184">
         <v>200</v>
       </c>
       <c r="AI184">
         <f t="shared" si="120"/>
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AJ184">
         <v>270</v>
@@ -19079,50 +19087,50 @@
         <v>529</v>
       </c>
       <c r="W185">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X185">
         <f t="shared" si="114"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y185">
         <f t="shared" si="115"/>
-        <v>22758</v>
+        <v>25515</v>
       </c>
       <c r="Z185">
         <v>54</v>
       </c>
       <c r="AA185">
         <f t="shared" si="116"/>
-        <v>16138</v>
+        <v>19181</v>
       </c>
       <c r="AB185">
         <v>53</v>
       </c>
       <c r="AC185">
         <f t="shared" si="117"/>
-        <v>9504</v>
+        <v>9726</v>
       </c>
       <c r="AD185">
         <v>340</v>
       </c>
       <c r="AE185">
         <f t="shared" si="118"/>
-        <v>7454</v>
+        <v>9301</v>
       </c>
       <c r="AF185">
         <v>30</v>
       </c>
       <c r="AG185">
         <f t="shared" si="119"/>
-        <v>5452</v>
+        <v>5636</v>
       </c>
       <c r="AH185">
         <v>220</v>
       </c>
       <c r="AI185">
         <f t="shared" si="120"/>
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AJ185">
         <v>275</v>
@@ -19196,50 +19204,50 @@
         <v>530</v>
       </c>
       <c r="W186">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X186">
         <f t="shared" si="114"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y186">
         <f t="shared" si="115"/>
-        <v>21875</v>
+        <v>24578</v>
       </c>
       <c r="Z186">
         <v>52</v>
       </c>
       <c r="AA186">
         <f t="shared" si="116"/>
-        <v>3088</v>
+        <v>4136</v>
       </c>
       <c r="AB186">
         <v>10</v>
       </c>
       <c r="AC186">
         <f t="shared" si="117"/>
-        <v>9950</v>
+        <v>10175</v>
       </c>
       <c r="AD186">
         <v>352</v>
       </c>
       <c r="AE186">
         <f t="shared" si="118"/>
-        <v>17113</v>
+        <v>20274</v>
       </c>
       <c r="AF186">
         <v>55</v>
       </c>
       <c r="AG186">
         <f t="shared" si="119"/>
-        <v>5149</v>
+        <v>5330</v>
       </c>
       <c r="AH186">
         <v>210</v>
       </c>
       <c r="AI186">
         <f t="shared" si="120"/>
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AJ186">
         <v>269</v>
@@ -19260,50 +19268,50 @@
         <v>531</v>
       </c>
       <c r="W187">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X187">
         <f t="shared" si="114"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y187">
         <f t="shared" si="115"/>
-        <v>24117</v>
+        <v>26952</v>
       </c>
       <c r="Z187">
         <v>57</v>
       </c>
       <c r="AA187">
         <f t="shared" si="116"/>
-        <v>16621</v>
+        <v>19723</v>
       </c>
       <c r="AB187">
         <v>54</v>
       </c>
       <c r="AC187">
         <f t="shared" si="117"/>
-        <v>9912</v>
+        <v>10137</v>
       </c>
       <c r="AD187">
         <v>351</v>
       </c>
       <c r="AE187">
         <f t="shared" si="118"/>
-        <v>4953</v>
+        <v>6371</v>
       </c>
       <c r="AF187">
         <v>20</v>
       </c>
       <c r="AG187">
         <f t="shared" si="119"/>
-        <v>5760</v>
+        <v>5948</v>
       </c>
       <c r="AH187">
         <v>230</v>
       </c>
       <c r="AI187">
         <f t="shared" si="120"/>
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AJ187">
         <v>276</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W180" sqref="W180"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z179" sqref="Z179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10292,50 +10292,50 @@
         <v>219</v>
       </c>
       <c r="W81">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X81">
         <f>1+(W81-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y81">
         <f>INT(POWER(X81+(Z81*0.25),2)*35)</f>
-        <v>12635</v>
+        <v>11657</v>
       </c>
       <c r="Z81">
         <v>34</v>
       </c>
       <c r="AA81">
         <f>INT(POWER(X81+(AB81*0.25),3))+40</f>
-        <v>8655</v>
+        <v>7743</v>
       </c>
       <c r="AB81">
         <v>40</v>
       </c>
       <c r="AC81">
         <f>INT(50+(X81+(AD81*0.25)-1)*POWER(X81+(AD81*0.25),0.5)*10)</f>
-        <v>5270</v>
+        <v>5179</v>
       </c>
       <c r="AD81">
         <v>220</v>
       </c>
       <c r="AE81">
         <f>INT(POWER(X81+(AF81*0.25),3))+40</f>
-        <v>1197</v>
+        <v>966</v>
       </c>
       <c r="AF81">
         <v>0</v>
       </c>
       <c r="AG81">
         <f>INT(50+(X81+(AH81*0.25)-1)*POWER(X81+(AH81*0.25),0.5)*10)</f>
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="AH81">
         <v>0</v>
       </c>
       <c r="AI81">
         <f>INT(5+(X81+(AJ81*0.25)-1)*POWER(X81+(AJ81*0.25),0.2))</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AJ81">
         <v>250</v>
@@ -10356,50 +10356,50 @@
         <v>222</v>
       </c>
       <c r="W82">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X82">
         <f>1+(W82-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y82">
         <f>INT(POWER(X82+(Z82*0.25),2)*35)</f>
-        <v>13308</v>
+        <v>12304</v>
       </c>
       <c r="Z82">
         <v>35</v>
       </c>
       <c r="AA82">
         <f>INT(POWER(X82+(AB82*0.25),3))+40</f>
-        <v>3088</v>
+        <v>2639</v>
       </c>
       <c r="AB82">
         <v>15</v>
       </c>
       <c r="AC82">
         <f>INT(50+(X82+(AD82*0.25)-1)*POWER(X82+(AD82*0.25),0.5)*10)</f>
-        <v>5452</v>
+        <v>5360</v>
       </c>
       <c r="AD82">
         <v>225</v>
       </c>
       <c r="AE82">
         <f>INT(POWER(X82+(AF82*0.25),3))+40</f>
-        <v>10688</v>
+        <v>8343</v>
       </c>
       <c r="AF82">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG82">
         <f>INT(50+(X82+(AH82*0.25)-1)*POWER(X82+(AH82*0.25),0.5)*10)</f>
-        <v>4707</v>
+        <v>4620</v>
       </c>
       <c r="AH82">
         <v>200</v>
       </c>
       <c r="AI82">
         <f>INT(5+(X82+(AJ82*0.25)-1)*POWER(X82+(AJ82*0.25),0.2))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ82">
         <v>110</v>
@@ -17059,50 +17059,50 @@
         <v>486</v>
       </c>
       <c r="W164">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X164">
         <f>1+(W164-1)*0.25</f>
-        <v>11</v>
+        <v>12.25</v>
       </c>
       <c r="Y164">
         <f>INT(POWER(X164+(Z164*0.25),2)*35)</f>
-        <v>19328</v>
+        <v>21439</v>
       </c>
       <c r="Z164">
         <v>50</v>
       </c>
       <c r="AA164">
         <f>INT(POWER(X164+(AB164*0.25),3))+40</f>
-        <v>11055</v>
+        <v>13017</v>
       </c>
       <c r="AB164">
         <v>45</v>
       </c>
       <c r="AC164">
         <f>INT(50+(X164+(AD164*0.25)-1)*POWER(X164+(AD164*0.25),0.5)*10)</f>
-        <v>8635</v>
+        <v>8814</v>
       </c>
       <c r="AD164">
         <v>320</v>
       </c>
       <c r="AE164">
         <f>INT(POWER(X164+(AF164*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1878</v>
       </c>
       <c r="AF164">
         <v>0</v>
       </c>
       <c r="AG164">
         <f>INT(50+(X164+(AH164*0.25)-1)*POWER(X164+(AH164*0.25),0.5)*10)</f>
-        <v>3462</v>
+        <v>3594</v>
       </c>
       <c r="AH164">
         <v>154</v>
       </c>
       <c r="AI164">
         <f>INT(5+(X164+(AJ164*0.25)-1)*POWER(X164+(AJ164*0.25),0.2))</f>
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AJ164">
         <v>267</v>
@@ -17183,50 +17183,50 @@
         <v>495</v>
       </c>
       <c r="W165">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X165">
         <f>1+(W165-1)*0.25</f>
-        <v>11</v>
+        <v>12.25</v>
       </c>
       <c r="Y165">
         <f>INT(POWER(X165+(Z165*0.25),2)*35)</f>
-        <v>21008</v>
+        <v>23207</v>
       </c>
       <c r="Z165">
         <v>54</v>
       </c>
       <c r="AA165">
         <f>INT(POWER(X165+(AB165*0.25),3))+40</f>
-        <v>10688</v>
+        <v>12608</v>
       </c>
       <c r="AB165">
         <v>44</v>
       </c>
       <c r="AC165">
         <f>INT(50+(X165+(AD165*0.25)-1)*POWER(X165+(AD165*0.25),0.5)*10)</f>
-        <v>8814</v>
+        <v>8994</v>
       </c>
       <c r="AD165">
         <v>325</v>
       </c>
       <c r="AE165">
         <f>INT(POWER(X165+(AF165*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1878</v>
       </c>
       <c r="AF165">
         <v>0</v>
       </c>
       <c r="AG165">
         <f>INT(50+(X165+(AH165*0.25)-1)*POWER(X165+(AH165*0.25),0.5)*10)</f>
-        <v>3357</v>
+        <v>3488</v>
       </c>
       <c r="AH165">
         <v>150</v>
       </c>
       <c r="AI165">
         <f>INT(5+(X165+(AJ165*0.25)-1)*POWER(X165+(AJ165*0.25),0.2))</f>
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AJ165">
         <v>254</v>
@@ -17307,50 +17307,50 @@
         <v>499</v>
       </c>
       <c r="W166">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="X166">
         <f>1+(W166-1)*0.25</f>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Y166">
         <f>INT(POWER(X166+(Z166*0.25),2)*35)</f>
-        <v>21875</v>
+        <v>24117</v>
       </c>
       <c r="Z166">
         <v>55</v>
       </c>
       <c r="AA166">
         <f>INT(POWER(X166+(AB166*0.25),3))+40</f>
-        <v>8040</v>
+        <v>9635</v>
       </c>
       <c r="AB166">
         <v>35</v>
       </c>
       <c r="AC166">
         <f>INT(50+(X166+(AD166*0.25)-1)*POWER(X166+(AD166*0.25),0.5)*10)</f>
-        <v>3254</v>
+        <v>3383</v>
       </c>
       <c r="AD166">
         <v>145</v>
       </c>
       <c r="AE166">
         <f>INT(POWER(X166+(AF166*0.25),3))+40</f>
-        <v>12207</v>
+        <v>14300</v>
       </c>
       <c r="AF166">
         <v>47</v>
       </c>
       <c r="AG166">
         <f>INT(50+(X166+(AH166*0.25)-1)*POWER(X166+(AH166*0.25),0.5)*10)</f>
-        <v>9030</v>
+        <v>9211</v>
       </c>
       <c r="AH166">
         <v>330</v>
       </c>
       <c r="AI166">
         <f>INT(5+(X166+(AJ166*0.25)-1)*POWER(X166+(AJ166*0.25),0.2))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ166">
         <v>45</v>
@@ -17431,50 +17431,50 @@
         <v>502</v>
       </c>
       <c r="W167">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="X167">
         <f>1+(W167-1)*0.25</f>
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="Y167">
         <f>INT(POWER(X167+(Z167*0.25),2)*35)</f>
-        <v>22758</v>
+        <v>25044</v>
       </c>
       <c r="Z167">
         <v>56</v>
       </c>
       <c r="AA167">
         <f>INT(POWER(X167+(AB167*0.25),3))+40</f>
-        <v>12207</v>
+        <v>14300</v>
       </c>
       <c r="AB167">
         <v>46</v>
       </c>
       <c r="AC167">
         <f>INT(50+(X167+(AD167*0.25)-1)*POWER(X167+(AD167*0.25),0.5)*10)</f>
-        <v>9431</v>
+        <v>9615</v>
       </c>
       <c r="AD167">
         <v>340</v>
       </c>
       <c r="AE167">
         <f>INT(POWER(X167+(AF167*0.25),3))+40</f>
-        <v>1560</v>
+        <v>2112</v>
       </c>
       <c r="AF167">
         <v>0</v>
       </c>
       <c r="AG167">
         <f>INT(50+(X167+(AH167*0.25)-1)*POWER(X167+(AH167*0.25),0.5)*10)</f>
-        <v>3001</v>
+        <v>3127</v>
       </c>
       <c r="AH167">
         <v>134</v>
       </c>
       <c r="AI167">
         <f>INT(5+(X167+(AJ167*0.25)-1)*POWER(X167+(AJ167*0.25),0.2))</f>
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AJ167">
         <v>267</v>
@@ -18178,10 +18178,10 @@
       </c>
       <c r="Y176">
         <f t="shared" si="108"/>
-        <v>28428</v>
+        <v>23660</v>
       </c>
       <c r="Z176">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA176">
         <f t="shared" si="109"/>
@@ -18298,10 +18298,10 @@
       </c>
       <c r="Y177">
         <f t="shared" si="108"/>
-        <v>28929</v>
+        <v>24117</v>
       </c>
       <c r="Z177">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AA177">
         <f t="shared" si="109"/>
@@ -18415,10 +18415,10 @@
       </c>
       <c r="Y178">
         <f t="shared" si="108"/>
-        <v>26952</v>
+        <v>22314</v>
       </c>
       <c r="Z178">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AA178">
         <f t="shared" si="109"/>
@@ -18479,10 +18479,10 @@
       </c>
       <c r="Y179">
         <f t="shared" si="108"/>
-        <v>29944</v>
+        <v>25044</v>
       </c>
       <c r="Z179">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AA179">
         <f t="shared" si="109"/>
@@ -18507,10 +18507,10 @@
       </c>
       <c r="AG179">
         <f t="shared" si="112"/>
-        <v>10024</v>
+        <v>9912</v>
       </c>
       <c r="AH179">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AI179">
         <f t="shared" si="113"/>
@@ -18875,10 +18875,10 @@
       </c>
       <c r="AC183">
         <f t="shared" si="117"/>
-        <v>10212</v>
+        <v>9987</v>
       </c>
       <c r="AD183">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AE183">
         <f t="shared" si="118"/>
@@ -19226,10 +19226,10 @@
       </c>
       <c r="AC186">
         <f t="shared" si="117"/>
-        <v>10175</v>
+        <v>9987</v>
       </c>
       <c r="AD186">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AE186">
         <f t="shared" si="118"/>
@@ -19290,10 +19290,10 @@
       </c>
       <c r="AC187">
         <f t="shared" si="117"/>
-        <v>10137</v>
+        <v>9987</v>
       </c>
       <c r="AD187">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AE187">
         <f t="shared" si="118"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4048,9 +4048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z179" sqref="Z179"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X141" sqref="X141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -11014,50 +11014,50 @@
         <v>245</v>
       </c>
       <c r="W91">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X91">
         <f>1+(W91-1)*0.25</f>
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y91">
         <f>INT(POWER(X91+(Z91*0.25),2)*35)</f>
-        <v>11027</v>
+        <v>10115</v>
       </c>
       <c r="Z91">
         <v>30</v>
       </c>
       <c r="AA91">
         <f>INT(POWER(X91+(AB91*0.25),3))+40</f>
-        <v>6899</v>
+        <v>6118</v>
       </c>
       <c r="AB91">
         <v>35</v>
       </c>
       <c r="AC91">
         <f>INT(50+(X91+(AD91*0.25)-1)*POWER(X91+(AD91*0.25),0.5)*10)</f>
-        <v>2083</v>
+        <v>2017</v>
       </c>
       <c r="AD91">
         <v>100</v>
       </c>
       <c r="AE91">
         <f>INT(POWER(X91+(AF91*0.25),3))+40</f>
-        <v>1116</v>
+        <v>897</v>
       </c>
       <c r="AF91">
         <v>0</v>
       </c>
       <c r="AG91">
         <f>INT(50+(X91+(AH91*0.25)-1)*POWER(X91+(AH91*0.25),0.5)*10)</f>
-        <v>2083</v>
+        <v>2017</v>
       </c>
       <c r="AH91">
         <v>100</v>
       </c>
       <c r="AI91">
         <f>INT(5+(X91+(AJ91*0.25)-1)*POWER(X91+(AJ91*0.25),0.2))</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AJ91">
         <v>280</v>
@@ -11080,50 +11080,50 @@
         <v>248</v>
       </c>
       <c r="W92">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X92">
         <f>1+(W92-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y92">
         <f>INT(POWER(X92+(Z92*0.25),2)*35)</f>
-        <v>11978</v>
+        <v>11027</v>
       </c>
       <c r="Z92">
         <v>32</v>
       </c>
       <c r="AA92">
         <f>INT(POWER(X92+(AB92*0.25),3))+40</f>
-        <v>7454</v>
+        <v>6631</v>
       </c>
       <c r="AB92">
         <v>36</v>
       </c>
       <c r="AC92">
         <f>INT(50+(X92+(AD92*0.25)-1)*POWER(X92+(AD92*0.25),0.5)*10)</f>
-        <v>2330</v>
+        <v>2262</v>
       </c>
       <c r="AD92">
         <v>110</v>
       </c>
       <c r="AE92">
         <f>INT(POWER(X92+(AF92*0.25),3))+40</f>
-        <v>1197</v>
+        <v>966</v>
       </c>
       <c r="AF92">
         <v>0</v>
       </c>
       <c r="AG92">
         <f>INT(50+(X92+(AH92*0.25)-1)*POWER(X92+(AH92*0.25),0.5)*10)</f>
-        <v>2330</v>
+        <v>2262</v>
       </c>
       <c r="AH92">
         <v>110</v>
       </c>
       <c r="AI92">
         <f>INT(5+(X92+(AJ92*0.25)-1)*POWER(X92+(AJ92*0.25),0.2))</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AJ92">
         <v>200</v>
@@ -11146,50 +11146,50 @@
         <v>251</v>
       </c>
       <c r="W93">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X93">
         <f>1+(W93-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y93">
         <f>INT(POWER(X93+(Z93*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>11340</v>
       </c>
       <c r="Z93">
         <v>32</v>
       </c>
       <c r="AA93">
         <f>INT(POWER(X93+(AB93*0.25),3))+40</f>
-        <v>8974</v>
+        <v>8040</v>
       </c>
       <c r="AB93">
         <v>40</v>
       </c>
       <c r="AC93">
         <f>INT(50+(X93+(AD93*0.25)-1)*POWER(X93+(AD93*0.25),0.5)*10)</f>
-        <v>2828</v>
+        <v>2755</v>
       </c>
       <c r="AD93">
         <v>130</v>
       </c>
       <c r="AE93">
         <f>INT(POWER(X93+(AF93*0.25),3))+40</f>
-        <v>1282</v>
+        <v>1040</v>
       </c>
       <c r="AF93">
         <v>0</v>
       </c>
       <c r="AG93">
         <f>INT(50+(X93+(AH93*0.25)-1)*POWER(X93+(AH93*0.25),0.5)*10)</f>
-        <v>2587</v>
+        <v>2516</v>
       </c>
       <c r="AH93">
         <v>120</v>
       </c>
       <c r="AI93">
         <f>INT(5+(X93+(AJ93*0.25)-1)*POWER(X93+(AJ93*0.25),0.2))</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AJ93">
         <v>190</v>
@@ -11275,50 +11275,50 @@
         <v>254</v>
       </c>
       <c r="W95">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X95">
         <f>1+(W95-1)*0.25</f>
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y95">
         <f>INT(POWER(X95+(Z95*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>11340</v>
       </c>
       <c r="Z95">
         <v>30</v>
       </c>
       <c r="AA95">
         <f>INT(POWER(X95+(AB95*0.25),3))+40</f>
-        <v>3415</v>
+        <v>2933</v>
       </c>
       <c r="AB95">
         <v>15</v>
       </c>
       <c r="AC95">
         <f>INT(50+(X95+(AD95*0.25)-1)*POWER(X95+(AD95*0.25),0.5)*10)</f>
-        <v>3383</v>
+        <v>3306</v>
       </c>
       <c r="AD95">
         <v>150</v>
       </c>
       <c r="AE95">
         <f>INT(POWER(X95+(AF95*0.25),3))+40</f>
-        <v>8974</v>
+        <v>8040</v>
       </c>
       <c r="AF95">
         <v>38</v>
       </c>
       <c r="AG95">
         <f>INT(50+(X95+(AH95*0.25)-1)*POWER(X95+(AH95*0.25),0.5)*10)</f>
-        <v>3383</v>
+        <v>3306</v>
       </c>
       <c r="AH95">
         <v>150</v>
       </c>
       <c r="AI95">
         <f>INT(5+(X95+(AJ95*0.25)-1)*POWER(X95+(AJ95*0.25),0.2))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ95">
         <v>0</v>
@@ -11358,50 +11358,50 @@
         <v>257</v>
       </c>
       <c r="W96">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X96">
         <f>1+(W96-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y96">
         <f>INT(POWER(X96+(Z96*0.25),2)*35)</f>
-        <v>12635</v>
+        <v>11657</v>
       </c>
       <c r="Z96">
         <v>34</v>
       </c>
       <c r="AA96">
         <f>INT(POWER(X96+(AB96*0.25),3))+40</f>
-        <v>2500</v>
+        <v>2112</v>
       </c>
       <c r="AB96">
         <v>12</v>
       </c>
       <c r="AC96">
         <f>INT(50+(X96+(AD96*0.25)-1)*POWER(X96+(AD96*0.25),0.5)*10)</f>
-        <v>5885</v>
+        <v>5791</v>
       </c>
       <c r="AD96">
         <v>240</v>
       </c>
       <c r="AE96">
         <f>INT(POWER(X96+(AF96*0.25),3))+40</f>
-        <v>10329</v>
+        <v>9301</v>
       </c>
       <c r="AF96">
         <v>45</v>
       </c>
       <c r="AG96">
         <f>INT(50+(X96+(AH96*0.25)-1)*POWER(X96+(AH96*0.25),0.5)*10)</f>
-        <v>3835</v>
+        <v>3754</v>
       </c>
       <c r="AH96">
         <v>170</v>
       </c>
       <c r="AI96">
         <f>INT(5+(X96+(AJ96*0.25)-1)*POWER(X96+(AJ96*0.25),0.2))</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ96">
         <v>180</v>
@@ -11438,50 +11438,50 @@
         <v>260</v>
       </c>
       <c r="W97">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X97">
         <f>1+(W97-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y97">
         <f>INT(POWER(X97+(Z97*0.25),2)*35)</f>
-        <v>13308</v>
+        <v>12304</v>
       </c>
       <c r="Z97">
         <v>35</v>
       </c>
       <c r="AA97">
         <f t="shared" ref="AA97:AA98" si="98">INT(POWER(X97+(AB97*0.25),3))+40</f>
-        <v>3088</v>
+        <v>2639</v>
       </c>
       <c r="AB97">
         <v>15</v>
       </c>
       <c r="AC97">
         <f>INT(50+(X97+(AD97*0.25)-1)*POWER(X97+(AD97*0.25),0.5)*10)</f>
-        <v>5149</v>
+        <v>5060</v>
       </c>
       <c r="AD97">
         <v>215</v>
       </c>
       <c r="AE97">
         <f>INT(POWER(X97+(AF97*0.25),3))+40</f>
-        <v>5632</v>
+        <v>4953</v>
       </c>
       <c r="AF97">
         <v>28</v>
       </c>
       <c r="AG97">
         <f>INT(50+(X97+(AH97*0.25)-1)*POWER(X97+(AH97*0.25),0.5)*10)</f>
-        <v>3594</v>
+        <v>3514</v>
       </c>
       <c r="AH97">
         <v>160</v>
       </c>
       <c r="AI97">
         <f>INT(5+(X97+(AJ97*0.25)-1)*POWER(X97+(AJ97*0.25),0.2))</f>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ97">
         <v>160</v>
@@ -11518,50 +11518,50 @@
         <v>263</v>
       </c>
       <c r="W98">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X98">
         <f>1+(W98-1)*0.25</f>
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y98">
         <f>INT(POWER(X98+(Z98*0.25),2)*35)</f>
-        <v>13308</v>
+        <v>12304</v>
       </c>
       <c r="Z98">
         <v>34</v>
       </c>
       <c r="AA98">
         <f t="shared" si="98"/>
-        <v>3415</v>
+        <v>2933</v>
       </c>
       <c r="AB98">
         <v>16</v>
       </c>
       <c r="AC98">
         <f>INT(50+(X98+(AD98*0.25)-1)*POWER(X98+(AD98*0.25),0.5)*10)</f>
-        <v>5330</v>
+        <v>5239</v>
       </c>
       <c r="AD98">
         <v>220</v>
       </c>
       <c r="AE98">
         <f>INT(POWER(X98+(AF98*0.25),3))+40</f>
-        <v>10329</v>
+        <v>9301</v>
       </c>
       <c r="AF98">
         <v>43</v>
       </c>
       <c r="AG98">
         <f>INT(50+(X98+(AH98*0.25)-1)*POWER(X98+(AH98*0.25),0.5)*10)</f>
-        <v>4165</v>
+        <v>4082</v>
       </c>
       <c r="AH98">
         <v>180</v>
       </c>
       <c r="AI98">
         <f>INT(5+(X98+(AJ98*0.25)-1)*POWER(X98+(AJ98*0.25),0.2))</f>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AJ98">
         <v>190</v>
@@ -13085,50 +13085,50 @@
         <v>326</v>
       </c>
       <c r="W116">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X116">
         <f>1+(W116-1)*0.25</f>
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y116">
         <f>INT(POWER(X116+(Z116*0.25),2)*35)</f>
-        <v>14352</v>
+        <v>13652</v>
       </c>
       <c r="Z116">
         <v>40</v>
       </c>
       <c r="AA116">
         <f>INT(POWER(X116+(AB116*0.25),3))+40</f>
-        <v>1116</v>
+        <v>966</v>
       </c>
       <c r="AB116">
         <v>0</v>
       </c>
       <c r="AC116">
         <f>INT(50+(X116+(AD116*0.25)-1)*POWER(X116+(AD116*0.25),0.5)*10)</f>
-        <v>4082</v>
+        <v>4027</v>
       </c>
       <c r="AD116">
         <v>180</v>
       </c>
       <c r="AE116">
         <f>INT(POWER(X116+(AF116*0.25),3))+40</f>
-        <v>8343</v>
+        <v>7743</v>
       </c>
       <c r="AF116">
         <v>40</v>
       </c>
       <c r="AG116">
         <f>INT(50+(X116+(AH116*0.25)-1)*POWER(X116+(AH116*0.25),0.5)*10)</f>
-        <v>4649</v>
+        <v>4591</v>
       </c>
       <c r="AH116">
         <v>200</v>
       </c>
       <c r="AI116">
         <f>INT(5+(X116+(AJ116*0.25)-1)*POWER(X116+(AJ116*0.25),0.2))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -13152,50 +13152,50 @@
         <v>329</v>
       </c>
       <c r="W117">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X117">
         <f>1+(W117-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y117">
         <f>INT(POWER(X117+(Z117*0.25),2)*35)</f>
-        <v>12969</v>
+        <v>11978</v>
       </c>
       <c r="Z117">
         <v>35</v>
       </c>
       <c r="AA117">
         <f>INT(POWER(X117+(AB117*0.25),3))+40</f>
-        <v>8655</v>
+        <v>7743</v>
       </c>
       <c r="AB117">
         <v>40</v>
       </c>
       <c r="AC117">
         <f>INT(50+(X117+(AD117*0.25)-1)*POWER(X117+(AD117*0.25),0.5)*10)</f>
-        <v>4390</v>
+        <v>4306</v>
       </c>
       <c r="AD117">
         <v>190</v>
       </c>
       <c r="AE117">
         <f>INT(POWER(X117+(AF117*0.25),3))+40</f>
-        <v>1197</v>
+        <v>966</v>
       </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
         <f>INT(50+(X117+(AH117*0.25)-1)*POWER(X117+(AH117*0.25),0.5)*10)</f>
-        <v>3835</v>
+        <v>3754</v>
       </c>
       <c r="AH117">
         <v>170</v>
       </c>
       <c r="AI117">
         <f>INT(5+(X117+(AJ117*0.25)-1)*POWER(X117+(AJ117*0.25),0.2))</f>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AJ117">
         <v>200</v>
@@ -13926,50 +13926,50 @@
         <v>358</v>
       </c>
       <c r="W125">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X125">
         <f>1+(W125-1)*0.25</f>
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y125">
         <f>INT(POWER(X125+(Z125*0.25),2)*35)</f>
-        <v>13652</v>
+        <v>12635</v>
       </c>
       <c r="Z125">
         <v>35</v>
       </c>
       <c r="AA125">
         <f>INT(POWER(X125+(AB125*0.25),3))+40</f>
-        <v>9978</v>
+        <v>8974</v>
       </c>
       <c r="AB125">
         <v>42</v>
       </c>
       <c r="AC125">
         <f>INT(50+(X125+(AD125*0.25)-1)*POWER(X125+(AD125*0.25),0.5)*10)</f>
-        <v>4447</v>
+        <v>4362</v>
       </c>
       <c r="AD125">
         <v>190</v>
       </c>
       <c r="AE125">
         <f>INT(POWER(X125+(AF125*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1116</v>
       </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
         <f>INT(50+(X125+(AH125*0.25)-1)*POWER(X125+(AH125*0.25),0.5)*10)</f>
-        <v>3620</v>
+        <v>3541</v>
       </c>
       <c r="AH125">
         <v>160</v>
       </c>
       <c r="AI125">
         <f>INT(5+(X125+(AJ125*0.25)-1)*POWER(X125+(AJ125*0.25),0.2))</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AJ125">
         <v>220</v>
@@ -14191,50 +14191,50 @@
         <v>367</v>
       </c>
       <c r="W129">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X129">
         <f>1+(W129-1)*0.25</f>
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y129">
         <f>INT(POWER(X129+(Z129*0.25),2)*35)</f>
-        <v>13652</v>
+        <v>11657</v>
       </c>
       <c r="Z129">
         <v>33</v>
       </c>
       <c r="AA129">
         <f>INT(POWER(X129+(AB129*0.25),3))+40</f>
-        <v>13017</v>
+        <v>10688</v>
       </c>
       <c r="AB129">
         <v>48</v>
       </c>
       <c r="AC129">
         <f>INT(50+(X129+(AD129*0.25)-1)*POWER(X129+(AD129*0.25),0.5)*10)</f>
-        <v>5391</v>
+        <v>5209</v>
       </c>
       <c r="AD129">
         <v>220</v>
       </c>
       <c r="AE129">
         <f>INT(POWER(X129+(AF129*0.25),3))+40</f>
-        <v>13864</v>
+        <v>11430</v>
       </c>
       <c r="AF129">
         <v>50</v>
       </c>
       <c r="AG129">
         <f>INT(50+(X129+(AH129*0.25)-1)*POWER(X129+(AH129*0.25),0.5)*10)</f>
-        <v>3674</v>
+        <v>3514</v>
       </c>
       <c r="AH129">
         <v>160</v>
       </c>
       <c r="AI129">
         <f>INT(5+(X129+(AJ129*0.25)-1)*POWER(X129+(AJ129*0.25),0.2))</f>
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AJ129">
         <v>250</v>
@@ -14255,50 +14255,50 @@
         <v>370</v>
       </c>
       <c r="W130">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="X130">
         <f>1+(W130-1)*0.25</f>
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y130">
         <f>INT(POWER(X130+(Z130*0.25),2)*35)</f>
-        <v>14352</v>
+        <v>12304</v>
       </c>
       <c r="Z130">
         <v>34</v>
       </c>
       <c r="AA130">
         <f>INT(POWER(X130+(AB130*0.25),3))+40</f>
-        <v>13864</v>
+        <v>11430</v>
       </c>
       <c r="AB130">
         <v>49</v>
       </c>
       <c r="AC130">
         <f>INT(50+(X130+(AD130*0.25)-1)*POWER(X130+(AD130*0.25),0.5)*10)</f>
-        <v>5729</v>
+        <v>5544</v>
       </c>
       <c r="AD130">
         <v>230</v>
       </c>
       <c r="AE130">
         <f>INT(POWER(X130+(AF130*0.25),3))+40</f>
-        <v>19181</v>
+        <v>16138</v>
       </c>
       <c r="AF130">
         <v>60</v>
       </c>
       <c r="AG130">
         <f>INT(50+(X130+(AH130*0.25)-1)*POWER(X130+(AH130*0.25),0.5)*10)</f>
-        <v>3972</v>
+        <v>3808</v>
       </c>
       <c r="AH130">
         <v>170</v>
       </c>
       <c r="AI130">
         <f>INT(5+(X130+(AJ130*0.25)-1)*POWER(X130+(AJ130*0.25),0.2))</f>
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AJ130">
         <v>260</v>
@@ -14517,50 +14517,50 @@
         <v>378</v>
       </c>
       <c r="W133">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X133">
         <f>1+(W133-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>9819</v>
+        <v>8960</v>
       </c>
       <c r="Z133">
         <v>25</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
-        <v>12207</v>
+        <v>11055</v>
       </c>
       <c r="AB133">
         <v>50</v>
       </c>
       <c r="AC133">
         <f>INT(50+(X133+(AD133*0.25)-1)*POWER(X133+(AD133*0.25),0.5)*10)</f>
-        <v>3835</v>
+        <v>3754</v>
       </c>
       <c r="AD133">
         <v>170</v>
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>1197</v>
+        <v>966</v>
       </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
-        <v>3306</v>
+        <v>3229</v>
       </c>
       <c r="AH133">
         <v>150</v>
       </c>
       <c r="AI133">
         <f>INT(5+(X133+(AJ133*0.25)-1)*POWER(X133+(AJ133*0.25),0.2))</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ133">
         <v>240</v>
@@ -14641,50 +14641,50 @@
         <v>384</v>
       </c>
       <c r="W134">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X134">
         <f>1+(W134-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y134">
         <f>INT(POWER(X134+(Z134*0.25),2)*35)</f>
-        <v>10115</v>
+        <v>9242</v>
       </c>
       <c r="Z134">
         <v>25</v>
       </c>
       <c r="AA134">
         <f>INT(POWER(X134+(AB134*0.25),3))+40</f>
-        <v>9978</v>
+        <v>8974</v>
       </c>
       <c r="AB134">
         <v>43</v>
       </c>
       <c r="AC134">
         <f>INT(50+(X134+(AD134*0.25)-1)*POWER(X134+(AD134*0.25),0.5)*10)</f>
-        <v>3594</v>
+        <v>3514</v>
       </c>
       <c r="AD134">
         <v>160</v>
       </c>
       <c r="AE134">
         <f>INT(POWER(X134+(AF134*0.25),3))+40</f>
-        <v>1282</v>
+        <v>1040</v>
       </c>
       <c r="AF134">
         <v>0</v>
       </c>
       <c r="AG134">
         <f>INT(50+(X134+(AH134*0.25)-1)*POWER(X134+(AH134*0.25),0.5)*10)</f>
-        <v>3203</v>
+        <v>3127</v>
       </c>
       <c r="AH134">
         <v>145</v>
       </c>
       <c r="AI134">
         <f>INT(5+(X134+(AJ134*0.25)-1)*POWER(X134+(AJ134*0.25),0.2))</f>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AJ134">
         <v>220</v>
@@ -14708,50 +14708,50 @@
         <v>387</v>
       </c>
       <c r="W135">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X135">
         <f>1+(W135-1)*0.25</f>
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y135">
         <f>INT(POWER(X135+(Z135*0.25),2)*35)</f>
-        <v>10414</v>
+        <v>9528</v>
       </c>
       <c r="Z135">
         <v>25</v>
       </c>
       <c r="AA135">
         <f>INT(POWER(X135+(AB135*0.25),3))+40</f>
-        <v>10329</v>
+        <v>9301</v>
       </c>
       <c r="AB135">
         <v>43</v>
       </c>
       <c r="AC135">
         <f>INT(50+(X135+(AD135*0.25)-1)*POWER(X135+(AD135*0.25),0.5)*10)</f>
-        <v>3620</v>
+        <v>3541</v>
       </c>
       <c r="AD135">
         <v>160</v>
       </c>
       <c r="AE135">
         <f>INT(POWER(X135+(AF135*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1116</v>
       </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
         <f>INT(50+(X135+(AH135*0.25)-1)*POWER(X135+(AH135*0.25),0.5)*10)</f>
-        <v>3229</v>
+        <v>3152</v>
       </c>
       <c r="AH135">
         <v>145</v>
       </c>
       <c r="AI135">
         <f>INT(5+(X135+(AJ135*0.25)-1)*POWER(X135+(AJ135*0.25),0.2))</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ135">
         <v>230</v>
@@ -14903,50 +14903,50 @@
         <v>394</v>
       </c>
       <c r="W138">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X138">
         <f t="shared" ref="X138:X140" si="99">1+(W138-1)*0.25</f>
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="Y138">
         <f>INT(POWER(X138+(Z138*0.25),2)*35)</f>
-        <v>8682</v>
+        <v>7614</v>
       </c>
       <c r="Z138">
         <v>20</v>
       </c>
       <c r="AA138">
         <f>INT(POWER(X138+(AB138*0.25),3))+40</f>
-        <v>14300</v>
+        <v>12608</v>
       </c>
       <c r="AB138">
         <v>54</v>
       </c>
       <c r="AC138">
         <f>INT(50+(X138+(AD138*0.25)-1)*POWER(X138+(AD138*0.25),0.5)*10)</f>
-        <v>3999</v>
+        <v>3890</v>
       </c>
       <c r="AD138">
         <v>175</v>
       </c>
       <c r="AE138">
         <f>INT(POWER(X138+(AF138*0.25),3))+40</f>
-        <v>1282</v>
+        <v>966</v>
       </c>
       <c r="AF138">
         <v>0</v>
       </c>
       <c r="AG138">
         <f>INT(50+(X138+(AH138*0.25)-1)*POWER(X138+(AH138*0.25),0.5)*10)</f>
-        <v>3862</v>
+        <v>3754</v>
       </c>
       <c r="AH138">
         <v>170</v>
       </c>
       <c r="AI138">
         <f>INT(5+(X138+(AJ138*0.25)-1)*POWER(X138+(AJ138*0.25),0.2))</f>
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AJ138">
         <v>255</v>
@@ -14973,50 +14973,50 @@
         <v>397</v>
       </c>
       <c r="W139">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="X139">
         <f t="shared" si="99"/>
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>8960</v>
+        <v>7358</v>
       </c>
       <c r="Z139">
         <v>20</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>14746</v>
+        <v>12207</v>
       </c>
       <c r="AB139">
         <v>54</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
-        <v>3890</v>
+        <v>3727</v>
       </c>
       <c r="AD139">
         <v>170</v>
       </c>
       <c r="AE139">
         <f>INT(POWER(X139+(AF139*0.25),3))+40</f>
-        <v>1371</v>
+        <v>897</v>
       </c>
       <c r="AF139">
         <v>0</v>
       </c>
       <c r="AG139">
         <f>INT(50+(X139+(AH139*0.25)-1)*POWER(X139+(AH139*0.25),0.5)*10)</f>
-        <v>3754</v>
+        <v>3594</v>
       </c>
       <c r="AH139">
         <v>165</v>
       </c>
       <c r="AI139">
         <f>INT(5+(X139+(AJ139*0.25)-1)*POWER(X139+(AJ139*0.25),0.2))</f>
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AJ139">
         <v>260</v>
@@ -15043,50 +15043,50 @@
         <v>400</v>
       </c>
       <c r="W140">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="X140">
         <f t="shared" si="99"/>
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y140">
         <f>INT(POWER(X140+(Z140*0.25),2)*35)</f>
-        <v>9819</v>
+        <v>8139</v>
       </c>
       <c r="Z140">
         <v>23</v>
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>12207</v>
+        <v>9978</v>
       </c>
       <c r="AB140">
         <v>48</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
-        <v>4165</v>
+        <v>3999</v>
       </c>
       <c r="AD140">
         <v>180</v>
       </c>
       <c r="AE140">
         <f>INT(POWER(X140+(AF140*0.25),3))+40</f>
-        <v>1371</v>
+        <v>897</v>
       </c>
       <c r="AF140">
         <v>0</v>
       </c>
       <c r="AG140">
         <f>INT(50+(X140+(AH140*0.25)-1)*POWER(X140+(AH140*0.25),0.5)*10)</f>
-        <v>4027</v>
+        <v>3862</v>
       </c>
       <c r="AH140">
         <v>175</v>
       </c>
       <c r="AI140">
         <f>INT(5+(X140+(AJ140*0.25)-1)*POWER(X140+(AJ140*0.25),0.2))</f>
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AJ140">
         <v>265</v>
@@ -15691,50 +15691,50 @@
         <v>426</v>
       </c>
       <c r="W147">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X147">
         <f>1+(W147-1)*0.25</f>
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y147">
         <f>INT(POWER(X147+(Z147*0.25),2)*35)</f>
-        <v>12304</v>
+        <v>11657</v>
       </c>
       <c r="Z147">
         <v>34</v>
       </c>
       <c r="AA147">
         <f>INT(POWER(X147+(AB147*0.25),3))+40</f>
-        <v>7173</v>
+        <v>6631</v>
       </c>
       <c r="AB147">
         <v>36</v>
       </c>
       <c r="AC147">
         <f>INT(50+(X147+(AD147*0.25)-1)*POWER(X147+(AD147*0.25),0.5)*10)</f>
-        <v>2083</v>
+        <v>2039</v>
       </c>
       <c r="AD147">
         <v>100</v>
       </c>
       <c r="AE147">
         <f>INT(POWER(X147+(AF147*0.25),3))+40</f>
-        <v>1116</v>
+        <v>966</v>
       </c>
       <c r="AF147">
         <v>0</v>
       </c>
       <c r="AG147">
         <f>INT(50+(X147+(AH147*0.25)-1)*POWER(X147+(AH147*0.25),0.5)*10)</f>
-        <v>2083</v>
+        <v>2039</v>
       </c>
       <c r="AH147">
         <v>100</v>
       </c>
       <c r="AI147">
         <f>INT(5+(X147+(AJ147*0.25)-1)*POWER(X147+(AJ147*0.25),0.2))</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AJ147">
         <v>120</v>
@@ -15818,50 +15818,50 @@
         <v>432</v>
       </c>
       <c r="W148">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X148">
         <f>1+(W148-1)*0.25</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y148">
         <f>INT(POWER(X148+(Z148*0.25),2)*35)</f>
-        <v>11340</v>
+        <v>10718</v>
       </c>
       <c r="Z148">
         <v>30</v>
       </c>
       <c r="AA148">
         <f>INT(POWER(X148+(AB148*0.25),3))+40</f>
-        <v>8974</v>
+        <v>7454</v>
       </c>
       <c r="AB148">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC148">
         <f>INT(50+(X148+(AD148*0.25)-1)*POWER(X148+(AD148*0.25),0.5)*10)</f>
-        <v>2217</v>
+        <v>2172</v>
       </c>
       <c r="AD148">
         <v>105</v>
       </c>
       <c r="AE148">
         <f>INT(POWER(X148+(AF148*0.25),3))+40</f>
-        <v>1197</v>
+        <v>1040</v>
       </c>
       <c r="AF148">
         <v>0</v>
       </c>
       <c r="AG148">
         <f>INT(50+(X148+(AH148*0.25)-1)*POWER(X148+(AH148*0.25),0.5)*10)</f>
-        <v>2330</v>
+        <v>2285</v>
       </c>
       <c r="AH148">
         <v>110</v>
       </c>
       <c r="AI148">
         <f>INT(5+(X148+(AJ148*0.25)-1)*POWER(X148+(AJ148*0.25),0.2))</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ148">
         <v>125</v>
@@ -15885,50 +15885,50 @@
         <v>435</v>
       </c>
       <c r="W149">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X149">
         <f>1+(W149-1)*0.25</f>
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y149">
         <f>INT(POWER(X149+(Z149*0.25),2)*35)</f>
-        <v>12635</v>
+        <v>12304</v>
       </c>
       <c r="Z149">
         <v>33</v>
       </c>
       <c r="AA149">
         <f>INT(POWER(X149+(AB149*0.25),3))+40</f>
-        <v>6899</v>
+        <v>6631</v>
       </c>
       <c r="AB149">
         <v>33</v>
       </c>
       <c r="AC149">
         <f>INT(50+(X149+(AD149*0.25)-1)*POWER(X149+(AD149*0.25),0.5)*10)</f>
-        <v>2828</v>
+        <v>2804</v>
       </c>
       <c r="AD149">
         <v>130</v>
       </c>
       <c r="AE149">
         <f>INT(POWER(X149+(AF149*0.25),3))+40</f>
-        <v>1282</v>
+        <v>1197</v>
       </c>
       <c r="AF149">
         <v>0</v>
       </c>
       <c r="AG149">
         <f>INT(50+(X149+(AH149*0.25)-1)*POWER(X149+(AH149*0.25),0.5)*10)</f>
-        <v>2587</v>
+        <v>2563</v>
       </c>
       <c r="AH149">
         <v>120</v>
       </c>
       <c r="AI149">
         <f>INT(5+(X149+(AJ149*0.25)-1)*POWER(X149+(AJ149*0.25),0.2))</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ149">
         <v>110</v>
@@ -16799,50 +16799,50 @@
         <v>477</v>
       </c>
       <c r="W160">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X160">
         <f>1+(W160-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y160">
         <f>INT(POWER(X160+(Z160*0.25),2)*35)</f>
-        <v>13652</v>
+        <v>12635</v>
       </c>
       <c r="Z160">
         <v>37</v>
       </c>
       <c r="AA160">
         <f>INT(POWER(X160+(AB160*0.25),3))+40</f>
-        <v>12608</v>
+        <v>11430</v>
       </c>
       <c r="AB160">
         <v>51</v>
       </c>
       <c r="AC160">
         <f>INT(50+(X160+(AD160*0.25)-1)*POWER(X160+(AD160*0.25),0.5)*10)</f>
-        <v>5574</v>
+        <v>5482</v>
       </c>
       <c r="AD160">
         <v>230</v>
       </c>
       <c r="AE160">
         <f>INT(POWER(X160+(AF160*0.25),3))+40</f>
-        <v>2237</v>
+        <v>1878</v>
       </c>
       <c r="AF160">
         <v>10</v>
       </c>
       <c r="AG160">
         <f>INT(50+(X160+(AH160*0.25)-1)*POWER(X160+(AH160*0.25),0.5)*10)</f>
-        <v>5270</v>
+        <v>5179</v>
       </c>
       <c r="AH160">
         <v>220</v>
       </c>
       <c r="AI160">
         <f>INT(5+(X160+(AJ160*0.25)-1)*POWER(X160+(AJ160*0.25),0.2))</f>
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AJ160">
         <v>270</v>
@@ -16866,50 +16866,50 @@
         <v>480</v>
       </c>
       <c r="W161">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X161">
         <f>1+(W161-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y161">
         <f>INT(POWER(X161+(Z161*0.25),2)*35)</f>
-        <v>14352</v>
+        <v>13308</v>
       </c>
       <c r="Z161">
         <v>38</v>
       </c>
       <c r="AA161">
         <f>INT(POWER(X161+(AB161*0.25),3))+40</f>
-        <v>2366</v>
+        <v>1993</v>
       </c>
       <c r="AB161">
         <v>10</v>
       </c>
       <c r="AC161">
         <f>INT(50+(X161+(AD161*0.25)-1)*POWER(X161+(AD161*0.25),0.5)*10)</f>
-        <v>5000</v>
+        <v>4912</v>
       </c>
       <c r="AD161">
         <v>210</v>
       </c>
       <c r="AE161">
         <f>INT(POWER(X161+(AF161*0.25),3))+40</f>
-        <v>9635</v>
+        <v>8655</v>
       </c>
       <c r="AF161">
         <v>42</v>
       </c>
       <c r="AG161">
         <f>INT(50+(X161+(AH161*0.25)-1)*POWER(X161+(AH161*0.25),0.5)*10)</f>
-        <v>5300</v>
+        <v>5209</v>
       </c>
       <c r="AH161">
         <v>220</v>
       </c>
       <c r="AI161">
         <f>INT(5+(X161+(AJ161*0.25)-1)*POWER(X161+(AJ161*0.25),0.2))</f>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ161">
         <v>120</v>
@@ -16930,50 +16930,50 @@
         <v>483</v>
       </c>
       <c r="W162">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X162">
         <f>1+(W162-1)*0.25</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y162">
         <f>INT(POWER(X162+(Z162*0.25),2)*35)</f>
-        <v>13308</v>
+        <v>12304</v>
       </c>
       <c r="Z162">
         <v>36</v>
       </c>
       <c r="AA162">
         <f>INT(POWER(X162+(AB162*0.25),3))+40</f>
-        <v>2500</v>
+        <v>2112</v>
       </c>
       <c r="AB162">
         <v>12</v>
       </c>
       <c r="AC162">
         <f>INT(50+(X162+(AD162*0.25)-1)*POWER(X162+(AD162*0.25),0.5)*10)</f>
-        <v>6523</v>
+        <v>6426</v>
       </c>
       <c r="AD162">
         <v>260</v>
       </c>
       <c r="AE162">
         <f>INT(POWER(X162+(AF162*0.25),3))+40</f>
-        <v>12207</v>
+        <v>11055</v>
       </c>
       <c r="AF162">
         <v>50</v>
       </c>
       <c r="AG162">
         <f>INT(50+(X162+(AH162*0.25)-1)*POWER(X162+(AH162*0.25),0.5)*10)</f>
-        <v>6523</v>
+        <v>6426</v>
       </c>
       <c r="AH162">
         <v>260</v>
       </c>
       <c r="AI162">
         <f>INT(5+(X162+(AJ162*0.25)-1)*POWER(X162+(AJ162*0.25),0.2))</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ162">
         <v>240</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z89" sqref="Z89"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6873,10 +6873,10 @@
       </c>
       <c r="Y36">
         <f>INT(POWER(X36+(Z36*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>8682</v>
       </c>
       <c r="Z36">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA36">
         <f>INT(POWER(X36+(AB36*0.25),3))+40</f>
@@ -10761,46 +10761,46 @@
         <v>35</v>
       </c>
       <c r="X89">
-        <f>1+(W89-1)*0.25</f>
+        <f t="shared" ref="X89:X94" si="98">1+(W89-1)*0.25</f>
         <v>9.5</v>
       </c>
       <c r="Y89">
-        <f>INT(POWER(X89+(Z89*0.25),2)*35)</f>
+        <f t="shared" ref="Y89:Y94" si="99">INT(POWER(X89+(Z89*0.25),2)*35)</f>
         <v>25515</v>
       </c>
       <c r="Z89">
         <v>70</v>
       </c>
       <c r="AA89">
-        <f>INT(POWER(X89+(AB89*0.25),3))+40</f>
+        <f t="shared" ref="AA89:AA94" si="100">INT(POWER(X89+(AB89*0.25),3))+40</f>
         <v>1878</v>
       </c>
       <c r="AB89">
         <v>11</v>
       </c>
       <c r="AC89">
-        <f>INT(50+(X89+(AD89*0.25)-1)*POWER(X89+(AD89*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC89:AC94" si="101">INT(50+(X89+(AD89*0.25)-1)*POWER(X89+(AD89*0.25),0.5)*10)</f>
         <v>9875</v>
       </c>
       <c r="AD89">
         <v>360</v>
       </c>
       <c r="AE89">
-        <f>INT(POWER(X89+(AF89*0.25),3))+40</f>
+        <f t="shared" ref="AE89:AE94" si="102">INT(POWER(X89+(AF89*0.25),3))+40</f>
         <v>7454</v>
       </c>
       <c r="AF89">
         <v>40</v>
       </c>
       <c r="AG89">
-        <f>INT(50+(X89+(AH89*0.25)-1)*POWER(X89+(AH89*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG89:AG94" si="103">INT(50+(X89+(AH89*0.25)-1)*POWER(X89+(AH89*0.25),0.5)*10)</f>
         <v>7794</v>
       </c>
       <c r="AH89">
         <v>302</v>
       </c>
       <c r="AI89">
-        <f>INT(5+(X89+(AJ89*0.25)-1)*POWER(X89+(AJ89*0.25),0.2))</f>
+        <f t="shared" ref="AI89:AI94" si="104">INT(5+(X89+(AJ89*0.25)-1)*POWER(X89+(AJ89*0.25),0.2))</f>
         <v>18</v>
       </c>
       <c r="AJ89">
@@ -10891,46 +10891,46 @@
         <v>35</v>
       </c>
       <c r="X90">
-        <f>1+(W90-1)*0.25</f>
+        <f t="shared" si="98"/>
         <v>9.5</v>
       </c>
       <c r="Y90">
-        <f>INT(POWER(X90+(Z90*0.25),2)*35)</f>
+        <f t="shared" si="99"/>
         <v>10115</v>
       </c>
       <c r="Z90">
         <v>30</v>
       </c>
       <c r="AA90">
-        <f>INT(POWER(X90+(AB90*0.25),3))+40</f>
+        <f t="shared" si="100"/>
         <v>6118</v>
       </c>
       <c r="AB90">
         <v>35</v>
       </c>
       <c r="AC90">
-        <f>INT(50+(X90+(AD90*0.25)-1)*POWER(X90+(AD90*0.25),0.5)*10)</f>
+        <f t="shared" si="101"/>
         <v>2017</v>
       </c>
       <c r="AD90">
         <v>100</v>
       </c>
       <c r="AE90">
-        <f>INT(POWER(X90+(AF90*0.25),3))+40</f>
+        <f t="shared" si="102"/>
         <v>897</v>
       </c>
       <c r="AF90">
         <v>0</v>
       </c>
       <c r="AG90">
-        <f>INT(50+(X90+(AH90*0.25)-1)*POWER(X90+(AH90*0.25),0.5)*10)</f>
+        <f t="shared" si="103"/>
         <v>2017</v>
       </c>
       <c r="AH90">
         <v>100</v>
       </c>
       <c r="AI90">
-        <f>INT(5+(X90+(AJ90*0.25)-1)*POWER(X90+(AJ90*0.25),0.2))</f>
+        <f t="shared" si="104"/>
         <v>193</v>
       </c>
       <c r="AJ90">
@@ -10957,46 +10957,46 @@
         <v>36</v>
       </c>
       <c r="X91">
-        <f>1+(W91-1)*0.25</f>
+        <f t="shared" si="98"/>
         <v>9.75</v>
       </c>
       <c r="Y91">
-        <f>INT(POWER(X91+(Z91*0.25),2)*35)</f>
+        <f t="shared" si="99"/>
         <v>11027</v>
       </c>
       <c r="Z91">
         <v>32</v>
       </c>
       <c r="AA91">
-        <f>INT(POWER(X91+(AB91*0.25),3))+40</f>
+        <f t="shared" si="100"/>
         <v>6631</v>
       </c>
       <c r="AB91">
         <v>36</v>
       </c>
       <c r="AC91">
-        <f>INT(50+(X91+(AD91*0.25)-1)*POWER(X91+(AD91*0.25),0.5)*10)</f>
+        <f t="shared" si="101"/>
         <v>2262</v>
       </c>
       <c r="AD91">
         <v>110</v>
       </c>
       <c r="AE91">
-        <f>INT(POWER(X91+(AF91*0.25),3))+40</f>
+        <f t="shared" si="102"/>
         <v>966</v>
       </c>
       <c r="AF91">
         <v>0</v>
       </c>
       <c r="AG91">
-        <f>INT(50+(X91+(AH91*0.25)-1)*POWER(X91+(AH91*0.25),0.5)*10)</f>
+        <f t="shared" si="103"/>
         <v>2262</v>
       </c>
       <c r="AH91">
         <v>110</v>
       </c>
       <c r="AI91">
-        <f>INT(5+(X91+(AJ91*0.25)-1)*POWER(X91+(AJ91*0.25),0.2))</f>
+        <f t="shared" si="104"/>
         <v>138</v>
       </c>
       <c r="AJ91">
@@ -11023,46 +11023,46 @@
         <v>35</v>
       </c>
       <c r="X92">
-        <f>1+(W92-1)*0.25</f>
+        <f t="shared" si="98"/>
         <v>9.5</v>
       </c>
       <c r="Y92">
-        <f>INT(POWER(X92+(Z92*0.25),2)*35)</f>
+        <f t="shared" si="99"/>
         <v>10115</v>
       </c>
       <c r="Z92">
         <v>30</v>
       </c>
       <c r="AA92">
-        <f>INT(POWER(X92+(AB92*0.25),3))+40</f>
+        <f t="shared" si="100"/>
         <v>6899</v>
       </c>
       <c r="AB92">
         <v>38</v>
       </c>
       <c r="AC92">
-        <f>INT(50+(X92+(AD92*0.25)-1)*POWER(X92+(AD92*0.25),0.5)*10)</f>
+        <f t="shared" si="101"/>
         <v>2239</v>
       </c>
       <c r="AD92">
         <v>110</v>
       </c>
       <c r="AE92">
-        <f>INT(POWER(X92+(AF92*0.25),3))+40</f>
+        <f t="shared" si="102"/>
         <v>897</v>
       </c>
       <c r="AF92">
         <v>0</v>
       </c>
       <c r="AG92">
-        <f>INT(50+(X92+(AH92*0.25)-1)*POWER(X92+(AH92*0.25),0.5)*10)</f>
+        <f t="shared" si="103"/>
         <v>311</v>
       </c>
       <c r="AH92">
         <v>0</v>
       </c>
       <c r="AI92">
-        <f>INT(5+(X92+(AJ92*0.25)-1)*POWER(X92+(AJ92*0.25),0.2))</f>
+        <f t="shared" si="104"/>
         <v>73</v>
       </c>
       <c r="AJ92">
@@ -11089,46 +11089,46 @@
         <v>37</v>
       </c>
       <c r="X93">
-        <f>1+(W93-1)*0.25</f>
+        <f t="shared" si="98"/>
         <v>10</v>
       </c>
       <c r="Y93">
-        <f>INT(POWER(X93+(Z93*0.25),2)*35)</f>
+        <f t="shared" si="99"/>
         <v>11340</v>
       </c>
       <c r="Z93">
         <v>32</v>
       </c>
       <c r="AA93">
-        <f>INT(POWER(X93+(AB93*0.25),3))+40</f>
+        <f t="shared" si="100"/>
         <v>8040</v>
       </c>
       <c r="AB93">
         <v>40</v>
       </c>
       <c r="AC93">
-        <f>INT(50+(X93+(AD93*0.25)-1)*POWER(X93+(AD93*0.25),0.5)*10)</f>
+        <f t="shared" si="101"/>
         <v>2755</v>
       </c>
       <c r="AD93">
         <v>130</v>
       </c>
       <c r="AE93">
-        <f>INT(POWER(X93+(AF93*0.25),3))+40</f>
+        <f t="shared" si="102"/>
         <v>1040</v>
       </c>
       <c r="AF93">
         <v>0</v>
       </c>
       <c r="AG93">
-        <f>INT(50+(X93+(AH93*0.25)-1)*POWER(X93+(AH93*0.25),0.5)*10)</f>
+        <f t="shared" si="103"/>
         <v>2516</v>
       </c>
       <c r="AH93">
         <v>120</v>
       </c>
       <c r="AI93">
-        <f>INT(5+(X93+(AJ93*0.25)-1)*POWER(X93+(AJ93*0.25),0.2))</f>
+        <f t="shared" si="104"/>
         <v>132</v>
       </c>
       <c r="AJ93">
@@ -11155,46 +11155,46 @@
         <v>35</v>
       </c>
       <c r="X94" s="9">
-        <f>1+(W94-1)*0.25</f>
+        <f t="shared" si="98"/>
         <v>9.5</v>
       </c>
       <c r="Y94" s="9">
-        <f>INT(POWER(X94+(Z94*0.25),2)*35)</f>
+        <f t="shared" si="99"/>
         <v>16940</v>
       </c>
       <c r="Z94" s="9">
         <v>50</v>
       </c>
       <c r="AA94" s="9">
-        <f>INT(POWER(X94+(AB94*0.25),3))+40</f>
+        <f t="shared" si="100"/>
         <v>8343</v>
       </c>
       <c r="AB94" s="9">
         <v>43</v>
       </c>
       <c r="AC94" s="9">
-        <f>INT(50+(X94+(AD94*0.25)-1)*POWER(X94+(AD94*0.25),0.5)*10)</f>
+        <f t="shared" si="101"/>
         <v>3203</v>
       </c>
       <c r="AD94" s="9">
         <v>150</v>
       </c>
       <c r="AE94" s="9">
-        <f>INT(POWER(X94+(AF94*0.25),3))+40</f>
+        <f t="shared" si="102"/>
         <v>897</v>
       </c>
       <c r="AF94" s="9">
         <v>0</v>
       </c>
       <c r="AG94" s="9">
-        <f>INT(50+(X94+(AH94*0.25)-1)*POWER(X94+(AH94*0.25),0.5)*10)</f>
+        <f t="shared" si="103"/>
         <v>311</v>
       </c>
       <c r="AH94" s="9">
         <v>0</v>
       </c>
       <c r="AI94" s="9">
-        <f>INT(5+(X94+(AJ94*0.25)-1)*POWER(X94+(AJ94*0.25),0.2))</f>
+        <f t="shared" si="104"/>
         <v>85</v>
       </c>
       <c r="AJ94" s="9">
@@ -11459,7 +11459,7 @@
         <v>35</v>
       </c>
       <c r="AA98">
-        <f t="shared" ref="AA98:AA99" si="98">INT(POWER(X98+(AB98*0.25),3))+40</f>
+        <f t="shared" ref="AA98:AA99" si="105">INT(POWER(X98+(AB98*0.25),3))+40</f>
         <v>2639</v>
       </c>
       <c r="AB98">
@@ -11539,7 +11539,7 @@
         <v>34</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="98"/>
+        <f t="shared" si="105"/>
         <v>2933</v>
       </c>
       <c r="AB99">
@@ -14913,7 +14913,7 @@
         <v>36</v>
       </c>
       <c r="X139">
-        <f t="shared" ref="X139:X141" si="99">1+(W139-1)*0.25</f>
+        <f t="shared" ref="X139:X141" si="106">1+(W139-1)*0.25</f>
         <v>9.75</v>
       </c>
       <c r="Y139">
@@ -14983,7 +14983,7 @@
         <v>35</v>
       </c>
       <c r="X140">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>9.5</v>
       </c>
       <c r="Y140">
@@ -15053,7 +15053,7 @@
         <v>35</v>
       </c>
       <c r="X141">
-        <f t="shared" si="99"/>
+        <f t="shared" si="106"/>
         <v>9.5</v>
       </c>
       <c r="Y141">
@@ -16027,46 +16027,46 @@
         <v>12</v>
       </c>
       <c r="X152" s="9">
-        <f t="shared" ref="X152:X158" si="100">1+(W152-1)*0.25</f>
+        <f t="shared" ref="X152:X158" si="107">1+(W152-1)*0.25</f>
         <v>3.75</v>
       </c>
       <c r="Y152" s="9">
-        <f t="shared" ref="Y152:Y158" si="101">INT(POWER(X152+(Z152*0.25),2)*35)</f>
+        <f t="shared" ref="Y152:Y158" si="108">INT(POWER(X152+(Z152*0.25),2)*35)</f>
         <v>492</v>
       </c>
       <c r="Z152" s="9">
         <v>0</v>
       </c>
       <c r="AA152" s="9">
-        <f t="shared" ref="AA152:AA158" si="102">INT(POWER(X152+(AB152*0.25),3))+40</f>
+        <f t="shared" ref="AA152:AA158" si="109">INT(POWER(X152+(AB152*0.25),3))+40</f>
         <v>92</v>
       </c>
       <c r="AB152" s="9">
         <v>0</v>
       </c>
       <c r="AC152" s="9">
-        <f t="shared" ref="AC152:AC158" si="103">INT(50+(X152+(AD152*0.25)-1)*POWER(X152+(AD152*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC152:AC158" si="110">INT(50+(X152+(AD152*0.25)-1)*POWER(X152+(AD152*0.25),0.5)*10)</f>
         <v>103</v>
       </c>
       <c r="AD152" s="9">
         <v>0</v>
       </c>
       <c r="AE152" s="9">
-        <f t="shared" ref="AE152:AE158" si="104">INT(POWER(X152+(AF152*0.25),3))+40</f>
+        <f t="shared" ref="AE152:AE158" si="111">INT(POWER(X152+(AF152*0.25),3))+40</f>
         <v>92</v>
       </c>
       <c r="AF152" s="9">
         <v>0</v>
       </c>
       <c r="AG152" s="9">
-        <f t="shared" ref="AG152:AG158" si="105">INT(50+(X152+(AH152*0.25)-1)*POWER(X152+(AH152*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG152:AG158" si="112">INT(50+(X152+(AH152*0.25)-1)*POWER(X152+(AH152*0.25),0.5)*10)</f>
         <v>103</v>
       </c>
       <c r="AH152" s="9">
         <v>0</v>
       </c>
       <c r="AI152" s="9">
-        <f t="shared" ref="AI152:AI158" si="106">INT(5+(X152+(AJ152*0.25)-1)*POWER(X152+(AJ152*0.25),0.2))</f>
+        <f t="shared" ref="AI152:AI158" si="113">INT(5+(X152+(AJ152*0.25)-1)*POWER(X152+(AJ152*0.25),0.2))</f>
         <v>8</v>
       </c>
       <c r="AJ152" s="9">
@@ -16154,46 +16154,46 @@
         <v>12</v>
       </c>
       <c r="X153" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y153" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z153" s="9">
         <v>0</v>
       </c>
       <c r="AA153" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB153" s="9">
         <v>0</v>
       </c>
       <c r="AC153" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD153" s="9">
         <v>0</v>
       </c>
       <c r="AE153" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF153" s="9">
         <v>0</v>
       </c>
       <c r="AG153" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH153" s="9">
         <v>0</v>
       </c>
       <c r="AI153" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ153" s="9">
@@ -16281,46 +16281,46 @@
         <v>12</v>
       </c>
       <c r="X154" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y154" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z154" s="9">
         <v>0</v>
       </c>
       <c r="AA154" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB154" s="9">
         <v>0</v>
       </c>
       <c r="AC154" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD154" s="9">
         <v>0</v>
       </c>
       <c r="AE154" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF154" s="9">
         <v>0</v>
       </c>
       <c r="AG154" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH154" s="9">
         <v>0</v>
       </c>
       <c r="AI154" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ154" s="9">
@@ -16347,46 +16347,46 @@
         <v>12</v>
       </c>
       <c r="X155">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y155">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB155">
         <v>0</v>
       </c>
       <c r="AC155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD155">
         <v>0</v>
       </c>
       <c r="AE155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF155">
         <v>0</v>
       </c>
       <c r="AG155">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ155">
@@ -16417,46 +16417,46 @@
         <v>12</v>
       </c>
       <c r="X156">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y156">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z156">
         <v>0</v>
       </c>
       <c r="AA156">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB156">
         <v>0</v>
       </c>
       <c r="AC156">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD156">
         <v>0</v>
       </c>
       <c r="AE156">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF156">
         <v>0</v>
       </c>
       <c r="AG156">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
       <c r="AI156">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ156">
@@ -16487,46 +16487,46 @@
         <v>12</v>
       </c>
       <c r="X157">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y157">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z157">
         <v>0</v>
       </c>
       <c r="AA157">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB157">
         <v>0</v>
       </c>
       <c r="AC157">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD157">
         <v>0</v>
       </c>
       <c r="AE157">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF157">
         <v>0</v>
       </c>
       <c r="AG157">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
       <c r="AI157">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ157">
@@ -16557,46 +16557,46 @@
         <v>12</v>
       </c>
       <c r="X158">
-        <f t="shared" si="100"/>
+        <f t="shared" si="107"/>
         <v>3.75</v>
       </c>
       <c r="Y158">
-        <f t="shared" si="101"/>
+        <f t="shared" si="108"/>
         <v>492</v>
       </c>
       <c r="Z158">
         <v>0</v>
       </c>
       <c r="AA158">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>92</v>
       </c>
       <c r="AB158">
         <v>0</v>
       </c>
       <c r="AC158">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>103</v>
       </c>
       <c r="AD158">
         <v>0</v>
       </c>
       <c r="AE158">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>92</v>
       </c>
       <c r="AF158">
         <v>0</v>
       </c>
       <c r="AG158">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>103</v>
       </c>
       <c r="AH158">
         <v>0</v>
       </c>
       <c r="AI158">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>8</v>
       </c>
       <c r="AJ158">
@@ -17810,46 +17810,46 @@
         <v>45</v>
       </c>
       <c r="X174">
-        <f t="shared" ref="X174:X180" si="107">1+(W174-1)*0.25</f>
+        <f t="shared" ref="X174:X180" si="114">1+(W174-1)*0.25</f>
         <v>12</v>
       </c>
       <c r="Y174">
-        <f t="shared" ref="Y174:Y180" si="108">INT(POWER(X174+(Z174*0.25),2)*35)</f>
+        <f t="shared" ref="Y174:Y180" si="115">INT(POWER(X174+(Z174*0.25),2)*35)</f>
         <v>44732</v>
       </c>
       <c r="Z174">
         <v>95</v>
       </c>
       <c r="AA174">
-        <f t="shared" ref="AA174:AA180" si="109">INT(POWER(X174+(AB174*0.25),3))+40</f>
+        <f t="shared" ref="AA174:AA180" si="116">INT(POWER(X174+(AB174*0.25),3))+40</f>
         <v>1768</v>
       </c>
       <c r="AB174">
         <v>0</v>
       </c>
       <c r="AC174">
-        <f t="shared" ref="AC174:AC180" si="110">INT(50+(X174+(AD174*0.25)-1)*POWER(X174+(AD174*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC174:AC180" si="117">INT(50+(X174+(AD174*0.25)-1)*POWER(X174+(AD174*0.25),0.5)*10)</f>
         <v>25485</v>
       </c>
       <c r="AD174">
         <v>700</v>
       </c>
       <c r="AE174">
-        <f t="shared" ref="AE174:AE180" si="111">INT(POWER(X174+(AF174*0.25),3))+40</f>
+        <f t="shared" ref="AE174:AE180" si="118">INT(POWER(X174+(AF174*0.25),3))+40</f>
         <v>11814</v>
       </c>
       <c r="AF174">
         <v>43</v>
       </c>
       <c r="AG174">
-        <f t="shared" ref="AG174:AG180" si="112">INT(50+(X174+(AH174*0.25)-1)*POWER(X174+(AH174*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG174:AG180" si="119">INT(50+(X174+(AH174*0.25)-1)*POWER(X174+(AH174*0.25),0.5)*10)</f>
         <v>9875</v>
       </c>
       <c r="AH174">
         <v>350</v>
       </c>
       <c r="AI174">
-        <f t="shared" ref="AI174:AI180" si="113">INT(5+(X174+(AJ174*0.25)-1)*POWER(X174+(AJ174*0.25),0.2))</f>
+        <f t="shared" ref="AI174:AI180" si="120">INT(5+(X174+(AJ174*0.25)-1)*POWER(X174+(AJ174*0.25),0.2))</f>
         <v>82</v>
       </c>
       <c r="AJ174">
@@ -17940,11 +17940,11 @@
         <v>45</v>
       </c>
       <c r="X175">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>12</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>51207</v>
       </c>
       <c r="Z175">
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>25741</v>
       </c>
       <c r="AD175">
@@ -17972,14 +17972,14 @@
         <v>40</v>
       </c>
       <c r="AG175">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>9912</v>
       </c>
       <c r="AH175">
         <v>351</v>
       </c>
       <c r="AI175">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>79</v>
       </c>
       <c r="AJ175">
@@ -18060,46 +18060,46 @@
         <v>50</v>
       </c>
       <c r="X176">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>13.25</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>18919</v>
       </c>
       <c r="Z176">
         <v>40</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>12608</v>
       </c>
       <c r="AB176">
         <v>40</v>
       </c>
       <c r="AC176">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>1122</v>
       </c>
       <c r="AD176">
         <v>40</v>
       </c>
       <c r="AE176">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>2366</v>
       </c>
       <c r="AF176">
         <v>0</v>
       </c>
       <c r="AG176">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>786</v>
       </c>
       <c r="AH176">
         <v>20</v>
       </c>
       <c r="AI176">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>28</v>
       </c>
       <c r="AJ176">
@@ -18180,46 +18180,46 @@
         <v>46</v>
       </c>
       <c r="X177">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>12.25</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>23660</v>
       </c>
       <c r="Z177">
         <v>55</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>1878</v>
       </c>
       <c r="AB177">
         <v>0</v>
       </c>
       <c r="AC177">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>3076</v>
       </c>
       <c r="AD177">
         <v>134</v>
       </c>
       <c r="AE177">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>15200</v>
       </c>
       <c r="AF177">
         <v>50</v>
       </c>
       <c r="AG177">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>9912</v>
       </c>
       <c r="AH177">
         <v>350</v>
       </c>
       <c r="AI177">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>23</v>
       </c>
       <c r="AJ177">
@@ -18300,46 +18300,46 @@
         <v>46</v>
       </c>
       <c r="X178">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>12.25</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>24117</v>
       </c>
       <c r="Z178">
         <v>56</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>13017</v>
       </c>
       <c r="AB178">
         <v>45</v>
       </c>
       <c r="AC178">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>9950</v>
       </c>
       <c r="AD178">
         <v>351</v>
       </c>
       <c r="AE178">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>1878</v>
       </c>
       <c r="AF178">
         <v>0</v>
       </c>
       <c r="AG178">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>3647</v>
       </c>
       <c r="AH178">
         <v>156</v>
       </c>
       <c r="AI178">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>215</v>
       </c>
       <c r="AJ178">
@@ -18417,46 +18417,46 @@
         <v>46</v>
       </c>
       <c r="X179">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>12.25</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>22314</v>
       </c>
       <c r="Z179">
         <v>52</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>1878</v>
       </c>
       <c r="AB179">
         <v>0</v>
       </c>
       <c r="AC179">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>3594</v>
       </c>
       <c r="AD179">
         <v>154</v>
       </c>
       <c r="AE179">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>13017</v>
       </c>
       <c r="AF179">
         <v>45</v>
       </c>
       <c r="AG179">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>8814</v>
       </c>
       <c r="AH179">
         <v>320</v>
       </c>
       <c r="AI179">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>23</v>
       </c>
       <c r="AJ179">
@@ -18481,46 +18481,46 @@
         <v>46</v>
       </c>
       <c r="X180">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>12.25</v>
       </c>
       <c r="Y180">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>25044</v>
       </c>
       <c r="Z180">
         <v>58</v>
       </c>
       <c r="AA180">
-        <f t="shared" si="109"/>
+        <f t="shared" si="116"/>
         <v>1878</v>
       </c>
       <c r="AB180">
         <v>0</v>
       </c>
       <c r="AC180">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>3647</v>
       </c>
       <c r="AD180">
         <v>156</v>
       </c>
       <c r="AE180">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>11814</v>
       </c>
       <c r="AF180">
         <v>42</v>
       </c>
       <c r="AG180">
-        <f t="shared" si="112"/>
+        <f t="shared" si="119"/>
         <v>9912</v>
       </c>
       <c r="AH180">
         <v>350</v>
       </c>
       <c r="AI180">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>23</v>
       </c>
       <c r="AJ180">
@@ -18610,46 +18610,46 @@
         <v>60</v>
       </c>
       <c r="X182">
-        <f t="shared" ref="X182:X188" si="114">1+(W182-1)*0.25</f>
+        <f t="shared" ref="X182:X188" si="121">1+(W182-1)*0.25</f>
         <v>15.75</v>
       </c>
       <c r="Y182">
-        <f t="shared" ref="Y182:Y188" si="115">INT(POWER(X182+(Z182*0.25),2)*35)</f>
+        <f t="shared" ref="Y182:Y188" si="122">INT(POWER(X182+(Z182*0.25),2)*35)</f>
         <v>73257</v>
       </c>
       <c r="Z182">
         <v>120</v>
       </c>
       <c r="AA182">
-        <f t="shared" ref="AA182:AA188" si="116">INT(POWER(X182+(AB182*0.25),3))+40</f>
+        <f t="shared" ref="AA182:AA188" si="123">INT(POWER(X182+(AB182*0.25),3))+40</f>
         <v>29116</v>
       </c>
       <c r="AB182">
         <v>60</v>
       </c>
       <c r="AC182">
-        <f t="shared" ref="AC182:AC188" si="117">INT(50+(X182+(AD182*0.25)-1)*POWER(X182+(AD182*0.25),0.5)*10)</f>
+        <f t="shared" ref="AC182:AC188" si="124">INT(50+(X182+(AD182*0.25)-1)*POWER(X182+(AD182*0.25),0.5)*10)</f>
         <v>116950</v>
       </c>
       <c r="AD182">
         <v>2000</v>
       </c>
       <c r="AE182">
-        <f t="shared" ref="AE182:AE188" si="118">INT(POWER(X182+(AF182*0.25),3))+40</f>
+        <f t="shared" ref="AE182:AE188" si="125">INT(POWER(X182+(AF182*0.25),3))+40</f>
         <v>22585</v>
       </c>
       <c r="AF182">
         <v>50</v>
       </c>
       <c r="AG182">
-        <f t="shared" ref="AG182:AG188" si="119">INT(50+(X182+(AH182*0.25)-1)*POWER(X182+(AH182*0.25),0.5)*10)</f>
+        <f t="shared" ref="AG182:AG188" si="126">INT(50+(X182+(AH182*0.25)-1)*POWER(X182+(AH182*0.25),0.5)*10)</f>
         <v>26256</v>
       </c>
       <c r="AH182">
         <v>700</v>
       </c>
       <c r="AI182">
-        <f t="shared" ref="AI182:AI188" si="120">INT(5+(X182+(AJ182*0.25)-1)*POWER(X182+(AJ182*0.25),0.2))</f>
+        <f t="shared" ref="AI182:AI188" si="127">INT(5+(X182+(AJ182*0.25)-1)*POWER(X182+(AJ182*0.25),0.2))</f>
         <v>134</v>
       </c>
       <c r="AJ182">
@@ -18740,46 +18740,46 @@
         <v>80</v>
       </c>
       <c r="X183">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>20.75</v>
       </c>
       <c r="Y183">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>510319</v>
       </c>
       <c r="Z183">
         <v>400</v>
       </c>
       <c r="AA183">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>67707</v>
       </c>
       <c r="AB183">
         <v>80</v>
       </c>
       <c r="AC183">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>32699</v>
       </c>
       <c r="AD183">
         <v>800</v>
       </c>
       <c r="AE183">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>67707</v>
       </c>
       <c r="AF183">
         <v>80</v>
       </c>
       <c r="AG183">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>35520</v>
       </c>
       <c r="AH183">
         <v>850</v>
       </c>
       <c r="AI183">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>41</v>
       </c>
       <c r="AJ183">
@@ -18863,46 +18863,46 @@
         <v>51</v>
       </c>
       <c r="X184">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>13.5</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>28428</v>
       </c>
       <c r="Z184">
         <v>60</v>
       </c>
       <c r="AA184">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>20274</v>
       </c>
       <c r="AB184">
         <v>55</v>
       </c>
       <c r="AC184">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>9987</v>
       </c>
       <c r="AD184">
         <v>347</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>4136</v>
       </c>
       <c r="AF184">
         <v>10</v>
       </c>
       <c r="AG184">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>5030</v>
       </c>
       <c r="AH184">
         <v>200</v>
       </c>
       <c r="AI184">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>203</v>
       </c>
       <c r="AJ184">
@@ -18980,46 +18980,46 @@
         <v>51</v>
       </c>
       <c r="X185">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>13.5</v>
       </c>
       <c r="Y185">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>23660</v>
       </c>
       <c r="Z185">
         <v>50</v>
       </c>
       <c r="AA185">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>18649</v>
       </c>
       <c r="AB185">
         <v>52</v>
       </c>
       <c r="AC185">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>8994</v>
       </c>
       <c r="AD185">
         <v>320</v>
       </c>
       <c r="AE185">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>6371</v>
       </c>
       <c r="AF185">
         <v>20</v>
       </c>
       <c r="AG185">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>5030</v>
       </c>
       <c r="AH185">
         <v>200</v>
       </c>
       <c r="AI185">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>197</v>
       </c>
       <c r="AJ185">
@@ -19097,46 +19097,46 @@
         <v>51</v>
       </c>
       <c r="X186">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>13.5</v>
       </c>
       <c r="Y186">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>25515</v>
       </c>
       <c r="Z186">
         <v>54</v>
       </c>
       <c r="AA186">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>19181</v>
       </c>
       <c r="AB186">
         <v>53</v>
       </c>
       <c r="AC186">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>9726</v>
       </c>
       <c r="AD186">
         <v>340</v>
       </c>
       <c r="AE186">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>9301</v>
       </c>
       <c r="AF186">
         <v>30</v>
       </c>
       <c r="AG186">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>5636</v>
       </c>
       <c r="AH186">
         <v>220</v>
       </c>
       <c r="AI186">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>201</v>
       </c>
       <c r="AJ186">
@@ -19214,46 +19214,46 @@
         <v>51</v>
       </c>
       <c r="X187">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>13.5</v>
       </c>
       <c r="Y187">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>24578</v>
       </c>
       <c r="Z187">
         <v>52</v>
       </c>
       <c r="AA187">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>4136</v>
       </c>
       <c r="AB187">
         <v>10</v>
       </c>
       <c r="AC187">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>9987</v>
       </c>
       <c r="AD187">
         <v>347</v>
       </c>
       <c r="AE187">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>20274</v>
       </c>
       <c r="AF187">
         <v>55</v>
       </c>
       <c r="AG187">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>5330</v>
       </c>
       <c r="AH187">
         <v>210</v>
       </c>
       <c r="AI187">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>196</v>
       </c>
       <c r="AJ187">
@@ -19278,46 +19278,46 @@
         <v>51</v>
       </c>
       <c r="X188">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>13.5</v>
       </c>
       <c r="Y188">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>26952</v>
       </c>
       <c r="Z188">
         <v>57</v>
       </c>
       <c r="AA188">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>19723</v>
       </c>
       <c r="AB188">
         <v>54</v>
       </c>
       <c r="AC188">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>9987</v>
       </c>
       <c r="AD188">
         <v>347</v>
       </c>
       <c r="AE188">
-        <f t="shared" si="118"/>
+        <f t="shared" si="125"/>
         <v>6371</v>
       </c>
       <c r="AF188">
         <v>20</v>
       </c>
       <c r="AG188">
-        <f t="shared" si="119"/>
+        <f t="shared" si="126"/>
         <v>5948</v>
       </c>
       <c r="AH188">
         <v>230</v>
       </c>
       <c r="AI188">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>201</v>
       </c>
       <c r="AJ188">

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB128" sqref="AB128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7792,10 +7792,10 @@
       </c>
       <c r="AI49">
         <f t="shared" si="83"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AL49" s="5" t="s">
         <v>93</v>
@@ -13948,10 +13948,10 @@
       </c>
       <c r="AA126">
         <f>INT(POWER(X126+(AB126*0.25),3))+40</f>
-        <v>8974</v>
+        <v>8343</v>
       </c>
       <c r="AB126">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC126">
         <f>INT(50+(X126+(AD126*0.25)-1)*POWER(X126+(AD126*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB128" sqref="AB128"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB122" sqref="AB122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -13414,50 +13414,50 @@
         <v>337</v>
       </c>
       <c r="W121">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X121">
         <f>1+(W121-1)*0.25</f>
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y121">
         <f>INT(POWER(X121+(Z121*0.25),2)*35)</f>
-        <v>14000</v>
+        <v>12969</v>
       </c>
       <c r="Z121">
         <v>36</v>
       </c>
       <c r="AA121">
         <f>INT(POWER(X121+(AB121*0.25),3))+40</f>
-        <v>8655</v>
+        <v>6899</v>
       </c>
       <c r="AB121">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC121">
         <f>INT(50+(X121+(AD121*0.25)-1)*POWER(X121+(AD121*0.25),0.5)*10)</f>
-        <v>4447</v>
+        <v>4362</v>
       </c>
       <c r="AD121">
         <v>190</v>
       </c>
       <c r="AE121">
         <f>INT(POWER(X121+(AF121*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1116</v>
       </c>
       <c r="AF121">
         <v>0</v>
       </c>
       <c r="AG121">
         <f>INT(50+(X121+(AH121*0.25)-1)*POWER(X121+(AH121*0.25),0.5)*10)</f>
-        <v>3890</v>
+        <v>3808</v>
       </c>
       <c r="AH121">
         <v>170</v>
       </c>
       <c r="AI121">
         <f>INT(5+(X121+(AJ121*0.25)-1)*POWER(X121+(AJ121*0.25),0.2))</f>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AJ121">
         <v>250</v>
@@ -13541,50 +13541,50 @@
         <v>345</v>
       </c>
       <c r="W122">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X122">
         <f>1+(W122-1)*0.25</f>
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y122">
         <f>INT(POWER(X122+(Z122*0.25),2)*35)</f>
-        <v>13652</v>
+        <v>12635</v>
       </c>
       <c r="Z122">
         <v>35</v>
       </c>
       <c r="AA122">
         <f>INT(POWER(X122+(AB122*0.25),3))+40</f>
-        <v>8974</v>
+        <v>7173</v>
       </c>
       <c r="AB122">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC122">
         <f>INT(50+(X122+(AD122*0.25)-1)*POWER(X122+(AD122*0.25),0.5)*10)</f>
-        <v>4447</v>
+        <v>4362</v>
       </c>
       <c r="AD122">
         <v>190</v>
       </c>
       <c r="AE122">
         <f>INT(POWER(X122+(AF122*0.25),3))+40</f>
-        <v>1371</v>
+        <v>1116</v>
       </c>
       <c r="AF122">
         <v>0</v>
       </c>
       <c r="AG122">
         <f>INT(50+(X122+(AH122*0.25)-1)*POWER(X122+(AH122*0.25),0.5)*10)</f>
-        <v>4165</v>
+        <v>4082</v>
       </c>
       <c r="AH122">
         <v>180</v>
       </c>
       <c r="AI122">
         <f>INT(5+(X122+(AJ122*0.25)-1)*POWER(X122+(AJ122*0.25),0.2))</f>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ122">
         <v>230</v>
@@ -13668,50 +13668,50 @@
         <v>347</v>
       </c>
       <c r="W123">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X123">
         <f>1+(W123-1)*0.25</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y123">
         <f>INT(POWER(X123+(Z123*0.25),2)*35)</f>
-        <v>11978</v>
+        <v>11027</v>
       </c>
       <c r="Z123">
         <v>31</v>
       </c>
       <c r="AA123">
         <f>INT(POWER(X123+(AB123*0.25),3))+40</f>
-        <v>1282</v>
+        <v>1040</v>
       </c>
       <c r="AB123">
         <v>0</v>
       </c>
       <c r="AC123">
         <f>INT(50+(X123+(AD123*0.25)-1)*POWER(X123+(AD123*0.25),0.5)*10)</f>
-        <v>3862</v>
+        <v>3781</v>
       </c>
       <c r="AD123">
         <v>170</v>
       </c>
       <c r="AE123">
         <f>INT(POWER(X123+(AF123*0.25),3))+40</f>
-        <v>7454</v>
+        <v>6631</v>
       </c>
       <c r="AF123">
         <v>35</v>
       </c>
       <c r="AG123">
         <f>INT(50+(X123+(AH123*0.25)-1)*POWER(X123+(AH123*0.25),0.5)*10)</f>
-        <v>4419</v>
+        <v>4334</v>
       </c>
       <c r="AH123">
         <v>190</v>
       </c>
       <c r="AI123">
         <f>INT(5+(X123+(AJ123*0.25)-1)*POWER(X123+(AJ123*0.25),0.2))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ123">
         <v>0</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB122" sqref="AB122"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z161" sqref="Z161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15840,10 +15840,10 @@
       </c>
       <c r="AA149">
         <f>INT(POWER(X149+(AB149*0.25),3))+40</f>
-        <v>7454</v>
+        <v>7173</v>
       </c>
       <c r="AB149">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC149">
         <f>INT(50+(X149+(AD149*0.25)-1)*POWER(X149+(AD149*0.25),0.5)*10)</f>
@@ -15907,10 +15907,10 @@
       </c>
       <c r="AA150">
         <f>INT(POWER(X150+(AB150*0.25),3))+40</f>
-        <v>6631</v>
+        <v>6118</v>
       </c>
       <c r="AB150">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC150">
         <f>INT(50+(X150+(AD150*0.25)-1)*POWER(X150+(AD150*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z161" sqref="Z161"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB95" sqref="AB95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10896,10 +10896,10 @@
       </c>
       <c r="Y90">
         <f t="shared" si="99"/>
-        <v>10115</v>
+        <v>11340</v>
       </c>
       <c r="Z90">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA90">
         <f t="shared" si="100"/>
@@ -10910,10 +10910,10 @@
       </c>
       <c r="AC90">
         <f t="shared" si="101"/>
-        <v>2017</v>
+        <v>2707</v>
       </c>
       <c r="AD90">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AE90">
         <f t="shared" si="102"/>
@@ -10924,10 +10924,10 @@
       </c>
       <c r="AG90">
         <f t="shared" si="103"/>
-        <v>2017</v>
+        <v>2707</v>
       </c>
       <c r="AH90">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AI90">
         <f t="shared" si="104"/>
@@ -11094,10 +11094,10 @@
       </c>
       <c r="Y93">
         <f t="shared" si="99"/>
-        <v>11340</v>
+        <v>13308</v>
       </c>
       <c r="Z93">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA93">
         <f t="shared" si="100"/>
@@ -11108,10 +11108,10 @@
       </c>
       <c r="AC93">
         <f t="shared" si="101"/>
-        <v>2755</v>
+        <v>3254</v>
       </c>
       <c r="AD93">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AE93">
         <f t="shared" si="102"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB95" sqref="AB95"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X100" sqref="X100"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z136" sqref="Z136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14402,10 +14402,10 @@
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>23207</v>
+        <v>33094</v>
       </c>
       <c r="Z133">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
@@ -14423,10 +14423,10 @@
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>7454</v>
+        <v>8040</v>
       </c>
       <c r="AF133">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
@@ -14532,17 +14532,17 @@
       </c>
       <c r="Y134">
         <f>INT(POWER(X134+(Z134*0.25),2)*35)</f>
-        <v>8960</v>
+        <v>13652</v>
       </c>
       <c r="Z134">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AA134">
         <f>INT(POWER(X134+(AB134*0.25),3))+40</f>
-        <v>11055</v>
+        <v>8343</v>
       </c>
       <c r="AB134">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AC134">
         <f>INT(50+(X134+(AD134*0.25)-1)*POWER(X134+(AD134*0.25),0.5)*10)</f>
@@ -14648,50 +14648,50 @@
         <v>383</v>
       </c>
       <c r="W135">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X135">
         <f>1+(W135-1)*0.25</f>
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Y135">
         <f>INT(POWER(X135+(Z135*0.25),2)*35)</f>
-        <v>9242</v>
+        <v>11340</v>
       </c>
       <c r="Z135">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AA135">
         <f>INT(POWER(X135+(AB135*0.25),3))+40</f>
-        <v>8974</v>
+        <v>6631</v>
       </c>
       <c r="AB135">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AC135">
         <f>INT(50+(X135+(AD135*0.25)-1)*POWER(X135+(AD135*0.25),0.5)*10)</f>
-        <v>3514</v>
+        <v>3436</v>
       </c>
       <c r="AD135">
         <v>160</v>
       </c>
       <c r="AE135">
         <f>INT(POWER(X135+(AF135*0.25),3))+40</f>
-        <v>1040</v>
+        <v>831</v>
       </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
         <f>INT(50+(X135+(AH135*0.25)-1)*POWER(X135+(AH135*0.25),0.5)*10)</f>
-        <v>3127</v>
+        <v>3051</v>
       </c>
       <c r="AH135">
         <v>145</v>
       </c>
       <c r="AI135">
         <f>INT(5+(X135+(AJ135*0.25)-1)*POWER(X135+(AJ135*0.25),0.2))</f>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ135">
         <v>220</v>
@@ -14715,50 +14715,50 @@
         <v>386</v>
       </c>
       <c r="W136">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X136">
         <f>1+(W136-1)*0.25</f>
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y136">
         <f>INT(POWER(X136+(Z136*0.25),2)*35)</f>
-        <v>9528</v>
+        <v>12304</v>
       </c>
       <c r="Z136">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AA136">
         <f>INT(POWER(X136+(AB136*0.25),3))+40</f>
-        <v>9301</v>
+        <v>7454</v>
       </c>
       <c r="AB136">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC136">
         <f>INT(50+(X136+(AD136*0.25)-1)*POWER(X136+(AD136*0.25),0.5)*10)</f>
-        <v>3541</v>
+        <v>3462</v>
       </c>
       <c r="AD136">
         <v>160</v>
       </c>
       <c r="AE136">
         <f>INT(POWER(X136+(AF136*0.25),3))+40</f>
-        <v>1116</v>
+        <v>897</v>
       </c>
       <c r="AF136">
         <v>0</v>
       </c>
       <c r="AG136">
         <f>INT(50+(X136+(AH136*0.25)-1)*POWER(X136+(AH136*0.25),0.5)*10)</f>
-        <v>3152</v>
+        <v>3076</v>
       </c>
       <c r="AH136">
         <v>145</v>
       </c>
       <c r="AI136">
         <f>INT(5+(X136+(AJ136*0.25)-1)*POWER(X136+(AJ136*0.25),0.2))</f>
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AJ136">
         <v>230</v>
@@ -14845,10 +14845,10 @@
       </c>
       <c r="Y138">
         <f>INT(POWER(X138+(Z138*0.25),2)*35)</f>
-        <v>30458</v>
+        <v>35840</v>
       </c>
       <c r="Z138">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA138">
         <f>INT(POWER(X138+(AB138*0.25),3))+40</f>
@@ -14866,10 +14866,10 @@
       </c>
       <c r="AE138">
         <f>INT(POWER(X138+(AF138*0.25),3))+40</f>
-        <v>8974</v>
+        <v>10688</v>
       </c>
       <c r="AF138">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG138">
         <f>INT(50+(X138+(AH138*0.25)-1)*POWER(X138+(AH138*0.25),0.5)*10)</f>
@@ -14918,17 +14918,17 @@
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>7614</v>
+        <v>12969</v>
       </c>
       <c r="Z139">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>12608</v>
+        <v>7743</v>
       </c>
       <c r="AB139">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
@@ -14988,17 +14988,17 @@
       </c>
       <c r="Y140">
         <f>INT(POWER(X140+(Z140*0.25),2)*35)</f>
-        <v>7358</v>
+        <v>11027</v>
       </c>
       <c r="Z140">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>12207</v>
+        <v>8655</v>
       </c>
       <c r="AB140">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
@@ -15058,17 +15058,17 @@
       </c>
       <c r="Y141">
         <f>INT(POWER(X141+(Z141*0.25),2)*35)</f>
-        <v>8139</v>
+        <v>11657</v>
       </c>
       <c r="Z141">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AA141">
         <f>INT(POWER(X141+(AB141*0.25),3))+40</f>
-        <v>9978</v>
+        <v>9301</v>
       </c>
       <c r="AB141">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC141">
         <f>INT(50+(X141+(AD141*0.25)-1)*POWER(X141+(AD141*0.25),0.5)*10)</f>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z136" sqref="Z136"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB139" sqref="AB139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14845,10 +14845,10 @@
       </c>
       <c r="Y138">
         <f>INT(POWER(X138+(Z138*0.25),2)*35)</f>
-        <v>35840</v>
+        <v>5040</v>
       </c>
       <c r="Z138">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AA138">
         <f>INT(POWER(X138+(AB138*0.25),3))+40</f>
@@ -14859,24 +14859,24 @@
       </c>
       <c r="AC138">
         <f>INT(50+(X138+(AD138*0.25)-1)*POWER(X138+(AD138*0.25),0.5)*10)</f>
-        <v>1803</v>
+        <v>41691</v>
       </c>
       <c r="AD138">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AE138">
         <f>INT(POWER(X138+(AF138*0.25),3))+40</f>
-        <v>10688</v>
+        <v>9978</v>
       </c>
       <c r="AF138">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG138">
         <f>INT(50+(X138+(AH138*0.25)-1)*POWER(X138+(AH138*0.25),0.5)*10)</f>
-        <v>1597</v>
+        <v>41691</v>
       </c>
       <c r="AH138">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI138">
         <f>INT(5+(X138+(AJ138*0.25)-1)*POWER(X138+(AJ138*0.25),0.2))</f>
@@ -14918,24 +14918,24 @@
       </c>
       <c r="Y139">
         <f>INT(POWER(X139+(Z139*0.25),2)*35)</f>
-        <v>12969</v>
+        <v>14352</v>
       </c>
       <c r="Z139">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA139">
         <f>INT(POWER(X139+(AB139*0.25),3))+40</f>
-        <v>7743</v>
+        <v>8040</v>
       </c>
       <c r="AB139">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC139">
         <f>INT(50+(X139+(AD139*0.25)-1)*POWER(X139+(AD139*0.25),0.5)*10)</f>
-        <v>3890</v>
+        <v>5791</v>
       </c>
       <c r="AD139">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="AE139">
         <f>INT(POWER(X139+(AF139*0.25),3))+40</f>
@@ -14953,10 +14953,10 @@
       </c>
       <c r="AI139">
         <f>INT(5+(X139+(AJ139*0.25)-1)*POWER(X139+(AJ139*0.25),0.2))</f>
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AJ139">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="AL139" s="6" t="s">
         <v>223</v>
@@ -14995,10 +14995,10 @@
       </c>
       <c r="AA140">
         <f>INT(POWER(X140+(AB140*0.25),3))+40</f>
-        <v>8655</v>
+        <v>8974</v>
       </c>
       <c r="AB140">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC140">
         <f>INT(50+(X140+(AD140*0.25)-1)*POWER(X140+(AD140*0.25),0.5)*10)</f>
@@ -15023,10 +15023,10 @@
       </c>
       <c r="AI140">
         <f>INT(5+(X140+(AJ140*0.25)-1)*POWER(X140+(AJ140*0.25),0.2))</f>
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="AJ140">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="AL140" s="6" t="s">
         <v>93</v>
@@ -15058,10 +15058,10 @@
       </c>
       <c r="Y141">
         <f>INT(POWER(X141+(Z141*0.25),2)*35)</f>
-        <v>11657</v>
+        <v>12635</v>
       </c>
       <c r="Z141">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AA141">
         <f>INT(POWER(X141+(AB141*0.25),3))+40</f>
@@ -15093,10 +15093,10 @@
       </c>
       <c r="AI141">
         <f>INT(5+(X141+(AJ141*0.25)-1)*POWER(X141+(AJ141*0.25),0.2))</f>
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="AJ141">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="AL141" s="6" t="s">
         <v>65</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB139" sqref="AB139"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH134" sqref="AH134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14402,10 +14402,10 @@
       </c>
       <c r="Y133">
         <f>INT(POWER(X133+(Z133*0.25),2)*35)</f>
-        <v>33094</v>
+        <v>27932</v>
       </c>
       <c r="Z133">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA133">
         <f>INT(POWER(X133+(AB133*0.25),3))+40</f>
@@ -14416,24 +14416,24 @@
       </c>
       <c r="AC133">
         <f>INT(50+(X133+(AD133*0.25)-1)*POWER(X133+(AD133*0.25),0.5)*10)</f>
-        <v>5149</v>
+        <v>4562</v>
       </c>
       <c r="AD133">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AE133">
         <f>INT(POWER(X133+(AF133*0.25),3))+40</f>
-        <v>8040</v>
+        <v>7454</v>
       </c>
       <c r="AF133">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG133">
         <f>INT(50+(X133+(AH133*0.25)-1)*POWER(X133+(AH133*0.25),0.5)*10)</f>
-        <v>4853</v>
+        <v>4591</v>
       </c>
       <c r="AH133">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AI133">
         <f>INT(5+(X133+(AJ133*0.25)-1)*POWER(X133+(AJ133*0.25),0.2))</f>
@@ -14758,10 +14758,10 @@
       </c>
       <c r="AI136">
         <f>INT(5+(X136+(AJ136*0.25)-1)*POWER(X136+(AJ136*0.25),0.2))</f>
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="AJ136">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AL136" s="6" t="s">
         <v>63</v>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4049,9 +4049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH134" sqref="AH134"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB188" sqref="AB188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -18615,10 +18615,10 @@
       </c>
       <c r="Y182">
         <f t="shared" ref="Y182:Y188" si="122">INT(POWER(X182+(Z182*0.25),2)*35)</f>
-        <v>73257</v>
+        <v>151307</v>
       </c>
       <c r="Z182">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AA182">
         <f t="shared" ref="AA182:AA188" si="123">INT(POWER(X182+(AB182*0.25),3))+40</f>
@@ -18629,10 +18629,10 @@
       </c>
       <c r="AC182">
         <f t="shared" ref="AC182:AC188" si="124">INT(50+(X182+(AD182*0.25)-1)*POWER(X182+(AD182*0.25),0.5)*10)</f>
-        <v>116950</v>
+        <v>25229</v>
       </c>
       <c r="AD182">
-        <v>2000</v>
+        <v>680</v>
       </c>
       <c r="AE182">
         <f t="shared" ref="AE182:AE188" si="125">INT(POWER(X182+(AF182*0.25),3))+40</f>
@@ -18875,10 +18875,10 @@
       </c>
       <c r="AA184">
         <f t="shared" si="123"/>
-        <v>20274</v>
+        <v>16621</v>
       </c>
       <c r="AB184">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC184">
         <f t="shared" si="124"/>
@@ -18992,10 +18992,10 @@
       </c>
       <c r="AA185">
         <f t="shared" si="123"/>
-        <v>18649</v>
+        <v>17113</v>
       </c>
       <c r="AB185">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC185">
         <f t="shared" si="124"/>
@@ -19109,10 +19109,10 @@
       </c>
       <c r="AA186">
         <f t="shared" si="123"/>
-        <v>19181</v>
+        <v>16621</v>
       </c>
       <c r="AB186">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AC186">
         <f t="shared" si="124"/>
@@ -19240,10 +19240,10 @@
       </c>
       <c r="AE187">
         <f t="shared" si="125"/>
-        <v>20274</v>
+        <v>17616</v>
       </c>
       <c r="AF187">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG187">
         <f t="shared" si="126"/>
@@ -19290,10 +19290,10 @@
       </c>
       <c r="AA188">
         <f t="shared" si="123"/>
-        <v>19723</v>
+        <v>16621</v>
       </c>
       <c r="AB188">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AC188">
         <f t="shared" si="124"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>200028</t>
-  </si>
-  <si>
-    <t>铜尸陈玄风</t>
   </si>
   <si>
     <t>02002003</t>
@@ -2522,6 +2519,10 @@
   </si>
   <si>
     <t>败退宋兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜尸陈玄风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4049,9 +4050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB188" sqref="AB188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4066,7 +4067,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -4183,7 +4184,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4552,12 +4553,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4810,7 +4811,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -5066,7 +5067,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -5185,7 +5186,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5527,7 +5528,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5593,7 +5594,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5654,10 +5655,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AO18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5723,10 +5724,10 @@
         <v>14001</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>111</v>
+        <v>639</v>
       </c>
       <c r="W19">
         <v>22</v>
@@ -5784,15 +5785,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AO19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -5853,10 +5854,10 @@
         <v>101</v>
       </c>
       <c r="U20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="W20">
         <v>16</v>
@@ -5911,7 +5912,7 @@
         <v>63</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
@@ -5977,10 +5978,10 @@
         <v>105</v>
       </c>
       <c r="U21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="W21">
         <v>17</v>
@@ -6035,12 +6036,12 @@
         <v>63</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -6107,7 +6108,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6173,10 +6174,10 @@
         <v>14001</v>
       </c>
       <c r="U24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="W24">
         <v>18</v>
@@ -6231,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.15">
@@ -6297,10 +6298,10 @@
         <v>13001</v>
       </c>
       <c r="U25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="W25">
         <v>20</v>
@@ -6355,7 +6356,7 @@
         <v>63</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
@@ -6390,12 +6391,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6456,10 +6457,10 @@
         <v>13001</v>
       </c>
       <c r="U30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="W30">
         <v>19</v>
@@ -6511,15 +6512,15 @@
         <v>42</v>
       </c>
       <c r="AL30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM30" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6580,10 +6581,10 @@
         <v>12002</v>
       </c>
       <c r="U31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="W31">
         <v>20</v>
@@ -6647,10 +6648,10 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="U32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="W32">
         <v>21</v>
@@ -6705,7 +6706,7 @@
         <v>52</v>
       </c>
       <c r="AM32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.15">
@@ -6714,10 +6715,10 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="U33" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W33">
         <v>25</v>
@@ -6769,16 +6770,16 @@
         <v>60</v>
       </c>
       <c r="AL33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM33" s="5">
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6793,7 +6794,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6859,10 +6860,10 @@
         <v>12002</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W36">
         <v>30</v>
@@ -6914,16 +6915,16 @@
         <v>60</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM36" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AN36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -6989,10 +6990,10 @@
         <v>30101</v>
       </c>
       <c r="U37" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="W37">
         <v>26</v>
@@ -7047,7 +7048,7 @@
         <v>52</v>
       </c>
       <c r="AM37" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.15">
@@ -7417,15 +7418,15 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B47" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -7477,16 +7478,16 @@
         <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S47" s="5">
         <v>15002</v>
       </c>
       <c r="U47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="V47" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="W47">
         <v>30</v>
@@ -7538,16 +7539,16 @@
         <v>120</v>
       </c>
       <c r="AL47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AM47" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="AN47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AO47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7610,13 +7611,13 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U48" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="W48">
         <v>29</v>
@@ -7668,16 +7669,16 @@
         <v>80</v>
       </c>
       <c r="AL48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM48" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="AM48" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="AN48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AO48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7740,13 +7741,13 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U49" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="V49" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="W49">
         <v>27</v>
@@ -7801,7 +7802,7 @@
         <v>93</v>
       </c>
       <c r="AM49" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.15">
@@ -7864,13 +7865,13 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U50" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="W50">
         <v>28</v>
@@ -7922,13 +7923,13 @@
         <v>50</v>
       </c>
       <c r="AL50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AM50" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="AN50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7991,13 +7992,13 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U51" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V51" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="W51">
         <v>28</v>
@@ -8049,13 +8050,13 @@
         <v>60</v>
       </c>
       <c r="AL51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM51" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AM51" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="AN51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -8118,13 +8119,13 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U52" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="V52" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="W52">
         <v>29</v>
@@ -8176,13 +8177,13 @@
         <v>80</v>
       </c>
       <c r="AL52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AM52" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="AN52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -8245,7 +8246,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -8263,15 +8264,15 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B56" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="D56">
         <v>28</v>
@@ -8323,16 +8324,16 @@
         <v>20</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S56" s="6">
         <v>13003</v>
       </c>
       <c r="U56" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="V56" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="V56" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="W56">
         <v>30</v>
@@ -8387,10 +8388,10 @@
         <v>52</v>
       </c>
       <c r="AM56" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO56" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8453,13 +8454,13 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U57" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="V57" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="V57" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="W57">
         <v>29</v>
@@ -8511,10 +8512,10 @@
         <v>70</v>
       </c>
       <c r="AL57" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM57" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="AM57" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.15">
@@ -8577,13 +8578,13 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U58" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="V58" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="V58" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="W58">
         <v>31</v>
@@ -8638,7 +8639,7 @@
         <v>63</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.15">
@@ -8701,7 +8702,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8768,7 +8769,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8835,7 +8836,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8902,7 +8903,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8911,7 +8912,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8974,13 +8975,13 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U64" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="V64" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="V64" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="W64">
         <v>32</v>
@@ -9032,13 +9033,13 @@
         <v>180</v>
       </c>
       <c r="AL64" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM64" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO64" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -9101,13 +9102,13 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U65" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="V65" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="V65" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="W65">
         <v>33</v>
@@ -9159,10 +9160,10 @@
         <v>150</v>
       </c>
       <c r="AL65" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM65" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.15">
@@ -9225,7 +9226,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -9292,7 +9293,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9359,7 +9360,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9426,7 +9427,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9435,14 +9436,14 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>1</v>
@@ -9503,10 +9504,10 @@
         <v>57</v>
       </c>
       <c r="U71" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="V71" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="V71" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="W71" s="9">
         <v>25</v>
@@ -9558,21 +9559,21 @@
         <v>0</v>
       </c>
       <c r="AL71" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM71" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="AM71" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U72" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="V72" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="V72" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="W72">
         <v>20</v>
@@ -9624,25 +9625,25 @@
         <v>0</v>
       </c>
       <c r="AL72" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM72" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="U73" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V73" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="V73" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="W73">
         <v>20</v>
@@ -9694,15 +9695,15 @@
         <v>0</v>
       </c>
       <c r="AL73" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM73" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9765,13 +9766,13 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U75" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="V75" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="V75" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="W75">
         <v>35</v>
@@ -9823,24 +9824,24 @@
         <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM75" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AM75" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="AN75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO75" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B76" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D76">
         <v>30</v>
@@ -9892,16 +9893,16 @@
         <v>5</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S76" s="6">
         <v>10010</v>
       </c>
       <c r="U76" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V76" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="V76" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="W76">
         <v>37</v>
@@ -9956,15 +9957,15 @@
         <v>63</v>
       </c>
       <c r="AM76" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.15">
       <c r="U77" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="V77" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="V77" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="W77">
         <v>38</v>
@@ -10019,7 +10020,7 @@
         <v>63</v>
       </c>
       <c r="AM77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.15">
@@ -10028,10 +10029,10 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="U78" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="V78" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="V78" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="W78">
         <v>39</v>
@@ -10086,12 +10087,12 @@
         <v>63</v>
       </c>
       <c r="AM78" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -10154,13 +10155,13 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U80" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="V80" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="V80" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="W80">
         <v>35</v>
@@ -10212,24 +10213,24 @@
         <v>260</v>
       </c>
       <c r="AL80" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM80" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AM80" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="AN80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D81">
         <v>30</v>
@@ -10281,16 +10282,16 @@
         <v>5</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S81" s="6">
         <v>10020</v>
       </c>
       <c r="U81" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="V81" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="V81" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="W81">
         <v>36</v>
@@ -10345,16 +10346,16 @@
         <v>65</v>
       </c>
       <c r="AM81" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R82" s="5"/>
       <c r="U82" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="V82" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="V82" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="W82">
         <v>37</v>
@@ -10406,19 +10407,19 @@
         <v>110</v>
       </c>
       <c r="AL82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM82" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AM82" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R83" s="5"/>
       <c r="U83" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="V83" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="V83" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="W83">
         <v>39</v>
@@ -10473,22 +10474,22 @@
         <v>63</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AO83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10549,10 +10550,10 @@
         <v>57</v>
       </c>
       <c r="U85" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="V85" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="V85" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="W85">
         <v>6</v>
@@ -10613,14 +10614,14 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="V86" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="V86" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="W86">
         <v>6</v>
@@ -10680,13 +10681,13 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R87" s="5"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.15">
@@ -10749,13 +10750,13 @@
         <v>101104</v>
       </c>
       <c r="S89" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U89" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="V89" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="V89" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="W89">
         <v>35</v>
@@ -10807,24 +10808,24 @@
         <v>0</v>
       </c>
       <c r="AL89" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM89" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AM89" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="AN89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO89" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B90" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -10882,10 +10883,10 @@
         <v>10012</v>
       </c>
       <c r="U90" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="V90" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="V90" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="W90">
         <v>35</v>
@@ -10937,10 +10938,10 @@
         <v>280</v>
       </c>
       <c r="AL90" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM90" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -10948,10 +10949,10 @@
       <c r="C91" s="6"/>
       <c r="R91" s="6"/>
       <c r="U91" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="V91" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="V91" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="W91">
         <v>36</v>
@@ -11006,7 +11007,7 @@
         <v>63</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.15">
@@ -11014,10 +11015,10 @@
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
       <c r="U92" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="W92">
         <v>35</v>
@@ -11072,7 +11073,7 @@
         <v>63</v>
       </c>
       <c r="AM92" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.15">
@@ -11080,10 +11081,10 @@
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
       <c r="U93" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="V93" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="V93" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="W93">
         <v>37</v>
@@ -11094,10 +11095,10 @@
       </c>
       <c r="Y93">
         <f t="shared" si="99"/>
-        <v>13308</v>
+        <v>12304</v>
       </c>
       <c r="Z93">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA93">
         <f t="shared" si="100"/>
@@ -11135,10 +11136,10 @@
         <v>190</v>
       </c>
       <c r="AL93" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM93" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
@@ -11146,10 +11147,10 @@
       <c r="C94" s="6"/>
       <c r="R94" s="6"/>
       <c r="U94" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="V94" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="V94" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="W94" s="9">
         <v>35</v>
@@ -11205,12 +11206,12 @@
         <v>52</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -11273,13 +11274,13 @@
         <v>101105</v>
       </c>
       <c r="S96" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U96" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="V96" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="W96">
         <v>39</v>
@@ -11331,13 +11332,13 @@
         <v>0</v>
       </c>
       <c r="AL96" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO96" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.15">
@@ -11359,10 +11360,10 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="U97" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="V97" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="V97" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="W97">
         <v>36</v>
@@ -11414,10 +11415,10 @@
         <v>180</v>
       </c>
       <c r="AL97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM97" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.15">
@@ -11439,10 +11440,10 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="U98" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="V98" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="V98" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="W98">
         <v>37</v>
@@ -11494,10 +11495,10 @@
         <v>160</v>
       </c>
       <c r="AL98" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM98" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.15">
@@ -11519,10 +11520,10 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="U99" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="V99" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="V99" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="W99">
         <v>38</v>
@@ -11574,22 +11575,22 @@
         <v>190</v>
       </c>
       <c r="AL99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM99" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B100" s="15"/>
       <c r="U100" s="15"/>
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>1</v>
@@ -11650,10 +11651,10 @@
         <v>57</v>
       </c>
       <c r="U101" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="V101" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="V101" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="W101" s="9">
         <v>6</v>
@@ -11708,18 +11709,18 @@
         <v>63</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B102" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="D102" s="9">
         <v>15</v>
@@ -11771,16 +11772,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S102" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="S102" s="11" t="s">
+      <c r="U102" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="U102" s="17" t="s">
+      <c r="V102" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="V102" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="W102" s="9">
         <v>6</v>
@@ -11835,18 +11836,18 @@
         <v>63</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B103" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="D103" s="9">
         <v>15</v>
@@ -11898,16 +11899,16 @@
         <v>0</v>
       </c>
       <c r="R103" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S103" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="U103" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="U103" s="17" t="s">
+      <c r="V103" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="V103" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="W103" s="9">
         <v>6</v>
@@ -11962,22 +11963,22 @@
         <v>93</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="U104" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="V104" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="V104" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="W104">
         <v>6</v>
@@ -12032,19 +12033,19 @@
         <v>93</v>
       </c>
       <c r="AM104" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B105" s="15"/>
       <c r="U105" s="15"/>
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>1</v>
@@ -12105,10 +12106,10 @@
         <v>57</v>
       </c>
       <c r="U106" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="V106" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="V106" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="W106" s="9">
         <v>6</v>
@@ -12160,21 +12161,21 @@
         <v>0</v>
       </c>
       <c r="AL106" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM106" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="AM106" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B107" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="D107" s="9">
         <v>15</v>
@@ -12226,16 +12227,16 @@
         <v>0</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S107" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="U107" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="U107" s="17" t="s">
+      <c r="V107" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="V107" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="W107" s="9">
         <v>6</v>
@@ -12287,21 +12288,21 @@
         <v>0</v>
       </c>
       <c r="AL107" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B108" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="D108" s="9">
         <v>15</v>
@@ -12353,16 +12354,16 @@
         <v>0</v>
       </c>
       <c r="R108" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S108" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="U108" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="U108" s="17" t="s">
+      <c r="V108" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="V108" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="W108" s="9">
         <v>6</v>
@@ -12417,22 +12418,22 @@
         <v>93</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="U109" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="V109" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="W109">
         <v>6</v>
@@ -12487,19 +12488,19 @@
         <v>93</v>
       </c>
       <c r="AM109" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B110" s="15"/>
       <c r="U110" s="15"/>
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>1</v>
@@ -12560,10 +12561,10 @@
         <v>57</v>
       </c>
       <c r="U111" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="V111" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="W111" s="9">
         <v>6</v>
@@ -12615,21 +12616,21 @@
         <v>0</v>
       </c>
       <c r="AL111" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM111" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="AM111" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B112" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="D112" s="9">
         <v>1</v>
@@ -12681,16 +12682,16 @@
         <v>0</v>
       </c>
       <c r="R112" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="S112" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="S112" s="11" t="s">
+      <c r="U112" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="U112" s="17" t="s">
+      <c r="V112" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="V112" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="W112" s="9">
         <v>6</v>
@@ -12745,22 +12746,22 @@
         <v>52</v>
       </c>
       <c r="AM112" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="U113" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="V113" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="W113">
         <v>6</v>
@@ -12815,22 +12816,22 @@
         <v>63</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="U114" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="V114" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="V114" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="W114">
         <v>6</v>
@@ -12885,12 +12886,12 @@
         <v>93</v>
       </c>
       <c r="AM114" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.15">
@@ -12953,13 +12954,13 @@
         <v>102204</v>
       </c>
       <c r="S116" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U116" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="V116" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="V116" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="W116">
         <v>34</v>
@@ -13011,24 +13012,24 @@
         <v>0</v>
       </c>
       <c r="AL116" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM116" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AM116" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="AN116" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B117" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -13080,16 +13081,16 @@
         <v>5</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S117" s="6">
         <v>12011</v>
       </c>
       <c r="U117" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="V117" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="V117" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="W117">
         <v>36</v>
@@ -13141,10 +13142,10 @@
         <v>0</v>
       </c>
       <c r="AL117" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM117" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.15">
@@ -13153,10 +13154,10 @@
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="U118" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="V118" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="W118">
         <v>36</v>
@@ -13208,26 +13209,26 @@
         <v>200</v>
       </c>
       <c r="AL118" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM118" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AO118" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B120" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D120" s="7">
         <v>25</v>
@@ -13275,13 +13276,13 @@
         <v>102205</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U120" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="V120" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="V120" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="W120">
         <v>35</v>
@@ -13333,24 +13334,24 @@
         <v>0</v>
       </c>
       <c r="AL120" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM120" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AM120" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="AN120" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO120" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -13402,16 +13403,16 @@
         <v>0</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S121" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="U121" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U121" s="16" t="s">
+      <c r="V121" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="V121" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="W121">
         <v>38</v>
@@ -13466,18 +13467,18 @@
         <v>65</v>
       </c>
       <c r="AM121" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AO121" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -13529,16 +13530,16 @@
         <v>0</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U122" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="V122" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="V122" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="W122">
         <v>38</v>
@@ -13593,18 +13594,18 @@
         <v>93</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AO122" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B123" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -13656,16 +13657,16 @@
         <v>0</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U123" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="V123" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="V123" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="W123">
         <v>37</v>
@@ -13717,18 +13718,18 @@
         <v>0</v>
       </c>
       <c r="AL123" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM123" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AO123" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="W124">
         <v>6</v>
@@ -13794,13 +13795,13 @@
         <v>104104</v>
       </c>
       <c r="S125" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U125" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="V125" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="V125" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="W125">
         <v>35</v>
@@ -13852,24 +13853,24 @@
         <v>0</v>
       </c>
       <c r="AL125" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM125" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AM125" s="6" t="s">
-        <v>351</v>
-      </c>
       <c r="AN125" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO125" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B126" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="D126">
         <v>30</v>
@@ -13921,16 +13922,16 @@
         <v>0</v>
       </c>
       <c r="R126" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="S126" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="S126" s="6" t="s">
+      <c r="U126" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="U126" s="16" t="s">
+      <c r="V126" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="W126">
         <v>38</v>
@@ -13985,10 +13986,10 @@
         <v>65</v>
       </c>
       <c r="AM126" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO126" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.15">
@@ -13997,10 +13998,10 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
       <c r="U127" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="V127" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="V127" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="W127">
         <v>40</v>
@@ -14052,26 +14053,26 @@
         <v>0</v>
       </c>
       <c r="AL127" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM127" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AM127" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="AO127" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B129" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D129" s="7">
         <v>25</v>
@@ -14119,13 +14120,13 @@
         <v>104105</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U129" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="V129" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="V129" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="W129">
         <v>41</v>
@@ -14177,25 +14178,25 @@
         <v>0</v>
       </c>
       <c r="AL129" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM129" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="AM129" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="AN129" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO129" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="V130" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="V130" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="W130">
         <v>37</v>
@@ -14247,19 +14248,19 @@
         <v>250</v>
       </c>
       <c r="AL130" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM130" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R131" s="5"/>
       <c r="U131" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="V131" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="V131" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="W131">
         <v>38</v>
@@ -14311,15 +14312,15 @@
         <v>260</v>
       </c>
       <c r="AL131" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM131" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W132">
         <v>6</v>
@@ -14385,13 +14386,13 @@
         <v>105104</v>
       </c>
       <c r="S133" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U133" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="V133" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="V133" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="W133">
         <v>35</v>
@@ -14443,24 +14444,24 @@
         <v>0</v>
       </c>
       <c r="AL133" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM133" s="6">
         <v>15005</v>
       </c>
       <c r="AN133" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO133" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -14512,16 +14513,16 @@
         <v>0</v>
       </c>
       <c r="R134" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="U134" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="S134" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="U134" s="16" t="s">
+      <c r="V134" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="V134" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="W134">
         <v>36</v>
@@ -14576,15 +14577,15 @@
         <v>63</v>
       </c>
       <c r="AM134" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B135" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="D135">
         <v>30</v>
@@ -14636,16 +14637,16 @@
         <v>0</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S135" s="6">
         <v>15013</v>
       </c>
       <c r="U135" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="V135" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="V135" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="W135">
         <v>34</v>
@@ -14700,7 +14701,7 @@
         <v>63</v>
       </c>
       <c r="AM135" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.15">
@@ -14709,10 +14710,10 @@
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
       <c r="U136" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="V136" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="V136" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="W136">
         <v>35</v>
@@ -14767,20 +14768,20 @@
         <v>63</v>
       </c>
       <c r="AM136" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B138" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D138" s="7">
         <v>25</v>
@@ -14828,13 +14829,13 @@
         <v>105105</v>
       </c>
       <c r="S138" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U138" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="V138" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="V138" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="W138">
         <v>35</v>
@@ -14886,16 +14887,16 @@
         <v>0</v>
       </c>
       <c r="AL138" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM138" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AM138" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="AN138" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO138" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.15">
@@ -14904,10 +14905,10 @@
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
       <c r="U139" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="V139" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="V139" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="W139">
         <v>36</v>
@@ -14959,13 +14960,13 @@
         <v>200</v>
       </c>
       <c r="AL139" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO139" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.15">
@@ -14974,10 +14975,10 @@
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="U140" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="V140" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="V140" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="W140">
         <v>35</v>
@@ -15032,10 +15033,10 @@
         <v>93</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO140" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.15">
@@ -15044,10 +15045,10 @@
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
       <c r="U141" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="V141" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="V141" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="W141">
         <v>35</v>
@@ -15102,15 +15103,15 @@
         <v>65</v>
       </c>
       <c r="AM141" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B142" s="15"/>
       <c r="U142" s="15"/>
@@ -15118,7 +15119,7 @@
     </row>
     <row r="143" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>1</v>
@@ -15179,10 +15180,10 @@
         <v>57</v>
       </c>
       <c r="U143" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="V143" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="V143" s="11" t="s">
-        <v>402</v>
       </c>
       <c r="W143">
         <v>12</v>
@@ -15234,21 +15235,21 @@
         <v>0</v>
       </c>
       <c r="AL143" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM143" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="AM143" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B144" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="D144" s="9">
         <v>1</v>
@@ -15300,16 +15301,16 @@
         <v>0</v>
       </c>
       <c r="R144" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="S144" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="S144" s="11" t="s">
+      <c r="U144" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="U144" s="17" t="s">
+      <c r="V144" s="11" t="s">
         <v>409</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>410</v>
       </c>
       <c r="W144">
         <v>12</v>
@@ -15364,18 +15365,18 @@
         <v>93</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B145" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>413</v>
       </c>
       <c r="D145" s="9">
         <v>1</v>
@@ -15427,16 +15428,16 @@
         <v>0</v>
       </c>
       <c r="R145" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="S145" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="S145" s="11" t="s">
+      <c r="U145" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="U145" s="17" t="s">
+      <c r="V145" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="V145" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="W145">
         <v>12</v>
@@ -15491,12 +15492,12 @@
         <v>63</v>
       </c>
       <c r="AM145" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.15">
@@ -15559,13 +15560,13 @@
         <v>100204</v>
       </c>
       <c r="S147" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U147" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="V147" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="V147" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="W147">
         <v>35</v>
@@ -15617,24 +15618,24 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM147" s="6">
         <v>10017</v>
       </c>
       <c r="AN147" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO147" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -15686,16 +15687,16 @@
         <v>10</v>
       </c>
       <c r="R148" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S148" s="6">
         <v>10022</v>
       </c>
       <c r="U148" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="V148" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="V148" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="W148">
         <v>36</v>
@@ -15747,21 +15748,21 @@
         <v>120</v>
       </c>
       <c r="AL148" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AO148" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B149" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="D149">
         <v>26</v>
@@ -15813,16 +15814,16 @@
         <v>12</v>
       </c>
       <c r="R149" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S149" s="6">
         <v>15009</v>
       </c>
       <c r="U149" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="V149" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="W149">
         <v>37</v>
@@ -15874,10 +15875,10 @@
         <v>125</v>
       </c>
       <c r="AL149" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.15">
@@ -15886,10 +15887,10 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="U150" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="V150" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="V150" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="W150">
         <v>39</v>
@@ -15944,12 +15945,12 @@
         <v>63</v>
       </c>
       <c r="AM150" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B151" s="15"/>
       <c r="U151" s="15"/>
@@ -15957,7 +15958,7 @@
     </row>
     <row r="152" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>1</v>
@@ -16018,10 +16019,10 @@
         <v>57</v>
       </c>
       <c r="U152" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="V152" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="V152" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="W152">
         <v>12</v>
@@ -16073,21 +16074,21 @@
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AM152" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="AM152" s="11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="153" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -16139,16 +16140,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="S153" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="S153" s="11" t="s">
-        <v>450</v>
-      </c>
       <c r="U153" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="V153" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="V153" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="W153">
         <v>12</v>
@@ -16200,21 +16201,21 @@
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM153" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="AM153" s="11" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B154" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="D154" s="9">
         <v>1</v>
@@ -16266,16 +16267,16 @@
         <v>0</v>
       </c>
       <c r="R154" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="S154" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="S154" s="11" t="s">
-        <v>458</v>
-      </c>
       <c r="U154" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="V154" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="V154" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="W154">
         <v>12</v>
@@ -16327,21 +16328,21 @@
         <v>0</v>
       </c>
       <c r="AL154" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM154" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="AM154" s="11" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U155" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="V155" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="W155">
         <v>12</v>
@@ -16393,25 +16394,25 @@
         <v>0</v>
       </c>
       <c r="AL155" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM155" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="AM155" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="U156" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="V156" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="V156" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="W156">
         <v>12</v>
@@ -16466,22 +16467,22 @@
         <v>93</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="U157" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="W157">
         <v>12</v>
@@ -16536,22 +16537,22 @@
         <v>63</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
       <c r="U158" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="V158" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="V158" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="W158">
         <v>12</v>
@@ -16606,20 +16607,20 @@
         <v>93</v>
       </c>
       <c r="AM158" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B160" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D160" s="7">
         <v>25</v>
@@ -16667,13 +16668,13 @@
         <v>100205</v>
       </c>
       <c r="S160" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U160" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="W160">
         <v>35</v>
@@ -16725,24 +16726,24 @@
         <v>0</v>
       </c>
       <c r="AL160" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM160" s="6">
         <v>15007</v>
       </c>
       <c r="AN160" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO160" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B161" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="D161">
         <v>35</v>
@@ -16794,16 +16795,16 @@
         <v>9</v>
       </c>
       <c r="R161" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S161" s="6">
         <v>10023</v>
       </c>
       <c r="U161" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="W161">
         <v>36</v>
@@ -16858,19 +16859,19 @@
         <v>63</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO161" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="V162" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="V162" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="W162">
         <v>37</v>
@@ -16925,16 +16926,16 @@
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R163" s="5"/>
       <c r="U163" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V163" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W163">
         <v>36</v>
@@ -16989,20 +16990,20 @@
         <v>93</v>
       </c>
       <c r="AM163" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="D165">
         <v>20</v>
@@ -17054,16 +17055,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S165" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U165" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="V165" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="W165">
         <v>46</v>
@@ -17115,18 +17116,18 @@
         <v>267</v>
       </c>
       <c r="AL165" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B166" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="D166">
         <v>15</v>
@@ -17178,16 +17179,16 @@
         <v>0</v>
       </c>
       <c r="R166" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="S166" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="S166" s="6" t="s">
+      <c r="U166" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="U166" s="16" t="s">
+      <c r="V166" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="V166" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="W166">
         <v>46</v>
@@ -17242,7 +17243,7 @@
         <v>93</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.15">
@@ -17305,13 +17306,13 @@
         <v>100105</v>
       </c>
       <c r="S167" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U167" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="V167" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W167">
         <v>47</v>
@@ -17363,10 +17364,10 @@
         <v>45</v>
       </c>
       <c r="AL167" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.15">
@@ -17429,13 +17430,13 @@
         <v>101105</v>
       </c>
       <c r="S168" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U168" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="V168" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="V168" s="6" t="s">
-        <v>501</v>
       </c>
       <c r="W168">
         <v>48</v>
@@ -17490,15 +17491,15 @@
         <v>93</v>
       </c>
       <c r="AM168" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -17546,7 +17547,7 @@
         <v>102205</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17555,10 +17556,10 @@
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D170">
         <v>35</v>
@@ -17606,7 +17607,7 @@
         <v>104105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17615,10 +17616,10 @@
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D171">
         <v>35</v>
@@ -17666,7 +17667,7 @@
         <v>105105</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17675,10 +17676,10 @@
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B172" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -17726,7 +17727,7 @@
         <v>100205</v>
       </c>
       <c r="S172" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U172" s="16"/>
       <c r="V172" s="6"/>
@@ -17735,7 +17736,7 @@
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.15">
@@ -17798,13 +17799,13 @@
         <v>100105</v>
       </c>
       <c r="S174" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U174" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17856,16 +17857,16 @@
         <v>105</v>
       </c>
       <c r="AL174" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO174" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.15">
@@ -17928,13 +17929,13 @@
         <v>101105</v>
       </c>
       <c r="S175" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U175" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="V175" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="V175" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="W175">
         <v>45</v>
@@ -17986,21 +17987,21 @@
         <v>100</v>
       </c>
       <c r="AL175" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D176">
         <v>40</v>
@@ -18048,13 +18049,13 @@
         <v>102205</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U176" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="W176">
         <v>50</v>
@@ -18109,18 +18110,18 @@
         <v>93</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN176" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D177">
         <v>40</v>
@@ -18168,13 +18169,13 @@
         <v>104105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U177" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="W177">
         <v>46</v>
@@ -18226,21 +18227,21 @@
         <v>0</v>
       </c>
       <c r="AL177" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AO177" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D178">
         <v>40</v>
@@ -18288,13 +18289,13 @@
         <v>105105</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U178" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="W178">
         <v>46</v>
@@ -18346,18 +18347,18 @@
         <v>300</v>
       </c>
       <c r="AL178" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM178" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="AM178" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B179" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D179">
         <v>40</v>
@@ -18405,13 +18406,13 @@
         <v>100205</v>
       </c>
       <c r="S179" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U179" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="W179">
         <v>46</v>
@@ -18463,19 +18464,19 @@
         <v>0</v>
       </c>
       <c r="AL179" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="180" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R180" s="5"/>
       <c r="U180" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="V180" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="V180" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="W180">
         <v>46</v>
@@ -18527,15 +18528,15 @@
         <v>0</v>
       </c>
       <c r="AL180" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM180" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.15">
@@ -18598,13 +18599,13 @@
         <v>100105</v>
       </c>
       <c r="S182" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U182" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="V182" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="V182" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="W182">
         <v>60</v>
@@ -18659,13 +18660,13 @@
         <v>93</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO182" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.15">
@@ -18728,13 +18729,13 @@
         <v>101105</v>
       </c>
       <c r="S183" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W183">
         <v>80</v>
@@ -18786,24 +18787,24 @@
         <v>0</v>
       </c>
       <c r="AL183" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO183" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="184" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D184">
         <v>45</v>
@@ -18851,13 +18852,13 @@
         <v>102205</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W184">
         <v>51</v>
@@ -18912,15 +18913,15 @@
         <v>63</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D185">
         <v>45</v>
@@ -18968,13 +18969,13 @@
         <v>104105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W185">
         <v>51</v>
@@ -19026,18 +19027,18 @@
         <v>270</v>
       </c>
       <c r="AL185" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D186">
         <v>45</v>
@@ -19085,13 +19086,13 @@
         <v>105105</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W186">
         <v>51</v>
@@ -19146,15 +19147,15 @@
         <v>63</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B187" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="D187">
         <v>45</v>
@@ -19202,13 +19203,13 @@
         <v>100205</v>
       </c>
       <c r="S187" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U187" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W187">
         <v>51</v>
@@ -19260,19 +19261,19 @@
         <v>269</v>
       </c>
       <c r="AL187" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM187" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R188" s="5"/>
       <c r="U188" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V188" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W188">
         <v>51</v>
@@ -19324,10 +19325,10 @@
         <v>276</v>
       </c>
       <c r="AL188" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM188" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="AM188" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -4050,9 +4050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD182" sqref="AD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/docs/数值平衡.xlsx
+++ b/docs/数值平衡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="区域角色数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="640">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,9 +665,6 @@
     <t>09002004</t>
   </si>
   <si>
-    <t>燕子坞叛徒</t>
-  </si>
-  <si>
     <t>10001002</t>
   </si>
   <si>
@@ -1859,10 +1856,6 @@
   </si>
   <si>
     <t>信阳县|1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州府x|1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2523,6 +2516,14 @@
   </si>
   <si>
     <t>铜尸陈玄风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州府|1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子坞叛徒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4048,11 +4049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO188"/>
+  <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD182" sqref="AD182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4067,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>4</v>
@@ -4184,7 +4185,7 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.15">
@@ -4553,12 +4554,12 @@
         <v>54</v>
       </c>
       <c r="AN4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -4811,7 +4812,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
@@ -5067,7 +5068,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -5186,7 +5187,7 @@
         <v>94</v>
       </c>
       <c r="AN11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -5528,7 +5529,7 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
@@ -5594,7 +5595,7 @@
         <v>11002</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>109</v>
@@ -5655,10 +5656,10 @@
         <v>105</v>
       </c>
       <c r="AN18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AO18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
@@ -5727,7 +5728,7 @@
         <v>111</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="W19">
         <v>22</v>
@@ -5785,15 +5786,15 @@
         <v>108</v>
       </c>
       <c r="AN19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>99</v>
@@ -6041,7 +6042,7 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>106</v>
@@ -6108,7 +6109,7 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
@@ -6391,12 +6392,12 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B30" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -6520,7 +6521,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -6776,10 +6777,10 @@
         <v>40011</v>
       </c>
       <c r="AN33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AO33" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.15">
@@ -6794,7 +6795,7 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.15">
@@ -6921,10 +6922,10 @@
         <v>137</v>
       </c>
       <c r="AN36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.15">
@@ -7418,7 +7419,7 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.15">
@@ -7545,10 +7546,10 @@
         <v>145</v>
       </c>
       <c r="AN47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AO47" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.15">
@@ -7611,7 +7612,7 @@
         <v>100102</v>
       </c>
       <c r="S48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U48" s="13" t="s">
         <v>149</v>
@@ -7675,10 +7676,10 @@
         <v>152</v>
       </c>
       <c r="AN48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AO48" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.15">
@@ -7741,7 +7742,7 @@
         <v>100202</v>
       </c>
       <c r="S49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U49" s="13" t="s">
         <v>153</v>
@@ -7865,7 +7866,7 @@
         <v>101102</v>
       </c>
       <c r="S50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>156</v>
@@ -7929,7 +7930,7 @@
         <v>159</v>
       </c>
       <c r="AN50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.15">
@@ -7992,7 +7993,7 @@
         <v>102202</v>
       </c>
       <c r="S51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U51" s="13" t="s">
         <v>164</v>
@@ -8056,7 +8057,7 @@
         <v>167</v>
       </c>
       <c r="AN51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.15">
@@ -8119,7 +8120,7 @@
         <v>104102</v>
       </c>
       <c r="S52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U52" s="13" t="s">
         <v>160</v>
@@ -8183,7 +8184,7 @@
         <v>163</v>
       </c>
       <c r="AN52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.15">
@@ -8246,7 +8247,7 @@
         <v>105102</v>
       </c>
       <c r="S53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U53" s="13"/>
       <c r="V53" s="5"/>
@@ -8264,7 +8265,7 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.15">
@@ -8391,7 +8392,7 @@
         <v>170</v>
       </c>
       <c r="AO56" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.15">
@@ -8454,7 +8455,7 @@
         <v>100102</v>
       </c>
       <c r="S57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U57" s="16" t="s">
         <v>174</v>
@@ -8578,7 +8579,7 @@
         <v>100202</v>
       </c>
       <c r="S58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U58" s="16" t="s">
         <v>179</v>
@@ -8702,7 +8703,7 @@
         <v>101102</v>
       </c>
       <c r="S59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U59" s="13"/>
       <c r="V59" s="5"/>
@@ -8769,7 +8770,7 @@
         <v>102202</v>
       </c>
       <c r="S60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U60" s="13"/>
       <c r="V60" s="5"/>
@@ -8836,7 +8837,7 @@
         <v>104102</v>
       </c>
       <c r="S61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="U61" s="13"/>
       <c r="V61" s="5"/>
@@ -8903,7 +8904,7 @@
         <v>105102</v>
       </c>
       <c r="S62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="5"/>
@@ -8912,7 +8913,7 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.15">
@@ -8975,7 +8976,7 @@
         <v>100103</v>
       </c>
       <c r="S64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U64" s="16" t="s">
         <v>181</v>
@@ -9039,7 +9040,7 @@
         <v>183</v>
       </c>
       <c r="AO64" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.15">
@@ -9102,7 +9103,7 @@
         <v>100203</v>
       </c>
       <c r="S65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U65" s="16" t="s">
         <v>184</v>
@@ -9226,7 +9227,7 @@
         <v>101103</v>
       </c>
       <c r="S66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U66" s="13"/>
       <c r="V66" s="5"/>
@@ -9293,7 +9294,7 @@
         <v>102203</v>
       </c>
       <c r="S67" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U67" s="13"/>
       <c r="V67" s="5"/>
@@ -9360,7 +9361,7 @@
         <v>104103</v>
       </c>
       <c r="S68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U68" s="13"/>
       <c r="V68" s="5"/>
@@ -9427,7 +9428,7 @@
         <v>105103</v>
       </c>
       <c r="S69" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U69" s="13"/>
       <c r="V69" s="5"/>
@@ -9436,15 +9437,13 @@
     </row>
     <row r="70" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="B70" s="15"/>
       <c r="U70" s="15"/>
     </row>
     <row r="71" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>563</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="B71" s="15" t="s">
         <v>1</v>
       </c>
@@ -9510,50 +9509,50 @@
         <v>191</v>
       </c>
       <c r="W71" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="X71" s="9">
         <f>1+(W71-1)*0.25</f>
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="Y71" s="9">
         <f>INT(POWER(X71+(Z71*0.25),2)*35)</f>
-        <v>1715</v>
+        <v>54608</v>
       </c>
       <c r="Z71" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA71" s="9">
         <f>INT(POWER(X71+(AB71*0.25),3))+40</f>
-        <v>383</v>
+        <v>7454</v>
       </c>
       <c r="AB71" s="9">
         <v>0</v>
       </c>
       <c r="AC71" s="9">
         <f>INT(50+(X71+(AD71*0.25)-1)*POWER(X71+(AD71*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>866</v>
       </c>
       <c r="AD71" s="9">
         <v>0</v>
       </c>
       <c r="AE71" s="9">
         <f>INT(POWER(X71+(AF71*0.25),3))+40</f>
-        <v>383</v>
+        <v>7454</v>
       </c>
       <c r="AF71" s="9">
         <v>0</v>
       </c>
       <c r="AG71" s="9">
         <f>INT(50+(X71+(AH71*0.25)-1)*POWER(X71+(AH71*0.25),0.5)*10)</f>
-        <v>208</v>
+        <v>866</v>
       </c>
       <c r="AH71" s="9">
         <v>0</v>
       </c>
       <c r="AI71" s="9">
         <f>INT(5+(X71+(AJ71*0.25)-1)*POWER(X71+(AJ71*0.25),0.2))</f>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="AJ71" s="9">
         <v>0</v>
@@ -9566,9 +9565,7 @@
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
-        <v>563</v>
-      </c>
+      <c r="A72" s="8"/>
       <c r="U72" s="16" t="s">
         <v>194</v>
       </c>
@@ -9576,53 +9573,53 @@
         <v>195</v>
       </c>
       <c r="W72">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="X72">
         <f>1+(W72-1)*0.25</f>
-        <v>5.75</v>
+        <v>15.75</v>
       </c>
       <c r="Y72">
         <f>INT(POWER(X72+(Z72*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>35840</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA72">
         <f>INT(POWER(X72+(AB72*0.25),3))+40</f>
-        <v>230</v>
+        <v>25712</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AC72">
         <f>INT(50+(X72+(AD72*0.25)-1)*POWER(X72+(AD72*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>9689</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AE72">
         <f>INT(POWER(X72+(AF72*0.25),3))+40</f>
-        <v>230</v>
+        <v>3946</v>
       </c>
       <c r="AF72">
         <v>0</v>
       </c>
       <c r="AG72">
         <f>INT(50+(X72+(AH72*0.25)-1)*POWER(X72+(AH72*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>635</v>
       </c>
       <c r="AH72">
         <v>0</v>
       </c>
       <c r="AI72">
         <f>INT(5+(X72+(AJ72*0.25)-1)*POWER(X72+(AJ72*0.25),0.2))</f>
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="AL72" s="6" t="s">
         <v>126</v>
@@ -9632,9 +9629,7 @@
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>563</v>
-      </c>
+      <c r="A73" s="8"/>
       <c r="B73" s="16"/>
       <c r="C73" s="6"/>
       <c r="R73" s="6"/>
@@ -9643,56 +9638,56 @@
         <v>197</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>198</v>
+        <v>639</v>
       </c>
       <c r="W73">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="X73">
         <f>1+(W73-1)*0.25</f>
-        <v>5.75</v>
+        <v>15.5</v>
       </c>
       <c r="Y73">
         <f>INT(POWER(X73+(Z73*0.25),2)*35)</f>
-        <v>1157</v>
+        <v>38115</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA73">
         <f>INT(POWER(X73+(AB73*0.25),3))+40</f>
-        <v>230</v>
+        <v>28412</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC73">
         <f>INT(50+(X73+(AD73*0.25)-1)*POWER(X73+(AD73*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>8922</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AE73">
         <f>INT(POWER(X73+(AF73*0.25),3))+40</f>
-        <v>230</v>
+        <v>3763</v>
       </c>
       <c r="AF73">
         <v>0</v>
       </c>
       <c r="AG73">
         <f>INT(50+(X73+(AH73*0.25)-1)*POWER(X73+(AH73*0.25),0.5)*10)</f>
-        <v>163</v>
+        <v>620</v>
       </c>
       <c r="AH73">
         <v>0</v>
       </c>
       <c r="AI73">
         <f>INT(5+(X73+(AJ73*0.25)-1)*POWER(X73+(AJ73*0.25),0.2))</f>
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AL73" s="6" t="s">
         <v>126</v>
@@ -9703,7 +9698,7 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.15">
@@ -9766,13 +9761,13 @@
         <v>100104</v>
       </c>
       <c r="S75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="U75" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="V75" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="V75" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="W75">
         <v>35</v>
@@ -9824,16 +9819,16 @@
         <v>0</v>
       </c>
       <c r="AL75" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM75" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AM75" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="AN75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO75" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.15">
@@ -9899,10 +9894,10 @@
         <v>10010</v>
       </c>
       <c r="U76" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="V76" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="V76" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="W76">
         <v>37</v>
@@ -9962,10 +9957,10 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.15">
       <c r="U77" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="V77" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="V77" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="W77">
         <v>38</v>
@@ -10029,10 +10024,10 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="U78" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="V78" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="V78" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="W78">
         <v>39</v>
@@ -10087,12 +10082,12 @@
         <v>63</v>
       </c>
       <c r="AM78" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.15">
@@ -10155,13 +10150,13 @@
         <v>100105</v>
       </c>
       <c r="S80" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U80" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="V80" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="V80" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="W80">
         <v>35</v>
@@ -10213,24 +10208,24 @@
         <v>260</v>
       </c>
       <c r="AL80" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM80" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AM80" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="AN80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO80" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B81" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="D81">
         <v>30</v>
@@ -10282,16 +10277,16 @@
         <v>5</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S81" s="6">
         <v>10020</v>
       </c>
       <c r="U81" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="V81" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="V81" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="W81">
         <v>36</v>
@@ -10346,16 +10341,16 @@
         <v>65</v>
       </c>
       <c r="AM81" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R82" s="5"/>
       <c r="U82" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="V82" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="V82" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="W82">
         <v>37</v>
@@ -10407,19 +10402,19 @@
         <v>110</v>
       </c>
       <c r="AL82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM82" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="AM82" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R83" s="5"/>
       <c r="U83" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="V83" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="V83" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="W83">
         <v>39</v>
@@ -10474,22 +10469,22 @@
         <v>63</v>
       </c>
       <c r="AM83" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO83" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B84" s="15"/>
       <c r="U84" s="15"/>
     </row>
     <row r="85" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>1</v>
@@ -10550,10 +10545,10 @@
         <v>57</v>
       </c>
       <c r="U85" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="V85" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="V85" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="W85">
         <v>6</v>
@@ -10614,14 +10609,14 @@
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R86" s="5"/>
       <c r="U86" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="V86" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="V86" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="W86">
         <v>6</v>
@@ -10681,13 +10676,13 @@
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R87" s="5"/>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.15">
@@ -10750,13 +10745,13 @@
         <v>101104</v>
       </c>
       <c r="S89" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U89" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="V89" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="V89" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="W89">
         <v>35</v>
@@ -10808,24 +10803,24 @@
         <v>0</v>
       </c>
       <c r="AL89" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM89" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AM89" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="AN89" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AO89" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B90" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D90">
         <v>30</v>
@@ -10883,10 +10878,10 @@
         <v>10012</v>
       </c>
       <c r="U90" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V90" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="V90" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="W90">
         <v>35</v>
@@ -10938,10 +10933,10 @@
         <v>280</v>
       </c>
       <c r="AL90" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM90" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
@@ -10949,10 +10944,10 @@
       <c r="C91" s="6"/>
       <c r="R91" s="6"/>
       <c r="U91" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="V91" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="V91" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="W91">
         <v>36</v>
@@ -11007,7 +11002,7 @@
         <v>63</v>
       </c>
       <c r="AM91" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.15">
@@ -11015,10 +11010,10 @@
       <c r="C92" s="6"/>
       <c r="R92" s="6"/>
       <c r="U92" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V92" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="W92">
         <v>35</v>
@@ -11073,7 +11068,7 @@
         <v>63</v>
       </c>
       <c r="AM92" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.15">
@@ -11081,10 +11076,10 @@
       <c r="C93" s="6"/>
       <c r="R93" s="6"/>
       <c r="U93" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="V93" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="V93" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="W93">
         <v>37</v>
@@ -11136,10 +11131,10 @@
         <v>190</v>
       </c>
       <c r="AL93" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM93" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
@@ -11147,10 +11142,10 @@
       <c r="C94" s="6"/>
       <c r="R94" s="6"/>
       <c r="U94" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="V94" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="V94" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="W94" s="9">
         <v>35</v>
@@ -11206,12 +11201,12 @@
         <v>52</v>
       </c>
       <c r="AM94" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
@@ -11274,13 +11269,13 @@
         <v>101105</v>
       </c>
       <c r="S96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U96" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="V96" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="W96">
         <v>39</v>
@@ -11335,10 +11330,10 @@
         <v>126</v>
       </c>
       <c r="AM96" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO96" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.15">
@@ -11360,10 +11355,10 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="U97" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="V97" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="V97" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="W97">
         <v>36</v>
@@ -11418,7 +11413,7 @@
         <v>126</v>
       </c>
       <c r="AM97" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.15">
@@ -11440,10 +11435,10 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="U98" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="V98" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="V98" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="W98">
         <v>37</v>
@@ -11498,7 +11493,7 @@
         <v>176</v>
       </c>
       <c r="AM98" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.15">
@@ -11520,10 +11515,10 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="U99" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="V99" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="V99" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="W99">
         <v>38</v>
@@ -11578,19 +11573,19 @@
         <v>126</v>
       </c>
       <c r="AM99" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B100" s="15"/>
       <c r="U100" s="15"/>
     </row>
     <row r="101" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>1</v>
@@ -11651,10 +11646,10 @@
         <v>57</v>
       </c>
       <c r="U101" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V101" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="V101" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="W101" s="9">
         <v>6</v>
@@ -11709,18 +11704,18 @@
         <v>63</v>
       </c>
       <c r="AM101" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B102" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="D102" s="9">
         <v>15</v>
@@ -11772,16 +11767,16 @@
         <v>0</v>
       </c>
       <c r="R102" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="S102" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="S102" s="11" t="s">
+      <c r="U102" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="U102" s="17" t="s">
+      <c r="V102" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="V102" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="W102" s="9">
         <v>6</v>
@@ -11836,18 +11831,18 @@
         <v>63</v>
       </c>
       <c r="AM102" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B103" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="D103" s="9">
         <v>15</v>
@@ -11899,16 +11894,16 @@
         <v>0</v>
       </c>
       <c r="R103" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S103" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="U103" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="U103" s="17" t="s">
+      <c r="V103" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="V103" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="W103" s="9">
         <v>6</v>
@@ -11963,22 +11958,22 @@
         <v>93</v>
       </c>
       <c r="AM103" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="U104" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="V104" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="V104" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="W104">
         <v>6</v>
@@ -12033,19 +12028,19 @@
         <v>93</v>
       </c>
       <c r="AM104" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B105" s="15"/>
       <c r="U105" s="15"/>
     </row>
     <row r="106" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>1</v>
@@ -12106,10 +12101,10 @@
         <v>57</v>
       </c>
       <c r="U106" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="V106" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="V106" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="W106" s="9">
         <v>6</v>
@@ -12161,21 +12156,21 @@
         <v>0</v>
       </c>
       <c r="AL106" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM106" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="AM106" s="11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B107" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="D107" s="9">
         <v>15</v>
@@ -12227,16 +12222,16 @@
         <v>0</v>
       </c>
       <c r="R107" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S107" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="U107" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="U107" s="17" t="s">
+      <c r="V107" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="V107" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="W107" s="9">
         <v>6</v>
@@ -12291,18 +12286,18 @@
         <v>126</v>
       </c>
       <c r="AM107" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B108" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="D108" s="9">
         <v>15</v>
@@ -12354,16 +12349,16 @@
         <v>0</v>
       </c>
       <c r="R108" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S108" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="U108" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="U108" s="17" t="s">
+      <c r="V108" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="V108" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="W108" s="9">
         <v>6</v>
@@ -12418,22 +12413,22 @@
         <v>93</v>
       </c>
       <c r="AM108" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="U109" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="V109" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="W109">
         <v>6</v>
@@ -12488,19 +12483,19 @@
         <v>93</v>
       </c>
       <c r="AM109" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B110" s="15"/>
       <c r="U110" s="15"/>
     </row>
     <row r="111" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>1</v>
@@ -12561,10 +12556,10 @@
         <v>57</v>
       </c>
       <c r="U111" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="V111" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="W111" s="9">
         <v>6</v>
@@ -12616,21 +12611,21 @@
         <v>0</v>
       </c>
       <c r="AL111" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM111" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="AM111" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B112" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="D112" s="9">
         <v>1</v>
@@ -12682,16 +12677,16 @@
         <v>0</v>
       </c>
       <c r="R112" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="S112" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="S112" s="11" t="s">
+      <c r="U112" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="U112" s="17" t="s">
+      <c r="V112" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="V112" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="W112" s="9">
         <v>6</v>
@@ -12751,17 +12746,17 @@
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="U113" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="V113" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="W113">
         <v>6</v>
@@ -12816,22 +12811,22 @@
         <v>63</v>
       </c>
       <c r="AM113" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="U114" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="V114" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="V114" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="W114">
         <v>6</v>
@@ -12886,12 +12881,12 @@
         <v>93</v>
       </c>
       <c r="AM114" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.15">
@@ -12954,13 +12949,13 @@
         <v>102204</v>
       </c>
       <c r="S116" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U116" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="V116" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="V116" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="W116">
         <v>34</v>
@@ -13012,24 +13007,24 @@
         <v>0</v>
       </c>
       <c r="AL116" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM116" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AM116" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="AN116" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO116" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B117" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -13081,16 +13076,16 @@
         <v>5</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S117" s="6">
         <v>12011</v>
       </c>
       <c r="U117" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="V117" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="V117" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="W117">
         <v>36</v>
@@ -13145,7 +13140,7 @@
         <v>126</v>
       </c>
       <c r="AM117" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.15">
@@ -13154,10 +13149,10 @@
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="U118" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="V118" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="W118">
         <v>36</v>
@@ -13209,26 +13204,26 @@
         <v>200</v>
       </c>
       <c r="AL118" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM118" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AO118" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B120" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D120" s="7">
         <v>25</v>
@@ -13276,13 +13271,13 @@
         <v>102205</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U120" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="V120" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="V120" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="W120">
         <v>35</v>
@@ -13334,24 +13329,24 @@
         <v>0</v>
       </c>
       <c r="AL120" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM120" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="AM120" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="AN120" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO120" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B121" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -13403,16 +13398,16 @@
         <v>0</v>
       </c>
       <c r="R121" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S121" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="U121" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="U121" s="16" t="s">
+      <c r="V121" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="V121" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="W121">
         <v>38</v>
@@ -13467,18 +13462,18 @@
         <v>65</v>
       </c>
       <c r="AM121" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO121" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B122" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -13530,16 +13525,16 @@
         <v>0</v>
       </c>
       <c r="R122" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U122" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="V122" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="V122" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="W122">
         <v>38</v>
@@ -13594,18 +13589,18 @@
         <v>93</v>
       </c>
       <c r="AM122" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AO122" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B123" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -13657,16 +13652,16 @@
         <v>0</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U123" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="V123" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="V123" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="W123">
         <v>37</v>
@@ -13721,15 +13716,15 @@
         <v>176</v>
       </c>
       <c r="AM123" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AO123" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="W124">
         <v>6</v>
@@ -13795,13 +13790,13 @@
         <v>104104</v>
       </c>
       <c r="S125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U125" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="V125" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="V125" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="W125">
         <v>35</v>
@@ -13853,24 +13848,24 @@
         <v>0</v>
       </c>
       <c r="AL125" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM125" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AM125" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="AN125" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO125" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B126" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="D126">
         <v>30</v>
@@ -13922,16 +13917,16 @@
         <v>0</v>
       </c>
       <c r="R126" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="S126" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="S126" s="6" t="s">
+      <c r="U126" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="U126" s="16" t="s">
+      <c r="V126" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="W126">
         <v>38</v>
@@ -13986,10 +13981,10 @@
         <v>65</v>
       </c>
       <c r="AM126" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AO126" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.15">
@@ -13998,10 +13993,10 @@
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
       <c r="U127" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="V127" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="V127" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="W127">
         <v>40</v>
@@ -14053,26 +14048,26 @@
         <v>0</v>
       </c>
       <c r="AL127" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM127" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AM127" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AO127" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B129" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D129" s="7">
         <v>25</v>
@@ -14120,13 +14115,13 @@
         <v>104105</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U129" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="V129" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="V129" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="W129">
         <v>41</v>
@@ -14178,25 +14173,25 @@
         <v>0</v>
       </c>
       <c r="AL129" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM129" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="AM129" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="AN129" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO129" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R130" s="5"/>
       <c r="U130" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="V130" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="V130" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="W130">
         <v>37</v>
@@ -14248,19 +14243,19 @@
         <v>250</v>
       </c>
       <c r="AL130" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM130" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R131" s="5"/>
       <c r="U131" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="V131" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="V131" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="W131">
         <v>38</v>
@@ -14312,15 +14307,15 @@
         <v>260</v>
       </c>
       <c r="AL131" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM131" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="W132">
         <v>6</v>
@@ -14386,13 +14381,13 @@
         <v>105104</v>
       </c>
       <c r="S133" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U133" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="V133" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="V133" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="W133">
         <v>35</v>
@@ -14450,18 +14445,18 @@
         <v>15005</v>
       </c>
       <c r="AN133" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO133" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B134" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -14513,16 +14508,16 @@
         <v>0</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S134" s="6" t="s">
         <v>152</v>
       </c>
       <c r="U134" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="V134" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="V134" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="W134">
         <v>36</v>
@@ -14577,15 +14572,15 @@
         <v>63</v>
       </c>
       <c r="AM134" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B135" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D135">
         <v>30</v>
@@ -14637,16 +14632,16 @@
         <v>0</v>
       </c>
       <c r="R135" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S135" s="6">
         <v>15013</v>
       </c>
       <c r="U135" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="V135" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="V135" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="W135">
         <v>34</v>
@@ -14701,7 +14696,7 @@
         <v>63</v>
       </c>
       <c r="AM135" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.15">
@@ -14710,10 +14705,10 @@
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
       <c r="U136" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="V136" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="V136" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="W136">
         <v>35</v>
@@ -14768,20 +14763,20 @@
         <v>63</v>
       </c>
       <c r="AM136" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B138" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C138" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D138" s="7">
         <v>25</v>
@@ -14829,13 +14824,13 @@
         <v>105105</v>
       </c>
       <c r="S138" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U138" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="V138" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="V138" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="W138">
         <v>35</v>
@@ -14887,16 +14882,16 @@
         <v>0</v>
       </c>
       <c r="AL138" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM138" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="AM138" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="AN138" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.15">
@@ -14905,10 +14900,10 @@
       <c r="R139" s="6"/>
       <c r="S139" s="6"/>
       <c r="U139" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="V139" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="V139" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="W139">
         <v>36</v>
@@ -14960,13 +14955,13 @@
         <v>200</v>
       </c>
       <c r="AL139" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM139" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO139" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.15">
@@ -14975,10 +14970,10 @@
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
       <c r="U140" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="V140" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="V140" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="W140">
         <v>35</v>
@@ -15033,10 +15028,10 @@
         <v>93</v>
       </c>
       <c r="AM140" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO140" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.15">
@@ -15045,10 +15040,10 @@
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
       <c r="U141" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="V141" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="V141" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="W141">
         <v>35</v>
@@ -15103,15 +15098,15 @@
         <v>65</v>
       </c>
       <c r="AM141" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO141" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B142" s="15"/>
       <c r="U142" s="15"/>
@@ -15119,7 +15114,7 @@
     </row>
     <row r="143" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>1</v>
@@ -15180,10 +15175,10 @@
         <v>57</v>
       </c>
       <c r="U143" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="V143" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="V143" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="W143">
         <v>12</v>
@@ -15235,21 +15230,21 @@
         <v>0</v>
       </c>
       <c r="AL143" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AM143" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="AM143" s="11" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B144" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="D144" s="9">
         <v>1</v>
@@ -15301,16 +15296,16 @@
         <v>0</v>
       </c>
       <c r="R144" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="S144" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="S144" s="11" t="s">
+      <c r="U144" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="U144" s="17" t="s">
+      <c r="V144" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="W144">
         <v>12</v>
@@ -15365,18 +15360,18 @@
         <v>93</v>
       </c>
       <c r="AM144" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="145" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B145" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="D145" s="9">
         <v>1</v>
@@ -15428,16 +15423,16 @@
         <v>0</v>
       </c>
       <c r="R145" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="S145" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="S145" s="11" t="s">
+      <c r="U145" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="U145" s="17" t="s">
+      <c r="V145" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="V145" s="11" t="s">
-        <v>416</v>
       </c>
       <c r="W145">
         <v>12</v>
@@ -15497,7 +15492,7 @@
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.15">
@@ -15560,13 +15555,13 @@
         <v>100204</v>
       </c>
       <c r="S147" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U147" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="V147" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="V147" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="W147">
         <v>35</v>
@@ -15618,24 +15613,24 @@
         <v>0</v>
       </c>
       <c r="AL147" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM147" s="6">
         <v>10017</v>
       </c>
       <c r="AN147" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO147" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B148" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="D148">
         <v>35</v>
@@ -15687,16 +15682,16 @@
         <v>10</v>
       </c>
       <c r="R148" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S148" s="6">
         <v>10022</v>
       </c>
       <c r="U148" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="V148" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="V148" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="W148">
         <v>36</v>
@@ -15748,21 +15743,21 @@
         <v>120</v>
       </c>
       <c r="AL148" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM148" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AO148" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B149" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D149">
         <v>26</v>
@@ -15814,16 +15809,16 @@
         <v>12</v>
       </c>
       <c r="R149" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S149" s="6">
         <v>15009</v>
       </c>
       <c r="U149" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="V149" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="V149" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="W149">
         <v>37</v>
@@ -15875,10 +15870,10 @@
         <v>125</v>
       </c>
       <c r="AL149" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM149" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.15">
@@ -15887,10 +15882,10 @@
       <c r="R150" s="6"/>
       <c r="S150" s="6"/>
       <c r="U150" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="V150" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="V150" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="W150">
         <v>39</v>
@@ -15945,12 +15940,12 @@
         <v>63</v>
       </c>
       <c r="AM150" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B151" s="15"/>
       <c r="U151" s="15"/>
@@ -15958,7 +15953,7 @@
     </row>
     <row r="152" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B152" s="15" t="s">
         <v>1</v>
@@ -16019,10 +16014,10 @@
         <v>57</v>
       </c>
       <c r="U152" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="V152" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="V152" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="W152">
         <v>12</v>
@@ -16074,21 +16069,21 @@
         <v>0</v>
       </c>
       <c r="AL152" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM152" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="AM152" s="11" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="D153" s="9">
         <v>1</v>
@@ -16140,16 +16135,16 @@
         <v>0</v>
       </c>
       <c r="R153" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="S153" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="S153" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="U153" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="V153" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="V153" s="11" t="s">
-        <v>443</v>
       </c>
       <c r="W153">
         <v>12</v>
@@ -16201,21 +16196,21 @@
         <v>0</v>
       </c>
       <c r="AL153" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM153" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="AM153" s="11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B154" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>455</v>
       </c>
       <c r="D154" s="9">
         <v>1</v>
@@ -16267,16 +16262,16 @@
         <v>0</v>
       </c>
       <c r="R154" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="S154" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="S154" s="11" t="s">
-        <v>457</v>
-      </c>
       <c r="U154" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="V154" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="V154" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="W154">
         <v>12</v>
@@ -16328,21 +16323,21 @@
         <v>0</v>
       </c>
       <c r="AL154" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM154" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="AM154" s="11" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U155" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="V155" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="V155" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="W155">
         <v>12</v>
@@ -16394,25 +16389,25 @@
         <v>0</v>
       </c>
       <c r="AL155" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM155" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="AM155" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6"/>
       <c r="U156" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="V156" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="V156" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="W156">
         <v>12</v>
@@ -16467,22 +16462,22 @@
         <v>93</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6"/>
       <c r="U157" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="V157" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="V157" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="W157">
         <v>12</v>
@@ -16537,22 +16532,22 @@
         <v>63</v>
       </c>
       <c r="AM157" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6"/>
       <c r="U158" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="V158" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="V158" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="W158">
         <v>12</v>
@@ -16607,20 +16602,20 @@
         <v>93</v>
       </c>
       <c r="AM158" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B160" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D160" s="7">
         <v>25</v>
@@ -16668,13 +16663,13 @@
         <v>100205</v>
       </c>
       <c r="S160" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U160" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="V160" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="V160" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="W160">
         <v>35</v>
@@ -16726,24 +16721,24 @@
         <v>0</v>
       </c>
       <c r="AL160" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM160" s="6">
         <v>15007</v>
       </c>
       <c r="AN160" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO160" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B161" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="D161">
         <v>35</v>
@@ -16795,16 +16790,16 @@
         <v>9</v>
       </c>
       <c r="R161" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S161" s="6">
         <v>10023</v>
       </c>
       <c r="U161" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="V161" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="W161">
         <v>36</v>
@@ -16859,19 +16854,19 @@
         <v>63</v>
       </c>
       <c r="AM161" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO161" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R162" s="5"/>
       <c r="U162" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="V162" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="V162" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="W162">
         <v>37</v>
@@ -16926,16 +16921,16 @@
         <v>93</v>
       </c>
       <c r="AM162" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R163" s="5"/>
       <c r="U163" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V163" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W163">
         <v>36</v>
@@ -16990,20 +16985,20 @@
         <v>93</v>
       </c>
       <c r="AM163" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B165" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="D165">
         <v>20</v>
@@ -17055,16 +17050,16 @@
         <v>0</v>
       </c>
       <c r="R165" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="S165" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U165" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="V165" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="V165" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="W165">
         <v>46</v>
@@ -17116,18 +17111,18 @@
         <v>267</v>
       </c>
       <c r="AL165" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM165" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B166" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D166">
         <v>15</v>
@@ -17179,16 +17174,16 @@
         <v>0</v>
       </c>
       <c r="R166" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="S166" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="S166" s="6" t="s">
+      <c r="U166" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="U166" s="16" t="s">
+      <c r="V166" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="V166" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="W166">
         <v>46</v>
@@ -17243,7 +17238,7 @@
         <v>93</v>
       </c>
       <c r="AM166" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.15">
@@ -17306,13 +17301,13 @@
         <v>100105</v>
       </c>
       <c r="S167" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U167" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V167" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W167">
         <v>47</v>
@@ -17364,10 +17359,10 @@
         <v>45</v>
       </c>
       <c r="AL167" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AM167" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.15">
@@ -17430,13 +17425,13 @@
         <v>101105</v>
       </c>
       <c r="S168" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U168" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="V168" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="V168" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="W168">
         <v>48</v>
@@ -17491,15 +17486,15 @@
         <v>93</v>
       </c>
       <c r="AM168" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B169" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D169">
         <v>35</v>
@@ -17547,7 +17542,7 @@
         <v>102205</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U169" s="16"/>
       <c r="V169" s="6"/>
@@ -17556,10 +17551,10 @@
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B170" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D170">
         <v>35</v>
@@ -17607,7 +17602,7 @@
         <v>104105</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U170" s="16"/>
       <c r="V170" s="6"/>
@@ -17616,10 +17611,10 @@
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B171" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D171">
         <v>35</v>
@@ -17667,7 +17662,7 @@
         <v>105105</v>
       </c>
       <c r="S171" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U171" s="16"/>
       <c r="V171" s="6"/>
@@ -17676,10 +17671,10 @@
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B172" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D172">
         <v>35</v>
@@ -17727,7 +17722,7 @@
         <v>100205</v>
       </c>
       <c r="S172" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U172" s="16"/>
       <c r="V172" s="6"/>
@@ -17736,7 +17731,7 @@
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.15">
@@ -17799,13 +17794,13 @@
         <v>100105</v>
       </c>
       <c r="S174" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U174" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="W174">
         <v>45</v>
@@ -17857,16 +17852,16 @@
         <v>105</v>
       </c>
       <c r="AL174" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM174" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AN174" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO174" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.15">
@@ -17929,13 +17924,13 @@
         <v>101105</v>
       </c>
       <c r="S175" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U175" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="V175" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="V175" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="W175">
         <v>45</v>
@@ -17987,21 +17982,21 @@
         <v>100</v>
       </c>
       <c r="AL175" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM175" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AN175" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B176" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D176">
         <v>40</v>
@@ -18049,13 +18044,13 @@
         <v>102205</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U176" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="W176">
         <v>50</v>
@@ -18110,18 +18105,18 @@
         <v>93</v>
       </c>
       <c r="AM176" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN176" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B177" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D177">
         <v>40</v>
@@ -18169,13 +18164,13 @@
         <v>104105</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U177" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="V177" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="W177">
         <v>46</v>
@@ -18230,18 +18225,18 @@
         <v>126</v>
       </c>
       <c r="AM177" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AO177" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B178" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D178">
         <v>40</v>
@@ -18289,13 +18284,13 @@
         <v>105105</v>
       </c>
       <c r="S178" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U178" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="V178" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="V178" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="W178">
         <v>46</v>
@@ -18347,18 +18342,18 @@
         <v>300</v>
       </c>
       <c r="AL178" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM178" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="AM178" s="6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="179" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B179" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D179">
         <v>40</v>
@@ -18406,13 +18401,13 @@
         <v>100205</v>
       </c>
       <c r="S179" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U179" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="V179" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="V179" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="W179">
         <v>46</v>
@@ -18467,16 +18462,16 @@
         <v>126</v>
       </c>
       <c r="AM179" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R180" s="5"/>
       <c r="U180" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="V180" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="V180" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="W180">
         <v>46</v>
@@ -18528,15 +18523,15 @@
         <v>0</v>
       </c>
       <c r="AL180" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM180" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="181" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.15">
@@ -18599,13 +18594,13 @@
         <v>100105</v>
       </c>
       <c r="S182" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U182" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="V182" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="V182" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="W182">
         <v>60</v>
@@ -18660,13 +18655,13 @@
         <v>93</v>
       </c>
       <c r="AM182" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AN182" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO182" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.15">
@@ -18729,13 +18724,13 @@
         <v>101105</v>
       </c>
       <c r="S183" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U183" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="W183">
         <v>80</v>
@@ -18787,24 +18782,24 @@
         <v>0</v>
       </c>
       <c r="AL183" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM183" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN183" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AO183" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="184" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B184" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D184">
         <v>45</v>
@@ -18852,13 +18847,13 @@
         <v>102205</v>
       </c>
       <c r="S184" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U184" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W184">
         <v>51</v>
@@ -18913,15 +18908,15 @@
         <v>63</v>
       </c>
       <c r="AM184" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B185" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D185">
         <v>45</v>
@@ -18969,13 +18964,13 @@
         <v>104105</v>
       </c>
       <c r="S185" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U185" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="W185">
         <v>51</v>
@@ -19030,15 +19025,15 @@
         <v>176</v>
       </c>
       <c r="AM185" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B186" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D186">
         <v>45</v>
@@ -19086,13 +19081,13 @@
         <v>105105</v>
       </c>
       <c r="S186" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U186" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V186" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W186">
         <v>51</v>
@@ -19147,15 +19142,15 @@
         <v>63</v>
       </c>
       <c r="AM186" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B187" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="D187">
         <v>45</v>
@@ -19203,13 +19198,13 @@
         <v>100205</v>
       </c>
       <c r="S187" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U187" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="W187">
         <v>51</v>
@@ -19261,19 +19256,19 @@
         <v>269</v>
       </c>
       <c r="AL187" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM187" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.15">
       <c r="R188" s="5"/>
       <c r="U188" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V188" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W188">
         <v>51</v>
@@ -19325,10 +19320,271 @@
         <v>276</v>
       </c>
       <c r="AL188" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM188" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AM188" s="6" t="s">
-        <v>542</v>
+    </row>
+    <row r="189" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B189" s="15"/>
+      <c r="U189" s="15"/>
+    </row>
+    <row r="190" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="8"/>
+      <c r="B190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="9">
+        <v>11</v>
+      </c>
+      <c r="E190" s="9">
+        <f>1+(D190-1)*0.25</f>
+        <v>3.5</v>
+      </c>
+      <c r="F190" s="9">
+        <f>INT(200+POWER(E190+(G190*0.25)+1,2)*30)</f>
+        <v>807</v>
+      </c>
+      <c r="G190" s="9">
+        <v>0</v>
+      </c>
+      <c r="H190" s="9">
+        <f>INT(POWER(E190+(I190*0.25)+4,2)*3)</f>
+        <v>168</v>
+      </c>
+      <c r="I190" s="9">
+        <v>0</v>
+      </c>
+      <c r="J190" s="9">
+        <f>INT(50+(E190+(K190*0.25)-1)*POWER(E190+(K190*0.25),0.5)*10)</f>
+        <v>96</v>
+      </c>
+      <c r="K190" s="9">
+        <v>0</v>
+      </c>
+      <c r="L190" s="9">
+        <f>INT(POWER(E190+(M190*0.25)+4,2)*3)</f>
+        <v>168</v>
+      </c>
+      <c r="M190" s="9">
+        <v>0</v>
+      </c>
+      <c r="N190" s="9">
+        <f>INT(50+(E190+(O190*0.25)-1)*POWER(E190